--- a/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BE37D6-950A-4F31-8546-DF97CF559152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D8C627-FBF8-49AE-AA32-E8B0348895F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="7">
   <si>
     <t>enkeltløkke</t>
   </si>
@@ -52,6 +52,12 @@
   <si>
     <t>målt længde</t>
   </si>
+  <si>
+    <t>Kraft</t>
+  </si>
+  <si>
+    <t>Dobbeltløkke</t>
+  </si>
 </sst>
 </file>
 
@@ -66,12 +72,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,9 +98,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -109,7 +123,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -146,7 +160,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -422,7 +436,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1921848191"/>
@@ -484,7 +498,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1921847775"/>
@@ -532,7 +546,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1103,16 +1117,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1403,30 +1417,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>47</v>
+      </c>
+      <c r="M3">
+        <v>58</v>
+      </c>
+      <c r="Q3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1442,8 +1477,38 @@
       <c r="F5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
@@ -1464,8 +1529,38 @@
         <f>F6-$F$30</f>
         <v>369</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>355</v>
+      </c>
+      <c r="K6">
+        <f>J6-$J$30</f>
+        <v>296</v>
+      </c>
+      <c r="M6">
+        <v>15</v>
+      </c>
+      <c r="N6">
+        <v>424</v>
+      </c>
+      <c r="O6">
+        <f>N6-$N$31</f>
+        <v>359</v>
+      </c>
+      <c r="Q6">
+        <v>15</v>
+      </c>
+      <c r="R6">
+        <v>421</v>
+      </c>
+      <c r="S6">
+        <f>R6-$R$31</f>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14</v>
       </c>
@@ -1486,8 +1581,38 @@
         <f t="shared" ref="G7:G30" si="1">F7-$F$30</f>
         <v>367</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>354</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K30" si="2">J7-$J$30</f>
+        <v>295</v>
+      </c>
+      <c r="M7">
+        <v>14</v>
+      </c>
+      <c r="N7">
+        <v>422</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:O31" si="3">N7-$N$31</f>
+        <v>357</v>
+      </c>
+      <c r="Q7">
+        <v>14</v>
+      </c>
+      <c r="R7">
+        <v>420</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S7:S31" si="4">R7-$R$31</f>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>13</v>
       </c>
@@ -1508,8 +1633,38 @@
         <f t="shared" si="1"/>
         <v>366</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>352.5</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>293.5</v>
+      </c>
+      <c r="M8">
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <v>420</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>355</v>
+      </c>
+      <c r="Q8">
+        <v>13</v>
+      </c>
+      <c r="R8">
+        <v>418</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12</v>
       </c>
@@ -1530,8 +1685,38 @@
         <f t="shared" si="1"/>
         <v>364</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>350</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>291</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="N9">
+        <v>418</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>353</v>
+      </c>
+      <c r="Q9">
+        <v>12</v>
+      </c>
+      <c r="R9">
+        <v>416</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -1552,8 +1737,38 @@
         <f t="shared" si="1"/>
         <v>361</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>11</v>
+      </c>
+      <c r="J10">
+        <v>348</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>289</v>
+      </c>
+      <c r="M10">
+        <v>11</v>
+      </c>
+      <c r="N10">
+        <v>415</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="Q10">
+        <v>11</v>
+      </c>
+      <c r="R10">
+        <v>413</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1574,8 +1789,38 @@
         <f t="shared" si="1"/>
         <v>358</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>346</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>287</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>413</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>348</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <v>411</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="4"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1596,8 +1841,38 @@
         <f t="shared" si="1"/>
         <v>355</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>343</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>284</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12">
+        <v>410</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>345</v>
+      </c>
+      <c r="Q12">
+        <v>9</v>
+      </c>
+      <c r="R12">
+        <v>408</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1618,8 +1893,38 @@
         <f t="shared" si="1"/>
         <v>352</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>340</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>281</v>
+      </c>
+      <c r="M13">
+        <v>8</v>
+      </c>
+      <c r="N13">
+        <v>407</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>342</v>
+      </c>
+      <c r="Q13">
+        <v>8</v>
+      </c>
+      <c r="R13">
+        <v>405</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="4"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1640,8 +1945,38 @@
         <f t="shared" si="1"/>
         <v>348</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>336</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>277</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <v>402</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>337</v>
+      </c>
+      <c r="Q14">
+        <v>7</v>
+      </c>
+      <c r="R14">
+        <v>401</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="4"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1662,8 +1997,38 @@
         <f t="shared" si="1"/>
         <v>344</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>332</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>273</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>397</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>332</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15">
+        <v>395</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="4"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1684,8 +2049,38 @@
         <f t="shared" si="1"/>
         <v>338</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>326</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>267</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>391</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>326</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <v>389</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="4"/>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1706,8 +2101,38 @@
         <f t="shared" si="1"/>
         <v>334</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>4.5</v>
+      </c>
+      <c r="J17">
+        <v>321</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>262</v>
+      </c>
+      <c r="M17">
+        <v>4.5</v>
+      </c>
+      <c r="N17">
+        <v>388</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>323</v>
+      </c>
+      <c r="Q17">
+        <v>4.5</v>
+      </c>
+      <c r="R17">
+        <v>385</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="4"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1728,8 +2153,38 @@
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I18" s="1">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>315</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="M18" s="1">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>382</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>317</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>379</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="4"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2.5</v>
       </c>
@@ -1750,8 +2205,38 @@
         <f t="shared" si="1"/>
         <v>323</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>3.5</v>
+      </c>
+      <c r="J19">
+        <v>305</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="M19">
+        <v>3.5</v>
+      </c>
+      <c r="N19">
+        <v>375</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>310</v>
+      </c>
+      <c r="Q19">
+        <v>3.5</v>
+      </c>
+      <c r="R19">
+        <v>373</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1772,8 +2257,38 @@
         <f t="shared" si="1"/>
         <v>314</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>281</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>222</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>359</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="3"/>
+        <v>294</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>364</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.5</v>
       </c>
@@ -1794,8 +2309,38 @@
         <f t="shared" si="1"/>
         <v>294</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>2.5</v>
+      </c>
+      <c r="J21">
+        <v>241</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="M21">
+        <v>2.5</v>
+      </c>
+      <c r="N21">
+        <v>337</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="3"/>
+        <v>272</v>
+      </c>
+      <c r="Q21">
+        <v>2.5</v>
+      </c>
+      <c r="R21">
+        <v>336</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="4"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1816,8 +2361,38 @@
         <f t="shared" si="1"/>
         <v>232</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>173</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="M22">
+        <v>2.25</v>
+      </c>
+      <c r="N22">
+        <v>260</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="Q22">
+        <v>2.25</v>
+      </c>
+      <c r="R22">
+        <v>297</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="4"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.5</v>
       </c>
@@ -1838,8 +2413,38 @@
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>1.75</v>
+      </c>
+      <c r="J23">
+        <v>140</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>244</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>179</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <v>268</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="4"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.25</v>
       </c>
@@ -1860,8 +2465,38 @@
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>1.5</v>
+      </c>
+      <c r="J24">
+        <v>121</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="M24">
+        <v>1.75</v>
+      </c>
+      <c r="N24">
+        <v>189</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="Q24">
+        <v>1.75</v>
+      </c>
+      <c r="R24">
+        <v>192</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1882,8 +2517,38 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>1.25</v>
+      </c>
+      <c r="J25">
+        <v>104</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="M25">
+        <v>1.5</v>
+      </c>
+      <c r="N25">
+        <v>154</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="Q25">
+        <v>1.5</v>
+      </c>
+      <c r="R25">
+        <v>149</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E26">
         <v>1</v>
       </c>
@@ -1894,8 +2559,38 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>90</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="M26">
+        <v>1.25</v>
+      </c>
+      <c r="N26">
+        <v>125</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="Q26">
+        <v>1.25</v>
+      </c>
+      <c r="R26">
+        <v>123</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E27">
         <v>0.75</v>
       </c>
@@ -1906,8 +2601,38 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>0.75</v>
+      </c>
+      <c r="J27">
+        <v>80</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>111</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>106</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E28">
         <v>0.5</v>
       </c>
@@ -1918,8 +2643,38 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>0.5</v>
+      </c>
+      <c r="J28">
+        <v>74</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="M28">
+        <v>0.75</v>
+      </c>
+      <c r="N28">
+        <v>92</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="Q28">
+        <v>0.75</v>
+      </c>
+      <c r="R28">
+        <v>89</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E29">
         <v>0.25</v>
       </c>
@@ -1930,8 +2685,38 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>0.25</v>
+      </c>
+      <c r="J29">
+        <v>65</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>0.5</v>
+      </c>
+      <c r="N29">
+        <v>82</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="Q29">
+        <v>0.5</v>
+      </c>
+      <c r="R29">
+        <v>79</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E30">
         <v>0</v>
       </c>
@@ -1940,6 +2725,1376 @@
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>59</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0.25</v>
+      </c>
+      <c r="N30">
+        <v>72</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="Q30">
+        <v>0.25</v>
+      </c>
+      <c r="R30">
+        <v>70.5</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>65</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>63</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>60</v>
+      </c>
+      <c r="E37">
+        <v>60</v>
+      </c>
+      <c r="I37">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39" t="s">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>4</v>
+      </c>
+      <c r="O39" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s">
+        <v>4</v>
+      </c>
+      <c r="S39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>181</v>
+      </c>
+      <c r="C40">
+        <f>B40-$R$65</f>
+        <v>181</v>
+      </c>
+      <c r="E40">
+        <v>15</v>
+      </c>
+      <c r="F40">
+        <v>188</v>
+      </c>
+      <c r="G40">
+        <f>F40-$R$65</f>
+        <v>188</v>
+      </c>
+      <c r="I40">
+        <v>15</v>
+      </c>
+      <c r="J40">
+        <v>175</v>
+      </c>
+      <c r="K40">
+        <f>J40-$R$65</f>
+        <v>175</v>
+      </c>
+      <c r="M40">
+        <v>15</v>
+      </c>
+      <c r="O40">
+        <f>N40-$N$65</f>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>15</v>
+      </c>
+      <c r="S40">
+        <f>R40-$R$65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41">
+        <v>180</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:C69" si="5">B41-$R$65</f>
+        <v>180</v>
+      </c>
+      <c r="E41">
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>187</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41:G65" si="6">F41-$R$65</f>
+        <v>187</v>
+      </c>
+      <c r="I41">
+        <v>14</v>
+      </c>
+      <c r="J41">
+        <v>174.5</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ref="K41:K65" si="7">J41-$R$65</f>
+        <v>174.5</v>
+      </c>
+      <c r="M41">
+        <v>14</v>
+      </c>
+      <c r="O41">
+        <f t="shared" ref="O41:O65" si="8">N41-$N$65</f>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>14</v>
+      </c>
+      <c r="S41">
+        <f t="shared" ref="S41:S65" si="9">R41-$R$65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>179</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="5"/>
+        <v>179</v>
+      </c>
+      <c r="E42">
+        <v>13</v>
+      </c>
+      <c r="F42">
+        <v>186</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="6"/>
+        <v>186</v>
+      </c>
+      <c r="I42">
+        <v>13</v>
+      </c>
+      <c r="J42">
+        <v>174</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="7"/>
+        <v>174</v>
+      </c>
+      <c r="M42">
+        <v>13</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>13</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="B43">
+        <v>178</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>178</v>
+      </c>
+      <c r="E43">
+        <v>12</v>
+      </c>
+      <c r="F43">
+        <v>185</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="6"/>
+        <v>185</v>
+      </c>
+      <c r="I43">
+        <v>12</v>
+      </c>
+      <c r="J43">
+        <v>173</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="7"/>
+        <v>173</v>
+      </c>
+      <c r="M43">
+        <v>12</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>12</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>177</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>177</v>
+      </c>
+      <c r="E44">
+        <v>11</v>
+      </c>
+      <c r="F44">
+        <v>184</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="6"/>
+        <v>184</v>
+      </c>
+      <c r="I44">
+        <v>11</v>
+      </c>
+      <c r="J44">
+        <v>171.5</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="7"/>
+        <v>171.5</v>
+      </c>
+      <c r="M44">
+        <v>11</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>11</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>175</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="5"/>
+        <v>175</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>182.5</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="6"/>
+        <v>182.5</v>
+      </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <v>170</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="7"/>
+        <v>170</v>
+      </c>
+      <c r="M45">
+        <v>10</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>10</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>174</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="5"/>
+        <v>174</v>
+      </c>
+      <c r="E46">
+        <v>9</v>
+      </c>
+      <c r="F46">
+        <v>180</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="6"/>
+        <v>180</v>
+      </c>
+      <c r="I46">
+        <v>9</v>
+      </c>
+      <c r="J46">
+        <v>168</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="7"/>
+        <v>168</v>
+      </c>
+      <c r="M46">
+        <v>9</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>9</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>171</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="5"/>
+        <v>171</v>
+      </c>
+      <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>178</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="6"/>
+        <v>178</v>
+      </c>
+      <c r="I47">
+        <v>8</v>
+      </c>
+      <c r="J47">
+        <v>165.5</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="7"/>
+        <v>165.5</v>
+      </c>
+      <c r="M47">
+        <v>8</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>8</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>167</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>174</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="6"/>
+        <v>174</v>
+      </c>
+      <c r="I48">
+        <v>7</v>
+      </c>
+      <c r="J48">
+        <v>161</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="7"/>
+        <v>161</v>
+      </c>
+      <c r="M48">
+        <v>7</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>7</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>159</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="5"/>
+        <v>159</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>166</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="6"/>
+        <v>166</v>
+      </c>
+      <c r="I49">
+        <v>6</v>
+      </c>
+      <c r="J49">
+        <v>155</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="7"/>
+        <v>155</v>
+      </c>
+      <c r="M49">
+        <v>6</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>6</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>144</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>150</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>141</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="7"/>
+        <v>141</v>
+      </c>
+      <c r="M50">
+        <v>5</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>5</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4.5</v>
+      </c>
+      <c r="B51">
+        <v>133</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="5"/>
+        <v>133</v>
+      </c>
+      <c r="E51">
+        <v>4.5</v>
+      </c>
+      <c r="F51">
+        <v>138</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="6"/>
+        <v>138</v>
+      </c>
+      <c r="I51">
+        <v>4.5</v>
+      </c>
+      <c r="J51">
+        <v>131</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="7"/>
+        <v>131</v>
+      </c>
+      <c r="M51">
+        <v>4.5</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>4.5</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="B52">
+        <v>125</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="5"/>
+        <v>125</v>
+      </c>
+      <c r="E52" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="F52">
+        <v>134</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="6"/>
+        <v>134</v>
+      </c>
+      <c r="I52" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="J52">
+        <v>128</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="M52" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>118</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="5"/>
+        <v>118</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>125</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>120</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="M53">
+        <v>4</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>4</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3.75</v>
+      </c>
+      <c r="B54">
+        <v>111</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="E54">
+        <v>3.75</v>
+      </c>
+      <c r="F54">
+        <v>115</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="6"/>
+        <v>115</v>
+      </c>
+      <c r="I54">
+        <v>3.75</v>
+      </c>
+      <c r="J54">
+        <v>112</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="7"/>
+        <v>112</v>
+      </c>
+      <c r="M54">
+        <v>3.75</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>3.75</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3.5</v>
+      </c>
+      <c r="B55">
+        <v>108</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
+      <c r="E55">
+        <v>3.5</v>
+      </c>
+      <c r="F55">
+        <v>112</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="I55">
+        <v>3.5</v>
+      </c>
+      <c r="J55">
+        <v>109</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="7"/>
+        <v>109</v>
+      </c>
+      <c r="M55">
+        <v>3.5</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>3.5</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3.25</v>
+      </c>
+      <c r="B56">
+        <v>102</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+      <c r="E56">
+        <v>3.25</v>
+      </c>
+      <c r="F56">
+        <v>105</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="I56">
+        <v>3.25</v>
+      </c>
+      <c r="J56">
+        <v>104</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="7"/>
+        <v>104</v>
+      </c>
+      <c r="M56">
+        <v>3.25</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>3.25</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>96</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>99</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>98.5</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="7"/>
+        <v>98.5</v>
+      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>3</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2.75</v>
+      </c>
+      <c r="B58">
+        <v>92</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="E58">
+        <v>2.75</v>
+      </c>
+      <c r="F58">
+        <v>96</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="I58">
+        <v>2.75</v>
+      </c>
+      <c r="J58">
+        <v>94</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="M58">
+        <v>2.75</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>2.75</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2.5</v>
+      </c>
+      <c r="B59">
+        <v>88</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="E59">
+        <v>2.5</v>
+      </c>
+      <c r="F59">
+        <v>92</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="I59">
+        <v>2.5</v>
+      </c>
+      <c r="J59">
+        <v>92</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="M59">
+        <v>2.5</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>2.5</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2.25</v>
+      </c>
+      <c r="B60">
+        <v>87</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="E60">
+        <v>2.25</v>
+      </c>
+      <c r="F60">
+        <v>89.5</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="6"/>
+        <v>89.5</v>
+      </c>
+      <c r="I60">
+        <v>2.25</v>
+      </c>
+      <c r="J60">
+        <v>89</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="7"/>
+        <v>89</v>
+      </c>
+      <c r="M60">
+        <v>2.25</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>2.25</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>83</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>86</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>85</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1.5</v>
+      </c>
+      <c r="B62">
+        <v>78</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="E62">
+        <v>1.5</v>
+      </c>
+      <c r="F62">
+        <v>80</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="I62">
+        <v>1.5</v>
+      </c>
+      <c r="J62">
+        <v>78</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="M62">
+        <v>1.5</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>74</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>75</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>74</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.5</v>
+      </c>
+      <c r="B64">
+        <v>70</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="E64">
+        <v>0.5</v>
+      </c>
+      <c r="F64">
+        <v>71</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="I64">
+        <v>0.5</v>
+      </c>
+      <c r="J64">
+        <v>69</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="M64">
+        <v>0.5</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0.5</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>66</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>66</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>64</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>

--- a/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D8C627-FBF8-49AE-AA32-E8B0348895F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A9A051-BFB0-4069-ACDC-2C353B23DB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,11 +98,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,7 +556,629 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kraft som funktion af forlængelsen</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Kraft-forlængelse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$O$40:$O$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$M$40:$M$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-189D-425D-87A5-4CBEDC24E12B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1354690303"/>
+        <c:axId val="1354692383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1354690303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1600"/>
+                  <a:t>Forlængelse [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1354692383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1354692383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1400"/>
+                  <a:t>Kraft</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1400" baseline="0"/>
+                  <a:t> [N]</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1354690303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1113,6 +1734,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1146,6 +2283,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{044E9847-380D-D652-C13A-1E5AF6A25E41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1419,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="E33" workbookViewId="0">
+      <selection activeCell="V59" sqref="V59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2801,27 +3974,6 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-    </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
@@ -2854,6 +4006,12 @@
       <c r="I37">
         <v>61.5</v>
       </c>
+      <c r="M37">
+        <v>59</v>
+      </c>
+      <c r="Q37">
+        <v>60</v>
+      </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -2911,7 +4069,7 @@
       </c>
       <c r="C40">
         <f>B40-$R$65</f>
-        <v>181</v>
+        <v>116.5</v>
       </c>
       <c r="E40">
         <v>15</v>
@@ -2921,7 +4079,7 @@
       </c>
       <c r="G40">
         <f>F40-$R$65</f>
-        <v>188</v>
+        <v>123.5</v>
       </c>
       <c r="I40">
         <v>15</v>
@@ -2931,21 +4089,27 @@
       </c>
       <c r="K40">
         <f>J40-$R$65</f>
-        <v>175</v>
+        <v>110.5</v>
       </c>
       <c r="M40">
         <v>15</v>
       </c>
+      <c r="N40">
+        <v>157</v>
+      </c>
       <c r="O40">
         <f>N40-$N$65</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="Q40">
         <v>15</v>
       </c>
+      <c r="R40">
+        <v>153</v>
+      </c>
       <c r="S40">
         <f>R40-$R$65</f>
-        <v>0</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -2956,8 +4120,8 @@
         <v>180</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:C69" si="5">B41-$R$65</f>
-        <v>180</v>
+        <f t="shared" ref="C41:C65" si="5">B41-$R$65</f>
+        <v>115.5</v>
       </c>
       <c r="E41">
         <v>14</v>
@@ -2967,7 +4131,7 @@
       </c>
       <c r="G41">
         <f t="shared" ref="G41:G65" si="6">F41-$R$65</f>
-        <v>187</v>
+        <v>122.5</v>
       </c>
       <c r="I41">
         <v>14</v>
@@ -2977,21 +4141,27 @@
       </c>
       <c r="K41">
         <f t="shared" ref="K41:K65" si="7">J41-$R$65</f>
-        <v>174.5</v>
+        <v>110</v>
       </c>
       <c r="M41">
         <v>14</v>
       </c>
+      <c r="N41">
+        <v>156.5</v>
+      </c>
       <c r="O41">
         <f t="shared" ref="O41:O65" si="8">N41-$N$65</f>
-        <v>0</v>
+        <v>91.5</v>
       </c>
       <c r="Q41">
         <v>14</v>
       </c>
+      <c r="R41">
+        <v>152</v>
+      </c>
       <c r="S41">
         <f t="shared" ref="S41:S65" si="9">R41-$R$65</f>
-        <v>0</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -3003,7 +4173,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="5"/>
-        <v>179</v>
+        <v>114.5</v>
       </c>
       <c r="E42">
         <v>13</v>
@@ -3013,7 +4183,7 @@
       </c>
       <c r="G42">
         <f t="shared" si="6"/>
-        <v>186</v>
+        <v>121.5</v>
       </c>
       <c r="I42">
         <v>13</v>
@@ -3023,21 +4193,27 @@
       </c>
       <c r="K42">
         <f t="shared" si="7"/>
-        <v>174</v>
+        <v>109.5</v>
       </c>
       <c r="M42">
         <v>13</v>
       </c>
+      <c r="N42">
+        <v>156</v>
+      </c>
       <c r="O42">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="Q42">
         <v>13</v>
       </c>
+      <c r="R42">
+        <v>151</v>
+      </c>
       <c r="S42">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -3049,7 +4225,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="5"/>
-        <v>178</v>
+        <v>113.5</v>
       </c>
       <c r="E43">
         <v>12</v>
@@ -3059,7 +4235,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="6"/>
-        <v>185</v>
+        <v>120.5</v>
       </c>
       <c r="I43">
         <v>12</v>
@@ -3069,21 +4245,27 @@
       </c>
       <c r="K43">
         <f t="shared" si="7"/>
-        <v>173</v>
+        <v>108.5</v>
       </c>
       <c r="M43">
         <v>12</v>
       </c>
+      <c r="N43">
+        <v>155</v>
+      </c>
       <c r="O43">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Q43">
         <v>12</v>
       </c>
+      <c r="R43">
+        <v>150</v>
+      </c>
       <c r="S43">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -3095,7 +4277,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="5"/>
-        <v>177</v>
+        <v>112.5</v>
       </c>
       <c r="E44">
         <v>11</v>
@@ -3105,7 +4287,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="6"/>
-        <v>184</v>
+        <v>119.5</v>
       </c>
       <c r="I44">
         <v>11</v>
@@ -3115,21 +4297,27 @@
       </c>
       <c r="K44">
         <f t="shared" si="7"/>
-        <v>171.5</v>
+        <v>107</v>
       </c>
       <c r="M44">
         <v>11</v>
       </c>
+      <c r="N44">
+        <v>153.5</v>
+      </c>
       <c r="O44">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>88.5</v>
       </c>
       <c r="Q44">
         <v>11</v>
       </c>
+      <c r="R44">
+        <v>149</v>
+      </c>
       <c r="S44">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -3141,7 +4329,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="5"/>
-        <v>175</v>
+        <v>110.5</v>
       </c>
       <c r="E45">
         <v>10</v>
@@ -3151,7 +4339,7 @@
       </c>
       <c r="G45">
         <f t="shared" si="6"/>
-        <v>182.5</v>
+        <v>118</v>
       </c>
       <c r="I45">
         <v>10</v>
@@ -3161,21 +4349,27 @@
       </c>
       <c r="K45">
         <f t="shared" si="7"/>
-        <v>170</v>
+        <v>105.5</v>
       </c>
       <c r="M45">
         <v>10</v>
       </c>
+      <c r="N45">
+        <v>152</v>
+      </c>
       <c r="O45">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="Q45">
         <v>10</v>
       </c>
+      <c r="R45">
+        <v>147.5</v>
+      </c>
       <c r="S45">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -3187,7 +4381,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="5"/>
-        <v>174</v>
+        <v>109.5</v>
       </c>
       <c r="E46">
         <v>9</v>
@@ -3197,7 +4391,7 @@
       </c>
       <c r="G46">
         <f t="shared" si="6"/>
-        <v>180</v>
+        <v>115.5</v>
       </c>
       <c r="I46">
         <v>9</v>
@@ -3207,21 +4401,27 @@
       </c>
       <c r="K46">
         <f t="shared" si="7"/>
-        <v>168</v>
+        <v>103.5</v>
       </c>
       <c r="M46">
         <v>9</v>
       </c>
+      <c r="N46">
+        <v>150.5</v>
+      </c>
       <c r="O46">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>85.5</v>
       </c>
       <c r="Q46">
         <v>9</v>
       </c>
+      <c r="R46">
+        <v>146</v>
+      </c>
       <c r="S46">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -3233,7 +4433,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="5"/>
-        <v>171</v>
+        <v>106.5</v>
       </c>
       <c r="E47">
         <v>8</v>
@@ -3243,7 +4443,7 @@
       </c>
       <c r="G47">
         <f t="shared" si="6"/>
-        <v>178</v>
+        <v>113.5</v>
       </c>
       <c r="I47">
         <v>8</v>
@@ -3253,21 +4453,27 @@
       </c>
       <c r="K47">
         <f t="shared" si="7"/>
-        <v>165.5</v>
+        <v>101</v>
       </c>
       <c r="M47">
         <v>8</v>
       </c>
+      <c r="N47">
+        <v>148</v>
+      </c>
       <c r="O47">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="Q47">
         <v>8</v>
       </c>
+      <c r="R47">
+        <v>143.5</v>
+      </c>
       <c r="S47">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -3279,7 +4485,7 @@
       </c>
       <c r="C48">
         <f t="shared" si="5"/>
-        <v>167</v>
+        <v>102.5</v>
       </c>
       <c r="E48">
         <v>7</v>
@@ -3289,7 +4495,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="6"/>
-        <v>174</v>
+        <v>109.5</v>
       </c>
       <c r="I48">
         <v>7</v>
@@ -3299,21 +4505,27 @@
       </c>
       <c r="K48">
         <f t="shared" si="7"/>
-        <v>161</v>
+        <v>96.5</v>
       </c>
       <c r="M48">
         <v>7</v>
       </c>
+      <c r="N48">
+        <v>143.5</v>
+      </c>
       <c r="O48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>78.5</v>
       </c>
       <c r="Q48">
         <v>7</v>
       </c>
+      <c r="R48">
+        <v>139</v>
+      </c>
       <c r="S48">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -3325,7 +4537,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="5"/>
-        <v>159</v>
+        <v>94.5</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -3335,7 +4547,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="6"/>
-        <v>166</v>
+        <v>101.5</v>
       </c>
       <c r="I49">
         <v>6</v>
@@ -3345,21 +4557,27 @@
       </c>
       <c r="K49">
         <f t="shared" si="7"/>
-        <v>155</v>
+        <v>90.5</v>
       </c>
       <c r="M49">
         <v>6</v>
       </c>
+      <c r="N49">
+        <v>135.5</v>
+      </c>
       <c r="O49">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="Q49">
         <v>6</v>
       </c>
+      <c r="R49">
+        <v>131</v>
+      </c>
       <c r="S49">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -3371,7 +4589,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="5"/>
-        <v>144</v>
+        <v>79.5</v>
       </c>
       <c r="E50">
         <v>5</v>
@@ -3381,7 +4599,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="6"/>
-        <v>150</v>
+        <v>85.5</v>
       </c>
       <c r="I50">
         <v>5</v>
@@ -3391,21 +4609,27 @@
       </c>
       <c r="K50">
         <f t="shared" si="7"/>
-        <v>141</v>
+        <v>76.5</v>
       </c>
       <c r="M50">
         <v>5</v>
       </c>
+      <c r="N50">
+        <v>121</v>
+      </c>
       <c r="O50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q50">
         <v>5</v>
       </c>
+      <c r="R50">
+        <v>115.5</v>
+      </c>
       <c r="S50">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -3417,7 +4641,7 @@
       </c>
       <c r="C51">
         <f t="shared" si="5"/>
-        <v>133</v>
+        <v>68.5</v>
       </c>
       <c r="E51">
         <v>4.5</v>
@@ -3427,7 +4651,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="6"/>
-        <v>138</v>
+        <v>73.5</v>
       </c>
       <c r="I51">
         <v>4.5</v>
@@ -3437,21 +4661,27 @@
       </c>
       <c r="K51">
         <f t="shared" si="7"/>
-        <v>131</v>
+        <v>66.5</v>
       </c>
       <c r="M51">
         <v>4.5</v>
       </c>
+      <c r="N51">
+        <v>113.5</v>
+      </c>
       <c r="O51">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="Q51">
         <v>4.5</v>
       </c>
+      <c r="R51">
+        <v>108</v>
+      </c>
       <c r="S51">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -3463,7 +4693,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="5"/>
-        <v>125</v>
+        <v>60.5</v>
       </c>
       <c r="E52" s="1">
         <v>4.25</v>
@@ -3473,7 +4703,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="6"/>
-        <v>134</v>
+        <v>69.5</v>
       </c>
       <c r="I52" s="1">
         <v>4.25</v>
@@ -3483,21 +4713,27 @@
       </c>
       <c r="K52">
         <f t="shared" si="7"/>
-        <v>128</v>
+        <v>63.5</v>
       </c>
       <c r="M52" s="1">
         <v>4.25</v>
       </c>
+      <c r="N52">
+        <v>106</v>
+      </c>
       <c r="O52">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="Q52" s="1">
         <v>4.25</v>
       </c>
+      <c r="R52">
+        <v>104</v>
+      </c>
       <c r="S52">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
@@ -3509,7 +4745,7 @@
       </c>
       <c r="C53">
         <f t="shared" si="5"/>
-        <v>118</v>
+        <v>53.5</v>
       </c>
       <c r="E53">
         <v>4</v>
@@ -3519,7 +4755,7 @@
       </c>
       <c r="G53">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>60.5</v>
       </c>
       <c r="I53">
         <v>4</v>
@@ -3529,21 +4765,27 @@
       </c>
       <c r="K53">
         <f t="shared" si="7"/>
-        <v>120</v>
+        <v>55.5</v>
       </c>
       <c r="M53">
         <v>4</v>
       </c>
+      <c r="N53">
+        <v>103</v>
+      </c>
       <c r="O53">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q53">
         <v>4</v>
       </c>
+      <c r="R53">
+        <v>100</v>
+      </c>
       <c r="S53">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
@@ -3555,7 +4797,7 @@
       </c>
       <c r="C54">
         <f t="shared" si="5"/>
-        <v>111</v>
+        <v>46.5</v>
       </c>
       <c r="E54">
         <v>3.75</v>
@@ -3565,7 +4807,7 @@
       </c>
       <c r="G54">
         <f t="shared" si="6"/>
-        <v>115</v>
+        <v>50.5</v>
       </c>
       <c r="I54">
         <v>3.75</v>
@@ -3575,21 +4817,27 @@
       </c>
       <c r="K54">
         <f t="shared" si="7"/>
-        <v>112</v>
+        <v>47.5</v>
       </c>
       <c r="M54">
         <v>3.75</v>
       </c>
+      <c r="N54">
+        <v>100</v>
+      </c>
       <c r="O54">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q54">
         <v>3.75</v>
       </c>
+      <c r="R54">
+        <v>95.5</v>
+      </c>
       <c r="S54">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
@@ -3601,7 +4849,7 @@
       </c>
       <c r="C55">
         <f t="shared" si="5"/>
-        <v>108</v>
+        <v>43.5</v>
       </c>
       <c r="E55">
         <v>3.5</v>
@@ -3611,7 +4859,7 @@
       </c>
       <c r="G55">
         <f t="shared" si="6"/>
-        <v>112</v>
+        <v>47.5</v>
       </c>
       <c r="I55">
         <v>3.5</v>
@@ -3621,21 +4869,27 @@
       </c>
       <c r="K55">
         <f t="shared" si="7"/>
-        <v>109</v>
+        <v>44.5</v>
       </c>
       <c r="M55">
         <v>3.5</v>
       </c>
+      <c r="N55">
+        <v>98</v>
+      </c>
       <c r="O55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Q55">
         <v>3.5</v>
       </c>
+      <c r="R55">
+        <v>93</v>
+      </c>
       <c r="S55">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
@@ -3647,7 +4901,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="5"/>
-        <v>102</v>
+        <v>37.5</v>
       </c>
       <c r="E56">
         <v>3.25</v>
@@ -3657,7 +4911,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>40.5</v>
       </c>
       <c r="I56">
         <v>3.25</v>
@@ -3667,21 +4921,27 @@
       </c>
       <c r="K56">
         <f t="shared" si="7"/>
-        <v>104</v>
+        <v>39.5</v>
       </c>
       <c r="M56">
         <v>3.25</v>
       </c>
+      <c r="N56">
+        <v>94.5</v>
+      </c>
       <c r="O56">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="Q56">
         <v>3.25</v>
       </c>
+      <c r="R56">
+        <v>90</v>
+      </c>
       <c r="S56">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -3693,7 +4953,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="5"/>
-        <v>96</v>
+        <v>31.5</v>
       </c>
       <c r="E57">
         <v>3</v>
@@ -3703,7 +4963,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="6"/>
-        <v>99</v>
+        <v>34.5</v>
       </c>
       <c r="I57">
         <v>3</v>
@@ -3713,21 +4973,27 @@
       </c>
       <c r="K57">
         <f t="shared" si="7"/>
-        <v>98.5</v>
+        <v>34</v>
       </c>
       <c r="M57">
         <v>3</v>
       </c>
+      <c r="N57">
+        <v>91</v>
+      </c>
       <c r="O57">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q57">
         <v>3</v>
       </c>
+      <c r="R57">
+        <v>88</v>
+      </c>
       <c r="S57">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -3739,7 +5005,7 @@
       </c>
       <c r="C58">
         <f t="shared" si="5"/>
-        <v>92</v>
+        <v>27.5</v>
       </c>
       <c r="E58">
         <v>2.75</v>
@@ -3749,7 +5015,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="6"/>
-        <v>96</v>
+        <v>31.5</v>
       </c>
       <c r="I58">
         <v>2.75</v>
@@ -3759,21 +5025,27 @@
       </c>
       <c r="K58">
         <f t="shared" si="7"/>
-        <v>94</v>
+        <v>29.5</v>
       </c>
       <c r="M58">
         <v>2.75</v>
       </c>
+      <c r="N58">
+        <v>87</v>
+      </c>
       <c r="O58">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
       </c>
+      <c r="R58">
+        <v>85</v>
+      </c>
       <c r="S58">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -3785,7 +5057,7 @@
       </c>
       <c r="C59">
         <f t="shared" si="5"/>
-        <v>88</v>
+        <v>23.5</v>
       </c>
       <c r="E59">
         <v>2.5</v>
@@ -3795,7 +5067,7 @@
       </c>
       <c r="G59">
         <f t="shared" si="6"/>
-        <v>92</v>
+        <v>27.5</v>
       </c>
       <c r="I59">
         <v>2.5</v>
@@ -3805,21 +5077,27 @@
       </c>
       <c r="K59">
         <f t="shared" si="7"/>
-        <v>92</v>
+        <v>27.5</v>
       </c>
       <c r="M59">
         <v>2.5</v>
       </c>
+      <c r="N59">
+        <v>85.5</v>
+      </c>
       <c r="O59">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="Q59">
         <v>2.5</v>
       </c>
+      <c r="R59">
+        <v>82</v>
+      </c>
       <c r="S59">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -3831,7 +5109,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="5"/>
-        <v>87</v>
+        <v>22.5</v>
       </c>
       <c r="E60">
         <v>2.25</v>
@@ -3841,7 +5119,7 @@
       </c>
       <c r="G60">
         <f t="shared" si="6"/>
-        <v>89.5</v>
+        <v>25</v>
       </c>
       <c r="I60">
         <v>2.25</v>
@@ -3851,21 +5129,27 @@
       </c>
       <c r="K60">
         <f t="shared" si="7"/>
-        <v>89</v>
+        <v>24.5</v>
       </c>
       <c r="M60">
         <v>2.25</v>
       </c>
+      <c r="N60">
+        <v>83</v>
+      </c>
       <c r="O60">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
       </c>
+      <c r="R60">
+        <v>80</v>
+      </c>
       <c r="S60">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -3877,7 +5161,7 @@
       </c>
       <c r="C61">
         <f t="shared" si="5"/>
-        <v>83</v>
+        <v>18.5</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -3887,7 +5171,7 @@
       </c>
       <c r="G61">
         <f t="shared" si="6"/>
-        <v>86</v>
+        <v>21.5</v>
       </c>
       <c r="I61">
         <v>2</v>
@@ -3897,21 +5181,27 @@
       </c>
       <c r="K61">
         <f t="shared" si="7"/>
-        <v>85</v>
+        <v>20.5</v>
       </c>
       <c r="M61">
         <v>2</v>
       </c>
+      <c r="N61">
+        <v>80</v>
+      </c>
       <c r="O61">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q61">
         <v>2</v>
       </c>
+      <c r="R61">
+        <v>78.5</v>
+      </c>
       <c r="S61">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -3923,7 +5213,7 @@
       </c>
       <c r="C62">
         <f t="shared" si="5"/>
-        <v>78</v>
+        <v>13.5</v>
       </c>
       <c r="E62">
         <v>1.5</v>
@@ -3933,7 +5223,7 @@
       </c>
       <c r="G62">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>15.5</v>
       </c>
       <c r="I62">
         <v>1.5</v>
@@ -3943,21 +5233,27 @@
       </c>
       <c r="K62">
         <f t="shared" si="7"/>
-        <v>78</v>
+        <v>13.5</v>
       </c>
       <c r="M62">
         <v>1.5</v>
       </c>
+      <c r="N62">
+        <v>76</v>
+      </c>
       <c r="O62">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q62">
         <v>1.5</v>
       </c>
+      <c r="R62">
+        <v>74.5</v>
+      </c>
       <c r="S62">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -3969,7 +5265,7 @@
       </c>
       <c r="C63">
         <f t="shared" si="5"/>
-        <v>74</v>
+        <v>9.5</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3979,7 +5275,7 @@
       </c>
       <c r="G63">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>10.5</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -3989,21 +5285,27 @@
       </c>
       <c r="K63">
         <f t="shared" si="7"/>
-        <v>74</v>
+        <v>9.5</v>
       </c>
       <c r="M63">
         <v>1</v>
       </c>
+      <c r="N63">
+        <v>73</v>
+      </c>
       <c r="O63">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q63">
         <v>1</v>
       </c>
+      <c r="R63">
+        <v>71</v>
+      </c>
       <c r="S63">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -4015,7 +5317,7 @@
       </c>
       <c r="C64">
         <f t="shared" si="5"/>
-        <v>70</v>
+        <v>5.5</v>
       </c>
       <c r="E64">
         <v>0.5</v>
@@ -4025,7 +5327,7 @@
       </c>
       <c r="G64">
         <f t="shared" si="6"/>
-        <v>71</v>
+        <v>6.5</v>
       </c>
       <c r="I64">
         <v>0.5</v>
@@ -4035,21 +5337,27 @@
       </c>
       <c r="K64">
         <f t="shared" si="7"/>
-        <v>69</v>
+        <v>4.5</v>
       </c>
       <c r="M64">
         <v>0.5</v>
       </c>
+      <c r="N64">
+        <v>69</v>
+      </c>
       <c r="O64">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q64">
         <v>0.5</v>
       </c>
+      <c r="R64">
+        <v>68.5</v>
+      </c>
       <c r="S64">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -4061,7 +5369,7 @@
       </c>
       <c r="C65">
         <f t="shared" si="5"/>
-        <v>66</v>
+        <v>1.5</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4071,7 +5379,7 @@
       </c>
       <c r="G65">
         <f t="shared" si="6"/>
-        <v>66</v>
+        <v>1.5</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -4081,10 +5389,13 @@
       </c>
       <c r="K65">
         <f t="shared" si="7"/>
-        <v>64</v>
+        <v>-0.5</v>
       </c>
       <c r="M65">
         <v>0</v>
+      </c>
+      <c r="N65">
+        <v>65</v>
       </c>
       <c r="O65">
         <f t="shared" si="8"/>
@@ -4092,6 +5403,9 @@
       </c>
       <c r="Q65">
         <v>0</v>
+      </c>
+      <c r="R65">
+        <v>64.5</v>
       </c>
       <c r="S65">
         <f t="shared" si="9"/>

--- a/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A9A051-BFB0-4069-ACDC-2C353B23DB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A39B11-16E8-4BE4-A1F0-7DB057C453F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="12">
   <si>
     <t>enkeltløkke</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t>Dobbeltløkke</t>
+  </si>
+  <si>
+    <t>3.3 Affyringsrampe</t>
+  </si>
+  <si>
+    <t>Brugt elastik</t>
+  </si>
+  <si>
+    <t>Frisk elastik</t>
+  </si>
+  <si>
+    <t>1 frisk + 1 brugt elastik</t>
+  </si>
+  <si>
+    <t>nulpunkt: 11N</t>
   </si>
 </sst>
 </file>
@@ -173,7 +188,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -196,6 +211,90 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>'Ark1'!$G$6:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>'Ark1'!$E$6:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -271,90 +370,6 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Ark1'!$G$6:$G$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -2590,10 +2605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E33" workbookViewId="0">
-      <selection activeCell="V59" sqref="V59"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5412,6 +5427,449 @@
         <v>0</v>
       </c>
     </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" t="s">
+        <v>10</v>
+      </c>
+      <c r="K70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" t="s">
+        <v>3</v>
+      </c>
+      <c r="I71" t="s">
+        <v>2</v>
+      </c>
+      <c r="J71" t="s">
+        <v>4</v>
+      </c>
+      <c r="K71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>550</v>
+      </c>
+      <c r="C72">
+        <f>B72-$B$81</f>
+        <v>93</v>
+      </c>
+      <c r="E72">
+        <v>20</v>
+      </c>
+      <c r="F72">
+        <v>563</v>
+      </c>
+      <c r="G72">
+        <f>F72-$F$93</f>
+        <v>101</v>
+      </c>
+      <c r="I72">
+        <v>20</v>
+      </c>
+      <c r="J72">
+        <v>502</v>
+      </c>
+      <c r="K72">
+        <f>J72-$J$81</f>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>7</v>
+      </c>
+      <c r="B73">
+        <v>547</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ref="C73:C81" si="10">B73-$B$81</f>
+        <v>90</v>
+      </c>
+      <c r="E73">
+        <v>19</v>
+      </c>
+      <c r="F73">
+        <v>561</v>
+      </c>
+      <c r="G73">
+        <f t="shared" ref="G73:G93" si="11">F73-$F$93</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74">
+        <v>543</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="10"/>
+        <v>86</v>
+      </c>
+      <c r="E74">
+        <v>18</v>
+      </c>
+      <c r="F74">
+        <v>560</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="11"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>5.5</v>
+      </c>
+      <c r="B75">
+        <v>539</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="E75">
+        <v>17</v>
+      </c>
+      <c r="F75">
+        <v>559</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="11"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>537</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="E76">
+        <v>16</v>
+      </c>
+      <c r="F76">
+        <v>559</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="11"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>4.5</v>
+      </c>
+      <c r="B77">
+        <v>531</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="E77">
+        <v>15</v>
+      </c>
+      <c r="F77">
+        <v>558</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="11"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78">
+        <v>500</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="10"/>
+        <v>43</v>
+      </c>
+      <c r="E78">
+        <v>14</v>
+      </c>
+      <c r="F78">
+        <v>556</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="11"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3.5</v>
+      </c>
+      <c r="B79">
+        <v>490</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="E79">
+        <v>13</v>
+      </c>
+      <c r="F79">
+        <v>554</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="11"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>480</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="E80">
+        <v>12</v>
+      </c>
+      <c r="F80">
+        <v>552</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2.5</v>
+      </c>
+      <c r="B81">
+        <v>457</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>11</v>
+      </c>
+      <c r="F81">
+        <v>551</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="11"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>550</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="11"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>9</v>
+      </c>
+      <c r="F83">
+        <v>547</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="11"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>8</v>
+      </c>
+      <c r="F84">
+        <v>545</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="11"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>7</v>
+      </c>
+      <c r="F85">
+        <v>540</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>6</v>
+      </c>
+      <c r="F86">
+        <v>535</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="11"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>522</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>4.5</v>
+      </c>
+      <c r="F88">
+        <v>512</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>497</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>3.5</v>
+      </c>
+      <c r="F90">
+        <v>482</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>472</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>2.5</v>
+      </c>
+      <c r="F92">
+        <v>465</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>2.4</v>
+      </c>
+      <c r="F93">
+        <v>462</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DTU\Github\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A39B11-16E8-4BE4-A1F0-7DB057C453F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F241CCB8-BF42-44BB-97D6-2C115A7C7F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t>enkeltløkke</t>
   </si>
@@ -72,6 +72,69 @@
   </si>
   <si>
     <t>nulpunkt: 11N</t>
+  </si>
+  <si>
+    <t>Måleserie, hastighed fra afyringsrampe</t>
+  </si>
+  <si>
+    <t>Bevægelse</t>
+  </si>
+  <si>
+    <t>F Brugt</t>
+  </si>
+  <si>
+    <t>F ny</t>
+  </si>
+  <si>
+    <t>F Ny Akum</t>
+  </si>
+  <si>
+    <t>F Bru Akum</t>
+  </si>
+  <si>
+    <t>Vægt Bil</t>
+  </si>
+  <si>
+    <t>Vægt Slæde</t>
+  </si>
+  <si>
+    <t>Hast Bil</t>
+  </si>
+  <si>
+    <t>Hast Bil+Slæ</t>
+  </si>
+  <si>
+    <t>Ny elastik</t>
+  </si>
+  <si>
+    <t>[mm]</t>
+  </si>
+  <si>
+    <t>[N]</t>
+  </si>
+  <si>
+    <t>[Nm]</t>
+  </si>
+  <si>
+    <t>[m/s]</t>
+  </si>
+  <si>
+    <t>2 stk ny elastik</t>
+  </si>
+  <si>
+    <t>[g]</t>
+  </si>
+  <si>
+    <t>Rampe Højde</t>
+  </si>
+  <si>
+    <t>Målt kraft</t>
+  </si>
+  <si>
+    <t>Akumuleret kraft</t>
+  </si>
+  <si>
+    <t>Energitab rampe</t>
   </si>
 </sst>
 </file>
@@ -137,7 +200,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -574,7 +637,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1153,6 +1216,1182 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Ny elastik i afyringsrampe</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17909637697409581"/>
+                  <c:y val="0.22890048541663871"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$G$72:$G$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$E$72:$E$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EC14-4B7C-B4AE-44FA10F525F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1429993280"/>
+        <c:axId val="1429967072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1429993280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Forlængelse [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1429967072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1429967072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Kraft [N]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1429993280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Brugt elastik i afyringsrampe</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$C$72:$C$81</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.23727237744877758"/>
+                  <c:y val="0.17245515456305791"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$C$72:$C$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$A$72:$A$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3693-40CF-BD79-C6E790AB2208}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1429993280"/>
+        <c:axId val="1429967072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1429993280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Forlængelse [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1429967072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1429967072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Kraft [N]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1429993280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1233,6 +2472,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1750,6 +3069,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2334,6 +4685,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>370635</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>89811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>408737</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>118386</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1B971A-1FD7-DE86-B34B-7C19DE47F9B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>368012</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>168853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>406114</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>15587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF9CA727-36E7-4436-A8CB-E1EEC1F06ACA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2605,20 +5030,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S93"/>
+  <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" topLeftCell="D68" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AA80" sqref="AA80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2635,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>44</v>
       </c>
@@ -2649,7 +5074,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2696,7 +5121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>15</v>
       </c>
@@ -2748,7 +5173,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>14</v>
       </c>
@@ -2800,7 +5225,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>13</v>
       </c>
@@ -2852,7 +5277,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>12</v>
       </c>
@@ -2904,7 +5329,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>11</v>
       </c>
@@ -2956,7 +5381,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3008,7 +5433,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3060,7 +5485,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>8</v>
       </c>
@@ -3112,7 +5537,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>7</v>
       </c>
@@ -3164,7 +5589,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>6</v>
       </c>
@@ -3216,7 +5641,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>5</v>
       </c>
@@ -3268,7 +5693,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>4</v>
       </c>
@@ -3320,7 +5745,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3372,7 +5797,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2.5</v>
       </c>
@@ -3424,7 +5849,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3476,7 +5901,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1.5</v>
       </c>
@@ -3528,7 +5953,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3580,7 +6005,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.5</v>
       </c>
@@ -3632,7 +6057,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>0.25</v>
       </c>
@@ -3684,7 +6109,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>0</v>
       </c>
@@ -3736,7 +6161,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="E26">
         <v>1</v>
       </c>
@@ -3778,7 +6203,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="E27">
         <v>0.75</v>
       </c>
@@ -3820,7 +6245,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="E28">
         <v>0.5</v>
       </c>
@@ -3862,7 +6287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="E29">
         <v>0.25</v>
       </c>
@@ -3904,7 +6329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="E30">
         <v>0</v>
       </c>
@@ -3946,7 +6371,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="M31">
         <v>0</v>
       </c>
@@ -3968,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3989,12 +6414,12 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -4011,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>60</v>
       </c>
@@ -4028,7 +6453,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -4075,7 +6500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>15</v>
       </c>
@@ -4127,7 +6552,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>14</v>
       </c>
@@ -4179,7 +6604,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>13</v>
       </c>
@@ -4231,7 +6656,7 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>12</v>
       </c>
@@ -4283,7 +6708,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>11</v>
       </c>
@@ -4335,7 +6760,7 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>10</v>
       </c>
@@ -4387,7 +6812,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>9</v>
       </c>
@@ -4439,7 +6864,7 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>8</v>
       </c>
@@ -4491,7 +6916,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>7</v>
       </c>
@@ -4543,7 +6968,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>6</v>
       </c>
@@ -4595,7 +7020,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>5</v>
       </c>
@@ -4647,7 +7072,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>4.5</v>
       </c>
@@ -4699,7 +7124,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>4.25</v>
       </c>
@@ -4751,7 +7176,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>4</v>
       </c>
@@ -4803,7 +7228,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>3.75</v>
       </c>
@@ -4855,7 +7280,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>3.5</v>
       </c>
@@ -4907,7 +7332,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>3.25</v>
       </c>
@@ -4959,7 +7384,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>3</v>
       </c>
@@ -5011,7 +7436,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>2.75</v>
       </c>
@@ -5063,7 +7488,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>2.5</v>
       </c>
@@ -5115,7 +7540,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>2.25</v>
       </c>
@@ -5167,7 +7592,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>2</v>
       </c>
@@ -5219,7 +7644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>1.5</v>
       </c>
@@ -5271,7 +7696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>1</v>
       </c>
@@ -5323,7 +7748,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>0.5</v>
       </c>
@@ -5375,7 +7800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>0</v>
       </c>
@@ -5427,7 +7852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -5448,12 +7873,12 @@
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -5466,8 +7891,17 @@
       <c r="K70" t="s">
         <v>11</v>
       </c>
+      <c r="M70" t="s">
+        <v>18</v>
+      </c>
+      <c r="N70" t="s">
+        <v>19</v>
+      </c>
+      <c r="P70" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -5495,8 +7929,17 @@
       <c r="K71" t="s">
         <v>3</v>
       </c>
+      <c r="M71" t="s">
+        <v>28</v>
+      </c>
+      <c r="N71" t="s">
+        <v>28</v>
+      </c>
+      <c r="P71" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>8</v>
       </c>
@@ -5527,8 +7970,17 @@
         <f>J72-$J$81</f>
         <v>502</v>
       </c>
+      <c r="M72">
+        <v>32</v>
+      </c>
+      <c r="N72">
+        <v>6</v>
+      </c>
+      <c r="P72">
+        <v>100</v>
+      </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>7</v>
       </c>
@@ -5536,7 +7988,7 @@
         <v>547</v>
       </c>
       <c r="C73">
-        <f t="shared" ref="C73:C81" si="10">B73-$B$81</f>
+        <f t="shared" ref="C73:C80" si="10">B73-$B$81</f>
         <v>90</v>
       </c>
       <c r="E73">
@@ -5546,11 +7998,11 @@
         <v>561</v>
       </c>
       <c r="G73">
-        <f t="shared" ref="G73:G93" si="11">F73-$F$93</f>
+        <f t="shared" ref="G73:G92" si="11">F73-$F$93</f>
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>6</v>
       </c>
@@ -5571,8 +8023,11 @@
         <f t="shared" si="11"/>
         <v>98</v>
       </c>
+      <c r="P74" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>5.5</v>
       </c>
@@ -5593,8 +8048,26 @@
         <f t="shared" si="11"/>
         <v>97</v>
       </c>
+      <c r="Q75" t="s">
+        <v>30</v>
+      </c>
+      <c r="S75" t="s">
+        <v>31</v>
+      </c>
+      <c r="U75" t="s">
+        <v>32</v>
+      </c>
+      <c r="W75" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>5</v>
       </c>
@@ -5615,8 +8088,41 @@
         <f t="shared" si="11"/>
         <v>97</v>
       </c>
+      <c r="P76" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>14</v>
+      </c>
+      <c r="R76" t="s">
+        <v>15</v>
+      </c>
+      <c r="S76" t="s">
+        <v>17</v>
+      </c>
+      <c r="T76" t="s">
+        <v>16</v>
+      </c>
+      <c r="W76" t="s">
+        <v>20</v>
+      </c>
+      <c r="X76" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>4.5</v>
       </c>
@@ -5637,8 +8143,44 @@
         <f t="shared" si="11"/>
         <v>96</v>
       </c>
+      <c r="P77" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>24</v>
+      </c>
+      <c r="R77" t="s">
+        <v>24</v>
+      </c>
+      <c r="S77" t="s">
+        <v>25</v>
+      </c>
+      <c r="T77" t="s">
+        <v>25</v>
+      </c>
+      <c r="U77" t="s">
+        <v>25</v>
+      </c>
+      <c r="W77" t="s">
+        <v>26</v>
+      </c>
+      <c r="X77" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>4</v>
       </c>
@@ -5659,8 +8201,19 @@
         <f t="shared" si="11"/>
         <v>94</v>
       </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <f>0.00003*P78^3-0.0031*P78^2+0.1115*P78+2.2599</f>
+        <v>2.2599</v>
+      </c>
+      <c r="R78">
+        <f>0.00008*P78^3-0.0088*P78^2+0.2956*P78+1.4681</f>
+        <v>1.4681</v>
+      </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>3.5</v>
       </c>
@@ -5681,8 +8234,55 @@
         <f t="shared" si="11"/>
         <v>92</v>
       </c>
+      <c r="P79">
+        <v>5</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" ref="Q79:Q98" si="12">0.00003*P79^3-0.0031*P79^2+0.1115*P79+2.2599</f>
+        <v>2.7436500000000001</v>
+      </c>
+      <c r="R79">
+        <f t="shared" ref="R79:R98" si="13">0.00008*P79^3-0.0088*P79^2+0.2956*P79+1.4681</f>
+        <v>2.7360999999999995</v>
+      </c>
+      <c r="S79">
+        <f>(P79-P78)*((Q78+Q79)/2)*0.001+S78</f>
+        <v>1.2508875000000003E-2</v>
+      </c>
+      <c r="T79">
+        <f>(P79-P78)*((R78+R79)/2)*0.001+T78</f>
+        <v>1.0510499999999999E-2</v>
+      </c>
+      <c r="U79">
+        <f>$P$72*9.81*$M$72*0.000001</f>
+        <v>3.1391999999999996E-2</v>
+      </c>
+      <c r="W79" t="e">
+        <f>SQRT((2*($S79-$U$79))/($M$72*0.001))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="X79" t="e">
+        <f>SQRT((2*($S79-$U$79))/(($M$72+$N$72)*0.001))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y79" t="e">
+        <f>SQRT((2*($T79-$U$79))/($M$72*0.001))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z79" t="e">
+        <f>SQRT((2*($T79-$U$79))/(($M$72+$N$72)*0.001))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA79" t="e">
+        <f>SQRT((4*($T79-$U$79))/($M$72*0.001))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AB79">
+        <f>SQRT((4*$T79)/(($M$72+$N$72)*0.001))</f>
+        <v>1.0518404922100268</v>
+      </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>3</v>
       </c>
@@ -5703,8 +8303,51 @@
         <f t="shared" si="11"/>
         <v>90</v>
       </c>
+      <c r="P80">
+        <v>10</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="12"/>
+        <v>3.0949</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="13"/>
+        <v>3.6240999999999994</v>
+      </c>
+      <c r="S80">
+        <f t="shared" ref="S80:S98" si="14">(P80-P79)*((Q79+Q80)/2)*0.001+S79</f>
+        <v>2.7105250000000001E-2</v>
+      </c>
+      <c r="T80">
+        <f t="shared" ref="T80:T98" si="15">(P80-P79)*((R79+R80)/2)*0.001+T79</f>
+        <v>2.6410999999999997E-2</v>
+      </c>
+      <c r="W80" t="e">
+        <f t="shared" ref="W80:W98" si="16">SQRT((2*($S80-$U$79))/($M$72*0.001))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="X80" t="e">
+        <f t="shared" ref="X80:X98" si="17">SQRT((2*($S80-$U$79))/(($M$72+$N$72)*0.001))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y80" t="e">
+        <f t="shared" ref="Y80:Y98" si="18">SQRT((2*($T80-$U$79))/($M$72*0.001))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z80" t="e">
+        <f t="shared" ref="Z80:Z98" si="19">SQRT((2*($T80-$U$79))/(($M$72+$N$72)*0.001))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA80">
+        <f>SQRT((4*$T80)/($M$72*0.001))</f>
+        <v>1.8169686293384373</v>
+      </c>
+      <c r="AB80">
+        <f>SQRT((4*$T80)/(($M$72+$N$72)*0.001))</f>
+        <v>1.6673647660778652</v>
+      </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>2.5</v>
       </c>
@@ -5712,8 +8355,8 @@
         <v>457</v>
       </c>
       <c r="C81">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>B81-$B$81+1</f>
+        <v>1</v>
       </c>
       <c r="E81">
         <v>11</v>
@@ -5725,8 +8368,51 @@
         <f t="shared" si="11"/>
         <v>89</v>
       </c>
+      <c r="P81">
+        <v>15</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="12"/>
+        <v>3.3361499999999999</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="13"/>
+        <v>4.192099999999999</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="14"/>
+        <v>4.3182875000000003E-2</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="15"/>
+        <v>4.5951499999999992E-2</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="16"/>
+        <v>0.85844608887221352</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="17"/>
+        <v>0.78776415786772946</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="18"/>
+        <v>0.95392282182574906</v>
+      </c>
+      <c r="Z81">
+        <f t="shared" si="19"/>
+        <v>0.87537961690012545</v>
+      </c>
+      <c r="AA81">
+        <f>SQRT((4*$T81)/($M$72*0.001))</f>
+        <v>2.3966513096401818</v>
+      </c>
+      <c r="AB81">
+        <f>SQRT((4*$T81)/(($M$72+$N$72)*0.001))</f>
+        <v>2.1993180761317812</v>
+      </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.45">
       <c r="E82">
         <v>10</v>
       </c>
@@ -5737,8 +8423,51 @@
         <f t="shared" si="11"/>
         <v>88</v>
       </c>
+      <c r="P82">
+        <v>20</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="12"/>
+        <v>3.4899</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="13"/>
+        <v>4.5000999999999989</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="14"/>
+        <v>6.024800000000001E-2</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="15"/>
+        <v>6.7681999999999992E-2</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="16"/>
+        <v>1.3429445260322561</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="17"/>
+        <v>1.2323704159485751</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="18"/>
+        <v>1.5060295481829031</v>
+      </c>
+      <c r="Z82">
+        <f t="shared" si="19"/>
+        <v>1.3820274961085253</v>
+      </c>
+      <c r="AA82">
+        <f>SQRT((4*$T82)/($M$72*0.001))</f>
+        <v>2.9086508900175696</v>
+      </c>
+      <c r="AB82">
+        <f>SQRT((4*$T82)/(($M$72+$N$72)*0.001))</f>
+        <v>2.6691611140265734</v>
+      </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.45">
       <c r="E83">
         <v>9</v>
       </c>
@@ -5749,8 +8478,51 @@
         <f t="shared" si="11"/>
         <v>85</v>
       </c>
+      <c r="P83">
+        <v>25</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="12"/>
+        <v>3.5786500000000001</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="13"/>
+        <v>4.6080999999999994</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="14"/>
+        <v>7.7919375000000013E-2</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="15"/>
+        <v>9.0452499999999991E-2</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="16"/>
+        <v>1.7052744463868568</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="17"/>
+        <v>1.5648671542742267</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="18"/>
+        <v>1.9212707383396019</v>
+      </c>
+      <c r="Z83">
+        <f t="shared" si="19"/>
+        <v>1.7630789456008633</v>
+      </c>
+      <c r="AA83">
+        <f>SQRT((4*$T83)/($M$72*0.001))</f>
+        <v>3.3625232341204718</v>
+      </c>
+      <c r="AB83">
+        <f>SQRT((4*$T83)/(($M$72+$N$72)*0.001))</f>
+        <v>3.0856629416502517</v>
+      </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.45">
       <c r="E84">
         <v>8</v>
       </c>
@@ -5761,8 +8533,51 @@
         <f t="shared" si="11"/>
         <v>83</v>
       </c>
+      <c r="P84">
+        <v>30</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="12"/>
+        <v>3.6249000000000002</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="13"/>
+        <v>4.5760999999999976</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="14"/>
+        <v>9.592825000000002E-2</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="15"/>
+        <v>0.11341299999999999</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="16"/>
+        <v>2.0083614278809483</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="17"/>
+        <v>1.8429988434185482</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="18"/>
+        <v>2.26413614873311</v>
+      </c>
+      <c r="Z84">
+        <f t="shared" si="19"/>
+        <v>2.077713824577895</v>
+      </c>
+      <c r="AA84">
+        <f>SQRT((4*$T84)/($M$72*0.001))</f>
+        <v>3.7651859183843763</v>
+      </c>
+      <c r="AB84">
+        <f>SQRT((4*$T84)/(($M$72+$N$72)*0.001))</f>
+        <v>3.4551715625010271</v>
+      </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.45">
       <c r="E85">
         <v>7</v>
       </c>
@@ -5773,8 +8588,51 @@
         <f t="shared" si="11"/>
         <v>78</v>
       </c>
+      <c r="P85">
+        <v>35</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="12"/>
+        <v>3.6511500000000003</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="13"/>
+        <v>4.4640999999999966</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="14"/>
+        <v>0.11411837500000002</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="15"/>
+        <v>0.13601349999999998</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="16"/>
+        <v>2.2738510147984634</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="17"/>
+        <v>2.0866287970892441</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="18"/>
+        <v>2.5571162957519156</v>
+      </c>
+      <c r="Z85">
+        <f t="shared" si="19"/>
+        <v>2.3465708463291928</v>
+      </c>
+      <c r="AA85">
+        <f>SQRT((4*$T85)/($M$72*0.001))</f>
+        <v>4.1233102599731684</v>
+      </c>
+      <c r="AB85">
+        <f>SQRT((4*$T85)/(($M$72+$N$72)*0.001))</f>
+        <v>3.7838089970710453</v>
+      </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.45">
       <c r="E86">
         <v>6</v>
       </c>
@@ -5785,8 +8643,51 @@
         <f t="shared" si="11"/>
         <v>73</v>
       </c>
+      <c r="P86">
+        <v>40</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="12"/>
+        <v>3.6798999999999999</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="13"/>
+        <v>4.332099999999997</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="14"/>
+        <v>0.13244600000000001</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="15"/>
+        <v>0.15800399999999998</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="16"/>
+        <v>2.513140465632592</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="17"/>
+        <v>2.3062158569716256</v>
+      </c>
+      <c r="Y86">
+        <f t="shared" si="18"/>
+        <v>2.8130499462327356</v>
+      </c>
+      <c r="Z86">
+        <f t="shared" si="19"/>
+        <v>2.5814316713181098</v>
+      </c>
+      <c r="AA86">
+        <f>SQRT((4*$T86)/($M$72*0.001))</f>
+        <v>4.4441534626968044</v>
+      </c>
+      <c r="AB86">
+        <f>SQRT((4*$T86)/(($M$72+$N$72)*0.001))</f>
+        <v>4.0782349123119426</v>
+      </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.45">
       <c r="E87">
         <v>5</v>
       </c>
@@ -5797,8 +8698,51 @@
         <f t="shared" si="11"/>
         <v>60</v>
       </c>
+      <c r="P87">
+        <v>45</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="12"/>
+        <v>3.7336500000000004</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="13"/>
+        <v>4.2401</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="14"/>
+        <v>0.15097987500000001</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="15"/>
+        <v>0.17943449999999997</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="16"/>
+        <v>2.7339060312124848</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="17"/>
+        <v>2.5088042339350687</v>
+      </c>
+      <c r="Y87">
+        <f t="shared" si="18"/>
+        <v>3.041817918613801</v>
+      </c>
+      <c r="Z87">
+        <f t="shared" si="19"/>
+        <v>2.7913635603976399</v>
+      </c>
+      <c r="AA87">
+        <f>SQRT((4*$T87)/($M$72*0.001))</f>
+        <v>4.7359595120735563</v>
+      </c>
+      <c r="AB87">
+        <f>SQRT((4*$T87)/(($M$72+$N$72)*0.001))</f>
+        <v>4.3460145081744903</v>
+      </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.45">
       <c r="E88">
         <v>4.5</v>
       </c>
@@ -5809,8 +8753,51 @@
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
+      <c r="P88">
+        <v>50</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="12"/>
+        <v>3.8349000000000002</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="13"/>
+        <v>4.2480999999999991</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="14"/>
+        <v>0.16990125</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="15"/>
+        <v>0.20065499999999997</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="16"/>
+        <v>2.9422488210550788</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="17"/>
+        <v>2.699992690048584</v>
+      </c>
+      <c r="Y88">
+        <f t="shared" si="18"/>
+        <v>3.2525278630628205</v>
+      </c>
+      <c r="Z88">
+        <f t="shared" si="19"/>
+        <v>2.9847242665560283</v>
+      </c>
+      <c r="AA88">
+        <f>SQRT((4*$T88)/($M$72*0.001))</f>
+        <v>5.008180807438964</v>
+      </c>
+      <c r="AB88">
+        <f>SQRT((4*$T88)/(($M$72+$N$72)*0.001))</f>
+        <v>4.5958219011802903</v>
+      </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.45">
       <c r="E89">
         <v>4</v>
       </c>
@@ -5821,8 +8808,51 @@
         <f t="shared" si="11"/>
         <v>35</v>
       </c>
+      <c r="P89">
+        <v>55</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="12"/>
+        <v>4.0061500000000008</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="13"/>
+        <v>4.4160999999999984</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="14"/>
+        <v>0.18950387500000002</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="15"/>
+        <v>0.22231549999999997</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="16"/>
+        <v>3.1435636127649778</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="17"/>
+        <v>2.8847318127650876</v>
+      </c>
+      <c r="Y89">
+        <f t="shared" si="18"/>
+        <v>3.454376752758737</v>
+      </c>
+      <c r="Z89">
+        <f t="shared" si="19"/>
+        <v>3.1699535111982153</v>
+      </c>
+      <c r="AA89">
+        <f>SQRT((4*$T89)/($M$72*0.001))</f>
+        <v>5.2715687892694705</v>
+      </c>
+      <c r="AB89">
+        <f>SQRT((4*$T89)/(($M$72+$N$72)*0.001))</f>
+        <v>4.8375232897576179</v>
+      </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.45">
       <c r="E90">
         <v>3.5</v>
       </c>
@@ -5833,8 +8863,51 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
+      <c r="P90">
+        <v>60</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="12"/>
+        <v>4.2699000000000007</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="13"/>
+        <v>4.8040999999999947</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="14"/>
+        <v>0.21019400000000002</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="15"/>
+        <v>0.24536599999999995</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="16"/>
+        <v>3.3429216263621857</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="17"/>
+        <v>3.0676752727346108</v>
+      </c>
+      <c r="Y90">
+        <f t="shared" si="18"/>
+        <v>3.6569625374072396</v>
+      </c>
+      <c r="Z90">
+        <f t="shared" si="19"/>
+        <v>3.3558589770257345</v>
+      </c>
+      <c r="AA90">
+        <f>SQRT((4*$T90)/($M$72*0.001))</f>
+        <v>5.538117911348583</v>
+      </c>
+      <c r="AB90">
+        <f>SQRT((4*$T90)/(($M$72+$N$72)*0.001))</f>
+        <v>5.0821255395749523</v>
+      </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.45">
       <c r="E91">
         <v>3</v>
       </c>
@@ -5845,8 +8918,51 @@
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
+      <c r="P91">
+        <v>65</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="12"/>
+        <v>4.6486499999999999</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="13"/>
+        <v>5.4721000000000011</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="14"/>
+        <v>0.23249037500000003</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="15"/>
+        <v>0.27105649999999992</v>
+      </c>
+      <c r="W91">
+        <f t="shared" si="16"/>
+        <v>3.5452289682755334</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="17"/>
+        <v>3.253325221984424</v>
+      </c>
+      <c r="Y91">
+        <f t="shared" si="18"/>
+        <v>3.8702753455019185</v>
+      </c>
+      <c r="Z91">
+        <f t="shared" si="19"/>
+        <v>3.5516082346778588</v>
+      </c>
+      <c r="AA91">
+        <f>SQRT((4*$T91)/($M$72*0.001))</f>
+        <v>5.8208300524925125</v>
+      </c>
+      <c r="AB91">
+        <f>SQRT((4*$T91)/(($M$72+$N$72)*0.001))</f>
+        <v>5.3415599929135613</v>
+      </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.45">
       <c r="E92">
         <v>2.5</v>
       </c>
@@ -5857,8 +8973,51 @@
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
+      <c r="P92">
+        <v>70</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="12"/>
+        <v>5.1649000000000012</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="13"/>
+        <v>6.4800999999999931</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="14"/>
+        <v>0.25702425000000001</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="15"/>
+        <v>0.3009369999999999</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="16"/>
+        <v>3.7552650538943322</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="17"/>
+        <v>3.4460675528705713</v>
+      </c>
+      <c r="Y92">
+        <f t="shared" si="18"/>
+        <v>4.1044564195518012</v>
+      </c>
+      <c r="Z92">
+        <f t="shared" si="19"/>
+        <v>3.76650752652486</v>
+      </c>
+      <c r="AA92">
+        <f>SQRT((4*$T92)/($M$72*0.001))</f>
+        <v>6.1332801175227587</v>
+      </c>
+      <c r="AB92">
+        <f>SQRT((4*$T92)/(($M$72+$N$72)*0.001))</f>
+        <v>5.6282838367808363</v>
+      </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.45">
       <c r="E93">
         <v>2.4</v>
       </c>
@@ -5866,8 +9025,276 @@
         <v>462</v>
       </c>
       <c r="G93">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>F93-$F$93+1</f>
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <v>75</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="12"/>
+        <v>5.8411500000000007</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="13"/>
+        <v>7.8880999999999979</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="14"/>
+        <v>0.28453937500000004</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="15"/>
+        <v>0.33685749999999987</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="16"/>
+        <v>3.9776514348922034</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="17"/>
+        <v>3.6501432920683516</v>
+      </c>
+      <c r="Y93">
+        <f t="shared" si="18"/>
+        <v>4.3693928353948666</v>
+      </c>
+      <c r="Z93">
+        <f t="shared" si="19"/>
+        <v>4.0096298556035519</v>
+      </c>
+      <c r="AA93">
+        <f>SQRT((4*$T93)/($M$72*0.001))</f>
+        <v>6.4890051240540707</v>
+      </c>
+      <c r="AB93">
+        <f>SQRT((4*$T93)/(($M$72+$N$72)*0.001))</f>
+        <v>5.9547194904988014</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="P94">
+        <v>80</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="12"/>
+        <v>6.6999000000000013</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="13"/>
+        <v>9.7560999999999964</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="14"/>
+        <v>0.31589200000000006</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="15"/>
+        <v>0.38096799999999986</v>
+      </c>
+      <c r="W94">
+        <f t="shared" si="16"/>
+        <v>4.2167819483582507</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="17"/>
+        <v>3.8695845010189815</v>
+      </c>
+      <c r="Y94">
+        <f t="shared" si="18"/>
+        <v>4.6742379057981198</v>
+      </c>
+      <c r="Z94">
+        <f t="shared" si="19"/>
+        <v>4.2893748777770941</v>
+      </c>
+      <c r="AA94">
+        <f>SQRT((4*$T94)/($M$72*0.001))</f>
+        <v>6.9007970554132356</v>
+      </c>
+      <c r="AB94">
+        <f>SQRT((4*$T94)/(($M$72+$N$72)*0.001))</f>
+        <v>6.3326056830377562</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="P95">
+        <v>85</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="12"/>
+        <v>7.7636500000000019</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="13"/>
+        <v>12.144099999999995</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="14"/>
+        <v>0.3520508750000001</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="15"/>
+        <v>0.43571849999999984</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="16"/>
+        <v>4.4767376165573971</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="17"/>
+        <v>4.1081361825938592</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" si="18"/>
+        <v>5.0269678982464159</v>
+      </c>
+      <c r="Z95">
+        <f t="shared" si="19"/>
+        <v>4.6130621180798279</v>
+      </c>
+      <c r="AA95">
+        <f>SQRT((4*$T95)/($M$72*0.001))</f>
+        <v>7.3800279471015537</v>
+      </c>
+      <c r="AB95">
+        <f>SQRT((4*$T95)/(($M$72+$N$72)*0.001))</f>
+        <v>6.7723781098782334</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="P96">
+        <v>90</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="12"/>
+        <v>9.0549000000000017</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="13"/>
+        <v>15.112100000000005</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="14"/>
+        <v>0.39409725000000012</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="15"/>
+        <v>0.50385899999999983</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="16"/>
+        <v>4.7612055327406324</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="17"/>
+        <v>4.3691818456090852</v>
+      </c>
+      <c r="Y96">
+        <f t="shared" si="18"/>
+        <v>5.4340765084786939</v>
+      </c>
+      <c r="Z96">
+        <f t="shared" si="19"/>
+        <v>4.9866506004056781</v>
+      </c>
+      <c r="AA96">
+        <f>SQRT((4*$T96)/($M$72*0.001))</f>
+        <v>7.9361435848905844</v>
+      </c>
+      <c r="AB96">
+        <f>SQRT((4*$T96)/(($M$72+$N$72)*0.001))</f>
+        <v>7.2827048185192975</v>
+      </c>
+    </row>
+    <row r="97" spans="16:28" x14ac:dyDescent="0.45">
+      <c r="P97">
+        <v>95</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="12"/>
+        <v>10.596150000000002</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="13"/>
+        <v>18.720099999999999</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="14"/>
+        <v>0.44322487500000013</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="15"/>
+        <v>0.58843949999999978</v>
+      </c>
+      <c r="W97">
+        <f t="shared" si="16"/>
+        <v>5.073416470929625</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="17"/>
+        <v>4.6556862516372624</v>
+      </c>
+      <c r="Y97">
+        <f t="shared" si="18"/>
+        <v>5.9004634351887972</v>
+      </c>
+      <c r="Z97">
+        <f t="shared" si="19"/>
+        <v>5.4146365966410155</v>
+      </c>
+      <c r="AA97">
+        <f>SQRT((4*$T97)/($M$72*0.001))</f>
+        <v>8.5764175213197245</v>
+      </c>
+      <c r="AB97">
+        <f>SQRT((4*$T97)/(($M$72+$N$72)*0.001))</f>
+        <v>7.870260478535636</v>
+      </c>
+    </row>
+    <row r="98" spans="16:28" x14ac:dyDescent="0.45">
+      <c r="P98">
+        <v>100</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="12"/>
+        <v>12.4099</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="13"/>
+        <v>23.028099999999998</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="14"/>
+        <v>0.50074000000000018</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="15"/>
+        <v>0.69280999999999981</v>
+      </c>
+      <c r="W98">
+        <f t="shared" si="16"/>
+        <v>5.4161102278295639</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="17"/>
+        <v>4.9701636105654998</v>
+      </c>
+      <c r="Y98">
+        <f t="shared" si="18"/>
+        <v>6.4295120343615491</v>
+      </c>
+      <c r="Z98">
+        <f t="shared" si="19"/>
+        <v>5.9001248871706533</v>
+      </c>
+      <c r="AA98">
+        <f>SQRT((4*$T98)/($M$72*0.001))</f>
+        <v>9.3059792606689165</v>
+      </c>
+      <c r="AB98">
+        <f>SQRT((4*$T98)/(($M$72+$N$72)*0.001))</f>
+        <v>8.5397522458823492</v>
       </c>
     </row>
   </sheetData>

--- a/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DTU\Github\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F241CCB8-BF42-44BB-97D6-2C115A7C7F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5050D0BF-97E3-4815-BBC6-6BF613CAED07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
   <si>
     <t>enkeltløkke</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Dobbeltløkke</t>
   </si>
   <si>
-    <t>3.3 Affyringsrampe</t>
-  </si>
-  <si>
     <t>Brugt elastik</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
   </si>
   <si>
     <t>nulpunkt: 11N</t>
-  </si>
-  <si>
-    <t>Måleserie, hastighed fra afyringsrampe</t>
   </si>
   <si>
     <t>Bevægelse</t>
@@ -131,10 +125,22 @@
     <t>Målt kraft</t>
   </si>
   <si>
-    <t>Akumuleret kraft</t>
+    <t>Energitab rampe</t>
   </si>
   <si>
-    <t>Energitab rampe</t>
+    <t>3.3 Affyringsplatform</t>
+  </si>
+  <si>
+    <t>Måleserie, hastighed fra affyringsplatform</t>
+  </si>
+  <si>
+    <t>E pot</t>
+  </si>
+  <si>
+    <t>[Nm][J]</t>
+  </si>
+  <si>
+    <t>Akumuleret kraft Ekin</t>
   </si>
 </sst>
 </file>
@@ -1251,11 +1257,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="da-DK"/>
-              <a:t>Ny elastik i afyringsrampe</a:t>
+              <a:t>Ny elastik i affyringsplatform</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2892048731666072"/>
+          <c:y val="2.303905864220487E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1856,7 +1870,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="da-DK"/>
-              <a:t>Brugt elastik i afyringsrampe</a:t>
+              <a:t>Brugt elastik i affyringsplatform</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5032,8 +5046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D68" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AA80" sqref="AA80"/>
+    <sheetView tabSelected="1" topLeftCell="G68" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="V70" sqref="V70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7875,30 +7889,30 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
         <v>8</v>
       </c>
-      <c r="E70" t="s">
+      <c r="I70" t="s">
         <v>9</v>
       </c>
-      <c r="I70" t="s">
+      <c r="K70" t="s">
         <v>10</v>
       </c>
-      <c r="K70" t="s">
-        <v>11</v>
-      </c>
       <c r="M70" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P70" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.45">
@@ -7930,13 +7944,13 @@
         <v>3</v>
       </c>
       <c r="M71" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N71" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P71" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.45">
@@ -7977,7 +7991,7 @@
         <v>6</v>
       </c>
       <c r="P72">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.45">
@@ -8024,7 +8038,7 @@
         <v>98</v>
       </c>
       <c r="P74" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.45">
@@ -8049,22 +8063,22 @@
         <v>97</v>
       </c>
       <c r="Q75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S75" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U75" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y75" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA75" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.45">
@@ -8089,37 +8103,40 @@
         <v>97</v>
       </c>
       <c r="P76" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>12</v>
+      </c>
+      <c r="R76" t="s">
         <v>13</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="S76" t="s">
+        <v>15</v>
+      </c>
+      <c r="T76" t="s">
         <v>14</v>
       </c>
-      <c r="R76" t="s">
-        <v>15</v>
-      </c>
-      <c r="S76" t="s">
-        <v>17</v>
-      </c>
-      <c r="T76" t="s">
-        <v>16</v>
+      <c r="U76" t="s">
+        <v>32</v>
       </c>
       <c r="W76" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="X76" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y76" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z76" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA76" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB76" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.45">
@@ -8144,40 +8161,40 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>22</v>
+      </c>
+      <c r="R77" t="s">
+        <v>22</v>
+      </c>
+      <c r="S77" t="s">
         <v>23</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="T77" t="s">
+        <v>23</v>
+      </c>
+      <c r="U77" t="s">
+        <v>33</v>
+      </c>
+      <c r="W77" t="s">
         <v>24</v>
       </c>
-      <c r="R77" t="s">
+      <c r="X77" t="s">
         <v>24</v>
       </c>
-      <c r="S77" t="s">
-        <v>25</v>
-      </c>
-      <c r="T77" t="s">
-        <v>25</v>
-      </c>
-      <c r="U77" t="s">
-        <v>25</v>
-      </c>
-      <c r="W77" t="s">
-        <v>26</v>
-      </c>
-      <c r="X77" t="s">
-        <v>26</v>
-      </c>
       <c r="Y77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.45">
@@ -8255,7 +8272,7 @@
       </c>
       <c r="U79">
         <f>$P$72*9.81*$M$72*0.000001</f>
-        <v>3.1391999999999996E-2</v>
+        <v>0.12556799999999999</v>
       </c>
       <c r="W79" t="e">
         <f>SQRT((2*($S79-$U$79))/($M$72*0.001))</f>
@@ -8277,9 +8294,9 @@
         <f>SQRT((4*($T79-$U$79))/($M$72*0.001))</f>
         <v>#NUM!</v>
       </c>
-      <c r="AB79">
-        <f>SQRT((4*$T79)/(($M$72+$N$72)*0.001))</f>
-        <v>1.0518404922100268</v>
+      <c r="AB79" t="e">
+        <f>SQRT((4*($T79-$U$79))/(($M$72+$N$72)*0.001))</f>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.45">
@@ -8338,13 +8355,13 @@
         <f t="shared" ref="Z80:Z98" si="19">SQRT((2*($T80-$U$79))/(($M$72+$N$72)*0.001))</f>
         <v>#NUM!</v>
       </c>
-      <c r="AA80">
-        <f>SQRT((4*$T80)/($M$72*0.001))</f>
-        <v>1.8169686293384373</v>
-      </c>
-      <c r="AB80">
-        <f>SQRT((4*$T80)/(($M$72+$N$72)*0.001))</f>
-        <v>1.6673647660778652</v>
+      <c r="AA80" t="e">
+        <f t="shared" ref="AA80:AA98" si="20">SQRT((4*($T80-$U$79))/($M$72*0.001))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AB80" t="e">
+        <f t="shared" ref="AB80:AB98" si="21">SQRT((4*($T80-$U$79))/(($M$72+$N$72)*0.001))</f>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.45">
@@ -8387,29 +8404,29 @@
         <f t="shared" si="15"/>
         <v>4.5951499999999992E-2</v>
       </c>
-      <c r="W81">
+      <c r="W81" t="e">
         <f t="shared" si="16"/>
-        <v>0.85844608887221352</v>
-      </c>
-      <c r="X81">
+        <v>#NUM!</v>
+      </c>
+      <c r="X81" t="e">
         <f t="shared" si="17"/>
-        <v>0.78776415786772946</v>
-      </c>
-      <c r="Y81">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y81" t="e">
         <f t="shared" si="18"/>
-        <v>0.95392282182574906</v>
-      </c>
-      <c r="Z81">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z81" t="e">
         <f t="shared" si="19"/>
-        <v>0.87537961690012545</v>
-      </c>
-      <c r="AA81">
-        <f>SQRT((4*$T81)/($M$72*0.001))</f>
-        <v>2.3966513096401818</v>
-      </c>
-      <c r="AB81">
-        <f>SQRT((4*$T81)/(($M$72+$N$72)*0.001))</f>
-        <v>2.1993180761317812</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA81" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AB81" t="e">
+        <f t="shared" si="21"/>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.45">
@@ -8442,29 +8459,29 @@
         <f t="shared" si="15"/>
         <v>6.7681999999999992E-2</v>
       </c>
-      <c r="W82">
+      <c r="W82" t="e">
         <f t="shared" si="16"/>
-        <v>1.3429445260322561</v>
-      </c>
-      <c r="X82">
+        <v>#NUM!</v>
+      </c>
+      <c r="X82" t="e">
         <f t="shared" si="17"/>
-        <v>1.2323704159485751</v>
-      </c>
-      <c r="Y82">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y82" t="e">
         <f t="shared" si="18"/>
-        <v>1.5060295481829031</v>
-      </c>
-      <c r="Z82">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z82" t="e">
         <f t="shared" si="19"/>
-        <v>1.3820274961085253</v>
-      </c>
-      <c r="AA82">
-        <f>SQRT((4*$T82)/($M$72*0.001))</f>
-        <v>2.9086508900175696</v>
-      </c>
-      <c r="AB82">
-        <f>SQRT((4*$T82)/(($M$72+$N$72)*0.001))</f>
-        <v>2.6691611140265734</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA82" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AB82" t="e">
+        <f t="shared" si="21"/>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.45">
@@ -8497,29 +8514,29 @@
         <f t="shared" si="15"/>
         <v>9.0452499999999991E-2</v>
       </c>
-      <c r="W83">
+      <c r="W83" t="e">
         <f t="shared" si="16"/>
-        <v>1.7052744463868568</v>
-      </c>
-      <c r="X83">
+        <v>#NUM!</v>
+      </c>
+      <c r="X83" t="e">
         <f t="shared" si="17"/>
-        <v>1.5648671542742267</v>
-      </c>
-      <c r="Y83">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y83" t="e">
         <f t="shared" si="18"/>
-        <v>1.9212707383396019</v>
-      </c>
-      <c r="Z83">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z83" t="e">
         <f t="shared" si="19"/>
-        <v>1.7630789456008633</v>
-      </c>
-      <c r="AA83">
-        <f>SQRT((4*$T83)/($M$72*0.001))</f>
-        <v>3.3625232341204718</v>
-      </c>
-      <c r="AB83">
-        <f>SQRT((4*$T83)/(($M$72+$N$72)*0.001))</f>
-        <v>3.0856629416502517</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA83" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AB83" t="e">
+        <f t="shared" si="21"/>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.45">
@@ -8552,29 +8569,29 @@
         <f t="shared" si="15"/>
         <v>0.11341299999999999</v>
       </c>
-      <c r="W84">
+      <c r="W84" t="e">
         <f t="shared" si="16"/>
-        <v>2.0083614278809483</v>
-      </c>
-      <c r="X84">
+        <v>#NUM!</v>
+      </c>
+      <c r="X84" t="e">
         <f t="shared" si="17"/>
-        <v>1.8429988434185482</v>
-      </c>
-      <c r="Y84">
+        <v>#NUM!</v>
+      </c>
+      <c r="Y84" t="e">
         <f t="shared" si="18"/>
-        <v>2.26413614873311</v>
-      </c>
-      <c r="Z84">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z84" t="e">
         <f t="shared" si="19"/>
-        <v>2.077713824577895</v>
-      </c>
-      <c r="AA84">
-        <f>SQRT((4*$T84)/($M$72*0.001))</f>
-        <v>3.7651859183843763</v>
-      </c>
-      <c r="AB84">
-        <f>SQRT((4*$T84)/(($M$72+$N$72)*0.001))</f>
-        <v>3.4551715625010271</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA84" t="e">
+        <f t="shared" si="20"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AB84" t="e">
+        <f t="shared" si="21"/>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.45">
@@ -8607,29 +8624,29 @@
         <f t="shared" si="15"/>
         <v>0.13601349999999998</v>
       </c>
-      <c r="W85">
+      <c r="W85" t="e">
         <f t="shared" si="16"/>
-        <v>2.2738510147984634</v>
-      </c>
-      <c r="X85">
+        <v>#NUM!</v>
+      </c>
+      <c r="X85" t="e">
         <f t="shared" si="17"/>
-        <v>2.0866287970892441</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y85">
         <f t="shared" si="18"/>
-        <v>2.5571162957519156</v>
+        <v>0.80798746896223561</v>
       </c>
       <c r="Z85">
         <f t="shared" si="19"/>
-        <v>2.3465708463291928</v>
+        <v>0.74146015260075615</v>
       </c>
       <c r="AA85">
-        <f>SQRT((4*$T85)/($M$72*0.001))</f>
-        <v>4.1233102599731684</v>
+        <f t="shared" si="20"/>
+        <v>1.1426668368339039</v>
       </c>
       <c r="AB85">
-        <f>SQRT((4*$T85)/(($M$72+$N$72)*0.001))</f>
-        <v>3.7838089970710453</v>
+        <f t="shared" si="21"/>
+        <v>1.0485830037672141</v>
       </c>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.45">
@@ -8664,27 +8681,27 @@
       </c>
       <c r="W86">
         <f t="shared" si="16"/>
-        <v>2.513140465632592</v>
+        <v>0.65564853389602074</v>
       </c>
       <c r="X86">
         <f t="shared" si="17"/>
-        <v>2.3062158569716256</v>
+        <v>0.60166435825965392</v>
       </c>
       <c r="Y86">
         <f t="shared" si="18"/>
-        <v>2.8130499462327356</v>
+        <v>1.4238152970101141</v>
       </c>
       <c r="Z86">
         <f t="shared" si="19"/>
-        <v>2.5814316713181098</v>
+        <v>1.3065825250388288</v>
       </c>
       <c r="AA86">
-        <f>SQRT((4*$T86)/($M$72*0.001))</f>
-        <v>4.4441534626968044</v>
+        <f t="shared" si="20"/>
+        <v>2.0135789033459801</v>
       </c>
       <c r="AB86">
-        <f>SQRT((4*$T86)/(($M$72+$N$72)*0.001))</f>
-        <v>4.0782349123119426</v>
+        <f t="shared" si="21"/>
+        <v>1.8477867272695958</v>
       </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.45">
@@ -8719,27 +8736,27 @@
       </c>
       <c r="W87">
         <f t="shared" si="16"/>
-        <v>2.7339060312124848</v>
+        <v>1.260254810544281</v>
       </c>
       <c r="X87">
         <f t="shared" si="17"/>
-        <v>2.5088042339350687</v>
+        <v>1.1564891288996881</v>
       </c>
       <c r="Y87">
         <f t="shared" si="18"/>
-        <v>3.041817918613801</v>
+        <v>1.8348450207033833</v>
       </c>
       <c r="Z87">
         <f t="shared" si="19"/>
-        <v>2.7913635603976399</v>
+        <v>1.6837692678536511</v>
       </c>
       <c r="AA87">
-        <f>SQRT((4*$T87)/($M$72*0.001))</f>
-        <v>4.7359595120735563</v>
+        <f t="shared" si="20"/>
+        <v>2.5948627131314668</v>
       </c>
       <c r="AB87">
-        <f>SQRT((4*$T87)/(($M$72+$N$72)*0.001))</f>
-        <v>4.3460145081744903</v>
+        <f t="shared" si="21"/>
+        <v>2.38120933450565</v>
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.45">
@@ -8774,27 +8791,27 @@
       </c>
       <c r="W88">
         <f t="shared" si="16"/>
-        <v>2.9422488210550788</v>
+        <v>1.6645804651623186</v>
       </c>
       <c r="X88">
         <f t="shared" si="17"/>
-        <v>2.699992690048584</v>
+        <v>1.5275237960072576</v>
       </c>
       <c r="Y88">
         <f t="shared" si="18"/>
-        <v>3.2525278630628205</v>
+        <v>2.1663188823439636</v>
       </c>
       <c r="Z88">
         <f t="shared" si="19"/>
-        <v>2.9847242665560283</v>
+        <v>1.9879505447623822</v>
       </c>
       <c r="AA88">
-        <f>SQRT((4*$T88)/($M$72*0.001))</f>
-        <v>5.008180807438964</v>
+        <f t="shared" si="20"/>
+        <v>3.0636375438357586</v>
       </c>
       <c r="AB88">
-        <f>SQRT((4*$T88)/(($M$72+$N$72)*0.001))</f>
-        <v>4.5958219011802903</v>
+        <f t="shared" si="21"/>
+        <v>2.8113866217299432</v>
       </c>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.45">
@@ -8829,27 +8846,27 @@
       </c>
       <c r="W89">
         <f t="shared" si="16"/>
-        <v>3.1435636127649778</v>
+        <v>1.9989977957716716</v>
       </c>
       <c r="X89">
         <f t="shared" si="17"/>
-        <v>2.8847318127650876</v>
+        <v>1.8344061852903737</v>
       </c>
       <c r="Y89">
         <f t="shared" si="18"/>
-        <v>3.454376752758737</v>
+        <v>2.4590076758725257</v>
       </c>
       <c r="Z89">
         <f t="shared" si="19"/>
-        <v>3.1699535111982153</v>
+        <v>2.2565402022145595</v>
       </c>
       <c r="AA89">
-        <f>SQRT((4*$T89)/($M$72*0.001))</f>
-        <v>5.2715687892694705</v>
+        <f t="shared" si="20"/>
+        <v>3.4775620051984695</v>
       </c>
       <c r="AB89">
-        <f>SQRT((4*$T89)/(($M$72+$N$72)*0.001))</f>
-        <v>4.8375232897576179</v>
+        <f t="shared" si="21"/>
+        <v>3.1912297580119566</v>
       </c>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.45">
@@ -8884,27 +8901,27 @@
       </c>
       <c r="W90">
         <f t="shared" si="16"/>
-        <v>3.3429216263621857</v>
+        <v>2.2998097747422506</v>
       </c>
       <c r="X90">
         <f t="shared" si="17"/>
-        <v>3.0676752727346108</v>
+        <v>2.1104501889407392</v>
       </c>
       <c r="Y90">
         <f t="shared" si="18"/>
-        <v>3.6569625374072396</v>
+        <v>2.7363068175919159</v>
       </c>
       <c r="Z90">
         <f t="shared" si="19"/>
-        <v>3.3558589770257345</v>
+        <v>2.5110073466114828</v>
       </c>
       <c r="AA90">
-        <f>SQRT((4*$T90)/($M$72*0.001))</f>
-        <v>5.538117911348583</v>
+        <f t="shared" si="20"/>
+        <v>3.8697222122524497</v>
       </c>
       <c r="AB90">
-        <f>SQRT((4*$T90)/(($M$72+$N$72)*0.001))</f>
-        <v>5.0821255395749523</v>
+        <f t="shared" si="21"/>
+        <v>3.5511006447964384</v>
       </c>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.45">
@@ -8939,27 +8956,27 @@
       </c>
       <c r="W91">
         <f t="shared" si="16"/>
-        <v>3.5452289682755334</v>
+        <v>2.5850819015071851</v>
       </c>
       <c r="X91">
         <f t="shared" si="17"/>
-        <v>3.253325221984424</v>
+        <v>2.3722338461991126</v>
       </c>
       <c r="Y91">
         <f t="shared" si="18"/>
-        <v>3.8702753455019185</v>
+        <v>3.0154653455146847</v>
       </c>
       <c r="Z91">
         <f t="shared" si="19"/>
-        <v>3.5516082346778588</v>
+        <v>2.7671807808099937</v>
       </c>
       <c r="AA91">
-        <f>SQRT((4*$T91)/($M$72*0.001))</f>
-        <v>5.8208300524925125</v>
+        <f t="shared" si="20"/>
+        <v>4.2645119884929379</v>
       </c>
       <c r="AB91">
-        <f>SQRT((4*$T91)/(($M$72+$N$72)*0.001))</f>
-        <v>5.3415599929135613</v>
+        <f t="shared" si="21"/>
+        <v>3.913384589759664</v>
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.45">
@@ -8994,27 +9011,27 @@
       </c>
       <c r="W92">
         <f t="shared" si="16"/>
-        <v>3.7552650538943322</v>
+        <v>2.8663592979596957</v>
       </c>
       <c r="X92">
         <f t="shared" si="17"/>
-        <v>3.4460675528705713</v>
+        <v>2.6303516875125275</v>
       </c>
       <c r="Y92">
         <f t="shared" si="18"/>
-        <v>4.1044564195518012</v>
+        <v>3.3106740250287396</v>
       </c>
       <c r="Z92">
         <f t="shared" si="19"/>
-        <v>3.76650752652486</v>
+        <v>3.0380828442326995</v>
       </c>
       <c r="AA92">
-        <f>SQRT((4*$T92)/($M$72*0.001))</f>
-        <v>6.1332801175227587</v>
+        <f t="shared" si="20"/>
+        <v>4.6820001067919668</v>
       </c>
       <c r="AB92">
-        <f>SQRT((4*$T92)/(($M$72+$N$72)*0.001))</f>
-        <v>5.6282838367808363</v>
+        <f t="shared" si="21"/>
+        <v>4.2964979619269101</v>
       </c>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.45">
@@ -9049,27 +9066,27 @@
       </c>
       <c r="W93">
         <f t="shared" si="16"/>
-        <v>3.9776514348922034</v>
+        <v>3.1520962766863585</v>
       </c>
       <c r="X93">
         <f t="shared" si="17"/>
-        <v>3.6501432920683516</v>
+        <v>2.892561922186665</v>
       </c>
       <c r="Y93">
         <f t="shared" si="18"/>
-        <v>4.3693928353948666</v>
+        <v>3.633950157886042</v>
       </c>
       <c r="Z93">
         <f t="shared" si="19"/>
-        <v>4.0096298556035519</v>
+        <v>3.3347413692818808</v>
       </c>
       <c r="AA93">
-        <f>SQRT((4*$T93)/($M$72*0.001))</f>
-        <v>6.4890051240540707</v>
+        <f t="shared" si="20"/>
+        <v>5.1391815982702909</v>
       </c>
       <c r="AB93">
-        <f>SQRT((4*$T93)/(($M$72+$N$72)*0.001))</f>
-        <v>5.9547194904988014</v>
+        <f t="shared" si="21"/>
+        <v>4.7160364714450616</v>
       </c>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.45">
@@ -9094,27 +9111,27 @@
       </c>
       <c r="W94">
         <f t="shared" si="16"/>
-        <v>4.2167819483582507</v>
+        <v>3.4489491153103438</v>
       </c>
       <c r="X94">
         <f t="shared" si="17"/>
-        <v>3.8695845010189815</v>
+        <v>3.1649727694845895</v>
       </c>
       <c r="Y94">
         <f t="shared" si="18"/>
-        <v>4.6742379057981198</v>
+        <v>3.9953097501945942</v>
       </c>
       <c r="Z94">
         <f t="shared" si="19"/>
-        <v>4.2893748777770941</v>
+        <v>3.6663476735244145</v>
       </c>
       <c r="AA94">
-        <f>SQRT((4*$T94)/($M$72*0.001))</f>
-        <v>6.9007970554132356</v>
+        <f t="shared" si="20"/>
+        <v>5.6502212346066569</v>
       </c>
       <c r="AB94">
-        <f>SQRT((4*$T94)/(($M$72+$N$72)*0.001))</f>
-        <v>6.3326056830377562</v>
+        <f t="shared" si="21"/>
+        <v>5.1849986042732716</v>
       </c>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.45">
@@ -9139,27 +9156,27 @@
       </c>
       <c r="W95">
         <f t="shared" si="16"/>
-        <v>4.4767376165573971</v>
+        <v>3.762336998130285</v>
       </c>
       <c r="X95">
         <f t="shared" si="17"/>
-        <v>4.1081361825938592</v>
+        <v>3.4525572139777032</v>
       </c>
       <c r="Y95">
         <f t="shared" si="18"/>
-        <v>5.0269678982464159</v>
+        <v>4.4027725639646649</v>
       </c>
       <c r="Z95">
         <f t="shared" si="19"/>
-        <v>4.6130621180798279</v>
+        <v>4.0402611953085144</v>
       </c>
       <c r="AA95">
-        <f>SQRT((4*$T95)/($M$72*0.001))</f>
-        <v>7.3800279471015537</v>
+        <f t="shared" si="20"/>
+        <v>6.2264606720029949</v>
       </c>
       <c r="AB95">
-        <f>SQRT((4*$T95)/(($M$72+$N$72)*0.001))</f>
-        <v>6.7723781098782334</v>
+        <f t="shared" si="21"/>
+        <v>5.7137921779350327</v>
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.45">
@@ -9184,27 +9201,27 @@
       </c>
       <c r="W96">
         <f t="shared" si="16"/>
-        <v>4.7612055327406324</v>
+        <v>4.0967155289329051</v>
       </c>
       <c r="X96">
         <f t="shared" si="17"/>
-        <v>4.3691818456090852</v>
+        <v>3.7594039981162761</v>
       </c>
       <c r="Y96">
         <f t="shared" si="18"/>
-        <v>5.4340765084786939</v>
+        <v>4.8624260919833002</v>
       </c>
       <c r="Z96">
         <f t="shared" si="19"/>
-        <v>4.9866506004056781</v>
+        <v>4.4620682011348656</v>
       </c>
       <c r="AA96">
-        <f>SQRT((4*$T96)/($M$72*0.001))</f>
-        <v>7.9361435848905844</v>
+        <f t="shared" si="20"/>
+        <v>6.8765089253195901</v>
       </c>
       <c r="AB96">
-        <f>SQRT((4*$T96)/(($M$72+$N$72)*0.001))</f>
-        <v>7.2827048185192975</v>
+        <f t="shared" si="21"/>
+        <v>6.3103173662786469</v>
       </c>
     </row>
     <row r="97" spans="16:28" x14ac:dyDescent="0.45">
@@ -9229,27 +9246,27 @@
       </c>
       <c r="W97">
         <f t="shared" si="16"/>
-        <v>5.073416470929625</v>
+        <v>4.4557327890595069</v>
       </c>
       <c r="X97">
         <f t="shared" si="17"/>
-        <v>4.6556862516372624</v>
+        <v>4.0888608309328465</v>
       </c>
       <c r="Y97">
         <f t="shared" si="18"/>
-        <v>5.9004634351887972</v>
+        <v>5.3786121583546054</v>
       </c>
       <c r="Z97">
         <f t="shared" si="19"/>
-        <v>5.4146365966410155</v>
+        <v>4.9357530220561916</v>
       </c>
       <c r="AA97">
-        <f>SQRT((4*$T97)/($M$72*0.001))</f>
-        <v>8.5764175213197245</v>
+        <f t="shared" si="20"/>
+        <v>7.6065062610899075</v>
       </c>
       <c r="AB97">
-        <f>SQRT((4*$T97)/(($M$72+$N$72)*0.001))</f>
-        <v>7.870260478535636</v>
+        <f t="shared" si="21"/>
+        <v>6.9802088643158564</v>
       </c>
     </row>
     <row r="98" spans="16:28" x14ac:dyDescent="0.45">
@@ -9274,31 +9291,32 @@
       </c>
       <c r="W98">
         <f t="shared" si="16"/>
-        <v>5.4161102278295639</v>
+        <v>4.8423393107051069</v>
       </c>
       <c r="X98">
         <f t="shared" si="17"/>
-        <v>4.9701636105654998</v>
+        <v>4.4436353064627294</v>
       </c>
       <c r="Y98">
         <f t="shared" si="18"/>
-        <v>6.4295120343615491</v>
+        <v>5.9542106949620104</v>
       </c>
       <c r="Z98">
         <f t="shared" si="19"/>
-        <v>5.9001248871706533</v>
+        <v>5.4639584648186288</v>
       </c>
       <c r="AA98">
-        <f>SQRT((4*$T98)/($M$72*0.001))</f>
-        <v>9.3059792606689165</v>
+        <f t="shared" si="20"/>
+        <v>8.4205255180422061</v>
       </c>
       <c r="AB98">
-        <f>SQRT((4*$T98)/(($M$72+$N$72)*0.001))</f>
-        <v>8.5397522458823492</v>
+        <f t="shared" si="21"/>
+        <v>7.7272041651897805</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DTU\Github\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s224870_dtu_dk/Documents/Skrivebord/DTU-projekter/Mekanisk produktanalyse/Projekt 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F241CCB8-BF42-44BB-97D6-2C115A7C7F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{F241CCB8-BF42-44BB-97D6-2C115A7C7F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7215C29-CE06-4BA0-9499-43DA5F5AA591}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>nulpunkt: 11N</t>
   </si>
   <si>
-    <t>Måleserie, hastighed fra afyringsrampe</t>
-  </si>
-  <si>
     <t>Bevægelse</t>
   </si>
   <si>
@@ -84,12 +81,6 @@
   </si>
   <si>
     <t>F ny</t>
-  </si>
-  <si>
-    <t>F Ny Akum</t>
-  </si>
-  <si>
-    <t>F Bru Akum</t>
   </si>
   <si>
     <t>Vægt Bil</t>
@@ -135,6 +126,15 @@
   </si>
   <si>
     <t>Energitab rampe</t>
+  </si>
+  <si>
+    <t>Ekin Ny Akum</t>
+  </si>
+  <si>
+    <t>Ekin Bru Akum</t>
+  </si>
+  <si>
+    <t>Måleserie, hastighed fra affyringsrampe</t>
   </si>
 </sst>
 </file>
@@ -200,7 +200,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -637,7 +637,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1219,7 +1219,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1251,7 +1251,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="da-DK"/>
-              <a:t>Ny elastik i afyringsrampe</a:t>
+              <a:t>Ny elastik i affyringsrampe</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1824,7 +1824,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1856,7 +1856,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="da-DK"/>
-              <a:t>Brugt elastik i afyringsrampe</a:t>
+              <a:t>Brugt elastik i affyringsrampe</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5032,11 +5032,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D68" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AA80" sqref="AA80"/>
+    <sheetView tabSelected="1" topLeftCell="F63" zoomScale="97" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P74" sqref="P74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.86328125" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.1328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -7892,13 +7903,13 @@
         <v>11</v>
       </c>
       <c r="M70" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N70" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P70" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.45">
@@ -7930,13 +7941,13 @@
         <v>3</v>
       </c>
       <c r="M71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P71" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.45">
@@ -8024,7 +8035,7 @@
         <v>98</v>
       </c>
       <c r="P74" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.45">
@@ -8049,22 +8060,22 @@
         <v>97</v>
       </c>
       <c r="Q75" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S75" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="U75" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="W75" t="s">
         <v>8</v>
       </c>
       <c r="Y75" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AA75" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.45">
@@ -8089,37 +8100,37 @@
         <v>97</v>
       </c>
       <c r="P76" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q76" t="s">
         <v>13</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="R76" t="s">
         <v>14</v>
       </c>
-      <c r="R76" t="s">
-        <v>15</v>
-      </c>
       <c r="S76" t="s">
+        <v>31</v>
+      </c>
+      <c r="T76" t="s">
+        <v>30</v>
+      </c>
+      <c r="W76" t="s">
         <v>17</v>
       </c>
-      <c r="T76" t="s">
-        <v>16</v>
-      </c>
-      <c r="W76" t="s">
-        <v>20</v>
-      </c>
       <c r="X76" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y76" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z76" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AA76" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AB76" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.45">
@@ -8144,40 +8155,40 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>21</v>
+      </c>
+      <c r="R77" t="s">
+        <v>21</v>
+      </c>
+      <c r="S77" t="s">
+        <v>22</v>
+      </c>
+      <c r="T77" t="s">
+        <v>22</v>
+      </c>
+      <c r="U77" t="s">
+        <v>22</v>
+      </c>
+      <c r="W77" t="s">
         <v>23</v>
       </c>
-      <c r="Q77" t="s">
-        <v>24</v>
-      </c>
-      <c r="R77" t="s">
-        <v>24</v>
-      </c>
-      <c r="S77" t="s">
-        <v>25</v>
-      </c>
-      <c r="T77" t="s">
-        <v>25</v>
-      </c>
-      <c r="U77" t="s">
-        <v>25</v>
-      </c>
-      <c r="W77" t="s">
-        <v>26</v>
-      </c>
       <c r="X77" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y77" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z77" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA77" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB77" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.45">
@@ -8278,7 +8289,7 @@
         <v>#NUM!</v>
       </c>
       <c r="AB79">
-        <f>SQRT((4*$T79)/(($M$72+$N$72)*0.001))</f>
+        <f t="shared" ref="AB79:AB98" si="14">SQRT((4*$T79)/(($M$72+$N$72)*0.001))</f>
         <v>1.0518404922100268</v>
       </c>
     </row>
@@ -8315,35 +8326,35 @@
         <v>3.6240999999999994</v>
       </c>
       <c r="S80">
-        <f t="shared" ref="S80:S98" si="14">(P80-P79)*((Q79+Q80)/2)*0.001+S79</f>
+        <f t="shared" ref="S80:S98" si="15">(P80-P79)*((Q79+Q80)/2)*0.001+S79</f>
         <v>2.7105250000000001E-2</v>
       </c>
       <c r="T80">
-        <f t="shared" ref="T80:T98" si="15">(P80-P79)*((R79+R80)/2)*0.001+T79</f>
+        <f t="shared" ref="T80:T98" si="16">(P80-P79)*((R79+R80)/2)*0.001+T79</f>
         <v>2.6410999999999997E-2</v>
       </c>
       <c r="W80" t="e">
-        <f t="shared" ref="W80:W98" si="16">SQRT((2*($S80-$U$79))/($M$72*0.001))</f>
+        <f t="shared" ref="W80:W98" si="17">SQRT((2*($S80-$U$79))/($M$72*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="X80" t="e">
-        <f t="shared" ref="X80:X98" si="17">SQRT((2*($S80-$U$79))/(($M$72+$N$72)*0.001))</f>
+        <f t="shared" ref="X80:X98" si="18">SQRT((2*($S80-$U$79))/(($M$72+$N$72)*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="Y80" t="e">
-        <f t="shared" ref="Y80:Y98" si="18">SQRT((2*($T80-$U$79))/($M$72*0.001))</f>
+        <f t="shared" ref="Y80:Y98" si="19">SQRT((2*($T80-$U$79))/($M$72*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="Z80" t="e">
-        <f t="shared" ref="Z80:Z98" si="19">SQRT((2*($T80-$U$79))/(($M$72+$N$72)*0.001))</f>
+        <f t="shared" ref="Z80:Z98" si="20">SQRT((2*($T80-$U$79))/(($M$72+$N$72)*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="AA80">
-        <f>SQRT((4*$T80)/($M$72*0.001))</f>
+        <f t="shared" ref="AA80:AA98" si="21">SQRT((4*$T80)/($M$72*0.001))</f>
         <v>1.8169686293384373</v>
       </c>
       <c r="AB80">
-        <f>SQRT((4*$T80)/(($M$72+$N$72)*0.001))</f>
+        <f t="shared" si="14"/>
         <v>1.6673647660778652</v>
       </c>
     </row>
@@ -8380,35 +8391,35 @@
         <v>4.192099999999999</v>
       </c>
       <c r="S81">
+        <f t="shared" si="15"/>
+        <v>4.3182875000000003E-2</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="16"/>
+        <v>4.5951499999999992E-2</v>
+      </c>
+      <c r="W81">
+        <f>SQRT((2*($S81-$U$79))/($M$72*0.001))</f>
+        <v>0.85844608887221352</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="18"/>
+        <v>0.78776415786772946</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="19"/>
+        <v>0.95392282182574906</v>
+      </c>
+      <c r="Z81">
+        <f t="shared" si="20"/>
+        <v>0.87537961690012545</v>
+      </c>
+      <c r="AA81">
+        <f t="shared" si="21"/>
+        <v>2.3966513096401818</v>
+      </c>
+      <c r="AB81">
         <f t="shared" si="14"/>
-        <v>4.3182875000000003E-2</v>
-      </c>
-      <c r="T81">
-        <f t="shared" si="15"/>
-        <v>4.5951499999999992E-2</v>
-      </c>
-      <c r="W81">
-        <f t="shared" si="16"/>
-        <v>0.85844608887221352</v>
-      </c>
-      <c r="X81">
-        <f t="shared" si="17"/>
-        <v>0.78776415786772946</v>
-      </c>
-      <c r="Y81">
-        <f t="shared" si="18"/>
-        <v>0.95392282182574906</v>
-      </c>
-      <c r="Z81">
-        <f t="shared" si="19"/>
-        <v>0.87537961690012545</v>
-      </c>
-      <c r="AA81">
-        <f>SQRT((4*$T81)/($M$72*0.001))</f>
-        <v>2.3966513096401818</v>
-      </c>
-      <c r="AB81">
-        <f>SQRT((4*$T81)/(($M$72+$N$72)*0.001))</f>
         <v>2.1993180761317812</v>
       </c>
     </row>
@@ -8435,35 +8446,35 @@
         <v>4.5000999999999989</v>
       </c>
       <c r="S82">
+        <f t="shared" si="15"/>
+        <v>6.024800000000001E-2</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="16"/>
+        <v>6.7681999999999992E-2</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="17"/>
+        <v>1.3429445260322561</v>
+      </c>
+      <c r="X82">
+        <f>SQRT((2*($S82-$U$79))/(($M$72+$N$72)*0.001))</f>
+        <v>1.2323704159485751</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="19"/>
+        <v>1.5060295481829031</v>
+      </c>
+      <c r="Z82">
+        <f t="shared" si="20"/>
+        <v>1.3820274961085253</v>
+      </c>
+      <c r="AA82">
+        <f t="shared" si="21"/>
+        <v>2.9086508900175696</v>
+      </c>
+      <c r="AB82">
         <f t="shared" si="14"/>
-        <v>6.024800000000001E-2</v>
-      </c>
-      <c r="T82">
-        <f t="shared" si="15"/>
-        <v>6.7681999999999992E-2</v>
-      </c>
-      <c r="W82">
-        <f t="shared" si="16"/>
-        <v>1.3429445260322561</v>
-      </c>
-      <c r="X82">
-        <f t="shared" si="17"/>
-        <v>1.2323704159485751</v>
-      </c>
-      <c r="Y82">
-        <f t="shared" si="18"/>
-        <v>1.5060295481829031</v>
-      </c>
-      <c r="Z82">
-        <f t="shared" si="19"/>
-        <v>1.3820274961085253</v>
-      </c>
-      <c r="AA82">
-        <f>SQRT((4*$T82)/($M$72*0.001))</f>
-        <v>2.9086508900175696</v>
-      </c>
-      <c r="AB82">
-        <f>SQRT((4*$T82)/(($M$72+$N$72)*0.001))</f>
         <v>2.6691611140265734</v>
       </c>
     </row>
@@ -8490,35 +8501,35 @@
         <v>4.6080999999999994</v>
       </c>
       <c r="S83">
+        <f t="shared" si="15"/>
+        <v>7.7919375000000013E-2</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="16"/>
+        <v>9.0452499999999991E-2</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="17"/>
+        <v>1.7052744463868568</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="18"/>
+        <v>1.5648671542742267</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="19"/>
+        <v>1.9212707383396019</v>
+      </c>
+      <c r="Z83">
+        <f t="shared" si="20"/>
+        <v>1.7630789456008633</v>
+      </c>
+      <c r="AA83">
+        <f t="shared" si="21"/>
+        <v>3.3625232341204718</v>
+      </c>
+      <c r="AB83">
         <f t="shared" si="14"/>
-        <v>7.7919375000000013E-2</v>
-      </c>
-      <c r="T83">
-        <f t="shared" si="15"/>
-        <v>9.0452499999999991E-2</v>
-      </c>
-      <c r="W83">
-        <f t="shared" si="16"/>
-        <v>1.7052744463868568</v>
-      </c>
-      <c r="X83">
-        <f t="shared" si="17"/>
-        <v>1.5648671542742267</v>
-      </c>
-      <c r="Y83">
-        <f t="shared" si="18"/>
-        <v>1.9212707383396019</v>
-      </c>
-      <c r="Z83">
-        <f t="shared" si="19"/>
-        <v>1.7630789456008633</v>
-      </c>
-      <c r="AA83">
-        <f>SQRT((4*$T83)/($M$72*0.001))</f>
-        <v>3.3625232341204718</v>
-      </c>
-      <c r="AB83">
-        <f>SQRT((4*$T83)/(($M$72+$N$72)*0.001))</f>
         <v>3.0856629416502517</v>
       </c>
     </row>
@@ -8545,35 +8556,35 @@
         <v>4.5760999999999976</v>
       </c>
       <c r="S84">
+        <f t="shared" si="15"/>
+        <v>9.592825000000002E-2</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="16"/>
+        <v>0.11341299999999999</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="17"/>
+        <v>2.0083614278809483</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="18"/>
+        <v>1.8429988434185482</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="19"/>
+        <v>2.26413614873311</v>
+      </c>
+      <c r="Z84">
+        <f t="shared" si="20"/>
+        <v>2.077713824577895</v>
+      </c>
+      <c r="AA84">
+        <f t="shared" si="21"/>
+        <v>3.7651859183843763</v>
+      </c>
+      <c r="AB84">
         <f t="shared" si="14"/>
-        <v>9.592825000000002E-2</v>
-      </c>
-      <c r="T84">
-        <f t="shared" si="15"/>
-        <v>0.11341299999999999</v>
-      </c>
-      <c r="W84">
-        <f t="shared" si="16"/>
-        <v>2.0083614278809483</v>
-      </c>
-      <c r="X84">
-        <f t="shared" si="17"/>
-        <v>1.8429988434185482</v>
-      </c>
-      <c r="Y84">
-        <f t="shared" si="18"/>
-        <v>2.26413614873311</v>
-      </c>
-      <c r="Z84">
-        <f t="shared" si="19"/>
-        <v>2.077713824577895</v>
-      </c>
-      <c r="AA84">
-        <f>SQRT((4*$T84)/($M$72*0.001))</f>
-        <v>3.7651859183843763</v>
-      </c>
-      <c r="AB84">
-        <f>SQRT((4*$T84)/(($M$72+$N$72)*0.001))</f>
         <v>3.4551715625010271</v>
       </c>
     </row>
@@ -8600,35 +8611,35 @@
         <v>4.4640999999999966</v>
       </c>
       <c r="S85">
+        <f t="shared" si="15"/>
+        <v>0.11411837500000002</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="16"/>
+        <v>0.13601349999999998</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="17"/>
+        <v>2.2738510147984634</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="18"/>
+        <v>2.0866287970892441</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="19"/>
+        <v>2.5571162957519156</v>
+      </c>
+      <c r="Z85">
+        <f t="shared" si="20"/>
+        <v>2.3465708463291928</v>
+      </c>
+      <c r="AA85">
+        <f t="shared" si="21"/>
+        <v>4.1233102599731684</v>
+      </c>
+      <c r="AB85">
         <f t="shared" si="14"/>
-        <v>0.11411837500000002</v>
-      </c>
-      <c r="T85">
-        <f t="shared" si="15"/>
-        <v>0.13601349999999998</v>
-      </c>
-      <c r="W85">
-        <f t="shared" si="16"/>
-        <v>2.2738510147984634</v>
-      </c>
-      <c r="X85">
-        <f t="shared" si="17"/>
-        <v>2.0866287970892441</v>
-      </c>
-      <c r="Y85">
-        <f t="shared" si="18"/>
-        <v>2.5571162957519156</v>
-      </c>
-      <c r="Z85">
-        <f t="shared" si="19"/>
-        <v>2.3465708463291928</v>
-      </c>
-      <c r="AA85">
-        <f>SQRT((4*$T85)/($M$72*0.001))</f>
-        <v>4.1233102599731684</v>
-      </c>
-      <c r="AB85">
-        <f>SQRT((4*$T85)/(($M$72+$N$72)*0.001))</f>
         <v>3.7838089970710453</v>
       </c>
     </row>
@@ -8655,35 +8666,35 @@
         <v>4.332099999999997</v>
       </c>
       <c r="S86">
+        <f t="shared" si="15"/>
+        <v>0.13244600000000001</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="16"/>
+        <v>0.15800399999999998</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="17"/>
+        <v>2.513140465632592</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="18"/>
+        <v>2.3062158569716256</v>
+      </c>
+      <c r="Y86">
+        <f t="shared" si="19"/>
+        <v>2.8130499462327356</v>
+      </c>
+      <c r="Z86">
+        <f t="shared" si="20"/>
+        <v>2.5814316713181098</v>
+      </c>
+      <c r="AA86">
+        <f t="shared" si="21"/>
+        <v>4.4441534626968044</v>
+      </c>
+      <c r="AB86">
         <f t="shared" si="14"/>
-        <v>0.13244600000000001</v>
-      </c>
-      <c r="T86">
-        <f t="shared" si="15"/>
-        <v>0.15800399999999998</v>
-      </c>
-      <c r="W86">
-        <f t="shared" si="16"/>
-        <v>2.513140465632592</v>
-      </c>
-      <c r="X86">
-        <f t="shared" si="17"/>
-        <v>2.3062158569716256</v>
-      </c>
-      <c r="Y86">
-        <f t="shared" si="18"/>
-        <v>2.8130499462327356</v>
-      </c>
-      <c r="Z86">
-        <f t="shared" si="19"/>
-        <v>2.5814316713181098</v>
-      </c>
-      <c r="AA86">
-        <f>SQRT((4*$T86)/($M$72*0.001))</f>
-        <v>4.4441534626968044</v>
-      </c>
-      <c r="AB86">
-        <f>SQRT((4*$T86)/(($M$72+$N$72)*0.001))</f>
         <v>4.0782349123119426</v>
       </c>
     </row>
@@ -8710,35 +8721,35 @@
         <v>4.2401</v>
       </c>
       <c r="S87">
+        <f t="shared" si="15"/>
+        <v>0.15097987500000001</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="16"/>
+        <v>0.17943449999999997</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="17"/>
+        <v>2.7339060312124848</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="18"/>
+        <v>2.5088042339350687</v>
+      </c>
+      <c r="Y87">
+        <f t="shared" si="19"/>
+        <v>3.041817918613801</v>
+      </c>
+      <c r="Z87">
+        <f t="shared" si="20"/>
+        <v>2.7913635603976399</v>
+      </c>
+      <c r="AA87">
+        <f t="shared" si="21"/>
+        <v>4.7359595120735563</v>
+      </c>
+      <c r="AB87">
         <f t="shared" si="14"/>
-        <v>0.15097987500000001</v>
-      </c>
-      <c r="T87">
-        <f t="shared" si="15"/>
-        <v>0.17943449999999997</v>
-      </c>
-      <c r="W87">
-        <f t="shared" si="16"/>
-        <v>2.7339060312124848</v>
-      </c>
-      <c r="X87">
-        <f t="shared" si="17"/>
-        <v>2.5088042339350687</v>
-      </c>
-      <c r="Y87">
-        <f t="shared" si="18"/>
-        <v>3.041817918613801</v>
-      </c>
-      <c r="Z87">
-        <f t="shared" si="19"/>
-        <v>2.7913635603976399</v>
-      </c>
-      <c r="AA87">
-        <f>SQRT((4*$T87)/($M$72*0.001))</f>
-        <v>4.7359595120735563</v>
-      </c>
-      <c r="AB87">
-        <f>SQRT((4*$T87)/(($M$72+$N$72)*0.001))</f>
         <v>4.3460145081744903</v>
       </c>
     </row>
@@ -8765,35 +8776,35 @@
         <v>4.2480999999999991</v>
       </c>
       <c r="S88">
+        <f t="shared" si="15"/>
+        <v>0.16990125</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="16"/>
+        <v>0.20065499999999997</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="17"/>
+        <v>2.9422488210550788</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="18"/>
+        <v>2.699992690048584</v>
+      </c>
+      <c r="Y88">
+        <f t="shared" si="19"/>
+        <v>3.2525278630628205</v>
+      </c>
+      <c r="Z88">
+        <f t="shared" si="20"/>
+        <v>2.9847242665560283</v>
+      </c>
+      <c r="AA88">
+        <f t="shared" si="21"/>
+        <v>5.008180807438964</v>
+      </c>
+      <c r="AB88">
         <f t="shared" si="14"/>
-        <v>0.16990125</v>
-      </c>
-      <c r="T88">
-        <f t="shared" si="15"/>
-        <v>0.20065499999999997</v>
-      </c>
-      <c r="W88">
-        <f t="shared" si="16"/>
-        <v>2.9422488210550788</v>
-      </c>
-      <c r="X88">
-        <f t="shared" si="17"/>
-        <v>2.699992690048584</v>
-      </c>
-      <c r="Y88">
-        <f t="shared" si="18"/>
-        <v>3.2525278630628205</v>
-      </c>
-      <c r="Z88">
-        <f t="shared" si="19"/>
-        <v>2.9847242665560283</v>
-      </c>
-      <c r="AA88">
-        <f>SQRT((4*$T88)/($M$72*0.001))</f>
-        <v>5.008180807438964</v>
-      </c>
-      <c r="AB88">
-        <f>SQRT((4*$T88)/(($M$72+$N$72)*0.001))</f>
         <v>4.5958219011802903</v>
       </c>
     </row>
@@ -8820,35 +8831,35 @@
         <v>4.4160999999999984</v>
       </c>
       <c r="S89">
+        <f t="shared" si="15"/>
+        <v>0.18950387500000002</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="16"/>
+        <v>0.22231549999999997</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="17"/>
+        <v>3.1435636127649778</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="18"/>
+        <v>2.8847318127650876</v>
+      </c>
+      <c r="Y89">
+        <f t="shared" si="19"/>
+        <v>3.454376752758737</v>
+      </c>
+      <c r="Z89">
+        <f t="shared" si="20"/>
+        <v>3.1699535111982153</v>
+      </c>
+      <c r="AA89">
+        <f t="shared" si="21"/>
+        <v>5.2715687892694705</v>
+      </c>
+      <c r="AB89">
         <f t="shared" si="14"/>
-        <v>0.18950387500000002</v>
-      </c>
-      <c r="T89">
-        <f t="shared" si="15"/>
-        <v>0.22231549999999997</v>
-      </c>
-      <c r="W89">
-        <f t="shared" si="16"/>
-        <v>3.1435636127649778</v>
-      </c>
-      <c r="X89">
-        <f t="shared" si="17"/>
-        <v>2.8847318127650876</v>
-      </c>
-      <c r="Y89">
-        <f t="shared" si="18"/>
-        <v>3.454376752758737</v>
-      </c>
-      <c r="Z89">
-        <f t="shared" si="19"/>
-        <v>3.1699535111982153</v>
-      </c>
-      <c r="AA89">
-        <f>SQRT((4*$T89)/($M$72*0.001))</f>
-        <v>5.2715687892694705</v>
-      </c>
-      <c r="AB89">
-        <f>SQRT((4*$T89)/(($M$72+$N$72)*0.001))</f>
         <v>4.8375232897576179</v>
       </c>
     </row>
@@ -8875,35 +8886,35 @@
         <v>4.8040999999999947</v>
       </c>
       <c r="S90">
+        <f t="shared" si="15"/>
+        <v>0.21019400000000002</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="16"/>
+        <v>0.24536599999999995</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="17"/>
+        <v>3.3429216263621857</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="18"/>
+        <v>3.0676752727346108</v>
+      </c>
+      <c r="Y90">
+        <f t="shared" si="19"/>
+        <v>3.6569625374072396</v>
+      </c>
+      <c r="Z90">
+        <f t="shared" si="20"/>
+        <v>3.3558589770257345</v>
+      </c>
+      <c r="AA90">
+        <f t="shared" si="21"/>
+        <v>5.538117911348583</v>
+      </c>
+      <c r="AB90">
         <f t="shared" si="14"/>
-        <v>0.21019400000000002</v>
-      </c>
-      <c r="T90">
-        <f t="shared" si="15"/>
-        <v>0.24536599999999995</v>
-      </c>
-      <c r="W90">
-        <f t="shared" si="16"/>
-        <v>3.3429216263621857</v>
-      </c>
-      <c r="X90">
-        <f t="shared" si="17"/>
-        <v>3.0676752727346108</v>
-      </c>
-      <c r="Y90">
-        <f t="shared" si="18"/>
-        <v>3.6569625374072396</v>
-      </c>
-      <c r="Z90">
-        <f t="shared" si="19"/>
-        <v>3.3558589770257345</v>
-      </c>
-      <c r="AA90">
-        <f>SQRT((4*$T90)/($M$72*0.001))</f>
-        <v>5.538117911348583</v>
-      </c>
-      <c r="AB90">
-        <f>SQRT((4*$T90)/(($M$72+$N$72)*0.001))</f>
         <v>5.0821255395749523</v>
       </c>
     </row>
@@ -8930,35 +8941,35 @@
         <v>5.4721000000000011</v>
       </c>
       <c r="S91">
+        <f t="shared" si="15"/>
+        <v>0.23249037500000003</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="16"/>
+        <v>0.27105649999999992</v>
+      </c>
+      <c r="W91">
+        <f t="shared" si="17"/>
+        <v>3.5452289682755334</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="18"/>
+        <v>3.253325221984424</v>
+      </c>
+      <c r="Y91">
+        <f t="shared" si="19"/>
+        <v>3.8702753455019185</v>
+      </c>
+      <c r="Z91">
+        <f t="shared" si="20"/>
+        <v>3.5516082346778588</v>
+      </c>
+      <c r="AA91">
+        <f t="shared" si="21"/>
+        <v>5.8208300524925125</v>
+      </c>
+      <c r="AB91">
         <f t="shared" si="14"/>
-        <v>0.23249037500000003</v>
-      </c>
-      <c r="T91">
-        <f t="shared" si="15"/>
-        <v>0.27105649999999992</v>
-      </c>
-      <c r="W91">
-        <f t="shared" si="16"/>
-        <v>3.5452289682755334</v>
-      </c>
-      <c r="X91">
-        <f t="shared" si="17"/>
-        <v>3.253325221984424</v>
-      </c>
-      <c r="Y91">
-        <f t="shared" si="18"/>
-        <v>3.8702753455019185</v>
-      </c>
-      <c r="Z91">
-        <f t="shared" si="19"/>
-        <v>3.5516082346778588</v>
-      </c>
-      <c r="AA91">
-        <f>SQRT((4*$T91)/($M$72*0.001))</f>
-        <v>5.8208300524925125</v>
-      </c>
-      <c r="AB91">
-        <f>SQRT((4*$T91)/(($M$72+$N$72)*0.001))</f>
         <v>5.3415599929135613</v>
       </c>
     </row>
@@ -8985,35 +8996,35 @@
         <v>6.4800999999999931</v>
       </c>
       <c r="S92">
+        <f t="shared" si="15"/>
+        <v>0.25702425000000001</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="16"/>
+        <v>0.3009369999999999</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="17"/>
+        <v>3.7552650538943322</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="18"/>
+        <v>3.4460675528705713</v>
+      </c>
+      <c r="Y92">
+        <f t="shared" si="19"/>
+        <v>4.1044564195518012</v>
+      </c>
+      <c r="Z92">
+        <f t="shared" si="20"/>
+        <v>3.76650752652486</v>
+      </c>
+      <c r="AA92">
+        <f t="shared" si="21"/>
+        <v>6.1332801175227587</v>
+      </c>
+      <c r="AB92">
         <f t="shared" si="14"/>
-        <v>0.25702425000000001</v>
-      </c>
-      <c r="T92">
-        <f t="shared" si="15"/>
-        <v>0.3009369999999999</v>
-      </c>
-      <c r="W92">
-        <f t="shared" si="16"/>
-        <v>3.7552650538943322</v>
-      </c>
-      <c r="X92">
-        <f t="shared" si="17"/>
-        <v>3.4460675528705713</v>
-      </c>
-      <c r="Y92">
-        <f t="shared" si="18"/>
-        <v>4.1044564195518012</v>
-      </c>
-      <c r="Z92">
-        <f t="shared" si="19"/>
-        <v>3.76650752652486</v>
-      </c>
-      <c r="AA92">
-        <f>SQRT((4*$T92)/($M$72*0.001))</f>
-        <v>6.1332801175227587</v>
-      </c>
-      <c r="AB92">
-        <f>SQRT((4*$T92)/(($M$72+$N$72)*0.001))</f>
         <v>5.6282838367808363</v>
       </c>
     </row>
@@ -9040,35 +9051,35 @@
         <v>7.8880999999999979</v>
       </c>
       <c r="S93">
+        <f t="shared" si="15"/>
+        <v>0.28453937500000004</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="16"/>
+        <v>0.33685749999999987</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="17"/>
+        <v>3.9776514348922034</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="18"/>
+        <v>3.6501432920683516</v>
+      </c>
+      <c r="Y93">
+        <f t="shared" si="19"/>
+        <v>4.3693928353948666</v>
+      </c>
+      <c r="Z93">
+        <f t="shared" si="20"/>
+        <v>4.0096298556035519</v>
+      </c>
+      <c r="AA93">
+        <f t="shared" si="21"/>
+        <v>6.4890051240540707</v>
+      </c>
+      <c r="AB93">
         <f t="shared" si="14"/>
-        <v>0.28453937500000004</v>
-      </c>
-      <c r="T93">
-        <f t="shared" si="15"/>
-        <v>0.33685749999999987</v>
-      </c>
-      <c r="W93">
-        <f t="shared" si="16"/>
-        <v>3.9776514348922034</v>
-      </c>
-      <c r="X93">
-        <f t="shared" si="17"/>
-        <v>3.6501432920683516</v>
-      </c>
-      <c r="Y93">
-        <f t="shared" si="18"/>
-        <v>4.3693928353948666</v>
-      </c>
-      <c r="Z93">
-        <f t="shared" si="19"/>
-        <v>4.0096298556035519</v>
-      </c>
-      <c r="AA93">
-        <f>SQRT((4*$T93)/($M$72*0.001))</f>
-        <v>6.4890051240540707</v>
-      </c>
-      <c r="AB93">
-        <f>SQRT((4*$T93)/(($M$72+$N$72)*0.001))</f>
         <v>5.9547194904988014</v>
       </c>
     </row>
@@ -9085,35 +9096,35 @@
         <v>9.7560999999999964</v>
       </c>
       <c r="S94">
+        <f t="shared" si="15"/>
+        <v>0.31589200000000006</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="16"/>
+        <v>0.38096799999999986</v>
+      </c>
+      <c r="W94">
+        <f t="shared" si="17"/>
+        <v>4.2167819483582507</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="18"/>
+        <v>3.8695845010189815</v>
+      </c>
+      <c r="Y94">
+        <f t="shared" si="19"/>
+        <v>4.6742379057981198</v>
+      </c>
+      <c r="Z94">
+        <f t="shared" si="20"/>
+        <v>4.2893748777770941</v>
+      </c>
+      <c r="AA94">
+        <f t="shared" si="21"/>
+        <v>6.9007970554132356</v>
+      </c>
+      <c r="AB94">
         <f t="shared" si="14"/>
-        <v>0.31589200000000006</v>
-      </c>
-      <c r="T94">
-        <f t="shared" si="15"/>
-        <v>0.38096799999999986</v>
-      </c>
-      <c r="W94">
-        <f t="shared" si="16"/>
-        <v>4.2167819483582507</v>
-      </c>
-      <c r="X94">
-        <f t="shared" si="17"/>
-        <v>3.8695845010189815</v>
-      </c>
-      <c r="Y94">
-        <f t="shared" si="18"/>
-        <v>4.6742379057981198</v>
-      </c>
-      <c r="Z94">
-        <f t="shared" si="19"/>
-        <v>4.2893748777770941</v>
-      </c>
-      <c r="AA94">
-        <f>SQRT((4*$T94)/($M$72*0.001))</f>
-        <v>6.9007970554132356</v>
-      </c>
-      <c r="AB94">
-        <f>SQRT((4*$T94)/(($M$72+$N$72)*0.001))</f>
         <v>6.3326056830377562</v>
       </c>
     </row>
@@ -9130,35 +9141,35 @@
         <v>12.144099999999995</v>
       </c>
       <c r="S95">
+        <f t="shared" si="15"/>
+        <v>0.3520508750000001</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="16"/>
+        <v>0.43571849999999984</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="17"/>
+        <v>4.4767376165573971</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="18"/>
+        <v>4.1081361825938592</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" si="19"/>
+        <v>5.0269678982464159</v>
+      </c>
+      <c r="Z95">
+        <f t="shared" si="20"/>
+        <v>4.6130621180798279</v>
+      </c>
+      <c r="AA95">
+        <f t="shared" si="21"/>
+        <v>7.3800279471015537</v>
+      </c>
+      <c r="AB95">
         <f t="shared" si="14"/>
-        <v>0.3520508750000001</v>
-      </c>
-      <c r="T95">
-        <f t="shared" si="15"/>
-        <v>0.43571849999999984</v>
-      </c>
-      <c r="W95">
-        <f t="shared" si="16"/>
-        <v>4.4767376165573971</v>
-      </c>
-      <c r="X95">
-        <f t="shared" si="17"/>
-        <v>4.1081361825938592</v>
-      </c>
-      <c r="Y95">
-        <f t="shared" si="18"/>
-        <v>5.0269678982464159</v>
-      </c>
-      <c r="Z95">
-        <f t="shared" si="19"/>
-        <v>4.6130621180798279</v>
-      </c>
-      <c r="AA95">
-        <f>SQRT((4*$T95)/($M$72*0.001))</f>
-        <v>7.3800279471015537</v>
-      </c>
-      <c r="AB95">
-        <f>SQRT((4*$T95)/(($M$72+$N$72)*0.001))</f>
         <v>6.7723781098782334</v>
       </c>
     </row>
@@ -9175,35 +9186,35 @@
         <v>15.112100000000005</v>
       </c>
       <c r="S96">
+        <f t="shared" si="15"/>
+        <v>0.39409725000000012</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="16"/>
+        <v>0.50385899999999983</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="17"/>
+        <v>4.7612055327406324</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="18"/>
+        <v>4.3691818456090852</v>
+      </c>
+      <c r="Y96">
+        <f t="shared" si="19"/>
+        <v>5.4340765084786939</v>
+      </c>
+      <c r="Z96">
+        <f t="shared" si="20"/>
+        <v>4.9866506004056781</v>
+      </c>
+      <c r="AA96">
+        <f t="shared" si="21"/>
+        <v>7.9361435848905844</v>
+      </c>
+      <c r="AB96">
         <f t="shared" si="14"/>
-        <v>0.39409725000000012</v>
-      </c>
-      <c r="T96">
-        <f t="shared" si="15"/>
-        <v>0.50385899999999983</v>
-      </c>
-      <c r="W96">
-        <f t="shared" si="16"/>
-        <v>4.7612055327406324</v>
-      </c>
-      <c r="X96">
-        <f t="shared" si="17"/>
-        <v>4.3691818456090852</v>
-      </c>
-      <c r="Y96">
-        <f t="shared" si="18"/>
-        <v>5.4340765084786939</v>
-      </c>
-      <c r="Z96">
-        <f t="shared" si="19"/>
-        <v>4.9866506004056781</v>
-      </c>
-      <c r="AA96">
-        <f>SQRT((4*$T96)/($M$72*0.001))</f>
-        <v>7.9361435848905844</v>
-      </c>
-      <c r="AB96">
-        <f>SQRT((4*$T96)/(($M$72+$N$72)*0.001))</f>
         <v>7.2827048185192975</v>
       </c>
     </row>
@@ -9220,35 +9231,35 @@
         <v>18.720099999999999</v>
       </c>
       <c r="S97">
+        <f t="shared" si="15"/>
+        <v>0.44322487500000013</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="16"/>
+        <v>0.58843949999999978</v>
+      </c>
+      <c r="W97">
+        <f t="shared" si="17"/>
+        <v>5.073416470929625</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="18"/>
+        <v>4.6556862516372624</v>
+      </c>
+      <c r="Y97">
+        <f t="shared" si="19"/>
+        <v>5.9004634351887972</v>
+      </c>
+      <c r="Z97">
+        <f t="shared" si="20"/>
+        <v>5.4146365966410155</v>
+      </c>
+      <c r="AA97">
+        <f t="shared" si="21"/>
+        <v>8.5764175213197245</v>
+      </c>
+      <c r="AB97">
         <f t="shared" si="14"/>
-        <v>0.44322487500000013</v>
-      </c>
-      <c r="T97">
-        <f t="shared" si="15"/>
-        <v>0.58843949999999978</v>
-      </c>
-      <c r="W97">
-        <f t="shared" si="16"/>
-        <v>5.073416470929625</v>
-      </c>
-      <c r="X97">
-        <f t="shared" si="17"/>
-        <v>4.6556862516372624</v>
-      </c>
-      <c r="Y97">
-        <f t="shared" si="18"/>
-        <v>5.9004634351887972</v>
-      </c>
-      <c r="Z97">
-        <f t="shared" si="19"/>
-        <v>5.4146365966410155</v>
-      </c>
-      <c r="AA97">
-        <f>SQRT((4*$T97)/($M$72*0.001))</f>
-        <v>8.5764175213197245</v>
-      </c>
-      <c r="AB97">
-        <f>SQRT((4*$T97)/(($M$72+$N$72)*0.001))</f>
         <v>7.870260478535636</v>
       </c>
     </row>
@@ -9265,35 +9276,35 @@
         <v>23.028099999999998</v>
       </c>
       <c r="S98">
+        <f t="shared" si="15"/>
+        <v>0.50074000000000018</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="16"/>
+        <v>0.69280999999999981</v>
+      </c>
+      <c r="W98">
+        <f t="shared" si="17"/>
+        <v>5.4161102278295639</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="18"/>
+        <v>4.9701636105654998</v>
+      </c>
+      <c r="Y98">
+        <f t="shared" si="19"/>
+        <v>6.4295120343615491</v>
+      </c>
+      <c r="Z98">
+        <f t="shared" si="20"/>
+        <v>5.9001248871706533</v>
+      </c>
+      <c r="AA98">
+        <f t="shared" si="21"/>
+        <v>9.3059792606689165</v>
+      </c>
+      <c r="AB98">
         <f t="shared" si="14"/>
-        <v>0.50074000000000018</v>
-      </c>
-      <c r="T98">
-        <f t="shared" si="15"/>
-        <v>0.69280999999999981</v>
-      </c>
-      <c r="W98">
-        <f t="shared" si="16"/>
-        <v>5.4161102278295639</v>
-      </c>
-      <c r="X98">
-        <f t="shared" si="17"/>
-        <v>4.9701636105654998</v>
-      </c>
-      <c r="Y98">
-        <f t="shared" si="18"/>
-        <v>6.4295120343615491</v>
-      </c>
-      <c r="Z98">
-        <f t="shared" si="19"/>
-        <v>5.9001248871706533</v>
-      </c>
-      <c r="AA98">
-        <f>SQRT((4*$T98)/($M$72*0.001))</f>
-        <v>9.3059792606689165</v>
-      </c>
-      <c r="AB98">
-        <f>SQRT((4*$T98)/(($M$72+$N$72)*0.001))</f>
         <v>8.5397522458823492</v>
       </c>
     </row>

--- a/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
@@ -5,16 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s224870_dtu_dk/Documents/Skrivebord/DTU-projekter/Mekanisk produktanalyse/Projekt 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{F241CCB8-BF42-44BB-97D6-2C115A7C7F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7215C29-CE06-4BA0-9499-43DA5F5AA591}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC96C71-A233-4880-BBE0-A00034262806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Ark1'!$A$6:$A$25</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Ark1'!$C$6:$C$25</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Ark1'!$E$6:$E$30</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Ark1'!$G$6:$G$30</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Ark1'!$I$6:$I$30</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Ark1'!$K$6:$K$30</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Ark1'!$M$6:$M$31</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Ark1'!$O$6:$O$31</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Ark1'!$Q$6:$Q$31</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Ark1'!$S$6:$S$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,10 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
-  <si>
-    <t>enkeltløkke</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="38">
   <si>
     <t>ubelastet længde</t>
   </si>
@@ -136,12 +145,30 @@
   <si>
     <t>Måleserie, hastighed fra affyringsrampe</t>
   </si>
+  <si>
+    <t>Elastik 1</t>
+  </si>
+  <si>
+    <t>Elastik 2</t>
+  </si>
+  <si>
+    <t>Elastik 3</t>
+  </si>
+  <si>
+    <t>Elastik 4</t>
+  </si>
+  <si>
+    <t>Elastik 5</t>
+  </si>
+  <si>
+    <t>Enkeltløkke</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +176,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,7 +200,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,10 +223,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,443 +252,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Ark1'!$G$6:$G$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Ark1'!$E$6:$E$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-601C-4768-9585-FE804B32A40D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1921847775"/>
-        <c:axId val="1921848191"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1921847775"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1921848191"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1921848191"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1921847775"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="da-DK"/>
@@ -739,7 +356,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$O$40:$O$65</c:f>
+              <c:f>'Ark1'!$O$39:$O$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -826,7 +443,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$M$40:$M$65</c:f>
+              <c:f>'Ark1'!$M$39:$M$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1216,7 +833,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="da-DK"/>
@@ -1369,7 +986,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$G$72:$G$93</c:f>
+              <c:f>'Ark1'!$G$70:$G$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1444,7 +1061,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$E$72:$E$93</c:f>
+              <c:f>'Ark1'!$E$70:$E$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1521,6 +1138,577 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EC14-4B7C-B4AE-44FA10F525F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1429993280"/>
+        <c:axId val="1429967072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1429993280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Forlængelse [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1429967072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1429967072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Kraft [N]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1429993280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Brugt elastik i affyringsrampe</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$C$70:$C$79</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.23727237744877758"/>
+                  <c:y val="0.17245515456305791"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$C$70:$C$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$A$70:$A$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3693-40CF-BD79-C6E790AB2208}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1855,8 +2043,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="da-DK"/>
-              <a:t>Brugt elastik i affyringsrampe</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Kraft som funktion af forlængelsen med enkeltløkke</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1900,46 +2088,13 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$C$72:$C$81</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Elastik 1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1959,131 +2114,140 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.23727237744877758"/>
-                  <c:y val="0.17245515456305791"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$C$72:$C$81</c:f>
+              <c:f>'Ark1'!$C$6:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>93</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$A$72:$A$81</c:f>
+              <c:f>'Ark1'!$A$6:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13" formatCode="0.00">
                   <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2091,7 +2255,839 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3693-40CF-BD79-C6E790AB2208}"/>
+              <c16:uniqueId val="{00000000-38CD-4174-8FE0-237876C8FAE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Elastik 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$G$6:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$E$6:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-38CD-4174-8FE0-237876C8FAE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Elastik 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$K$6:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>293.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$I$6:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-38CD-4174-8FE0-237876C8FAE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Elastik 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$O$6:$O$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$M$6:$M$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-38CD-4174-8FE0-237876C8FAE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Elastik 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$S$6:$S$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$Q$6:$Q$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-38CD-4174-8FE0-237876C8FAE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2103,11 +3099,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1429993280"/>
-        <c:axId val="1429967072"/>
+        <c:axId val="1354690303"/>
+        <c:axId val="1354692383"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1429993280"/>
+        <c:axId val="1354690303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2147,7 +3143,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="da-DK"/>
+                  <a:rPr lang="da-DK" sz="1600"/>
                   <a:t>Forlængelse [mm]</a:t>
                 </a:r>
               </a:p>
@@ -2188,14 +3184,12 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:round/>
+            <a:tailEnd type="triangle"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2219,12 +3213,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1429967072"/>
+        <c:crossAx val="1354692383"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1429967072"/>
+        <c:axId val="1354692383"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2264,9 +3258,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="da-DK"/>
-                  <a:t>Kraft [N]</a:t>
+                  <a:rPr lang="da-DK" sz="1400"/>
+                  <a:t>Kraft</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1400" baseline="0"/>
+                  <a:t> [N]</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2305,14 +3304,12 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:round/>
+            <a:tailEnd type="triangle"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2336,7 +3333,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1429993280"/>
+        <c:crossAx val="1354690303"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2348,6 +3345,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4621,22 +5649,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>13335</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>13335</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Diagram 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DAF9C58-CC35-1B2D-CD70-107F51091D66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{044E9847-380D-D652-C13A-1E5AF6A25E41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4656,23 +5684,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>370635</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>89811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>408737</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>118386</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagram 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{044E9847-380D-D652-C13A-1E5AF6A25E41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1B971A-1FD7-DE86-B34B-7C19DE47F9B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4693,26 +5721,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>370635</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>89811</xdr:rowOff>
+      <xdr:colOff>368012</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>168853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>408737</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>118386</xdr:rowOff>
+      <xdr:colOff>406114</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>15587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1B971A-1FD7-DE86-B34B-7C19DE47F9B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF9CA727-36E7-4436-A8CB-E1EEC1F06ACA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4728,23 +5758,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>368012</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>168853</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>29458</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>406114</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>15587</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>581122</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="6" name="Diagram 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF9CA727-36E7-4436-A8CB-E1EEC1F06ACA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BA97394-2C48-46B7-AB9B-3C53FDB5B356}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5030,4286 +6060,4640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB98"/>
+  <dimension ref="A1:AB96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F63" zoomScale="97" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P74" sqref="P74"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q68" sqref="Q68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.86328125" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>44</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
+        <v>63</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
+        <v>47</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
+        <v>58</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>1</v>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>44</v>
-      </c>
-      <c r="I3">
-        <v>47</v>
-      </c>
-      <c r="M3">
-        <v>58</v>
-      </c>
-      <c r="Q3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A6">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>15</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>406</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f>B6-$B$25</f>
         <v>346</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
         <v>15</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>439</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <f>F6-$F$30</f>
         <v>369</v>
       </c>
-      <c r="I6">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
         <v>15</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>355</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <f>J6-$J$30</f>
         <v>296</v>
       </c>
-      <c r="M6">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1">
         <v>15</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>424</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <f>N6-$N$31</f>
         <v>359</v>
       </c>
-      <c r="Q6">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1">
         <v>15</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="1">
         <v>421</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="1">
         <f>R6-$R$31</f>
         <v>358</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A7">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>14</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>405</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <f t="shared" ref="C7:C24" si="0">B7-$B$25</f>
         <v>345</v>
       </c>
-      <c r="E7">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
         <v>14</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>437</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <f t="shared" ref="G7:G30" si="1">F7-$F$30</f>
         <v>367</v>
       </c>
-      <c r="I7">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
         <v>14</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>354</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <f t="shared" ref="K7:K30" si="2">J7-$J$30</f>
         <v>295</v>
       </c>
-      <c r="M7">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
         <v>14</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>422</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <f t="shared" ref="O7:O31" si="3">N7-$N$31</f>
         <v>357</v>
       </c>
-      <c r="Q7">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1">
         <v>14</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1">
         <v>420</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="1">
         <f t="shared" ref="S7:S31" si="4">R7-$R$31</f>
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A8">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>402</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>342</v>
       </c>
-      <c r="E8">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
         <v>13</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>436</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <f t="shared" si="1"/>
         <v>366</v>
       </c>
-      <c r="I8">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
         <v>13</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>352.5</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <f t="shared" si="2"/>
         <v>293.5</v>
       </c>
-      <c r="M8">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1">
         <v>13</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>420</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <f t="shared" si="3"/>
         <v>355</v>
       </c>
-      <c r="Q8">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1">
         <v>13</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="1">
         <v>418</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="1">
         <f t="shared" si="4"/>
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A9">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>400</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
-      <c r="E9">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
         <v>12</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>434</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <f t="shared" si="1"/>
         <v>364</v>
       </c>
-      <c r="I9">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
         <v>12</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>350</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <f t="shared" si="2"/>
         <v>291</v>
       </c>
-      <c r="M9">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1">
         <v>12</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>418</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="1">
         <f t="shared" si="3"/>
         <v>353</v>
       </c>
-      <c r="Q9">
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1">
         <v>12</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="1">
         <v>416</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="1">
         <f t="shared" si="4"/>
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A10">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>398</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>338</v>
       </c>
-      <c r="E10">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
         <v>11</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>431</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <f t="shared" si="1"/>
         <v>361</v>
       </c>
-      <c r="I10">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
         <v>11</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>348</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <f t="shared" si="2"/>
         <v>289</v>
       </c>
-      <c r="M10">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
         <v>11</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>415</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="Q10">
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1">
         <v>11</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="1">
         <v>413</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="1">
         <f t="shared" si="4"/>
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A11">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>396</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
         <v>10</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>428</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <f t="shared" si="1"/>
         <v>358</v>
       </c>
-      <c r="I11">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
         <v>10</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>346</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <f t="shared" si="2"/>
         <v>287</v>
       </c>
-      <c r="M11">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1">
         <v>10</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>413</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="1">
         <f t="shared" si="3"/>
         <v>348</v>
       </c>
-      <c r="Q11">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1">
         <v>10</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="1">
         <v>411</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="1">
         <f t="shared" si="4"/>
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A12">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>393</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>333</v>
       </c>
-      <c r="E12">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
         <v>9</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>425</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <f t="shared" si="1"/>
         <v>355</v>
       </c>
-      <c r="I12">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
         <v>9</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>343</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <f t="shared" si="2"/>
         <v>284</v>
       </c>
-      <c r="M12">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
         <v>9</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <v>410</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="1">
         <f t="shared" si="3"/>
         <v>345</v>
       </c>
-      <c r="Q12">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1">
         <v>9</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="1">
         <v>408</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="1">
         <f t="shared" si="4"/>
         <v>345</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A13">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>389</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>329</v>
       </c>
-      <c r="E13">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
         <v>8</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>422</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
         <v>352</v>
       </c>
-      <c r="I13">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
         <v>8</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>340</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <f t="shared" si="2"/>
         <v>281</v>
       </c>
-      <c r="M13">
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
         <v>8</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <v>407</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="1">
         <f t="shared" si="3"/>
         <v>342</v>
       </c>
-      <c r="Q13">
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1">
         <v>8</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="1">
         <v>405</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="1">
         <f t="shared" si="4"/>
         <v>342</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A14">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>385</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>325</v>
       </c>
-      <c r="E14">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
         <v>7</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>418</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <f t="shared" si="1"/>
         <v>348</v>
       </c>
-      <c r="I14">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1">
         <v>7</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>336</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <f t="shared" si="2"/>
         <v>277</v>
       </c>
-      <c r="M14">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1">
         <v>7</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <v>402</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="1">
         <f t="shared" si="3"/>
         <v>337</v>
       </c>
-      <c r="Q14">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1">
         <v>7</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="1">
         <v>401</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="1">
         <f t="shared" si="4"/>
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>6</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>381</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>321</v>
       </c>
-      <c r="E15">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
         <v>6</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>414</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <f t="shared" si="1"/>
         <v>344</v>
       </c>
-      <c r="I15">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
         <v>6</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>332</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <f t="shared" si="2"/>
         <v>273</v>
       </c>
-      <c r="M15">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1">
         <v>6</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <v>397</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="1">
         <f t="shared" si="3"/>
         <v>332</v>
       </c>
-      <c r="Q15">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1">
         <v>6</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="1">
         <v>395</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="1">
         <f t="shared" si="4"/>
         <v>332</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A16">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>5</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>375</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
-      <c r="E16">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>408</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <f t="shared" si="1"/>
         <v>338</v>
       </c>
-      <c r="I16">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
         <v>5</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>326</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <f t="shared" si="2"/>
         <v>267</v>
       </c>
-      <c r="M16">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1">
         <v>5</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <v>391</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="1">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
-      <c r="Q16">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1">
         <v>5</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="1">
         <v>389</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="1">
         <f t="shared" si="4"/>
         <v>326</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A17">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>4</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>365</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
-      <c r="E17">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
         <v>4.5</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>404</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <f t="shared" si="1"/>
         <v>334</v>
       </c>
-      <c r="I17">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
         <v>4.5</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>321</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <f t="shared" si="2"/>
         <v>262</v>
       </c>
-      <c r="M17">
+      <c r="L17" s="1"/>
+      <c r="M17" s="1">
         <v>4.5</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="1">
         <v>388</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="1">
         <f t="shared" si="3"/>
         <v>323</v>
       </c>
-      <c r="Q17">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1">
         <v>4.5</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="1">
         <v>385</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="1">
         <f t="shared" si="4"/>
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A18">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>3</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>339</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>279</v>
       </c>
-      <c r="E18" s="1">
+      <c r="D18" s="1"/>
+      <c r="E18" s="2">
         <v>4</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>400</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="I18" s="1">
+      <c r="H18" s="1"/>
+      <c r="I18" s="2">
         <v>4</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>315</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="M18" s="1">
+      <c r="L18" s="1"/>
+      <c r="M18" s="2">
         <v>4</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="1">
         <v>382</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="1">
         <f t="shared" si="3"/>
         <v>317</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="2">
         <v>4</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="1">
         <v>379</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="1">
         <f t="shared" si="4"/>
         <v>316</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>2.5</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>237</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
-      <c r="E19">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
         <v>3.5</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>393</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <f t="shared" si="1"/>
         <v>323</v>
       </c>
-      <c r="I19">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1">
         <v>3.5</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>305</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="M19">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1">
         <v>3.5</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="1">
         <v>375</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="1">
         <f t="shared" si="3"/>
         <v>310</v>
       </c>
-      <c r="Q19">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1">
         <v>3.5</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="1">
         <v>373</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="1">
         <f t="shared" si="4"/>
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A20">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>207</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
-      <c r="E20">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
         <v>3</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>384</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <f t="shared" si="1"/>
         <v>314</v>
       </c>
-      <c r="I20">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1">
         <v>3</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>281</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <f t="shared" si="2"/>
         <v>222</v>
       </c>
-      <c r="M20">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1">
         <v>3</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="1">
         <v>359</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="1">
         <f t="shared" si="3"/>
         <v>294</v>
       </c>
-      <c r="Q20">
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1">
         <v>3</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="1">
         <v>364</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="1">
         <f t="shared" si="4"/>
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A21">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>1.5</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>128</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="E21">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
         <v>2.5</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>364</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <f t="shared" si="1"/>
         <v>294</v>
       </c>
-      <c r="I21">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1">
         <v>2.5</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <v>241</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="M21">
+      <c r="L21" s="1"/>
+      <c r="M21" s="1">
         <v>2.5</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="1">
         <v>337</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="1">
         <f t="shared" si="3"/>
         <v>272</v>
       </c>
-      <c r="Q21">
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1">
         <v>2.5</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="1">
         <v>336</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="1">
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A22">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>95</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="E22">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
         <v>2</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>302</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <f t="shared" si="1"/>
         <v>232</v>
       </c>
-      <c r="I22">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1">
         <v>2</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>173</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1">
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="M22">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1">
         <v>2.25</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="1">
         <v>260</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="1">
         <f t="shared" si="3"/>
         <v>195</v>
       </c>
-      <c r="Q22">
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1">
         <v>2.25</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="1">
         <v>297</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="1">
         <f t="shared" si="4"/>
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A23" s="1">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>0.5</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>72</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E23">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
         <v>1.75</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>252</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
-      <c r="I23">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1">
         <v>1.75</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <v>140</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="M23">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1">
         <v>2</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="1">
         <v>244</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="1">
         <f t="shared" si="3"/>
         <v>179</v>
       </c>
-      <c r="Q23">
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1">
         <v>2</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="1">
         <v>268</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="1">
         <f t="shared" si="4"/>
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A24">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>0.25</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>64</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E24">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
         <v>1.5</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>197</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="I24">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
         <v>1.5</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
         <v>121</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="1">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="M24">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1">
         <v>1.75</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="1">
         <v>189</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="1">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="Q24">
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1">
         <v>1.75</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="1">
         <v>192</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="1">
         <f t="shared" si="4"/>
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>0</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>60</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <f>B25-$B$25</f>
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
         <v>1.25</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>140</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="I25">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1">
         <v>1.25</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <v>104</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="M25">
+      <c r="L25" s="1"/>
+      <c r="M25" s="1">
         <v>1.5</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="1">
         <v>154</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="1">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="Q25">
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1">
         <v>1.5</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="1">
         <v>149</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="1">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="E26">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>121</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="I26">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1">
         <v>1</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1">
         <v>90</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="M26">
+      <c r="L26" s="1"/>
+      <c r="M26" s="1">
         <v>1.25</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="1">
         <v>125</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="1">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="Q26">
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1">
         <v>1.25</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="1">
         <v>123</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="1">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="E27">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
         <v>0.75</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>100</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I27">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1">
         <v>0.75</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1">
         <v>80</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="M27">
+      <c r="L27" s="1"/>
+      <c r="M27" s="1">
         <v>1</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="1">
         <v>111</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="1">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="Q27">
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1">
         <v>1</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="1">
         <v>106</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="1">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="E28">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
         <v>0.5</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>88</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I28">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1">
         <v>0.5</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="1">
         <v>74</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="M28">
+      <c r="L28" s="1"/>
+      <c r="M28" s="1">
         <v>0.75</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="1">
         <v>92</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="1">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="Q28">
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1">
         <v>0.75</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="1">
         <v>89</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="1">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="E29">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
         <v>0.25</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>77</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I29">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1">
         <v>0.25</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1">
         <v>65</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M29">
+      <c r="L29" s="1"/>
+      <c r="M29" s="1">
         <v>0.5</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="1">
         <v>82</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="1">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="Q29">
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1">
         <v>0.5</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="1">
         <v>79</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="E30">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>70</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1">
         <v>0</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <v>59</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M30">
+      <c r="L30" s="1"/>
+      <c r="M30" s="1">
         <v>0.25</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <v>72</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="1">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="Q30">
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1">
         <v>0.25</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="1">
         <v>70.5</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="1">
         <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="M31">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1">
         <v>0</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="1">
         <v>65</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q31">
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1">
         <v>0</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="1">
         <v>63</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
+    <row r="34" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3">
+        <v>60</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3">
+        <v>60</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3">
+        <v>61.5</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3">
+        <v>59</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E36" t="s">
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I36" t="s">
-        <v>1</v>
-      </c>
-      <c r="M36" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>1</v>
+      <c r="F38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>60</v>
-      </c>
-      <c r="E37">
-        <v>60</v>
-      </c>
-      <c r="I37">
-        <v>61.5</v>
-      </c>
-      <c r="M37">
-        <v>59</v>
-      </c>
-      <c r="Q37">
-        <v>60</v>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>15</v>
+      </c>
+      <c r="B39" s="1">
+        <v>181</v>
+      </c>
+      <c r="C39" s="1">
+        <f>B39-$R$64</f>
+        <v>116.5</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1">
+        <v>15</v>
+      </c>
+      <c r="F39" s="1">
+        <v>188</v>
+      </c>
+      <c r="G39" s="1">
+        <f>F39-$R$64</f>
+        <v>123.5</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1">
+        <v>15</v>
+      </c>
+      <c r="J39" s="1">
+        <v>175</v>
+      </c>
+      <c r="K39" s="1">
+        <f>J39-$R$64</f>
+        <v>110.5</v>
+      </c>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1">
+        <v>15</v>
+      </c>
+      <c r="N39" s="1">
+        <v>157</v>
+      </c>
+      <c r="O39" s="1">
+        <f>N39-$N$64</f>
+        <v>92</v>
+      </c>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1">
+        <v>15</v>
+      </c>
+      <c r="R39" s="1">
+        <v>153</v>
+      </c>
+      <c r="S39" s="1">
+        <f>R39-$R$64</f>
+        <v>88.5</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" t="s">
-        <v>3</v>
-      </c>
-      <c r="I39" t="s">
-        <v>5</v>
-      </c>
-      <c r="J39" t="s">
-        <v>4</v>
-      </c>
-      <c r="K39" t="s">
-        <v>3</v>
-      </c>
-      <c r="M39" t="s">
-        <v>5</v>
-      </c>
-      <c r="N39" t="s">
-        <v>4</v>
-      </c>
-      <c r="O39" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>5</v>
-      </c>
-      <c r="R39" t="s">
-        <v>4</v>
-      </c>
-      <c r="S39" t="s">
-        <v>3</v>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>14</v>
+      </c>
+      <c r="B40" s="1">
+        <v>180</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" ref="C40:C64" si="5">B40-$R$64</f>
+        <v>115.5</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1">
+        <v>14</v>
+      </c>
+      <c r="F40" s="1">
+        <v>187</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" ref="G40:G64" si="6">F40-$R$64</f>
+        <v>122.5</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1">
+        <v>14</v>
+      </c>
+      <c r="J40" s="1">
+        <v>174.5</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" ref="K40:K64" si="7">J40-$R$64</f>
+        <v>110</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1">
+        <v>14</v>
+      </c>
+      <c r="N40" s="1">
+        <v>156.5</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" ref="O40:O64" si="8">N40-$N$64</f>
+        <v>91.5</v>
+      </c>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1">
+        <v>14</v>
+      </c>
+      <c r="R40" s="1">
+        <v>152</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" ref="S40:S64" si="9">R40-$R$64</f>
+        <v>87.5</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>15</v>
-      </c>
-      <c r="B40">
-        <v>181</v>
-      </c>
-      <c r="C40">
-        <f>B40-$R$65</f>
-        <v>116.5</v>
-      </c>
-      <c r="E40">
-        <v>15</v>
-      </c>
-      <c r="F40">
-        <v>188</v>
-      </c>
-      <c r="G40">
-        <f>F40-$R$65</f>
-        <v>123.5</v>
-      </c>
-      <c r="I40">
-        <v>15</v>
-      </c>
-      <c r="J40">
-        <v>175</v>
-      </c>
-      <c r="K40">
-        <f>J40-$R$65</f>
-        <v>110.5</v>
-      </c>
-      <c r="M40">
-        <v>15</v>
-      </c>
-      <c r="N40">
-        <v>157</v>
-      </c>
-      <c r="O40">
-        <f>N40-$N$65</f>
-        <v>92</v>
-      </c>
-      <c r="Q40">
-        <v>15</v>
-      </c>
-      <c r="R40">
-        <v>153</v>
-      </c>
-      <c r="S40">
-        <f>R40-$R$65</f>
-        <v>88.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>14</v>
-      </c>
-      <c r="B41">
-        <v>180</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ref="C41:C65" si="5">B41-$R$65</f>
-        <v>115.5</v>
-      </c>
-      <c r="E41">
-        <v>14</v>
-      </c>
-      <c r="F41">
-        <v>187</v>
-      </c>
-      <c r="G41">
-        <f t="shared" ref="G41:G65" si="6">F41-$R$65</f>
-        <v>122.5</v>
-      </c>
-      <c r="I41">
-        <v>14</v>
-      </c>
-      <c r="J41">
-        <v>174.5</v>
-      </c>
-      <c r="K41">
-        <f t="shared" ref="K41:K65" si="7">J41-$R$65</f>
-        <v>110</v>
-      </c>
-      <c r="M41">
-        <v>14</v>
-      </c>
-      <c r="N41">
-        <v>156.5</v>
-      </c>
-      <c r="O41">
-        <f t="shared" ref="O41:O65" si="8">N41-$N$65</f>
-        <v>91.5</v>
-      </c>
-      <c r="Q41">
-        <v>14</v>
-      </c>
-      <c r="R41">
-        <v>152</v>
-      </c>
-      <c r="S41">
-        <f t="shared" ref="S41:S65" si="9">R41-$R$65</f>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A42">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>13</v>
       </c>
-      <c r="B42">
+      <c r="B41" s="1">
         <v>179</v>
       </c>
-      <c r="C42">
+      <c r="C41" s="1">
         <f t="shared" si="5"/>
         <v>114.5</v>
       </c>
-      <c r="E42">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1">
         <v>13</v>
       </c>
-      <c r="F42">
+      <c r="F41" s="1">
         <v>186</v>
       </c>
-      <c r="G42">
+      <c r="G41" s="1">
         <f t="shared" si="6"/>
         <v>121.5</v>
       </c>
-      <c r="I42">
+      <c r="H41" s="1"/>
+      <c r="I41" s="1">
         <v>13</v>
       </c>
-      <c r="J42">
+      <c r="J41" s="1">
         <v>174</v>
       </c>
-      <c r="K42">
+      <c r="K41" s="1">
         <f t="shared" si="7"/>
         <v>109.5</v>
       </c>
-      <c r="M42">
+      <c r="L41" s="1"/>
+      <c r="M41" s="1">
         <v>13</v>
       </c>
-      <c r="N42">
+      <c r="N41" s="1">
         <v>156</v>
       </c>
-      <c r="O42">
+      <c r="O41" s="1">
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="Q42">
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1">
         <v>13</v>
       </c>
-      <c r="R42">
+      <c r="R41" s="1">
         <v>151</v>
       </c>
-      <c r="S42">
+      <c r="S41" s="1">
         <f t="shared" si="9"/>
         <v>86.5</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A43">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>12</v>
       </c>
-      <c r="B43">
+      <c r="B42" s="1">
         <v>178</v>
       </c>
-      <c r="C43">
+      <c r="C42" s="1">
         <f t="shared" si="5"/>
         <v>113.5</v>
       </c>
-      <c r="E43">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1">
         <v>12</v>
       </c>
-      <c r="F43">
+      <c r="F42" s="1">
         <v>185</v>
       </c>
-      <c r="G43">
+      <c r="G42" s="1">
         <f t="shared" si="6"/>
         <v>120.5</v>
       </c>
-      <c r="I43">
+      <c r="H42" s="1"/>
+      <c r="I42" s="1">
         <v>12</v>
       </c>
-      <c r="J43">
+      <c r="J42" s="1">
         <v>173</v>
       </c>
-      <c r="K43">
+      <c r="K42" s="1">
         <f t="shared" si="7"/>
         <v>108.5</v>
       </c>
-      <c r="M43">
+      <c r="L42" s="1"/>
+      <c r="M42" s="1">
         <v>12</v>
       </c>
-      <c r="N43">
+      <c r="N42" s="1">
         <v>155</v>
       </c>
-      <c r="O43">
+      <c r="O42" s="1">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="Q43">
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1">
         <v>12</v>
       </c>
-      <c r="R43">
+      <c r="R42" s="1">
         <v>150</v>
       </c>
-      <c r="S43">
+      <c r="S42" s="1">
         <f t="shared" si="9"/>
         <v>85.5</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A44">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>11</v>
       </c>
-      <c r="B44">
+      <c r="B43" s="1">
         <v>177</v>
       </c>
-      <c r="C44">
+      <c r="C43" s="1">
         <f t="shared" si="5"/>
         <v>112.5</v>
       </c>
-      <c r="E44">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1">
         <v>11</v>
       </c>
-      <c r="F44">
+      <c r="F43" s="1">
         <v>184</v>
       </c>
-      <c r="G44">
+      <c r="G43" s="1">
         <f t="shared" si="6"/>
         <v>119.5</v>
       </c>
-      <c r="I44">
+      <c r="H43" s="1"/>
+      <c r="I43" s="1">
         <v>11</v>
       </c>
-      <c r="J44">
+      <c r="J43" s="1">
         <v>171.5</v>
       </c>
-      <c r="K44">
+      <c r="K43" s="1">
         <f t="shared" si="7"/>
         <v>107</v>
       </c>
-      <c r="M44">
+      <c r="L43" s="1"/>
+      <c r="M43" s="1">
         <v>11</v>
       </c>
-      <c r="N44">
+      <c r="N43" s="1">
         <v>153.5</v>
       </c>
-      <c r="O44">
+      <c r="O43" s="1">
         <f t="shared" si="8"/>
         <v>88.5</v>
       </c>
-      <c r="Q44">
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1">
         <v>11</v>
       </c>
-      <c r="R44">
+      <c r="R43" s="1">
         <v>149</v>
       </c>
-      <c r="S44">
+      <c r="S43" s="1">
         <f t="shared" si="9"/>
         <v>84.5</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A45">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>10</v>
       </c>
-      <c r="B45">
+      <c r="B44" s="1">
         <v>175</v>
       </c>
-      <c r="C45">
+      <c r="C44" s="1">
         <f t="shared" si="5"/>
         <v>110.5</v>
       </c>
-      <c r="E45">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
         <v>10</v>
       </c>
-      <c r="F45">
+      <c r="F44" s="1">
         <v>182.5</v>
       </c>
-      <c r="G45">
+      <c r="G44" s="1">
         <f t="shared" si="6"/>
         <v>118</v>
       </c>
-      <c r="I45">
+      <c r="H44" s="1"/>
+      <c r="I44" s="1">
         <v>10</v>
       </c>
-      <c r="J45">
+      <c r="J44" s="1">
         <v>170</v>
       </c>
-      <c r="K45">
+      <c r="K44" s="1">
         <f t="shared" si="7"/>
         <v>105.5</v>
       </c>
-      <c r="M45">
+      <c r="L44" s="1"/>
+      <c r="M44" s="1">
         <v>10</v>
       </c>
-      <c r="N45">
+      <c r="N44" s="1">
         <v>152</v>
       </c>
-      <c r="O45">
+      <c r="O44" s="1">
         <f t="shared" si="8"/>
         <v>87</v>
       </c>
-      <c r="Q45">
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1">
         <v>10</v>
       </c>
-      <c r="R45">
+      <c r="R44" s="1">
         <v>147.5</v>
       </c>
-      <c r="S45">
+      <c r="S44" s="1">
         <f t="shared" si="9"/>
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A46">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>9</v>
       </c>
-      <c r="B46">
+      <c r="B45" s="1">
         <v>174</v>
       </c>
-      <c r="C46">
+      <c r="C45" s="1">
         <f t="shared" si="5"/>
         <v>109.5</v>
       </c>
-      <c r="E46">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
         <v>9</v>
       </c>
-      <c r="F46">
+      <c r="F45" s="1">
         <v>180</v>
       </c>
-      <c r="G46">
+      <c r="G45" s="1">
         <f t="shared" si="6"/>
         <v>115.5</v>
       </c>
-      <c r="I46">
+      <c r="H45" s="1"/>
+      <c r="I45" s="1">
         <v>9</v>
       </c>
-      <c r="J46">
+      <c r="J45" s="1">
         <v>168</v>
       </c>
-      <c r="K46">
+      <c r="K45" s="1">
         <f t="shared" si="7"/>
         <v>103.5</v>
       </c>
-      <c r="M46">
+      <c r="L45" s="1"/>
+      <c r="M45" s="1">
         <v>9</v>
       </c>
-      <c r="N46">
+      <c r="N45" s="1">
         <v>150.5</v>
       </c>
-      <c r="O46">
+      <c r="O45" s="1">
         <f t="shared" si="8"/>
         <v>85.5</v>
       </c>
-      <c r="Q46">
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1">
         <v>9</v>
       </c>
-      <c r="R46">
+      <c r="R45" s="1">
         <v>146</v>
       </c>
-      <c r="S46">
+      <c r="S45" s="1">
         <f t="shared" si="9"/>
         <v>81.5</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A47">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>8</v>
       </c>
-      <c r="B47">
+      <c r="B46" s="1">
         <v>171</v>
       </c>
-      <c r="C47">
+      <c r="C46" s="1">
         <f t="shared" si="5"/>
         <v>106.5</v>
       </c>
-      <c r="E47">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1">
         <v>8</v>
       </c>
-      <c r="F47">
+      <c r="F46" s="1">
         <v>178</v>
       </c>
-      <c r="G47">
+      <c r="G46" s="1">
         <f t="shared" si="6"/>
         <v>113.5</v>
       </c>
-      <c r="I47">
+      <c r="H46" s="1"/>
+      <c r="I46" s="1">
         <v>8</v>
       </c>
-      <c r="J47">
+      <c r="J46" s="1">
         <v>165.5</v>
       </c>
-      <c r="K47">
+      <c r="K46" s="1">
         <f t="shared" si="7"/>
         <v>101</v>
       </c>
-      <c r="M47">
+      <c r="L46" s="1"/>
+      <c r="M46" s="1">
         <v>8</v>
       </c>
-      <c r="N47">
+      <c r="N46" s="1">
         <v>148</v>
       </c>
-      <c r="O47">
+      <c r="O46" s="1">
         <f t="shared" si="8"/>
         <v>83</v>
       </c>
-      <c r="Q47">
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1">
         <v>8</v>
       </c>
-      <c r="R47">
+      <c r="R46" s="1">
         <v>143.5</v>
       </c>
-      <c r="S47">
+      <c r="S46" s="1">
         <f t="shared" si="9"/>
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A48">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>7</v>
       </c>
-      <c r="B48">
+      <c r="B47" s="1">
         <v>167</v>
       </c>
-      <c r="C48">
+      <c r="C47" s="1">
         <f t="shared" si="5"/>
         <v>102.5</v>
       </c>
-      <c r="E48">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1">
         <v>7</v>
       </c>
-      <c r="F48">
+      <c r="F47" s="1">
         <v>174</v>
       </c>
-      <c r="G48">
+      <c r="G47" s="1">
         <f t="shared" si="6"/>
         <v>109.5</v>
       </c>
-      <c r="I48">
+      <c r="H47" s="1"/>
+      <c r="I47" s="1">
         <v>7</v>
       </c>
-      <c r="J48">
+      <c r="J47" s="1">
         <v>161</v>
       </c>
-      <c r="K48">
+      <c r="K47" s="1">
         <f t="shared" si="7"/>
         <v>96.5</v>
       </c>
-      <c r="M48">
+      <c r="L47" s="1"/>
+      <c r="M47" s="1">
         <v>7</v>
       </c>
-      <c r="N48">
+      <c r="N47" s="1">
         <v>143.5</v>
       </c>
-      <c r="O48">
+      <c r="O47" s="1">
         <f t="shared" si="8"/>
         <v>78.5</v>
       </c>
-      <c r="Q48">
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1">
         <v>7</v>
       </c>
-      <c r="R48">
+      <c r="R47" s="1">
         <v>139</v>
       </c>
-      <c r="S48">
+      <c r="S47" s="1">
         <f t="shared" si="9"/>
         <v>74.5</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A49">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>6</v>
       </c>
-      <c r="B49">
+      <c r="B48" s="1">
         <v>159</v>
       </c>
-      <c r="C49">
+      <c r="C48" s="1">
         <f t="shared" si="5"/>
         <v>94.5</v>
       </c>
-      <c r="E49">
+      <c r="D48" s="1"/>
+      <c r="E48" s="1">
         <v>6</v>
       </c>
-      <c r="F49">
+      <c r="F48" s="1">
         <v>166</v>
       </c>
-      <c r="G49">
+      <c r="G48" s="1">
         <f t="shared" si="6"/>
         <v>101.5</v>
       </c>
-      <c r="I49">
+      <c r="H48" s="1"/>
+      <c r="I48" s="1">
         <v>6</v>
       </c>
-      <c r="J49">
+      <c r="J48" s="1">
         <v>155</v>
       </c>
-      <c r="K49">
+      <c r="K48" s="1">
         <f t="shared" si="7"/>
         <v>90.5</v>
       </c>
-      <c r="M49">
+      <c r="L48" s="1"/>
+      <c r="M48" s="1">
         <v>6</v>
       </c>
-      <c r="N49">
+      <c r="N48" s="1">
         <v>135.5</v>
       </c>
-      <c r="O49">
+      <c r="O48" s="1">
         <f t="shared" si="8"/>
         <v>70.5</v>
       </c>
-      <c r="Q49">
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1">
         <v>6</v>
       </c>
-      <c r="R49">
+      <c r="R48" s="1">
         <v>131</v>
       </c>
-      <c r="S49">
+      <c r="S48" s="1">
         <f t="shared" si="9"/>
         <v>66.5</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A50">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>5</v>
       </c>
-      <c r="B50">
+      <c r="B49" s="1">
         <v>144</v>
       </c>
-      <c r="C50">
+      <c r="C49" s="1">
         <f t="shared" si="5"/>
         <v>79.5</v>
       </c>
-      <c r="E50">
+      <c r="D49" s="1"/>
+      <c r="E49" s="1">
         <v>5</v>
       </c>
-      <c r="F50">
+      <c r="F49" s="1">
         <v>150</v>
       </c>
-      <c r="G50">
+      <c r="G49" s="1">
         <f t="shared" si="6"/>
         <v>85.5</v>
       </c>
-      <c r="I50">
+      <c r="H49" s="1"/>
+      <c r="I49" s="1">
         <v>5</v>
       </c>
-      <c r="J50">
+      <c r="J49" s="1">
         <v>141</v>
       </c>
-      <c r="K50">
+      <c r="K49" s="1">
         <f t="shared" si="7"/>
         <v>76.5</v>
       </c>
-      <c r="M50">
+      <c r="L49" s="1"/>
+      <c r="M49" s="1">
         <v>5</v>
       </c>
-      <c r="N50">
+      <c r="N49" s="1">
         <v>121</v>
       </c>
-      <c r="O50">
+      <c r="O49" s="1">
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
-      <c r="Q50">
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1">
         <v>5</v>
       </c>
-      <c r="R50">
+      <c r="R49" s="1">
         <v>115.5</v>
       </c>
-      <c r="S50">
+      <c r="S49" s="1">
         <f t="shared" si="9"/>
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A51">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>4.5</v>
       </c>
-      <c r="B51">
+      <c r="B50" s="1">
         <v>133</v>
       </c>
-      <c r="C51">
+      <c r="C50" s="1">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="E51">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1">
         <v>4.5</v>
       </c>
-      <c r="F51">
+      <c r="F50" s="1">
         <v>138</v>
       </c>
-      <c r="G51">
+      <c r="G50" s="1">
         <f t="shared" si="6"/>
         <v>73.5</v>
       </c>
-      <c r="I51">
+      <c r="H50" s="1"/>
+      <c r="I50" s="1">
         <v>4.5</v>
       </c>
-      <c r="J51">
+      <c r="J50" s="1">
         <v>131</v>
       </c>
-      <c r="K51">
+      <c r="K50" s="1">
         <f t="shared" si="7"/>
         <v>66.5</v>
       </c>
-      <c r="M51">
+      <c r="L50" s="1"/>
+      <c r="M50" s="1">
         <v>4.5</v>
       </c>
-      <c r="N51">
+      <c r="N50" s="1">
         <v>113.5</v>
       </c>
-      <c r="O51">
+      <c r="O50" s="1">
         <f t="shared" si="8"/>
         <v>48.5</v>
       </c>
-      <c r="Q51">
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1">
         <v>4.5</v>
       </c>
-      <c r="R51">
+      <c r="R50" s="1">
         <v>108</v>
       </c>
-      <c r="S51">
+      <c r="S50" s="1">
         <f t="shared" si="9"/>
         <v>43.5</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A52" s="1">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <v>4.25</v>
       </c>
-      <c r="B52">
+      <c r="B51" s="1">
         <v>125</v>
       </c>
-      <c r="C52">
+      <c r="C51" s="1">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="E52" s="1">
+      <c r="D51" s="1"/>
+      <c r="E51" s="2">
         <v>4.25</v>
       </c>
-      <c r="F52">
+      <c r="F51" s="1">
         <v>134</v>
       </c>
-      <c r="G52">
+      <c r="G51" s="1">
         <f t="shared" si="6"/>
         <v>69.5</v>
       </c>
-      <c r="I52" s="1">
+      <c r="H51" s="1"/>
+      <c r="I51" s="2">
         <v>4.25</v>
       </c>
-      <c r="J52">
+      <c r="J51" s="1">
         <v>128</v>
       </c>
-      <c r="K52">
+      <c r="K51" s="1">
         <f t="shared" si="7"/>
         <v>63.5</v>
       </c>
-      <c r="M52" s="1">
+      <c r="L51" s="1"/>
+      <c r="M51" s="2">
         <v>4.25</v>
       </c>
-      <c r="N52">
+      <c r="N51" s="1">
         <v>106</v>
       </c>
-      <c r="O52">
+      <c r="O51" s="1">
         <f t="shared" si="8"/>
         <v>41</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="P51" s="1"/>
+      <c r="Q51" s="2">
         <v>4.25</v>
       </c>
-      <c r="R52">
+      <c r="R51" s="1">
         <v>104</v>
       </c>
-      <c r="S52">
+      <c r="S51" s="1">
         <f t="shared" si="9"/>
         <v>39.5</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A53">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>4</v>
       </c>
-      <c r="B53">
+      <c r="B52" s="1">
         <v>118</v>
       </c>
-      <c r="C53">
+      <c r="C52" s="1">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="E53">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1">
         <v>4</v>
       </c>
-      <c r="F53">
+      <c r="F52" s="1">
         <v>125</v>
       </c>
-      <c r="G53">
+      <c r="G52" s="1">
         <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
-      <c r="I53">
+      <c r="H52" s="1"/>
+      <c r="I52" s="1">
         <v>4</v>
       </c>
-      <c r="J53">
+      <c r="J52" s="1">
         <v>120</v>
       </c>
-      <c r="K53">
+      <c r="K52" s="1">
         <f t="shared" si="7"/>
         <v>55.5</v>
       </c>
-      <c r="M53">
+      <c r="L52" s="1"/>
+      <c r="M52" s="1">
         <v>4</v>
       </c>
-      <c r="N53">
+      <c r="N52" s="1">
         <v>103</v>
       </c>
-      <c r="O53">
+      <c r="O52" s="1">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="Q53">
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1">
         <v>4</v>
       </c>
-      <c r="R53">
+      <c r="R52" s="1">
         <v>100</v>
       </c>
-      <c r="S53">
+      <c r="S52" s="1">
         <f t="shared" si="9"/>
         <v>35.5</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A54">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>3.75</v>
       </c>
-      <c r="B54">
+      <c r="B53" s="1">
         <v>111</v>
       </c>
-      <c r="C54">
+      <c r="C53" s="1">
         <f t="shared" si="5"/>
         <v>46.5</v>
       </c>
-      <c r="E54">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1">
         <v>3.75</v>
       </c>
-      <c r="F54">
+      <c r="F53" s="1">
         <v>115</v>
       </c>
-      <c r="G54">
+      <c r="G53" s="1">
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="I54">
+      <c r="H53" s="1"/>
+      <c r="I53" s="1">
         <v>3.75</v>
       </c>
-      <c r="J54">
+      <c r="J53" s="1">
         <v>112</v>
       </c>
-      <c r="K54">
+      <c r="K53" s="1">
         <f t="shared" si="7"/>
         <v>47.5</v>
       </c>
-      <c r="M54">
+      <c r="L53" s="1"/>
+      <c r="M53" s="1">
         <v>3.75</v>
       </c>
-      <c r="N54">
+      <c r="N53" s="1">
         <v>100</v>
       </c>
-      <c r="O54">
+      <c r="O53" s="1">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="Q54">
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1">
         <v>3.75</v>
       </c>
-      <c r="R54">
+      <c r="R53" s="1">
         <v>95.5</v>
       </c>
-      <c r="S54">
+      <c r="S53" s="1">
         <f t="shared" si="9"/>
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A55">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>3.5</v>
       </c>
-      <c r="B55">
+      <c r="B54" s="1">
         <v>108</v>
       </c>
-      <c r="C55">
+      <c r="C54" s="1">
         <f t="shared" si="5"/>
         <v>43.5</v>
       </c>
-      <c r="E55">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1">
         <v>3.5</v>
       </c>
-      <c r="F55">
+      <c r="F54" s="1">
         <v>112</v>
       </c>
-      <c r="G55">
+      <c r="G54" s="1">
         <f t="shared" si="6"/>
         <v>47.5</v>
       </c>
-      <c r="I55">
+      <c r="H54" s="1"/>
+      <c r="I54" s="1">
         <v>3.5</v>
       </c>
-      <c r="J55">
+      <c r="J54" s="1">
         <v>109</v>
       </c>
-      <c r="K55">
+      <c r="K54" s="1">
         <f t="shared" si="7"/>
         <v>44.5</v>
       </c>
-      <c r="M55">
+      <c r="L54" s="1"/>
+      <c r="M54" s="1">
         <v>3.5</v>
       </c>
-      <c r="N55">
+      <c r="N54" s="1">
         <v>98</v>
       </c>
-      <c r="O55">
+      <c r="O54" s="1">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="Q55">
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1">
         <v>3.5</v>
       </c>
-      <c r="R55">
+      <c r="R54" s="1">
         <v>93</v>
       </c>
-      <c r="S55">
+      <c r="S54" s="1">
         <f t="shared" si="9"/>
         <v>28.5</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A56">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>3.25</v>
       </c>
-      <c r="B56">
+      <c r="B55" s="1">
         <v>102</v>
       </c>
-      <c r="C56">
+      <c r="C55" s="1">
         <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
-      <c r="E56">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1">
         <v>3.25</v>
       </c>
-      <c r="F56">
+      <c r="F55" s="1">
         <v>105</v>
       </c>
-      <c r="G56">
+      <c r="G55" s="1">
         <f t="shared" si="6"/>
         <v>40.5</v>
       </c>
-      <c r="I56">
+      <c r="H55" s="1"/>
+      <c r="I55" s="1">
         <v>3.25</v>
       </c>
-      <c r="J56">
+      <c r="J55" s="1">
         <v>104</v>
       </c>
-      <c r="K56">
+      <c r="K55" s="1">
         <f t="shared" si="7"/>
         <v>39.5</v>
       </c>
-      <c r="M56">
+      <c r="L55" s="1"/>
+      <c r="M55" s="1">
         <v>3.25</v>
       </c>
-      <c r="N56">
+      <c r="N55" s="1">
         <v>94.5</v>
       </c>
-      <c r="O56">
+      <c r="O55" s="1">
         <f t="shared" si="8"/>
         <v>29.5</v>
       </c>
-      <c r="Q56">
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1">
         <v>3.25</v>
       </c>
-      <c r="R56">
+      <c r="R55" s="1">
         <v>90</v>
       </c>
-      <c r="S56">
+      <c r="S55" s="1">
         <f t="shared" si="9"/>
         <v>25.5</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A57">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>3</v>
       </c>
-      <c r="B57">
+      <c r="B56" s="1">
         <v>96</v>
       </c>
-      <c r="C57">
+      <c r="C56" s="1">
         <f t="shared" si="5"/>
         <v>31.5</v>
       </c>
-      <c r="E57">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1">
         <v>3</v>
       </c>
-      <c r="F57">
+      <c r="F56" s="1">
         <v>99</v>
       </c>
-      <c r="G57">
+      <c r="G56" s="1">
         <f t="shared" si="6"/>
         <v>34.5</v>
       </c>
-      <c r="I57">
+      <c r="H56" s="1"/>
+      <c r="I56" s="1">
         <v>3</v>
       </c>
-      <c r="J57">
+      <c r="J56" s="1">
         <v>98.5</v>
       </c>
-      <c r="K57">
+      <c r="K56" s="1">
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="M57">
+      <c r="L56" s="1"/>
+      <c r="M56" s="1">
         <v>3</v>
       </c>
-      <c r="N57">
+      <c r="N56" s="1">
         <v>91</v>
       </c>
-      <c r="O57">
+      <c r="O56" s="1">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="Q57">
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1">
         <v>3</v>
       </c>
-      <c r="R57">
+      <c r="R56" s="1">
         <v>88</v>
       </c>
-      <c r="S57">
+      <c r="S56" s="1">
         <f t="shared" si="9"/>
         <v>23.5</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A58">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>2.75</v>
       </c>
-      <c r="B58">
+      <c r="B57" s="1">
         <v>92</v>
       </c>
-      <c r="C58">
+      <c r="C57" s="1">
         <f t="shared" si="5"/>
         <v>27.5</v>
       </c>
-      <c r="E58">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1">
         <v>2.75</v>
       </c>
-      <c r="F58">
+      <c r="F57" s="1">
         <v>96</v>
       </c>
-      <c r="G58">
+      <c r="G57" s="1">
         <f t="shared" si="6"/>
         <v>31.5</v>
       </c>
-      <c r="I58">
+      <c r="H57" s="1"/>
+      <c r="I57" s="1">
         <v>2.75</v>
       </c>
-      <c r="J58">
+      <c r="J57" s="1">
         <v>94</v>
       </c>
-      <c r="K58">
+      <c r="K57" s="1">
         <f t="shared" si="7"/>
         <v>29.5</v>
       </c>
-      <c r="M58">
+      <c r="L57" s="1"/>
+      <c r="M57" s="1">
         <v>2.75</v>
       </c>
-      <c r="N58">
+      <c r="N57" s="1">
         <v>87</v>
       </c>
-      <c r="O58">
+      <c r="O57" s="1">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="Q58">
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1">
         <v>2.75</v>
       </c>
-      <c r="R58">
+      <c r="R57" s="1">
         <v>85</v>
       </c>
-      <c r="S58">
+      <c r="S57" s="1">
         <f t="shared" si="9"/>
         <v>20.5</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A59">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>2.5</v>
       </c>
-      <c r="B59">
+      <c r="B58" s="1">
         <v>88</v>
       </c>
-      <c r="C59">
+      <c r="C58" s="1">
         <f t="shared" si="5"/>
         <v>23.5</v>
       </c>
-      <c r="E59">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1">
         <v>2.5</v>
       </c>
-      <c r="F59">
+      <c r="F58" s="1">
         <v>92</v>
       </c>
-      <c r="G59">
+      <c r="G58" s="1">
         <f t="shared" si="6"/>
         <v>27.5</v>
       </c>
-      <c r="I59">
+      <c r="H58" s="1"/>
+      <c r="I58" s="1">
         <v>2.5</v>
       </c>
-      <c r="J59">
+      <c r="J58" s="1">
         <v>92</v>
       </c>
-      <c r="K59">
+      <c r="K58" s="1">
         <f t="shared" si="7"/>
         <v>27.5</v>
       </c>
-      <c r="M59">
+      <c r="L58" s="1"/>
+      <c r="M58" s="1">
         <v>2.5</v>
       </c>
-      <c r="N59">
+      <c r="N58" s="1">
         <v>85.5</v>
       </c>
-      <c r="O59">
+      <c r="O58" s="1">
         <f t="shared" si="8"/>
         <v>20.5</v>
       </c>
-      <c r="Q59">
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1">
         <v>2.5</v>
       </c>
-      <c r="R59">
+      <c r="R58" s="1">
         <v>82</v>
       </c>
-      <c r="S59">
+      <c r="S58" s="1">
         <f t="shared" si="9"/>
         <v>17.5</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A60">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>2.25</v>
       </c>
-      <c r="B60">
+      <c r="B59" s="1">
         <v>87</v>
       </c>
-      <c r="C60">
+      <c r="C59" s="1">
         <f t="shared" si="5"/>
         <v>22.5</v>
       </c>
-      <c r="E60">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1">
         <v>2.25</v>
       </c>
-      <c r="F60">
+      <c r="F59" s="1">
         <v>89.5</v>
       </c>
-      <c r="G60">
+      <c r="G59" s="1">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="I60">
+      <c r="H59" s="1"/>
+      <c r="I59" s="1">
         <v>2.25</v>
       </c>
-      <c r="J60">
+      <c r="J59" s="1">
         <v>89</v>
       </c>
-      <c r="K60">
+      <c r="K59" s="1">
         <f t="shared" si="7"/>
         <v>24.5</v>
       </c>
-      <c r="M60">
+      <c r="L59" s="1"/>
+      <c r="M59" s="1">
         <v>2.25</v>
       </c>
-      <c r="N60">
+      <c r="N59" s="1">
         <v>83</v>
       </c>
-      <c r="O60">
+      <c r="O59" s="1">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="Q60">
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1">
         <v>2.25</v>
       </c>
-      <c r="R60">
+      <c r="R59" s="1">
         <v>80</v>
       </c>
-      <c r="S60">
+      <c r="S59" s="1">
         <f t="shared" si="9"/>
         <v>15.5</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A61">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>2</v>
       </c>
-      <c r="B61">
+      <c r="B60" s="1">
         <v>83</v>
       </c>
-      <c r="C61">
+      <c r="C60" s="1">
         <f t="shared" si="5"/>
         <v>18.5</v>
       </c>
-      <c r="E61">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1">
         <v>2</v>
       </c>
-      <c r="F61">
+      <c r="F60" s="1">
         <v>86</v>
       </c>
-      <c r="G61">
+      <c r="G60" s="1">
         <f t="shared" si="6"/>
         <v>21.5</v>
       </c>
-      <c r="I61">
+      <c r="H60" s="1"/>
+      <c r="I60" s="1">
         <v>2</v>
       </c>
-      <c r="J61">
+      <c r="J60" s="1">
         <v>85</v>
       </c>
-      <c r="K61">
+      <c r="K60" s="1">
         <f t="shared" si="7"/>
         <v>20.5</v>
       </c>
-      <c r="M61">
+      <c r="L60" s="1"/>
+      <c r="M60" s="1">
         <v>2</v>
       </c>
-      <c r="N61">
+      <c r="N60" s="1">
         <v>80</v>
       </c>
-      <c r="O61">
+      <c r="O60" s="1">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="Q61">
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1">
         <v>2</v>
       </c>
-      <c r="R61">
+      <c r="R60" s="1">
         <v>78.5</v>
       </c>
-      <c r="S61">
+      <c r="S60" s="1">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A62">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>1.5</v>
       </c>
-      <c r="B62">
+      <c r="B61" s="1">
         <v>78</v>
       </c>
-      <c r="C62">
+      <c r="C61" s="1">
         <f t="shared" si="5"/>
         <v>13.5</v>
       </c>
-      <c r="E62">
+      <c r="D61" s="1"/>
+      <c r="E61" s="1">
         <v>1.5</v>
       </c>
-      <c r="F62">
+      <c r="F61" s="1">
         <v>80</v>
       </c>
-      <c r="G62">
+      <c r="G61" s="1">
         <f t="shared" si="6"/>
         <v>15.5</v>
       </c>
-      <c r="I62">
+      <c r="H61" s="1"/>
+      <c r="I61" s="1">
         <v>1.5</v>
       </c>
-      <c r="J62">
+      <c r="J61" s="1">
         <v>78</v>
       </c>
-      <c r="K62">
+      <c r="K61" s="1">
         <f t="shared" si="7"/>
         <v>13.5</v>
       </c>
-      <c r="M62">
+      <c r="L61" s="1"/>
+      <c r="M61" s="1">
         <v>1.5</v>
       </c>
-      <c r="N62">
+      <c r="N61" s="1">
         <v>76</v>
       </c>
-      <c r="O62">
+      <c r="O61" s="1">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="Q62">
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1">
         <v>1.5</v>
       </c>
-      <c r="R62">
+      <c r="R61" s="1">
         <v>74.5</v>
       </c>
-      <c r="S62">
+      <c r="S61" s="1">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A63">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>1</v>
       </c>
-      <c r="B63">
+      <c r="B62" s="1">
         <v>74</v>
       </c>
-      <c r="C63">
+      <c r="C62" s="1">
         <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
-      <c r="E63">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1">
         <v>1</v>
       </c>
-      <c r="F63">
+      <c r="F62" s="1">
         <v>75</v>
       </c>
-      <c r="G63">
+      <c r="G62" s="1">
         <f t="shared" si="6"/>
         <v>10.5</v>
       </c>
-      <c r="I63">
+      <c r="H62" s="1"/>
+      <c r="I62" s="1">
         <v>1</v>
       </c>
-      <c r="J63">
+      <c r="J62" s="1">
         <v>74</v>
       </c>
-      <c r="K63">
+      <c r="K62" s="1">
         <f t="shared" si="7"/>
         <v>9.5</v>
       </c>
-      <c r="M63">
+      <c r="L62" s="1"/>
+      <c r="M62" s="1">
         <v>1</v>
       </c>
-      <c r="N63">
+      <c r="N62" s="1">
         <v>73</v>
       </c>
-      <c r="O63">
+      <c r="O62" s="1">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="Q63">
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1">
         <v>1</v>
       </c>
-      <c r="R63">
+      <c r="R62" s="1">
         <v>71</v>
       </c>
-      <c r="S63">
+      <c r="S62" s="1">
         <f t="shared" si="9"/>
         <v>6.5</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A64">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>0.5</v>
       </c>
-      <c r="B64">
+      <c r="B63" s="1">
         <v>70</v>
       </c>
-      <c r="C64">
+      <c r="C63" s="1">
         <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
-      <c r="E64">
+      <c r="D63" s="1"/>
+      <c r="E63" s="1">
         <v>0.5</v>
       </c>
-      <c r="F64">
+      <c r="F63" s="1">
         <v>71</v>
       </c>
-      <c r="G64">
+      <c r="G63" s="1">
         <f t="shared" si="6"/>
         <v>6.5</v>
       </c>
-      <c r="I64">
+      <c r="H63" s="1"/>
+      <c r="I63" s="1">
         <v>0.5</v>
       </c>
-      <c r="J64">
+      <c r="J63" s="1">
         <v>69</v>
       </c>
-      <c r="K64">
+      <c r="K63" s="1">
         <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
-      <c r="M64">
+      <c r="L63" s="1"/>
+      <c r="M63" s="1">
         <v>0.5</v>
       </c>
-      <c r="N64">
+      <c r="N63" s="1">
         <v>69</v>
       </c>
-      <c r="O64">
+      <c r="O63" s="1">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="Q64">
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1">
         <v>0.5</v>
       </c>
-      <c r="R64">
+      <c r="R63" s="1">
         <v>68.5</v>
       </c>
-      <c r="S64">
+      <c r="S63" s="1">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A65">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>0</v>
       </c>
-      <c r="B65">
+      <c r="B64" s="1">
         <v>66</v>
       </c>
-      <c r="C65">
+      <c r="C64" s="1">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="E65">
+      <c r="D64" s="1"/>
+      <c r="E64" s="1">
         <v>0</v>
       </c>
-      <c r="F65">
+      <c r="F64" s="1">
         <v>66</v>
       </c>
-      <c r="G65">
+      <c r="G64" s="1">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="I65">
+      <c r="H64" s="1"/>
+      <c r="I64" s="1">
         <v>0</v>
       </c>
-      <c r="J65">
+      <c r="J64" s="1">
         <v>64</v>
       </c>
-      <c r="K65">
+      <c r="K64" s="1">
         <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
-      <c r="M65">
+      <c r="L64" s="1"/>
+      <c r="M64" s="1">
         <v>0</v>
       </c>
-      <c r="N65">
+      <c r="N64" s="1">
         <v>65</v>
       </c>
-      <c r="O65">
+      <c r="O64" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q65">
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1">
         <v>0</v>
       </c>
-      <c r="R65">
+      <c r="R64" s="1">
         <v>64.5</v>
       </c>
-      <c r="S65">
+      <c r="S64" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
+    <row r="67" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="5"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>3</v>
+      </c>
+      <c r="K69" t="s">
+        <v>2</v>
+      </c>
+      <c r="M69" t="s">
+        <v>24</v>
+      </c>
+      <c r="N69" t="s">
+        <v>24</v>
+      </c>
+      <c r="P69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>8</v>
       </c>
-      <c r="E70" t="s">
-        <v>9</v>
-      </c>
-      <c r="I70" t="s">
-        <v>10</v>
-      </c>
-      <c r="K70" t="s">
-        <v>11</v>
-      </c>
-      <c r="M70" t="s">
-        <v>15</v>
-      </c>
-      <c r="N70" t="s">
-        <v>16</v>
-      </c>
-      <c r="P70" t="s">
-        <v>26</v>
+      <c r="B70" s="1">
+        <v>550</v>
+      </c>
+      <c r="C70" s="1">
+        <f>B70-$B$79</f>
+        <v>93</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1">
+        <v>20</v>
+      </c>
+      <c r="F70" s="1">
+        <v>563</v>
+      </c>
+      <c r="G70" s="1">
+        <f>F70-$F$91</f>
+        <v>101</v>
+      </c>
+      <c r="I70">
+        <v>20</v>
+      </c>
+      <c r="J70">
+        <v>502</v>
+      </c>
+      <c r="K70">
+        <f>J70-$J$79</f>
+        <v>502</v>
+      </c>
+      <c r="M70">
+        <v>32</v>
+      </c>
+      <c r="N70">
+        <v>6</v>
+      </c>
+      <c r="P70">
+        <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" t="s">
-        <v>2</v>
-      </c>
-      <c r="F71" t="s">
-        <v>4</v>
-      </c>
-      <c r="G71" t="s">
-        <v>3</v>
-      </c>
-      <c r="I71" t="s">
-        <v>2</v>
-      </c>
-      <c r="J71" t="s">
-        <v>4</v>
-      </c>
-      <c r="K71" t="s">
-        <v>3</v>
-      </c>
-      <c r="M71" t="s">
-        <v>25</v>
-      </c>
-      <c r="N71" t="s">
-        <v>25</v>
-      </c>
-      <c r="P71" t="s">
-        <v>20</v>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>7</v>
+      </c>
+      <c r="B71" s="1">
+        <v>547</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" ref="C71:C78" si="10">B71-$B$79</f>
+        <v>90</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1">
+        <v>19</v>
+      </c>
+      <c r="F71" s="1">
+        <v>561</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" ref="G71:G90" si="11">F71-$F$91</f>
+        <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A72">
-        <v>8</v>
-      </c>
-      <c r="B72">
-        <v>550</v>
-      </c>
-      <c r="C72">
-        <f>B72-$B$81</f>
-        <v>93</v>
-      </c>
-      <c r="E72">
-        <v>20</v>
-      </c>
-      <c r="F72">
-        <v>563</v>
-      </c>
-      <c r="G72">
-        <f>F72-$F$93</f>
-        <v>101</v>
-      </c>
-      <c r="I72">
-        <v>20</v>
-      </c>
-      <c r="J72">
-        <v>502</v>
-      </c>
-      <c r="K72">
-        <f>J72-$J$81</f>
-        <v>502</v>
-      </c>
-      <c r="M72">
-        <v>32</v>
-      </c>
-      <c r="N72">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>6</v>
       </c>
-      <c r="P72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A73">
-        <v>7</v>
-      </c>
-      <c r="B73">
-        <v>547</v>
-      </c>
-      <c r="C73">
-        <f t="shared" ref="C73:C80" si="10">B73-$B$81</f>
-        <v>90</v>
-      </c>
-      <c r="E73">
-        <v>19</v>
-      </c>
-      <c r="F73">
-        <v>561</v>
-      </c>
-      <c r="G73">
-        <f t="shared" ref="G73:G92" si="11">F73-$F$93</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A74">
-        <v>6</v>
-      </c>
-      <c r="B74">
+      <c r="B72" s="1">
         <v>543</v>
       </c>
-      <c r="C74">
+      <c r="C72" s="1">
         <f t="shared" si="10"/>
         <v>86</v>
       </c>
-      <c r="E74">
+      <c r="D72" s="1"/>
+      <c r="E72" s="1">
         <v>18</v>
       </c>
-      <c r="F74">
+      <c r="F72" s="1">
         <v>560</v>
       </c>
-      <c r="G74">
+      <c r="G72" s="1">
         <f t="shared" si="11"/>
         <v>98</v>
       </c>
-      <c r="P74" t="s">
-        <v>32</v>
+      <c r="P72" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A75">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>5.5</v>
       </c>
-      <c r="B75">
+      <c r="B73" s="1">
         <v>539</v>
       </c>
-      <c r="C75">
+      <c r="C73" s="1">
         <f t="shared" si="10"/>
         <v>82</v>
       </c>
-      <c r="E75">
+      <c r="D73" s="1"/>
+      <c r="E73" s="1">
         <v>17</v>
       </c>
-      <c r="F75">
+      <c r="F73" s="1">
         <v>559</v>
       </c>
-      <c r="G75">
+      <c r="G73" s="1">
         <f t="shared" si="11"/>
         <v>97</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="Q73" t="s">
+        <v>26</v>
+      </c>
+      <c r="S73" t="s">
         <v>27</v>
       </c>
-      <c r="S75" t="s">
+      <c r="U73" t="s">
         <v>28</v>
       </c>
-      <c r="U75" t="s">
-        <v>29</v>
-      </c>
-      <c r="W75" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA75" t="s">
-        <v>24</v>
+      <c r="W73" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A76">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>5</v>
       </c>
-      <c r="B76">
+      <c r="B74" s="1">
         <v>537</v>
       </c>
-      <c r="C76">
+      <c r="C74" s="1">
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="E76">
+      <c r="D74" s="1"/>
+      <c r="E74" s="1">
         <v>16</v>
       </c>
-      <c r="F76">
+      <c r="F74" s="1">
         <v>559</v>
       </c>
-      <c r="G76">
+      <c r="G74" s="1">
         <f t="shared" si="11"/>
         <v>97</v>
       </c>
-      <c r="P76" t="s">
+      <c r="P74" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q74" t="s">
         <v>12</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="R74" t="s">
         <v>13</v>
       </c>
-      <c r="R76" t="s">
-        <v>14</v>
-      </c>
-      <c r="S76" t="s">
-        <v>31</v>
-      </c>
-      <c r="T76" t="s">
+      <c r="S74" t="s">
         <v>30</v>
       </c>
-      <c r="W76" t="s">
+      <c r="T74" t="s">
+        <v>29</v>
+      </c>
+      <c r="W74" t="s">
+        <v>16</v>
+      </c>
+      <c r="X74" t="s">
         <v>17</v>
       </c>
-      <c r="X76" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y76" t="s">
+      <c r="Y74" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z74" t="s">
         <v>17</v>
       </c>
-      <c r="Z76" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA76" t="s">
+      <c r="AA74" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB74" t="s">
         <v>17</v>
       </c>
-      <c r="AB76" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A77">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>4.5</v>
       </c>
-      <c r="B77">
+      <c r="B75" s="1">
         <v>531</v>
       </c>
-      <c r="C77">
+      <c r="C75" s="1">
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="E77">
+      <c r="D75" s="1"/>
+      <c r="E75" s="1">
         <v>15</v>
       </c>
-      <c r="F77">
+      <c r="F75" s="1">
         <v>558</v>
       </c>
-      <c r="G77">
+      <c r="G75" s="1">
         <f t="shared" si="11"/>
         <v>96</v>
       </c>
-      <c r="P77" t="s">
+      <c r="P75" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q75" t="s">
         <v>20</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="R75" t="s">
+        <v>20</v>
+      </c>
+      <c r="S75" t="s">
         <v>21</v>
       </c>
-      <c r="R77" t="s">
+      <c r="T75" t="s">
         <v>21</v>
       </c>
-      <c r="S77" t="s">
+      <c r="U75" t="s">
+        <v>21</v>
+      </c>
+      <c r="W75" t="s">
         <v>22</v>
       </c>
-      <c r="T77" t="s">
+      <c r="X75" t="s">
         <v>22</v>
       </c>
-      <c r="U77" t="s">
+      <c r="Y75" t="s">
         <v>22</v>
       </c>
-      <c r="W77" t="s">
-        <v>23</v>
-      </c>
-      <c r="X77" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA77" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB77" t="s">
-        <v>23</v>
+      <c r="Z75" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A78">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>4</v>
       </c>
-      <c r="B78">
+      <c r="B76" s="1">
         <v>500</v>
       </c>
-      <c r="C78">
+      <c r="C76" s="1">
         <f t="shared" si="10"/>
         <v>43</v>
       </c>
-      <c r="E78">
+      <c r="D76" s="1"/>
+      <c r="E76" s="1">
         <v>14</v>
       </c>
-      <c r="F78">
+      <c r="F76" s="1">
         <v>556</v>
       </c>
-      <c r="G78">
+      <c r="G76" s="1">
         <f t="shared" si="11"/>
         <v>94</v>
       </c>
-      <c r="P78">
+      <c r="P76">
         <v>0</v>
       </c>
-      <c r="Q78">
-        <f>0.00003*P78^3-0.0031*P78^2+0.1115*P78+2.2599</f>
+      <c r="Q76">
+        <f>0.00003*P76^3-0.0031*P76^2+0.1115*P76+2.2599</f>
         <v>2.2599</v>
       </c>
-      <c r="R78">
-        <f>0.00008*P78^3-0.0088*P78^2+0.2956*P78+1.4681</f>
+      <c r="R76">
+        <f>0.00008*P76^3-0.0088*P76^2+0.2956*P76+1.4681</f>
         <v>1.4681</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A79">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>3.5</v>
       </c>
-      <c r="B79">
+      <c r="B77" s="1">
         <v>490</v>
       </c>
-      <c r="C79">
+      <c r="C77" s="1">
         <f t="shared" si="10"/>
         <v>33</v>
       </c>
-      <c r="E79">
+      <c r="D77" s="1"/>
+      <c r="E77" s="1">
         <v>13</v>
       </c>
-      <c r="F79">
+      <c r="F77" s="1">
         <v>554</v>
       </c>
-      <c r="G79">
+      <c r="G77" s="1">
         <f t="shared" si="11"/>
         <v>92</v>
       </c>
-      <c r="P79">
+      <c r="P77">
         <v>5</v>
       </c>
-      <c r="Q79">
-        <f t="shared" ref="Q79:Q98" si="12">0.00003*P79^3-0.0031*P79^2+0.1115*P79+2.2599</f>
+      <c r="Q77">
+        <f t="shared" ref="Q77:Q96" si="12">0.00003*P77^3-0.0031*P77^2+0.1115*P77+2.2599</f>
         <v>2.7436500000000001</v>
       </c>
-      <c r="R79">
-        <f t="shared" ref="R79:R98" si="13">0.00008*P79^3-0.0088*P79^2+0.2956*P79+1.4681</f>
+      <c r="R77">
+        <f t="shared" ref="R77:R96" si="13">0.00008*P77^3-0.0088*P77^2+0.2956*P77+1.4681</f>
         <v>2.7360999999999995</v>
       </c>
-      <c r="S79">
-        <f>(P79-P78)*((Q78+Q79)/2)*0.001+S78</f>
+      <c r="S77">
+        <f>(P77-P76)*((Q76+Q77)/2)*0.001+S76</f>
         <v>1.2508875000000003E-2</v>
       </c>
-      <c r="T79">
-        <f>(P79-P78)*((R78+R79)/2)*0.001+T78</f>
+      <c r="T77">
+        <f>(P77-P76)*((R76+R77)/2)*0.001+T76</f>
         <v>1.0510499999999999E-2</v>
       </c>
-      <c r="U79">
-        <f>$P$72*9.81*$M$72*0.000001</f>
+      <c r="U77">
+        <f>$P$70*9.81*$M$70*0.000001</f>
         <v>3.1391999999999996E-2</v>
       </c>
-      <c r="W79" t="e">
-        <f>SQRT((2*($S79-$U$79))/($M$72*0.001))</f>
+      <c r="W77" t="e">
+        <f>SQRT((2*($S77-$U$77))/($M$70*0.001))</f>
         <v>#NUM!</v>
       </c>
-      <c r="X79" t="e">
-        <f>SQRT((2*($S79-$U$79))/(($M$72+$N$72)*0.001))</f>
+      <c r="X77" t="e">
+        <f>SQRT((2*($S77-$U$77))/(($M$70+$N$70)*0.001))</f>
         <v>#NUM!</v>
       </c>
-      <c r="Y79" t="e">
-        <f>SQRT((2*($T79-$U$79))/($M$72*0.001))</f>
+      <c r="Y77" t="e">
+        <f>SQRT((2*($T77-$U$77))/($M$70*0.001))</f>
         <v>#NUM!</v>
       </c>
-      <c r="Z79" t="e">
-        <f>SQRT((2*($T79-$U$79))/(($M$72+$N$72)*0.001))</f>
+      <c r="Z77" t="e">
+        <f>SQRT((2*($T77-$U$77))/(($M$70+$N$70)*0.001))</f>
         <v>#NUM!</v>
       </c>
-      <c r="AA79" t="e">
-        <f>SQRT((4*($T79-$U$79))/($M$72*0.001))</f>
+      <c r="AA77" t="e">
+        <f>SQRT((4*($T77-$U$77))/($M$70*0.001))</f>
         <v>#NUM!</v>
       </c>
-      <c r="AB79">
-        <f t="shared" ref="AB79:AB98" si="14">SQRT((4*$T79)/(($M$72+$N$72)*0.001))</f>
+      <c r="AB77">
+        <f t="shared" ref="AB77:AB96" si="14">SQRT((4*$T77)/(($M$70+$N$70)*0.001))</f>
         <v>1.0518404922100268</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A80">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>3</v>
       </c>
-      <c r="B80">
+      <c r="B78" s="1">
         <v>480</v>
       </c>
-      <c r="C80">
+      <c r="C78" s="1">
         <f t="shared" si="10"/>
         <v>23</v>
       </c>
-      <c r="E80">
+      <c r="D78" s="1"/>
+      <c r="E78" s="1">
         <v>12</v>
       </c>
-      <c r="F80">
+      <c r="F78" s="1">
         <v>552</v>
       </c>
-      <c r="G80">
+      <c r="G78" s="1">
         <f t="shared" si="11"/>
         <v>90</v>
       </c>
+      <c r="P78">
+        <v>10</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="12"/>
+        <v>3.0949</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="13"/>
+        <v>3.6240999999999994</v>
+      </c>
+      <c r="S78">
+        <f t="shared" ref="S78:S96" si="15">(P78-P77)*((Q77+Q78)/2)*0.001+S77</f>
+        <v>2.7105250000000001E-2</v>
+      </c>
+      <c r="T78">
+        <f t="shared" ref="T78:T96" si="16">(P78-P77)*((R77+R78)/2)*0.001+T77</f>
+        <v>2.6410999999999997E-2</v>
+      </c>
+      <c r="W78" t="e">
+        <f t="shared" ref="W78:W96" si="17">SQRT((2*($S78-$U$77))/($M$70*0.001))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="X78" t="e">
+        <f t="shared" ref="X78:X96" si="18">SQRT((2*($S78-$U$77))/(($M$70+$N$70)*0.001))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y78" t="e">
+        <f t="shared" ref="Y78:Y96" si="19">SQRT((2*($T78-$U$77))/($M$70*0.001))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Z78" t="e">
+        <f t="shared" ref="Z78:Z96" si="20">SQRT((2*($T78-$U$77))/(($M$70+$N$70)*0.001))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" ref="AA78:AA96" si="21">SQRT((4*$T78)/($M$70*0.001))</f>
+        <v>1.8169686293384373</v>
+      </c>
+      <c r="AB78">
+        <f t="shared" si="14"/>
+        <v>1.6673647660778652</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B79" s="1">
+        <v>457</v>
+      </c>
+      <c r="C79" s="1">
+        <f>B79-$B$79+1</f>
+        <v>1</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1">
+        <v>11</v>
+      </c>
+      <c r="F79" s="1">
+        <v>551</v>
+      </c>
+      <c r="G79" s="1">
+        <f t="shared" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="P79">
+        <v>15</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="12"/>
+        <v>3.3361499999999999</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="13"/>
+        <v>4.192099999999999</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="15"/>
+        <v>4.3182875000000003E-2</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="16"/>
+        <v>4.5951499999999992E-2</v>
+      </c>
+      <c r="W79">
+        <f>SQRT((2*($S79-$U$77))/($M$70*0.001))</f>
+        <v>0.85844608887221352</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="18"/>
+        <v>0.78776415786772946</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="19"/>
+        <v>0.95392282182574906</v>
+      </c>
+      <c r="Z79">
+        <f t="shared" si="20"/>
+        <v>0.87537961690012545</v>
+      </c>
+      <c r="AA79">
+        <f t="shared" si="21"/>
+        <v>2.3966513096401818</v>
+      </c>
+      <c r="AB79">
+        <f t="shared" si="14"/>
+        <v>2.1993180761317812</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1">
+        <v>10</v>
+      </c>
+      <c r="F80" s="1">
+        <v>550</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" si="11"/>
+        <v>88</v>
+      </c>
       <c r="P80">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q80">
         <f t="shared" si="12"/>
-        <v>3.0949</v>
+        <v>3.4899</v>
       </c>
       <c r="R80">
         <f t="shared" si="13"/>
-        <v>3.6240999999999994</v>
+        <v>4.5000999999999989</v>
       </c>
       <c r="S80">
-        <f t="shared" ref="S80:S98" si="15">(P80-P79)*((Q79+Q80)/2)*0.001+S79</f>
-        <v>2.7105250000000001E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.024800000000001E-2</v>
       </c>
       <c r="T80">
-        <f t="shared" ref="T80:T98" si="16">(P80-P79)*((R79+R80)/2)*0.001+T79</f>
-        <v>2.6410999999999997E-2</v>
-      </c>
-      <c r="W80" t="e">
-        <f t="shared" ref="W80:W98" si="17">SQRT((2*($S80-$U$79))/($M$72*0.001))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X80" t="e">
-        <f t="shared" ref="X80:X98" si="18">SQRT((2*($S80-$U$79))/(($M$72+$N$72)*0.001))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y80" t="e">
-        <f t="shared" ref="Y80:Y98" si="19">SQRT((2*($T80-$U$79))/($M$72*0.001))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="Z80" t="e">
-        <f t="shared" ref="Z80:Z98" si="20">SQRT((2*($T80-$U$79))/(($M$72+$N$72)*0.001))</f>
-        <v>#NUM!</v>
+        <f t="shared" si="16"/>
+        <v>6.7681999999999992E-2</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="17"/>
+        <v>1.3429445260322561</v>
+      </c>
+      <c r="X80">
+        <f>SQRT((2*($S80-$U$77))/(($M$70+$N$70)*0.001))</f>
+        <v>1.2323704159485751</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="19"/>
+        <v>1.5060295481829031</v>
+      </c>
+      <c r="Z80">
+        <f t="shared" si="20"/>
+        <v>1.3820274961085253</v>
       </c>
       <c r="AA80">
-        <f t="shared" ref="AA80:AA98" si="21">SQRT((4*$T80)/($M$72*0.001))</f>
-        <v>1.8169686293384373</v>
+        <f t="shared" si="21"/>
+        <v>2.9086508900175696</v>
       </c>
       <c r="AB80">
         <f t="shared" si="14"/>
-        <v>1.6673647660778652</v>
+        <v>2.6691611140265734</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A81">
-        <v>2.5</v>
-      </c>
-      <c r="B81">
-        <v>457</v>
-      </c>
-      <c r="C81">
-        <f>B81-$B$81+1</f>
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>11</v>
-      </c>
-      <c r="F81">
-        <v>551</v>
-      </c>
-      <c r="G81">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1">
+        <v>9</v>
+      </c>
+      <c r="F81" s="1">
+        <v>547</v>
+      </c>
+      <c r="G81" s="1">
         <f t="shared" si="11"/>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P81">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Q81">
         <f t="shared" si="12"/>
-        <v>3.3361499999999999</v>
+        <v>3.5786500000000001</v>
       </c>
       <c r="R81">
         <f t="shared" si="13"/>
-        <v>4.192099999999999</v>
+        <v>4.6080999999999994</v>
       </c>
       <c r="S81">
         <f t="shared" si="15"/>
-        <v>4.3182875000000003E-2</v>
+        <v>7.7919375000000013E-2</v>
       </c>
       <c r="T81">
         <f t="shared" si="16"/>
-        <v>4.5951499999999992E-2</v>
+        <v>9.0452499999999991E-2</v>
       </c>
       <c r="W81">
-        <f>SQRT((2*($S81-$U$79))/($M$72*0.001))</f>
-        <v>0.85844608887221352</v>
+        <f t="shared" si="17"/>
+        <v>1.7052744463868568</v>
       </c>
       <c r="X81">
         <f t="shared" si="18"/>
-        <v>0.78776415786772946</v>
+        <v>1.5648671542742267</v>
       </c>
       <c r="Y81">
         <f t="shared" si="19"/>
-        <v>0.95392282182574906</v>
+        <v>1.9212707383396019</v>
       </c>
       <c r="Z81">
         <f t="shared" si="20"/>
-        <v>0.87537961690012545</v>
+        <v>1.7630789456008633</v>
       </c>
       <c r="AA81">
         <f t="shared" si="21"/>
-        <v>2.3966513096401818</v>
+        <v>3.3625232341204718</v>
       </c>
       <c r="AB81">
         <f t="shared" si="14"/>
-        <v>2.1993180761317812</v>
+        <v>3.0856629416502517</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="E82">
-        <v>10</v>
-      </c>
-      <c r="F82">
-        <v>550</v>
-      </c>
-      <c r="G82">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1">
+        <v>8</v>
+      </c>
+      <c r="F82" s="1">
+        <v>545</v>
+      </c>
+      <c r="G82" s="1">
         <f t="shared" si="11"/>
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P82">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q82">
         <f t="shared" si="12"/>
-        <v>3.4899</v>
+        <v>3.6249000000000002</v>
       </c>
       <c r="R82">
         <f t="shared" si="13"/>
-        <v>4.5000999999999989</v>
+        <v>4.5760999999999976</v>
       </c>
       <c r="S82">
         <f t="shared" si="15"/>
-        <v>6.024800000000001E-2</v>
+        <v>9.592825000000002E-2</v>
       </c>
       <c r="T82">
         <f t="shared" si="16"/>
-        <v>6.7681999999999992E-2</v>
+        <v>0.11341299999999999</v>
       </c>
       <c r="W82">
         <f t="shared" si="17"/>
-        <v>1.3429445260322561</v>
+        <v>2.0083614278809483</v>
       </c>
       <c r="X82">
-        <f>SQRT((2*($S82-$U$79))/(($M$72+$N$72)*0.001))</f>
-        <v>1.2323704159485751</v>
+        <f t="shared" si="18"/>
+        <v>1.8429988434185482</v>
       </c>
       <c r="Y82">
         <f t="shared" si="19"/>
-        <v>1.5060295481829031</v>
+        <v>2.26413614873311</v>
       </c>
       <c r="Z82">
         <f t="shared" si="20"/>
-        <v>1.3820274961085253</v>
+        <v>2.077713824577895</v>
       </c>
       <c r="AA82">
         <f t="shared" si="21"/>
-        <v>2.9086508900175696</v>
+        <v>3.7651859183843763</v>
       </c>
       <c r="AB82">
         <f t="shared" si="14"/>
-        <v>2.6691611140265734</v>
+        <v>3.4551715625010271</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="E83">
-        <v>9</v>
-      </c>
-      <c r="F83">
-        <v>547</v>
-      </c>
-      <c r="G83">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1">
+        <v>7</v>
+      </c>
+      <c r="F83" s="1">
+        <v>540</v>
+      </c>
+      <c r="G83" s="1">
         <f t="shared" si="11"/>
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="P83">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Q83">
         <f t="shared" si="12"/>
-        <v>3.5786500000000001</v>
+        <v>3.6511500000000003</v>
       </c>
       <c r="R83">
         <f t="shared" si="13"/>
-        <v>4.6080999999999994</v>
+        <v>4.4640999999999966</v>
       </c>
       <c r="S83">
         <f t="shared" si="15"/>
-        <v>7.7919375000000013E-2</v>
+        <v>0.11411837500000002</v>
       </c>
       <c r="T83">
         <f t="shared" si="16"/>
-        <v>9.0452499999999991E-2</v>
+        <v>0.13601349999999998</v>
       </c>
       <c r="W83">
         <f t="shared" si="17"/>
-        <v>1.7052744463868568</v>
+        <v>2.2738510147984634</v>
       </c>
       <c r="X83">
         <f t="shared" si="18"/>
-        <v>1.5648671542742267</v>
+        <v>2.0866287970892441</v>
       </c>
       <c r="Y83">
         <f t="shared" si="19"/>
-        <v>1.9212707383396019</v>
+        <v>2.5571162957519156</v>
       </c>
       <c r="Z83">
         <f t="shared" si="20"/>
-        <v>1.7630789456008633</v>
+        <v>2.3465708463291928</v>
       </c>
       <c r="AA83">
         <f t="shared" si="21"/>
-        <v>3.3625232341204718</v>
+        <v>4.1233102599731684</v>
       </c>
       <c r="AB83">
         <f t="shared" si="14"/>
-        <v>3.0856629416502517</v>
+        <v>3.7838089970710453</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="E84">
-        <v>8</v>
-      </c>
-      <c r="F84">
-        <v>545</v>
-      </c>
-      <c r="G84">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1">
+        <v>6</v>
+      </c>
+      <c r="F84" s="1">
+        <v>535</v>
+      </c>
+      <c r="G84" s="1">
         <f t="shared" si="11"/>
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="P84">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q84">
         <f t="shared" si="12"/>
-        <v>3.6249000000000002</v>
+        <v>3.6798999999999999</v>
       </c>
       <c r="R84">
         <f t="shared" si="13"/>
-        <v>4.5760999999999976</v>
+        <v>4.332099999999997</v>
       </c>
       <c r="S84">
         <f t="shared" si="15"/>
-        <v>9.592825000000002E-2</v>
+        <v>0.13244600000000001</v>
       </c>
       <c r="T84">
         <f t="shared" si="16"/>
-        <v>0.11341299999999999</v>
+        <v>0.15800399999999998</v>
       </c>
       <c r="W84">
         <f t="shared" si="17"/>
-        <v>2.0083614278809483</v>
+        <v>2.513140465632592</v>
       </c>
       <c r="X84">
         <f t="shared" si="18"/>
-        <v>1.8429988434185482</v>
+        <v>2.3062158569716256</v>
       </c>
       <c r="Y84">
         <f t="shared" si="19"/>
-        <v>2.26413614873311</v>
+        <v>2.8130499462327356</v>
       </c>
       <c r="Z84">
         <f t="shared" si="20"/>
-        <v>2.077713824577895</v>
+        <v>2.5814316713181098</v>
       </c>
       <c r="AA84">
         <f t="shared" si="21"/>
-        <v>3.7651859183843763</v>
+        <v>4.4441534626968044</v>
       </c>
       <c r="AB84">
         <f t="shared" si="14"/>
-        <v>3.4551715625010271</v>
+        <v>4.0782349123119426</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="E85">
-        <v>7</v>
-      </c>
-      <c r="F85">
-        <v>540</v>
-      </c>
-      <c r="G85">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1">
+        <v>5</v>
+      </c>
+      <c r="F85" s="1">
+        <v>522</v>
+      </c>
+      <c r="G85" s="1">
         <f t="shared" si="11"/>
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="P85">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Q85">
         <f t="shared" si="12"/>
-        <v>3.6511500000000003</v>
+        <v>3.7336500000000004</v>
       </c>
       <c r="R85">
         <f t="shared" si="13"/>
-        <v>4.4640999999999966</v>
+        <v>4.2401</v>
       </c>
       <c r="S85">
         <f t="shared" si="15"/>
-        <v>0.11411837500000002</v>
+        <v>0.15097987500000001</v>
       </c>
       <c r="T85">
         <f t="shared" si="16"/>
-        <v>0.13601349999999998</v>
+        <v>0.17943449999999997</v>
       </c>
       <c r="W85">
         <f t="shared" si="17"/>
-        <v>2.2738510147984634</v>
+        <v>2.7339060312124848</v>
       </c>
       <c r="X85">
         <f t="shared" si="18"/>
-        <v>2.0866287970892441</v>
+        <v>2.5088042339350687</v>
       </c>
       <c r="Y85">
         <f t="shared" si="19"/>
-        <v>2.5571162957519156</v>
+        <v>3.041817918613801</v>
       </c>
       <c r="Z85">
         <f t="shared" si="20"/>
-        <v>2.3465708463291928</v>
+        <v>2.7913635603976399</v>
       </c>
       <c r="AA85">
         <f t="shared" si="21"/>
-        <v>4.1233102599731684</v>
+        <v>4.7359595120735563</v>
       </c>
       <c r="AB85">
         <f t="shared" si="14"/>
-        <v>3.7838089970710453</v>
+        <v>4.3460145081744903</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="E86">
-        <v>6</v>
-      </c>
-      <c r="F86">
-        <v>535</v>
-      </c>
-      <c r="G86">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F86" s="1">
+        <v>512</v>
+      </c>
+      <c r="G86" s="1">
         <f t="shared" si="11"/>
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="P86">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Q86">
         <f t="shared" si="12"/>
-        <v>3.6798999999999999</v>
+        <v>3.8349000000000002</v>
       </c>
       <c r="R86">
         <f t="shared" si="13"/>
-        <v>4.332099999999997</v>
+        <v>4.2480999999999991</v>
       </c>
       <c r="S86">
         <f t="shared" si="15"/>
-        <v>0.13244600000000001</v>
+        <v>0.16990125</v>
       </c>
       <c r="T86">
         <f t="shared" si="16"/>
-        <v>0.15800399999999998</v>
+        <v>0.20065499999999997</v>
       </c>
       <c r="W86">
         <f t="shared" si="17"/>
-        <v>2.513140465632592</v>
+        <v>2.9422488210550788</v>
       </c>
       <c r="X86">
         <f t="shared" si="18"/>
-        <v>2.3062158569716256</v>
+        <v>2.699992690048584</v>
       </c>
       <c r="Y86">
         <f t="shared" si="19"/>
-        <v>2.8130499462327356</v>
+        <v>3.2525278630628205</v>
       </c>
       <c r="Z86">
         <f t="shared" si="20"/>
-        <v>2.5814316713181098</v>
+        <v>2.9847242665560283</v>
       </c>
       <c r="AA86">
         <f t="shared" si="21"/>
-        <v>4.4441534626968044</v>
+        <v>5.008180807438964</v>
       </c>
       <c r="AB86">
         <f t="shared" si="14"/>
-        <v>4.0782349123119426</v>
+        <v>4.5958219011802903</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="E87">
-        <v>5</v>
-      </c>
-      <c r="F87">
-        <v>522</v>
-      </c>
-      <c r="G87">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1">
+        <v>4</v>
+      </c>
+      <c r="F87" s="1">
+        <v>497</v>
+      </c>
+      <c r="G87" s="1">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="P87">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Q87">
         <f t="shared" si="12"/>
-        <v>3.7336500000000004</v>
+        <v>4.0061500000000008</v>
       </c>
       <c r="R87">
         <f t="shared" si="13"/>
-        <v>4.2401</v>
+        <v>4.4160999999999984</v>
       </c>
       <c r="S87">
         <f t="shared" si="15"/>
-        <v>0.15097987500000001</v>
+        <v>0.18950387500000002</v>
       </c>
       <c r="T87">
         <f t="shared" si="16"/>
-        <v>0.17943449999999997</v>
+        <v>0.22231549999999997</v>
       </c>
       <c r="W87">
         <f t="shared" si="17"/>
-        <v>2.7339060312124848</v>
+        <v>3.1435636127649778</v>
       </c>
       <c r="X87">
         <f t="shared" si="18"/>
-        <v>2.5088042339350687</v>
+        <v>2.8847318127650876</v>
       </c>
       <c r="Y87">
         <f t="shared" si="19"/>
-        <v>3.041817918613801</v>
+        <v>3.454376752758737</v>
       </c>
       <c r="Z87">
         <f t="shared" si="20"/>
-        <v>2.7913635603976399</v>
+        <v>3.1699535111982153</v>
       </c>
       <c r="AA87">
         <f t="shared" si="21"/>
-        <v>4.7359595120735563</v>
+        <v>5.2715687892694705</v>
       </c>
       <c r="AB87">
         <f t="shared" si="14"/>
-        <v>4.3460145081744903</v>
+        <v>4.8375232897576179</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="E88">
-        <v>4.5</v>
-      </c>
-      <c r="F88">
-        <v>512</v>
-      </c>
-      <c r="G88">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F88" s="1">
+        <v>482</v>
+      </c>
+      <c r="G88" s="1">
         <f t="shared" si="11"/>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P88">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q88">
         <f t="shared" si="12"/>
-        <v>3.8349000000000002</v>
+        <v>4.2699000000000007</v>
       </c>
       <c r="R88">
         <f t="shared" si="13"/>
-        <v>4.2480999999999991</v>
+        <v>4.8040999999999947</v>
       </c>
       <c r="S88">
         <f t="shared" si="15"/>
-        <v>0.16990125</v>
+        <v>0.21019400000000002</v>
       </c>
       <c r="T88">
         <f t="shared" si="16"/>
-        <v>0.20065499999999997</v>
+        <v>0.24536599999999995</v>
       </c>
       <c r="W88">
         <f t="shared" si="17"/>
-        <v>2.9422488210550788</v>
+        <v>3.3429216263621857</v>
       </c>
       <c r="X88">
         <f t="shared" si="18"/>
-        <v>2.699992690048584</v>
+        <v>3.0676752727346108</v>
       </c>
       <c r="Y88">
         <f t="shared" si="19"/>
-        <v>3.2525278630628205</v>
+        <v>3.6569625374072396</v>
       </c>
       <c r="Z88">
         <f t="shared" si="20"/>
-        <v>2.9847242665560283</v>
+        <v>3.3558589770257345</v>
       </c>
       <c r="AA88">
         <f t="shared" si="21"/>
-        <v>5.008180807438964</v>
+        <v>5.538117911348583</v>
       </c>
       <c r="AB88">
         <f t="shared" si="14"/>
-        <v>4.5958219011802903</v>
+        <v>5.0821255395749523</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="E89">
-        <v>4</v>
-      </c>
-      <c r="F89">
-        <v>497</v>
-      </c>
-      <c r="G89">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1">
+        <v>3</v>
+      </c>
+      <c r="F89" s="1">
+        <v>472</v>
+      </c>
+      <c r="G89" s="1">
         <f t="shared" si="11"/>
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="P89">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Q89">
         <f t="shared" si="12"/>
-        <v>4.0061500000000008</v>
+        <v>4.6486499999999999</v>
       </c>
       <c r="R89">
         <f t="shared" si="13"/>
-        <v>4.4160999999999984</v>
+        <v>5.4721000000000011</v>
       </c>
       <c r="S89">
         <f t="shared" si="15"/>
-        <v>0.18950387500000002</v>
+        <v>0.23249037500000003</v>
       </c>
       <c r="T89">
         <f t="shared" si="16"/>
-        <v>0.22231549999999997</v>
+        <v>0.27105649999999992</v>
       </c>
       <c r="W89">
         <f t="shared" si="17"/>
-        <v>3.1435636127649778</v>
+        <v>3.5452289682755334</v>
       </c>
       <c r="X89">
         <f t="shared" si="18"/>
-        <v>2.8847318127650876</v>
+        <v>3.253325221984424</v>
       </c>
       <c r="Y89">
         <f t="shared" si="19"/>
-        <v>3.454376752758737</v>
+        <v>3.8702753455019185</v>
       </c>
       <c r="Z89">
         <f t="shared" si="20"/>
-        <v>3.1699535111982153</v>
+        <v>3.5516082346778588</v>
       </c>
       <c r="AA89">
         <f t="shared" si="21"/>
-        <v>5.2715687892694705</v>
+        <v>5.8208300524925125</v>
       </c>
       <c r="AB89">
         <f t="shared" si="14"/>
-        <v>4.8375232897576179</v>
+        <v>5.3415599929135613</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="E90">
-        <v>3.5</v>
-      </c>
-      <c r="F90">
-        <v>482</v>
-      </c>
-      <c r="G90">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F90" s="1">
+        <v>465</v>
+      </c>
+      <c r="G90" s="1">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="P90">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q90">
         <f t="shared" si="12"/>
-        <v>4.2699000000000007</v>
+        <v>5.1649000000000012</v>
       </c>
       <c r="R90">
         <f t="shared" si="13"/>
-        <v>4.8040999999999947</v>
+        <v>6.4800999999999931</v>
       </c>
       <c r="S90">
         <f t="shared" si="15"/>
-        <v>0.21019400000000002</v>
+        <v>0.25702425000000001</v>
       </c>
       <c r="T90">
         <f t="shared" si="16"/>
-        <v>0.24536599999999995</v>
+        <v>0.3009369999999999</v>
       </c>
       <c r="W90">
         <f t="shared" si="17"/>
-        <v>3.3429216263621857</v>
+        <v>3.7552650538943322</v>
       </c>
       <c r="X90">
         <f t="shared" si="18"/>
-        <v>3.0676752727346108</v>
+        <v>3.4460675528705713</v>
       </c>
       <c r="Y90">
         <f t="shared" si="19"/>
-        <v>3.6569625374072396</v>
+        <v>4.1044564195518012</v>
       </c>
       <c r="Z90">
         <f t="shared" si="20"/>
-        <v>3.3558589770257345</v>
+        <v>3.76650752652486</v>
       </c>
       <c r="AA90">
         <f t="shared" si="21"/>
-        <v>5.538117911348583</v>
+        <v>6.1332801175227587</v>
       </c>
       <c r="AB90">
         <f t="shared" si="14"/>
-        <v>5.0821255395749523</v>
+        <v>5.6282838367808363</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="E91">
-        <v>3</v>
-      </c>
-      <c r="F91">
-        <v>472</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="11"/>
-        <v>10</v>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="F91" s="1">
+        <v>462</v>
+      </c>
+      <c r="G91" s="1">
+        <f>F91-$F$91+1</f>
+        <v>1</v>
       </c>
       <c r="P91">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Q91">
         <f t="shared" si="12"/>
-        <v>4.6486499999999999</v>
+        <v>5.8411500000000007</v>
       </c>
       <c r="R91">
         <f t="shared" si="13"/>
-        <v>5.4721000000000011</v>
+        <v>7.8880999999999979</v>
       </c>
       <c r="S91">
         <f t="shared" si="15"/>
-        <v>0.23249037500000003</v>
+        <v>0.28453937500000004</v>
       </c>
       <c r="T91">
         <f t="shared" si="16"/>
-        <v>0.27105649999999992</v>
+        <v>0.33685749999999987</v>
       </c>
       <c r="W91">
         <f t="shared" si="17"/>
-        <v>3.5452289682755334</v>
+        <v>3.9776514348922034</v>
       </c>
       <c r="X91">
         <f t="shared" si="18"/>
-        <v>3.253325221984424</v>
+        <v>3.6501432920683516</v>
       </c>
       <c r="Y91">
         <f t="shared" si="19"/>
-        <v>3.8702753455019185</v>
+        <v>4.3693928353948666</v>
       </c>
       <c r="Z91">
         <f t="shared" si="20"/>
-        <v>3.5516082346778588</v>
+        <v>4.0096298556035519</v>
       </c>
       <c r="AA91">
         <f t="shared" si="21"/>
-        <v>5.8208300524925125</v>
+        <v>6.4890051240540707</v>
       </c>
       <c r="AB91">
         <f t="shared" si="14"/>
-        <v>5.3415599929135613</v>
+        <v>5.9547194904988014</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="E92">
-        <v>2.5</v>
-      </c>
-      <c r="F92">
-        <v>465</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P92">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Q92">
         <f t="shared" si="12"/>
-        <v>5.1649000000000012</v>
+        <v>6.6999000000000013</v>
       </c>
       <c r="R92">
         <f t="shared" si="13"/>
-        <v>6.4800999999999931</v>
+        <v>9.7560999999999964</v>
       </c>
       <c r="S92">
         <f t="shared" si="15"/>
-        <v>0.25702425000000001</v>
+        <v>0.31589200000000006</v>
       </c>
       <c r="T92">
         <f t="shared" si="16"/>
-        <v>0.3009369999999999</v>
+        <v>0.38096799999999986</v>
       </c>
       <c r="W92">
         <f t="shared" si="17"/>
-        <v>3.7552650538943322</v>
+        <v>4.2167819483582507</v>
       </c>
       <c r="X92">
         <f t="shared" si="18"/>
-        <v>3.4460675528705713</v>
+        <v>3.8695845010189815</v>
       </c>
       <c r="Y92">
         <f t="shared" si="19"/>
-        <v>4.1044564195518012</v>
+        <v>4.6742379057981198</v>
       </c>
       <c r="Z92">
         <f t="shared" si="20"/>
-        <v>3.76650752652486</v>
+        <v>4.2893748777770941</v>
       </c>
       <c r="AA92">
         <f t="shared" si="21"/>
-        <v>6.1332801175227587</v>
+        <v>6.9007970554132356</v>
       </c>
       <c r="AB92">
         <f t="shared" si="14"/>
-        <v>5.6282838367808363</v>
+        <v>6.3326056830377562</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="E93">
-        <v>2.4</v>
-      </c>
-      <c r="F93">
-        <v>462</v>
-      </c>
-      <c r="G93">
-        <f>F93-$F$93+1</f>
-        <v>1</v>
-      </c>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P93">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="Q93">
         <f t="shared" si="12"/>
-        <v>5.8411500000000007</v>
+        <v>7.7636500000000019</v>
       </c>
       <c r="R93">
         <f t="shared" si="13"/>
-        <v>7.8880999999999979</v>
+        <v>12.144099999999995</v>
       </c>
       <c r="S93">
         <f t="shared" si="15"/>
-        <v>0.28453937500000004</v>
+        <v>0.3520508750000001</v>
       </c>
       <c r="T93">
         <f t="shared" si="16"/>
-        <v>0.33685749999999987</v>
+        <v>0.43571849999999984</v>
       </c>
       <c r="W93">
         <f t="shared" si="17"/>
-        <v>3.9776514348922034</v>
+        <v>4.4767376165573971</v>
       </c>
       <c r="X93">
         <f t="shared" si="18"/>
-        <v>3.6501432920683516</v>
+        <v>4.1081361825938592</v>
       </c>
       <c r="Y93">
         <f t="shared" si="19"/>
-        <v>4.3693928353948666</v>
+        <v>5.0269678982464159</v>
       </c>
       <c r="Z93">
         <f t="shared" si="20"/>
-        <v>4.0096298556035519</v>
+        <v>4.6130621180798279</v>
       </c>
       <c r="AA93">
         <f t="shared" si="21"/>
-        <v>6.4890051240540707</v>
+        <v>7.3800279471015537</v>
       </c>
       <c r="AB93">
         <f t="shared" si="14"/>
-        <v>5.9547194904988014</v>
+        <v>6.7723781098782334</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P94">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Q94">
         <f t="shared" si="12"/>
-        <v>6.6999000000000013</v>
+        <v>9.0549000000000017</v>
       </c>
       <c r="R94">
         <f t="shared" si="13"/>
-        <v>9.7560999999999964</v>
+        <v>15.112100000000005</v>
       </c>
       <c r="S94">
         <f t="shared" si="15"/>
-        <v>0.31589200000000006</v>
+        <v>0.39409725000000012</v>
       </c>
       <c r="T94">
         <f t="shared" si="16"/>
-        <v>0.38096799999999986</v>
+        <v>0.50385899999999983</v>
       </c>
       <c r="W94">
         <f t="shared" si="17"/>
-        <v>4.2167819483582507</v>
+        <v>4.7612055327406324</v>
       </c>
       <c r="X94">
         <f t="shared" si="18"/>
-        <v>3.8695845010189815</v>
+        <v>4.3691818456090852</v>
       </c>
       <c r="Y94">
         <f t="shared" si="19"/>
-        <v>4.6742379057981198</v>
+        <v>5.4340765084786939</v>
       </c>
       <c r="Z94">
         <f t="shared" si="20"/>
-        <v>4.2893748777770941</v>
+        <v>4.9866506004056781</v>
       </c>
       <c r="AA94">
         <f t="shared" si="21"/>
-        <v>6.9007970554132356</v>
+        <v>7.9361435848905844</v>
       </c>
       <c r="AB94">
         <f t="shared" si="14"/>
-        <v>6.3326056830377562</v>
+        <v>7.2827048185192975</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P95">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="Q95">
         <f t="shared" si="12"/>
-        <v>7.7636500000000019</v>
+        <v>10.596150000000002</v>
       </c>
       <c r="R95">
         <f t="shared" si="13"/>
-        <v>12.144099999999995</v>
+        <v>18.720099999999999</v>
       </c>
       <c r="S95">
         <f t="shared" si="15"/>
-        <v>0.3520508750000001</v>
+        <v>0.44322487500000013</v>
       </c>
       <c r="T95">
         <f t="shared" si="16"/>
-        <v>0.43571849999999984</v>
+        <v>0.58843949999999978</v>
       </c>
       <c r="W95">
         <f t="shared" si="17"/>
-        <v>4.4767376165573971</v>
+        <v>5.073416470929625</v>
       </c>
       <c r="X95">
         <f t="shared" si="18"/>
-        <v>4.1081361825938592</v>
+        <v>4.6556862516372624</v>
       </c>
       <c r="Y95">
         <f t="shared" si="19"/>
-        <v>5.0269678982464159</v>
+        <v>5.9004634351887972</v>
       </c>
       <c r="Z95">
         <f t="shared" si="20"/>
-        <v>4.6130621180798279</v>
+        <v>5.4146365966410155</v>
       </c>
       <c r="AA95">
         <f t="shared" si="21"/>
-        <v>7.3800279471015537</v>
+        <v>8.5764175213197245</v>
       </c>
       <c r="AB95">
         <f t="shared" si="14"/>
-        <v>6.7723781098782334</v>
+        <v>7.870260478535636</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P96">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Q96">
         <f t="shared" si="12"/>
-        <v>9.0549000000000017</v>
+        <v>12.4099</v>
       </c>
       <c r="R96">
         <f t="shared" si="13"/>
-        <v>15.112100000000005</v>
+        <v>23.028099999999998</v>
       </c>
       <c r="S96">
         <f t="shared" si="15"/>
-        <v>0.39409725000000012</v>
+        <v>0.50074000000000018</v>
       </c>
       <c r="T96">
         <f t="shared" si="16"/>
-        <v>0.50385899999999983</v>
+        <v>0.69280999999999981</v>
       </c>
       <c r="W96">
         <f t="shared" si="17"/>
-        <v>4.7612055327406324</v>
+        <v>5.4161102278295639</v>
       </c>
       <c r="X96">
         <f t="shared" si="18"/>
-        <v>4.3691818456090852</v>
+        <v>4.9701636105654998</v>
       </c>
       <c r="Y96">
         <f t="shared" si="19"/>
-        <v>5.4340765084786939</v>
+        <v>6.4295120343615491</v>
       </c>
       <c r="Z96">
         <f t="shared" si="20"/>
-        <v>4.9866506004056781</v>
+        <v>5.9001248871706533</v>
       </c>
       <c r="AA96">
         <f t="shared" si="21"/>
-        <v>7.9361435848905844</v>
+        <v>9.3059792606689165</v>
       </c>
       <c r="AB96">
         <f t="shared" si="14"/>
-        <v>7.2827048185192975</v>
-      </c>
-    </row>
-    <row r="97" spans="16:28" x14ac:dyDescent="0.45">
-      <c r="P97">
-        <v>95</v>
-      </c>
-      <c r="Q97">
-        <f t="shared" si="12"/>
-        <v>10.596150000000002</v>
-      </c>
-      <c r="R97">
-        <f t="shared" si="13"/>
-        <v>18.720099999999999</v>
-      </c>
-      <c r="S97">
-        <f t="shared" si="15"/>
-        <v>0.44322487500000013</v>
-      </c>
-      <c r="T97">
-        <f t="shared" si="16"/>
-        <v>0.58843949999999978</v>
-      </c>
-      <c r="W97">
-        <f t="shared" si="17"/>
-        <v>5.073416470929625</v>
-      </c>
-      <c r="X97">
-        <f t="shared" si="18"/>
-        <v>4.6556862516372624</v>
-      </c>
-      <c r="Y97">
-        <f t="shared" si="19"/>
-        <v>5.9004634351887972</v>
-      </c>
-      <c r="Z97">
-        <f t="shared" si="20"/>
-        <v>5.4146365966410155</v>
-      </c>
-      <c r="AA97">
-        <f t="shared" si="21"/>
-        <v>8.5764175213197245</v>
-      </c>
-      <c r="AB97">
-        <f t="shared" si="14"/>
-        <v>7.870260478535636</v>
-      </c>
-    </row>
-    <row r="98" spans="16:28" x14ac:dyDescent="0.45">
-      <c r="P98">
-        <v>100</v>
-      </c>
-      <c r="Q98">
-        <f t="shared" si="12"/>
-        <v>12.4099</v>
-      </c>
-      <c r="R98">
-        <f t="shared" si="13"/>
-        <v>23.028099999999998</v>
-      </c>
-      <c r="S98">
-        <f t="shared" si="15"/>
-        <v>0.50074000000000018</v>
-      </c>
-      <c r="T98">
-        <f t="shared" si="16"/>
-        <v>0.69280999999999981</v>
-      </c>
-      <c r="W98">
-        <f t="shared" si="17"/>
-        <v>5.4161102278295639</v>
-      </c>
-      <c r="X98">
-        <f t="shared" si="18"/>
-        <v>4.9701636105654998</v>
-      </c>
-      <c r="Y98">
-        <f t="shared" si="19"/>
-        <v>6.4295120343615491</v>
-      </c>
-      <c r="Z98">
-        <f t="shared" si="20"/>
-        <v>5.9001248871706533</v>
-      </c>
-      <c r="AA98">
-        <f t="shared" si="21"/>
-        <v>9.3059792606689165</v>
-      </c>
-      <c r="AB98">
-        <f t="shared" si="14"/>
         <v>8.5397522458823492</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A67:B67"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DTU\Github\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5050D0BF-97E3-4815-BBC6-6BF613CAED07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308853AF-789B-4743-B4DF-B0A26FDC9C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="428" windowWidth="21570" windowHeight="15022" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
   <si>
     <t>enkeltløkke</t>
   </si>
@@ -141,6 +141,21 @@
   </si>
   <si>
     <t>Akumuleret kraft Ekin</t>
+  </si>
+  <si>
+    <t>Hop vinkel</t>
+  </si>
+  <si>
+    <t>grader</t>
+  </si>
+  <si>
+    <t>tid hop</t>
+  </si>
+  <si>
+    <t>X max hop</t>
+  </si>
+  <si>
+    <t>Hop højde</t>
   </si>
 </sst>
 </file>
@@ -4630,6 +4645,14 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="39" fmlaLink="P72" inc="5" max="500" min="10" page="10" val="390"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="39" fmlaLink="R72" max="60" min="15" page="10" val="39"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4778,6 +4801,106 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>29</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
+          <xdr:row>77</xdr:row>
+          <xdr:rowOff>27277</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>31</xdr:col>
+          <xdr:colOff>30307</xdr:colOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>21647</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Spinner 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>29</xdr:col>
+          <xdr:colOff>580158</xdr:colOff>
+          <xdr:row>82</xdr:row>
+          <xdr:rowOff>22512</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>31</xdr:col>
+          <xdr:colOff>69272</xdr:colOff>
+          <xdr:row>86</xdr:row>
+          <xdr:rowOff>8659</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Spinner 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -5043,11 +5166,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G68" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="V70" sqref="V70"/>
+    <sheetView tabSelected="1" topLeftCell="O71" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P72" sqref="P72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7814,7 +7937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>0</v>
       </c>
@@ -7866,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -7887,12 +8010,12 @@
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -7914,8 +8037,11 @@
       <c r="P70" t="s">
         <v>27</v>
       </c>
+      <c r="R70" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -7952,8 +8078,11 @@
       <c r="P71" t="s">
         <v>21</v>
       </c>
+      <c r="R71" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>8</v>
       </c>
@@ -7991,10 +8120,17 @@
         <v>6</v>
       </c>
       <c r="P72">
-        <v>400</v>
+        <v>390</v>
+      </c>
+      <c r="R72">
+        <v>39</v>
+      </c>
+      <c r="S72">
+        <f>R72/180*PI()</f>
+        <v>0.68067840827778858</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>7</v>
       </c>
@@ -8016,7 +8152,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>6</v>
       </c>
@@ -8041,7 +8177,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>5.5</v>
       </c>
@@ -8081,7 +8217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>5</v>
       </c>
@@ -8139,7 +8275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>4.5</v>
       </c>
@@ -8196,8 +8332,11 @@
       <c r="AB77" t="s">
         <v>24</v>
       </c>
+      <c r="AE77" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>4</v>
       </c>
@@ -8230,7 +8369,7 @@
         <v>1.4681</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>3.5</v>
       </c>
@@ -8272,7 +8411,7 @@
       </c>
       <c r="U79">
         <f>$P$72*9.81*$M$72*0.000001</f>
-        <v>0.12556799999999999</v>
+        <v>0.1224288</v>
       </c>
       <c r="W79" t="e">
         <f>SQRT((2*($S79-$U$79))/($M$72*0.001))</f>
@@ -8299,7 +8438,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>3</v>
       </c>
@@ -8364,7 +8503,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>2.5</v>
       </c>
@@ -8429,7 +8568,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.45">
       <c r="E82">
         <v>10</v>
       </c>
@@ -8483,8 +8622,11 @@
         <f t="shared" si="21"/>
         <v>#NUM!</v>
       </c>
+      <c r="AE82" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.45">
       <c r="E83">
         <v>9</v>
       </c>
@@ -8539,7 +8681,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.45">
       <c r="E84">
         <v>8</v>
       </c>
@@ -8594,7 +8736,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.45">
       <c r="E85">
         <v>7</v>
       </c>
@@ -8634,22 +8776,22 @@
       </c>
       <c r="Y85">
         <f t="shared" si="18"/>
-        <v>0.80798746896223561</v>
+        <v>0.92143570041538903</v>
       </c>
       <c r="Z85">
         <f t="shared" si="19"/>
-        <v>0.74146015260075615</v>
+        <v>0.84556738970132628</v>
       </c>
       <c r="AA85">
         <f t="shared" si="20"/>
-        <v>1.1426668368339039</v>
+        <v>1.3031068643821953</v>
       </c>
       <c r="AB85">
         <f t="shared" si="21"/>
-        <v>1.0485830037672141</v>
+        <v>1.1958128704160318</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.45">
       <c r="E86">
         <v>6</v>
       </c>
@@ -8681,30 +8823,30 @@
       </c>
       <c r="W86">
         <f t="shared" si="16"/>
-        <v>0.65564853389602074</v>
+        <v>0.79124901263761482</v>
       </c>
       <c r="X86">
         <f t="shared" si="17"/>
-        <v>0.60166435825965392</v>
+        <v>0.7260998916344632</v>
       </c>
       <c r="Y86">
         <f t="shared" si="18"/>
-        <v>1.4238152970101141</v>
+        <v>1.4911237373202797</v>
       </c>
       <c r="Z86">
         <f t="shared" si="19"/>
-        <v>1.3065825250388288</v>
+        <v>1.3683489859565869</v>
       </c>
       <c r="AA86">
         <f t="shared" si="20"/>
-        <v>2.0135789033459801</v>
+        <v>2.1087674124947959</v>
       </c>
       <c r="AB86">
         <f t="shared" si="21"/>
-        <v>1.8477867272695958</v>
+        <v>1.935137693999277</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.45">
       <c r="E87">
         <v>5</v>
       </c>
@@ -8736,30 +8878,30 @@
       </c>
       <c r="W87">
         <f t="shared" si="16"/>
-        <v>1.260254810544281</v>
+        <v>1.335830149195623</v>
       </c>
       <c r="X87">
         <f t="shared" si="17"/>
-        <v>1.1564891288996881</v>
+        <v>1.2258418160165434</v>
       </c>
       <c r="Y87">
         <f t="shared" si="18"/>
-        <v>1.8348450207033833</v>
+        <v>1.8875529793889223</v>
       </c>
       <c r="Z87">
         <f t="shared" si="19"/>
-        <v>1.6837692678536511</v>
+        <v>1.7321374079442999</v>
       </c>
       <c r="AA87">
         <f t="shared" si="20"/>
-        <v>2.5948627131314668</v>
+        <v>2.6694030231495574</v>
       </c>
       <c r="AB87">
         <f t="shared" si="21"/>
-        <v>2.38120933450565</v>
+        <v>2.4496122142086074</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.45">
       <c r="E88">
         <v>4.5</v>
       </c>
@@ -8791,30 +8933,30 @@
       </c>
       <c r="W88">
         <f t="shared" si="16"/>
-        <v>1.6645804651623186</v>
+        <v>1.7225063497705893</v>
       </c>
       <c r="X88">
         <f t="shared" si="17"/>
-        <v>1.5275237960072576</v>
+        <v>1.5806802333172891</v>
       </c>
       <c r="Y88">
         <f t="shared" si="18"/>
-        <v>2.1663188823439636</v>
+        <v>2.2111394121583556</v>
       </c>
       <c r="Z88">
         <f t="shared" si="19"/>
-        <v>1.9879505447623822</v>
+        <v>2.0290806837217268</v>
       </c>
       <c r="AA88">
         <f t="shared" si="20"/>
-        <v>3.0636375438357586</v>
+        <v>3.1270233449720193</v>
       </c>
       <c r="AB88">
         <f t="shared" si="21"/>
-        <v>2.8113866217299432</v>
+        <v>2.8695534220685386</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.45">
       <c r="E89">
         <v>4</v>
       </c>
@@ -8846,30 +8988,30 @@
       </c>
       <c r="W89">
         <f t="shared" si="16"/>
-        <v>1.9989977957716716</v>
+        <v>2.0474843558620908</v>
       </c>
       <c r="X89">
         <f t="shared" si="17"/>
-        <v>1.8344061852903737</v>
+        <v>1.878900504354384</v>
       </c>
       <c r="Y89">
         <f t="shared" si="18"/>
-        <v>2.4590076758725257</v>
+        <v>2.498583348619773</v>
       </c>
       <c r="Z89">
         <f t="shared" si="19"/>
-        <v>2.2565402022145595</v>
+        <v>2.2928573302414836</v>
       </c>
       <c r="AA89">
         <f t="shared" si="20"/>
-        <v>3.4775620051984695</v>
+        <v>3.5335304583376659</v>
       </c>
       <c r="AB89">
         <f t="shared" si="21"/>
-        <v>3.1912297580119566</v>
+        <v>3.2425899330140724</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.45">
       <c r="E90">
         <v>3.5</v>
       </c>
@@ -8901,30 +9043,30 @@
       </c>
       <c r="W90">
         <f t="shared" si="16"/>
-        <v>2.2998097747422506</v>
+        <v>2.3420770696115021</v>
       </c>
       <c r="X90">
         <f t="shared" si="17"/>
-        <v>2.1104501889407392</v>
+        <v>2.14923731882535</v>
       </c>
       <c r="Y90">
         <f t="shared" si="18"/>
-        <v>2.7363068175919159</v>
+        <v>2.7719262255695036</v>
       </c>
       <c r="Z90">
         <f t="shared" si="19"/>
-        <v>2.5110073466114828</v>
+        <v>2.5436939570963362</v>
       </c>
       <c r="AA90">
         <f t="shared" si="20"/>
-        <v>3.8697222122524497</v>
+        <v>3.9200956620980554</v>
       </c>
       <c r="AB90">
         <f t="shared" si="21"/>
-        <v>3.5511006447964384</v>
+        <v>3.5973264926521247</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.45">
       <c r="E91">
         <v>3</v>
       </c>
@@ -8956,30 +9098,30 @@
       </c>
       <c r="W91">
         <f t="shared" si="16"/>
-        <v>2.5850819015071851</v>
+        <v>2.6227558859909172</v>
       </c>
       <c r="X91">
         <f t="shared" si="17"/>
-        <v>2.3722338461991126</v>
+        <v>2.406805865391767</v>
       </c>
       <c r="Y91">
         <f t="shared" si="18"/>
-        <v>3.0154653455146847</v>
+        <v>3.0478240188698553</v>
       </c>
       <c r="Z91">
         <f t="shared" si="19"/>
-        <v>2.7671807808099937</v>
+        <v>2.7968751359894108</v>
       </c>
       <c r="AA91">
         <f t="shared" si="20"/>
-        <v>4.2645119884929379</v>
+        <v>4.310274063212221</v>
       </c>
       <c r="AB91">
         <f t="shared" si="21"/>
-        <v>3.913384589759664</v>
+        <v>3.9553787495803192</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.45">
       <c r="E92">
         <v>2.5</v>
       </c>
@@ -9011,30 +9153,30 @@
       </c>
       <c r="W92">
         <f t="shared" si="16"/>
-        <v>2.8663592979596957</v>
+        <v>2.9003819791537802</v>
       </c>
       <c r="X92">
         <f t="shared" si="17"/>
-        <v>2.6303516875125275</v>
+        <v>2.6615730410100675</v>
       </c>
       <c r="Y92">
         <f t="shared" si="18"/>
-        <v>3.3106740250287396</v>
+        <v>3.340174022412604</v>
       </c>
       <c r="Z92">
         <f t="shared" si="19"/>
-        <v>3.0380828442326995</v>
+        <v>3.065153898428695</v>
       </c>
       <c r="AA92">
         <f t="shared" si="20"/>
-        <v>4.6820001067919668</v>
+        <v>4.7237194031821987</v>
       </c>
       <c r="AB92">
         <f t="shared" si="21"/>
-        <v>4.2964979619269101</v>
+        <v>4.3347822139186247</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.45">
       <c r="E93">
         <v>2.4</v>
       </c>
@@ -9066,30 +9208,30 @@
       </c>
       <c r="W93">
         <f t="shared" si="16"/>
-        <v>3.1520962766863585</v>
+        <v>3.1830662791559967</v>
       </c>
       <c r="X93">
         <f t="shared" si="17"/>
-        <v>2.892561922186665</v>
+        <v>2.9209819455648458</v>
       </c>
       <c r="Y93">
         <f t="shared" si="18"/>
-        <v>3.633950157886042</v>
+        <v>3.6608460429250491</v>
       </c>
       <c r="Z93">
         <f t="shared" si="19"/>
-        <v>3.3347413692818808</v>
+        <v>3.3594227260991691</v>
       </c>
       <c r="AA93">
         <f t="shared" si="20"/>
-        <v>5.1391815982702909</v>
+        <v>5.1772181236644821</v>
       </c>
       <c r="AB93">
         <f t="shared" si="21"/>
-        <v>4.7160364714450616</v>
+        <v>4.7509411809938404</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.45">
       <c r="P94">
         <v>80</v>
       </c>
@@ -9111,30 +9253,30 @@
       </c>
       <c r="W94">
         <f t="shared" si="16"/>
-        <v>3.4489491153103438</v>
+        <v>3.4772762329156426</v>
       </c>
       <c r="X94">
         <f t="shared" si="17"/>
-        <v>3.1649727694845895</v>
+        <v>3.1909675153800188</v>
       </c>
       <c r="Y94">
         <f t="shared" si="18"/>
-        <v>3.9953097501945942</v>
+        <v>4.0197885516529341</v>
       </c>
       <c r="Z94">
         <f t="shared" si="19"/>
-        <v>3.6663476735244145</v>
+        <v>3.6888109623277616</v>
       </c>
       <c r="AA94">
         <f t="shared" si="20"/>
-        <v>5.6502212346066569</v>
+        <v>5.6848394876196799</v>
       </c>
       <c r="AB94">
         <f t="shared" si="21"/>
-        <v>5.1849986042732716</v>
+        <v>5.216766491954469</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.45">
       <c r="P95">
         <v>85</v>
       </c>
@@ -9156,30 +9298,30 @@
       </c>
       <c r="W95">
         <f t="shared" si="16"/>
-        <v>3.762336998130285</v>
+        <v>3.7883214868197239</v>
       </c>
       <c r="X95">
         <f t="shared" si="17"/>
-        <v>3.4525572139777032</v>
+        <v>3.4764022161454591</v>
       </c>
       <c r="Y95">
         <f t="shared" si="18"/>
-        <v>4.4027725639646649</v>
+        <v>4.4249978813554236</v>
       </c>
       <c r="Z95">
         <f t="shared" si="19"/>
-        <v>4.0402611953085144</v>
+        <v>4.0606565453073422</v>
       </c>
       <c r="AA95">
         <f t="shared" si="20"/>
-        <v>6.2264606720029949</v>
+        <v>6.2578920172850516</v>
       </c>
       <c r="AB95">
         <f t="shared" si="21"/>
-        <v>5.7137921779350327</v>
+        <v>5.7426355585127222</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.45">
       <c r="P96">
         <v>90</v>
       </c>
@@ -9201,27 +9343,27 @@
       </c>
       <c r="W96">
         <f t="shared" si="16"/>
-        <v>4.0967155289329051</v>
+        <v>4.1205919629344532</v>
       </c>
       <c r="X96">
         <f t="shared" si="17"/>
-        <v>3.7594039981162761</v>
+        <v>3.7813145166309847</v>
       </c>
       <c r="Y96">
         <f t="shared" si="18"/>
-        <v>4.8624260919833002</v>
+        <v>4.8825595234466919</v>
       </c>
       <c r="Z96">
         <f t="shared" si="19"/>
-        <v>4.4620682011348656</v>
+        <v>4.480543904952893</v>
       </c>
       <c r="AA96">
         <f t="shared" si="20"/>
-        <v>6.8765089253195901</v>
+        <v>6.9049818971522283</v>
       </c>
       <c r="AB96">
         <f t="shared" si="21"/>
-        <v>6.3103173662786469</v>
+        <v>6.3364459571924892</v>
       </c>
     </row>
     <row r="97" spans="16:28" x14ac:dyDescent="0.45">
@@ -9246,27 +9388,27 @@
       </c>
       <c r="W97">
         <f t="shared" si="16"/>
-        <v>4.4557327890595069</v>
+        <v>4.4776952428118655</v>
       </c>
       <c r="X97">
         <f t="shared" si="17"/>
-        <v>4.0888608309328465</v>
+        <v>4.1090149607136288</v>
       </c>
       <c r="Y97">
         <f t="shared" si="18"/>
-        <v>5.3786121583546054</v>
+        <v>5.3968202443661202</v>
       </c>
       <c r="Z97">
         <f t="shared" si="19"/>
-        <v>4.9357530220561916</v>
+        <v>4.9524619077150316</v>
       </c>
       <c r="AA97">
         <f t="shared" si="20"/>
-        <v>7.6065062610899075</v>
+        <v>7.6322563832722476</v>
       </c>
       <c r="AB97">
         <f t="shared" si="21"/>
-        <v>6.9802088643158564</v>
+        <v>7.0038387970267291</v>
       </c>
     </row>
     <row r="98" spans="16:28" x14ac:dyDescent="0.45">
@@ -9291,32 +9433,117 @@
       </c>
       <c r="W98">
         <f t="shared" si="16"/>
-        <v>4.8423393107051069</v>
+        <v>4.862555912274944</v>
       </c>
       <c r="X98">
         <f t="shared" si="17"/>
-        <v>4.4436353064627294</v>
+        <v>4.4621873324047812</v>
       </c>
       <c r="Y98">
         <f t="shared" si="18"/>
-        <v>5.9542106949620104</v>
+        <v>5.9706636984509514</v>
       </c>
       <c r="Z98">
         <f t="shared" si="19"/>
-        <v>5.4639584648186288</v>
+        <v>5.4790567762977895</v>
       </c>
       <c r="AA98">
         <f t="shared" si="20"/>
-        <v>8.4205255180422061</v>
+        <v>8.4437935787180383</v>
       </c>
       <c r="AB98">
         <f t="shared" si="21"/>
-        <v>7.7272041651897805</v>
+        <v>7.748556402052543</v>
+      </c>
+    </row>
+    <row r="101" spans="16:28" x14ac:dyDescent="0.45">
+      <c r="U101" t="s">
+        <v>38</v>
+      </c>
+      <c r="W101">
+        <f>(COS($S$72)*W98)*(SIN($S$72)*W98+SQRT(SIN($S$72)^2+2*9.81*$P$72*0.001))/9.81</f>
+        <v>2.2715781925048542</v>
+      </c>
+      <c r="X101">
+        <f>(COS($S$72)*X98)*(SIN($S$72)*X98+SQRT(SIN($S$72)^2+2*9.81*$P$72*0.001))/9.81</f>
+        <v>1.9954768602382873</v>
+      </c>
+      <c r="Y101">
+        <f>(COS($S$72)*Y98)*(SIN($S$72)*Y98+SQRT(SIN($S$72)^2+2*9.81*$P$72*0.001))/9.81</f>
+        <v>3.1190838436050305</v>
+      </c>
+      <c r="Z101">
+        <f>(COS($S$72)*Z98)*(SIN($S$72)*Z98+SQRT(SIN($S$72)^2+2*9.81*$P$72*0.001))/9.81</f>
+        <v>2.7279821171982448</v>
+      </c>
+      <c r="AA101">
+        <f>(COS($S$72)*AA98)*(SIN($S$72)*AA98+SQRT(SIN($S$72)^2+2*9.81*$P$72*0.001))/9.81</f>
+        <v>5.4521446253189003</v>
+      </c>
+      <c r="AB101">
+        <f>(COS($S$72)*AB98)*(SIN($S$72)*AB98+SQRT(SIN($S$72)^2+2*9.81*$P$72*0.001))/9.81</f>
+        <v>4.7346600040647031</v>
+      </c>
+    </row>
+    <row r="103" spans="16:28" x14ac:dyDescent="0.45">
+      <c r="U103" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Spinner 1">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>29</xdr:col>
+                    <xdr:colOff>571500</xdr:colOff>
+                    <xdr:row>77</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>31</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>81</xdr:row>
+                    <xdr:rowOff>23813</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId5" name="Spinner 2">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>29</xdr:col>
+                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:row>82</xdr:row>
+                    <xdr:rowOff>23813</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>31</xdr:col>
+                    <xdr:colOff>71438</xdr:colOff>
+                    <xdr:row>86</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC96C71-A233-4880-BBE0-A00034262806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C02C2DD6-FDDA-4CC6-A4E5-6EA6F5BCB3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
   <si>
     <t>ubelastet længde</t>
   </si>
@@ -163,6 +163,15 @@
   <si>
     <t>Enkeltløkke</t>
   </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Elastik</t>
+  </si>
+  <si>
+    <t>Ubelastet længde</t>
+  </si>
 </sst>
 </file>
 
@@ -223,8 +232,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -232,6 +247,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3347,6 +3371,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1499646480955861"/>
+          <c:y val="0.89095829931175818"/>
+          <c:w val="0.73850054665814191"/>
+          <c:h val="6.2896692108374813E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5758,16 +5792,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>29458</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>353505</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>186571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>581122</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>598995</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:rowOff>49097</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6060,10 +6094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB96"/>
+  <dimension ref="A1:AK96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q68" sqref="Q68"/>
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6079,3176 +6113,3241 @@
     <col min="28" max="28" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="AK1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5">
         <v>44</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
         <v>63</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5">
         <v>47</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5">
         <v>58</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3">
+      <c r="R3" s="5"/>
+      <c r="S3" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1" t="s">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>15</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>406</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <f>B6-$B$25</f>
         <v>346</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
         <v>15</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>439</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <f>F6-$F$30</f>
         <v>369</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
         <v>15</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>355</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <f>J6-$J$30</f>
         <v>296</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
         <v>15</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="3">
         <v>424</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="3">
         <f>N6-$N$31</f>
         <v>359</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3">
         <v>15</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="3">
         <v>421</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="3">
         <f>R6-$R$31</f>
         <v>358</v>
       </c>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>14</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>405</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <f t="shared" ref="C7:C24" si="0">B7-$B$25</f>
         <v>345</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
         <v>14</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>437</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <f t="shared" ref="G7:G30" si="1">F7-$F$30</f>
         <v>367</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
         <v>14</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <v>354</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
         <f t="shared" ref="K7:K30" si="2">J7-$J$30</f>
         <v>295</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
         <v>14</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="3">
         <v>422</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="3">
         <f t="shared" ref="O7:O31" si="3">N7-$N$31</f>
         <v>357</v>
       </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3">
         <v>14</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="3">
         <v>420</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="3">
         <f t="shared" ref="S7:S31" si="4">R7-$R$31</f>
         <v>357</v>
       </c>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>402</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>342</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
         <v>13</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>436</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>366</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
         <v>13</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="3">
         <v>352.5</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="3">
         <f t="shared" si="2"/>
         <v>293.5</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
         <v>13</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="3">
         <v>420</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="3">
         <f t="shared" si="3"/>
         <v>355</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3">
         <v>13</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="3">
         <v>418</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="3">
         <f t="shared" si="4"/>
         <v>355</v>
       </c>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>12</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>400</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
         <v>12</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <v>434</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
         <v>364</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
         <v>12</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="3">
         <v>350</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="3">
         <f t="shared" si="2"/>
         <v>291</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3">
         <v>12</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="3">
         <v>418</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="3">
         <f t="shared" si="3"/>
         <v>353</v>
       </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3">
         <v>12</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="3">
         <v>416</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="3">
         <f t="shared" si="4"/>
         <v>353</v>
       </c>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>398</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>338</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
         <v>11</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <v>431</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>361</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
         <v>11</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="3">
         <v>348</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="3">
         <f t="shared" si="2"/>
         <v>289</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
         <v>11</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="3">
         <v>415</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="3">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3">
         <v>11</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="3">
         <v>413</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="3">
         <f t="shared" si="4"/>
         <v>350</v>
       </c>
+      <c r="AC10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD10" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>396</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <v>428</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="3">
         <f t="shared" si="1"/>
         <v>358</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
         <v>10</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="3">
         <v>346</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="3">
         <f t="shared" si="2"/>
         <v>287</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
         <v>10</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="3">
         <v>413</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="3">
         <f t="shared" si="3"/>
         <v>348</v>
       </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3">
         <v>10</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="3">
         <v>411</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="3">
         <f t="shared" si="4"/>
         <v>348</v>
       </c>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="8"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>393</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>333</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
         <v>9</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <v>425</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="3">
         <f t="shared" si="1"/>
         <v>355</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
         <v>9</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="3">
         <v>343</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="3">
         <f t="shared" si="2"/>
         <v>284</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
         <v>9</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="3">
         <v>410</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="3">
         <f t="shared" si="3"/>
         <v>345</v>
       </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3">
         <v>9</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="3">
         <v>408</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="3">
         <f t="shared" si="4"/>
         <v>345</v>
       </c>
+      <c r="AC12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>44</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>389</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>329</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
         <v>8</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>422</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>352</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
         <v>8</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="3">
         <v>340</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="3">
         <f t="shared" si="2"/>
         <v>281</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
         <v>8</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="3">
         <v>407</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="3">
         <f t="shared" si="3"/>
         <v>342</v>
       </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3">
         <v>8</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="3">
         <v>405</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="3">
         <f t="shared" si="4"/>
         <v>342</v>
       </c>
+      <c r="AC13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>63</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>385</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>325</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
         <v>7</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <v>418</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>348</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
         <v>7</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="3">
         <v>336</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="3">
         <f t="shared" si="2"/>
         <v>277</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3">
         <v>7</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="3">
         <v>402</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="3">
         <f t="shared" si="3"/>
         <v>337</v>
       </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3">
         <v>7</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="3">
         <v>401</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="3">
         <f t="shared" si="4"/>
         <v>338</v>
       </c>
+      <c r="AC14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>47</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>381</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>321</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
         <v>6</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <v>414</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>344</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
         <v>6</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="3">
         <v>332</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="3">
         <f t="shared" si="2"/>
         <v>273</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1">
+      <c r="L15" s="3"/>
+      <c r="M15" s="3">
         <v>6</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="3">
         <v>397</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="3">
         <f t="shared" si="3"/>
         <v>332</v>
       </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3">
         <v>6</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="3">
         <v>395</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="3">
         <f t="shared" si="4"/>
         <v>332</v>
       </c>
+      <c r="AC15" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>58</v>
+      </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>5</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>375</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
         <v>5</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <v>408</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="3">
         <f t="shared" si="1"/>
         <v>338</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
         <v>5</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="3">
         <v>326</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="3">
         <f t="shared" si="2"/>
         <v>267</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3">
         <v>5</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="3">
         <v>391</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="3">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3">
         <v>5</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="3">
         <v>389</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="3">
         <f t="shared" si="4"/>
         <v>326</v>
       </c>
+      <c r="AC16" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>365</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
         <v>4.5</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="3">
         <v>404</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="3">
         <f t="shared" si="1"/>
         <v>334</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
         <v>4.5</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="3">
         <v>321</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="3">
         <f t="shared" si="2"/>
         <v>262</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3">
         <v>4.5</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="3">
         <v>388</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="3">
         <f t="shared" si="3"/>
         <v>323</v>
       </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3">
         <v>4.5</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="3">
         <v>385</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="3">
         <f t="shared" si="4"/>
         <v>322</v>
       </c>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>339</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <f t="shared" si="0"/>
         <v>279</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2">
+      <c r="D18" s="3"/>
+      <c r="E18" s="4">
         <v>4</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="3">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="2">
+      <c r="H18" s="3"/>
+      <c r="I18" s="4">
         <v>4</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="3">
         <v>315</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="3">
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="2">
+      <c r="L18" s="3"/>
+      <c r="M18" s="4">
         <v>4</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="3">
         <v>382</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="3">
         <f t="shared" si="3"/>
         <v>317</v>
       </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="2">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="4">
         <v>4</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="3">
         <v>379</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="3">
         <f t="shared" si="4"/>
         <v>316</v>
       </c>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>2.5</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>237</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
         <v>3.5</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="3">
         <v>393</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="3">
         <f t="shared" si="1"/>
         <v>323</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3">
         <v>3.5</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="3">
         <v>305</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="3">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3">
         <v>3.5</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="3">
         <v>375</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="3">
         <f t="shared" si="3"/>
         <v>310</v>
       </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3">
         <v>3.5</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="3">
         <v>373</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="3">
         <f t="shared" si="4"/>
         <v>310</v>
       </c>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>2</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>207</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
         <v>3</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="3">
         <v>384</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="3">
         <f t="shared" si="1"/>
         <v>314</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
         <v>3</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="3">
         <v>281</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="3">
         <f t="shared" si="2"/>
         <v>222</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1">
+      <c r="L20" s="3"/>
+      <c r="M20" s="3">
         <v>3</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="3">
         <v>359</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="3">
         <f t="shared" si="3"/>
         <v>294</v>
       </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3">
         <v>3</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="3">
         <v>364</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="3">
         <f t="shared" si="4"/>
         <v>301</v>
       </c>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>1.5</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>128</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
         <v>2.5</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="3">
         <v>364</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="3">
         <f t="shared" si="1"/>
         <v>294</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
         <v>2.5</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="3">
         <v>241</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="3">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1">
+      <c r="L21" s="3"/>
+      <c r="M21" s="3">
         <v>2.5</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="3">
         <v>337</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="3">
         <f t="shared" si="3"/>
         <v>272</v>
       </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1">
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3">
         <v>2.5</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="3">
         <v>336</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="3">
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>1</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>95</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
         <v>2</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="3">
         <v>302</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="3">
         <f t="shared" si="1"/>
         <v>232</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3">
         <v>2</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="3">
         <v>173</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="3">
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3">
         <v>2.25</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="3">
         <v>260</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="3">
         <f t="shared" si="3"/>
         <v>195</v>
       </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3">
         <v>2.25</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="3">
         <v>297</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="3">
         <f t="shared" si="4"/>
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>0.5</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <v>72</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
         <v>1.75</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="3">
         <v>252</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="3">
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
         <v>1.75</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="3">
         <v>140</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="3">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1">
+      <c r="L23" s="3"/>
+      <c r="M23" s="3">
         <v>2</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="3">
         <v>244</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="3">
         <f t="shared" si="3"/>
         <v>179</v>
       </c>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1">
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3">
         <v>2</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="3">
         <v>268</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="3">
         <f t="shared" si="4"/>
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>0.25</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>64</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
         <v>1.5</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="3">
         <v>197</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="3">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
         <v>1.5</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="3">
         <v>121</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="3">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1">
+      <c r="L24" s="3"/>
+      <c r="M24" s="3">
         <v>1.75</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="3">
         <v>189</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="3">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1">
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3">
         <v>1.75</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="3">
         <v>192</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="3">
         <f t="shared" si="4"/>
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>0</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>60</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <f>B25-$B$25</f>
         <v>0</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
         <v>1.25</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="3">
         <v>140</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="3">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
         <v>1.25</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="3">
         <v>104</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="3">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1">
+      <c r="L25" s="3"/>
+      <c r="M25" s="3">
         <v>1.5</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25" s="3">
         <v>154</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="3">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1">
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3">
         <v>1.5</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="3">
         <v>149</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="3">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
         <v>1</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="3">
         <v>121</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="3">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3">
         <v>1</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="3">
         <v>90</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="3">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3">
         <v>1.25</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26" s="3">
         <v>125</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="3">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1">
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3">
         <v>1.25</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="3">
         <v>123</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="3">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
         <v>0.75</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
         <v>0.75</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="3">
         <v>80</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="3">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1">
+      <c r="L27" s="3"/>
+      <c r="M27" s="3">
         <v>1</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27" s="3">
         <v>111</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="3">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1">
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3">
         <v>1</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="3">
         <v>106</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="3">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
         <v>0.5</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="3">
         <v>88</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3">
         <v>0.5</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="3">
         <v>74</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1">
+      <c r="L28" s="3"/>
+      <c r="M28" s="3">
         <v>0.75</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28" s="3">
         <v>92</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="3">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1">
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3">
         <v>0.75</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="3">
         <v>89</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="3">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
         <v>0.25</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="3">
         <v>77</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3">
         <v>0.25</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="3">
         <v>65</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1">
+      <c r="L29" s="3"/>
+      <c r="M29" s="3">
         <v>0.5</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29" s="3">
         <v>82</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="3">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1">
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3">
         <v>0.5</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="3">
         <v>79</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
         <v>0</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="3">
         <v>70</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3">
         <v>0</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="3">
         <v>59</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1">
+      <c r="L30" s="3"/>
+      <c r="M30" s="3">
         <v>0.25</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30" s="3">
         <v>72</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="3">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1">
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3">
         <v>0.25</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="3">
         <v>70.5</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="3">
         <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31" s="3">
         <v>65</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1">
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3">
         <v>0</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="3">
         <v>63</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="6"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3" t="s">
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3" t="s">
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3" t="s">
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5">
         <v>60</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3">
+      <c r="F36" s="5"/>
+      <c r="G36" s="5">
         <v>60</v>
       </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3" t="s">
+      <c r="H36" s="5"/>
+      <c r="I36" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3">
+      <c r="J36" s="5"/>
+      <c r="K36" s="5">
         <v>61.5</v>
       </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3" t="s">
+      <c r="L36" s="5"/>
+      <c r="M36" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3">
+      <c r="N36" s="5"/>
+      <c r="O36" s="5">
         <v>59</v>
       </c>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3" t="s">
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3">
+      <c r="R36" s="5"/>
+      <c r="S36" s="5">
         <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1" t="s">
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1" t="s">
+      <c r="L38" s="3"/>
+      <c r="M38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="N38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="O38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1" t="s">
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R38" s="1" t="s">
+      <c r="R38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S38" s="1" t="s">
+      <c r="S38" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>15</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="3">
         <v>181</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="3">
         <f>B39-$R$64</f>
         <v>116.5</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
         <v>15</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="3">
         <v>188</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="3">
         <f>F39-$R$64</f>
         <v>123.5</v>
       </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1">
+      <c r="H39" s="3"/>
+      <c r="I39" s="3">
         <v>15</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="3">
         <v>175</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="3">
         <f>J39-$R$64</f>
         <v>110.5</v>
       </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3">
         <v>15</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N39" s="3">
         <v>157</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39" s="3">
         <f>N39-$N$64</f>
         <v>92</v>
       </c>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3">
         <v>15</v>
       </c>
-      <c r="R39" s="1">
+      <c r="R39" s="3">
         <v>153</v>
       </c>
-      <c r="S39" s="1">
+      <c r="S39" s="3">
         <f>R39-$R$64</f>
         <v>88.5</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>14</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="3">
         <v>180</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="3">
         <f t="shared" ref="C40:C64" si="5">B40-$R$64</f>
         <v>115.5</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
         <v>14</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="3">
         <v>187</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="3">
         <f t="shared" ref="G40:G64" si="6">F40-$R$64</f>
         <v>122.5</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1">
+      <c r="H40" s="3"/>
+      <c r="I40" s="3">
         <v>14</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="3">
         <v>174.5</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="3">
         <f t="shared" ref="K40:K64" si="7">J40-$R$64</f>
         <v>110</v>
       </c>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3">
         <v>14</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N40" s="3">
         <v>156.5</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40" s="3">
         <f t="shared" ref="O40:O64" si="8">N40-$N$64</f>
         <v>91.5</v>
       </c>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3">
         <v>14</v>
       </c>
-      <c r="R40" s="1">
+      <c r="R40" s="3">
         <v>152</v>
       </c>
-      <c r="S40" s="1">
+      <c r="S40" s="3">
         <f t="shared" ref="S40:S64" si="9">R40-$R$64</f>
         <v>87.5</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>13</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="3">
         <v>179</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="3">
         <f t="shared" si="5"/>
         <v>114.5</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3">
         <v>13</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="3">
         <v>186</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="3">
         <f t="shared" si="6"/>
         <v>121.5</v>
       </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1">
+      <c r="H41" s="3"/>
+      <c r="I41" s="3">
         <v>13</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="3">
         <v>174</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="3">
         <f t="shared" si="7"/>
         <v>109.5</v>
       </c>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1">
+      <c r="L41" s="3"/>
+      <c r="M41" s="3">
         <v>13</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41" s="3">
         <v>156</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41" s="3">
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1">
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3">
         <v>13</v>
       </c>
-      <c r="R41" s="1">
+      <c r="R41" s="3">
         <v>151</v>
       </c>
-      <c r="S41" s="1">
+      <c r="S41" s="3">
         <f t="shared" si="9"/>
         <v>86.5</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>12</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="3">
         <v>178</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="3">
         <f t="shared" si="5"/>
         <v>113.5</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
         <v>12</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="3">
         <v>185</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="3">
         <f t="shared" si="6"/>
         <v>120.5</v>
       </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1">
+      <c r="H42" s="3"/>
+      <c r="I42" s="3">
         <v>12</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="3">
         <v>173</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="3">
         <f t="shared" si="7"/>
         <v>108.5</v>
       </c>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1">
+      <c r="L42" s="3"/>
+      <c r="M42" s="3">
         <v>12</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42" s="3">
         <v>155</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42" s="3">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1">
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3">
         <v>12</v>
       </c>
-      <c r="R42" s="1">
+      <c r="R42" s="3">
         <v>150</v>
       </c>
-      <c r="S42" s="1">
+      <c r="S42" s="3">
         <f t="shared" si="9"/>
         <v>85.5</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43" s="3">
         <v>11</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="3">
         <v>177</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="3">
         <f t="shared" si="5"/>
         <v>112.5</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
         <v>11</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="3">
         <v>184</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="3">
         <f t="shared" si="6"/>
         <v>119.5</v>
       </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1">
+      <c r="H43" s="3"/>
+      <c r="I43" s="3">
         <v>11</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="3">
         <v>171.5</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43" s="3">
         <f t="shared" si="7"/>
         <v>107</v>
       </c>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1">
+      <c r="L43" s="3"/>
+      <c r="M43" s="3">
         <v>11</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N43" s="3">
         <v>153.5</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O43" s="3">
         <f t="shared" si="8"/>
         <v>88.5</v>
       </c>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1">
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3">
         <v>11</v>
       </c>
-      <c r="R43" s="1">
+      <c r="R43" s="3">
         <v>149</v>
       </c>
-      <c r="S43" s="1">
+      <c r="S43" s="3">
         <f t="shared" si="9"/>
         <v>84.5</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="A44" s="3">
         <v>10</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="3">
         <v>175</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="3">
         <f t="shared" si="5"/>
         <v>110.5</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1">
+      <c r="D44" s="3"/>
+      <c r="E44" s="3">
         <v>10</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="3">
         <v>182.5</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="3">
         <f t="shared" si="6"/>
         <v>118</v>
       </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1">
+      <c r="H44" s="3"/>
+      <c r="I44" s="3">
         <v>10</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44" s="3">
         <v>170</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="3">
         <f t="shared" si="7"/>
         <v>105.5</v>
       </c>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1">
+      <c r="L44" s="3"/>
+      <c r="M44" s="3">
         <v>10</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N44" s="3">
         <v>152</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O44" s="3">
         <f t="shared" si="8"/>
         <v>87</v>
       </c>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1">
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3">
         <v>10</v>
       </c>
-      <c r="R44" s="1">
+      <c r="R44" s="3">
         <v>147.5</v>
       </c>
-      <c r="S44" s="1">
+      <c r="S44" s="3">
         <f t="shared" si="9"/>
         <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>9</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="3">
         <v>174</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="3">
         <f t="shared" si="5"/>
         <v>109.5</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1">
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
         <v>9</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="3">
         <v>180</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="3">
         <f t="shared" si="6"/>
         <v>115.5</v>
       </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1">
+      <c r="H45" s="3"/>
+      <c r="I45" s="3">
         <v>9</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="3">
         <v>168</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="3">
         <f t="shared" si="7"/>
         <v>103.5</v>
       </c>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1">
+      <c r="L45" s="3"/>
+      <c r="M45" s="3">
         <v>9</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N45" s="3">
         <v>150.5</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O45" s="3">
         <f t="shared" si="8"/>
         <v>85.5</v>
       </c>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1">
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3">
         <v>9</v>
       </c>
-      <c r="R45" s="1">
+      <c r="R45" s="3">
         <v>146</v>
       </c>
-      <c r="S45" s="1">
+      <c r="S45" s="3">
         <f t="shared" si="9"/>
         <v>81.5</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46" s="3">
         <v>8</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="3">
         <v>171</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="3">
         <f t="shared" si="5"/>
         <v>106.5</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3">
         <v>8</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="3">
         <v>178</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="3">
         <f t="shared" si="6"/>
         <v>113.5</v>
       </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1">
+      <c r="H46" s="3"/>
+      <c r="I46" s="3">
         <v>8</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="3">
         <v>165.5</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="3">
         <f t="shared" si="7"/>
         <v>101</v>
       </c>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1">
+      <c r="L46" s="3"/>
+      <c r="M46" s="3">
         <v>8</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46" s="3">
         <v>148</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O46" s="3">
         <f t="shared" si="8"/>
         <v>83</v>
       </c>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1">
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3">
         <v>8</v>
       </c>
-      <c r="R46" s="1">
+      <c r="R46" s="3">
         <v>143.5</v>
       </c>
-      <c r="S46" s="1">
+      <c r="S46" s="3">
         <f t="shared" si="9"/>
         <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47" s="3">
         <v>7</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="3">
         <v>167</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="3">
         <f t="shared" si="5"/>
         <v>102.5</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
         <v>7</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="3">
         <v>174</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="3">
         <f t="shared" si="6"/>
         <v>109.5</v>
       </c>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1">
+      <c r="H47" s="3"/>
+      <c r="I47" s="3">
         <v>7</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="3">
         <v>161</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="3">
         <f t="shared" si="7"/>
         <v>96.5</v>
       </c>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1">
+      <c r="L47" s="3"/>
+      <c r="M47" s="3">
         <v>7</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N47" s="3">
         <v>143.5</v>
       </c>
-      <c r="O47" s="1">
+      <c r="O47" s="3">
         <f t="shared" si="8"/>
         <v>78.5</v>
       </c>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1">
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3">
         <v>7</v>
       </c>
-      <c r="R47" s="1">
+      <c r="R47" s="3">
         <v>139</v>
       </c>
-      <c r="S47" s="1">
+      <c r="S47" s="3">
         <f t="shared" si="9"/>
         <v>74.5</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="A48" s="3">
         <v>6</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="3">
         <v>159</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="3">
         <f t="shared" si="5"/>
         <v>94.5</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1">
+      <c r="D48" s="3"/>
+      <c r="E48" s="3">
         <v>6</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="3">
         <v>166</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="3">
         <f t="shared" si="6"/>
         <v>101.5</v>
       </c>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1">
+      <c r="H48" s="3"/>
+      <c r="I48" s="3">
         <v>6</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="3">
         <v>155</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48" s="3">
         <f t="shared" si="7"/>
         <v>90.5</v>
       </c>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1">
+      <c r="L48" s="3"/>
+      <c r="M48" s="3">
         <v>6</v>
       </c>
-      <c r="N48" s="1">
+      <c r="N48" s="3">
         <v>135.5</v>
       </c>
-      <c r="O48" s="1">
+      <c r="O48" s="3">
         <f t="shared" si="8"/>
         <v>70.5</v>
       </c>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1">
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3">
         <v>6</v>
       </c>
-      <c r="R48" s="1">
+      <c r="R48" s="3">
         <v>131</v>
       </c>
-      <c r="S48" s="1">
+      <c r="S48" s="3">
         <f t="shared" si="9"/>
         <v>66.5</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="A49" s="3">
         <v>5</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="3">
         <v>144</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="3">
         <f t="shared" si="5"/>
         <v>79.5</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1">
+      <c r="D49" s="3"/>
+      <c r="E49" s="3">
         <v>5</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="3">
         <v>150</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="3">
         <f t="shared" si="6"/>
         <v>85.5</v>
       </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1">
+      <c r="H49" s="3"/>
+      <c r="I49" s="3">
         <v>5</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="3">
         <v>141</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="3">
         <f t="shared" si="7"/>
         <v>76.5</v>
       </c>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1">
+      <c r="L49" s="3"/>
+      <c r="M49" s="3">
         <v>5</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N49" s="3">
         <v>121</v>
       </c>
-      <c r="O49" s="1">
+      <c r="O49" s="3">
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1">
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3">
         <v>5</v>
       </c>
-      <c r="R49" s="1">
+      <c r="R49" s="3">
         <v>115.5</v>
       </c>
-      <c r="S49" s="1">
+      <c r="S49" s="3">
         <f t="shared" si="9"/>
         <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="A50" s="3">
         <v>4.5</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="3">
         <v>133</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="3">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1">
+      <c r="D50" s="3"/>
+      <c r="E50" s="3">
         <v>4.5</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="3">
         <v>138</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="3">
         <f t="shared" si="6"/>
         <v>73.5</v>
       </c>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1">
+      <c r="H50" s="3"/>
+      <c r="I50" s="3">
         <v>4.5</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50" s="3">
         <v>131</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="3">
         <f t="shared" si="7"/>
         <v>66.5</v>
       </c>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1">
+      <c r="L50" s="3"/>
+      <c r="M50" s="3">
         <v>4.5</v>
       </c>
-      <c r="N50" s="1">
+      <c r="N50" s="3">
         <v>113.5</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O50" s="3">
         <f t="shared" si="8"/>
         <v>48.5</v>
       </c>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1">
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3">
         <v>4.5</v>
       </c>
-      <c r="R50" s="1">
+      <c r="R50" s="3">
         <v>108</v>
       </c>
-      <c r="S50" s="1">
+      <c r="S50" s="3">
         <f t="shared" si="9"/>
         <v>43.5</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="A51" s="4">
         <v>4.25</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="3">
         <v>125</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="3">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2">
+      <c r="D51" s="3"/>
+      <c r="E51" s="4">
         <v>4.25</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="3">
         <v>134</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="3">
         <f t="shared" si="6"/>
         <v>69.5</v>
       </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="2">
+      <c r="H51" s="3"/>
+      <c r="I51" s="4">
         <v>4.25</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51" s="3">
         <v>128</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" s="3">
         <f t="shared" si="7"/>
         <v>63.5</v>
       </c>
-      <c r="L51" s="1"/>
-      <c r="M51" s="2">
+      <c r="L51" s="3"/>
+      <c r="M51" s="4">
         <v>4.25</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N51" s="3">
         <v>106</v>
       </c>
-      <c r="O51" s="1">
+      <c r="O51" s="3">
         <f t="shared" si="8"/>
         <v>41</v>
       </c>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="2">
+      <c r="P51" s="3"/>
+      <c r="Q51" s="4">
         <v>4.25</v>
       </c>
-      <c r="R51" s="1">
+      <c r="R51" s="3">
         <v>104</v>
       </c>
-      <c r="S51" s="1">
+      <c r="S51" s="3">
         <f t="shared" si="9"/>
         <v>39.5</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="A52" s="3">
         <v>4</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="3">
         <v>118</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="3">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1">
+      <c r="D52" s="3"/>
+      <c r="E52" s="3">
         <v>4</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="3">
         <v>125</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="3">
         <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1">
+      <c r="H52" s="3"/>
+      <c r="I52" s="3">
         <v>4</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="3">
         <v>120</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" s="3">
         <f t="shared" si="7"/>
         <v>55.5</v>
       </c>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1">
+      <c r="L52" s="3"/>
+      <c r="M52" s="3">
         <v>4</v>
       </c>
-      <c r="N52" s="1">
+      <c r="N52" s="3">
         <v>103</v>
       </c>
-      <c r="O52" s="1">
+      <c r="O52" s="3">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1">
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3">
         <v>4</v>
       </c>
-      <c r="R52" s="1">
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="1">
+      <c r="S52" s="3">
         <f t="shared" si="9"/>
         <v>35.5</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="A53" s="3">
         <v>3.75</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="3">
         <v>111</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="3">
         <f t="shared" si="5"/>
         <v>46.5</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1">
+      <c r="D53" s="3"/>
+      <c r="E53" s="3">
         <v>3.75</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="3">
         <v>115</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="3">
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1">
+      <c r="H53" s="3"/>
+      <c r="I53" s="3">
         <v>3.75</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53" s="3">
         <v>112</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K53" s="3">
         <f t="shared" si="7"/>
         <v>47.5</v>
       </c>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1">
+      <c r="L53" s="3"/>
+      <c r="M53" s="3">
         <v>3.75</v>
       </c>
-      <c r="N53" s="1">
+      <c r="N53" s="3">
         <v>100</v>
       </c>
-      <c r="O53" s="1">
+      <c r="O53" s="3">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1">
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3">
         <v>3.75</v>
       </c>
-      <c r="R53" s="1">
+      <c r="R53" s="3">
         <v>95.5</v>
       </c>
-      <c r="S53" s="1">
+      <c r="S53" s="3">
         <f t="shared" si="9"/>
         <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="A54" s="3">
         <v>3.5</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="3">
         <v>108</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="3">
         <f t="shared" si="5"/>
         <v>43.5</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1">
+      <c r="D54" s="3"/>
+      <c r="E54" s="3">
         <v>3.5</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="3">
         <v>112</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="3">
         <f t="shared" si="6"/>
         <v>47.5</v>
       </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1">
+      <c r="H54" s="3"/>
+      <c r="I54" s="3">
         <v>3.5</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54" s="3">
         <v>109</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54" s="3">
         <f t="shared" si="7"/>
         <v>44.5</v>
       </c>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1">
+      <c r="L54" s="3"/>
+      <c r="M54" s="3">
         <v>3.5</v>
       </c>
-      <c r="N54" s="1">
+      <c r="N54" s="3">
         <v>98</v>
       </c>
-      <c r="O54" s="1">
+      <c r="O54" s="3">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1">
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3">
         <v>3.5</v>
       </c>
-      <c r="R54" s="1">
+      <c r="R54" s="3">
         <v>93</v>
       </c>
-      <c r="S54" s="1">
+      <c r="S54" s="3">
         <f t="shared" si="9"/>
         <v>28.5</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="A55" s="3">
         <v>3.25</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="3">
         <v>102</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="3">
         <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1">
+      <c r="D55" s="3"/>
+      <c r="E55" s="3">
         <v>3.25</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="3">
         <v>105</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="3">
         <f t="shared" si="6"/>
         <v>40.5</v>
       </c>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1">
+      <c r="H55" s="3"/>
+      <c r="I55" s="3">
         <v>3.25</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55" s="3">
         <v>104</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55" s="3">
         <f t="shared" si="7"/>
         <v>39.5</v>
       </c>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3">
         <v>3.25</v>
       </c>
-      <c r="N55" s="1">
+      <c r="N55" s="3">
         <v>94.5</v>
       </c>
-      <c r="O55" s="1">
+      <c r="O55" s="3">
         <f t="shared" si="8"/>
         <v>29.5</v>
       </c>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3">
         <v>3.25</v>
       </c>
-      <c r="R55" s="1">
+      <c r="R55" s="3">
         <v>90</v>
       </c>
-      <c r="S55" s="1">
+      <c r="S55" s="3">
         <f t="shared" si="9"/>
         <v>25.5</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="A56" s="3">
         <v>3</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="3">
         <v>96</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="3">
         <f t="shared" si="5"/>
         <v>31.5</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1">
+      <c r="D56" s="3"/>
+      <c r="E56" s="3">
         <v>3</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="3">
         <v>99</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="3">
         <f t="shared" si="6"/>
         <v>34.5</v>
       </c>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1">
+      <c r="H56" s="3"/>
+      <c r="I56" s="3">
         <v>3</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56" s="3">
         <v>98.5</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K56" s="3">
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3">
         <v>3</v>
       </c>
-      <c r="N56" s="1">
+      <c r="N56" s="3">
         <v>91</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O56" s="3">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3">
         <v>3</v>
       </c>
-      <c r="R56" s="1">
+      <c r="R56" s="3">
         <v>88</v>
       </c>
-      <c r="S56" s="1">
+      <c r="S56" s="3">
         <f t="shared" si="9"/>
         <v>23.5</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="A57" s="3">
         <v>2.75</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="3">
         <v>92</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="3">
         <f t="shared" si="5"/>
         <v>27.5</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1">
+      <c r="D57" s="3"/>
+      <c r="E57" s="3">
         <v>2.75</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="3">
         <v>96</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="3">
         <f t="shared" si="6"/>
         <v>31.5</v>
       </c>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1">
+      <c r="H57" s="3"/>
+      <c r="I57" s="3">
         <v>2.75</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57" s="3">
         <v>94</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K57" s="3">
         <f t="shared" si="7"/>
         <v>29.5</v>
       </c>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1">
+      <c r="L57" s="3"/>
+      <c r="M57" s="3">
         <v>2.75</v>
       </c>
-      <c r="N57" s="1">
+      <c r="N57" s="3">
         <v>87</v>
       </c>
-      <c r="O57" s="1">
+      <c r="O57" s="3">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1">
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3">
         <v>2.75</v>
       </c>
-      <c r="R57" s="1">
+      <c r="R57" s="3">
         <v>85</v>
       </c>
-      <c r="S57" s="1">
+      <c r="S57" s="3">
         <f t="shared" si="9"/>
         <v>20.5</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="A58" s="3">
         <v>2.5</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="3">
         <v>88</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="3">
         <f t="shared" si="5"/>
         <v>23.5</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1">
+      <c r="D58" s="3"/>
+      <c r="E58" s="3">
         <v>2.5</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="3">
         <v>92</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58" s="3">
         <f t="shared" si="6"/>
         <v>27.5</v>
       </c>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1">
+      <c r="H58" s="3"/>
+      <c r="I58" s="3">
         <v>2.5</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58" s="3">
         <v>92</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K58" s="3">
         <f t="shared" si="7"/>
         <v>27.5</v>
       </c>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1">
+      <c r="L58" s="3"/>
+      <c r="M58" s="3">
         <v>2.5</v>
       </c>
-      <c r="N58" s="1">
+      <c r="N58" s="3">
         <v>85.5</v>
       </c>
-      <c r="O58" s="1">
+      <c r="O58" s="3">
         <f t="shared" si="8"/>
         <v>20.5</v>
       </c>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1">
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3">
         <v>2.5</v>
       </c>
-      <c r="R58" s="1">
+      <c r="R58" s="3">
         <v>82</v>
       </c>
-      <c r="S58" s="1">
+      <c r="S58" s="3">
         <f t="shared" si="9"/>
         <v>17.5</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="A59" s="3">
         <v>2.25</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="3">
         <v>87</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="3">
         <f t="shared" si="5"/>
         <v>22.5</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1">
+      <c r="D59" s="3"/>
+      <c r="E59" s="3">
         <v>2.25</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="3">
         <v>89.5</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="3">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1">
+      <c r="H59" s="3"/>
+      <c r="I59" s="3">
         <v>2.25</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59" s="3">
         <v>89</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K59" s="3">
         <f t="shared" si="7"/>
         <v>24.5</v>
       </c>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1">
+      <c r="L59" s="3"/>
+      <c r="M59" s="3">
         <v>2.25</v>
       </c>
-      <c r="N59" s="1">
+      <c r="N59" s="3">
         <v>83</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O59" s="3">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1">
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3">
         <v>2.25</v>
       </c>
-      <c r="R59" s="1">
+      <c r="R59" s="3">
         <v>80</v>
       </c>
-      <c r="S59" s="1">
+      <c r="S59" s="3">
         <f t="shared" si="9"/>
         <v>15.5</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="A60" s="3">
         <v>2</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="3">
         <v>83</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="3">
         <f t="shared" si="5"/>
         <v>18.5</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1">
+      <c r="D60" s="3"/>
+      <c r="E60" s="3">
         <v>2</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="3">
         <v>86</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60" s="3">
         <f t="shared" si="6"/>
         <v>21.5</v>
       </c>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1">
+      <c r="H60" s="3"/>
+      <c r="I60" s="3">
         <v>2</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J60" s="3">
         <v>85</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K60" s="3">
         <f t="shared" si="7"/>
         <v>20.5</v>
       </c>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1">
+      <c r="L60" s="3"/>
+      <c r="M60" s="3">
         <v>2</v>
       </c>
-      <c r="N60" s="1">
+      <c r="N60" s="3">
         <v>80</v>
       </c>
-      <c r="O60" s="1">
+      <c r="O60" s="3">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1">
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3">
         <v>2</v>
       </c>
-      <c r="R60" s="1">
+      <c r="R60" s="3">
         <v>78.5</v>
       </c>
-      <c r="S60" s="1">
+      <c r="S60" s="3">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="A61" s="3">
         <v>1.5</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="3">
         <v>78</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="3">
         <f t="shared" si="5"/>
         <v>13.5</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1">
+      <c r="D61" s="3"/>
+      <c r="E61" s="3">
         <v>1.5</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="3">
         <v>80</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="3">
         <f t="shared" si="6"/>
         <v>15.5</v>
       </c>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1">
+      <c r="H61" s="3"/>
+      <c r="I61" s="3">
         <v>1.5</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61" s="3">
         <v>78</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K61" s="3">
         <f t="shared" si="7"/>
         <v>13.5</v>
       </c>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1">
+      <c r="L61" s="3"/>
+      <c r="M61" s="3">
         <v>1.5</v>
       </c>
-      <c r="N61" s="1">
+      <c r="N61" s="3">
         <v>76</v>
       </c>
-      <c r="O61" s="1">
+      <c r="O61" s="3">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1">
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3">
         <v>1.5</v>
       </c>
-      <c r="R61" s="1">
+      <c r="R61" s="3">
         <v>74.5</v>
       </c>
-      <c r="S61" s="1">
+      <c r="S61" s="3">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="A62" s="3">
         <v>1</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="3">
         <v>74</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="3">
         <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1">
+      <c r="D62" s="3"/>
+      <c r="E62" s="3">
         <v>1</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="3">
         <v>75</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="3">
         <f t="shared" si="6"/>
         <v>10.5</v>
       </c>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1">
+      <c r="H62" s="3"/>
+      <c r="I62" s="3">
         <v>1</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62" s="3">
         <v>74</v>
       </c>
-      <c r="K62" s="1">
+      <c r="K62" s="3">
         <f t="shared" si="7"/>
         <v>9.5</v>
       </c>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1">
+      <c r="L62" s="3"/>
+      <c r="M62" s="3">
         <v>1</v>
       </c>
-      <c r="N62" s="1">
+      <c r="N62" s="3">
         <v>73</v>
       </c>
-      <c r="O62" s="1">
+      <c r="O62" s="3">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1">
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3">
         <v>1</v>
       </c>
-      <c r="R62" s="1">
+      <c r="R62" s="3">
         <v>71</v>
       </c>
-      <c r="S62" s="1">
+      <c r="S62" s="3">
         <f t="shared" si="9"/>
         <v>6.5</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="A63" s="3">
         <v>0.5</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="3">
         <v>70</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="3">
         <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1">
+      <c r="D63" s="3"/>
+      <c r="E63" s="3">
         <v>0.5</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="3">
         <v>71</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="3">
         <f t="shared" si="6"/>
         <v>6.5</v>
       </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3">
         <v>0.5</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63" s="3">
         <v>69</v>
       </c>
-      <c r="K63" s="1">
+      <c r="K63" s="3">
         <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1">
+      <c r="L63" s="3"/>
+      <c r="M63" s="3">
         <v>0.5</v>
       </c>
-      <c r="N63" s="1">
+      <c r="N63" s="3">
         <v>69</v>
       </c>
-      <c r="O63" s="1">
+      <c r="O63" s="3">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1">
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3">
         <v>0.5</v>
       </c>
-      <c r="R63" s="1">
+      <c r="R63" s="3">
         <v>68.5</v>
       </c>
-      <c r="S63" s="1">
+      <c r="S63" s="3">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="A64" s="3">
         <v>0</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="3">
         <v>66</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="3">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1">
+      <c r="D64" s="3"/>
+      <c r="E64" s="3">
         <v>0</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="3">
         <v>66</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="3">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1">
+      <c r="H64" s="3"/>
+      <c r="I64" s="3">
         <v>0</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J64" s="3">
         <v>64</v>
       </c>
-      <c r="K64" s="1">
+      <c r="K64" s="3">
         <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1">
+      <c r="L64" s="3"/>
+      <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="1">
+      <c r="N64" s="3">
         <v>65</v>
       </c>
-      <c r="O64" s="1">
+      <c r="O64" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1">
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3">
         <v>0</v>
       </c>
-      <c r="R64" s="1">
+      <c r="R64" s="3">
         <v>64.5</v>
       </c>
-      <c r="S64" s="1">
+      <c r="S64" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="5"/>
+      <c r="B67" s="7"/>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3" t="s">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3" t="s">
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3" t="s">
+      <c r="J68" s="5"/>
+      <c r="K68" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3" t="s">
+      <c r="L68" s="5"/>
+      <c r="M68" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N68" s="3" t="s">
+      <c r="N68" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3" t="s">
+      <c r="O68" s="5"/>
+      <c r="P68" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1" t="s">
+      <c r="D69" s="3"/>
+      <c r="E69" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I69" t="s">
@@ -9271,24 +9370,24 @@
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+      <c r="A70" s="3">
         <v>8</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="3">
         <v>550</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="3">
         <f>B70-$B$79</f>
         <v>93</v>
       </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1">
+      <c r="D70" s="3"/>
+      <c r="E70" s="3">
         <v>20</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="3">
         <v>563</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70" s="3">
         <f>F70-$F$91</f>
         <v>101</v>
       </c>
@@ -9313,47 +9412,47 @@
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+      <c r="A71" s="3">
         <v>7</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="3">
         <v>547</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="3">
         <f t="shared" ref="C71:C78" si="10">B71-$B$79</f>
         <v>90</v>
       </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1">
+      <c r="D71" s="3"/>
+      <c r="E71" s="3">
         <v>19</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="3">
         <v>561</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71" s="3">
         <f t="shared" ref="G71:G90" si="11">F71-$F$91</f>
         <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+      <c r="A72" s="3">
         <v>6</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="3">
         <v>543</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="3">
         <f t="shared" si="10"/>
         <v>86</v>
       </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1">
+      <c r="D72" s="3"/>
+      <c r="E72" s="3">
         <v>18</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="3">
         <v>560</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72" s="3">
         <f t="shared" si="11"/>
         <v>98</v>
       </c>
@@ -9362,24 +9461,24 @@
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+      <c r="A73" s="3">
         <v>5.5</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="3">
         <v>539</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="3">
         <f t="shared" si="10"/>
         <v>82</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1">
+      <c r="D73" s="3"/>
+      <c r="E73" s="3">
         <v>17</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="3">
         <v>559</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73" s="3">
         <f t="shared" si="11"/>
         <v>97</v>
       </c>
@@ -9403,24 +9502,24 @@
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+      <c r="A74" s="3">
         <v>5</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="3">
         <v>537</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="3">
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1">
+      <c r="D74" s="3"/>
+      <c r="E74" s="3">
         <v>16</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="3">
         <v>559</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74" s="3">
         <f t="shared" si="11"/>
         <v>97</v>
       </c>
@@ -9459,24 +9558,24 @@
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+      <c r="A75" s="3">
         <v>4.5</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="3">
         <v>531</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="3">
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1">
+      <c r="D75" s="3"/>
+      <c r="E75" s="3">
         <v>15</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="3">
         <v>558</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75" s="3">
         <f t="shared" si="11"/>
         <v>96</v>
       </c>
@@ -9518,24 +9617,24 @@
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+      <c r="A76" s="3">
         <v>4</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="3">
         <v>500</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="3">
         <f t="shared" si="10"/>
         <v>43</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1">
+      <c r="D76" s="3"/>
+      <c r="E76" s="3">
         <v>14</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="3">
         <v>556</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76" s="3">
         <f t="shared" si="11"/>
         <v>94</v>
       </c>
@@ -9552,24 +9651,24 @@
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+      <c r="A77" s="3">
         <v>3.5</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="3">
         <v>490</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="3">
         <f t="shared" si="10"/>
         <v>33</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1">
+      <c r="D77" s="3"/>
+      <c r="E77" s="3">
         <v>13</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="3">
         <v>554</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77" s="3">
         <f t="shared" si="11"/>
         <v>92</v>
       </c>
@@ -9622,24 +9721,24 @@
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+      <c r="A78" s="3">
         <v>3</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="3">
         <v>480</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="3">
         <f t="shared" si="10"/>
         <v>23</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1">
+      <c r="D78" s="3"/>
+      <c r="E78" s="3">
         <v>12</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78" s="3">
         <v>552</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78" s="3">
         <f t="shared" si="11"/>
         <v>90</v>
       </c>
@@ -9688,24 +9787,24 @@
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+      <c r="A79" s="3">
         <v>2.5</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="3">
         <v>457</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="3">
         <f>B79-$B$79+1</f>
         <v>1</v>
       </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1">
+      <c r="D79" s="3"/>
+      <c r="E79" s="3">
         <v>11</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="3">
         <v>551</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79" s="3">
         <f t="shared" si="11"/>
         <v>89</v>
       </c>
@@ -9754,17 +9853,17 @@
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3">
         <v>10</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="3">
         <v>550</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G80" s="3">
         <f t="shared" si="11"/>
         <v>88</v>
       </c>
@@ -9813,17 +9912,17 @@
       </c>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3">
         <v>9</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="3">
         <v>547</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G81" s="3">
         <f t="shared" si="11"/>
         <v>85</v>
       </c>
@@ -9872,17 +9971,17 @@
       </c>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3">
         <v>8</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82" s="3">
         <v>545</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G82" s="3">
         <f t="shared" si="11"/>
         <v>83</v>
       </c>
@@ -9931,17 +10030,17 @@
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3">
         <v>7</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="3">
         <v>540</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G83" s="3">
         <f t="shared" si="11"/>
         <v>78</v>
       </c>
@@ -9990,17 +10089,17 @@
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3">
         <v>6</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84" s="3">
         <v>535</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G84" s="3">
         <f t="shared" si="11"/>
         <v>73</v>
       </c>
@@ -10049,17 +10148,17 @@
       </c>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3">
         <v>5</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="3">
         <v>522</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G85" s="3">
         <f t="shared" si="11"/>
         <v>60</v>
       </c>
@@ -10108,17 +10207,17 @@
       </c>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3">
         <v>4.5</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="3">
         <v>512</v>
       </c>
-      <c r="G86" s="1">
+      <c r="G86" s="3">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
@@ -10167,17 +10266,17 @@
       </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3">
         <v>4</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87" s="3">
         <v>497</v>
       </c>
-      <c r="G87" s="1">
+      <c r="G87" s="3">
         <f t="shared" si="11"/>
         <v>35</v>
       </c>
@@ -10226,17 +10325,17 @@
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3">
         <v>3.5</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F88" s="3">
         <v>482</v>
       </c>
-      <c r="G88" s="1">
+      <c r="G88" s="3">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
@@ -10285,17 +10384,17 @@
       </c>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3">
         <v>3</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89" s="3">
         <v>472</v>
       </c>
-      <c r="G89" s="1">
+      <c r="G89" s="3">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
@@ -10344,17 +10443,17 @@
       </c>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3">
         <v>2.5</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90" s="3">
         <v>465</v>
       </c>
-      <c r="G90" s="1">
+      <c r="G90" s="3">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
@@ -10403,17 +10502,17 @@
       </c>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3">
         <v>2.4</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F91" s="3">
         <v>462</v>
       </c>
-      <c r="G91" s="1">
+      <c r="G91" s="3">
         <f>F91-$F$91+1</f>
         <v>1</v>
       </c>
@@ -10687,10 +10786,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A67:B67"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AC4:AD9"/>
+    <mergeCell ref="AC17:AD21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56955368-1915-42AB-A517-EA7A9A377DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC1DCC8-34A0-4137-9D50-131440A6B735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,30 +241,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7063,7 +7062,7 @@
         <xdr:cNvPr id="6" name="Diagram 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B21C91B-073D-43EC-B764-8B6B9309F930}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7101,7 +7100,7 @@
         <xdr:cNvPr id="7" name="Diagram 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E460416-13CA-4CEB-B944-5857D25620FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8396,7 +8395,7 @@
   <dimension ref="A1:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="T85" sqref="T85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8405,3242 +8404,3242 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
         <v>44</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
         <v>63</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
         <v>47</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1">
         <v>58</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2" t="s">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2">
+      <c r="R3" s="1"/>
+      <c r="S3" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4" t="s">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>15</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>406</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f>B6-$B$25</f>
         <v>346</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
         <v>15</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>439</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f>F6-$F$30</f>
         <v>369</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
         <v>15</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>355</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <f>J6-$J$30</f>
         <v>296</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
         <v>15</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>424</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <f>N6-$N$31</f>
         <v>359</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3">
         <v>15</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="3">
         <v>421</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="3">
         <f>R6-$R$31</f>
         <v>358</v>
       </c>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>14</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>405</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f t="shared" ref="C7:C24" si="0">B7-$B$25</f>
         <v>345</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
         <v>14</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>437</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" ref="G7:G30" si="1">F7-$F$30</f>
         <v>367</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
         <v>14</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>354</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <f t="shared" ref="K7:K30" si="2">J7-$J$30</f>
         <v>295</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
         <v>14</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>422</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <f t="shared" ref="O7:O31" si="3">N7-$N$31</f>
         <v>357</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3">
         <v>14</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <v>420</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="3">
         <f t="shared" ref="S7:S31" si="4">R7-$R$31</f>
         <v>357</v>
       </c>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>13</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>402</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>342</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
         <v>13</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>436</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>366</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
         <v>13</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>352.5</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f t="shared" si="2"/>
         <v>293.5</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
         <v>13</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>420</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <f t="shared" si="3"/>
         <v>355</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3">
         <v>13</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <v>418</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="3">
         <f t="shared" si="4"/>
         <v>355</v>
       </c>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>12</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>400</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
         <v>12</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>434</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" si="1"/>
         <v>364</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
         <v>12</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>350</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <f t="shared" si="2"/>
         <v>291</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3">
         <v>12</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>418</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <f t="shared" si="3"/>
         <v>353</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3">
         <v>12</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <v>416</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="3">
         <f t="shared" si="4"/>
         <v>353</v>
       </c>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>11</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>398</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>338</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
         <v>11</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>431</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>361</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
         <v>11</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>348</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f t="shared" si="2"/>
         <v>289</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
         <v>11</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>415</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3">
         <v>11</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="3">
         <v>413</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="3">
         <f t="shared" si="4"/>
         <v>350</v>
       </c>
-      <c r="AC10" s="5" t="s">
+      <c r="AC10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AD10" s="6" t="s">
+      <c r="AD10" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>396</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>428</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="1"/>
         <v>358</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
         <v>10</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>346</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <f t="shared" si="2"/>
         <v>287</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
         <v>10</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>413</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <f t="shared" si="3"/>
         <v>348</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3">
         <v>10</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="3">
         <v>411</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="3">
         <f t="shared" si="4"/>
         <v>348</v>
       </c>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="6"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="9"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>393</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>333</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
         <v>9</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>425</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <f t="shared" si="1"/>
         <v>355</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
         <v>9</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>343</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <f t="shared" si="2"/>
         <v>284</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
         <v>9</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>410</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <f t="shared" si="3"/>
         <v>345</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3">
         <v>9</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="3">
         <v>408</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="3">
         <f t="shared" si="4"/>
         <v>345</v>
       </c>
-      <c r="AC12" s="7">
+      <c r="AC12" s="2">
         <v>1</v>
       </c>
-      <c r="AD12" s="7">
+      <c r="AD12" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>389</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>329</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
         <v>8</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>422</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>352</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
         <v>8</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>340</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <f t="shared" si="2"/>
         <v>281</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
         <v>8</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>407</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <f t="shared" si="3"/>
         <v>342</v>
       </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3">
         <v>8</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="3">
         <v>405</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="3">
         <f t="shared" si="4"/>
         <v>342</v>
       </c>
-      <c r="AC13" s="7">
+      <c r="AC13" s="2">
         <v>2</v>
       </c>
-      <c r="AD13" s="7">
+      <c r="AD13" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>385</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>325</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
         <v>7</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>418</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f t="shared" si="1"/>
         <v>348</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
         <v>7</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>336</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <f t="shared" si="2"/>
         <v>277</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3">
         <v>7</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>402</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <f t="shared" si="3"/>
         <v>337</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3">
         <v>7</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="3">
         <v>401</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="3">
         <f t="shared" si="4"/>
         <v>338</v>
       </c>
-      <c r="AC14" s="7">
+      <c r="AC14" s="2">
         <v>3</v>
       </c>
-      <c r="AD14" s="7">
+      <c r="AD14" s="2">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>381</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>321</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
         <v>6</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>414</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>344</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
         <v>6</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>332</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <f t="shared" si="2"/>
         <v>273</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4">
+      <c r="L15" s="3"/>
+      <c r="M15" s="3">
         <v>6</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>397</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <f t="shared" si="3"/>
         <v>332</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3">
         <v>6</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="3">
         <v>395</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="3">
         <f t="shared" si="4"/>
         <v>332</v>
       </c>
-      <c r="AC15" s="7">
+      <c r="AC15" s="2">
         <v>4</v>
       </c>
-      <c r="AD15" s="7">
+      <c r="AD15" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>5</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>375</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
         <v>5</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>408</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <f t="shared" si="1"/>
         <v>338</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
         <v>5</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>326</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <f t="shared" si="2"/>
         <v>267</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3">
         <v>5</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>391</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3">
         <v>5</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="3">
         <v>389</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="3">
         <f t="shared" si="4"/>
         <v>326</v>
       </c>
-      <c r="AC16" s="7">
+      <c r="AC16" s="2">
         <v>5</v>
       </c>
-      <c r="AD16" s="7">
+      <c r="AD16" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>365</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
         <v>4.5</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>404</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f t="shared" si="1"/>
         <v>334</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
         <v>4.5</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>321</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <f t="shared" si="2"/>
         <v>262</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3">
         <v>4.5</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>388</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <f t="shared" si="3"/>
         <v>323</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3">
         <v>4.5</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="3">
         <v>385</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="3">
         <f t="shared" si="4"/>
         <v>322</v>
       </c>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>339</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f t="shared" si="0"/>
         <v>279</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="8">
+      <c r="D18" s="3"/>
+      <c r="E18" s="4">
         <v>4</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="8">
+      <c r="H18" s="3"/>
+      <c r="I18" s="4">
         <v>4</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>315</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="8">
+      <c r="L18" s="3"/>
+      <c r="M18" s="4">
         <v>4</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <v>382</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <f t="shared" si="3"/>
         <v>317</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="8">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="4">
         <v>4</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="3">
         <v>379</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="3">
         <f t="shared" si="4"/>
         <v>316</v>
       </c>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="4">
         <v>2.5</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>237</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
         <v>3.5</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>393</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <f t="shared" si="1"/>
         <v>323</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3">
         <v>3.5</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>305</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3">
         <v>3.5</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>375</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <f t="shared" si="3"/>
         <v>310</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3">
         <v>3.5</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="3">
         <v>373</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="3">
         <f t="shared" si="4"/>
         <v>310</v>
       </c>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>2</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>207</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
         <v>3</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>384</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <f t="shared" si="1"/>
         <v>314</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
         <v>3</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>281</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <f t="shared" si="2"/>
         <v>222</v>
       </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4">
+      <c r="L20" s="3"/>
+      <c r="M20" s="3">
         <v>3</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <v>359</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <f t="shared" si="3"/>
         <v>294</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3">
         <v>3</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R20" s="3">
         <v>364</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20" s="3">
         <f t="shared" si="4"/>
         <v>301</v>
       </c>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>1.5</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>128</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
         <v>2.5</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>364</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <f t="shared" si="1"/>
         <v>294</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
         <v>2.5</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>241</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4">
+      <c r="L21" s="3"/>
+      <c r="M21" s="3">
         <v>2.5</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <v>337</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <f t="shared" si="3"/>
         <v>272</v>
       </c>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4">
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3">
         <v>2.5</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="3">
         <v>336</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="3">
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>1</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>95</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
         <v>2</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>302</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <f t="shared" si="1"/>
         <v>232</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3">
         <v>2</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>173</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3">
         <v>2.25</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="3">
         <v>260</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="3">
         <f t="shared" si="3"/>
         <v>195</v>
       </c>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3">
         <v>2.25</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="3">
         <v>297</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22" s="3">
         <f t="shared" si="4"/>
         <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="4">
         <v>0.5</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>72</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
         <v>1.75</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>252</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
         <v>1.75</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>140</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4">
+      <c r="L23" s="3"/>
+      <c r="M23" s="3">
         <v>2</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="3">
         <v>244</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="3">
         <f t="shared" si="3"/>
         <v>179</v>
       </c>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4">
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3">
         <v>2</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="3">
         <v>268</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="3">
         <f t="shared" si="4"/>
         <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>0.25</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>64</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
         <v>1.5</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>197</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
         <v>1.5</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>121</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4">
+      <c r="L24" s="3"/>
+      <c r="M24" s="3">
         <v>1.75</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="3">
         <v>189</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="3">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4">
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3">
         <v>1.75</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="3">
         <v>192</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="3">
         <f t="shared" si="4"/>
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>0</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>60</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <f>B25-$B$25</f>
         <v>0</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
         <v>1.25</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>140</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
         <v>1.25</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <v>104</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4">
+      <c r="L25" s="3"/>
+      <c r="M25" s="3">
         <v>1.5</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="3">
         <v>154</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="3">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4">
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3">
         <v>1.5</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="3">
         <v>149</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25" s="3">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
         <v>1</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>121</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3">
         <v>1</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <v>90</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3">
         <v>1.25</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="3">
         <v>125</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="3">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4">
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3">
         <v>1.25</v>
       </c>
-      <c r="R26" s="4">
+      <c r="R26" s="3">
         <v>123</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26" s="3">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
         <v>0.75</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
         <v>0.75</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <v>80</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4">
+      <c r="L27" s="3"/>
+      <c r="M27" s="3">
         <v>1</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="3">
         <v>111</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="3">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4">
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3">
         <v>1</v>
       </c>
-      <c r="R27" s="4">
+      <c r="R27" s="3">
         <v>106</v>
       </c>
-      <c r="S27" s="4">
+      <c r="S27" s="3">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
         <v>0.5</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>88</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3">
         <v>0.5</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <v>74</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4">
+      <c r="L28" s="3"/>
+      <c r="M28" s="3">
         <v>0.75</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="3">
         <v>92</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="3">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4">
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3">
         <v>0.75</v>
       </c>
-      <c r="R28" s="4">
+      <c r="R28" s="3">
         <v>89</v>
       </c>
-      <c r="S28" s="4">
+      <c r="S28" s="3">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
         <v>0.25</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>77</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3">
         <v>0.25</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <v>65</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4">
+      <c r="L29" s="3"/>
+      <c r="M29" s="3">
         <v>0.5</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="3">
         <v>82</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="3">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4">
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3">
         <v>0.5</v>
       </c>
-      <c r="R29" s="4">
+      <c r="R29" s="3">
         <v>79</v>
       </c>
-      <c r="S29" s="4">
+      <c r="S29" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
         <v>0</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>70</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3">
         <v>0</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <v>59</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4">
+      <c r="L30" s="3"/>
+      <c r="M30" s="3">
         <v>0.25</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="3">
         <v>72</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="3">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4">
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3">
         <v>0.25</v>
       </c>
-      <c r="R30" s="4">
+      <c r="R30" s="3">
         <v>70.5</v>
       </c>
-      <c r="S30" s="4">
+      <c r="S30" s="3">
         <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="3">
         <v>65</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4">
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3">
         <v>0</v>
       </c>
-      <c r="R31" s="4">
+      <c r="R31" s="3">
         <v>63</v>
       </c>
-      <c r="S31" s="4">
+      <c r="S31" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="6"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2" t="s">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2" t="s">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2" t="s">
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1">
         <v>60</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1">
         <v>60</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2" t="s">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1">
         <v>61.5</v>
       </c>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2" t="s">
+      <c r="L36" s="1"/>
+      <c r="M36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2">
+      <c r="N36" s="1"/>
+      <c r="O36" s="1">
         <v>59</v>
       </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2" t="s">
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2">
+      <c r="R36" s="1"/>
+      <c r="S36" s="1">
         <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4" t="s">
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4" t="s">
+      <c r="L38" s="3"/>
+      <c r="M38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="N38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="4" t="s">
+      <c r="O38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4" t="s">
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R38" s="4" t="s">
+      <c r="R38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S38" s="4" t="s">
+      <c r="S38" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>15</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>181</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <f>B39-$R$64</f>
         <v>116.5</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
         <v>15</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>188</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <f>F39-$R$64</f>
         <v>123.5</v>
       </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4">
+      <c r="H39" s="3"/>
+      <c r="I39" s="3">
         <v>15</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="3">
         <v>175</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="3">
         <f>J39-$R$64</f>
         <v>110.5</v>
       </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3">
         <v>15</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="3">
         <v>157</v>
       </c>
-      <c r="O39" s="4">
+      <c r="O39" s="3">
         <f>N39-$N$64</f>
         <v>92</v>
       </c>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3">
         <v>15</v>
       </c>
-      <c r="R39" s="4">
+      <c r="R39" s="3">
         <v>153</v>
       </c>
-      <c r="S39" s="4">
+      <c r="S39" s="3">
         <f>R39-$R$64</f>
         <v>88.5</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>14</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>180</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <f t="shared" ref="C40:C64" si="5">B40-$R$64</f>
         <v>115.5</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
         <v>14</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>187</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="3">
         <f t="shared" ref="G40:G64" si="6">F40-$R$64</f>
         <v>122.5</v>
       </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4">
+      <c r="H40" s="3"/>
+      <c r="I40" s="3">
         <v>14</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="3">
         <v>174.5</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="3">
         <f t="shared" ref="K40:K64" si="7">J40-$R$64</f>
         <v>110</v>
       </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3">
         <v>14</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N40" s="3">
         <v>156.5</v>
       </c>
-      <c r="O40" s="4">
+      <c r="O40" s="3">
         <f t="shared" ref="O40:O64" si="8">N40-$N$64</f>
         <v>91.5</v>
       </c>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3">
         <v>14</v>
       </c>
-      <c r="R40" s="4">
+      <c r="R40" s="3">
         <v>152</v>
       </c>
-      <c r="S40" s="4">
+      <c r="S40" s="3">
         <f t="shared" ref="S40:S64" si="9">R40-$R$64</f>
         <v>87.5</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>13</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>179</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <f t="shared" si="5"/>
         <v>114.5</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3">
         <v>13</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>186</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="3">
         <f t="shared" si="6"/>
         <v>121.5</v>
       </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4">
+      <c r="H41" s="3"/>
+      <c r="I41" s="3">
         <v>13</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="3">
         <v>174</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="3">
         <f t="shared" si="7"/>
         <v>109.5</v>
       </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4">
+      <c r="L41" s="3"/>
+      <c r="M41" s="3">
         <v>13</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N41" s="3">
         <v>156</v>
       </c>
-      <c r="O41" s="4">
+      <c r="O41" s="3">
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4">
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3">
         <v>13</v>
       </c>
-      <c r="R41" s="4">
+      <c r="R41" s="3">
         <v>151</v>
       </c>
-      <c r="S41" s="4">
+      <c r="S41" s="3">
         <f t="shared" si="9"/>
         <v>86.5</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>12</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>178</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <f t="shared" si="5"/>
         <v>113.5</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
         <v>12</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="3">
         <v>185</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="3">
         <f t="shared" si="6"/>
         <v>120.5</v>
       </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4">
+      <c r="H42" s="3"/>
+      <c r="I42" s="3">
         <v>12</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="3">
         <v>173</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="3">
         <f t="shared" si="7"/>
         <v>108.5</v>
       </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4">
+      <c r="L42" s="3"/>
+      <c r="M42" s="3">
         <v>12</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N42" s="3">
         <v>155</v>
       </c>
-      <c r="O42" s="4">
+      <c r="O42" s="3">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4">
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3">
         <v>12</v>
       </c>
-      <c r="R42" s="4">
+      <c r="R42" s="3">
         <v>150</v>
       </c>
-      <c r="S42" s="4">
+      <c r="S42" s="3">
         <f t="shared" si="9"/>
         <v>85.5</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>11</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>177</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <f t="shared" si="5"/>
         <v>112.5</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
         <v>11</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <v>184</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="3">
         <f t="shared" si="6"/>
         <v>119.5</v>
       </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4">
+      <c r="H43" s="3"/>
+      <c r="I43" s="3">
         <v>11</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="3">
         <v>171.5</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="3">
         <f t="shared" si="7"/>
         <v>107</v>
       </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4">
+      <c r="L43" s="3"/>
+      <c r="M43" s="3">
         <v>11</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N43" s="3">
         <v>153.5</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O43" s="3">
         <f t="shared" si="8"/>
         <v>88.5</v>
       </c>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4">
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3">
         <v>11</v>
       </c>
-      <c r="R43" s="4">
+      <c r="R43" s="3">
         <v>149</v>
       </c>
-      <c r="S43" s="4">
+      <c r="S43" s="3">
         <f t="shared" si="9"/>
         <v>84.5</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>10</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>175</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <f t="shared" si="5"/>
         <v>110.5</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4">
+      <c r="D44" s="3"/>
+      <c r="E44" s="3">
         <v>10</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="3">
         <v>182.5</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="3">
         <f t="shared" si="6"/>
         <v>118</v>
       </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4">
+      <c r="H44" s="3"/>
+      <c r="I44" s="3">
         <v>10</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="3">
         <v>170</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="3">
         <f t="shared" si="7"/>
         <v>105.5</v>
       </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4">
+      <c r="L44" s="3"/>
+      <c r="M44" s="3">
         <v>10</v>
       </c>
-      <c r="N44" s="4">
+      <c r="N44" s="3">
         <v>152</v>
       </c>
-      <c r="O44" s="4">
+      <c r="O44" s="3">
         <f t="shared" si="8"/>
         <v>87</v>
       </c>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4">
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3">
         <v>10</v>
       </c>
-      <c r="R44" s="4">
+      <c r="R44" s="3">
         <v>147.5</v>
       </c>
-      <c r="S44" s="4">
+      <c r="S44" s="3">
         <f t="shared" si="9"/>
         <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>9</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>174</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <f t="shared" si="5"/>
         <v>109.5</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4">
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
         <v>9</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="3">
         <v>180</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="3">
         <f t="shared" si="6"/>
         <v>115.5</v>
       </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4">
+      <c r="H45" s="3"/>
+      <c r="I45" s="3">
         <v>9</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="3">
         <v>168</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="3">
         <f t="shared" si="7"/>
         <v>103.5</v>
       </c>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4">
+      <c r="L45" s="3"/>
+      <c r="M45" s="3">
         <v>9</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N45" s="3">
         <v>150.5</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O45" s="3">
         <f t="shared" si="8"/>
         <v>85.5</v>
       </c>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4">
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3">
         <v>9</v>
       </c>
-      <c r="R45" s="4">
+      <c r="R45" s="3">
         <v>146</v>
       </c>
-      <c r="S45" s="4">
+      <c r="S45" s="3">
         <f t="shared" si="9"/>
         <v>81.5</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>8</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>171</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <f t="shared" si="5"/>
         <v>106.5</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3">
         <v>8</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="3">
         <v>178</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="3">
         <f t="shared" si="6"/>
         <v>113.5</v>
       </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4">
+      <c r="H46" s="3"/>
+      <c r="I46" s="3">
         <v>8</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="3">
         <v>165.5</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="3">
         <f t="shared" si="7"/>
         <v>101</v>
       </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4">
+      <c r="L46" s="3"/>
+      <c r="M46" s="3">
         <v>8</v>
       </c>
-      <c r="N46" s="4">
+      <c r="N46" s="3">
         <v>148</v>
       </c>
-      <c r="O46" s="4">
+      <c r="O46" s="3">
         <f t="shared" si="8"/>
         <v>83</v>
       </c>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4">
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3">
         <v>8</v>
       </c>
-      <c r="R46" s="4">
+      <c r="R46" s="3">
         <v>143.5</v>
       </c>
-      <c r="S46" s="4">
+      <c r="S46" s="3">
         <f t="shared" si="9"/>
         <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>7</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>167</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <f t="shared" si="5"/>
         <v>102.5</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
         <v>7</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="3">
         <v>174</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="3">
         <f t="shared" si="6"/>
         <v>109.5</v>
       </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4">
+      <c r="H47" s="3"/>
+      <c r="I47" s="3">
         <v>7</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="3">
         <v>161</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="3">
         <f t="shared" si="7"/>
         <v>96.5</v>
       </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4">
+      <c r="L47" s="3"/>
+      <c r="M47" s="3">
         <v>7</v>
       </c>
-      <c r="N47" s="4">
+      <c r="N47" s="3">
         <v>143.5</v>
       </c>
-      <c r="O47" s="4">
+      <c r="O47" s="3">
         <f t="shared" si="8"/>
         <v>78.5</v>
       </c>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4">
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3">
         <v>7</v>
       </c>
-      <c r="R47" s="4">
+      <c r="R47" s="3">
         <v>139</v>
       </c>
-      <c r="S47" s="4">
+      <c r="S47" s="3">
         <f t="shared" si="9"/>
         <v>74.5</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>6</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>159</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <f t="shared" si="5"/>
         <v>94.5</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4">
+      <c r="D48" s="3"/>
+      <c r="E48" s="3">
         <v>6</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="3">
         <v>166</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="3">
         <f t="shared" si="6"/>
         <v>101.5</v>
       </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4">
+      <c r="H48" s="3"/>
+      <c r="I48" s="3">
         <v>6</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48" s="3">
         <v>155</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48" s="3">
         <f t="shared" si="7"/>
         <v>90.5</v>
       </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4">
+      <c r="L48" s="3"/>
+      <c r="M48" s="3">
         <v>6</v>
       </c>
-      <c r="N48" s="4">
+      <c r="N48" s="3">
         <v>135.5</v>
       </c>
-      <c r="O48" s="4">
+      <c r="O48" s="3">
         <f t="shared" si="8"/>
         <v>70.5</v>
       </c>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4">
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3">
         <v>6</v>
       </c>
-      <c r="R48" s="4">
+      <c r="R48" s="3">
         <v>131</v>
       </c>
-      <c r="S48" s="4">
+      <c r="S48" s="3">
         <f t="shared" si="9"/>
         <v>66.5</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>5</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>144</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <f t="shared" si="5"/>
         <v>79.5</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4">
+      <c r="D49" s="3"/>
+      <c r="E49" s="3">
         <v>5</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="3">
         <v>150</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="3">
         <f t="shared" si="6"/>
         <v>85.5</v>
       </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4">
+      <c r="H49" s="3"/>
+      <c r="I49" s="3">
         <v>5</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49" s="3">
         <v>141</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K49" s="3">
         <f t="shared" si="7"/>
         <v>76.5</v>
       </c>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4">
+      <c r="L49" s="3"/>
+      <c r="M49" s="3">
         <v>5</v>
       </c>
-      <c r="N49" s="4">
+      <c r="N49" s="3">
         <v>121</v>
       </c>
-      <c r="O49" s="4">
+      <c r="O49" s="3">
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4">
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3">
         <v>5</v>
       </c>
-      <c r="R49" s="4">
+      <c r="R49" s="3">
         <v>115.5</v>
       </c>
-      <c r="S49" s="4">
+      <c r="S49" s="3">
         <f t="shared" si="9"/>
         <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>4.5</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>133</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4">
+      <c r="D50" s="3"/>
+      <c r="E50" s="3">
         <v>4.5</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <v>138</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="3">
         <f t="shared" si="6"/>
         <v>73.5</v>
       </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4">
+      <c r="H50" s="3"/>
+      <c r="I50" s="3">
         <v>4.5</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="3">
         <v>131</v>
       </c>
-      <c r="K50" s="4">
+      <c r="K50" s="3">
         <f t="shared" si="7"/>
         <v>66.5</v>
       </c>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4">
+      <c r="L50" s="3"/>
+      <c r="M50" s="3">
         <v>4.5</v>
       </c>
-      <c r="N50" s="4">
+      <c r="N50" s="3">
         <v>113.5</v>
       </c>
-      <c r="O50" s="4">
+      <c r="O50" s="3">
         <f t="shared" si="8"/>
         <v>48.5</v>
       </c>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4">
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3">
         <v>4.5</v>
       </c>
-      <c r="R50" s="4">
+      <c r="R50" s="3">
         <v>108</v>
       </c>
-      <c r="S50" s="4">
+      <c r="S50" s="3">
         <f t="shared" si="9"/>
         <v>43.5</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+      <c r="A51" s="4">
         <v>4.25</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>125</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="8">
+      <c r="D51" s="3"/>
+      <c r="E51" s="4">
         <v>4.25</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="3">
         <v>134</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="3">
         <f t="shared" si="6"/>
         <v>69.5</v>
       </c>
-      <c r="H51" s="4"/>
-      <c r="I51" s="8">
+      <c r="H51" s="3"/>
+      <c r="I51" s="4">
         <v>4.25</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51" s="3">
         <v>128</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K51" s="3">
         <f t="shared" si="7"/>
         <v>63.5</v>
       </c>
-      <c r="L51" s="4"/>
-      <c r="M51" s="8">
+      <c r="L51" s="3"/>
+      <c r="M51" s="4">
         <v>4.25</v>
       </c>
-      <c r="N51" s="4">
+      <c r="N51" s="3">
         <v>106</v>
       </c>
-      <c r="O51" s="4">
+      <c r="O51" s="3">
         <f t="shared" si="8"/>
         <v>41</v>
       </c>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="8">
+      <c r="P51" s="3"/>
+      <c r="Q51" s="4">
         <v>4.25</v>
       </c>
-      <c r="R51" s="4">
+      <c r="R51" s="3">
         <v>104</v>
       </c>
-      <c r="S51" s="4">
+      <c r="S51" s="3">
         <f t="shared" si="9"/>
         <v>39.5</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>4</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>118</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4">
+      <c r="D52" s="3"/>
+      <c r="E52" s="3">
         <v>4</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="3">
         <v>125</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="3">
         <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4">
+      <c r="H52" s="3"/>
+      <c r="I52" s="3">
         <v>4</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="3">
         <v>120</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K52" s="3">
         <f t="shared" si="7"/>
         <v>55.5</v>
       </c>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4">
+      <c r="L52" s="3"/>
+      <c r="M52" s="3">
         <v>4</v>
       </c>
-      <c r="N52" s="4">
+      <c r="N52" s="3">
         <v>103</v>
       </c>
-      <c r="O52" s="4">
+      <c r="O52" s="3">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4">
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3">
         <v>4</v>
       </c>
-      <c r="R52" s="4">
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="4">
+      <c r="S52" s="3">
         <f t="shared" si="9"/>
         <v>35.5</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>3.75</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>111</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <f t="shared" si="5"/>
         <v>46.5</v>
       </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4">
+      <c r="D53" s="3"/>
+      <c r="E53" s="3">
         <v>3.75</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="3">
         <v>115</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="3">
         <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4">
+      <c r="H53" s="3"/>
+      <c r="I53" s="3">
         <v>3.75</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53" s="3">
         <v>112</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K53" s="3">
         <f t="shared" si="7"/>
         <v>47.5</v>
       </c>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4">
+      <c r="L53" s="3"/>
+      <c r="M53" s="3">
         <v>3.75</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N53" s="3">
         <v>100</v>
       </c>
-      <c r="O53" s="4">
+      <c r="O53" s="3">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4">
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3">
         <v>3.75</v>
       </c>
-      <c r="R53" s="4">
+      <c r="R53" s="3">
         <v>95.5</v>
       </c>
-      <c r="S53" s="4">
+      <c r="S53" s="3">
         <f t="shared" si="9"/>
         <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>3.5</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>108</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <f t="shared" si="5"/>
         <v>43.5</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4">
+      <c r="D54" s="3"/>
+      <c r="E54" s="3">
         <v>3.5</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="3">
         <v>112</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="3">
         <f t="shared" si="6"/>
         <v>47.5</v>
       </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4">
+      <c r="H54" s="3"/>
+      <c r="I54" s="3">
         <v>3.5</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J54" s="3">
         <v>109</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K54" s="3">
         <f t="shared" si="7"/>
         <v>44.5</v>
       </c>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4">
+      <c r="L54" s="3"/>
+      <c r="M54" s="3">
         <v>3.5</v>
       </c>
-      <c r="N54" s="4">
+      <c r="N54" s="3">
         <v>98</v>
       </c>
-      <c r="O54" s="4">
+      <c r="O54" s="3">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4">
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3">
         <v>3.5</v>
       </c>
-      <c r="R54" s="4">
+      <c r="R54" s="3">
         <v>93</v>
       </c>
-      <c r="S54" s="4">
+      <c r="S54" s="3">
         <f t="shared" si="9"/>
         <v>28.5</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>3.25</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <v>102</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <f t="shared" si="5"/>
         <v>37.5</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4">
+      <c r="D55" s="3"/>
+      <c r="E55" s="3">
         <v>3.25</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="3">
         <v>105</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="3">
         <f t="shared" si="6"/>
         <v>40.5</v>
       </c>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4">
+      <c r="H55" s="3"/>
+      <c r="I55" s="3">
         <v>3.25</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55" s="3">
         <v>104</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K55" s="3">
         <f t="shared" si="7"/>
         <v>39.5</v>
       </c>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3">
         <v>3.25</v>
       </c>
-      <c r="N55" s="4">
+      <c r="N55" s="3">
         <v>94.5</v>
       </c>
-      <c r="O55" s="4">
+      <c r="O55" s="3">
         <f t="shared" si="8"/>
         <v>29.5</v>
       </c>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3">
         <v>3.25</v>
       </c>
-      <c r="R55" s="4">
+      <c r="R55" s="3">
         <v>90</v>
       </c>
-      <c r="S55" s="4">
+      <c r="S55" s="3">
         <f t="shared" si="9"/>
         <v>25.5</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>3</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>96</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <f t="shared" si="5"/>
         <v>31.5</v>
       </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4">
+      <c r="D56" s="3"/>
+      <c r="E56" s="3">
         <v>3</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="3">
         <v>99</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="3">
         <f t="shared" si="6"/>
         <v>34.5</v>
       </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4">
+      <c r="H56" s="3"/>
+      <c r="I56" s="3">
         <v>3</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="3">
         <v>98.5</v>
       </c>
-      <c r="K56" s="4">
+      <c r="K56" s="3">
         <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3">
         <v>3</v>
       </c>
-      <c r="N56" s="4">
+      <c r="N56" s="3">
         <v>91</v>
       </c>
-      <c r="O56" s="4">
+      <c r="O56" s="3">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3">
         <v>3</v>
       </c>
-      <c r="R56" s="4">
+      <c r="R56" s="3">
         <v>88</v>
       </c>
-      <c r="S56" s="4">
+      <c r="S56" s="3">
         <f t="shared" si="9"/>
         <v>23.5</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>2.75</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>92</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <f t="shared" si="5"/>
         <v>27.5</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4">
+      <c r="D57" s="3"/>
+      <c r="E57" s="3">
         <v>2.75</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="3">
         <v>96</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="3">
         <f t="shared" si="6"/>
         <v>31.5</v>
       </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4">
+      <c r="H57" s="3"/>
+      <c r="I57" s="3">
         <v>2.75</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J57" s="3">
         <v>94</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K57" s="3">
         <f t="shared" si="7"/>
         <v>29.5</v>
       </c>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4">
+      <c r="L57" s="3"/>
+      <c r="M57" s="3">
         <v>2.75</v>
       </c>
-      <c r="N57" s="4">
+      <c r="N57" s="3">
         <v>87</v>
       </c>
-      <c r="O57" s="4">
+      <c r="O57" s="3">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4">
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3">
         <v>2.75</v>
       </c>
-      <c r="R57" s="4">
+      <c r="R57" s="3">
         <v>85</v>
       </c>
-      <c r="S57" s="4">
+      <c r="S57" s="3">
         <f t="shared" si="9"/>
         <v>20.5</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>2.5</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <v>88</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <f t="shared" si="5"/>
         <v>23.5</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4">
+      <c r="D58" s="3"/>
+      <c r="E58" s="3">
         <v>2.5</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="3">
         <v>92</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="3">
         <f t="shared" si="6"/>
         <v>27.5</v>
       </c>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4">
+      <c r="H58" s="3"/>
+      <c r="I58" s="3">
         <v>2.5</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J58" s="3">
         <v>92</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K58" s="3">
         <f t="shared" si="7"/>
         <v>27.5</v>
       </c>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4">
+      <c r="L58" s="3"/>
+      <c r="M58" s="3">
         <v>2.5</v>
       </c>
-      <c r="N58" s="4">
+      <c r="N58" s="3">
         <v>85.5</v>
       </c>
-      <c r="O58" s="4">
+      <c r="O58" s="3">
         <f t="shared" si="8"/>
         <v>20.5</v>
       </c>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4">
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3">
         <v>2.5</v>
       </c>
-      <c r="R58" s="4">
+      <c r="R58" s="3">
         <v>82</v>
       </c>
-      <c r="S58" s="4">
+      <c r="S58" s="3">
         <f t="shared" si="9"/>
         <v>17.5</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>2.25</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>87</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <f t="shared" si="5"/>
         <v>22.5</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4">
+      <c r="D59" s="3"/>
+      <c r="E59" s="3">
         <v>2.25</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="3">
         <v>89.5</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="3">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4">
+      <c r="H59" s="3"/>
+      <c r="I59" s="3">
         <v>2.25</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J59" s="3">
         <v>89</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K59" s="3">
         <f t="shared" si="7"/>
         <v>24.5</v>
       </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4">
+      <c r="L59" s="3"/>
+      <c r="M59" s="3">
         <v>2.25</v>
       </c>
-      <c r="N59" s="4">
+      <c r="N59" s="3">
         <v>83</v>
       </c>
-      <c r="O59" s="4">
+      <c r="O59" s="3">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4">
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3">
         <v>2.25</v>
       </c>
-      <c r="R59" s="4">
+      <c r="R59" s="3">
         <v>80</v>
       </c>
-      <c r="S59" s="4">
+      <c r="S59" s="3">
         <f t="shared" si="9"/>
         <v>15.5</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>2</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="3">
         <v>83</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <f t="shared" si="5"/>
         <v>18.5</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4">
+      <c r="D60" s="3"/>
+      <c r="E60" s="3">
         <v>2</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="3">
         <v>86</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="3">
         <f t="shared" si="6"/>
         <v>21.5</v>
       </c>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4">
+      <c r="H60" s="3"/>
+      <c r="I60" s="3">
         <v>2</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J60" s="3">
         <v>85</v>
       </c>
-      <c r="K60" s="4">
+      <c r="K60" s="3">
         <f t="shared" si="7"/>
         <v>20.5</v>
       </c>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4">
+      <c r="L60" s="3"/>
+      <c r="M60" s="3">
         <v>2</v>
       </c>
-      <c r="N60" s="4">
+      <c r="N60" s="3">
         <v>80</v>
       </c>
-      <c r="O60" s="4">
+      <c r="O60" s="3">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4">
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3">
         <v>2</v>
       </c>
-      <c r="R60" s="4">
+      <c r="R60" s="3">
         <v>78.5</v>
       </c>
-      <c r="S60" s="4">
+      <c r="S60" s="3">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>1.5</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <v>78</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <f t="shared" si="5"/>
         <v>13.5</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4">
+      <c r="D61" s="3"/>
+      <c r="E61" s="3">
         <v>1.5</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="3">
         <v>80</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="3">
         <f t="shared" si="6"/>
         <v>15.5</v>
       </c>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4">
+      <c r="H61" s="3"/>
+      <c r="I61" s="3">
         <v>1.5</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J61" s="3">
         <v>78</v>
       </c>
-      <c r="K61" s="4">
+      <c r="K61" s="3">
         <f t="shared" si="7"/>
         <v>13.5</v>
       </c>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4">
+      <c r="L61" s="3"/>
+      <c r="M61" s="3">
         <v>1.5</v>
       </c>
-      <c r="N61" s="4">
+      <c r="N61" s="3">
         <v>76</v>
       </c>
-      <c r="O61" s="4">
+      <c r="O61" s="3">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4">
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3">
         <v>1.5</v>
       </c>
-      <c r="R61" s="4">
+      <c r="R61" s="3">
         <v>74.5</v>
       </c>
-      <c r="S61" s="4">
+      <c r="S61" s="3">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>1</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="3">
         <v>74</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4">
+      <c r="D62" s="3"/>
+      <c r="E62" s="3">
         <v>1</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="3">
         <v>75</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="3">
         <f t="shared" si="6"/>
         <v>10.5</v>
       </c>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4">
+      <c r="H62" s="3"/>
+      <c r="I62" s="3">
         <v>1</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J62" s="3">
         <v>74</v>
       </c>
-      <c r="K62" s="4">
+      <c r="K62" s="3">
         <f t="shared" si="7"/>
         <v>9.5</v>
       </c>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4">
+      <c r="L62" s="3"/>
+      <c r="M62" s="3">
         <v>1</v>
       </c>
-      <c r="N62" s="4">
+      <c r="N62" s="3">
         <v>73</v>
       </c>
-      <c r="O62" s="4">
+      <c r="O62" s="3">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4">
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3">
         <v>1</v>
       </c>
-      <c r="R62" s="4">
+      <c r="R62" s="3">
         <v>71</v>
       </c>
-      <c r="S62" s="4">
+      <c r="S62" s="3">
         <f t="shared" si="9"/>
         <v>6.5</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>0.5</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <v>70</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4">
+      <c r="D63" s="3"/>
+      <c r="E63" s="3">
         <v>0.5</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="3">
         <v>71</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="3">
         <f t="shared" si="6"/>
         <v>6.5</v>
       </c>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3">
         <v>0.5</v>
       </c>
-      <c r="J63" s="4">
+      <c r="J63" s="3">
         <v>69</v>
       </c>
-      <c r="K63" s="4">
+      <c r="K63" s="3">
         <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4">
+      <c r="L63" s="3"/>
+      <c r="M63" s="3">
         <v>0.5</v>
       </c>
-      <c r="N63" s="4">
+      <c r="N63" s="3">
         <v>69</v>
       </c>
-      <c r="O63" s="4">
+      <c r="O63" s="3">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4">
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3">
         <v>0.5</v>
       </c>
-      <c r="R63" s="4">
+      <c r="R63" s="3">
         <v>68.5</v>
       </c>
-      <c r="S63" s="4">
+      <c r="S63" s="3">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>0</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <v>66</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4">
+      <c r="D64" s="3"/>
+      <c r="E64" s="3">
         <v>0</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="3">
         <v>66</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="3">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4">
+      <c r="H64" s="3"/>
+      <c r="I64" s="3">
         <v>0</v>
       </c>
-      <c r="J64" s="4">
+      <c r="J64" s="3">
         <v>64</v>
       </c>
-      <c r="K64" s="4">
+      <c r="K64" s="3">
         <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4">
+      <c r="L64" s="3"/>
+      <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="4">
+      <c r="N64" s="3">
         <v>65</v>
       </c>
-      <c r="O64" s="4">
+      <c r="O64" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4">
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3">
         <v>0</v>
       </c>
-      <c r="R64" s="4">
+      <c r="R64" s="3">
         <v>64.5</v>
       </c>
-      <c r="S64" s="4">
+      <c r="S64" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="9"/>
+      <c r="B68" s="5"/>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2" t="s">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2" t="s">
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2" t="s">
+      <c r="L69" s="1"/>
+      <c r="M69" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N69" s="2" t="s">
+      <c r="N69" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2" t="s">
+      <c r="O69" s="1"/>
+      <c r="P69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2" t="s">
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S69" s="2"/>
+      <c r="S69" s="1"/>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4" t="s">
+      <c r="D70" s="3"/>
+      <c r="E70" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G70" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I70" t="s">
@@ -11661,31 +11660,29 @@
       <c r="P70" t="s">
         <v>20</v>
       </c>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="10" t="s">
+      <c r="R70" t="s">
         <v>34</v>
       </c>
-      <c r="S70" s="10"/>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>8</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <v>550</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <f>B71-$B$78</f>
         <v>60</v>
       </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4">
+      <c r="D71" s="3"/>
+      <c r="E71" s="3">
         <v>20</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="3">
         <v>563</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="3">
         <f>F71-$F$90</f>
         <v>91</v>
       </c>
@@ -11708,57 +11705,56 @@
       <c r="P71">
         <v>100</v>
       </c>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10">
+      <c r="R71">
         <v>39</v>
       </c>
-      <c r="S71" s="10">
+      <c r="S71">
         <f>R71/180*PI()</f>
         <v>0.68067840827778858</v>
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <v>7</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <v>547</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <f t="shared" ref="C72:C79" si="10">B72-$B$78</f>
         <v>57</v>
       </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4">
+      <c r="D72" s="3"/>
+      <c r="E72" s="3">
         <v>19</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="3">
         <v>561</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="3">
         <f t="shared" ref="G72:G91" si="11">F72-$F$90</f>
         <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <v>6</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="3">
         <v>543</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="3">
         <f t="shared" si="10"/>
         <v>53</v>
       </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4">
+      <c r="D73" s="3"/>
+      <c r="E73" s="3">
         <v>18</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="3">
         <v>560</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="3">
         <f t="shared" si="11"/>
         <v>88</v>
       </c>
@@ -11767,24 +11763,24 @@
       </c>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+      <c r="A74" s="3">
         <v>5.5</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="3">
         <v>539</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="3">
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4">
+      <c r="D74" s="3"/>
+      <c r="E74" s="3">
         <v>17</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="3">
         <v>559</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="3">
         <f t="shared" si="11"/>
         <v>87</v>
       </c>
@@ -11808,24 +11804,24 @@
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="A75" s="3">
         <v>5</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="3">
         <v>537</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="3">
         <f t="shared" si="10"/>
         <v>47</v>
       </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4">
+      <c r="D75" s="3"/>
+      <c r="E75" s="3">
         <v>16</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="3">
         <v>559</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="3">
         <f t="shared" si="11"/>
         <v>87</v>
       </c>
@@ -11867,24 +11863,24 @@
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+      <c r="A76" s="3">
         <v>4.5</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="3">
         <v>531</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <f t="shared" si="10"/>
         <v>41</v>
       </c>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4">
+      <c r="D76" s="3"/>
+      <c r="E76" s="3">
         <v>15</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="3">
         <v>558</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="3">
         <f t="shared" si="11"/>
         <v>86</v>
       </c>
@@ -11929,24 +11925,24 @@
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <v>4</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <v>500</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4">
+      <c r="D77" s="3"/>
+      <c r="E77" s="3">
         <v>14</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="3">
         <v>556</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="3">
         <f t="shared" si="11"/>
         <v>84</v>
       </c>
@@ -11963,24 +11959,24 @@
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+      <c r="A78" s="3">
         <v>3.5</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="3">
         <v>490</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4">
+      <c r="D78" s="3"/>
+      <c r="E78" s="3">
         <v>13</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="3">
         <v>554</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="3">
         <f t="shared" si="11"/>
         <v>82</v>
       </c>
@@ -12033,24 +12029,24 @@
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+      <c r="A79" s="3">
         <v>3</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="3">
         <v>480</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <f t="shared" si="10"/>
         <v>-10</v>
       </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4">
+      <c r="D79" s="3"/>
+      <c r="E79" s="3">
         <v>12</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="3">
         <v>552</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="3">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
@@ -12099,24 +12095,24 @@
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+      <c r="A80" s="3">
         <v>2.5</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="3">
         <v>457</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="3">
         <f>B80-$B$78+1</f>
         <v>-32</v>
       </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4">
+      <c r="D80" s="3"/>
+      <c r="E80" s="3">
         <v>11</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="3">
         <v>551</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="3">
         <f t="shared" si="11"/>
         <v>79</v>
       </c>
@@ -12165,17 +12161,17 @@
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3">
         <v>10</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="3">
         <v>550</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="3">
         <f t="shared" si="11"/>
         <v>78</v>
       </c>
@@ -12227,17 +12223,17 @@
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3">
         <v>9</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="3">
         <v>547</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="3">
         <f t="shared" si="11"/>
         <v>75</v>
       </c>
@@ -12286,17 +12282,17 @@
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3">
         <v>8</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="3">
         <v>545</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="3">
         <f t="shared" si="11"/>
         <v>73</v>
       </c>
@@ -12345,17 +12341,17 @@
       </c>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3">
         <v>7</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="3">
         <v>540</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G84" s="3">
         <f t="shared" si="11"/>
         <v>68</v>
       </c>
@@ -12404,17 +12400,17 @@
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3">
         <v>6</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="3">
         <v>535</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G85" s="3">
         <f t="shared" si="11"/>
         <v>63</v>
       </c>
@@ -12463,17 +12459,17 @@
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3">
         <v>5</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="3">
         <v>522</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G86" s="3">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
@@ -12522,17 +12518,17 @@
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3">
         <v>4.5</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="3">
         <v>512</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G87" s="3">
         <f t="shared" si="11"/>
         <v>40</v>
       </c>
@@ -12581,17 +12577,17 @@
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3">
         <v>4</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="3">
         <v>497</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G88" s="3">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
@@ -12640,17 +12636,17 @@
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3">
         <v>3.5</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F89" s="3">
         <v>482</v>
       </c>
-      <c r="G89" s="4">
+      <c r="G89" s="3">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
@@ -12699,17 +12695,17 @@
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3">
         <v>3</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90" s="3">
         <v>472</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G90" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -12758,17 +12754,17 @@
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3">
         <v>2.5</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="3">
         <v>465</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G91" s="3">
         <f t="shared" si="11"/>
         <v>-7</v>
       </c>
@@ -12817,17 +12813,17 @@
       </c>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3">
         <v>2.4</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F92" s="3">
         <v>462</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G92" s="3">
         <f>F92-$F$90+1</f>
         <v>-9</v>
       </c>

--- a/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s224861_dtu_dk/Documents/Mekanisk produktanalyse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC1DCC8-34A0-4137-9D50-131440A6B735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2E48BB1-3BF9-4749-8B5A-82BE28D2355B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,35 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Ark1'!$Q$153</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Ark1'!$V$153</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
   <si>
     <t>ubelastet længde</t>
   </si>
@@ -146,9 +175,6 @@
     <t>grader</t>
   </si>
   <si>
-    <t>tid hop</t>
-  </si>
-  <si>
     <t>X max hop</t>
   </si>
   <si>
@@ -181,6 +207,33 @@
   <si>
     <t>3.3 Affyringsrampe</t>
   </si>
+  <si>
+    <t>2stk ny elastik</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Radianer</t>
+  </si>
+  <si>
+    <t>Optimal grader</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>E pot tab</t>
+  </si>
+  <si>
+    <t>Længde på kast</t>
+  </si>
+  <si>
+    <t>Den perfekte højde og vinkel</t>
+  </si>
+  <si>
+    <t>Det optimale</t>
+  </si>
 </sst>
 </file>
 
@@ -209,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,8 +281,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -237,11 +296,145 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -264,6 +457,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8392,50 +8600,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE102"/>
+  <dimension ref="A1:AE186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T85" sqref="T85"/>
+    <sheetView tabSelected="1" topLeftCell="F78" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Z147" sqref="Z147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -8826,10 +9039,10 @@
         <v>350</v>
       </c>
       <c r="AC10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD10" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="AD10" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -10002,31 +10215,31 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -11581,7 +11794,7 @@
     </row>
     <row r="68" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B68" s="5"/>
     </row>
@@ -11921,7 +12134,7 @@
         <v>23</v>
       </c>
       <c r="AE76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
@@ -13002,7 +13215,7 @@
         <v>7.684944697263604</v>
       </c>
       <c r="AB95">
-        <f t="shared" si="21"/>
+        <f>SQRT((4*($T95-$U$78))/(($M$71+$N$71)*0.001))</f>
         <v>7.0521889099096473</v>
       </c>
     </row>
@@ -13047,7 +13260,7 @@
         <v>8.3445154143305391</v>
       </c>
       <c r="AB96">
-        <f t="shared" si="21"/>
+        <f>SQRT((4*($T96-$U$78))/(($M$71+$N$71)*0.001))</f>
         <v>7.6574525102914217</v>
       </c>
     </row>
@@ -13092,13 +13305,13 @@
         <v>9.0927031184351321</v>
       </c>
       <c r="AB97">
-        <f t="shared" si="21"/>
+        <f>SQRT((4*($T97-$U$78))/(($M$71+$N$71)*0.001))</f>
         <v>8.344036635131765</v>
       </c>
     </row>
     <row r="100" spans="16:28" x14ac:dyDescent="0.25">
       <c r="U100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W100">
         <f t="shared" ref="W100:AB100" si="22">(COS($S$71)*W97)*(SIN($S$71)*W97+SQRT(SIN($S$71)^2+2*9.81*$P$71*0.001))/9.81</f>
@@ -13121,13 +13334,2002 @@
         <v>5.2279635124640214</v>
       </c>
       <c r="AB100">
-        <f t="shared" si="22"/>
+        <f>(COS($S$71)*AB97)*(SIN($S$71)*AB97+SQRT(SIN($S$71)^2+2*9.81*$P$71*0.001))/9.81</f>
         <v>4.4860715035399821</v>
       </c>
     </row>
-    <row r="102" spans="16:28" x14ac:dyDescent="0.25">
-      <c r="U102" t="s">
-        <v>35</v>
+    <row r="102" spans="16:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="16:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P103" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q103" s="18"/>
+      <c r="R103" s="18"/>
+      <c r="S103" s="12"/>
+      <c r="T103" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U103" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="V103" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="16:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P104" s="19"/>
+      <c r="Q104" s="20"/>
+      <c r="R104" s="20"/>
+      <c r="S104" s="15"/>
+      <c r="T104" s="20"/>
+      <c r="U104" s="16"/>
+      <c r="V104" s="21"/>
+    </row>
+    <row r="105" spans="16:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P105" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q105" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="R105" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="S105" s="12"/>
+      <c r="T105" s="22"/>
+      <c r="U105" s="15"/>
+      <c r="V105" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="16:28" x14ac:dyDescent="0.25">
+      <c r="P106" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q106" s="11">
+        <v>41.999186012599559</v>
+      </c>
+      <c r="R106" s="11">
+        <f>Q106/180*PI()</f>
+        <v>0.73302407907741096</v>
+      </c>
+      <c r="T106">
+        <f>P106*$M$71*9.81*0.000001</f>
+        <v>3.1391999999999996E-2</v>
+      </c>
+      <c r="U106" s="11">
+        <f>SQRT((4*($T$96-T106))/(($M$71+$N$71)*0.001))</f>
+        <v>7.6574525102914217</v>
+      </c>
+      <c r="V106">
+        <f>(COS(R106)*U106)*(SIN(R106)*U106+SQRT(SIN(R106)^2+2*9.81*P106*0.001))/9.81</f>
+        <v>3.8727194185142624</v>
+      </c>
+    </row>
+    <row r="107" spans="16:28" x14ac:dyDescent="0.25">
+      <c r="P107" s="11">
+        <v>105</v>
+      </c>
+      <c r="Q107" s="11">
+        <v>41.907916079703725</v>
+      </c>
+      <c r="R107" s="11">
+        <f>Q107/180*PI()</f>
+        <v>0.73143111824030438</v>
+      </c>
+      <c r="T107">
+        <f t="shared" ref="T107:T170" si="23">P107*$M$71*9.81*0.000001</f>
+        <v>3.2961599999999994E-2</v>
+      </c>
+      <c r="U107" s="11">
+        <f t="shared" ref="U107:U170" si="24">SQRT((4*($T$96-T107))/(($M$71+$N$71)*0.001))</f>
+        <v>7.6466566481526304</v>
+      </c>
+      <c r="V107">
+        <f t="shared" ref="V107:V170" si="25">(COS(R107)*U107)*(SIN(R107)*U107+SQRT(SIN(R107)^2+2*9.81*P107*0.001))/9.81</f>
+        <v>3.8812126237727815</v>
+      </c>
+    </row>
+    <row r="108" spans="16:28" x14ac:dyDescent="0.25">
+      <c r="P108" s="11">
+        <v>110</v>
+      </c>
+      <c r="Q108" s="11">
+        <v>41.818816270109949</v>
+      </c>
+      <c r="R108" s="11">
+        <f t="shared" ref="R108:R171" si="26">Q108/180*PI()</f>
+        <v>0.72987603319999295</v>
+      </c>
+      <c r="T108">
+        <f t="shared" si="23"/>
+        <v>3.4531200000000005E-2</v>
+      </c>
+      <c r="U108" s="11">
+        <f t="shared" si="24"/>
+        <v>7.6358455224097641</v>
+      </c>
+      <c r="V108">
+        <f t="shared" si="25"/>
+        <v>3.8893337157262691</v>
+      </c>
+    </row>
+    <row r="109" spans="16:28" x14ac:dyDescent="0.25">
+      <c r="P109" s="11">
+        <v>115</v>
+      </c>
+      <c r="Q109" s="11">
+        <v>41.731734358584788</v>
+      </c>
+      <c r="R109" s="11">
+        <f t="shared" si="26"/>
+        <v>0.72835616712494855</v>
+      </c>
+      <c r="T109">
+        <f t="shared" si="23"/>
+        <v>3.6100800000000002E-2</v>
+      </c>
+      <c r="U109" s="11">
+        <f t="shared" si="24"/>
+        <v>7.6250190681383652</v>
+      </c>
+      <c r="V109">
+        <f t="shared" si="25"/>
+        <v>3.8971013192635948</v>
+      </c>
+    </row>
+    <row r="110" spans="16:28" x14ac:dyDescent="0.25">
+      <c r="P110" s="11">
+        <v>120</v>
+      </c>
+      <c r="Q110" s="11">
+        <v>41.646532921356958</v>
+      </c>
+      <c r="R110" s="11">
+        <f t="shared" si="26"/>
+        <v>0.72686912151789163</v>
+      </c>
+      <c r="T110">
+        <f t="shared" si="23"/>
+        <v>3.76704E-2</v>
+      </c>
+      <c r="U110" s="11">
+        <f t="shared" si="24"/>
+        <v>7.6141772199524018</v>
+      </c>
+      <c r="V110">
+        <f t="shared" si="25"/>
+        <v>3.9045324522837372</v>
+      </c>
+    </row>
+    <row r="111" spans="16:28" x14ac:dyDescent="0.25">
+      <c r="P111" s="11">
+        <v>125</v>
+      </c>
+      <c r="Q111" s="11">
+        <v>41.563087275400115</v>
+      </c>
+      <c r="R111" s="11">
+        <f t="shared" si="26"/>
+        <v>0.72541272024949111</v>
+      </c>
+      <c r="T111">
+        <f t="shared" si="23"/>
+        <v>3.9239999999999997E-2</v>
+      </c>
+      <c r="U111" s="11">
+        <f t="shared" si="24"/>
+        <v>7.6033199119996597</v>
+      </c>
+      <c r="V111">
+        <f t="shared" si="25"/>
+        <v>3.9116427138300871</v>
+      </c>
+    </row>
+    <row r="112" spans="16:28" x14ac:dyDescent="0.25">
+      <c r="P112" s="11">
+        <v>130</v>
+      </c>
+      <c r="Q112" s="11">
+        <v>41.481287511143876</v>
+      </c>
+      <c r="R112" s="11">
+        <f t="shared" si="26"/>
+        <v>0.72398504503586458</v>
+      </c>
+      <c r="T112">
+        <f t="shared" si="23"/>
+        <v>4.0809599999999994E-2</v>
+      </c>
+      <c r="U112" s="11">
+        <f t="shared" si="24"/>
+        <v>7.5924470779570754</v>
+      </c>
+      <c r="V112">
+        <f t="shared" si="25"/>
+        <v>3.9184464447851206</v>
+      </c>
+    </row>
+    <row r="113" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P113" s="11">
+        <v>135</v>
+      </c>
+      <c r="Q113" s="11">
+        <v>41.401032109325385</v>
+      </c>
+      <c r="R113" s="11">
+        <f t="shared" si="26"/>
+        <v>0.72258432403162098</v>
+      </c>
+      <c r="T113">
+        <f t="shared" si="23"/>
+        <v>4.2379200000000006E-2</v>
+      </c>
+      <c r="U113" s="11">
+        <f t="shared" si="24"/>
+        <v>7.5815586510260102</v>
+      </c>
+      <c r="V113">
+        <f t="shared" si="25"/>
+        <v>3.9249568658636802</v>
+      </c>
+    </row>
+    <row r="114" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P114" s="11">
+        <v>140</v>
+      </c>
+      <c r="Q114" s="11">
+        <v>41.322229052419722</v>
+      </c>
+      <c r="R114" s="11">
+        <f t="shared" si="26"/>
+        <v>0.72120895122798068</v>
+      </c>
+      <c r="T114">
+        <f t="shared" si="23"/>
+        <v>4.3948800000000003E-2</v>
+      </c>
+      <c r="U114" s="11">
+        <f t="shared" si="24"/>
+        <v>7.5706545639274658</v>
+      </c>
+      <c r="V114">
+        <f>(COS(R114)*U114)*(SIN(R114)*U114+SQRT(SIN(R114)^2+2*9.81*P114*0.001))/9.81</f>
+        <v>3.9311861967058874</v>
+      </c>
+    </row>
+    <row r="115" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P115" s="11">
+        <v>145</v>
+      </c>
+      <c r="Q115" s="11">
+        <v>41.244794215677523</v>
+      </c>
+      <c r="R115" s="11">
+        <f t="shared" si="26"/>
+        <v>0.71985745837108495</v>
+      </c>
+      <c r="T115">
+        <f t="shared" si="23"/>
+        <v>4.5518400000000001E-2</v>
+      </c>
+      <c r="U115" s="11">
+        <f t="shared" si="24"/>
+        <v>7.5597347488972257</v>
+      </c>
+      <c r="V115">
+        <f t="shared" si="25"/>
+        <v>3.9371457591409165</v>
+      </c>
+    </row>
+    <row r="116" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P116" s="11">
+        <v>150</v>
+      </c>
+      <c r="Q116" s="11">
+        <v>41.168650647625526</v>
+      </c>
+      <c r="R116" s="11">
+        <f t="shared" si="26"/>
+        <v>0.71852850240436128</v>
+      </c>
+      <c r="T116">
+        <f t="shared" si="23"/>
+        <v>4.7087999999999998E-2</v>
+      </c>
+      <c r="U116" s="11">
+        <f t="shared" si="24"/>
+        <v>7.5487991376809473</v>
+      </c>
+      <c r="V116">
+        <f t="shared" si="25"/>
+        <v>3.9428460671200982</v>
+      </c>
+    </row>
+    <row r="117" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P117" s="11">
+        <v>155</v>
+      </c>
+      <c r="Q117" s="11">
+        <v>41.093727574393519</v>
+      </c>
+      <c r="R117" s="11">
+        <f t="shared" si="26"/>
+        <v>0.71722084809074993</v>
+      </c>
+      <c r="T117">
+        <f t="shared" si="23"/>
+        <v>4.8657600000000002E-2</v>
+      </c>
+      <c r="U117" s="11">
+        <f t="shared" si="24"/>
+        <v>7.5378476615291872</v>
+      </c>
+      <c r="V117">
+        <f t="shared" si="25"/>
+        <v>3.9482969053648036</v>
+      </c>
+    </row>
+    <row r="118" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P118" s="11">
+        <v>160</v>
+      </c>
+      <c r="Q118" s="11">
+        <v>41.019959917237287</v>
+      </c>
+      <c r="R118" s="11">
+        <f t="shared" si="26"/>
+        <v>0.71593335959189131</v>
+      </c>
+      <c r="T118">
+        <f t="shared" si="23"/>
+        <v>5.02272E-2</v>
+      </c>
+      <c r="U118" s="11">
+        <f t="shared" si="24"/>
+        <v>7.5268802511923525</v>
+      </c>
+      <c r="V118">
+        <f t="shared" si="25"/>
+        <v>3.9535073984137048</v>
+      </c>
+    </row>
+    <row r="119" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P119" s="11">
+        <v>165</v>
+      </c>
+      <c r="Q119" s="11">
+        <v>40.947287598383824</v>
+      </c>
+      <c r="R119" s="11">
+        <f t="shared" si="26"/>
+        <v>0.71466498835283931</v>
+      </c>
+      <c r="T119">
+        <f t="shared" si="23"/>
+        <v>5.1796800000000004E-2</v>
+      </c>
+      <c r="U119" s="11">
+        <f t="shared" si="24"/>
+        <v>7.515896836915597</v>
+      </c>
+      <c r="V119">
+        <f t="shared" si="25"/>
+        <v>3.9584860714647165</v>
+      </c>
+    </row>
+    <row r="120" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P120" s="11">
+        <v>170</v>
+      </c>
+      <c r="Q120" s="11">
+        <v>40.875655044554172</v>
+      </c>
+      <c r="R120" s="11">
+        <f t="shared" si="26"/>
+        <v>0.71341476443689977</v>
+      </c>
+      <c r="T120">
+        <f t="shared" si="23"/>
+        <v>5.3366400000000001E-2</v>
+      </c>
+      <c r="U120" s="11">
+        <f t="shared" si="24"/>
+        <v>7.5048973484336408</v>
+      </c>
+      <c r="V120">
+        <f t="shared" si="25"/>
+        <v>3.9632409041733787</v>
+      </c>
+    </row>
+    <row r="121" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P121" s="11">
+        <v>175</v>
+      </c>
+      <c r="Q121" s="11">
+        <v>40.805010736160824</v>
+      </c>
+      <c r="R121" s="11">
+        <f t="shared" si="26"/>
+        <v>0.71218178865764159</v>
+      </c>
+      <c r="T121">
+        <f t="shared" si="23"/>
+        <v>5.4935999999999999E-2</v>
+      </c>
+      <c r="U121" s="11">
+        <f t="shared" si="24"/>
+        <v>7.4938817149655303</v>
+      </c>
+      <c r="V121">
+        <f t="shared" si="25"/>
+        <v>3.9677793783799422</v>
+      </c>
+    </row>
+    <row r="122" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P122" s="11">
+        <v>180</v>
+      </c>
+      <c r="Q122" s="11">
+        <v>40.735306811419633</v>
+      </c>
+      <c r="R122" s="11">
+        <f t="shared" si="26"/>
+        <v>0.71096522566934539</v>
+      </c>
+      <c r="T122">
+        <f t="shared" si="23"/>
+        <v>5.6505600000000003E-2</v>
+      </c>
+      <c r="U122" s="11">
+        <f t="shared" si="24"/>
+        <v>7.4828498652093192</v>
+      </c>
+      <c r="V122">
+        <f t="shared" si="25"/>
+        <v>3.9721085205826432</v>
+      </c>
+    </row>
+    <row r="123" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P123" s="11">
+        <v>185</v>
+      </c>
+      <c r="Q123" s="11">
+        <v>40.666498718326196</v>
+      </c>
+      <c r="R123" s="11">
+        <f t="shared" si="26"/>
+        <v>0.70976429789284623</v>
+      </c>
+      <c r="T123">
+        <f t="shared" si="23"/>
+        <v>5.80752E-2</v>
+      </c>
+      <c r="U123" s="11">
+        <f t="shared" si="24"/>
+        <v>7.4718017273366906</v>
+      </c>
+      <c r="V123">
+        <f t="shared" si="25"/>
+        <v>3.976234939847676</v>
+      </c>
+    </row>
+    <row r="124" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P124" s="11">
+        <v>190</v>
+      </c>
+      <c r="Q124" s="11">
+        <v>40.598544907246151</v>
+      </c>
+      <c r="R124" s="11">
+        <f t="shared" si="26"/>
+        <v>0.70857828015022117</v>
+      </c>
+      <c r="T124">
+        <f t="shared" si="23"/>
+        <v>5.9644799999999998E-2</v>
+      </c>
+      <c r="U124" s="11">
+        <f t="shared" si="24"/>
+        <v>7.4607372289874929</v>
+      </c>
+      <c r="V124">
+        <f t="shared" si="25"/>
+        <v>3.9801648617415704</v>
+      </c>
+    </row>
+    <row r="125" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P125" s="11">
+        <v>195</v>
+      </c>
+      <c r="Q125" s="11">
+        <v>40.531406558789719</v>
+      </c>
+      <c r="R125" s="11">
+        <f t="shared" si="26"/>
+        <v>0.70740649491530516</v>
+      </c>
+      <c r="T125">
+        <f t="shared" si="23"/>
+        <v>6.1214400000000002E-2</v>
+      </c>
+      <c r="U125" s="11">
+        <f t="shared" si="24"/>
+        <v>7.4496562972642169</v>
+      </c>
+      <c r="V125">
+        <f t="shared" si="25"/>
+        <v>3.98390415878487</v>
+      </c>
+    </row>
+    <row r="126" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P126" s="11">
+        <v>200</v>
+      </c>
+      <c r="Q126" s="11">
+        <v>40.465047341999046</v>
+      </c>
+      <c r="R126" s="11">
+        <f t="shared" si="26"/>
+        <v>0.70624830809326333</v>
+      </c>
+      <c r="T126">
+        <f t="shared" si="23"/>
+        <v>6.2783999999999993E-2</v>
+      </c>
+      <c r="U126" s="11">
+        <f t="shared" si="24"/>
+        <v>7.4385588587263882</v>
+      </c>
+      <c r="V126">
+        <f t="shared" si="25"/>
+        <v>3.9874583778536432</v>
+      </c>
+    </row>
+    <row r="127" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P127" s="11">
+        <v>205</v>
+      </c>
+      <c r="Q127" s="11">
+        <v>40.399433199116586</v>
+      </c>
+      <c r="R127" s="11">
+        <f t="shared" si="26"/>
+        <v>0.70510312526409036</v>
+      </c>
+      <c r="T127">
+        <f t="shared" si="23"/>
+        <v>6.4353599999999997E-2</v>
+      </c>
+      <c r="U127" s="11">
+        <f t="shared" si="24"/>
+        <v>7.4274448393848909</v>
+      </c>
+      <c r="V127">
+        <f t="shared" si="25"/>
+        <v>3.9908327648949204</v>
+      </c>
+    </row>
+    <row r="128" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P128" s="11">
+        <v>210</v>
+      </c>
+      <c r="Q128" s="11">
+        <v>40.334523006166961</v>
+      </c>
+      <c r="R128" s="11">
+        <f t="shared" si="26"/>
+        <v>0.7039702286790146</v>
+      </c>
+      <c r="T128">
+        <f t="shared" si="23"/>
+        <v>6.5923199999999987E-2</v>
+      </c>
+      <c r="U128" s="11">
+        <f t="shared" si="24"/>
+        <v>7.4163141646962112</v>
+      </c>
+      <c r="V128">
+        <f t="shared" si="25"/>
+        <v>3.9940322872707057</v>
+      </c>
+    </row>
+    <row r="129" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P129" s="11">
+        <v>215</v>
+      </c>
+      <c r="Q129" s="11">
+        <v>40.270290968452017</v>
+      </c>
+      <c r="R129" s="11">
+        <f t="shared" si="26"/>
+        <v>0.70284916813562359</v>
+      </c>
+      <c r="T129">
+        <f t="shared" si="23"/>
+        <v>6.7492800000000006E-2</v>
+      </c>
+      <c r="U129" s="11">
+        <f t="shared" si="24"/>
+        <v>7.4051667595566064</v>
+      </c>
+      <c r="V129">
+        <f t="shared" si="25"/>
+        <v>3.9970616540052064</v>
+      </c>
+    </row>
+    <row r="130" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P130" s="11">
+        <v>220</v>
+      </c>
+      <c r="Q130" s="11">
+        <v>40.206759596680286</v>
+      </c>
+      <c r="R130" s="11">
+        <f t="shared" si="26"/>
+        <v>0.70174033651989831</v>
+      </c>
+      <c r="T130">
+        <f t="shared" si="23"/>
+        <v>6.906240000000001E-2</v>
+      </c>
+      <c r="U130" s="11">
+        <f t="shared" si="24"/>
+        <v>7.3940025482961875</v>
+      </c>
+      <c r="V130">
+        <f t="shared" si="25"/>
+        <v>3.999925334172922</v>
+      </c>
+    </row>
+    <row r="131" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P131" s="11">
+        <v>225</v>
+      </c>
+      <c r="Q131" s="11">
+        <v>40.14382203682824</v>
+      </c>
+      <c r="R131" s="11">
+        <f t="shared" si="26"/>
+        <v>0.70064186887730906</v>
+      </c>
+      <c r="T131">
+        <f t="shared" si="23"/>
+        <v>7.0632E-2</v>
+      </c>
+      <c r="U131" s="11">
+        <f t="shared" si="24"/>
+        <v>7.3828214546729303</v>
+      </c>
+      <c r="V131">
+        <f t="shared" si="25"/>
+        <v>4.0026275736113046</v>
+      </c>
+    </row>
+    <row r="132" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P132" s="11">
+        <v>230</v>
+      </c>
+      <c r="Q132" s="11">
+        <v>40.081486302593618</v>
+      </c>
+      <c r="R132" s="11">
+        <f t="shared" si="26"/>
+        <v>0.69955390507326687</v>
+      </c>
+      <c r="T132">
+        <f t="shared" si="23"/>
+        <v>7.2201600000000005E-2</v>
+      </c>
+      <c r="U132" s="11">
+        <f t="shared" si="24"/>
+        <v>7.3716234018666036</v>
+      </c>
+      <c r="V132">
+        <f t="shared" si="25"/>
+        <v>4.0051724101881483</v>
+      </c>
+    </row>
+    <row r="133" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P133" s="11">
+        <v>235</v>
+      </c>
+      <c r="Q133" s="11">
+        <v>40.019729617275566</v>
+      </c>
+      <c r="R133" s="11">
+        <f t="shared" si="26"/>
+        <v>0.69847604757934878</v>
+      </c>
+      <c r="T133">
+        <f t="shared" si="23"/>
+        <v>7.3771199999999995E-2</v>
+      </c>
+      <c r="U133" s="11">
+        <f t="shared" si="24"/>
+        <v>7.3604083124726012</v>
+      </c>
+      <c r="V133">
+        <f t="shared" si="25"/>
+        <v>4.007563687719828</v>
+      </c>
+    </row>
+    <row r="134" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P134" s="11">
+        <v>240</v>
+      </c>
+      <c r="Q134" s="11">
+        <v>39.958528921826833</v>
+      </c>
+      <c r="R134" s="11">
+        <f t="shared" si="26"/>
+        <v>0.69740789393925806</v>
+      </c>
+      <c r="T134">
+        <f t="shared" si="23"/>
+        <v>7.5340799999999999E-2</v>
+      </c>
+      <c r="U134" s="11">
+        <f t="shared" si="24"/>
+        <v>7.3491761084957128</v>
+      </c>
+      <c r="V134">
+        <f t="shared" si="25"/>
+        <v>4.009805068718209</v>
+      </c>
+    </row>
+    <row r="135" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P135" s="11">
+        <v>245</v>
+      </c>
+      <c r="Q135" s="11">
+        <v>39.897862223339139</v>
+      </c>
+      <c r="R135" s="11">
+        <f t="shared" si="26"/>
+        <v>0.69634906030433319</v>
+      </c>
+      <c r="T135">
+        <f t="shared" si="23"/>
+        <v>7.6910400000000004E-2</v>
+      </c>
+      <c r="U135" s="11">
+        <f t="shared" si="24"/>
+        <v>7.3379267113437843</v>
+      </c>
+      <c r="V135">
+        <f t="shared" si="25"/>
+        <v>4.0119000460724781</v>
+      </c>
+    </row>
+    <row r="136" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P136" s="11">
+        <v>250</v>
+      </c>
+      <c r="Q136" s="11">
+        <v>39.837710039604033</v>
+      </c>
+      <c r="R136" s="11">
+        <f t="shared" si="26"/>
+        <v>0.69529920664589095</v>
+      </c>
+      <c r="T136">
+        <f t="shared" si="23"/>
+        <v>7.8479999999999994E-2</v>
+      </c>
+      <c r="U136" s="11">
+        <f t="shared" si="24"/>
+        <v>7.3266600418213095</v>
+      </c>
+      <c r="V136">
+        <f t="shared" si="25"/>
+        <v>4.0138519537746067</v>
+      </c>
+    </row>
+    <row r="137" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P137" s="11">
+        <v>255</v>
+      </c>
+      <c r="Q137" s="11">
+        <v>39.778052940819954</v>
+      </c>
+      <c r="R137" s="11">
+        <f t="shared" si="26"/>
+        <v>0.69425799384992126</v>
+      </c>
+      <c r="T137">
+        <f t="shared" si="23"/>
+        <v>8.0049599999999999E-2</v>
+      </c>
+      <c r="U137" s="11">
+        <f t="shared" si="24"/>
+        <v>7.3153760201229208</v>
+      </c>
+      <c r="V137">
+        <f t="shared" si="25"/>
+        <v>4.0156639767825251</v>
+      </c>
+    </row>
+    <row r="138" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P138" s="11">
+        <v>260</v>
+      </c>
+      <c r="Q138" s="11">
+        <v>39.718872162346138</v>
+      </c>
+      <c r="R138" s="11">
+        <f t="shared" si="26"/>
+        <v>0.6932250944116598</v>
+      </c>
+      <c r="T138">
+        <f t="shared" si="23"/>
+        <v>8.1619199999999989E-2</v>
+      </c>
+      <c r="U138" s="11">
+        <f t="shared" si="24"/>
+        <v>7.3040745658267943</v>
+      </c>
+      <c r="V138">
+        <f t="shared" si="25"/>
+        <v>4.0173391601043527</v>
+      </c>
+    </row>
+    <row r="139" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P139" s="11">
+        <v>265</v>
+      </c>
+      <c r="Q139" s="11">
+        <v>39.66015046371863</v>
+      </c>
+      <c r="R139" s="11">
+        <f t="shared" si="26"/>
+        <v>0.69220020742824595</v>
+      </c>
+      <c r="T139">
+        <f t="shared" si="23"/>
+        <v>8.3188799999999993E-2</v>
+      </c>
+      <c r="U139" s="11">
+        <f t="shared" si="24"/>
+        <v>7.2927555978879681</v>
+      </c>
+      <c r="V139">
+        <f t="shared" si="25"/>
+        <v>4.0188804171776837</v>
+      </c>
+    </row>
+    <row r="140" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P140" s="11">
+        <v>270</v>
+      </c>
+      <c r="Q140" s="11">
+        <v>39.601871074138373</v>
+      </c>
+      <c r="R140" s="11">
+        <f t="shared" si="26"/>
+        <v>0.69118304019401799</v>
+      </c>
+      <c r="T140">
+        <f t="shared" si="23"/>
+        <v>8.4758400000000012E-2</v>
+      </c>
+      <c r="U140" s="11">
+        <f t="shared" si="24"/>
+        <v>7.2814190346315542</v>
+      </c>
+      <c r="V140">
+        <f t="shared" si="25"/>
+        <v>4.0202905376096911</v>
+      </c>
+    </row>
+    <row r="141" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P141" s="11">
+        <v>275</v>
+      </c>
+      <c r="Q141" s="11">
+        <v>39.544018501085837</v>
+      </c>
+      <c r="R141" s="11">
+        <f t="shared" si="26"/>
+        <v>0.6901733223135007</v>
+      </c>
+      <c r="T141">
+        <f t="shared" si="23"/>
+        <v>8.6328000000000002E-2</v>
+      </c>
+      <c r="U141" s="11">
+        <f t="shared" si="24"/>
+        <v>7.2700647937458678</v>
+      </c>
+      <c r="V141">
+        <f t="shared" si="25"/>
+        <v>4.0215721943367519</v>
+      </c>
+    </row>
+    <row r="142" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P142" s="11">
+        <v>280</v>
+      </c>
+      <c r="Q142" s="11">
+        <v>39.48657720663077</v>
+      </c>
+      <c r="R142" s="11">
+        <f t="shared" si="26"/>
+        <v>0.68917078259865228</v>
+      </c>
+      <c r="T142">
+        <f t="shared" si="23"/>
+        <v>8.7897600000000006E-2</v>
+      </c>
+      <c r="U142" s="11">
+        <f t="shared" si="24"/>
+        <v>7.2586927922754487</v>
+      </c>
+      <c r="V142">
+        <f t="shared" si="25"/>
+        <v>4.0227279502559661</v>
+      </c>
+    </row>
+    <row r="143" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P143" s="11">
+        <v>285</v>
+      </c>
+      <c r="Q143" s="11">
+        <v>39.429532836908479</v>
+      </c>
+      <c r="R143" s="11">
+        <f t="shared" si="26"/>
+        <v>0.68817517052727328</v>
+      </c>
+      <c r="T143">
+        <f t="shared" si="23"/>
+        <v>8.9467200000000011E-2</v>
+      </c>
+      <c r="U143" s="11">
+        <f t="shared" si="24"/>
+        <v>7.2473029466140009</v>
+      </c>
+      <c r="V143">
+        <f t="shared" si="25"/>
+        <v>4.0237602643754844</v>
+      </c>
+    </row>
+    <row r="144" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P144" s="11">
+        <v>290</v>
+      </c>
+      <c r="Q144" s="11">
+        <v>39.372871477336616</v>
+      </c>
+      <c r="R144" s="11">
+        <f t="shared" si="26"/>
+        <v>0.68718624324408784</v>
+      </c>
+      <c r="T144">
+        <f t="shared" si="23"/>
+        <v>9.1036800000000001E-2</v>
+      </c>
+      <c r="U144" s="11">
+        <f t="shared" si="24"/>
+        <v>7.2358951724972078</v>
+      </c>
+      <c r="V144">
+        <f t="shared" si="25"/>
+        <v>4.0246714975256506</v>
+      </c>
+    </row>
+    <row r="145" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="P145" s="11">
+        <v>295</v>
+      </c>
+      <c r="Q145" s="11">
+        <v>39.316580079298681</v>
+      </c>
+      <c r="R145" s="11">
+        <f t="shared" si="26"/>
+        <v>0.68620377300777524</v>
+      </c>
+      <c r="T145">
+        <f t="shared" si="23"/>
+        <v>9.2606400000000005E-2</v>
+      </c>
+      <c r="U145" s="11">
+        <f t="shared" si="24"/>
+        <v>7.2244693849954702</v>
+      </c>
+      <c r="V145">
+        <f t="shared" si="25"/>
+        <v>4.025463917668783</v>
+      </c>
+    </row>
+    <row r="146" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="P146" s="11">
+        <v>300</v>
+      </c>
+      <c r="Q146" s="11">
+        <v>39.260645671752819</v>
+      </c>
+      <c r="R146" s="11">
+        <f t="shared" si="26"/>
+        <v>0.68522753343094756</v>
+      </c>
+      <c r="T146">
+        <f t="shared" si="23"/>
+        <v>9.4175999999999996E-2</v>
+      </c>
+      <c r="U146" s="11">
+        <f t="shared" si="24"/>
+        <v>7.2130254985065205</v>
+      </c>
+      <c r="V146">
+        <f t="shared" si="25"/>
+        <v>4.0261397048415084</v>
+      </c>
+    </row>
+    <row r="147" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="P147" s="11">
+        <v>305</v>
+      </c>
+      <c r="Q147" s="11">
+        <v>39.205056309168953</v>
+      </c>
+      <c r="R147" s="11">
+        <f t="shared" si="26"/>
+        <v>0.68425731602477413</v>
+      </c>
+      <c r="T147">
+        <f t="shared" si="23"/>
+        <v>9.57456E-2</v>
+      </c>
+      <c r="U147" s="11">
+        <f t="shared" si="24"/>
+        <v>7.2015634267479491</v>
+      </c>
+      <c r="V147">
+        <f t="shared" si="25"/>
+        <v>4.0267009557603552</v>
+      </c>
+    </row>
+    <row r="148" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="P148" s="11">
+        <v>310</v>
+      </c>
+      <c r="Q148" s="11">
+        <v>39.149800153958267</v>
+      </c>
+      <c r="R148" s="11">
+        <f t="shared" si="26"/>
+        <v>0.68329291418435478</v>
+      </c>
+      <c r="T148">
+        <f t="shared" si="23"/>
+        <v>9.7315200000000004E-2</v>
+      </c>
+      <c r="U148" s="11">
+        <f t="shared" si="24"/>
+        <v>7.1900830827496067</v>
+      </c>
+      <c r="V148">
+        <f t="shared" si="25"/>
+        <v>4.0271496881181745</v>
+      </c>
+    </row>
+    <row r="149" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="P149" s="11">
+        <v>315</v>
+      </c>
+      <c r="Q149" s="11">
+        <v>39.09486602820963</v>
+      </c>
+      <c r="R149" s="11">
+        <f t="shared" si="26"/>
+        <v>0.68233413281833633</v>
+      </c>
+      <c r="T149">
+        <f t="shared" si="23"/>
+        <v>9.8884799999999995E-2</v>
+      </c>
+      <c r="U149" s="11">
+        <f t="shared" si="24"/>
+        <v>7.1785843788459092</v>
+      </c>
+      <c r="V149">
+        <f t="shared" si="25"/>
+        <v>4.0274878445964806</v>
+      </c>
+    </row>
+    <row r="150" spans="15:24" x14ac:dyDescent="0.25">
+      <c r="P150" s="11">
+        <v>320</v>
+      </c>
+      <c r="Q150" s="11">
+        <v>39.377690812502586</v>
+      </c>
+      <c r="R150" s="11">
+        <f t="shared" si="26"/>
+        <v>0.68727035651049118</v>
+      </c>
+      <c r="T150">
+        <f t="shared" si="23"/>
+        <v>0.1004544</v>
+      </c>
+      <c r="U150" s="11">
+        <f t="shared" si="24"/>
+        <v>7.1670672266680278</v>
+      </c>
+      <c r="V150">
+        <f t="shared" si="25"/>
+        <v>4.027511652365054</v>
+      </c>
+    </row>
+    <row r="151" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P151" s="11">
+        <v>325</v>
+      </c>
+      <c r="Q151" s="11">
+        <v>38.985921157995747</v>
+      </c>
+      <c r="R151" s="11">
+        <f t="shared" si="26"/>
+        <v>0.68043268612994623</v>
+      </c>
+      <c r="T151">
+        <f t="shared" si="23"/>
+        <v>0.10202399999999999</v>
+      </c>
+      <c r="U151" s="11">
+        <f t="shared" si="24"/>
+        <v>7.1555315371359622</v>
+      </c>
+      <c r="V151">
+        <f t="shared" si="25"/>
+        <v>4.0278398478480364</v>
+      </c>
+    </row>
+    <row r="152" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O152" s="24"/>
+      <c r="P152" s="12">
+        <v>330</v>
+      </c>
+      <c r="Q152" s="12">
+        <v>38.931889718650702</v>
+      </c>
+      <c r="R152" s="12">
+        <f t="shared" si="26"/>
+        <v>0.6794896596137836</v>
+      </c>
+      <c r="S152" s="13"/>
+      <c r="T152" s="13">
+        <f t="shared" si="23"/>
+        <v>0.10359360000000001</v>
+      </c>
+      <c r="U152" s="12">
+        <f t="shared" si="24"/>
+        <v>7.1439772204505081</v>
+      </c>
+      <c r="V152" s="13">
+        <f t="shared" si="25"/>
+        <v>4.0278572374992159</v>
+      </c>
+      <c r="W152" s="14"/>
+      <c r="X152" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="153" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P153" s="11">
+        <v>335</v>
+      </c>
+      <c r="Q153" s="11">
+        <v>38.878140284010129</v>
+      </c>
+      <c r="R153" s="10">
+        <f t="shared" si="26"/>
+        <v>0.67855155500822006</v>
+      </c>
+      <c r="T153">
+        <f t="shared" si="23"/>
+        <v>0.10516320000000001</v>
+      </c>
+      <c r="U153" s="11">
+        <f t="shared" si="24"/>
+        <v>7.1324041860850951</v>
+      </c>
+      <c r="V153">
+        <f t="shared" si="25"/>
+        <v>4.0277711433967136</v>
+      </c>
+    </row>
+    <row r="154" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P154" s="11">
+        <v>340</v>
+      </c>
+      <c r="Q154" s="11">
+        <v>39.206398314387322</v>
+      </c>
+      <c r="R154" s="10">
+        <f t="shared" si="26"/>
+        <v>0.68428073843441362</v>
+      </c>
+      <c r="T154">
+        <f t="shared" si="23"/>
+        <v>0.1067328</v>
+      </c>
+      <c r="U154" s="11">
+        <f t="shared" si="24"/>
+        <v>7.1208123427775156</v>
+      </c>
+      <c r="V154">
+        <f t="shared" si="25"/>
+        <v>4.0273226382088803</v>
+      </c>
+    </row>
+    <row r="155" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P155" s="11">
+        <v>345</v>
+      </c>
+      <c r="Q155" s="11">
+        <v>39.164566392413093</v>
+      </c>
+      <c r="R155" s="10">
+        <f t="shared" si="26"/>
+        <v>0.68355063366352597</v>
+      </c>
+      <c r="T155">
+        <f t="shared" si="23"/>
+        <v>0.10830240000000001</v>
+      </c>
+      <c r="U155" s="11">
+        <f t="shared" si="24"/>
+        <v>7.1092015985215271</v>
+      </c>
+      <c r="V155">
+        <f t="shared" si="25"/>
+        <v>4.0270193062779231</v>
+      </c>
+    </row>
+    <row r="156" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P156" s="11">
+        <v>350</v>
+      </c>
+      <c r="Q156" s="11">
+        <v>39.12310993064601</v>
+      </c>
+      <c r="R156" s="10">
+        <f t="shared" si="26"/>
+        <v>0.68282708190946328</v>
+      </c>
+      <c r="T156">
+        <f t="shared" si="23"/>
+        <v>0.109872</v>
+      </c>
+      <c r="U156" s="11">
+        <f t="shared" si="24"/>
+        <v>7.0975718605583316</v>
+      </c>
+      <c r="V156">
+        <f t="shared" si="25"/>
+        <v>4.0266166295080223</v>
+      </c>
+    </row>
+    <row r="157" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P157" s="11">
+        <v>355</v>
+      </c>
+      <c r="Q157" s="11">
+        <v>39.082037453732866</v>
+      </c>
+      <c r="R157" s="10">
+        <f t="shared" si="26"/>
+        <v>0.68211023195537945</v>
+      </c>
+      <c r="T157">
+        <f t="shared" si="23"/>
+        <v>0.1114416</v>
+      </c>
+      <c r="U157" s="11">
+        <f t="shared" si="24"/>
+        <v>7.085923035367931</v>
+      </c>
+      <c r="V157">
+        <f t="shared" si="25"/>
+        <v>4.0261160327561116</v>
+      </c>
+    </row>
+    <row r="158" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P158" s="11">
+        <v>360</v>
+      </c>
+      <c r="Q158" s="10">
+        <v>39.041323510120634</v>
+      </c>
+      <c r="R158" s="10">
+        <f t="shared" si="26"/>
+        <v>0.68139963958787475</v>
+      </c>
+      <c r="T158">
+        <f t="shared" si="23"/>
+        <v>0.11301120000000001</v>
+      </c>
+      <c r="U158" s="11">
+        <f t="shared" si="24"/>
+        <v>7.0742550286603532</v>
+      </c>
+      <c r="V158">
+        <f t="shared" si="25"/>
+        <v>4.0255189417085298</v>
+      </c>
+    </row>
+    <row r="159" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P159" s="11">
+        <v>365</v>
+      </c>
+      <c r="Q159" s="11">
+        <v>39.000966068769699</v>
+      </c>
+      <c r="R159" s="10">
+        <f t="shared" si="26"/>
+        <v>0.68069526935862046</v>
+      </c>
+      <c r="T159">
+        <f t="shared" si="23"/>
+        <v>0.1145808</v>
+      </c>
+      <c r="U159" s="11">
+        <f t="shared" si="24"/>
+        <v>7.0625677453667457</v>
+      </c>
+      <c r="V159">
+        <f t="shared" si="25"/>
+        <v>4.0248267022987143</v>
+      </c>
+    </row>
+    <row r="160" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P160" s="11">
+        <v>370</v>
+      </c>
+      <c r="Q160" s="11">
+        <v>38.960957288455155</v>
+      </c>
+      <c r="R160" s="10">
+        <f t="shared" si="26"/>
+        <v>0.67999698441242451</v>
+      </c>
+      <c r="T160">
+        <f t="shared" si="23"/>
+        <v>0.1161504</v>
+      </c>
+      <c r="U160" s="11">
+        <f t="shared" si="24"/>
+        <v>7.0508610896303399</v>
+      </c>
+      <c r="V160">
+        <f t="shared" si="25"/>
+        <v>4.0240406248404064</v>
+      </c>
+    </row>
+    <row r="161" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P161" s="11">
+        <v>375</v>
+      </c>
+      <c r="Q161" s="11">
+        <v>38.921289624352994</v>
+      </c>
+      <c r="R161" s="10">
+        <f t="shared" si="26"/>
+        <v>0.67930465306726673</v>
+      </c>
+      <c r="T161">
+        <f t="shared" si="23"/>
+        <v>0.11771999999999999</v>
+      </c>
+      <c r="U161" s="11">
+        <f t="shared" si="24"/>
+        <v>7.0391349647972765</v>
+      </c>
+      <c r="V161">
+        <f t="shared" si="25"/>
+        <v>4.0231619771053682</v>
+      </c>
+    </row>
+    <row r="162" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P162" s="11">
+        <v>380</v>
+      </c>
+      <c r="Q162" s="11">
+        <v>38.881956376665869</v>
+      </c>
+      <c r="R162" s="10">
+        <f t="shared" si="26"/>
+        <v>0.67861815838962392</v>
+      </c>
+      <c r="T162">
+        <f t="shared" si="23"/>
+        <v>0.1192896</v>
+      </c>
+      <c r="U162" s="11">
+        <f t="shared" si="24"/>
+        <v>7.0273892734072998</v>
+      </c>
+      <c r="V162">
+        <f t="shared" si="25"/>
+        <v>4.0221919851724746</v>
+      </c>
+    </row>
+    <row r="163" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P163" s="11">
+        <v>385</v>
+      </c>
+      <c r="Q163" s="11">
+        <v>38.842950155531945</v>
+      </c>
+      <c r="R163" s="10">
+        <f t="shared" si="26"/>
+        <v>0.67793737140207588</v>
+      </c>
+      <c r="T163">
+        <f t="shared" si="23"/>
+        <v>0.1208592</v>
+      </c>
+      <c r="U163" s="11">
+        <f t="shared" si="24"/>
+        <v>7.0156239171843016</v>
+      </c>
+      <c r="V163">
+        <f t="shared" si="25"/>
+        <v>4.0211318376084915</v>
+      </c>
+    </row>
+    <row r="164" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P164" s="11">
+        <v>390</v>
+      </c>
+      <c r="Q164" s="11">
+        <v>38.804264751533836</v>
+      </c>
+      <c r="R164" s="10">
+        <f t="shared" si="26"/>
+        <v>0.67726218372984481</v>
+      </c>
+      <c r="T164">
+        <f t="shared" si="23"/>
+        <v>0.1224288</v>
+      </c>
+      <c r="U164" s="11">
+        <f t="shared" si="24"/>
+        <v>7.0038387970267291</v>
+      </c>
+      <c r="V164">
+        <f t="shared" si="25"/>
+        <v>4.0199826839625361</v>
+      </c>
+    </row>
+    <row r="165" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P165" s="11">
+        <v>395</v>
+      </c>
+      <c r="Q165" s="10">
+        <v>38.765893588225012</v>
+      </c>
+      <c r="R165" s="10">
+        <f t="shared" si="26"/>
+        <v>0.67659248059228527</v>
+      </c>
+      <c r="T165">
+        <f t="shared" si="23"/>
+        <v>0.12399840000000001</v>
+      </c>
+      <c r="U165" s="11">
+        <f t="shared" si="24"/>
+        <v>6.9920338129978488</v>
+      </c>
+      <c r="V165">
+        <f t="shared" si="25"/>
+        <v>4.0187456388423515</v>
+      </c>
+    </row>
+    <row r="166" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P166" s="11">
+        <v>400</v>
+      </c>
+      <c r="Q166" s="11">
+        <v>38.72783027378518</v>
+      </c>
+      <c r="R166" s="10">
+        <f t="shared" si="26"/>
+        <v>0.67592815043108834</v>
+      </c>
+      <c r="T166">
+        <f t="shared" si="23"/>
+        <v>0.12556799999999999</v>
+      </c>
+      <c r="U166" s="11">
+        <f t="shared" si="24"/>
+        <v>6.9802088643158564</v>
+      </c>
+      <c r="V166">
+        <f t="shared" si="25"/>
+        <v>4.0174217824391105</v>
+      </c>
+    </row>
+    <row r="167" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P167" s="11">
+        <v>405</v>
+      </c>
+      <c r="Q167" s="11">
+        <v>38.690068719352993</v>
+      </c>
+      <c r="R167" s="10">
+        <f t="shared" si="26"/>
+        <v>0.67526908697557564</v>
+      </c>
+      <c r="T167">
+        <f t="shared" si="23"/>
+        <v>0.12713759999999999</v>
+      </c>
+      <c r="U167" s="11">
+        <f t="shared" si="24"/>
+        <v>6.9683638493438389</v>
+      </c>
+      <c r="V167">
+        <f t="shared" si="25"/>
+        <v>4.016012161654622</v>
+      </c>
+    </row>
+    <row r="168" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P168" s="11">
+        <v>410</v>
+      </c>
+      <c r="Q168" s="11">
+        <v>38.6526031638235</v>
+      </c>
+      <c r="R168" s="10">
+        <f t="shared" si="26"/>
+        <v>0.67461518967549727</v>
+      </c>
+      <c r="T168">
+        <f t="shared" si="23"/>
+        <v>0.12870719999999999</v>
+      </c>
+      <c r="U168" s="11">
+        <f t="shared" si="24"/>
+        <v>6.9564986655795815</v>
+      </c>
+      <c r="V168">
+        <f t="shared" si="25"/>
+        <v>4.0145177913068455</v>
+      </c>
+    </row>
+    <row r="169" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P169" s="11">
+        <v>415</v>
+      </c>
+      <c r="Q169" s="11">
+        <v>38.615427975136505</v>
+      </c>
+      <c r="R169" s="10">
+        <f t="shared" si="26"/>
+        <v>0.67396636023285905</v>
+      </c>
+      <c r="T169">
+        <f t="shared" si="23"/>
+        <v>0.1302768</v>
+      </c>
+      <c r="U169" s="11">
+        <f t="shared" si="24"/>
+        <v>6.9446132096452233</v>
+      </c>
+      <c r="V169">
+        <f t="shared" si="25"/>
+        <v>4.0129396556970267</v>
+      </c>
+    </row>
+    <row r="170" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P170" s="11">
+        <v>420</v>
+      </c>
+      <c r="Q170" s="11">
+        <v>79</v>
+      </c>
+      <c r="R170" s="10">
+        <f t="shared" si="26"/>
+        <v>1.3788101090755203</v>
+      </c>
+      <c r="T170">
+        <f t="shared" si="23"/>
+        <v>0.13184639999999997</v>
+      </c>
+      <c r="U170" s="11">
+        <f t="shared" si="24"/>
+        <v>6.9327073772767411</v>
+      </c>
+      <c r="V170">
+        <f t="shared" si="25"/>
+        <v>1.3267525867662506</v>
+      </c>
+    </row>
+    <row r="171" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P171" s="11">
+        <v>425</v>
+      </c>
+      <c r="Q171" s="11">
+        <v>80</v>
+      </c>
+      <c r="R171" s="10">
+        <f t="shared" si="26"/>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="T171">
+        <f t="shared" ref="T171:T186" si="27">P171*$M$71*9.81*0.000001</f>
+        <v>0.13341600000000001</v>
+      </c>
+      <c r="U171" s="11">
+        <f t="shared" ref="U171:U186" si="28">SQRT((4*($T$96-T171))/(($M$71+$N$71)*0.001))</f>
+        <v>6.9207810633132851</v>
+      </c>
+      <c r="V171">
+        <f t="shared" ref="V171:V186" si="29">(COS(R171)*U171)*(SIN(R171)*U171+SQRT(SIN(R171)^2+2*9.81*P171*0.001))/9.81</f>
+        <v>1.2087144887313723</v>
+      </c>
+    </row>
+    <row r="172" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P172" s="11">
+        <v>430</v>
+      </c>
+      <c r="Q172" s="10">
+        <v>81</v>
+      </c>
+      <c r="R172" s="10">
+        <f t="shared" ref="R172:R186" si="30">Q172/180*PI()</f>
+        <v>1.4137166941154069</v>
+      </c>
+      <c r="T172">
+        <f t="shared" si="27"/>
+        <v>0.13498560000000001</v>
+      </c>
+      <c r="U172" s="11">
+        <f t="shared" si="28"/>
+        <v>6.9088341616863396</v>
+      </c>
+      <c r="V172">
+        <f t="shared" si="29"/>
+        <v>1.0897801217781078</v>
+      </c>
+    </row>
+    <row r="173" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P173" s="11">
+        <v>435</v>
+      </c>
+      <c r="Q173" s="11">
+        <v>82</v>
+      </c>
+      <c r="R173" s="10">
+        <f t="shared" si="30"/>
+        <v>1.4311699866353502</v>
+      </c>
+      <c r="T173">
+        <f t="shared" si="27"/>
+        <v>0.13655520000000002</v>
+      </c>
+      <c r="U173" s="11">
+        <f t="shared" si="28"/>
+        <v>6.8968665654087156</v>
+      </c>
+      <c r="V173">
+        <f t="shared" si="29"/>
+        <v>0.97007719953509874</v>
+      </c>
+    </row>
+    <row r="174" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P174" s="11">
+        <v>440</v>
+      </c>
+      <c r="Q174" s="11">
+        <v>83</v>
+      </c>
+      <c r="R174" s="10">
+        <f t="shared" si="30"/>
+        <v>1.4486232791552935</v>
+      </c>
+      <c r="T174">
+        <f t="shared" si="27"/>
+        <v>0.13812480000000002</v>
+      </c>
+      <c r="U174" s="11">
+        <f t="shared" si="28"/>
+        <v>6.8848781665633725</v>
+      </c>
+      <c r="V174">
+        <f t="shared" si="29"/>
+        <v>0.84973331030319721</v>
+      </c>
+    </row>
+    <row r="175" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P175" s="11">
+        <v>445</v>
+      </c>
+      <c r="Q175" s="11">
+        <v>84</v>
+      </c>
+      <c r="R175" s="10">
+        <f t="shared" si="30"/>
+        <v>1.4660765716752369</v>
+      </c>
+      <c r="T175">
+        <f t="shared" si="27"/>
+        <v>0.1396944</v>
+      </c>
+      <c r="U175" s="11">
+        <f t="shared" si="28"/>
+        <v>6.8728688562920688</v>
+      </c>
+      <c r="V175">
+        <f t="shared" si="29"/>
+        <v>0.72887576386748687</v>
+      </c>
+    </row>
+    <row r="176" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P176" s="11">
+        <v>450</v>
+      </c>
+      <c r="Q176" s="11">
+        <v>85</v>
+      </c>
+      <c r="R176" s="10">
+        <f t="shared" si="30"/>
+        <v>1.48352986419518</v>
+      </c>
+      <c r="T176">
+        <f t="shared" si="27"/>
+        <v>0.141264</v>
+      </c>
+      <c r="U176" s="11">
+        <f t="shared" si="28"/>
+        <v>6.8608385247838237</v>
+      </c>
+      <c r="V176">
+        <f t="shared" si="29"/>
+        <v>0.60763143960480015</v>
+      </c>
+    </row>
+    <row r="177" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P177" s="11">
+        <v>455</v>
+      </c>
+      <c r="Q177" s="11">
+        <v>86</v>
+      </c>
+      <c r="R177" s="10">
+        <f t="shared" si="30"/>
+        <v>1.5009831567151235</v>
+      </c>
+      <c r="T177">
+        <f t="shared" si="27"/>
+        <v>0.14283360000000001</v>
+      </c>
+      <c r="U177" s="11">
+        <f t="shared" si="28"/>
+        <v>6.8487870612632058</v>
+      </c>
+      <c r="V177">
+        <f t="shared" si="29"/>
+        <v>0.48612663608815204</v>
+      </c>
+    </row>
+    <row r="178" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P178" s="11">
+        <v>460</v>
+      </c>
+      <c r="Q178" s="11">
+        <v>87</v>
+      </c>
+      <c r="R178" s="10">
+        <f t="shared" si="30"/>
+        <v>1.5184364492350666</v>
+      </c>
+      <c r="T178">
+        <f t="shared" si="27"/>
+        <v>0.14440320000000001</v>
+      </c>
+      <c r="U178" s="11">
+        <f t="shared" si="28"/>
+        <v>6.8367143539784312</v>
+      </c>
+      <c r="V178">
+        <f t="shared" si="29"/>
+        <v>0.36448692238617619</v>
+      </c>
+    </row>
+    <row r="179" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P179" s="11">
+        <v>465</v>
+      </c>
+      <c r="Q179" s="10">
+        <v>88</v>
+      </c>
+      <c r="R179" s="10">
+        <f t="shared" si="30"/>
+        <v>1.5358897417550099</v>
+      </c>
+      <c r="T179">
+        <f t="shared" si="27"/>
+        <v>0.14597280000000001</v>
+      </c>
+      <c r="U179" s="11">
+        <f t="shared" si="28"/>
+        <v>6.8246202901892747</v>
+      </c>
+      <c r="V179">
+        <f t="shared" si="29"/>
+        <v>0.24283699125191599</v>
+      </c>
+    </row>
+    <row r="180" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P180" s="11">
+        <v>470</v>
+      </c>
+      <c r="Q180" s="11">
+        <v>89</v>
+      </c>
+      <c r="R180" s="10">
+        <f t="shared" si="30"/>
+        <v>1.5533430342749532</v>
+      </c>
+      <c r="T180">
+        <f t="shared" si="27"/>
+        <v>0.14754239999999999</v>
+      </c>
+      <c r="U180" s="11">
+        <f t="shared" si="28"/>
+        <v>6.8125047561547847</v>
+      </c>
+      <c r="V180">
+        <f t="shared" si="29"/>
+        <v>0.1213005143916261</v>
+      </c>
+    </row>
+    <row r="181" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P181" s="11">
+        <v>475</v>
+      </c>
+      <c r="Q181" s="11">
+        <v>90</v>
+      </c>
+      <c r="R181" s="10">
+        <f t="shared" si="30"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="T181">
+        <f t="shared" si="27"/>
+        <v>0.14911199999999999</v>
+      </c>
+      <c r="U181" s="11">
+        <f t="shared" si="28"/>
+        <v>6.8003676371208028</v>
+      </c>
+      <c r="V181">
+        <f t="shared" si="29"/>
+        <v>4.2518325304548242E-16</v>
+      </c>
+    </row>
+    <row r="182" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P182" s="11">
+        <v>480</v>
+      </c>
+      <c r="Q182" s="11">
+        <v>91</v>
+      </c>
+      <c r="R182" s="10">
+        <f t="shared" si="30"/>
+        <v>1.5882496193148399</v>
+      </c>
+      <c r="T182">
+        <f t="shared" si="27"/>
+        <v>0.1506816</v>
+      </c>
+      <c r="U182" s="11">
+        <f t="shared" si="28"/>
+        <v>6.7882088173072876</v>
+      </c>
+      <c r="V182">
+        <f t="shared" si="29"/>
+        <v>-0.12094334725596025</v>
+      </c>
+    </row>
+    <row r="183" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P183" s="11">
+        <v>485</v>
+      </c>
+      <c r="Q183" s="11">
+        <v>92</v>
+      </c>
+      <c r="R183" s="10">
+        <f t="shared" si="30"/>
+        <v>1.605702911834783</v>
+      </c>
+      <c r="T183">
+        <f t="shared" si="27"/>
+        <v>0.1522512</v>
+      </c>
+      <c r="U183" s="11">
+        <f t="shared" si="28"/>
+        <v>6.7760281798954187</v>
+      </c>
+      <c r="V183">
+        <f t="shared" si="29"/>
+        <v>-0.2414097636268028</v>
+      </c>
+    </row>
+    <row r="184" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P184" s="11">
+        <v>490</v>
+      </c>
+      <c r="Q184" s="11">
+        <v>93</v>
+      </c>
+      <c r="R184" s="10">
+        <f t="shared" si="30"/>
+        <v>1.6231562043547265</v>
+      </c>
+      <c r="T184">
+        <f t="shared" si="27"/>
+        <v>0.15382080000000001</v>
+      </c>
+      <c r="U184" s="11">
+        <f t="shared" si="28"/>
+        <v>6.7638256070145131</v>
+      </c>
+      <c r="V184">
+        <f t="shared" si="29"/>
+        <v>-0.36128106087130518</v>
+      </c>
+    </row>
+    <row r="185" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P185" s="11">
+        <v>495</v>
+      </c>
+      <c r="Q185" s="11">
+        <v>94</v>
+      </c>
+      <c r="R185" s="10">
+        <f t="shared" si="30"/>
+        <v>1.6406094968746698</v>
+      </c>
+      <c r="T185">
+        <f t="shared" si="27"/>
+        <v>0.15539039999999998</v>
+      </c>
+      <c r="U185" s="11">
+        <f t="shared" si="28"/>
+        <v>6.7516009797287087</v>
+      </c>
+      <c r="V185">
+        <f t="shared" si="29"/>
+        <v>-0.4804407578800044</v>
+      </c>
+    </row>
+    <row r="186" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P186" s="10">
+        <v>500</v>
+      </c>
+      <c r="Q186" s="10">
+        <v>37.214575566145463</v>
+      </c>
+      <c r="R186" s="10">
+        <f t="shared" si="30"/>
+        <v>0.64951687336147113</v>
+      </c>
+      <c r="T186">
+        <f t="shared" si="27"/>
+        <v>0.15695999999999999</v>
+      </c>
+      <c r="U186" s="10">
+        <f t="shared" si="28"/>
+        <v>6.7393541780234463</v>
+      </c>
+      <c r="V186">
+        <f t="shared" si="29"/>
+        <v>3.9751938924073293</v>
       </c>
     </row>
   </sheetData>

--- a/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6833D56A-A7D6-4FBC-B105-ED1ED0E6FF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C12C1552-A5D2-4781-8736-1F958BD11383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,16 +19,6 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Ark1'!$A$39:$A$64</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Ark1'!$C$39:$C$64</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Ark1'!$E$39:$E$64</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Ark1'!$G$39:$G$64</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Ark1'!$I$39:$I$64</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Ark1'!$K$39:$K$64</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Ark1'!$M$39:$M$64</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Ark1'!$O$39:$O$64</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Ark1'!$Q$39:$Q$64</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Ark1'!$S$39:$S$64</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Ark1'!$Q$153</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
@@ -470,13 +460,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -485,7 +473,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4225,6 +4215,842 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-FFBC-4DD8-9F8A-FFE0FF4DFDDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1354690303"/>
+        <c:axId val="1354692383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1354690303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1600"/>
+                  <a:t>Forlængelse [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1354692383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1354692383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1400"/>
+                  <a:t>Kraft</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1400" baseline="0"/>
+                  <a:t> [N]</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1354690303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1499646480955861"/>
+          <c:y val="0.89095829931175818"/>
+          <c:w val="0.73850054665814191"/>
+          <c:h val="6.2896692108374813E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gennemsnitlig Enkeltløkke vs Dobbeltløkke</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Enkeltløkke</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$U$6:$U$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>345.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>344.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>342.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>340.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>337.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>335.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>332.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>329.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>320.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>314.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>309.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>304.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>297.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>239.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>116.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$T$6:$T$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D242-4510-BDFA-4E8AC6BF4031}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Dobbeltløkke</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$U$39:$U$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>105.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$T$39:$T$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D242-4510-BDFA-4E8AC6BF4031}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4688,6 +5514,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6791,6 +7657,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="39" fmlaLink="P71" inc="5" max="500" min="10" page="10" val="100"/>
 </file>
@@ -6977,16 +8359,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>29565</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>140955</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>64201</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>37046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>162915</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>145718</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>197551</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>41809</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7015,16 +8397,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>40079</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4278</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>56232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>72035</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57304</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>109258</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7051,6 +8433,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>31956</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53026</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7843,214 +9263,6 @@
             <v>0</v>
           </cell>
           <cell r="S31">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="M39">
-            <v>15</v>
-          </cell>
-          <cell r="O39">
-            <v>92</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="M40">
-            <v>14</v>
-          </cell>
-          <cell r="O40">
-            <v>91.5</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="M41">
-            <v>13</v>
-          </cell>
-          <cell r="O41">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="M42">
-            <v>12</v>
-          </cell>
-          <cell r="O42">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="M43">
-            <v>11</v>
-          </cell>
-          <cell r="O43">
-            <v>88.5</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="M44">
-            <v>10</v>
-          </cell>
-          <cell r="O44">
-            <v>87</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="M45">
-            <v>9</v>
-          </cell>
-          <cell r="O45">
-            <v>85.5</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="M46">
-            <v>8</v>
-          </cell>
-          <cell r="O46">
-            <v>83</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="M47">
-            <v>7</v>
-          </cell>
-          <cell r="O47">
-            <v>78.5</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="M48">
-            <v>6</v>
-          </cell>
-          <cell r="O48">
-            <v>70.5</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="M49">
-            <v>5</v>
-          </cell>
-          <cell r="O49">
-            <v>56</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="M50">
-            <v>4.5</v>
-          </cell>
-          <cell r="O50">
-            <v>48.5</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="M51">
-            <v>4.25</v>
-          </cell>
-          <cell r="O51">
-            <v>41</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="M52">
-            <v>4</v>
-          </cell>
-          <cell r="O52">
-            <v>38</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="M53">
-            <v>3.75</v>
-          </cell>
-          <cell r="O53">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="M54">
-            <v>3.5</v>
-          </cell>
-          <cell r="O54">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="M55">
-            <v>3.25</v>
-          </cell>
-          <cell r="O55">
-            <v>29.5</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="M56">
-            <v>3</v>
-          </cell>
-          <cell r="O56">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="M57">
-            <v>2.75</v>
-          </cell>
-          <cell r="O57">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="M58">
-            <v>2.5</v>
-          </cell>
-          <cell r="O58">
-            <v>20.5</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="M59">
-            <v>2.25</v>
-          </cell>
-          <cell r="O59">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="M60">
-            <v>2</v>
-          </cell>
-          <cell r="O60">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="M61">
-            <v>1.5</v>
-          </cell>
-          <cell r="O61">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="M62">
-            <v>1</v>
-          </cell>
-          <cell r="O62">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="M63">
-            <v>0.5</v>
-          </cell>
-          <cell r="O63">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="M64">
-            <v>0</v>
-          </cell>
-          <cell r="O64">
             <v>0</v>
           </cell>
         </row>
@@ -8326,7 +9538,7 @@
   <dimension ref="A1:AE186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB30" sqref="AB30"/>
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8340,10 +9552,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8501,7 +9713,7 @@
         <v>406</v>
       </c>
       <c r="C6" s="3">
-        <f>B6-$B$31</f>
+        <f t="shared" ref="C6:C17" si="0">B6-$B$31</f>
         <v>346</v>
       </c>
       <c r="D6" s="3"/>
@@ -8512,7 +9724,7 @@
         <v>439</v>
       </c>
       <c r="G6" s="3">
-        <f>F6-$F$31</f>
+        <f t="shared" ref="G6:G21" si="1">F6-$F$31</f>
         <v>369</v>
       </c>
       <c r="H6" s="3"/>
@@ -8523,7 +9735,7 @@
         <v>355</v>
       </c>
       <c r="K6" s="3">
-        <f>J6-$J$31</f>
+        <f t="shared" ref="K6:K21" si="2">J6-$J$31</f>
         <v>296</v>
       </c>
       <c r="L6" s="3"/>
@@ -8566,7 +9778,7 @@
         <v>405</v>
       </c>
       <c r="C7" s="3">
-        <f>B7-$B$31</f>
+        <f t="shared" si="0"/>
         <v>345</v>
       </c>
       <c r="D7" s="3"/>
@@ -8577,7 +9789,7 @@
         <v>437</v>
       </c>
       <c r="G7" s="3">
-        <f>F7-$F$31</f>
+        <f t="shared" si="1"/>
         <v>367</v>
       </c>
       <c r="H7" s="3"/>
@@ -8588,7 +9800,7 @@
         <v>354</v>
       </c>
       <c r="K7" s="3">
-        <f>J7-$J$31</f>
+        <f t="shared" si="2"/>
         <v>295</v>
       </c>
       <c r="L7" s="3"/>
@@ -8599,7 +9811,7 @@
         <v>422</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" ref="O7:O31" si="0">N7-$N$31</f>
+        <f t="shared" ref="O7:O31" si="3">N7-$N$31</f>
         <v>357</v>
       </c>
       <c r="P7" s="3"/>
@@ -8610,14 +9822,14 @@
         <v>420</v>
       </c>
       <c r="S7" s="3">
-        <f t="shared" ref="S7:S31" si="1">R7-$R$31</f>
+        <f t="shared" ref="S7:S31" si="4">R7-$R$31</f>
         <v>357</v>
       </c>
       <c r="T7" s="15">
         <v>14</v>
       </c>
       <c r="U7" s="15">
-        <f t="shared" ref="U7:U31" si="2">SUM(C7,G7,K7,O7,S7)/5</f>
+        <f t="shared" ref="U7:U31" si="5">SUM(C7,G7,K7,O7,S7)/5</f>
         <v>344.2</v>
       </c>
       <c r="AB7" s="2"/>
@@ -8631,7 +9843,7 @@
         <v>402</v>
       </c>
       <c r="C8" s="3">
-        <f>B8-$B$31</f>
+        <f t="shared" si="0"/>
         <v>342</v>
       </c>
       <c r="D8" s="3"/>
@@ -8642,7 +9854,7 @@
         <v>436</v>
       </c>
       <c r="G8" s="3">
-        <f>F8-$F$31</f>
+        <f t="shared" si="1"/>
         <v>366</v>
       </c>
       <c r="H8" s="3"/>
@@ -8653,7 +9865,7 @@
         <v>352.5</v>
       </c>
       <c r="K8" s="3">
-        <f>J8-$J$31</f>
+        <f t="shared" si="2"/>
         <v>293.5</v>
       </c>
       <c r="L8" s="3"/>
@@ -8664,7 +9876,7 @@
         <v>420</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>355</v>
       </c>
       <c r="P8" s="3"/>
@@ -8675,14 +9887,14 @@
         <v>418</v>
       </c>
       <c r="S8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>355</v>
       </c>
       <c r="T8" s="15">
         <v>13</v>
       </c>
       <c r="U8" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>342.3</v>
       </c>
       <c r="AB8" s="2"/>
@@ -8696,7 +9908,7 @@
         <v>400</v>
       </c>
       <c r="C9" s="3">
-        <f>B9-$B$31</f>
+        <f t="shared" si="0"/>
         <v>340</v>
       </c>
       <c r="D9" s="3"/>
@@ -8707,7 +9919,7 @@
         <v>434</v>
       </c>
       <c r="G9" s="3">
-        <f>F9-$F$31</f>
+        <f t="shared" si="1"/>
         <v>364</v>
       </c>
       <c r="H9" s="3"/>
@@ -8718,7 +9930,7 @@
         <v>350</v>
       </c>
       <c r="K9" s="3">
-        <f>J9-$J$31</f>
+        <f t="shared" si="2"/>
         <v>291</v>
       </c>
       <c r="L9" s="3"/>
@@ -8729,7 +9941,7 @@
         <v>418</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>353</v>
       </c>
       <c r="P9" s="3"/>
@@ -8740,14 +9952,14 @@
         <v>416</v>
       </c>
       <c r="S9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>353</v>
       </c>
       <c r="T9" s="15">
         <v>12</v>
       </c>
       <c r="U9" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>340.2</v>
       </c>
       <c r="AB9" s="2"/>
@@ -8761,7 +9973,7 @@
         <v>398</v>
       </c>
       <c r="C10" s="3">
-        <f>B10-$B$31</f>
+        <f t="shared" si="0"/>
         <v>338</v>
       </c>
       <c r="D10" s="3"/>
@@ -8772,7 +9984,7 @@
         <v>431</v>
       </c>
       <c r="G10" s="3">
-        <f>F10-$F$31</f>
+        <f t="shared" si="1"/>
         <v>361</v>
       </c>
       <c r="H10" s="3"/>
@@ -8783,7 +9995,7 @@
         <v>348</v>
       </c>
       <c r="K10" s="3">
-        <f>J10-$J$31</f>
+        <f t="shared" si="2"/>
         <v>289</v>
       </c>
       <c r="L10" s="3"/>
@@ -8794,7 +10006,7 @@
         <v>415</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>350</v>
       </c>
       <c r="P10" s="3"/>
@@ -8805,14 +10017,14 @@
         <v>413</v>
       </c>
       <c r="S10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>350</v>
       </c>
       <c r="T10" s="15">
         <v>11</v>
       </c>
       <c r="U10" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>337.6</v>
       </c>
       <c r="AB10" s="23" t="s">
@@ -8830,7 +10042,7 @@
         <v>396</v>
       </c>
       <c r="C11" s="3">
-        <f>B11-$B$31</f>
+        <f t="shared" si="0"/>
         <v>336</v>
       </c>
       <c r="D11" s="3"/>
@@ -8841,7 +10053,7 @@
         <v>428</v>
       </c>
       <c r="G11" s="3">
-        <f>F11-$F$31</f>
+        <f t="shared" si="1"/>
         <v>358</v>
       </c>
       <c r="H11" s="3"/>
@@ -8852,7 +10064,7 @@
         <v>346</v>
       </c>
       <c r="K11" s="3">
-        <f>J11-$J$31</f>
+        <f t="shared" si="2"/>
         <v>287</v>
       </c>
       <c r="L11" s="3"/>
@@ -8863,7 +10075,7 @@
         <v>413</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>348</v>
       </c>
       <c r="P11" s="3"/>
@@ -8874,14 +10086,14 @@
         <v>411</v>
       </c>
       <c r="S11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>348</v>
       </c>
       <c r="T11" s="15">
         <v>10</v>
       </c>
       <c r="U11" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>335.4</v>
       </c>
       <c r="AB11" s="23"/>
@@ -8895,7 +10107,7 @@
         <v>393</v>
       </c>
       <c r="C12" s="3">
-        <f>B12-$B$31</f>
+        <f t="shared" si="0"/>
         <v>333</v>
       </c>
       <c r="D12" s="3"/>
@@ -8906,7 +10118,7 @@
         <v>425</v>
       </c>
       <c r="G12" s="3">
-        <f>F12-$F$31</f>
+        <f t="shared" si="1"/>
         <v>355</v>
       </c>
       <c r="H12" s="3"/>
@@ -8917,7 +10129,7 @@
         <v>343</v>
       </c>
       <c r="K12" s="3">
-        <f>J12-$J$31</f>
+        <f t="shared" si="2"/>
         <v>284</v>
       </c>
       <c r="L12" s="3"/>
@@ -8928,7 +10140,7 @@
         <v>410</v>
       </c>
       <c r="O12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>345</v>
       </c>
       <c r="P12" s="3"/>
@@ -8939,14 +10151,14 @@
         <v>408</v>
       </c>
       <c r="S12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>345</v>
       </c>
       <c r="T12" s="15">
         <v>9</v>
       </c>
       <c r="U12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>332.4</v>
       </c>
       <c r="AB12" s="2">
@@ -8964,7 +10176,7 @@
         <v>389</v>
       </c>
       <c r="C13" s="3">
-        <f>B13-$B$31</f>
+        <f t="shared" si="0"/>
         <v>329</v>
       </c>
       <c r="D13" s="3"/>
@@ -8975,7 +10187,7 @@
         <v>422</v>
       </c>
       <c r="G13" s="3">
-        <f>F13-$F$31</f>
+        <f t="shared" si="1"/>
         <v>352</v>
       </c>
       <c r="H13" s="3"/>
@@ -8986,7 +10198,7 @@
         <v>340</v>
       </c>
       <c r="K13" s="3">
-        <f>J13-$J$31</f>
+        <f t="shared" si="2"/>
         <v>281</v>
       </c>
       <c r="L13" s="3"/>
@@ -8997,7 +10209,7 @@
         <v>407</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>342</v>
       </c>
       <c r="P13" s="3"/>
@@ -9008,14 +10220,14 @@
         <v>405</v>
       </c>
       <c r="S13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>342</v>
       </c>
       <c r="T13" s="15">
         <v>8</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>329.2</v>
       </c>
       <c r="AB13" s="2">
@@ -9033,7 +10245,7 @@
         <v>385</v>
       </c>
       <c r="C14" s="3">
-        <f>B14-$B$31</f>
+        <f t="shared" si="0"/>
         <v>325</v>
       </c>
       <c r="D14" s="3"/>
@@ -9044,7 +10256,7 @@
         <v>418</v>
       </c>
       <c r="G14" s="3">
-        <f>F14-$F$31</f>
+        <f t="shared" si="1"/>
         <v>348</v>
       </c>
       <c r="H14" s="3"/>
@@ -9055,7 +10267,7 @@
         <v>336</v>
       </c>
       <c r="K14" s="3">
-        <f>J14-$J$31</f>
+        <f t="shared" si="2"/>
         <v>277</v>
       </c>
       <c r="L14" s="3"/>
@@ -9066,7 +10278,7 @@
         <v>402</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>337</v>
       </c>
       <c r="P14" s="3"/>
@@ -9077,14 +10289,14 @@
         <v>401</v>
       </c>
       <c r="S14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>338</v>
       </c>
       <c r="T14" s="15">
         <v>7</v>
       </c>
       <c r="U14" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>325</v>
       </c>
       <c r="AB14" s="2">
@@ -9102,7 +10314,7 @@
         <v>381</v>
       </c>
       <c r="C15" s="3">
-        <f>B15-$B$31</f>
+        <f t="shared" si="0"/>
         <v>321</v>
       </c>
       <c r="D15" s="3"/>
@@ -9113,7 +10325,7 @@
         <v>414</v>
       </c>
       <c r="G15" s="3">
-        <f>F15-$F$31</f>
+        <f t="shared" si="1"/>
         <v>344</v>
       </c>
       <c r="H15" s="3"/>
@@ -9124,7 +10336,7 @@
         <v>332</v>
       </c>
       <c r="K15" s="3">
-        <f>J15-$J$31</f>
+        <f t="shared" si="2"/>
         <v>273</v>
       </c>
       <c r="L15" s="3"/>
@@ -9135,7 +10347,7 @@
         <v>397</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>332</v>
       </c>
       <c r="P15" s="3"/>
@@ -9146,14 +10358,14 @@
         <v>395</v>
       </c>
       <c r="S15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>332</v>
       </c>
       <c r="T15" s="15">
         <v>6</v>
       </c>
       <c r="U15" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>320.39999999999998</v>
       </c>
       <c r="AB15" s="2">
@@ -9171,7 +10383,7 @@
         <v>375</v>
       </c>
       <c r="C16" s="3">
-        <f>B16-$B$31</f>
+        <f t="shared" si="0"/>
         <v>315</v>
       </c>
       <c r="D16" s="3"/>
@@ -9182,7 +10394,7 @@
         <v>408</v>
       </c>
       <c r="G16" s="3">
-        <f>F16-$F$31</f>
+        <f t="shared" si="1"/>
         <v>338</v>
       </c>
       <c r="H16" s="3"/>
@@ -9193,7 +10405,7 @@
         <v>326</v>
       </c>
       <c r="K16" s="3">
-        <f>J16-$J$31</f>
+        <f t="shared" si="2"/>
         <v>267</v>
       </c>
       <c r="L16" s="3"/>
@@ -9204,7 +10416,7 @@
         <v>391</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>326</v>
       </c>
       <c r="P16" s="3"/>
@@ -9215,14 +10427,14 @@
         <v>389</v>
       </c>
       <c r="S16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>326</v>
       </c>
       <c r="T16" s="15">
         <v>5</v>
       </c>
       <c r="U16" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>314.39999999999998</v>
       </c>
       <c r="AB16" s="2">
@@ -9240,7 +10452,7 @@
         <v>365</v>
       </c>
       <c r="C17" s="3">
-        <f>B17-$B$31</f>
+        <f t="shared" si="0"/>
         <v>305</v>
       </c>
       <c r="D17" s="3"/>
@@ -9251,7 +10463,7 @@
         <v>404</v>
       </c>
       <c r="G17" s="3">
-        <f>F17-$F$31</f>
+        <f t="shared" si="1"/>
         <v>334</v>
       </c>
       <c r="H17" s="3"/>
@@ -9262,7 +10474,7 @@
         <v>321</v>
       </c>
       <c r="K17" s="3">
-        <f>J17-$J$31</f>
+        <f t="shared" si="2"/>
         <v>262</v>
       </c>
       <c r="L17" s="3"/>
@@ -9273,7 +10485,7 @@
         <v>388</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>323</v>
       </c>
       <c r="P17" s="3"/>
@@ -9284,18 +10496,18 @@
         <v>385</v>
       </c>
       <c r="S17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>322</v>
       </c>
       <c r="T17" s="15">
         <v>4.5</v>
       </c>
       <c r="U17" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>309.2</v>
       </c>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -9309,7 +10521,7 @@
         <v>400</v>
       </c>
       <c r="G18" s="3">
-        <f>F18-$F$31</f>
+        <f t="shared" si="1"/>
         <v>330</v>
       </c>
       <c r="H18" s="3"/>
@@ -9320,7 +10532,7 @@
         <v>315</v>
       </c>
       <c r="K18" s="3">
-        <f>J18-$J$31</f>
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
       <c r="L18" s="3"/>
@@ -9331,7 +10543,7 @@
         <v>382</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>317</v>
       </c>
       <c r="P18" s="3"/>
@@ -9342,18 +10554,18 @@
         <v>379</v>
       </c>
       <c r="S18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>316</v>
       </c>
-      <c r="T18" s="25">
+      <c r="T18" s="20">
         <v>4</v>
       </c>
       <c r="U18" s="15">
         <f>SUM(C18,G18,K18,O18,S18)/4</f>
         <v>304.75</v>
       </c>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -9367,7 +10579,7 @@
         <v>393</v>
       </c>
       <c r="G19" s="3">
-        <f>F19-$F$31</f>
+        <f t="shared" si="1"/>
         <v>323</v>
       </c>
       <c r="H19" s="3"/>
@@ -9378,7 +10590,7 @@
         <v>305</v>
       </c>
       <c r="K19" s="3">
-        <f>J19-$J$31</f>
+        <f t="shared" si="2"/>
         <v>246</v>
       </c>
       <c r="L19" s="3"/>
@@ -9389,7 +10601,7 @@
         <v>375</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>310</v>
       </c>
       <c r="P19" s="3"/>
@@ -9400,7 +10612,7 @@
         <v>373</v>
       </c>
       <c r="S19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
       <c r="T19" s="15">
@@ -9410,8 +10622,8 @@
         <f>SUM(C19,G19,K19,O19,S19)/4</f>
         <v>297.25</v>
       </c>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -9432,7 +10644,7 @@
         <v>384</v>
       </c>
       <c r="G20" s="3">
-        <f>F20-$F$31</f>
+        <f t="shared" si="1"/>
         <v>314</v>
       </c>
       <c r="H20" s="3"/>
@@ -9443,7 +10655,7 @@
         <v>281</v>
       </c>
       <c r="K20" s="3">
-        <f>J20-$J$31</f>
+        <f t="shared" si="2"/>
         <v>222</v>
       </c>
       <c r="L20" s="3"/>
@@ -9454,7 +10666,7 @@
         <v>359</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>294</v>
       </c>
       <c r="P20" s="3"/>
@@ -9465,18 +10677,18 @@
         <v>364</v>
       </c>
       <c r="S20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>301</v>
       </c>
       <c r="T20" s="15">
         <v>3</v>
       </c>
       <c r="U20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>282</v>
       </c>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -9497,7 +10709,7 @@
         <v>364</v>
       </c>
       <c r="G21" s="3">
-        <f>F21-$F$31</f>
+        <f t="shared" si="1"/>
         <v>294</v>
       </c>
       <c r="H21" s="3"/>
@@ -9508,7 +10720,7 @@
         <v>241</v>
       </c>
       <c r="K21" s="3">
-        <f>J21-$J$31</f>
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="L21" s="3"/>
@@ -9519,7 +10731,7 @@
         <v>337</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>272</v>
       </c>
       <c r="P21" s="3"/>
@@ -9530,18 +10742,18 @@
         <v>336</v>
       </c>
       <c r="S21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>273</v>
       </c>
       <c r="T21" s="15">
         <v>2.5</v>
       </c>
       <c r="U21" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>239.6</v>
       </c>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="22"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -9570,7 +10782,7 @@
         <v>260</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="P22" s="3"/>
@@ -9581,7 +10793,7 @@
         <v>297</v>
       </c>
       <c r="S22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>234</v>
       </c>
       <c r="T22" s="15">
@@ -9604,7 +10816,7 @@
         <v>302</v>
       </c>
       <c r="G23" s="3">
-        <f>F23-$F$31</f>
+        <f t="shared" ref="G23:G31" si="6">F23-$F$31</f>
         <v>232</v>
       </c>
       <c r="H23" s="3"/>
@@ -9615,7 +10827,7 @@
         <v>173</v>
       </c>
       <c r="K23" s="3">
-        <f>J23-$J$31</f>
+        <f t="shared" ref="K23:K31" si="7">J23-$J$31</f>
         <v>114</v>
       </c>
       <c r="L23" s="3"/>
@@ -9626,7 +10838,7 @@
         <v>244</v>
       </c>
       <c r="O23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>179</v>
       </c>
       <c r="P23" s="3"/>
@@ -9637,14 +10849,14 @@
         <v>268</v>
       </c>
       <c r="S23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>205</v>
       </c>
       <c r="T23" s="15">
         <v>2</v>
       </c>
       <c r="U23" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>146</v>
       </c>
     </row>
@@ -9667,7 +10879,7 @@
         <v>252</v>
       </c>
       <c r="G24" s="3">
-        <f>F24-$F$31</f>
+        <f t="shared" si="6"/>
         <v>182</v>
       </c>
       <c r="H24" s="3"/>
@@ -9678,7 +10890,7 @@
         <v>140</v>
       </c>
       <c r="K24" s="3">
-        <f>J24-$J$31</f>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="L24" s="3"/>
@@ -9689,7 +10901,7 @@
         <v>189</v>
       </c>
       <c r="O24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="P24" s="3"/>
@@ -9700,14 +10912,14 @@
         <v>192</v>
       </c>
       <c r="S24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>129</v>
       </c>
       <c r="T24" s="15">
         <v>1.75</v>
       </c>
       <c r="U24" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>116.8</v>
       </c>
     </row>
@@ -9723,7 +10935,7 @@
         <v>197</v>
       </c>
       <c r="G25" s="3">
-        <f>F25-$F$31</f>
+        <f t="shared" si="6"/>
         <v>127</v>
       </c>
       <c r="H25" s="3"/>
@@ -9734,7 +10946,7 @@
         <v>121</v>
       </c>
       <c r="K25" s="3">
-        <f>J25-$J$31</f>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="L25" s="3"/>
@@ -9745,7 +10957,7 @@
         <v>154</v>
       </c>
       <c r="O25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="P25" s="3"/>
@@ -9756,7 +10968,7 @@
         <v>149</v>
       </c>
       <c r="S25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="T25" s="15">
@@ -9786,7 +10998,7 @@
         <v>140</v>
       </c>
       <c r="G26" s="3">
-        <f>F26-$F$31</f>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="H26" s="3"/>
@@ -9797,7 +11009,7 @@
         <v>104</v>
       </c>
       <c r="K26" s="3">
-        <f>J26-$J$31</f>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="L26" s="3"/>
@@ -9808,7 +11020,7 @@
         <v>125</v>
       </c>
       <c r="O26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="P26" s="3"/>
@@ -9819,14 +11031,14 @@
         <v>123</v>
       </c>
       <c r="S26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="T26" s="15">
         <v>1.25</v>
       </c>
       <c r="U26" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
     </row>
@@ -9842,7 +11054,7 @@
         <v>121</v>
       </c>
       <c r="G27" s="3">
-        <f>F27-$F$31</f>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="H27" s="3"/>
@@ -9853,7 +11065,7 @@
         <v>90</v>
       </c>
       <c r="K27" s="3">
-        <f>J27-$J$31</f>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="L27" s="3"/>
@@ -9864,7 +11076,7 @@
         <v>111</v>
       </c>
       <c r="O27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="P27" s="3"/>
@@ -9875,7 +11087,7 @@
         <v>106</v>
       </c>
       <c r="S27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="T27" s="15">
@@ -9898,7 +11110,7 @@
         <v>100</v>
       </c>
       <c r="G28" s="3">
-        <f>F28-$F$31</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="H28" s="3"/>
@@ -9909,7 +11121,7 @@
         <v>80</v>
       </c>
       <c r="K28" s="3">
-        <f>J28-$J$31</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="L28" s="3"/>
@@ -9920,7 +11132,7 @@
         <v>92</v>
       </c>
       <c r="O28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="P28" s="3"/>
@@ -9931,7 +11143,7 @@
         <v>89</v>
       </c>
       <c r="S28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="T28" s="15">
@@ -9961,7 +11173,7 @@
         <v>88</v>
       </c>
       <c r="G29" s="3">
-        <f>F29-$F$31</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="H29" s="3"/>
@@ -9972,7 +11184,7 @@
         <v>74</v>
       </c>
       <c r="K29" s="3">
-        <f>J29-$J$31</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="L29" s="3"/>
@@ -9983,7 +11195,7 @@
         <v>82</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="P29" s="3"/>
@@ -9994,14 +11206,14 @@
         <v>79</v>
       </c>
       <c r="S29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="T29" s="15">
         <v>0.5</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>15.6</v>
       </c>
     </row>
@@ -10024,7 +11236,7 @@
         <v>77</v>
       </c>
       <c r="G30" s="3">
-        <f>F30-$F$31</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="H30" s="3"/>
@@ -10035,7 +11247,7 @@
         <v>65</v>
       </c>
       <c r="K30" s="3">
-        <f>J30-$J$31</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="L30" s="3"/>
@@ -10046,7 +11258,7 @@
         <v>72</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="P30" s="3"/>
@@ -10057,14 +11269,14 @@
         <v>70.5</v>
       </c>
       <c r="S30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
       <c r="T30" s="15">
         <v>0.25</v>
       </c>
       <c r="U30" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.3</v>
       </c>
     </row>
@@ -10087,7 +11299,7 @@
         <v>70</v>
       </c>
       <c r="G31" s="3">
-        <f>F31-$F$31</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H31" s="3"/>
@@ -10098,7 +11310,7 @@
         <v>59</v>
       </c>
       <c r="K31" s="3">
-        <f>J31-$J$31</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L31" s="3"/>
@@ -10109,7 +11321,7 @@
         <v>65</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P31" s="3"/>
@@ -10120,22 +11332,22 @@
         <v>63</v>
       </c>
       <c r="S31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T31" s="15">
         <v>0</v>
       </c>
       <c r="U31" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="22"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -10350,7 +11562,7 @@
         <v>180</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" ref="C40:C64" si="3">B40-$B$64</f>
+        <f t="shared" ref="C40:C64" si="8">B40-$B$64</f>
         <v>114</v>
       </c>
       <c r="D40" s="3"/>
@@ -10361,7 +11573,7 @@
         <v>187</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" ref="G40:G64" si="4">F40-$F$64</f>
+        <f t="shared" ref="G40:G64" si="9">F40-$F$64</f>
         <v>121</v>
       </c>
       <c r="H40" s="3"/>
@@ -10372,7 +11584,7 @@
         <v>174.5</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" ref="K40:K64" si="5">J40-$J$64</f>
+        <f t="shared" ref="K40:K64" si="10">J40-$J$64</f>
         <v>110.5</v>
       </c>
       <c r="L40" s="3"/>
@@ -10383,7 +11595,7 @@
         <v>156.5</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" ref="O40:O64" si="6">N40-$N$64</f>
+        <f t="shared" ref="O40:O64" si="11">N40-$N$64</f>
         <v>91.5</v>
       </c>
       <c r="P40" s="3"/>
@@ -10394,14 +11606,14 @@
         <v>152</v>
       </c>
       <c r="S40" s="3">
-        <f t="shared" ref="S40:S64" si="7">R40-$R$64</f>
+        <f t="shared" ref="S40:S64" si="12">R40-$R$64</f>
         <v>87.5</v>
       </c>
       <c r="T40" s="15">
         <v>14</v>
       </c>
       <c r="U40" s="15">
-        <f t="shared" ref="U40:U64" si="8">SUM(C40,G40,K40,O40,S40)/5</f>
+        <f t="shared" ref="U40:U49" si="13">SUM(C40,G40,K40,O40,S40)/5</f>
         <v>104.9</v>
       </c>
     </row>
@@ -10413,7 +11625,7 @@
         <v>179</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>113</v>
       </c>
       <c r="D41" s="3"/>
@@ -10424,7 +11636,7 @@
         <v>186</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
       <c r="H41" s="3"/>
@@ -10435,7 +11647,7 @@
         <v>174</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="L41" s="3"/>
@@ -10446,7 +11658,7 @@
         <v>156</v>
       </c>
       <c r="O41" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>91</v>
       </c>
       <c r="P41" s="3"/>
@@ -10457,14 +11669,14 @@
         <v>151</v>
       </c>
       <c r="S41" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>86.5</v>
       </c>
       <c r="T41" s="15">
         <v>13</v>
       </c>
       <c r="U41" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>104.1</v>
       </c>
     </row>
@@ -10476,7 +11688,7 @@
         <v>178</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>112</v>
       </c>
       <c r="D42" s="3"/>
@@ -10487,7 +11699,7 @@
         <v>185</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>119</v>
       </c>
       <c r="H42" s="3"/>
@@ -10498,7 +11710,7 @@
         <v>173</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>109</v>
       </c>
       <c r="L42" s="3"/>
@@ -10509,7 +11721,7 @@
         <v>155</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="P42" s="3"/>
@@ -10520,14 +11732,14 @@
         <v>150</v>
       </c>
       <c r="S42" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>85.5</v>
       </c>
       <c r="T42" s="15">
         <v>12</v>
       </c>
       <c r="U42" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>103.1</v>
       </c>
     </row>
@@ -10539,7 +11751,7 @@
         <v>177</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>111</v>
       </c>
       <c r="D43" s="3"/>
@@ -10550,7 +11762,7 @@
         <v>184</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>118</v>
       </c>
       <c r="H43" s="3"/>
@@ -10561,7 +11773,7 @@
         <v>171.5</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>107.5</v>
       </c>
       <c r="L43" s="3"/>
@@ -10572,7 +11784,7 @@
         <v>153.5</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>88.5</v>
       </c>
       <c r="P43" s="3"/>
@@ -10583,14 +11795,14 @@
         <v>149</v>
       </c>
       <c r="S43" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>84.5</v>
       </c>
       <c r="T43" s="15">
         <v>11</v>
       </c>
       <c r="U43" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>101.9</v>
       </c>
     </row>
@@ -10602,7 +11814,7 @@
         <v>175</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>109</v>
       </c>
       <c r="D44" s="3"/>
@@ -10613,7 +11825,7 @@
         <v>182.5</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>116.5</v>
       </c>
       <c r="H44" s="3"/>
@@ -10624,7 +11836,7 @@
         <v>170</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>106</v>
       </c>
       <c r="L44" s="3"/>
@@ -10635,7 +11847,7 @@
         <v>152</v>
       </c>
       <c r="O44" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>87</v>
       </c>
       <c r="P44" s="3"/>
@@ -10646,14 +11858,14 @@
         <v>147.5</v>
       </c>
       <c r="S44" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>83</v>
       </c>
       <c r="T44" s="15">
         <v>10</v>
       </c>
       <c r="U44" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>100.3</v>
       </c>
     </row>
@@ -10665,7 +11877,7 @@
         <v>174</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>108</v>
       </c>
       <c r="D45" s="3"/>
@@ -10676,7 +11888,7 @@
         <v>180</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>114</v>
       </c>
       <c r="H45" s="3"/>
@@ -10687,7 +11899,7 @@
         <v>168</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>104</v>
       </c>
       <c r="L45" s="3"/>
@@ -10698,7 +11910,7 @@
         <v>150.5</v>
       </c>
       <c r="O45" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>85.5</v>
       </c>
       <c r="P45" s="3"/>
@@ -10709,14 +11921,14 @@
         <v>146</v>
       </c>
       <c r="S45" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>81.5</v>
       </c>
       <c r="T45" s="15">
         <v>9</v>
       </c>
       <c r="U45" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>98.6</v>
       </c>
     </row>
@@ -10728,7 +11940,7 @@
         <v>171</v>
       </c>
       <c r="C46" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>105</v>
       </c>
       <c r="D46" s="3"/>
@@ -10739,7 +11951,7 @@
         <v>178</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>112</v>
       </c>
       <c r="H46" s="3"/>
@@ -10750,7 +11962,7 @@
         <v>165.5</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>101.5</v>
       </c>
       <c r="L46" s="3"/>
@@ -10761,7 +11973,7 @@
         <v>148</v>
       </c>
       <c r="O46" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>83</v>
       </c>
       <c r="P46" s="3"/>
@@ -10772,14 +11984,14 @@
         <v>143.5</v>
       </c>
       <c r="S46" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>79</v>
       </c>
       <c r="T46" s="15">
         <v>8</v>
       </c>
       <c r="U46" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>96.1</v>
       </c>
     </row>
@@ -10791,7 +12003,7 @@
         <v>167</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>101</v>
       </c>
       <c r="D47" s="3"/>
@@ -10802,7 +12014,7 @@
         <v>174</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>108</v>
       </c>
       <c r="H47" s="3"/>
@@ -10813,7 +12025,7 @@
         <v>161</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
       <c r="L47" s="3"/>
@@ -10824,7 +12036,7 @@
         <v>143.5</v>
       </c>
       <c r="O47" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>78.5</v>
       </c>
       <c r="P47" s="3"/>
@@ -10835,14 +12047,14 @@
         <v>139</v>
       </c>
       <c r="S47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>74.5</v>
       </c>
       <c r="T47" s="15">
         <v>7</v>
       </c>
       <c r="U47" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>91.8</v>
       </c>
     </row>
@@ -10854,7 +12066,7 @@
         <v>159</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>93</v>
       </c>
       <c r="D48" s="3"/>
@@ -10865,7 +12077,7 @@
         <v>166</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="H48" s="3"/>
@@ -10876,7 +12088,7 @@
         <v>155</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="L48" s="3"/>
@@ -10887,7 +12099,7 @@
         <v>135.5</v>
       </c>
       <c r="O48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>70.5</v>
       </c>
       <c r="P48" s="3"/>
@@ -10898,14 +12110,14 @@
         <v>131</v>
       </c>
       <c r="S48" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>66.5</v>
       </c>
       <c r="T48" s="15">
         <v>6</v>
       </c>
       <c r="U48" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>84.2</v>
       </c>
     </row>
@@ -10917,7 +12129,7 @@
         <v>144</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>78</v>
       </c>
       <c r="D49" s="3"/>
@@ -10928,7 +12140,7 @@
         <v>150</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>84</v>
       </c>
       <c r="H49" s="3"/>
@@ -10939,7 +12151,7 @@
         <v>141</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="L49" s="3"/>
@@ -10950,7 +12162,7 @@
         <v>121</v>
       </c>
       <c r="O49" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="P49" s="3"/>
@@ -10961,14 +12173,14 @@
         <v>115.5</v>
       </c>
       <c r="S49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
       <c r="T49" s="15">
         <v>5</v>
       </c>
       <c r="U49" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>69.2</v>
       </c>
     </row>
@@ -10980,7 +12192,7 @@
         <v>133</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="D50" s="3"/>
@@ -10991,7 +12203,7 @@
         <v>138</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
       <c r="H50" s="3"/>
@@ -11002,7 +12214,7 @@
         <v>131</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
       <c r="L50" s="3"/>
@@ -11013,7 +12225,7 @@
         <v>113.5</v>
       </c>
       <c r="O50" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>48.5</v>
       </c>
       <c r="P50" s="3"/>
@@ -11024,14 +12236,14 @@
         <v>108</v>
       </c>
       <c r="S50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>43.5</v>
       </c>
       <c r="T50" s="15">
         <v>4.5</v>
       </c>
       <c r="U50" s="15">
-        <f t="shared" si="8"/>
+        <f>SUM(C50,G50,K50,O50,S50)/5</f>
         <v>59.6</v>
       </c>
     </row>
@@ -11043,7 +12255,7 @@
         <v>125</v>
       </c>
       <c r="C51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="D51" s="3"/>
@@ -11054,7 +12266,7 @@
         <v>134</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="H51" s="3"/>
@@ -11065,7 +12277,7 @@
         <v>128</v>
       </c>
       <c r="K51" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="L51" s="3"/>
@@ -11076,7 +12288,7 @@
         <v>106</v>
       </c>
       <c r="O51" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>41</v>
       </c>
       <c r="P51" s="3"/>
@@ -11087,10 +12299,10 @@
         <v>104</v>
       </c>
       <c r="S51" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>39.5</v>
       </c>
-      <c r="T51" s="25">
+      <c r="T51" s="20">
         <v>4</v>
       </c>
       <c r="U51" s="15">
@@ -11106,7 +12318,7 @@
         <v>118</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
       <c r="D52" s="3"/>
@@ -11117,7 +12329,7 @@
         <v>125</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
       <c r="H52" s="3"/>
@@ -11128,7 +12340,7 @@
         <v>120</v>
       </c>
       <c r="K52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="L52" s="3"/>
@@ -11139,7 +12351,7 @@
         <v>103</v>
       </c>
       <c r="O52" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
       <c r="P52" s="3"/>
@@ -11150,7 +12362,7 @@
         <v>100</v>
       </c>
       <c r="S52" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>35.5</v>
       </c>
       <c r="T52" s="15">
@@ -11169,7 +12381,7 @@
         <v>111</v>
       </c>
       <c r="C53" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="D53" s="3"/>
@@ -11180,7 +12392,7 @@
         <v>115</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="H53" s="3"/>
@@ -11191,7 +12403,7 @@
         <v>112</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="L53" s="3"/>
@@ -11202,7 +12414,7 @@
         <v>100</v>
       </c>
       <c r="O53" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="P53" s="3"/>
@@ -11213,14 +12425,14 @@
         <v>95.5</v>
       </c>
       <c r="S53" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
       <c r="T53" s="15">
         <v>3</v>
       </c>
       <c r="U53" s="15">
-        <f t="shared" ref="U53:U64" si="9">SUM(C53,G53,K53,O53,S53)/5</f>
+        <f t="shared" ref="U53:U54" si="14">SUM(C53,G53,K53,O53,S53)/5</f>
         <v>41.6</v>
       </c>
     </row>
@@ -11232,7 +12444,7 @@
         <v>108</v>
       </c>
       <c r="C54" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="D54" s="3"/>
@@ -11243,7 +12455,7 @@
         <v>112</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="H54" s="3"/>
@@ -11254,7 +12466,7 @@
         <v>109</v>
       </c>
       <c r="K54" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="L54" s="3"/>
@@ -11265,7 +12477,7 @@
         <v>98</v>
       </c>
       <c r="O54" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
       <c r="P54" s="3"/>
@@ -11276,14 +12488,14 @@
         <v>93</v>
       </c>
       <c r="S54" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>28.5</v>
       </c>
       <c r="T54" s="15">
         <v>2.5</v>
       </c>
       <c r="U54" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>38.9</v>
       </c>
     </row>
@@ -11295,7 +12507,7 @@
         <v>102</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="D55" s="3"/>
@@ -11306,7 +12518,7 @@
         <v>105</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="H55" s="3"/>
@@ -11317,7 +12529,7 @@
         <v>104</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="L55" s="3"/>
@@ -11328,7 +12540,7 @@
         <v>94.5</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>29.5</v>
       </c>
       <c r="P55" s="3"/>
@@ -11339,7 +12551,7 @@
         <v>90</v>
       </c>
       <c r="S55" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>25.5</v>
       </c>
       <c r="T55" s="15">
@@ -11358,7 +12570,7 @@
         <v>96</v>
       </c>
       <c r="C56" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="D56" s="3"/>
@@ -11369,7 +12581,7 @@
         <v>99</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="H56" s="3"/>
@@ -11380,7 +12592,7 @@
         <v>98.5</v>
       </c>
       <c r="K56" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>34.5</v>
       </c>
       <c r="L56" s="3"/>
@@ -11391,7 +12603,7 @@
         <v>91</v>
       </c>
       <c r="O56" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="P56" s="3"/>
@@ -11402,14 +12614,14 @@
         <v>88</v>
       </c>
       <c r="S56" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>23.5</v>
       </c>
       <c r="T56" s="15">
         <v>2</v>
       </c>
       <c r="U56" s="15">
-        <f t="shared" ref="U56:U64" si="10">SUM(C56,G56,K56,O56,S56)/5</f>
+        <f t="shared" ref="U56:U57" si="15">SUM(C56,G56,K56,O56,S56)/5</f>
         <v>29.4</v>
       </c>
     </row>
@@ -11421,7 +12633,7 @@
         <v>92</v>
       </c>
       <c r="C57" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="D57" s="3"/>
@@ -11432,7 +12644,7 @@
         <v>96</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="H57" s="3"/>
@@ -11443,7 +12655,7 @@
         <v>94</v>
       </c>
       <c r="K57" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="L57" s="3"/>
@@ -11454,7 +12666,7 @@
         <v>87</v>
       </c>
       <c r="O57" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="P57" s="3"/>
@@ -11465,14 +12677,14 @@
         <v>85</v>
       </c>
       <c r="S57" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>20.5</v>
       </c>
       <c r="T57" s="15">
         <v>1.75</v>
       </c>
       <c r="U57" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25.7</v>
       </c>
     </row>
@@ -11484,7 +12696,7 @@
         <v>88</v>
       </c>
       <c r="C58" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="D58" s="3"/>
@@ -11495,7 +12707,7 @@
         <v>92</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="H58" s="3"/>
@@ -11506,7 +12718,7 @@
         <v>92</v>
       </c>
       <c r="K58" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="L58" s="3"/>
@@ -11517,7 +12729,7 @@
         <v>85.5</v>
       </c>
       <c r="O58" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>20.5</v>
       </c>
       <c r="P58" s="3"/>
@@ -11528,7 +12740,7 @@
         <v>82</v>
       </c>
       <c r="S58" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>17.5</v>
       </c>
       <c r="T58" s="15">
@@ -11547,7 +12759,7 @@
         <v>87</v>
       </c>
       <c r="C59" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="D59" s="3"/>
@@ -11558,7 +12770,7 @@
         <v>89.5</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>23.5</v>
       </c>
       <c r="H59" s="3"/>
@@ -11569,7 +12781,7 @@
         <v>89</v>
       </c>
       <c r="K59" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="L59" s="3"/>
@@ -11580,7 +12792,7 @@
         <v>83</v>
       </c>
       <c r="O59" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="P59" s="3"/>
@@ -11591,14 +12803,14 @@
         <v>80</v>
       </c>
       <c r="S59" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>15.5</v>
       </c>
       <c r="T59" s="15">
         <v>1.25</v>
       </c>
       <c r="U59" s="15">
-        <f t="shared" ref="U59:U64" si="11">SUM(C59,G59,K59,O59,S59)/5</f>
+        <f t="shared" ref="U59" si="16">SUM(C59,G59,K59,O59,S59)/5</f>
         <v>20.6</v>
       </c>
     </row>
@@ -11610,7 +12822,7 @@
         <v>83</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="D60" s="3"/>
@@ -11621,7 +12833,7 @@
         <v>86</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="H60" s="3"/>
@@ -11632,7 +12844,7 @@
         <v>85</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="L60" s="3"/>
@@ -11643,7 +12855,7 @@
         <v>80</v>
       </c>
       <c r="O60" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="P60" s="3"/>
@@ -11654,7 +12866,7 @@
         <v>78.5</v>
       </c>
       <c r="S60" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T60" s="15">
@@ -11673,7 +12885,7 @@
         <v>78</v>
       </c>
       <c r="C61" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="D61" s="3"/>
@@ -11684,7 +12896,7 @@
         <v>80</v>
       </c>
       <c r="G61" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="H61" s="3"/>
@@ -11695,7 +12907,7 @@
         <v>78</v>
       </c>
       <c r="K61" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="L61" s="3"/>
@@ -11706,7 +12918,7 @@
         <v>76</v>
       </c>
       <c r="O61" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="P61" s="3"/>
@@ -11717,7 +12929,7 @@
         <v>74.5</v>
       </c>
       <c r="S61" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="T61" s="15">
@@ -11736,7 +12948,7 @@
         <v>74</v>
       </c>
       <c r="C62" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="D62" s="3"/>
@@ -11747,7 +12959,7 @@
         <v>75</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="H62" s="3"/>
@@ -11758,7 +12970,7 @@
         <v>74</v>
       </c>
       <c r="K62" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="L62" s="3"/>
@@ -11769,7 +12981,7 @@
         <v>73</v>
       </c>
       <c r="O62" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="P62" s="3"/>
@@ -11780,14 +12992,14 @@
         <v>71</v>
       </c>
       <c r="S62" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6.5</v>
       </c>
       <c r="T62" s="15">
         <v>0.5</v>
       </c>
       <c r="U62" s="15">
-        <f t="shared" ref="U62:U64" si="12">SUM(C62,G62,K62,O62,S62)/5</f>
+        <f t="shared" ref="U62:U64" si="17">SUM(C62,G62,K62,O62,S62)/5</f>
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -11799,7 +13011,7 @@
         <v>70</v>
       </c>
       <c r="C63" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="D63" s="3"/>
@@ -11810,7 +13022,7 @@
         <v>71</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="H63" s="3"/>
@@ -11821,7 +13033,7 @@
         <v>69</v>
       </c>
       <c r="K63" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="L63" s="3"/>
@@ -11832,7 +13044,7 @@
         <v>69</v>
       </c>
       <c r="O63" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="P63" s="3"/>
@@ -11843,14 +13055,14 @@
         <v>68.5</v>
       </c>
       <c r="S63" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="T63" s="15">
         <v>0.25</v>
       </c>
       <c r="U63" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -11862,7 +13074,7 @@
         <v>66</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D64" s="3"/>
@@ -11873,7 +13085,7 @@
         <v>66</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H64" s="3"/>
@@ -11884,7 +13096,7 @@
         <v>64</v>
       </c>
       <c r="K64" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L64" s="3"/>
@@ -11895,7 +13107,7 @@
         <v>65</v>
       </c>
       <c r="O64" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P64" s="3"/>
@@ -11906,22 +13118,22 @@
         <v>64.5</v>
       </c>
       <c r="S64" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T64" s="15">
         <v>0</v>
       </c>
       <c r="U64" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="20"/>
+      <c r="B68" s="21"/>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -12059,7 +13271,7 @@
         <v>547</v>
       </c>
       <c r="C72" s="3">
-        <f t="shared" ref="C72:C79" si="13">B72-$B$78</f>
+        <f>B72-$B$78</f>
         <v>57</v>
       </c>
       <c r="D72" s="3"/>
@@ -12070,7 +13282,7 @@
         <v>561</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" ref="G72:G91" si="14">F72-$F$90</f>
+        <f t="shared" ref="G72:G91" si="18">F72-$F$90</f>
         <v>89</v>
       </c>
     </row>
@@ -12082,7 +13294,7 @@
         <v>543</v>
       </c>
       <c r="C73" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="C73:C78" si="19">B73-$B$78</f>
         <v>53</v>
       </c>
       <c r="D73" s="3"/>
@@ -12093,7 +13305,7 @@
         <v>560</v>
       </c>
       <c r="G73" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>88</v>
       </c>
       <c r="P73" t="s">
@@ -12108,7 +13320,7 @@
         <v>539</v>
       </c>
       <c r="C74" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>49</v>
       </c>
       <c r="D74" s="3"/>
@@ -12119,7 +13331,7 @@
         <v>559</v>
       </c>
       <c r="G74" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>87</v>
       </c>
       <c r="Q74" t="s">
@@ -12149,7 +13361,7 @@
         <v>537</v>
       </c>
       <c r="C75" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>47</v>
       </c>
       <c r="D75" s="3"/>
@@ -12160,7 +13372,7 @@
         <v>559</v>
       </c>
       <c r="G75" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>87</v>
       </c>
       <c r="P75" t="s">
@@ -12208,7 +13420,7 @@
         <v>531</v>
       </c>
       <c r="C76" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>41</v>
       </c>
       <c r="D76" s="3"/>
@@ -12219,7 +13431,7 @@
         <v>558</v>
       </c>
       <c r="G76" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>86</v>
       </c>
       <c r="P76" t="s">
@@ -12270,7 +13482,7 @@
         <v>500</v>
       </c>
       <c r="C77" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="D77" s="3"/>
@@ -12281,7 +13493,7 @@
         <v>556</v>
       </c>
       <c r="G77" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>84</v>
       </c>
       <c r="P77">
@@ -12304,7 +13516,7 @@
         <v>490</v>
       </c>
       <c r="C78" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D78" s="3"/>
@@ -12315,18 +13527,18 @@
         <v>554</v>
       </c>
       <c r="G78" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>82</v>
       </c>
       <c r="P78">
         <v>5</v>
       </c>
       <c r="Q78">
-        <f t="shared" ref="Q78:Q97" si="15">0.00003*P78^3-0.0031*P78^2+0.1115*P78+2.2599</f>
+        <f t="shared" ref="Q78:Q97" si="20">0.00003*P78^3-0.0031*P78^2+0.1115*P78+2.2599</f>
         <v>2.7436500000000001</v>
       </c>
       <c r="R78">
-        <f t="shared" ref="R78:R97" si="16">0.00008*P78^3-0.0088*P78^2+0.2956*P78+1.4681</f>
+        <f t="shared" ref="R78:R97" si="21">0.00008*P78^3-0.0088*P78^2+0.2956*P78+1.4681</f>
         <v>2.7360999999999995</v>
       </c>
       <c r="S78">
@@ -12374,7 +13586,7 @@
         <v>480</v>
       </c>
       <c r="C79" s="3">
-        <f t="shared" si="13"/>
+        <f>B79-$B$78</f>
         <v>-10</v>
       </c>
       <c r="D79" s="3"/>
@@ -12385,50 +13597,50 @@
         <v>552</v>
       </c>
       <c r="G79" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>80</v>
       </c>
       <c r="P79">
         <v>10</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.0949</v>
       </c>
       <c r="R79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>3.6240999999999994</v>
       </c>
       <c r="S79">
-        <f t="shared" ref="S79:S97" si="17">(P79-P78)*((Q78+Q79)/2)*0.001+S78</f>
+        <f t="shared" ref="S79:S97" si="22">(P79-P78)*((Q78+Q79)/2)*0.001+S78</f>
         <v>2.7105250000000001E-2</v>
       </c>
       <c r="T79">
-        <f t="shared" ref="T79:T97" si="18">(P79-P78)*((R78+R79)/2)*0.001+T78</f>
+        <f t="shared" ref="T79:T97" si="23">(P79-P78)*((R78+R79)/2)*0.001+T78</f>
         <v>2.6410999999999997E-2</v>
       </c>
       <c r="W79" t="e">
-        <f t="shared" ref="W79:W97" si="19">SQRT((2*($S79-$U$78))/($M$71*0.001))</f>
+        <f t="shared" ref="W79:W97" si="24">SQRT((2*($S79-$U$78))/($M$71*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="X79" t="e">
-        <f t="shared" ref="X79:X97" si="20">SQRT((2*($S79-$U$78))/(($M$71+$N$71)*0.001))</f>
+        <f t="shared" ref="X79:X97" si="25">SQRT((2*($S79-$U$78))/(($M$71+$N$71)*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="Y79" t="e">
-        <f t="shared" ref="Y79:Y97" si="21">SQRT((2*($T79-$U$78))/($M$71*0.001))</f>
+        <f t="shared" ref="Y79:Y97" si="26">SQRT((2*($T79-$U$78))/($M$71*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="Z79" t="e">
-        <f t="shared" ref="Z79:Z97" si="22">SQRT((2*($T79-$U$78))/(($M$71+$N$71)*0.001))</f>
+        <f t="shared" ref="Z79:Z97" si="27">SQRT((2*($T79-$U$78))/(($M$71+$N$71)*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="AA79" t="e">
-        <f t="shared" ref="AA79:AA97" si="23">SQRT((4*($T79-$U$78))/($M$71*0.001))</f>
+        <f t="shared" ref="AA79:AA97" si="28">SQRT((4*($T79-$U$78))/($M$71*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="AB79" t="e">
-        <f t="shared" ref="AB79:AB94" si="24">SQRT((4*($T79-$U$78))/(($M$71+$N$71)*0.001))</f>
+        <f t="shared" ref="AB79:AB94" si="29">SQRT((4*($T79-$U$78))/(($M$71+$N$71)*0.001))</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -12451,50 +13663,50 @@
         <v>551</v>
       </c>
       <c r="G80" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>79</v>
       </c>
       <c r="P80">
         <v>15</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.3361499999999999</v>
       </c>
       <c r="R80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4.192099999999999</v>
       </c>
       <c r="S80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>4.3182875000000003E-2</v>
       </c>
       <c r="T80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>4.5951499999999992E-2</v>
       </c>
       <c r="W80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.85844608887221352</v>
       </c>
       <c r="X80">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.78776415786772946</v>
       </c>
       <c r="Y80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>0.95392282182574906</v>
       </c>
       <c r="Z80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.87537961690012545</v>
       </c>
       <c r="AA80">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>1.3490505920831879</v>
       </c>
       <c r="AB80">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>1.2379737264451216</v>
       </c>
     </row>
@@ -12510,50 +13722,50 @@
         <v>550</v>
       </c>
       <c r="G81" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>78</v>
       </c>
       <c r="P81">
         <v>20</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.4899</v>
       </c>
       <c r="R81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4.5000999999999989</v>
       </c>
       <c r="S81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>6.024800000000001E-2</v>
       </c>
       <c r="T81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>6.7681999999999992E-2</v>
       </c>
       <c r="W81">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1.3429445260322561</v>
       </c>
       <c r="X81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1.2323704159485751</v>
       </c>
       <c r="Y81">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>1.5060295481829031</v>
       </c>
       <c r="Z81">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>1.3820274961085253</v>
       </c>
       <c r="AA81">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>2.1298474123748865</v>
       </c>
       <c r="AB81">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>1.9544820285692064</v>
       </c>
       <c r="AE81" t="s">
@@ -12572,50 +13784,50 @@
         <v>547</v>
       </c>
       <c r="G82" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>75</v>
       </c>
       <c r="P82">
         <v>25</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.5786500000000001</v>
       </c>
       <c r="R82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4.6080999999999994</v>
       </c>
       <c r="S82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>7.7919375000000013E-2</v>
       </c>
       <c r="T82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>9.0452499999999991E-2</v>
       </c>
       <c r="W82">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1.7052744463868568</v>
       </c>
       <c r="X82">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1.5648671542742267</v>
       </c>
       <c r="Y82">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>1.9212707383396019</v>
       </c>
       <c r="Z82">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>1.7630789456008633</v>
       </c>
       <c r="AA82">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>2.7170871351504351</v>
       </c>
       <c r="AB82">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>2.4933701564031971</v>
       </c>
     </row>
@@ -12631,50 +13843,50 @@
         <v>545</v>
       </c>
       <c r="G83" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>73</v>
       </c>
       <c r="P83">
         <v>30</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.6249000000000002</v>
       </c>
       <c r="R83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4.5760999999999976</v>
       </c>
       <c r="S83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>9.592825000000002E-2</v>
       </c>
       <c r="T83">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.11341299999999999</v>
       </c>
       <c r="W83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>2.0083614278809483</v>
       </c>
       <c r="X83">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1.8429988434185482</v>
       </c>
       <c r="Y83">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>2.26413614873311</v>
       </c>
       <c r="Z83">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>2.077713824577895</v>
       </c>
       <c r="AA83">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>3.2019720485975509</v>
       </c>
       <c r="AB83">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>2.9383310694481328</v>
       </c>
     </row>
@@ -12690,50 +13902,50 @@
         <v>540</v>
       </c>
       <c r="G84" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>68</v>
       </c>
       <c r="P84">
         <v>35</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.6511500000000003</v>
       </c>
       <c r="R84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4.4640999999999966</v>
       </c>
       <c r="S84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.11411837500000002</v>
       </c>
       <c r="T84">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.13601349999999998</v>
       </c>
       <c r="W84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>2.2738510147984634</v>
       </c>
       <c r="X84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>2.0866287970892441</v>
       </c>
       <c r="Y84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>2.5571162957519156</v>
       </c>
       <c r="Z84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>2.3465708463291928</v>
       </c>
       <c r="AA84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>3.6163085460176094</v>
       </c>
       <c r="AB84">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>3.3185523159480561</v>
       </c>
     </row>
@@ -12749,50 +13961,50 @@
         <v>535</v>
       </c>
       <c r="G85" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>63</v>
       </c>
       <c r="P85">
         <v>40</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.6798999999999999</v>
       </c>
       <c r="R85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4.332099999999997</v>
       </c>
       <c r="S85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.13244600000000001</v>
       </c>
       <c r="T85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.15800399999999998</v>
       </c>
       <c r="W85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>2.513140465632592</v>
       </c>
       <c r="X85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>2.3062158569716256</v>
       </c>
       <c r="Y85">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>2.8130499462327356</v>
       </c>
       <c r="Z85">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>2.5814316713181098</v>
       </c>
       <c r="AA85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>3.9782533855952407</v>
       </c>
       <c r="AB85">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>3.6506956799175168</v>
       </c>
     </row>
@@ -12808,50 +14020,50 @@
         <v>522</v>
       </c>
       <c r="G86" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="P86">
         <v>45</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.7336500000000004</v>
       </c>
       <c r="R86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4.2401</v>
       </c>
       <c r="S86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.15097987500000001</v>
       </c>
       <c r="T86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.17943449999999997</v>
       </c>
       <c r="W86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>2.7339060312124848</v>
       </c>
       <c r="X86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>2.5088042339350687</v>
       </c>
       <c r="Y86">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>3.041817918613801</v>
       </c>
       <c r="Z86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>2.7913635603976399</v>
       </c>
       <c r="AA86">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>4.3017801547731374</v>
       </c>
       <c r="AB86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>3.947584204628392</v>
       </c>
     </row>
@@ -12867,50 +14079,50 @@
         <v>512</v>
       </c>
       <c r="G87" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="P87">
         <v>50</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>3.8349000000000002</v>
       </c>
       <c r="R87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4.2480999999999991</v>
       </c>
       <c r="S87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.16990125</v>
       </c>
       <c r="T87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.20065499999999997</v>
       </c>
       <c r="W87">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>2.9422488210550788</v>
       </c>
       <c r="X87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>2.699992690048584</v>
       </c>
       <c r="Y87">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>3.2525278630628205</v>
       </c>
       <c r="Z87">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>2.9847242665560283</v>
       </c>
       <c r="AA87">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>4.5997690159398221</v>
       </c>
       <c r="AB87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>4.2210375377076241</v>
       </c>
     </row>
@@ -12926,50 +14138,50 @@
         <v>497</v>
       </c>
       <c r="G88" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="P88">
         <v>55</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4.0061500000000008</v>
       </c>
       <c r="R88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4.4160999999999984</v>
       </c>
       <c r="S88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.18950387500000002</v>
       </c>
       <c r="T88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.22231549999999997</v>
       </c>
       <c r="W88">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>3.1435636127649778</v>
       </c>
       <c r="X88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>2.8847318127650876</v>
       </c>
       <c r="Y88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>3.454376752758737</v>
       </c>
       <c r="Z88">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3.1699535111982153</v>
       </c>
       <c r="AA88">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>4.8852264532977383</v>
       </c>
       <c r="AB88">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>4.4829912476287292</v>
       </c>
     </row>
@@ -12985,50 +14197,50 @@
         <v>482</v>
       </c>
       <c r="G89" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="P89">
         <v>60</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4.2699000000000007</v>
       </c>
       <c r="R89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>4.8040999999999947</v>
       </c>
       <c r="S89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.21019400000000002</v>
       </c>
       <c r="T89">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.24536599999999995</v>
       </c>
       <c r="W89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>3.3429216263621857</v>
       </c>
       <c r="X89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>3.0676752727346108</v>
       </c>
       <c r="Y89">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>3.6569625374072396</v>
       </c>
       <c r="Z89">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3.3558589770257345</v>
       </c>
       <c r="AA89">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>5.1717260174916451</v>
       </c>
       <c r="AB89">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>4.745901278721294</v>
       </c>
     </row>
@@ -13044,50 +14256,50 @@
         <v>472</v>
       </c>
       <c r="G90" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P90">
         <v>65</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>4.6486499999999999</v>
       </c>
       <c r="R90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>5.4721000000000011</v>
       </c>
       <c r="S90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.23249037500000003</v>
       </c>
       <c r="T90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.27105649999999992</v>
       </c>
       <c r="W90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>3.5452289682755334</v>
       </c>
       <c r="X90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>3.253325221984424</v>
       </c>
       <c r="Y90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>3.8702753455019185</v>
       </c>
       <c r="Z90">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3.5516082346778588</v>
       </c>
       <c r="AA90">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>5.4733958837270293</v>
       </c>
       <c r="AB90">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>5.0227325337173934</v>
       </c>
     </row>
@@ -13103,50 +14315,50 @@
         <v>465</v>
       </c>
       <c r="G91" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>-7</v>
       </c>
       <c r="P91">
         <v>70</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>5.1649000000000012</v>
       </c>
       <c r="R91">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>6.4800999999999931</v>
       </c>
       <c r="S91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.25702425000000001</v>
       </c>
       <c r="T91">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.3009369999999999</v>
       </c>
       <c r="W91">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>3.7552650538943322</v>
       </c>
       <c r="X91">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>3.4460675528705713</v>
       </c>
       <c r="Y91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>4.1044564195518012</v>
       </c>
       <c r="Z91">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>3.76650752652486</v>
       </c>
       <c r="AA91">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>5.8045779346994717</v>
       </c>
       <c r="AB91">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>5.3266460267917966</v>
       </c>
     </row>
@@ -13169,43 +14381,43 @@
         <v>75</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>5.8411500000000007</v>
       </c>
       <c r="R92">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>7.8880999999999979</v>
       </c>
       <c r="S92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.28453937500000004</v>
       </c>
       <c r="T92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.33685749999999987</v>
       </c>
       <c r="W92">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>3.9776514348922034</v>
       </c>
       <c r="X92">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>3.6501432920683516</v>
       </c>
       <c r="Y92">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>4.3693928353948666</v>
       </c>
       <c r="Z92">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4.0096298556035519</v>
       </c>
       <c r="AA92">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>6.1792546071512531</v>
       </c>
       <c r="AB92">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>5.6704729218906182</v>
       </c>
     </row>
@@ -13214,43 +14426,43 @@
         <v>80</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>6.6999000000000013</v>
       </c>
       <c r="R93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>9.7560999999999964</v>
       </c>
       <c r="S93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.31589200000000006</v>
       </c>
       <c r="T93">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.38096799999999986</v>
       </c>
       <c r="W93">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>4.2167819483582507</v>
       </c>
       <c r="X93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>3.8695845010189815</v>
       </c>
       <c r="Y93">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>4.6742379057981198</v>
       </c>
       <c r="Z93">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4.2893748777770941</v>
       </c>
       <c r="AA93">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>6.6103706401381146</v>
       </c>
       <c r="AB93">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>6.0660921262548033</v>
       </c>
     </row>
@@ -13259,43 +14471,43 @@
         <v>85</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>7.7636500000000019</v>
       </c>
       <c r="R94">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>12.144099999999995</v>
       </c>
       <c r="S94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.3520508750000001</v>
       </c>
       <c r="T94">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.43571849999999984</v>
       </c>
       <c r="W94">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>4.4767376165573971</v>
       </c>
       <c r="X94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>4.1081361825938592</v>
       </c>
       <c r="Y94">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>5.0269678982464159</v>
       </c>
       <c r="Z94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4.6130621180798279</v>
       </c>
       <c r="AA94">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>7.1092061793142545</v>
       </c>
       <c r="AB94">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>6.5238550114580489</v>
       </c>
     </row>
@@ -13304,39 +14516,39 @@
         <v>90</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>9.0549000000000017</v>
       </c>
       <c r="R95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>15.112100000000005</v>
       </c>
       <c r="S95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.39409725000000012</v>
       </c>
       <c r="T95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.50385899999999983</v>
       </c>
       <c r="W95">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>4.7612055327406324</v>
       </c>
       <c r="X95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>4.3691818456090852</v>
       </c>
       <c r="Y95">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>5.4340765084786939</v>
       </c>
       <c r="Z95">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>4.9866506004056781</v>
       </c>
       <c r="AA95">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>7.684944697263604</v>
       </c>
       <c r="AB95">
@@ -13349,39 +14561,39 @@
         <v>95</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>10.596150000000002</v>
       </c>
       <c r="R96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>18.720099999999999</v>
       </c>
       <c r="S96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.44322487500000013</v>
       </c>
       <c r="T96">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.58843949999999978</v>
       </c>
       <c r="W96">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>5.073416470929625</v>
       </c>
       <c r="X96">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>4.6556862516372624</v>
       </c>
       <c r="Y96">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>5.9004634351887972</v>
       </c>
       <c r="Z96">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>5.4146365966410155</v>
       </c>
       <c r="AA96">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>8.3445154143305391</v>
       </c>
       <c r="AB96">
@@ -13394,39 +14606,39 @@
         <v>100</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>12.4099</v>
       </c>
       <c r="R97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>23.028099999999998</v>
       </c>
       <c r="S97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.50074000000000018</v>
       </c>
       <c r="T97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0.69280999999999981</v>
       </c>
       <c r="W97">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>5.4161102278295639</v>
       </c>
       <c r="X97">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>4.9701636105654998</v>
       </c>
       <c r="Y97">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>6.4295120343615491</v>
       </c>
       <c r="Z97">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>5.9001248871706533</v>
       </c>
       <c r="AA97">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>9.0927031184351321</v>
       </c>
       <c r="AB97">
@@ -13439,23 +14651,23 @@
         <v>35</v>
       </c>
       <c r="W100">
-        <f t="shared" ref="W100:AA100" si="25">(COS($S$71)*W97)*(SIN($S$71)*W97+SQRT(SIN($S$71)^2+2*9.81*$P$71*0.001))/9.81</f>
+        <f t="shared" ref="W100:AA100" si="30">(COS($S$71)*W97)*(SIN($S$71)*W97+SQRT(SIN($S$71)^2+2*9.81*$P$71*0.001))/9.81</f>
         <v>2.1213137474238475</v>
       </c>
       <c r="X100">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1.8361518472553215</v>
       </c>
       <c r="Y100">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>2.8430668778456725</v>
       </c>
       <c r="Z100">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>2.4532586769452918</v>
       </c>
       <c r="AA100">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>5.2279635124640214</v>
       </c>
       <c r="AB100">
@@ -13543,15 +14755,15 @@
         <v>0.73143111824030438</v>
       </c>
       <c r="T107">
-        <f t="shared" ref="T107:T170" si="26">P107*$M$71*9.81*0.000001</f>
+        <f t="shared" ref="T107:T170" si="31">P107*$M$71*9.81*0.000001</f>
         <v>3.2961599999999994E-2</v>
       </c>
       <c r="U107" s="6">
-        <f t="shared" ref="U107:U170" si="27">SQRT((4*($T$96-T107))/(($M$71+$N$71)*0.001))</f>
+        <f>SQRT((4*($T$96-T107))/(($M$71+$N$71)*0.001))</f>
         <v>7.6466566481526304</v>
       </c>
       <c r="V107">
-        <f t="shared" ref="V107:V170" si="28">(COS(R107)*U107)*(SIN(R107)*U107+SQRT(SIN(R107)^2+2*9.81*P107*0.001))/9.81</f>
+        <f>(COS(R107)*U107)*(SIN(R107)*U107+SQRT(SIN(R107)^2+2*9.81*P107*0.001))/9.81</f>
         <v>3.8812126237727815</v>
       </c>
     </row>
@@ -13563,19 +14775,19 @@
         <v>41.818816270109949</v>
       </c>
       <c r="R108" s="6">
-        <f t="shared" ref="R108:R171" si="29">Q108/180*PI()</f>
+        <f t="shared" ref="R108:R171" si="32">Q108/180*PI()</f>
         <v>0.72987603319999295</v>
       </c>
       <c r="T108">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>3.4531200000000005E-2</v>
       </c>
       <c r="U108" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="U108:U170" si="33">SQRT((4*($T$96-T108))/(($M$71+$N$71)*0.001))</f>
         <v>7.6358455224097641</v>
       </c>
       <c r="V108">
-        <f t="shared" si="28"/>
+        <f>(COS(R108)*U108)*(SIN(R108)*U108+SQRT(SIN(R108)^2+2*9.81*P108*0.001))/9.81</f>
         <v>3.8893337157262691</v>
       </c>
     </row>
@@ -13587,19 +14799,19 @@
         <v>41.731734358584788</v>
       </c>
       <c r="R109" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.72835616712494855</v>
       </c>
       <c r="T109">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>3.6100800000000002E-2</v>
       </c>
       <c r="U109" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.6250190681383652</v>
       </c>
       <c r="V109">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="V109:V170" si="34">(COS(R109)*U109)*(SIN(R109)*U109+SQRT(SIN(R109)^2+2*9.81*P109*0.001))/9.81</f>
         <v>3.8971013192635948</v>
       </c>
     </row>
@@ -13611,19 +14823,19 @@
         <v>41.646532921356958</v>
       </c>
       <c r="R110" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.72686912151789163</v>
       </c>
       <c r="T110">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>3.76704E-2</v>
       </c>
       <c r="U110" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.6141772199524018</v>
       </c>
       <c r="V110">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3.9045324522837372</v>
       </c>
     </row>
@@ -13635,19 +14847,19 @@
         <v>41.563087275400115</v>
       </c>
       <c r="R111" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.72541272024949111</v>
       </c>
       <c r="T111">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>3.9239999999999997E-2</v>
       </c>
       <c r="U111" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.6033199119996597</v>
       </c>
       <c r="V111">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3.9116427138300871</v>
       </c>
     </row>
@@ -13659,19 +14871,19 @@
         <v>41.481287511143876</v>
       </c>
       <c r="R112" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.72398504503586458</v>
       </c>
       <c r="T112">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>4.0809599999999994E-2</v>
       </c>
       <c r="U112" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.5924470779570754</v>
       </c>
       <c r="V112">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3.9184464447851206</v>
       </c>
     </row>
@@ -13683,19 +14895,19 @@
         <v>41.401032109325385</v>
       </c>
       <c r="R113" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.72258432403162098</v>
       </c>
       <c r="T113">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>4.2379200000000006E-2</v>
       </c>
       <c r="U113" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.5815586510260102</v>
       </c>
       <c r="V113">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3.9249568658636802</v>
       </c>
     </row>
@@ -13707,15 +14919,15 @@
         <v>41.322229052419722</v>
       </c>
       <c r="R114" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.72120895122798068</v>
       </c>
       <c r="T114">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>4.3948800000000003E-2</v>
       </c>
       <c r="U114" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.5706545639274658</v>
       </c>
       <c r="V114">
@@ -13731,19 +14943,19 @@
         <v>41.244794215677523</v>
       </c>
       <c r="R115" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.71985745837108495</v>
       </c>
       <c r="T115">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>4.5518400000000001E-2</v>
       </c>
       <c r="U115" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.5597347488972257</v>
       </c>
       <c r="V115">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3.9371457591409165</v>
       </c>
     </row>
@@ -13755,19 +14967,19 @@
         <v>41.168650647625526</v>
       </c>
       <c r="R116" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.71852850240436128</v>
       </c>
       <c r="T116">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>4.7087999999999998E-2</v>
       </c>
       <c r="U116" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.5487991376809473</v>
       </c>
       <c r="V116">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3.9428460671200982</v>
       </c>
     </row>
@@ -13779,19 +14991,19 @@
         <v>41.093727574393519</v>
       </c>
       <c r="R117" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.71722084809074993</v>
       </c>
       <c r="T117">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>4.8657600000000002E-2</v>
       </c>
       <c r="U117" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.5378476615291872</v>
       </c>
       <c r="V117">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3.9482969053648036</v>
       </c>
     </row>
@@ -13803,19 +15015,19 @@
         <v>41.019959917237287</v>
       </c>
       <c r="R118" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.71593335959189131</v>
       </c>
       <c r="T118">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>5.02272E-2</v>
       </c>
       <c r="U118" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.5268802511923525</v>
       </c>
       <c r="V118">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3.9535073984137048</v>
       </c>
     </row>
@@ -13827,19 +15039,19 @@
         <v>40.947287598383824</v>
       </c>
       <c r="R119" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.71466498835283931</v>
       </c>
       <c r="T119">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>5.1796800000000004E-2</v>
       </c>
       <c r="U119" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.515896836915597</v>
       </c>
       <c r="V119">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3.9584860714647165</v>
       </c>
     </row>
@@ -13851,19 +15063,19 @@
         <v>40.875655044554172</v>
       </c>
       <c r="R120" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.71341476443689977</v>
       </c>
       <c r="T120">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>5.3366400000000001E-2</v>
       </c>
       <c r="U120" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.5048973484336408</v>
       </c>
       <c r="V120">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3.9632409041733787</v>
       </c>
     </row>
@@ -13875,19 +15087,19 @@
         <v>40.805010736160824</v>
       </c>
       <c r="R121" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.71218178865764159</v>
       </c>
       <c r="T121">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>5.4935999999999999E-2</v>
       </c>
       <c r="U121" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.4938817149655303</v>
       </c>
       <c r="V121">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3.9677793783799422</v>
       </c>
     </row>
@@ -13899,19 +15111,19 @@
         <v>40.735306811419633</v>
       </c>
       <c r="R122" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.71096522566934539</v>
       </c>
       <c r="T122">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>5.6505600000000003E-2</v>
       </c>
       <c r="U122" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.4828498652093192</v>
       </c>
       <c r="V122">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3.9721085205826432</v>
       </c>
     </row>
@@ -13923,19 +15135,19 @@
         <v>40.666498718326196</v>
       </c>
       <c r="R123" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.70976429789284623</v>
       </c>
       <c r="T123">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>5.80752E-2</v>
       </c>
       <c r="U123" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.4718017273366906</v>
       </c>
       <c r="V123">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3.976234939847676</v>
       </c>
     </row>
@@ -13947,19 +15159,19 @@
         <v>40.598544907246151</v>
       </c>
       <c r="R124" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.70857828015022117</v>
       </c>
       <c r="T124">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>5.9644799999999998E-2</v>
       </c>
       <c r="U124" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.4607372289874929</v>
       </c>
       <c r="V124">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3.9801648617415704</v>
       </c>
     </row>
@@ -13971,19 +15183,19 @@
         <v>40.531406558789719</v>
       </c>
       <c r="R125" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.70740649491530516</v>
       </c>
       <c r="T125">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>6.1214400000000002E-2</v>
       </c>
       <c r="U125" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.4496562972642169</v>
       </c>
       <c r="V125">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3.98390415878487</v>
       </c>
     </row>
@@ -13995,19 +15207,19 @@
         <v>40.465047341999046</v>
       </c>
       <c r="R126" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.70624830809326333</v>
       </c>
       <c r="T126">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>6.2783999999999993E-2</v>
       </c>
       <c r="U126" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.4385588587263882</v>
       </c>
       <c r="V126">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3.9874583778536432</v>
       </c>
     </row>
@@ -14019,19 +15231,19 @@
         <v>40.399433199116586</v>
       </c>
       <c r="R127" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.70510312526409036</v>
       </c>
       <c r="T127">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>6.4353599999999997E-2</v>
       </c>
       <c r="U127" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.4274448393848909</v>
       </c>
       <c r="V127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3.9908327648949204</v>
       </c>
     </row>
@@ -14043,19 +15255,19 @@
         <v>40.334523006166961</v>
       </c>
       <c r="R128" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.7039702286790146</v>
       </c>
       <c r="T128">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>6.5923199999999987E-2</v>
       </c>
       <c r="U128" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.4163141646962112</v>
       </c>
       <c r="V128">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3.9940322872707057</v>
       </c>
     </row>
@@ -14067,19 +15279,19 @@
         <v>40.270290968452017</v>
       </c>
       <c r="R129" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.70284916813562359</v>
       </c>
       <c r="T129">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>6.7492800000000006E-2</v>
       </c>
       <c r="U129" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.4051667595566064</v>
       </c>
       <c r="V129">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3.9970616540052064</v>
       </c>
     </row>
@@ -14091,19 +15303,19 @@
         <v>40.206759596680286</v>
       </c>
       <c r="R130" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.70174033651989831</v>
       </c>
       <c r="T130">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>6.906240000000001E-2</v>
       </c>
       <c r="U130" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.3940025482961875</v>
       </c>
       <c r="V130">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3.999925334172922</v>
       </c>
     </row>
@@ -14115,19 +15327,19 @@
         <v>40.14382203682824</v>
       </c>
       <c r="R131" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.70064186887730906</v>
       </c>
       <c r="T131">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>7.0632E-2</v>
       </c>
       <c r="U131" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.3828214546729303</v>
       </c>
       <c r="V131">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0026275736113046</v>
       </c>
     </row>
@@ -14139,19 +15351,19 @@
         <v>40.081486302593618</v>
       </c>
       <c r="R132" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.69955390507326687</v>
       </c>
       <c r="T132">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>7.2201600000000005E-2</v>
       </c>
       <c r="U132" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.3716234018666036</v>
       </c>
       <c r="V132">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0051724101881483</v>
       </c>
     </row>
@@ -14163,19 +15375,19 @@
         <v>40.019729617275566</v>
       </c>
       <c r="R133" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.69847604757934878</v>
       </c>
       <c r="T133">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>7.3771199999999995E-2</v>
       </c>
       <c r="U133" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.3604083124726012</v>
       </c>
       <c r="V133">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.007563687719828</v>
       </c>
     </row>
@@ -14187,19 +15399,19 @@
         <v>39.958528921826833</v>
       </c>
       <c r="R134" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.69740789393925806</v>
       </c>
       <c r="T134">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>7.5340799999999999E-2</v>
       </c>
       <c r="U134" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.3491761084957128</v>
       </c>
       <c r="V134">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.009805068718209</v>
       </c>
     </row>
@@ -14211,19 +15423,19 @@
         <v>39.897862223339139</v>
       </c>
       <c r="R135" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.69634906030433319</v>
       </c>
       <c r="T135">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>7.6910400000000004E-2</v>
       </c>
       <c r="U135" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.3379267113437843</v>
       </c>
       <c r="V135">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0119000460724781</v>
       </c>
     </row>
@@ -14235,19 +15447,19 @@
         <v>39.837710039604033</v>
       </c>
       <c r="R136" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.69529920664589095</v>
       </c>
       <c r="T136">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>7.8479999999999994E-2</v>
       </c>
       <c r="U136" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.3266600418213095</v>
       </c>
       <c r="V136">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0138519537746067</v>
       </c>
     </row>
@@ -14259,19 +15471,19 @@
         <v>39.778052940819954</v>
       </c>
       <c r="R137" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.69425799384992126</v>
       </c>
       <c r="T137">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>8.0049599999999999E-2</v>
       </c>
       <c r="U137" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.3153760201229208</v>
       </c>
       <c r="V137">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0156639767825251</v>
       </c>
     </row>
@@ -14283,19 +15495,19 @@
         <v>39.718872162346138</v>
       </c>
       <c r="R138" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.6932250944116598</v>
       </c>
       <c r="T138">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>8.1619199999999989E-2</v>
       </c>
       <c r="U138" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.3040745658267943</v>
       </c>
       <c r="V138">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0173391601043527</v>
       </c>
     </row>
@@ -14307,19 +15519,19 @@
         <v>39.66015046371863</v>
       </c>
       <c r="R139" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.69220020742824595</v>
       </c>
       <c r="T139">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>8.3188799999999993E-2</v>
       </c>
       <c r="U139" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.2927555978879681</v>
       </c>
       <c r="V139">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0188804171776837</v>
       </c>
     </row>
@@ -14331,19 +15543,19 @@
         <v>39.601871074138373</v>
       </c>
       <c r="R140" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.69118304019401799</v>
       </c>
       <c r="T140">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>8.4758400000000012E-2</v>
       </c>
       <c r="U140" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.2814190346315542</v>
       </c>
       <c r="V140">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0202905376096911</v>
       </c>
     </row>
@@ -14355,19 +15567,19 @@
         <v>39.544018501085837</v>
       </c>
       <c r="R141" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.6901733223135007</v>
       </c>
       <c r="T141">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>8.6328000000000002E-2</v>
       </c>
       <c r="U141" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.2700647937458678</v>
       </c>
       <c r="V141">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0215721943367519</v>
       </c>
     </row>
@@ -14379,19 +15591,19 @@
         <v>39.48657720663077</v>
       </c>
       <c r="R142" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68917078259865228</v>
       </c>
       <c r="T142">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>8.7897600000000006E-2</v>
       </c>
       <c r="U142" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.2586927922754487</v>
       </c>
       <c r="V142">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0227279502559661</v>
       </c>
     </row>
@@ -14403,19 +15615,19 @@
         <v>39.429532836908479</v>
       </c>
       <c r="R143" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68817517052727328</v>
       </c>
       <c r="T143">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>8.9467200000000011E-2</v>
       </c>
       <c r="U143" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.2473029466140009</v>
       </c>
       <c r="V143">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0237602643754844</v>
       </c>
     </row>
@@ -14427,19 +15639,19 @@
         <v>39.372871477336616</v>
       </c>
       <c r="R144" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68718624324408784</v>
       </c>
       <c r="T144">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>9.1036800000000001E-2</v>
       </c>
       <c r="U144" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.2358951724972078</v>
       </c>
       <c r="V144">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0246714975256506</v>
       </c>
     </row>
@@ -14451,19 +15663,19 @@
         <v>39.316580079298681</v>
       </c>
       <c r="R145" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68620377300777524</v>
       </c>
       <c r="T145">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>9.2606400000000005E-2</v>
       </c>
       <c r="U145" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.2244693849954702</v>
       </c>
       <c r="V145">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.025463917668783</v>
       </c>
     </row>
@@ -14475,19 +15687,19 @@
         <v>39.260645671752819</v>
       </c>
       <c r="R146" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68522753343094756</v>
       </c>
       <c r="T146">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>9.4175999999999996E-2</v>
       </c>
       <c r="U146" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.2130254985065205</v>
       </c>
       <c r="V146">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0261397048415084</v>
       </c>
     </row>
@@ -14499,19 +15711,19 @@
         <v>39.205056309168953</v>
       </c>
       <c r="R147" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68425731602477413</v>
       </c>
       <c r="T147">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>9.57456E-2</v>
       </c>
       <c r="U147" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.2015634267479491</v>
       </c>
       <c r="V147">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0267009557603552</v>
       </c>
     </row>
@@ -14523,19 +15735,19 @@
         <v>39.149800153958267</v>
       </c>
       <c r="R148" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68329291418435478</v>
       </c>
       <c r="T148">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>9.7315200000000004E-2</v>
       </c>
       <c r="U148" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.1900830827496067</v>
       </c>
       <c r="V148">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0271496881181745</v>
       </c>
     </row>
@@ -14547,19 +15759,19 @@
         <v>39.09486602820963</v>
       </c>
       <c r="R149" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68233413281833633</v>
       </c>
       <c r="T149">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>9.8884799999999995E-2</v>
       </c>
       <c r="U149" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.1785843788459092</v>
       </c>
       <c r="V149">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0274878445964806</v>
       </c>
     </row>
@@ -14571,19 +15783,19 @@
         <v>39.377690812502586</v>
       </c>
       <c r="R150" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68727035651049118</v>
       </c>
       <c r="T150">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.1004544</v>
       </c>
       <c r="U150" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.1670672266680278</v>
       </c>
       <c r="V150">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.027511652365054</v>
       </c>
     </row>
@@ -14595,19 +15807,19 @@
         <v>38.985921157995747</v>
       </c>
       <c r="R151" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68043268612994623</v>
       </c>
       <c r="T151">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.10202399999999999</v>
       </c>
       <c r="U151" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.1555315371359622</v>
       </c>
       <c r="V151">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0278398478480364</v>
       </c>
     </row>
@@ -14620,20 +15832,20 @@
         <v>38.931889718650702</v>
       </c>
       <c r="R152" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.6794896596137836</v>
       </c>
       <c r="S152" s="8"/>
       <c r="T152" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.10359360000000001</v>
       </c>
       <c r="U152" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.1439772204505081</v>
       </c>
       <c r="V152" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0278572374992159</v>
       </c>
       <c r="W152" s="9"/>
@@ -14649,19 +15861,19 @@
         <v>38.878140284010129</v>
       </c>
       <c r="R153" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.67855155500822006</v>
       </c>
       <c r="T153">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.10516320000000001</v>
       </c>
       <c r="U153" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.1324041860850951</v>
       </c>
       <c r="V153">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0277711433967136</v>
       </c>
     </row>
@@ -14673,19 +15885,19 @@
         <v>39.206398314387322</v>
       </c>
       <c r="R154" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68428073843441362</v>
       </c>
       <c r="T154">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.1067328</v>
       </c>
       <c r="U154" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.1208123427775156</v>
       </c>
       <c r="V154">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0273226382088803</v>
       </c>
     </row>
@@ -14697,19 +15909,19 @@
         <v>39.164566392413093</v>
       </c>
       <c r="R155" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68355063366352597</v>
       </c>
       <c r="T155">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.10830240000000001</v>
       </c>
       <c r="U155" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.1092015985215271</v>
       </c>
       <c r="V155">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0270193062779231</v>
       </c>
     </row>
@@ -14721,19 +15933,19 @@
         <v>39.12310993064601</v>
       </c>
       <c r="R156" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68282708190946328</v>
       </c>
       <c r="T156">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.109872</v>
       </c>
       <c r="U156" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.0975718605583316</v>
       </c>
       <c r="V156">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0266166295080223</v>
       </c>
     </row>
@@ -14745,19 +15957,19 @@
         <v>39.082037453732866</v>
       </c>
       <c r="R157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68211023195537945</v>
       </c>
       <c r="T157">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.1114416</v>
       </c>
       <c r="U157" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.085923035367931</v>
       </c>
       <c r="V157">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0261160327561116</v>
       </c>
     </row>
@@ -14769,19 +15981,19 @@
         <v>39.041323510120634</v>
       </c>
       <c r="R158" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68139963958787475</v>
       </c>
       <c r="T158">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.11301120000000001</v>
       </c>
       <c r="U158" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.0742550286603532</v>
       </c>
       <c r="V158">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0255189417085298</v>
       </c>
     </row>
@@ -14793,19 +16005,19 @@
         <v>39.000966068769699</v>
       </c>
       <c r="R159" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68069526935862046</v>
       </c>
       <c r="T159">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.1145808</v>
       </c>
       <c r="U159" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.0625677453667457</v>
       </c>
       <c r="V159">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0248267022987143</v>
       </c>
     </row>
@@ -14817,19 +16029,19 @@
         <v>38.960957288455155</v>
       </c>
       <c r="R160" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.67999698441242451</v>
       </c>
       <c r="T160">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.1161504</v>
       </c>
       <c r="U160" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.0508610896303399</v>
       </c>
       <c r="V160">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0240406248404064</v>
       </c>
     </row>
@@ -14841,19 +16053,19 @@
         <v>38.921289624352994</v>
       </c>
       <c r="R161" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.67930465306726673</v>
       </c>
       <c r="T161">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.11771999999999999</v>
       </c>
       <c r="U161" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.0391349647972765</v>
       </c>
       <c r="V161">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0231619771053682</v>
       </c>
     </row>
@@ -14865,19 +16077,19 @@
         <v>38.881956376665869</v>
       </c>
       <c r="R162" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.67861815838962392</v>
       </c>
       <c r="T162">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.1192896</v>
       </c>
       <c r="U162" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.0273892734072998</v>
       </c>
       <c r="V162">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0221919851724746</v>
       </c>
     </row>
@@ -14889,19 +16101,19 @@
         <v>38.842950155531945</v>
       </c>
       <c r="R163" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.67793737140207588</v>
       </c>
       <c r="T163">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.1208592</v>
       </c>
       <c r="U163" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.0156239171843016</v>
       </c>
       <c r="V163">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0211318376084915</v>
       </c>
     </row>
@@ -14913,19 +16125,19 @@
         <v>38.804264751533836</v>
       </c>
       <c r="R164" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.67726218372984481</v>
       </c>
       <c r="T164">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.1224288</v>
       </c>
       <c r="U164" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.0038387970267291</v>
       </c>
       <c r="V164">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0199826839625361</v>
       </c>
     </row>
@@ -14937,19 +16149,19 @@
         <v>38.765893588225012</v>
       </c>
       <c r="R165" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.67659248059228527</v>
       </c>
       <c r="T165">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.12399840000000001</v>
       </c>
       <c r="U165" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>6.9920338129978488</v>
       </c>
       <c r="V165">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0187456388423515</v>
       </c>
     </row>
@@ -14961,19 +16173,19 @@
         <v>38.72783027378518</v>
       </c>
       <c r="R166" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.67592815043108834</v>
       </c>
       <c r="T166">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.12556799999999999</v>
       </c>
       <c r="U166" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>6.9802088643158564</v>
       </c>
       <c r="V166">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0174217824391105</v>
       </c>
     </row>
@@ -14985,19 +16197,19 @@
         <v>38.690068719352993</v>
       </c>
       <c r="R167" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.67526908697557564</v>
       </c>
       <c r="T167">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.12713759999999999</v>
       </c>
       <c r="U167" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>6.9683638493438389</v>
       </c>
       <c r="V167">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.016012161654622</v>
       </c>
     </row>
@@ -15009,19 +16221,19 @@
         <v>38.6526031638235</v>
       </c>
       <c r="R168" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.67461518967549727</v>
       </c>
       <c r="T168">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.12870719999999999</v>
       </c>
       <c r="U168" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>6.9564986655795815</v>
       </c>
       <c r="V168">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0145177913068455</v>
       </c>
     </row>
@@ -15033,19 +16245,19 @@
         <v>38.615427975136505</v>
       </c>
       <c r="R169" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.67396636023285905</v>
       </c>
       <c r="T169">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.1302768</v>
       </c>
       <c r="U169" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>6.9446132096452233</v>
       </c>
       <c r="V169">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4.0129396556970267</v>
       </c>
     </row>
@@ -15057,19 +16269,19 @@
         <v>79</v>
       </c>
       <c r="R170" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1.3788101090755203</v>
       </c>
       <c r="T170">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.13184639999999997</v>
       </c>
       <c r="U170" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>6.9327073772767411</v>
       </c>
       <c r="V170">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>1.3267525867662506</v>
       </c>
     </row>
@@ -15081,19 +16293,19 @@
         <v>80</v>
       </c>
       <c r="R171" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1.3962634015954636</v>
       </c>
       <c r="T171">
-        <f t="shared" ref="T171:T186" si="30">P171*$M$71*9.81*0.000001</f>
+        <f t="shared" ref="T171:T186" si="35">P171*$M$71*9.81*0.000001</f>
         <v>0.13341600000000001</v>
       </c>
       <c r="U171" s="6">
-        <f t="shared" ref="U171:U186" si="31">SQRT((4*($T$96-T171))/(($M$71+$N$71)*0.001))</f>
+        <f t="shared" ref="U171:U186" si="36">SQRT((4*($T$96-T171))/(($M$71+$N$71)*0.001))</f>
         <v>6.9207810633132851</v>
       </c>
       <c r="V171">
-        <f t="shared" ref="V171:V186" si="32">(COS(R171)*U171)*(SIN(R171)*U171+SQRT(SIN(R171)^2+2*9.81*P171*0.001))/9.81</f>
+        <f t="shared" ref="V171:V186" si="37">(COS(R171)*U171)*(SIN(R171)*U171+SQRT(SIN(R171)^2+2*9.81*P171*0.001))/9.81</f>
         <v>1.2087144887313723</v>
       </c>
     </row>
@@ -15105,19 +16317,19 @@
         <v>81</v>
       </c>
       <c r="R172" s="5">
-        <f t="shared" ref="R172:R186" si="33">Q172/180*PI()</f>
+        <f t="shared" ref="R172:R186" si="38">Q172/180*PI()</f>
         <v>1.4137166941154069</v>
       </c>
       <c r="T172">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.13498560000000001</v>
       </c>
       <c r="U172" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>6.9088341616863396</v>
       </c>
       <c r="V172">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>1.0897801217781078</v>
       </c>
     </row>
@@ -15129,19 +16341,19 @@
         <v>82</v>
       </c>
       <c r="R173" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1.4311699866353502</v>
       </c>
       <c r="T173">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.13655520000000002</v>
       </c>
       <c r="U173" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>6.8968665654087156</v>
       </c>
       <c r="V173">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.97007719953509874</v>
       </c>
     </row>
@@ -15153,19 +16365,19 @@
         <v>83</v>
       </c>
       <c r="R174" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1.4486232791552935</v>
       </c>
       <c r="T174">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.13812480000000002</v>
       </c>
       <c r="U174" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>6.8848781665633725</v>
       </c>
       <c r="V174">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.84973331030319721</v>
       </c>
     </row>
@@ -15177,19 +16389,19 @@
         <v>84</v>
       </c>
       <c r="R175" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1.4660765716752369</v>
       </c>
       <c r="T175">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.1396944</v>
       </c>
       <c r="U175" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>6.8728688562920688</v>
       </c>
       <c r="V175">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.72887576386748687</v>
       </c>
     </row>
@@ -15201,19 +16413,19 @@
         <v>85</v>
       </c>
       <c r="R176" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1.48352986419518</v>
       </c>
       <c r="T176">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.141264</v>
       </c>
       <c r="U176" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>6.8608385247838237</v>
       </c>
       <c r="V176">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.60763143960480015</v>
       </c>
     </row>
@@ -15225,19 +16437,19 @@
         <v>86</v>
       </c>
       <c r="R177" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1.5009831567151235</v>
       </c>
       <c r="T177">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.14283360000000001</v>
       </c>
       <c r="U177" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>6.8487870612632058</v>
       </c>
       <c r="V177">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.48612663608815204</v>
       </c>
     </row>
@@ -15249,19 +16461,19 @@
         <v>87</v>
       </c>
       <c r="R178" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1.5184364492350666</v>
       </c>
       <c r="T178">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.14440320000000001</v>
       </c>
       <c r="U178" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>6.8367143539784312</v>
       </c>
       <c r="V178">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.36448692238617619</v>
       </c>
     </row>
@@ -15273,19 +16485,19 @@
         <v>88</v>
       </c>
       <c r="R179" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1.5358897417550099</v>
       </c>
       <c r="T179">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.14597280000000001</v>
       </c>
       <c r="U179" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>6.8246202901892747</v>
       </c>
       <c r="V179">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.24283699125191599</v>
       </c>
     </row>
@@ -15297,19 +16509,19 @@
         <v>89</v>
       </c>
       <c r="R180" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1.5533430342749532</v>
       </c>
       <c r="T180">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.14754239999999999</v>
       </c>
       <c r="U180" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>6.8125047561547847</v>
       </c>
       <c r="V180">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.1213005143916261</v>
       </c>
     </row>
@@ -15321,19 +16533,19 @@
         <v>90</v>
       </c>
       <c r="R181" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="T181">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.14911199999999999</v>
       </c>
       <c r="U181" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>6.8003676371208028</v>
       </c>
       <c r="V181">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>4.2518325304548242E-16</v>
       </c>
     </row>
@@ -15345,19 +16557,19 @@
         <v>91</v>
       </c>
       <c r="R182" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1.5882496193148399</v>
       </c>
       <c r="T182">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.1506816</v>
       </c>
       <c r="U182" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>6.7882088173072876</v>
       </c>
       <c r="V182">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>-0.12094334725596025</v>
       </c>
     </row>
@@ -15369,19 +16581,19 @@
         <v>92</v>
       </c>
       <c r="R183" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1.605702911834783</v>
       </c>
       <c r="T183">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.1522512</v>
       </c>
       <c r="U183" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>6.7760281798954187</v>
       </c>
       <c r="V183">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>-0.2414097636268028</v>
       </c>
     </row>
@@ -15393,19 +16605,19 @@
         <v>93</v>
       </c>
       <c r="R184" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1.6231562043547265</v>
       </c>
       <c r="T184">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.15382080000000001</v>
       </c>
       <c r="U184" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>6.7638256070145131</v>
       </c>
       <c r="V184">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>-0.36128106087130518</v>
       </c>
     </row>
@@ -15417,19 +16629,19 @@
         <v>94</v>
       </c>
       <c r="R185" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1.6406094968746698</v>
       </c>
       <c r="T185">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.15539039999999998</v>
       </c>
       <c r="U185" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>6.7516009797287087</v>
       </c>
       <c r="V185">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>-0.4804407578800044</v>
       </c>
     </row>
@@ -15441,19 +16653,19 @@
         <v>37.214575566145463</v>
       </c>
       <c r="R186" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0.64951687336147113</v>
       </c>
       <c r="T186">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0.15695999999999999</v>
       </c>
       <c r="U186" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>6.7393541780234463</v>
       </c>
       <c r="V186">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>3.9751938924073293</v>
       </c>
     </row>

--- a/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C12C1552-A5D2-4781-8736-1F958BD11383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB70E0D-84F3-48C8-BC93-FCEC3CC2F159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8397,16 +8397,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>40079</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1200397</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>56232</xdr:rowOff>
+      <xdr:rowOff>73551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>72035</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>54717</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>109258</xdr:rowOff>
+      <xdr:rowOff>126577</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9538,7 +9538,7 @@
   <dimension ref="A1:AE186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
+      <selection activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB70E0D-84F3-48C8-BC93-FCEC3CC2F159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7CD3EB-A0B8-449B-8ADB-532095F40841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Målinger med rampe" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Ark1'!$Q$153</definedName>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="59">
   <si>
     <t>ubelastet længde</t>
   </si>
@@ -236,6 +237,15 @@
   </si>
   <si>
     <t>Gennemsnitselastik</t>
+  </si>
+  <si>
+    <t>Antal elastikker</t>
+  </si>
+  <si>
+    <t>Hoplængde [cm]</t>
+  </si>
+  <si>
+    <t>Lille rampe</t>
   </si>
 </sst>
 </file>
@@ -9537,7 +9547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
@@ -16733,4 +16743,45 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33B2F51-943D-4643-A920-3ED8965FBD1D}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7CD3EB-A0B8-449B-8ADB-532095F40841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{492982CB-8176-4E74-8799-662F712BC0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="63">
   <si>
     <t>ubelastet længde</t>
   </si>
@@ -246,6 +246,18 @@
   </si>
   <si>
     <t>Lille rampe</t>
+  </si>
+  <si>
+    <t>Enkelløkke elastik 5</t>
+  </si>
+  <si>
+    <t>Dobbeltløkke elastik 3</t>
+  </si>
+  <si>
+    <t>Dobbelt kraft</t>
+  </si>
+  <si>
+    <t>Dobbelt forlængelse</t>
   </si>
 </sst>
 </file>
@@ -447,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -471,6 +483,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -482,9 +500,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5061,6 +5076,1687 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D242-4510-BDFA-4E8AC6BF4031}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1354690303"/>
+        <c:axId val="1354692383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1354690303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1600"/>
+                  <a:t>Forlængelse [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1354692383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1354692383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1400"/>
+                  <a:t>Kraft</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1400" baseline="0"/>
+                  <a:t> [N]</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1354690303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1499646480955861"/>
+          <c:y val="0.89095829931175818"/>
+          <c:w val="0.73850054665814191"/>
+          <c:h val="6.2896692108374813E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Typisk Enkeltløkke vs Dobbeltløkke</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Enkeltløkke</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$S$6:$S$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$Q$6:$Q$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-071D-4284-9839-9A7B8415E3C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Dobbeltløkke</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$K$39:$K$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$I$39:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-071D-4284-9839-9A7B8415E3C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1354690303"/>
+        <c:axId val="1354692383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1354690303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1600"/>
+                  <a:t>Forlængelse [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1354692383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1354692383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1400"/>
+                  <a:t>Kraft</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1400" baseline="0"/>
+                  <a:t> [N]</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1354690303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1499646480955861"/>
+          <c:y val="0.89095829931175818"/>
+          <c:w val="0.73850054665814191"/>
+          <c:h val="6.2896692108374813E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Typisk Enkeltløkke (dobbelt kraft) vs </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dobbeltløkke (dobbelt forlængelse)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Enkeltløkke med dobbelt kraft</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$S$6:$S$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$AH$39:$AH$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3FC0-4354-8F85-7AA4D87E4358}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Dobbeltløkke med dobbelt forlængelse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$AI$39:$AI$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$I$39:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3FC0-4354-8F85-7AA4D87E4358}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5603,6 +7299,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7668,6 +9444,1038 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8369,16 +11177,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>64201</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>37046</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>53376</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>35962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>197551</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>41809</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>186727</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>40725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8407,16 +11215,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1200397</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>73551</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>950366</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>54717</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>126577</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>590499</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>67046</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8445,16 +11253,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>163439</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>138549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>31956</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>53026</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>155865</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8476,6 +11284,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagram 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>173181</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>19482</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagram 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9545,10 +12429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE186"/>
+  <dimension ref="A1:AI186"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AC27" sqref="AC27"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V69" sqref="V69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9559,15 +12443,17 @@
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5703125" customWidth="1"/>
+    <col min="35" max="35" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:34" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="24"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -9603,7 +12489,7 @@
       <c r="U2" s="15"/>
       <c r="V2" s="15"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -9652,11 +12538,11 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -9715,7 +12601,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>15</v>
       </c>
@@ -9779,8 +12665,14 @@
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
+      <c r="AG6" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH6" s="26" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>14</v>
       </c>
@@ -9844,8 +12736,10 @@
       </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="26"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>13</v>
       </c>
@@ -9909,8 +12803,14 @@
       </c>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
+      <c r="AG8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>44</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>12</v>
       </c>
@@ -9974,8 +12874,14 @@
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
+      <c r="AG9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>63</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>11</v>
       </c>
@@ -10037,14 +12943,14 @@
         <f t="shared" si="5"/>
         <v>337.6</v>
       </c>
-      <c r="AB10" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC10" s="24" t="s">
-        <v>44</v>
+      <c r="AG10" s="2">
+        <v>3</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -10106,10 +13012,14 @@
         <f t="shared" si="5"/>
         <v>335.4</v>
       </c>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="24"/>
+      <c r="AG11" s="2">
+        <v>4</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>58</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -10171,14 +13081,14 @@
         <f t="shared" si="5"/>
         <v>332.4</v>
       </c>
-      <c r="AB12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>44</v>
+      <c r="AG12" s="2">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -10240,14 +13150,8 @@
         <f t="shared" si="5"/>
         <v>329.2</v>
       </c>
-      <c r="AB13" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>63</v>
-      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>7</v>
       </c>
@@ -10309,14 +13213,8 @@
         <f t="shared" si="5"/>
         <v>325</v>
       </c>
-      <c r="AB14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>47</v>
-      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -10378,14 +13276,8 @@
         <f t="shared" si="5"/>
         <v>320.39999999999998</v>
       </c>
-      <c r="AB15" s="2">
-        <v>4</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>58</v>
-      </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>5</v>
       </c>
@@ -10447,14 +13339,8 @@
         <f t="shared" si="5"/>
         <v>314.39999999999998</v>
       </c>
-      <c r="AB16" s="2">
-        <v>5</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>50</v>
-      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -10516,10 +13402,8 @@
         <f t="shared" si="5"/>
         <v>309.2</v>
       </c>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -10574,10 +13458,8 @@
         <f>SUM(C18,G18,K18,O18,S18)/4</f>
         <v>304.75</v>
       </c>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -10632,10 +13514,8 @@
         <f>SUM(C19,G19,K19,O19,S19)/4</f>
         <v>297.25</v>
       </c>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -10697,10 +13577,8 @@
         <f t="shared" si="5"/>
         <v>282</v>
       </c>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2.5</v>
       </c>
@@ -10762,10 +13640,8 @@
         <f t="shared" si="5"/>
         <v>239.6</v>
       </c>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2</v>
       </c>
@@ -10814,7 +13690,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -10870,7 +13746,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1.5</v>
       </c>
@@ -10933,7 +13809,7 @@
         <v>116.8</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -10989,7 +13865,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -11052,7 +13928,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -11108,7 +13984,7 @@
         <v>42.75</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -11164,7 +14040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>0.5</v>
       </c>
@@ -11227,7 +14103,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>0.25</v>
       </c>
@@ -11290,7 +14166,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -11353,13 +14229,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A34" s="22" t="s">
+    <row r="34" spans="1:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="22"/>
+      <c r="B34" s="24"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -11394,8 +14270,14 @@
       </c>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
+      <c r="AH35" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI35" s="21" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -11443,8 +14325,18 @@
         <f>(SUM(C36+G36+K36+O36+S36)/5)</f>
         <v>60.1</v>
       </c>
+      <c r="AH36" s="21"/>
+      <c r="AI36" s="21"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH37" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI37" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
@@ -11500,8 +14392,10 @@
       <c r="U38" s="15" t="s">
         <v>2</v>
       </c>
+      <c r="AH38" s="22"/>
+      <c r="AI38" s="22"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>15</v>
       </c>
@@ -11563,8 +14457,16 @@
         <f>SUM(C39,G39,K39,O39,S39)/5</f>
         <v>105.7</v>
       </c>
+      <c r="AH39" s="3">
+        <f>Q6*2</f>
+        <v>30</v>
+      </c>
+      <c r="AI39" s="3">
+        <f>K39*2</f>
+        <v>222</v>
+      </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>14</v>
       </c>
@@ -11626,8 +14528,16 @@
         <f t="shared" ref="U40:U49" si="13">SUM(C40,G40,K40,O40,S40)/5</f>
         <v>104.9</v>
       </c>
+      <c r="AH40" s="3">
+        <f>Q7*2</f>
+        <v>28</v>
+      </c>
+      <c r="AI40" s="3">
+        <f t="shared" ref="AI40:AI64" si="14">K40*2</f>
+        <v>221</v>
+      </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>13</v>
       </c>
@@ -11689,8 +14599,16 @@
         <f t="shared" si="13"/>
         <v>104.1</v>
       </c>
+      <c r="AH41" s="3">
+        <f t="shared" ref="AH41:AH64" si="15">Q8*2</f>
+        <v>26</v>
+      </c>
+      <c r="AI41" s="3">
+        <f t="shared" si="14"/>
+        <v>220</v>
+      </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>12</v>
       </c>
@@ -11752,8 +14670,16 @@
         <f t="shared" si="13"/>
         <v>103.1</v>
       </c>
+      <c r="AH42" s="3">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="AI42" s="3">
+        <f t="shared" si="14"/>
+        <v>218</v>
+      </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>11</v>
       </c>
@@ -11815,8 +14741,16 @@
         <f t="shared" si="13"/>
         <v>101.9</v>
       </c>
+      <c r="AH43" s="3">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="AI43" s="3">
+        <f t="shared" si="14"/>
+        <v>215</v>
+      </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>10</v>
       </c>
@@ -11878,8 +14812,16 @@
         <f t="shared" si="13"/>
         <v>100.3</v>
       </c>
+      <c r="AH44" s="3">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="AI44" s="3">
+        <f t="shared" si="14"/>
+        <v>212</v>
+      </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>9</v>
       </c>
@@ -11941,8 +14883,16 @@
         <f t="shared" si="13"/>
         <v>98.6</v>
       </c>
+      <c r="AH45" s="3">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="AI45" s="3">
+        <f t="shared" si="14"/>
+        <v>208</v>
+      </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>8</v>
       </c>
@@ -12004,8 +14954,16 @@
         <f t="shared" si="13"/>
         <v>96.1</v>
       </c>
+      <c r="AH46" s="3">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="AI46" s="3">
+        <f t="shared" si="14"/>
+        <v>203</v>
+      </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>7</v>
       </c>
@@ -12067,8 +15025,16 @@
         <f t="shared" si="13"/>
         <v>91.8</v>
       </c>
+      <c r="AH47" s="3">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="AI47" s="3">
+        <f t="shared" si="14"/>
+        <v>194</v>
+      </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>6</v>
       </c>
@@ -12130,8 +15096,16 @@
         <f t="shared" si="13"/>
         <v>84.2</v>
       </c>
+      <c r="AH48" s="3">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="AI48" s="3">
+        <f t="shared" si="14"/>
+        <v>182</v>
+      </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>5</v>
       </c>
@@ -12193,8 +15167,16 @@
         <f t="shared" si="13"/>
         <v>69.2</v>
       </c>
+      <c r="AH49" s="3">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="AI49" s="3">
+        <f t="shared" si="14"/>
+        <v>154</v>
+      </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>4.5</v>
       </c>
@@ -12256,8 +15238,16 @@
         <f>SUM(C50,G50,K50,O50,S50)/5</f>
         <v>59.6</v>
       </c>
+      <c r="AH50" s="3">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="AI50" s="3">
+        <f t="shared" si="14"/>
+        <v>134</v>
+      </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>4.25</v>
       </c>
@@ -12319,8 +15309,16 @@
         <f>SUM(C51,G51,K51,O51,S51)/4</f>
         <v>67.875</v>
       </c>
+      <c r="AH51" s="3">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="AI51" s="3">
+        <f t="shared" si="14"/>
+        <v>128</v>
+      </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>4</v>
       </c>
@@ -12382,8 +15380,16 @@
         <f>SUM(C52,G52,K52,O52,S52)/4</f>
         <v>60.125</v>
       </c>
+      <c r="AH52" s="3">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="AI52" s="3">
+        <f t="shared" si="14"/>
+        <v>112</v>
+      </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>3.75</v>
       </c>
@@ -12442,11 +15448,19 @@
         <v>3</v>
       </c>
       <c r="U53" s="15">
-        <f t="shared" ref="U53:U54" si="14">SUM(C53,G53,K53,O53,S53)/5</f>
+        <f t="shared" ref="U53:U54" si="16">SUM(C53,G53,K53,O53,S53)/5</f>
         <v>41.6</v>
       </c>
+      <c r="AH53" s="3">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="AI53" s="3">
+        <f t="shared" si="14"/>
+        <v>96</v>
+      </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>3.5</v>
       </c>
@@ -12505,11 +15519,19 @@
         <v>2.5</v>
       </c>
       <c r="U54" s="15">
+        <f t="shared" si="16"/>
+        <v>38.9</v>
+      </c>
+      <c r="AH54" s="3">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="AI54" s="3">
         <f t="shared" si="14"/>
-        <v>38.9</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>3.25</v>
       </c>
@@ -12571,8 +15593,16 @@
         <f>SUM(C55,G55,K55,O55,S55)/4</f>
         <v>42.5</v>
       </c>
+      <c r="AH55" s="3">
+        <f t="shared" si="15"/>
+        <v>4.5</v>
+      </c>
+      <c r="AI55" s="3">
+        <f t="shared" si="14"/>
+        <v>80</v>
+      </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>3</v>
       </c>
@@ -12631,11 +15661,19 @@
         <v>2</v>
       </c>
       <c r="U56" s="15">
-        <f t="shared" ref="U56:U57" si="15">SUM(C56,G56,K56,O56,S56)/5</f>
+        <f t="shared" ref="U56:U57" si="17">SUM(C56,G56,K56,O56,S56)/5</f>
         <v>29.4</v>
       </c>
+      <c r="AH56" s="3">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AI56" s="3">
+        <f t="shared" si="14"/>
+        <v>69</v>
+      </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>2.75</v>
       </c>
@@ -12694,11 +15732,19 @@
         <v>1.75</v>
       </c>
       <c r="U57" s="15">
+        <f t="shared" si="17"/>
+        <v>25.7</v>
+      </c>
+      <c r="AH57" s="3">
         <f t="shared" si="15"/>
-        <v>25.7</v>
+        <v>3.5</v>
+      </c>
+      <c r="AI57" s="3">
+        <f t="shared" si="14"/>
+        <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>2.5</v>
       </c>
@@ -12760,8 +15806,16 @@
         <f>SUM(C58,G58,K58,O58,S58)/4</f>
         <v>28.5</v>
       </c>
+      <c r="AH58" s="3">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AI58" s="3">
+        <f t="shared" si="14"/>
+        <v>56</v>
+      </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>2.25</v>
       </c>
@@ -12820,11 +15874,19 @@
         <v>1.25</v>
       </c>
       <c r="U59" s="15">
-        <f t="shared" ref="U59" si="16">SUM(C59,G59,K59,O59,S59)/5</f>
+        <f t="shared" ref="U59" si="18">SUM(C59,G59,K59,O59,S59)/5</f>
         <v>20.6</v>
       </c>
+      <c r="AH59" s="3">
+        <f t="shared" si="15"/>
+        <v>2.5</v>
+      </c>
+      <c r="AI59" s="3">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>2</v>
       </c>
@@ -12886,8 +15948,16 @@
         <f>SUM(C60,G60,K60,O60,S60)/4</f>
         <v>21.75</v>
       </c>
+      <c r="AH60" s="3">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="AI60" s="3">
+        <f t="shared" si="14"/>
+        <v>42</v>
+      </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>1.5</v>
       </c>
@@ -12949,8 +16019,16 @@
         <f>SUM(C61,G61,K61,O61,S61)/4</f>
         <v>15.25</v>
       </c>
+      <c r="AH61" s="3">
+        <f t="shared" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="AI61" s="3">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>1</v>
       </c>
@@ -13009,11 +16087,19 @@
         <v>0.5</v>
       </c>
       <c r="U62" s="15">
-        <f t="shared" ref="U62:U64" si="17">SUM(C62,G62,K62,O62,S62)/5</f>
+        <f t="shared" ref="U62:U64" si="19">SUM(C62,G62,K62,O62,S62)/5</f>
         <v>8.3000000000000007</v>
       </c>
+      <c r="AH62" s="3">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AI62" s="3">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>0.5</v>
       </c>
@@ -13072,11 +16158,19 @@
         <v>0.25</v>
       </c>
       <c r="U63" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.4000000000000004</v>
       </c>
+      <c r="AH63" s="3">
+        <f t="shared" si="15"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI63" s="3">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>0</v>
       </c>
@@ -13135,15 +16229,23 @@
         <v>0</v>
       </c>
       <c r="U64" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AH64" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AI64" s="3">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="21"/>
+      <c r="B68" s="23"/>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -13292,7 +16394,7 @@
         <v>561</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" ref="G72:G91" si="18">F72-$F$90</f>
+        <f t="shared" ref="G72:G91" si="20">F72-$F$90</f>
         <v>89</v>
       </c>
     </row>
@@ -13304,7 +16406,7 @@
         <v>543</v>
       </c>
       <c r="C73" s="3">
-        <f t="shared" ref="C73:C78" si="19">B73-$B$78</f>
+        <f t="shared" ref="C73:C78" si="21">B73-$B$78</f>
         <v>53</v>
       </c>
       <c r="D73" s="3"/>
@@ -13315,7 +16417,7 @@
         <v>560</v>
       </c>
       <c r="G73" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>88</v>
       </c>
       <c r="P73" t="s">
@@ -13330,7 +16432,7 @@
         <v>539</v>
       </c>
       <c r="C74" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>49</v>
       </c>
       <c r="D74" s="3"/>
@@ -13341,7 +16443,7 @@
         <v>559</v>
       </c>
       <c r="G74" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>87</v>
       </c>
       <c r="Q74" t="s">
@@ -13371,7 +16473,7 @@
         <v>537</v>
       </c>
       <c r="C75" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>47</v>
       </c>
       <c r="D75" s="3"/>
@@ -13382,7 +16484,7 @@
         <v>559</v>
       </c>
       <c r="G75" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>87</v>
       </c>
       <c r="P75" t="s">
@@ -13430,7 +16532,7 @@
         <v>531</v>
       </c>
       <c r="C76" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>41</v>
       </c>
       <c r="D76" s="3"/>
@@ -13441,7 +16543,7 @@
         <v>558</v>
       </c>
       <c r="G76" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>86</v>
       </c>
       <c r="P76" t="s">
@@ -13492,7 +16594,7 @@
         <v>500</v>
       </c>
       <c r="C77" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="D77" s="3"/>
@@ -13503,7 +16605,7 @@
         <v>556</v>
       </c>
       <c r="G77" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>84</v>
       </c>
       <c r="P77">
@@ -13526,7 +16628,7 @@
         <v>490</v>
       </c>
       <c r="C78" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="D78" s="3"/>
@@ -13537,18 +16639,18 @@
         <v>554</v>
       </c>
       <c r="G78" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>82</v>
       </c>
       <c r="P78">
         <v>5</v>
       </c>
       <c r="Q78">
-        <f t="shared" ref="Q78:Q97" si="20">0.00003*P78^3-0.0031*P78^2+0.1115*P78+2.2599</f>
+        <f t="shared" ref="Q78:Q97" si="22">0.00003*P78^3-0.0031*P78^2+0.1115*P78+2.2599</f>
         <v>2.7436500000000001</v>
       </c>
       <c r="R78">
-        <f t="shared" ref="R78:R97" si="21">0.00008*P78^3-0.0088*P78^2+0.2956*P78+1.4681</f>
+        <f t="shared" ref="R78:R97" si="23">0.00008*P78^3-0.0088*P78^2+0.2956*P78+1.4681</f>
         <v>2.7360999999999995</v>
       </c>
       <c r="S78">
@@ -13607,50 +16709,50 @@
         <v>552</v>
       </c>
       <c r="G79" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>80</v>
       </c>
       <c r="P79">
         <v>10</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.0949</v>
       </c>
       <c r="R79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.6240999999999994</v>
       </c>
       <c r="S79">
-        <f t="shared" ref="S79:S97" si="22">(P79-P78)*((Q78+Q79)/2)*0.001+S78</f>
+        <f t="shared" ref="S79:S97" si="24">(P79-P78)*((Q78+Q79)/2)*0.001+S78</f>
         <v>2.7105250000000001E-2</v>
       </c>
       <c r="T79">
-        <f t="shared" ref="T79:T97" si="23">(P79-P78)*((R78+R79)/2)*0.001+T78</f>
+        <f t="shared" ref="T79:T97" si="25">(P79-P78)*((R78+R79)/2)*0.001+T78</f>
         <v>2.6410999999999997E-2</v>
       </c>
       <c r="W79" t="e">
-        <f t="shared" ref="W79:W97" si="24">SQRT((2*($S79-$U$78))/($M$71*0.001))</f>
+        <f t="shared" ref="W79:W97" si="26">SQRT((2*($S79-$U$78))/($M$71*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="X79" t="e">
-        <f t="shared" ref="X79:X97" si="25">SQRT((2*($S79-$U$78))/(($M$71+$N$71)*0.001))</f>
+        <f t="shared" ref="X79:X97" si="27">SQRT((2*($S79-$U$78))/(($M$71+$N$71)*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="Y79" t="e">
-        <f t="shared" ref="Y79:Y97" si="26">SQRT((2*($T79-$U$78))/($M$71*0.001))</f>
+        <f t="shared" ref="Y79:Y97" si="28">SQRT((2*($T79-$U$78))/($M$71*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="Z79" t="e">
-        <f t="shared" ref="Z79:Z97" si="27">SQRT((2*($T79-$U$78))/(($M$71+$N$71)*0.001))</f>
+        <f t="shared" ref="Z79:Z97" si="29">SQRT((2*($T79-$U$78))/(($M$71+$N$71)*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="AA79" t="e">
-        <f t="shared" ref="AA79:AA97" si="28">SQRT((4*($T79-$U$78))/($M$71*0.001))</f>
+        <f t="shared" ref="AA79:AA97" si="30">SQRT((4*($T79-$U$78))/($M$71*0.001))</f>
         <v>#NUM!</v>
       </c>
       <c r="AB79" t="e">
-        <f t="shared" ref="AB79:AB94" si="29">SQRT((4*($T79-$U$78))/(($M$71+$N$71)*0.001))</f>
+        <f t="shared" ref="AB79:AB94" si="31">SQRT((4*($T79-$U$78))/(($M$71+$N$71)*0.001))</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -13673,50 +16775,50 @@
         <v>551</v>
       </c>
       <c r="G80" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>79</v>
       </c>
       <c r="P80">
         <v>15</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.3361499999999999</v>
       </c>
       <c r="R80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.192099999999999</v>
       </c>
       <c r="S80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>4.3182875000000003E-2</v>
       </c>
       <c r="T80">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.5951499999999992E-2</v>
       </c>
       <c r="W80">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.85844608887221352</v>
       </c>
       <c r="X80">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.78776415786772946</v>
       </c>
       <c r="Y80">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.95392282182574906</v>
       </c>
       <c r="Z80">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0.87537961690012545</v>
       </c>
       <c r="AA80">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.3490505920831879</v>
       </c>
       <c r="AB80">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.2379737264451216</v>
       </c>
     </row>
@@ -13732,50 +16834,50 @@
         <v>550</v>
       </c>
       <c r="G81" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>78</v>
       </c>
       <c r="P81">
         <v>20</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.4899</v>
       </c>
       <c r="R81">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.5000999999999989</v>
       </c>
       <c r="S81">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>6.024800000000001E-2</v>
       </c>
       <c r="T81">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.7681999999999992E-2</v>
       </c>
       <c r="W81">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.3429445260322561</v>
       </c>
       <c r="X81">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.2323704159485751</v>
       </c>
       <c r="Y81">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.5060295481829031</v>
       </c>
       <c r="Z81">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.3820274961085253</v>
       </c>
       <c r="AA81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.1298474123748865</v>
       </c>
       <c r="AB81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.9544820285692064</v>
       </c>
       <c r="AE81" t="s">
@@ -13794,50 +16896,50 @@
         <v>547</v>
       </c>
       <c r="G82" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>75</v>
       </c>
       <c r="P82">
         <v>25</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.5786500000000001</v>
       </c>
       <c r="R82">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.6080999999999994</v>
       </c>
       <c r="S82">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7.7919375000000013E-2</v>
       </c>
       <c r="T82">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.0452499999999991E-2</v>
       </c>
       <c r="W82">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.7052744463868568</v>
       </c>
       <c r="X82">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.5648671542742267</v>
       </c>
       <c r="Y82">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.9212707383396019</v>
       </c>
       <c r="Z82">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.7630789456008633</v>
       </c>
       <c r="AA82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2.7170871351504351</v>
       </c>
       <c r="AB82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2.4933701564031971</v>
       </c>
     </row>
@@ -13853,50 +16955,50 @@
         <v>545</v>
       </c>
       <c r="G83" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>73</v>
       </c>
       <c r="P83">
         <v>30</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.6249000000000002</v>
       </c>
       <c r="R83">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.5760999999999976</v>
       </c>
       <c r="S83">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.592825000000002E-2</v>
       </c>
       <c r="T83">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.11341299999999999</v>
       </c>
       <c r="W83">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.0083614278809483</v>
       </c>
       <c r="X83">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.8429988434185482</v>
       </c>
       <c r="Y83">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.26413614873311</v>
       </c>
       <c r="Z83">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.077713824577895</v>
       </c>
       <c r="AA83">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.2019720485975509</v>
       </c>
       <c r="AB83">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2.9383310694481328</v>
       </c>
     </row>
@@ -13912,50 +17014,50 @@
         <v>540</v>
       </c>
       <c r="G84" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>68</v>
       </c>
       <c r="P84">
         <v>35</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.6511500000000003</v>
       </c>
       <c r="R84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.4640999999999966</v>
       </c>
       <c r="S84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.11411837500000002</v>
       </c>
       <c r="T84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.13601349999999998</v>
       </c>
       <c r="W84">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.2738510147984634</v>
       </c>
       <c r="X84">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.0866287970892441</v>
       </c>
       <c r="Y84">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.5571162957519156</v>
       </c>
       <c r="Z84">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.3465708463291928</v>
       </c>
       <c r="AA84">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.6163085460176094</v>
       </c>
       <c r="AB84">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3.3185523159480561</v>
       </c>
     </row>
@@ -13971,50 +17073,50 @@
         <v>535</v>
       </c>
       <c r="G85" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>63</v>
       </c>
       <c r="P85">
         <v>40</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.6798999999999999</v>
       </c>
       <c r="R85">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.332099999999997</v>
       </c>
       <c r="S85">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.13244600000000001</v>
       </c>
       <c r="T85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.15800399999999998</v>
       </c>
       <c r="W85">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.513140465632592</v>
       </c>
       <c r="X85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.3062158569716256</v>
       </c>
       <c r="Y85">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.8130499462327356</v>
       </c>
       <c r="Z85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.5814316713181098</v>
       </c>
       <c r="AA85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>3.9782533855952407</v>
       </c>
       <c r="AB85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3.6506956799175168</v>
       </c>
     </row>
@@ -14030,50 +17132,50 @@
         <v>522</v>
       </c>
       <c r="G86" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="P86">
         <v>45</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.7336500000000004</v>
       </c>
       <c r="R86">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.2401</v>
       </c>
       <c r="S86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.15097987500000001</v>
       </c>
       <c r="T86">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.17943449999999997</v>
       </c>
       <c r="W86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.7339060312124848</v>
       </c>
       <c r="X86">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.5088042339350687</v>
       </c>
       <c r="Y86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.041817918613801</v>
       </c>
       <c r="Z86">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.7913635603976399</v>
       </c>
       <c r="AA86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4.3017801547731374</v>
       </c>
       <c r="AB86">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3.947584204628392</v>
       </c>
     </row>
@@ -14089,50 +17191,50 @@
         <v>512</v>
       </c>
       <c r="G87" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
       <c r="P87">
         <v>50</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.8349000000000002</v>
       </c>
       <c r="R87">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.2480999999999991</v>
       </c>
       <c r="S87">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.16990125</v>
       </c>
       <c r="T87">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.20065499999999997</v>
       </c>
       <c r="W87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.9422488210550788</v>
       </c>
       <c r="X87">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.699992690048584</v>
       </c>
       <c r="Y87">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.2525278630628205</v>
       </c>
       <c r="Z87">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.9847242665560283</v>
       </c>
       <c r="AA87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4.5997690159398221</v>
       </c>
       <c r="AB87">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.2210375377076241</v>
       </c>
     </row>
@@ -14148,50 +17250,50 @@
         <v>497</v>
       </c>
       <c r="G88" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="P88">
         <v>55</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.0061500000000008</v>
       </c>
       <c r="R88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.4160999999999984</v>
       </c>
       <c r="S88">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.18950387500000002</v>
       </c>
       <c r="T88">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.22231549999999997</v>
       </c>
       <c r="W88">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.1435636127649778</v>
       </c>
       <c r="X88">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.8847318127650876</v>
       </c>
       <c r="Y88">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.454376752758737</v>
       </c>
       <c r="Z88">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.1699535111982153</v>
       </c>
       <c r="AA88">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>4.8852264532977383</v>
       </c>
       <c r="AB88">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.4829912476287292</v>
       </c>
     </row>
@@ -14207,50 +17309,50 @@
         <v>482</v>
       </c>
       <c r="G89" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="P89">
         <v>60</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.2699000000000007</v>
       </c>
       <c r="R89">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.8040999999999947</v>
       </c>
       <c r="S89">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.21019400000000002</v>
       </c>
       <c r="T89">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.24536599999999995</v>
       </c>
       <c r="W89">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.3429216263621857</v>
       </c>
       <c r="X89">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.0676752727346108</v>
       </c>
       <c r="Y89">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.6569625374072396</v>
       </c>
       <c r="Z89">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.3558589770257345</v>
       </c>
       <c r="AA89">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.1717260174916451</v>
       </c>
       <c r="AB89">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4.745901278721294</v>
       </c>
     </row>
@@ -14266,50 +17368,50 @@
         <v>472</v>
       </c>
       <c r="G90" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P90">
         <v>65</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.6486499999999999</v>
       </c>
       <c r="R90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.4721000000000011</v>
       </c>
       <c r="S90">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.23249037500000003</v>
       </c>
       <c r="T90">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.27105649999999992</v>
       </c>
       <c r="W90">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.5452289682755334</v>
       </c>
       <c r="X90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.253325221984424</v>
       </c>
       <c r="Y90">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.8702753455019185</v>
       </c>
       <c r="Z90">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.5516082346778588</v>
       </c>
       <c r="AA90">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.4733958837270293</v>
       </c>
       <c r="AB90">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.0227325337173934</v>
       </c>
     </row>
@@ -14325,50 +17427,50 @@
         <v>465</v>
       </c>
       <c r="G91" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-7</v>
       </c>
       <c r="P91">
         <v>70</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.1649000000000012</v>
       </c>
       <c r="R91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6.4800999999999931</v>
       </c>
       <c r="S91">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.25702425000000001</v>
       </c>
       <c r="T91">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.3009369999999999</v>
       </c>
       <c r="W91">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.7552650538943322</v>
       </c>
       <c r="X91">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.4460675528705713</v>
       </c>
       <c r="Y91">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.1044564195518012</v>
       </c>
       <c r="Z91">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.76650752652486</v>
       </c>
       <c r="AA91">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5.8045779346994717</v>
       </c>
       <c r="AB91">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.3266460267917966</v>
       </c>
     </row>
@@ -14391,43 +17493,43 @@
         <v>75</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.8411500000000007</v>
       </c>
       <c r="R92">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>7.8880999999999979</v>
       </c>
       <c r="S92">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.28453937500000004</v>
       </c>
       <c r="T92">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.33685749999999987</v>
       </c>
       <c r="W92">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.9776514348922034</v>
       </c>
       <c r="X92">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.6501432920683516</v>
       </c>
       <c r="Y92">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.3693928353948666</v>
       </c>
       <c r="Z92">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.0096298556035519</v>
       </c>
       <c r="AA92">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>6.1792546071512531</v>
       </c>
       <c r="AB92">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5.6704729218906182</v>
       </c>
     </row>
@@ -14436,43 +17538,43 @@
         <v>80</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>6.6999000000000013</v>
       </c>
       <c r="R93">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.7560999999999964</v>
       </c>
       <c r="S93">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.31589200000000006</v>
       </c>
       <c r="T93">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.38096799999999986</v>
       </c>
       <c r="W93">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.2167819483582507</v>
       </c>
       <c r="X93">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.8695845010189815</v>
       </c>
       <c r="Y93">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.6742379057981198</v>
       </c>
       <c r="Z93">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.2893748777770941</v>
       </c>
       <c r="AA93">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>6.6103706401381146</v>
       </c>
       <c r="AB93">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.0660921262548033</v>
       </c>
     </row>
@@ -14481,43 +17583,43 @@
         <v>85</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7.7636500000000019</v>
       </c>
       <c r="R94">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>12.144099999999995</v>
       </c>
       <c r="S94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.3520508750000001</v>
       </c>
       <c r="T94">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.43571849999999984</v>
       </c>
       <c r="W94">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.4767376165573971</v>
       </c>
       <c r="X94">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.1081361825938592</v>
       </c>
       <c r="Y94">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.0269678982464159</v>
       </c>
       <c r="Z94">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.6130621180798279</v>
       </c>
       <c r="AA94">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>7.1092061793142545</v>
       </c>
       <c r="AB94">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.5238550114580489</v>
       </c>
     </row>
@@ -14526,39 +17628,39 @@
         <v>90</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.0549000000000017</v>
       </c>
       <c r="R95">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>15.112100000000005</v>
       </c>
       <c r="S95">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.39409725000000012</v>
       </c>
       <c r="T95">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.50385899999999983</v>
       </c>
       <c r="W95">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>4.7612055327406324</v>
       </c>
       <c r="X95">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.3691818456090852</v>
       </c>
       <c r="Y95">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.4340765084786939</v>
       </c>
       <c r="Z95">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.9866506004056781</v>
       </c>
       <c r="AA95">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>7.684944697263604</v>
       </c>
       <c r="AB95">
@@ -14571,39 +17673,39 @@
         <v>95</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10.596150000000002</v>
       </c>
       <c r="R96">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>18.720099999999999</v>
       </c>
       <c r="S96">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.44322487500000013</v>
       </c>
       <c r="T96">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.58843949999999978</v>
       </c>
       <c r="W96">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5.073416470929625</v>
       </c>
       <c r="X96">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.6556862516372624</v>
       </c>
       <c r="Y96">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.9004634351887972</v>
       </c>
       <c r="Z96">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.4146365966410155</v>
       </c>
       <c r="AA96">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>8.3445154143305391</v>
       </c>
       <c r="AB96">
@@ -14616,39 +17718,39 @@
         <v>100</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>12.4099</v>
       </c>
       <c r="R97">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>23.028099999999998</v>
       </c>
       <c r="S97">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.50074000000000018</v>
       </c>
       <c r="T97">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.69280999999999981</v>
       </c>
       <c r="W97">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5.4161102278295639</v>
       </c>
       <c r="X97">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.9701636105654998</v>
       </c>
       <c r="Y97">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.4295120343615491</v>
       </c>
       <c r="Z97">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.9001248871706533</v>
       </c>
       <c r="AA97">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>9.0927031184351321</v>
       </c>
       <c r="AB97">
@@ -14661,23 +17763,23 @@
         <v>35</v>
       </c>
       <c r="W100">
-        <f t="shared" ref="W100:AA100" si="30">(COS($S$71)*W97)*(SIN($S$71)*W97+SQRT(SIN($S$71)^2+2*9.81*$P$71*0.001))/9.81</f>
+        <f t="shared" ref="W100:AA100" si="32">(COS($S$71)*W97)*(SIN($S$71)*W97+SQRT(SIN($S$71)^2+2*9.81*$P$71*0.001))/9.81</f>
         <v>2.1213137474238475</v>
       </c>
       <c r="X100">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.8361518472553215</v>
       </c>
       <c r="Y100">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2.8430668778456725</v>
       </c>
       <c r="Z100">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>2.4532586769452918</v>
       </c>
       <c r="AA100">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>5.2279635124640214</v>
       </c>
       <c r="AB100">
@@ -14765,7 +17867,7 @@
         <v>0.73143111824030438</v>
       </c>
       <c r="T107">
-        <f t="shared" ref="T107:T170" si="31">P107*$M$71*9.81*0.000001</f>
+        <f t="shared" ref="T107:T170" si="33">P107*$M$71*9.81*0.000001</f>
         <v>3.2961599999999994E-2</v>
       </c>
       <c r="U107" s="6">
@@ -14785,15 +17887,15 @@
         <v>41.818816270109949</v>
       </c>
       <c r="R108" s="6">
-        <f t="shared" ref="R108:R171" si="32">Q108/180*PI()</f>
+        <f t="shared" ref="R108:R171" si="34">Q108/180*PI()</f>
         <v>0.72987603319999295</v>
       </c>
       <c r="T108">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3.4531200000000005E-2</v>
       </c>
       <c r="U108" s="6">
-        <f t="shared" ref="U108:U170" si="33">SQRT((4*($T$96-T108))/(($M$71+$N$71)*0.001))</f>
+        <f t="shared" ref="U108:U170" si="35">SQRT((4*($T$96-T108))/(($M$71+$N$71)*0.001))</f>
         <v>7.6358455224097641</v>
       </c>
       <c r="V108">
@@ -14809,19 +17911,19 @@
         <v>41.731734358584788</v>
       </c>
       <c r="R109" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.72835616712494855</v>
       </c>
       <c r="T109">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3.6100800000000002E-2</v>
       </c>
       <c r="U109" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.6250190681383652</v>
       </c>
       <c r="V109">
-        <f t="shared" ref="V109:V170" si="34">(COS(R109)*U109)*(SIN(R109)*U109+SQRT(SIN(R109)^2+2*9.81*P109*0.001))/9.81</f>
+        <f t="shared" ref="V109:V170" si="36">(COS(R109)*U109)*(SIN(R109)*U109+SQRT(SIN(R109)^2+2*9.81*P109*0.001))/9.81</f>
         <v>3.8971013192635948</v>
       </c>
     </row>
@@ -14833,19 +17935,19 @@
         <v>41.646532921356958</v>
       </c>
       <c r="R110" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.72686912151789163</v>
       </c>
       <c r="T110">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3.76704E-2</v>
       </c>
       <c r="U110" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.6141772199524018</v>
       </c>
       <c r="V110">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9045324522837372</v>
       </c>
     </row>
@@ -14857,19 +17959,19 @@
         <v>41.563087275400115</v>
       </c>
       <c r="R111" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.72541272024949111</v>
       </c>
       <c r="T111">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>3.9239999999999997E-2</v>
       </c>
       <c r="U111" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.6033199119996597</v>
       </c>
       <c r="V111">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9116427138300871</v>
       </c>
     </row>
@@ -14881,19 +17983,19 @@
         <v>41.481287511143876</v>
       </c>
       <c r="R112" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.72398504503586458</v>
       </c>
       <c r="T112">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.0809599999999994E-2</v>
       </c>
       <c r="U112" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5924470779570754</v>
       </c>
       <c r="V112">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9184464447851206</v>
       </c>
     </row>
@@ -14905,19 +18007,19 @@
         <v>41.401032109325385</v>
       </c>
       <c r="R113" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.72258432403162098</v>
       </c>
       <c r="T113">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.2379200000000006E-2</v>
       </c>
       <c r="U113" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5815586510260102</v>
       </c>
       <c r="V113">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9249568658636802</v>
       </c>
     </row>
@@ -14929,15 +18031,15 @@
         <v>41.322229052419722</v>
       </c>
       <c r="R114" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.72120895122798068</v>
       </c>
       <c r="T114">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.3948800000000003E-2</v>
       </c>
       <c r="U114" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5706545639274658</v>
       </c>
       <c r="V114">
@@ -14953,19 +18055,19 @@
         <v>41.244794215677523</v>
       </c>
       <c r="R115" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.71985745837108495</v>
       </c>
       <c r="T115">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.5518400000000001E-2</v>
       </c>
       <c r="U115" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5597347488972257</v>
       </c>
       <c r="V115">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9371457591409165</v>
       </c>
     </row>
@@ -14977,19 +18079,19 @@
         <v>41.168650647625526</v>
       </c>
       <c r="R116" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.71852850240436128</v>
       </c>
       <c r="T116">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.7087999999999998E-2</v>
       </c>
       <c r="U116" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5487991376809473</v>
       </c>
       <c r="V116">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9428460671200982</v>
       </c>
     </row>
@@ -15001,19 +18103,19 @@
         <v>41.093727574393519</v>
       </c>
       <c r="R117" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.71722084809074993</v>
       </c>
       <c r="T117">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.8657600000000002E-2</v>
       </c>
       <c r="U117" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5378476615291872</v>
       </c>
       <c r="V117">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9482969053648036</v>
       </c>
     </row>
@@ -15025,19 +18127,19 @@
         <v>41.019959917237287</v>
       </c>
       <c r="R118" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.71593335959189131</v>
       </c>
       <c r="T118">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.02272E-2</v>
       </c>
       <c r="U118" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5268802511923525</v>
       </c>
       <c r="V118">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9535073984137048</v>
       </c>
     </row>
@@ -15049,19 +18151,19 @@
         <v>40.947287598383824</v>
       </c>
       <c r="R119" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.71466498835283931</v>
       </c>
       <c r="T119">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.1796800000000004E-2</v>
       </c>
       <c r="U119" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.515896836915597</v>
       </c>
       <c r="V119">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9584860714647165</v>
       </c>
     </row>
@@ -15073,19 +18175,19 @@
         <v>40.875655044554172</v>
       </c>
       <c r="R120" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.71341476443689977</v>
       </c>
       <c r="T120">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.3366400000000001E-2</v>
       </c>
       <c r="U120" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.5048973484336408</v>
       </c>
       <c r="V120">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9632409041733787</v>
       </c>
     </row>
@@ -15097,19 +18199,19 @@
         <v>40.805010736160824</v>
       </c>
       <c r="R121" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.71218178865764159</v>
       </c>
       <c r="T121">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.4935999999999999E-2</v>
       </c>
       <c r="U121" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.4938817149655303</v>
       </c>
       <c r="V121">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9677793783799422</v>
       </c>
     </row>
@@ -15121,19 +18223,19 @@
         <v>40.735306811419633</v>
       </c>
       <c r="R122" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.71096522566934539</v>
       </c>
       <c r="T122">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.6505600000000003E-2</v>
       </c>
       <c r="U122" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.4828498652093192</v>
       </c>
       <c r="V122">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9721085205826432</v>
       </c>
     </row>
@@ -15145,19 +18247,19 @@
         <v>40.666498718326196</v>
       </c>
       <c r="R123" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.70976429789284623</v>
       </c>
       <c r="T123">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.80752E-2</v>
       </c>
       <c r="U123" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.4718017273366906</v>
       </c>
       <c r="V123">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.976234939847676</v>
       </c>
     </row>
@@ -15169,19 +18271,19 @@
         <v>40.598544907246151</v>
       </c>
       <c r="R124" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.70857828015022117</v>
       </c>
       <c r="T124">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.9644799999999998E-2</v>
       </c>
       <c r="U124" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.4607372289874929</v>
       </c>
       <c r="V124">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9801648617415704</v>
       </c>
     </row>
@@ -15193,19 +18295,19 @@
         <v>40.531406558789719</v>
       </c>
       <c r="R125" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.70740649491530516</v>
       </c>
       <c r="T125">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6.1214400000000002E-2</v>
       </c>
       <c r="U125" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.4496562972642169</v>
       </c>
       <c r="V125">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.98390415878487</v>
       </c>
     </row>
@@ -15217,19 +18319,19 @@
         <v>40.465047341999046</v>
       </c>
       <c r="R126" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.70624830809326333</v>
       </c>
       <c r="T126">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6.2783999999999993E-2</v>
       </c>
       <c r="U126" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.4385588587263882</v>
       </c>
       <c r="V126">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9874583778536432</v>
       </c>
     </row>
@@ -15241,19 +18343,19 @@
         <v>40.399433199116586</v>
       </c>
       <c r="R127" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.70510312526409036</v>
       </c>
       <c r="T127">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6.4353599999999997E-2</v>
       </c>
       <c r="U127" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.4274448393848909</v>
       </c>
       <c r="V127">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9908327648949204</v>
       </c>
     </row>
@@ -15265,19 +18367,19 @@
         <v>40.334523006166961</v>
       </c>
       <c r="R128" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.7039702286790146</v>
       </c>
       <c r="T128">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6.5923199999999987E-2</v>
       </c>
       <c r="U128" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.4163141646962112</v>
       </c>
       <c r="V128">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9940322872707057</v>
       </c>
     </row>
@@ -15289,19 +18391,19 @@
         <v>40.270290968452017</v>
       </c>
       <c r="R129" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.70284916813562359</v>
       </c>
       <c r="T129">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6.7492800000000006E-2</v>
       </c>
       <c r="U129" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.4051667595566064</v>
       </c>
       <c r="V129">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.9970616540052064</v>
       </c>
     </row>
@@ -15313,19 +18415,19 @@
         <v>40.206759596680286</v>
       </c>
       <c r="R130" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.70174033651989831</v>
       </c>
       <c r="T130">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6.906240000000001E-2</v>
       </c>
       <c r="U130" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.3940025482961875</v>
       </c>
       <c r="V130">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.999925334172922</v>
       </c>
     </row>
@@ -15337,19 +18439,19 @@
         <v>40.14382203682824</v>
       </c>
       <c r="R131" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.70064186887730906</v>
       </c>
       <c r="T131">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7.0632E-2</v>
       </c>
       <c r="U131" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.3828214546729303</v>
       </c>
       <c r="V131">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0026275736113046</v>
       </c>
     </row>
@@ -15361,19 +18463,19 @@
         <v>40.081486302593618</v>
       </c>
       <c r="R132" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.69955390507326687</v>
       </c>
       <c r="T132">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7.2201600000000005E-2</v>
       </c>
       <c r="U132" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.3716234018666036</v>
       </c>
       <c r="V132">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0051724101881483</v>
       </c>
     </row>
@@ -15385,19 +18487,19 @@
         <v>40.019729617275566</v>
       </c>
       <c r="R133" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.69847604757934878</v>
       </c>
       <c r="T133">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7.3771199999999995E-2</v>
       </c>
       <c r="U133" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.3604083124726012</v>
       </c>
       <c r="V133">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.007563687719828</v>
       </c>
     </row>
@@ -15409,19 +18511,19 @@
         <v>39.958528921826833</v>
       </c>
       <c r="R134" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.69740789393925806</v>
       </c>
       <c r="T134">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7.5340799999999999E-2</v>
       </c>
       <c r="U134" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.3491761084957128</v>
       </c>
       <c r="V134">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.009805068718209</v>
       </c>
     </row>
@@ -15433,19 +18535,19 @@
         <v>39.897862223339139</v>
       </c>
       <c r="R135" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.69634906030433319</v>
       </c>
       <c r="T135">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7.6910400000000004E-2</v>
       </c>
       <c r="U135" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.3379267113437843</v>
       </c>
       <c r="V135">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0119000460724781</v>
       </c>
     </row>
@@ -15457,19 +18559,19 @@
         <v>39.837710039604033</v>
       </c>
       <c r="R136" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.69529920664589095</v>
       </c>
       <c r="T136">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>7.8479999999999994E-2</v>
       </c>
       <c r="U136" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.3266600418213095</v>
       </c>
       <c r="V136">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0138519537746067</v>
       </c>
     </row>
@@ -15481,19 +18583,19 @@
         <v>39.778052940819954</v>
       </c>
       <c r="R137" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.69425799384992126</v>
       </c>
       <c r="T137">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.0049599999999999E-2</v>
       </c>
       <c r="U137" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.3153760201229208</v>
       </c>
       <c r="V137">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0156639767825251</v>
       </c>
     </row>
@@ -15505,19 +18607,19 @@
         <v>39.718872162346138</v>
       </c>
       <c r="R138" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.6932250944116598</v>
       </c>
       <c r="T138">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.1619199999999989E-2</v>
       </c>
       <c r="U138" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.3040745658267943</v>
       </c>
       <c r="V138">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0173391601043527</v>
       </c>
     </row>
@@ -15529,19 +18631,19 @@
         <v>39.66015046371863</v>
       </c>
       <c r="R139" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.69220020742824595</v>
       </c>
       <c r="T139">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.3188799999999993E-2</v>
       </c>
       <c r="U139" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.2927555978879681</v>
       </c>
       <c r="V139">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0188804171776837</v>
       </c>
     </row>
@@ -15553,19 +18655,19 @@
         <v>39.601871074138373</v>
       </c>
       <c r="R140" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.69118304019401799</v>
       </c>
       <c r="T140">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.4758400000000012E-2</v>
       </c>
       <c r="U140" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.2814190346315542</v>
       </c>
       <c r="V140">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0202905376096911</v>
       </c>
     </row>
@@ -15577,19 +18679,19 @@
         <v>39.544018501085837</v>
       </c>
       <c r="R141" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.6901733223135007</v>
       </c>
       <c r="T141">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.6328000000000002E-2</v>
       </c>
       <c r="U141" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.2700647937458678</v>
       </c>
       <c r="V141">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0215721943367519</v>
       </c>
     </row>
@@ -15601,19 +18703,19 @@
         <v>39.48657720663077</v>
       </c>
       <c r="R142" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68917078259865228</v>
       </c>
       <c r="T142">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.7897600000000006E-2</v>
       </c>
       <c r="U142" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.2586927922754487</v>
       </c>
       <c r="V142">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0227279502559661</v>
       </c>
     </row>
@@ -15625,19 +18727,19 @@
         <v>39.429532836908479</v>
       </c>
       <c r="R143" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68817517052727328</v>
       </c>
       <c r="T143">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.9467200000000011E-2</v>
       </c>
       <c r="U143" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.2473029466140009</v>
       </c>
       <c r="V143">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0237602643754844</v>
       </c>
     </row>
@@ -15649,19 +18751,19 @@
         <v>39.372871477336616</v>
       </c>
       <c r="R144" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68718624324408784</v>
       </c>
       <c r="T144">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.1036800000000001E-2</v>
       </c>
       <c r="U144" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.2358951724972078</v>
       </c>
       <c r="V144">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0246714975256506</v>
       </c>
     </row>
@@ -15673,19 +18775,19 @@
         <v>39.316580079298681</v>
       </c>
       <c r="R145" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68620377300777524</v>
       </c>
       <c r="T145">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.2606400000000005E-2</v>
       </c>
       <c r="U145" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.2244693849954702</v>
       </c>
       <c r="V145">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.025463917668783</v>
       </c>
     </row>
@@ -15697,19 +18799,19 @@
         <v>39.260645671752819</v>
       </c>
       <c r="R146" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68522753343094756</v>
       </c>
       <c r="T146">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.4175999999999996E-2</v>
       </c>
       <c r="U146" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.2130254985065205</v>
       </c>
       <c r="V146">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0261397048415084</v>
       </c>
     </row>
@@ -15721,19 +18823,19 @@
         <v>39.205056309168953</v>
       </c>
       <c r="R147" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68425731602477413</v>
       </c>
       <c r="T147">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.57456E-2</v>
       </c>
       <c r="U147" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.2015634267479491</v>
       </c>
       <c r="V147">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0267009557603552</v>
       </c>
     </row>
@@ -15745,19 +18847,19 @@
         <v>39.149800153958267</v>
       </c>
       <c r="R148" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68329291418435478</v>
       </c>
       <c r="T148">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.7315200000000004E-2</v>
       </c>
       <c r="U148" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.1900830827496067</v>
       </c>
       <c r="V148">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0271496881181745</v>
       </c>
     </row>
@@ -15769,19 +18871,19 @@
         <v>39.09486602820963</v>
       </c>
       <c r="R149" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68233413281833633</v>
       </c>
       <c r="T149">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>9.8884799999999995E-2</v>
       </c>
       <c r="U149" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.1785843788459092</v>
       </c>
       <c r="V149">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0274878445964806</v>
       </c>
     </row>
@@ -15793,19 +18895,19 @@
         <v>39.377690812502586</v>
       </c>
       <c r="R150" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68727035651049118</v>
       </c>
       <c r="T150">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.1004544</v>
       </c>
       <c r="U150" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.1670672266680278</v>
       </c>
       <c r="V150">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.027511652365054</v>
       </c>
     </row>
@@ -15817,19 +18919,19 @@
         <v>38.985921157995747</v>
       </c>
       <c r="R151" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68043268612994623</v>
       </c>
       <c r="T151">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.10202399999999999</v>
       </c>
       <c r="U151" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.1555315371359622</v>
       </c>
       <c r="V151">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0278398478480364</v>
       </c>
     </row>
@@ -15842,20 +18944,20 @@
         <v>38.931889718650702</v>
       </c>
       <c r="R152" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.6794896596137836</v>
       </c>
       <c r="S152" s="8"/>
       <c r="T152" s="8">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.10359360000000001</v>
       </c>
       <c r="U152" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.1439772204505081</v>
       </c>
       <c r="V152" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0278572374992159</v>
       </c>
       <c r="W152" s="9"/>
@@ -15871,19 +18973,19 @@
         <v>38.878140284010129</v>
       </c>
       <c r="R153" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67855155500822006</v>
       </c>
       <c r="T153">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.10516320000000001</v>
       </c>
       <c r="U153" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.1324041860850951</v>
       </c>
       <c r="V153">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0277711433967136</v>
       </c>
     </row>
@@ -15895,19 +18997,19 @@
         <v>39.206398314387322</v>
       </c>
       <c r="R154" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68428073843441362</v>
       </c>
       <c r="T154">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.1067328</v>
       </c>
       <c r="U154" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.1208123427775156</v>
       </c>
       <c r="V154">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0273226382088803</v>
       </c>
     </row>
@@ -15919,19 +19021,19 @@
         <v>39.164566392413093</v>
       </c>
       <c r="R155" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68355063366352597</v>
       </c>
       <c r="T155">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.10830240000000001</v>
       </c>
       <c r="U155" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.1092015985215271</v>
       </c>
       <c r="V155">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0270193062779231</v>
       </c>
     </row>
@@ -15943,19 +19045,19 @@
         <v>39.12310993064601</v>
       </c>
       <c r="R156" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68282708190946328</v>
       </c>
       <c r="T156">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.109872</v>
       </c>
       <c r="U156" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.0975718605583316</v>
       </c>
       <c r="V156">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0266166295080223</v>
       </c>
     </row>
@@ -15967,19 +19069,19 @@
         <v>39.082037453732866</v>
       </c>
       <c r="R157" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68211023195537945</v>
       </c>
       <c r="T157">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.1114416</v>
       </c>
       <c r="U157" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.085923035367931</v>
       </c>
       <c r="V157">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0261160327561116</v>
       </c>
     </row>
@@ -15991,19 +19093,19 @@
         <v>39.041323510120634</v>
       </c>
       <c r="R158" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68139963958787475</v>
       </c>
       <c r="T158">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.11301120000000001</v>
       </c>
       <c r="U158" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.0742550286603532</v>
       </c>
       <c r="V158">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0255189417085298</v>
       </c>
     </row>
@@ -16015,19 +19117,19 @@
         <v>39.000966068769699</v>
       </c>
       <c r="R159" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.68069526935862046</v>
       </c>
       <c r="T159">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.1145808</v>
       </c>
       <c r="U159" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.0625677453667457</v>
       </c>
       <c r="V159">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0248267022987143</v>
       </c>
     </row>
@@ -16039,19 +19141,19 @@
         <v>38.960957288455155</v>
       </c>
       <c r="R160" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67999698441242451</v>
       </c>
       <c r="T160">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.1161504</v>
       </c>
       <c r="U160" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.0508610896303399</v>
       </c>
       <c r="V160">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0240406248404064</v>
       </c>
     </row>
@@ -16063,19 +19165,19 @@
         <v>38.921289624352994</v>
       </c>
       <c r="R161" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67930465306726673</v>
       </c>
       <c r="T161">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.11771999999999999</v>
       </c>
       <c r="U161" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.0391349647972765</v>
       </c>
       <c r="V161">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0231619771053682</v>
       </c>
     </row>
@@ -16087,19 +19189,19 @@
         <v>38.881956376665869</v>
       </c>
       <c r="R162" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67861815838962392</v>
       </c>
       <c r="T162">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.1192896</v>
       </c>
       <c r="U162" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.0273892734072998</v>
       </c>
       <c r="V162">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0221919851724746</v>
       </c>
     </row>
@@ -16111,19 +19213,19 @@
         <v>38.842950155531945</v>
       </c>
       <c r="R163" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67793737140207588</v>
       </c>
       <c r="T163">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.1208592</v>
       </c>
       <c r="U163" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.0156239171843016</v>
       </c>
       <c r="V163">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0211318376084915</v>
       </c>
     </row>
@@ -16135,19 +19237,19 @@
         <v>38.804264751533836</v>
       </c>
       <c r="R164" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67726218372984481</v>
       </c>
       <c r="T164">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.1224288</v>
       </c>
       <c r="U164" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7.0038387970267291</v>
       </c>
       <c r="V164">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0199826839625361</v>
       </c>
     </row>
@@ -16159,19 +19261,19 @@
         <v>38.765893588225012</v>
       </c>
       <c r="R165" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67659248059228527</v>
       </c>
       <c r="T165">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.12399840000000001</v>
       </c>
       <c r="U165" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.9920338129978488</v>
       </c>
       <c r="V165">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0187456388423515</v>
       </c>
     </row>
@@ -16183,19 +19285,19 @@
         <v>38.72783027378518</v>
       </c>
       <c r="R166" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67592815043108834</v>
       </c>
       <c r="T166">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.12556799999999999</v>
       </c>
       <c r="U166" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.9802088643158564</v>
       </c>
       <c r="V166">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0174217824391105</v>
       </c>
     </row>
@@ -16207,19 +19309,19 @@
         <v>38.690068719352993</v>
       </c>
       <c r="R167" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67526908697557564</v>
       </c>
       <c r="T167">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.12713759999999999</v>
       </c>
       <c r="U167" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.9683638493438389</v>
       </c>
       <c r="V167">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.016012161654622</v>
       </c>
     </row>
@@ -16231,19 +19333,19 @@
         <v>38.6526031638235</v>
       </c>
       <c r="R168" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67461518967549727</v>
       </c>
       <c r="T168">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.12870719999999999</v>
       </c>
       <c r="U168" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.9564986655795815</v>
       </c>
       <c r="V168">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0145177913068455</v>
       </c>
     </row>
@@ -16255,19 +19357,19 @@
         <v>38.615427975136505</v>
       </c>
       <c r="R169" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.67396636023285905</v>
       </c>
       <c r="T169">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.1302768</v>
       </c>
       <c r="U169" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.9446132096452233</v>
       </c>
       <c r="V169">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4.0129396556970267</v>
       </c>
     </row>
@@ -16279,19 +19381,19 @@
         <v>79</v>
       </c>
       <c r="R170" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.3788101090755203</v>
       </c>
       <c r="T170">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.13184639999999997</v>
       </c>
       <c r="U170" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.9327073772767411</v>
       </c>
       <c r="V170">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1.3267525867662506</v>
       </c>
     </row>
@@ -16303,19 +19405,19 @@
         <v>80</v>
       </c>
       <c r="R171" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.3962634015954636</v>
       </c>
       <c r="T171">
-        <f t="shared" ref="T171:T186" si="35">P171*$M$71*9.81*0.000001</f>
+        <f t="shared" ref="T171:T186" si="37">P171*$M$71*9.81*0.000001</f>
         <v>0.13341600000000001</v>
       </c>
       <c r="U171" s="6">
-        <f t="shared" ref="U171:U186" si="36">SQRT((4*($T$96-T171))/(($M$71+$N$71)*0.001))</f>
+        <f t="shared" ref="U171:U186" si="38">SQRT((4*($T$96-T171))/(($M$71+$N$71)*0.001))</f>
         <v>6.9207810633132851</v>
       </c>
       <c r="V171">
-        <f t="shared" ref="V171:V186" si="37">(COS(R171)*U171)*(SIN(R171)*U171+SQRT(SIN(R171)^2+2*9.81*P171*0.001))/9.81</f>
+        <f t="shared" ref="V171:V186" si="39">(COS(R171)*U171)*(SIN(R171)*U171+SQRT(SIN(R171)^2+2*9.81*P171*0.001))/9.81</f>
         <v>1.2087144887313723</v>
       </c>
     </row>
@@ -16327,19 +19429,19 @@
         <v>81</v>
       </c>
       <c r="R172" s="5">
-        <f t="shared" ref="R172:R186" si="38">Q172/180*PI()</f>
+        <f t="shared" ref="R172:R186" si="40">Q172/180*PI()</f>
         <v>1.4137166941154069</v>
       </c>
       <c r="T172">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.13498560000000001</v>
       </c>
       <c r="U172" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>6.9088341616863396</v>
       </c>
       <c r="V172">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.0897801217781078</v>
       </c>
     </row>
@@ -16351,19 +19453,19 @@
         <v>82</v>
       </c>
       <c r="R173" s="5">
+        <f t="shared" si="40"/>
+        <v>1.4311699866353502</v>
+      </c>
+      <c r="T173">
+        <f t="shared" si="37"/>
+        <v>0.13655520000000002</v>
+      </c>
+      <c r="U173" s="6">
         <f t="shared" si="38"/>
-        <v>1.4311699866353502</v>
-      </c>
-      <c r="T173">
-        <f t="shared" si="35"/>
-        <v>0.13655520000000002</v>
-      </c>
-      <c r="U173" s="6">
-        <f t="shared" si="36"/>
         <v>6.8968665654087156</v>
       </c>
       <c r="V173">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.97007719953509874</v>
       </c>
     </row>
@@ -16375,19 +19477,19 @@
         <v>83</v>
       </c>
       <c r="R174" s="5">
+        <f t="shared" si="40"/>
+        <v>1.4486232791552935</v>
+      </c>
+      <c r="T174">
+        <f t="shared" si="37"/>
+        <v>0.13812480000000002</v>
+      </c>
+      <c r="U174" s="6">
         <f t="shared" si="38"/>
-        <v>1.4486232791552935</v>
-      </c>
-      <c r="T174">
-        <f t="shared" si="35"/>
-        <v>0.13812480000000002</v>
-      </c>
-      <c r="U174" s="6">
-        <f t="shared" si="36"/>
         <v>6.8848781665633725</v>
       </c>
       <c r="V174">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.84973331030319721</v>
       </c>
     </row>
@@ -16399,19 +19501,19 @@
         <v>84</v>
       </c>
       <c r="R175" s="5">
+        <f t="shared" si="40"/>
+        <v>1.4660765716752369</v>
+      </c>
+      <c r="T175">
+        <f t="shared" si="37"/>
+        <v>0.1396944</v>
+      </c>
+      <c r="U175" s="6">
         <f t="shared" si="38"/>
-        <v>1.4660765716752369</v>
-      </c>
-      <c r="T175">
-        <f t="shared" si="35"/>
-        <v>0.1396944</v>
-      </c>
-      <c r="U175" s="6">
-        <f t="shared" si="36"/>
         <v>6.8728688562920688</v>
       </c>
       <c r="V175">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.72887576386748687</v>
       </c>
     </row>
@@ -16423,19 +19525,19 @@
         <v>85</v>
       </c>
       <c r="R176" s="5">
+        <f t="shared" si="40"/>
+        <v>1.48352986419518</v>
+      </c>
+      <c r="T176">
+        <f t="shared" si="37"/>
+        <v>0.141264</v>
+      </c>
+      <c r="U176" s="6">
         <f t="shared" si="38"/>
-        <v>1.48352986419518</v>
-      </c>
-      <c r="T176">
-        <f t="shared" si="35"/>
-        <v>0.141264</v>
-      </c>
-      <c r="U176" s="6">
-        <f t="shared" si="36"/>
         <v>6.8608385247838237</v>
       </c>
       <c r="V176">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.60763143960480015</v>
       </c>
     </row>
@@ -16447,19 +19549,19 @@
         <v>86</v>
       </c>
       <c r="R177" s="5">
+        <f t="shared" si="40"/>
+        <v>1.5009831567151235</v>
+      </c>
+      <c r="T177">
+        <f t="shared" si="37"/>
+        <v>0.14283360000000001</v>
+      </c>
+      <c r="U177" s="6">
         <f t="shared" si="38"/>
-        <v>1.5009831567151235</v>
-      </c>
-      <c r="T177">
-        <f t="shared" si="35"/>
-        <v>0.14283360000000001</v>
-      </c>
-      <c r="U177" s="6">
-        <f t="shared" si="36"/>
         <v>6.8487870612632058</v>
       </c>
       <c r="V177">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.48612663608815204</v>
       </c>
     </row>
@@ -16471,19 +19573,19 @@
         <v>87</v>
       </c>
       <c r="R178" s="5">
+        <f t="shared" si="40"/>
+        <v>1.5184364492350666</v>
+      </c>
+      <c r="T178">
+        <f t="shared" si="37"/>
+        <v>0.14440320000000001</v>
+      </c>
+      <c r="U178" s="6">
         <f t="shared" si="38"/>
-        <v>1.5184364492350666</v>
-      </c>
-      <c r="T178">
-        <f t="shared" si="35"/>
-        <v>0.14440320000000001</v>
-      </c>
-      <c r="U178" s="6">
-        <f t="shared" si="36"/>
         <v>6.8367143539784312</v>
       </c>
       <c r="V178">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.36448692238617619</v>
       </c>
     </row>
@@ -16495,19 +19597,19 @@
         <v>88</v>
       </c>
       <c r="R179" s="5">
+        <f t="shared" si="40"/>
+        <v>1.5358897417550099</v>
+      </c>
+      <c r="T179">
+        <f t="shared" si="37"/>
+        <v>0.14597280000000001</v>
+      </c>
+      <c r="U179" s="6">
         <f t="shared" si="38"/>
-        <v>1.5358897417550099</v>
-      </c>
-      <c r="T179">
-        <f t="shared" si="35"/>
-        <v>0.14597280000000001</v>
-      </c>
-      <c r="U179" s="6">
-        <f t="shared" si="36"/>
         <v>6.8246202901892747</v>
       </c>
       <c r="V179">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.24283699125191599</v>
       </c>
     </row>
@@ -16519,19 +19621,19 @@
         <v>89</v>
       </c>
       <c r="R180" s="5">
+        <f t="shared" si="40"/>
+        <v>1.5533430342749532</v>
+      </c>
+      <c r="T180">
+        <f t="shared" si="37"/>
+        <v>0.14754239999999999</v>
+      </c>
+      <c r="U180" s="6">
         <f t="shared" si="38"/>
-        <v>1.5533430342749532</v>
-      </c>
-      <c r="T180">
-        <f t="shared" si="35"/>
-        <v>0.14754239999999999</v>
-      </c>
-      <c r="U180" s="6">
-        <f t="shared" si="36"/>
         <v>6.8125047561547847</v>
       </c>
       <c r="V180">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.1213005143916261</v>
       </c>
     </row>
@@ -16543,19 +19645,19 @@
         <v>90</v>
       </c>
       <c r="R181" s="5">
+        <f t="shared" si="40"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="T181">
+        <f t="shared" si="37"/>
+        <v>0.14911199999999999</v>
+      </c>
+      <c r="U181" s="6">
         <f t="shared" si="38"/>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="T181">
-        <f t="shared" si="35"/>
-        <v>0.14911199999999999</v>
-      </c>
-      <c r="U181" s="6">
-        <f t="shared" si="36"/>
         <v>6.8003676371208028</v>
       </c>
       <c r="V181">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>4.2518325304548242E-16</v>
       </c>
     </row>
@@ -16567,19 +19669,19 @@
         <v>91</v>
       </c>
       <c r="R182" s="5">
+        <f t="shared" si="40"/>
+        <v>1.5882496193148399</v>
+      </c>
+      <c r="T182">
+        <f t="shared" si="37"/>
+        <v>0.1506816</v>
+      </c>
+      <c r="U182" s="6">
         <f t="shared" si="38"/>
-        <v>1.5882496193148399</v>
-      </c>
-      <c r="T182">
-        <f t="shared" si="35"/>
-        <v>0.1506816</v>
-      </c>
-      <c r="U182" s="6">
-        <f t="shared" si="36"/>
         <v>6.7882088173072876</v>
       </c>
       <c r="V182">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.12094334725596025</v>
       </c>
     </row>
@@ -16591,19 +19693,19 @@
         <v>92</v>
       </c>
       <c r="R183" s="5">
+        <f t="shared" si="40"/>
+        <v>1.605702911834783</v>
+      </c>
+      <c r="T183">
+        <f t="shared" si="37"/>
+        <v>0.1522512</v>
+      </c>
+      <c r="U183" s="6">
         <f t="shared" si="38"/>
-        <v>1.605702911834783</v>
-      </c>
-      <c r="T183">
-        <f t="shared" si="35"/>
-        <v>0.1522512</v>
-      </c>
-      <c r="U183" s="6">
-        <f t="shared" si="36"/>
         <v>6.7760281798954187</v>
       </c>
       <c r="V183">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.2414097636268028</v>
       </c>
     </row>
@@ -16615,19 +19717,19 @@
         <v>93</v>
       </c>
       <c r="R184" s="5">
+        <f t="shared" si="40"/>
+        <v>1.6231562043547265</v>
+      </c>
+      <c r="T184">
+        <f t="shared" si="37"/>
+        <v>0.15382080000000001</v>
+      </c>
+      <c r="U184" s="6">
         <f t="shared" si="38"/>
-        <v>1.6231562043547265</v>
-      </c>
-      <c r="T184">
-        <f t="shared" si="35"/>
-        <v>0.15382080000000001</v>
-      </c>
-      <c r="U184" s="6">
-        <f t="shared" si="36"/>
         <v>6.7638256070145131</v>
       </c>
       <c r="V184">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.36128106087130518</v>
       </c>
     </row>
@@ -16639,19 +19741,19 @@
         <v>94</v>
       </c>
       <c r="R185" s="5">
+        <f t="shared" si="40"/>
+        <v>1.6406094968746698</v>
+      </c>
+      <c r="T185">
+        <f t="shared" si="37"/>
+        <v>0.15539039999999998</v>
+      </c>
+      <c r="U185" s="6">
         <f t="shared" si="38"/>
-        <v>1.6406094968746698</v>
-      </c>
-      <c r="T185">
-        <f t="shared" si="35"/>
-        <v>0.15539039999999998</v>
-      </c>
-      <c r="U185" s="6">
-        <f t="shared" si="36"/>
         <v>6.7516009797287087</v>
       </c>
       <c r="V185">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-0.4804407578800044</v>
       </c>
     </row>
@@ -16663,30 +19765,33 @@
         <v>37.214575566145463</v>
       </c>
       <c r="R186" s="5">
+        <f t="shared" si="40"/>
+        <v>0.64951687336147113</v>
+      </c>
+      <c r="T186">
+        <f t="shared" si="37"/>
+        <v>0.15695999999999999</v>
+      </c>
+      <c r="U186" s="5">
         <f t="shared" si="38"/>
-        <v>0.64951687336147113</v>
-      </c>
-      <c r="T186">
-        <f t="shared" si="35"/>
-        <v>0.15695999999999999</v>
-      </c>
-      <c r="U186" s="5">
-        <f t="shared" si="36"/>
         <v>6.7393541780234463</v>
       </c>
       <c r="V186">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3.9751938924073293</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AH37:AH38"/>
+    <mergeCell ref="AI37:AI38"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="AB17:AC21"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
     <mergeCell ref="A34:B34"/>
+    <mergeCell ref="AH35:AH36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16749,7 +19854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33B2F51-943D-4643-A920-3ED8965FBD1D}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{492982CB-8176-4E74-8799-662F712BC0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EE664C-91D8-4A28-B948-4F943810CAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12431,8 +12431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V69" sqref="V69"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB90" sqref="AB90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EE664C-91D8-4A28-B948-4F943810CAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D10A596-6818-4543-A1F0-5A2D502F9390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Målinger med rampe" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Ark1'!$Q$153</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
@@ -3267,142 +3264,136 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]Ark1!$C$6:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>321</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>279</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="20"/>
+              <c:pt idx="0">
+                <c:v>346</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>345</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>342</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>340</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>338</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>336</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>333</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>329</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>325</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>321</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>315</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>305</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>279</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>177</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>147</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>68</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>35</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]Ark1!$A$6:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="20"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2.5</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>1.5</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>0.25</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -3442,172 +3433,166 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]Ark1!$G$6:$G$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="25"/>
+              <c:pt idx="0">
+                <c:v>369</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>367</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>366</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>364</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>361</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>358</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>355</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>352</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>348</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>344</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>338</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>334</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>330</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>323</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>314</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>294</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>232</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>182</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>127</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>70</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>51</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]Ark1!$E$6:$E$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="25"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>4.5</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>3.5</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2.5</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>1.75</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>1.5</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>1.25</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>0.75</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>0.25</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -3647,172 +3632,166 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]Ark1!$K$6:$K$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>293.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>291</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="25"/>
+              <c:pt idx="0">
+                <c:v>296</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>295</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>293.5</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>291</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>289</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>287</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>284</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>281</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>277</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>273</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>267</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>262</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>256</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>246</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>222</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>182</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>114</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>81</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>62</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>45</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>31</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>21</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]Ark1!$I$6:$I$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="25"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>4.5</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>3.5</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2.5</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>1.75</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>1.5</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>1.25</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>0.75</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>0.25</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -3852,178 +3831,172 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]Ark1!$O$6:$O$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>326</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>317</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="26"/>
+              <c:pt idx="0">
+                <c:v>359</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>357</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>355</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>353</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>350</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>348</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>345</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>342</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>337</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>332</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>326</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>323</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>317</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>310</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>294</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>272</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>195</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>179</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>124</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>89</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>60</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>46</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]Ark1!$M$6:$M$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="26"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>4.5</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>3.5</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2.5</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2.25</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>1.75</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>1.5</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>1.25</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>0.75</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>0.25</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -4063,178 +4036,172 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]Ark1!$S$6:$S$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>326</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>316</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="26"/>
+              <c:pt idx="0">
+                <c:v>358</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>357</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>355</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>353</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>350</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>348</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>345</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>342</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>338</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>332</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>326</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>322</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>316</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>310</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>301</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>273</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>234</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>205</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>129</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>86</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>60</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>43</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>7.5</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]Ark1!$Q$6:$Q$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="26"/>
+              <c:pt idx="0">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>4.5</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>3.5</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2.5</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2.25</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>1.75</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>1.5</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>1.25</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>0.75</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>0.25</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>0</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -11368,804 +11335,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Ark1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="A6">
-            <v>15</v>
-          </cell>
-          <cell r="C6">
-            <v>346</v>
-          </cell>
-          <cell r="E6">
-            <v>15</v>
-          </cell>
-          <cell r="G6">
-            <v>369</v>
-          </cell>
-          <cell r="I6">
-            <v>15</v>
-          </cell>
-          <cell r="K6">
-            <v>296</v>
-          </cell>
-          <cell r="M6">
-            <v>15</v>
-          </cell>
-          <cell r="O6">
-            <v>359</v>
-          </cell>
-          <cell r="Q6">
-            <v>15</v>
-          </cell>
-          <cell r="S6">
-            <v>358</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>14</v>
-          </cell>
-          <cell r="C7">
-            <v>345</v>
-          </cell>
-          <cell r="E7">
-            <v>14</v>
-          </cell>
-          <cell r="G7">
-            <v>367</v>
-          </cell>
-          <cell r="I7">
-            <v>14</v>
-          </cell>
-          <cell r="K7">
-            <v>295</v>
-          </cell>
-          <cell r="M7">
-            <v>14</v>
-          </cell>
-          <cell r="O7">
-            <v>357</v>
-          </cell>
-          <cell r="Q7">
-            <v>14</v>
-          </cell>
-          <cell r="S7">
-            <v>357</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>13</v>
-          </cell>
-          <cell r="C8">
-            <v>342</v>
-          </cell>
-          <cell r="E8">
-            <v>13</v>
-          </cell>
-          <cell r="G8">
-            <v>366</v>
-          </cell>
-          <cell r="I8">
-            <v>13</v>
-          </cell>
-          <cell r="K8">
-            <v>293.5</v>
-          </cell>
-          <cell r="M8">
-            <v>13</v>
-          </cell>
-          <cell r="O8">
-            <v>355</v>
-          </cell>
-          <cell r="Q8">
-            <v>13</v>
-          </cell>
-          <cell r="S8">
-            <v>355</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>12</v>
-          </cell>
-          <cell r="C9">
-            <v>340</v>
-          </cell>
-          <cell r="E9">
-            <v>12</v>
-          </cell>
-          <cell r="G9">
-            <v>364</v>
-          </cell>
-          <cell r="I9">
-            <v>12</v>
-          </cell>
-          <cell r="K9">
-            <v>291</v>
-          </cell>
-          <cell r="M9">
-            <v>12</v>
-          </cell>
-          <cell r="O9">
-            <v>353</v>
-          </cell>
-          <cell r="Q9">
-            <v>12</v>
-          </cell>
-          <cell r="S9">
-            <v>353</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>11</v>
-          </cell>
-          <cell r="C10">
-            <v>338</v>
-          </cell>
-          <cell r="E10">
-            <v>11</v>
-          </cell>
-          <cell r="G10">
-            <v>361</v>
-          </cell>
-          <cell r="I10">
-            <v>11</v>
-          </cell>
-          <cell r="K10">
-            <v>289</v>
-          </cell>
-          <cell r="M10">
-            <v>11</v>
-          </cell>
-          <cell r="O10">
-            <v>350</v>
-          </cell>
-          <cell r="Q10">
-            <v>11</v>
-          </cell>
-          <cell r="S10">
-            <v>350</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>10</v>
-          </cell>
-          <cell r="C11">
-            <v>336</v>
-          </cell>
-          <cell r="E11">
-            <v>10</v>
-          </cell>
-          <cell r="G11">
-            <v>358</v>
-          </cell>
-          <cell r="I11">
-            <v>10</v>
-          </cell>
-          <cell r="K11">
-            <v>287</v>
-          </cell>
-          <cell r="M11">
-            <v>10</v>
-          </cell>
-          <cell r="O11">
-            <v>348</v>
-          </cell>
-          <cell r="Q11">
-            <v>10</v>
-          </cell>
-          <cell r="S11">
-            <v>348</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>9</v>
-          </cell>
-          <cell r="C12">
-            <v>333</v>
-          </cell>
-          <cell r="E12">
-            <v>9</v>
-          </cell>
-          <cell r="G12">
-            <v>355</v>
-          </cell>
-          <cell r="I12">
-            <v>9</v>
-          </cell>
-          <cell r="K12">
-            <v>284</v>
-          </cell>
-          <cell r="M12">
-            <v>9</v>
-          </cell>
-          <cell r="O12">
-            <v>345</v>
-          </cell>
-          <cell r="Q12">
-            <v>9</v>
-          </cell>
-          <cell r="S12">
-            <v>345</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>8</v>
-          </cell>
-          <cell r="C13">
-            <v>329</v>
-          </cell>
-          <cell r="E13">
-            <v>8</v>
-          </cell>
-          <cell r="G13">
-            <v>352</v>
-          </cell>
-          <cell r="I13">
-            <v>8</v>
-          </cell>
-          <cell r="K13">
-            <v>281</v>
-          </cell>
-          <cell r="M13">
-            <v>8</v>
-          </cell>
-          <cell r="O13">
-            <v>342</v>
-          </cell>
-          <cell r="Q13">
-            <v>8</v>
-          </cell>
-          <cell r="S13">
-            <v>342</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>7</v>
-          </cell>
-          <cell r="C14">
-            <v>325</v>
-          </cell>
-          <cell r="E14">
-            <v>7</v>
-          </cell>
-          <cell r="G14">
-            <v>348</v>
-          </cell>
-          <cell r="I14">
-            <v>7</v>
-          </cell>
-          <cell r="K14">
-            <v>277</v>
-          </cell>
-          <cell r="M14">
-            <v>7</v>
-          </cell>
-          <cell r="O14">
-            <v>337</v>
-          </cell>
-          <cell r="Q14">
-            <v>7</v>
-          </cell>
-          <cell r="S14">
-            <v>338</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>6</v>
-          </cell>
-          <cell r="C15">
-            <v>321</v>
-          </cell>
-          <cell r="E15">
-            <v>6</v>
-          </cell>
-          <cell r="G15">
-            <v>344</v>
-          </cell>
-          <cell r="I15">
-            <v>6</v>
-          </cell>
-          <cell r="K15">
-            <v>273</v>
-          </cell>
-          <cell r="M15">
-            <v>6</v>
-          </cell>
-          <cell r="O15">
-            <v>332</v>
-          </cell>
-          <cell r="Q15">
-            <v>6</v>
-          </cell>
-          <cell r="S15">
-            <v>332</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>5</v>
-          </cell>
-          <cell r="C16">
-            <v>315</v>
-          </cell>
-          <cell r="E16">
-            <v>5</v>
-          </cell>
-          <cell r="G16">
-            <v>338</v>
-          </cell>
-          <cell r="I16">
-            <v>5</v>
-          </cell>
-          <cell r="K16">
-            <v>267</v>
-          </cell>
-          <cell r="M16">
-            <v>5</v>
-          </cell>
-          <cell r="O16">
-            <v>326</v>
-          </cell>
-          <cell r="Q16">
-            <v>5</v>
-          </cell>
-          <cell r="S16">
-            <v>326</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>4</v>
-          </cell>
-          <cell r="C17">
-            <v>305</v>
-          </cell>
-          <cell r="E17">
-            <v>4.5</v>
-          </cell>
-          <cell r="G17">
-            <v>334</v>
-          </cell>
-          <cell r="I17">
-            <v>4.5</v>
-          </cell>
-          <cell r="K17">
-            <v>262</v>
-          </cell>
-          <cell r="M17">
-            <v>4.5</v>
-          </cell>
-          <cell r="O17">
-            <v>323</v>
-          </cell>
-          <cell r="Q17">
-            <v>4.5</v>
-          </cell>
-          <cell r="S17">
-            <v>322</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>3</v>
-          </cell>
-          <cell r="C18">
-            <v>279</v>
-          </cell>
-          <cell r="E18">
-            <v>4</v>
-          </cell>
-          <cell r="G18">
-            <v>330</v>
-          </cell>
-          <cell r="I18">
-            <v>4</v>
-          </cell>
-          <cell r="K18">
-            <v>256</v>
-          </cell>
-          <cell r="M18">
-            <v>4</v>
-          </cell>
-          <cell r="O18">
-            <v>317</v>
-          </cell>
-          <cell r="Q18">
-            <v>4</v>
-          </cell>
-          <cell r="S18">
-            <v>316</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>2.5</v>
-          </cell>
-          <cell r="C19">
-            <v>177</v>
-          </cell>
-          <cell r="E19">
-            <v>3.5</v>
-          </cell>
-          <cell r="G19">
-            <v>323</v>
-          </cell>
-          <cell r="I19">
-            <v>3.5</v>
-          </cell>
-          <cell r="K19">
-            <v>246</v>
-          </cell>
-          <cell r="M19">
-            <v>3.5</v>
-          </cell>
-          <cell r="O19">
-            <v>310</v>
-          </cell>
-          <cell r="Q19">
-            <v>3.5</v>
-          </cell>
-          <cell r="S19">
-            <v>310</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>2</v>
-          </cell>
-          <cell r="C20">
-            <v>147</v>
-          </cell>
-          <cell r="E20">
-            <v>3</v>
-          </cell>
-          <cell r="G20">
-            <v>314</v>
-          </cell>
-          <cell r="I20">
-            <v>3</v>
-          </cell>
-          <cell r="K20">
-            <v>222</v>
-          </cell>
-          <cell r="M20">
-            <v>3</v>
-          </cell>
-          <cell r="O20">
-            <v>294</v>
-          </cell>
-          <cell r="Q20">
-            <v>3</v>
-          </cell>
-          <cell r="S20">
-            <v>301</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>1.5</v>
-          </cell>
-          <cell r="C21">
-            <v>68</v>
-          </cell>
-          <cell r="E21">
-            <v>2.5</v>
-          </cell>
-          <cell r="G21">
-            <v>294</v>
-          </cell>
-          <cell r="I21">
-            <v>2.5</v>
-          </cell>
-          <cell r="K21">
-            <v>182</v>
-          </cell>
-          <cell r="M21">
-            <v>2.5</v>
-          </cell>
-          <cell r="O21">
-            <v>272</v>
-          </cell>
-          <cell r="Q21">
-            <v>2.5</v>
-          </cell>
-          <cell r="S21">
-            <v>273</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>1</v>
-          </cell>
-          <cell r="C22">
-            <v>35</v>
-          </cell>
-          <cell r="E22">
-            <v>2</v>
-          </cell>
-          <cell r="G22">
-            <v>232</v>
-          </cell>
-          <cell r="I22">
-            <v>2</v>
-          </cell>
-          <cell r="K22">
-            <v>114</v>
-          </cell>
-          <cell r="M22">
-            <v>2.25</v>
-          </cell>
-          <cell r="O22">
-            <v>195</v>
-          </cell>
-          <cell r="Q22">
-            <v>2.25</v>
-          </cell>
-          <cell r="S22">
-            <v>234</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>0.5</v>
-          </cell>
-          <cell r="C23">
-            <v>12</v>
-          </cell>
-          <cell r="E23">
-            <v>1.75</v>
-          </cell>
-          <cell r="G23">
-            <v>182</v>
-          </cell>
-          <cell r="I23">
-            <v>1.75</v>
-          </cell>
-          <cell r="K23">
-            <v>81</v>
-          </cell>
-          <cell r="M23">
-            <v>2</v>
-          </cell>
-          <cell r="O23">
-            <v>179</v>
-          </cell>
-          <cell r="Q23">
-            <v>2</v>
-          </cell>
-          <cell r="S23">
-            <v>205</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>0.25</v>
-          </cell>
-          <cell r="C24">
-            <v>4</v>
-          </cell>
-          <cell r="E24">
-            <v>1.5</v>
-          </cell>
-          <cell r="G24">
-            <v>127</v>
-          </cell>
-          <cell r="I24">
-            <v>1.5</v>
-          </cell>
-          <cell r="K24">
-            <v>62</v>
-          </cell>
-          <cell r="M24">
-            <v>1.75</v>
-          </cell>
-          <cell r="O24">
-            <v>124</v>
-          </cell>
-          <cell r="Q24">
-            <v>1.75</v>
-          </cell>
-          <cell r="S24">
-            <v>129</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>0</v>
-          </cell>
-          <cell r="C25">
-            <v>0</v>
-          </cell>
-          <cell r="E25">
-            <v>1.25</v>
-          </cell>
-          <cell r="G25">
-            <v>70</v>
-          </cell>
-          <cell r="I25">
-            <v>1.25</v>
-          </cell>
-          <cell r="K25">
-            <v>45</v>
-          </cell>
-          <cell r="M25">
-            <v>1.5</v>
-          </cell>
-          <cell r="O25">
-            <v>89</v>
-          </cell>
-          <cell r="Q25">
-            <v>1.5</v>
-          </cell>
-          <cell r="S25">
-            <v>86</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26">
-            <v>1</v>
-          </cell>
-          <cell r="G26">
-            <v>51</v>
-          </cell>
-          <cell r="I26">
-            <v>1</v>
-          </cell>
-          <cell r="K26">
-            <v>31</v>
-          </cell>
-          <cell r="M26">
-            <v>1.25</v>
-          </cell>
-          <cell r="O26">
-            <v>60</v>
-          </cell>
-          <cell r="Q26">
-            <v>1.25</v>
-          </cell>
-          <cell r="S26">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="E27">
-            <v>0.75</v>
-          </cell>
-          <cell r="G27">
-            <v>30</v>
-          </cell>
-          <cell r="I27">
-            <v>0.75</v>
-          </cell>
-          <cell r="K27">
-            <v>21</v>
-          </cell>
-          <cell r="M27">
-            <v>1</v>
-          </cell>
-          <cell r="O27">
-            <v>46</v>
-          </cell>
-          <cell r="Q27">
-            <v>1</v>
-          </cell>
-          <cell r="S27">
-            <v>43</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="E28">
-            <v>0.5</v>
-          </cell>
-          <cell r="G28">
-            <v>18</v>
-          </cell>
-          <cell r="I28">
-            <v>0.5</v>
-          </cell>
-          <cell r="K28">
-            <v>15</v>
-          </cell>
-          <cell r="M28">
-            <v>0.75</v>
-          </cell>
-          <cell r="O28">
-            <v>27</v>
-          </cell>
-          <cell r="Q28">
-            <v>0.75</v>
-          </cell>
-          <cell r="S28">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="E29">
-            <v>0.25</v>
-          </cell>
-          <cell r="G29">
-            <v>7</v>
-          </cell>
-          <cell r="I29">
-            <v>0.25</v>
-          </cell>
-          <cell r="K29">
-            <v>6</v>
-          </cell>
-          <cell r="M29">
-            <v>0.5</v>
-          </cell>
-          <cell r="O29">
-            <v>17</v>
-          </cell>
-          <cell r="Q29">
-            <v>0.5</v>
-          </cell>
-          <cell r="S29">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30">
-            <v>0</v>
-          </cell>
-          <cell r="G30">
-            <v>0</v>
-          </cell>
-          <cell r="I30">
-            <v>0</v>
-          </cell>
-          <cell r="K30">
-            <v>0</v>
-          </cell>
-          <cell r="M30">
-            <v>0.25</v>
-          </cell>
-          <cell r="O30">
-            <v>7</v>
-          </cell>
-          <cell r="Q30">
-            <v>0.25</v>
-          </cell>
-          <cell r="S30">
-            <v>7.5</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="M31">
-            <v>0</v>
-          </cell>
-          <cell r="O31">
-            <v>0</v>
-          </cell>
-          <cell r="Q31">
-            <v>0</v>
-          </cell>
-          <cell r="S31">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12432,7 +11601,7 @@
   <dimension ref="A1:AI186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB90" sqref="AB90"/>
+      <selection activeCell="AI40" sqref="AI40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DTU\Github\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D10A596-6818-4543-A1F0-5A2D502F9390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FAAB0F-27FD-4F9C-B789-CF958314CD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="727" yWindow="458" windowWidth="21901" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="64">
   <si>
     <t>ubelastet længde</t>
   </si>
@@ -101,31 +101,10 @@
     <t>Bevægelse</t>
   </si>
   <si>
-    <t>F Brugt</t>
-  </si>
-  <si>
-    <t>F ny</t>
-  </si>
-  <si>
-    <t>F Ny Akum</t>
-  </si>
-  <si>
-    <t>F Bru Akum</t>
-  </si>
-  <si>
     <t>Vægt Bil</t>
   </si>
   <si>
     <t>Vægt Slæde</t>
-  </si>
-  <si>
-    <t>Hast Bil</t>
-  </si>
-  <si>
-    <t>Hast Bil+Slæ</t>
-  </si>
-  <si>
-    <t>Ny elastik</t>
   </si>
   <si>
     <t>[mm]</t>
@@ -138,9 +117,6 @@
   </si>
   <si>
     <t>[m/s]</t>
-  </si>
-  <si>
-    <t>2 stk ny elastik</t>
   </si>
   <si>
     <t>[g]</t>
@@ -158,13 +134,7 @@
     <t>Måleserie, hastighed fra affyringsplatform</t>
   </si>
   <si>
-    <t>E pot</t>
-  </si>
-  <si>
     <t>[Nm][J]</t>
-  </si>
-  <si>
-    <t>Akumuleret kraft Ekin</t>
   </si>
   <si>
     <t>Hop vinkel</t>
@@ -174,9 +144,6 @@
   </si>
   <si>
     <t>X max hop</t>
-  </si>
-  <si>
-    <t>Hop højde</t>
   </si>
   <si>
     <t>Enkeltløkke</t>
@@ -204,9 +171,6 @@
   </si>
   <si>
     <t>3.3 Affyringsrampe</t>
-  </si>
-  <si>
-    <t>2stk ny elastik</t>
   </si>
   <si>
     <t>mm</t>
@@ -256,12 +220,67 @@
   <si>
     <t>Dobbelt forlængelse</t>
   </si>
+  <si>
+    <t>radianer</t>
+  </si>
+  <si>
+    <t>på skubber</t>
+  </si>
+  <si>
+    <t>Hast skubber</t>
+  </si>
+  <si>
+    <t>F gennemsnitlig ealstik</t>
+  </si>
+  <si>
+    <t>Akumuleret kraft</t>
+  </si>
+  <si>
+    <t>Elastik gns.</t>
+  </si>
+  <si>
+    <t>E kin bil</t>
+  </si>
+  <si>
+    <t>[J]</t>
+  </si>
+  <si>
+    <t>v. rampetop</t>
+  </si>
+  <si>
+    <t>ny elastik</t>
+  </si>
+  <si>
+    <t>brugt elastik</t>
+  </si>
+  <si>
+    <t>gns. elastik</t>
+  </si>
+  <si>
+    <r>
+      <t>hast. Bil v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +297,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -456,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -498,6 +525,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,7 +558,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -681,70 +721,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>91</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>63</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>40</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>25</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1131,7 +1171,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1212,34 +1252,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1324,34 +1364,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1702,7 +1742,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3161,7 +3201,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4552,7 +4592,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5388,7 +5428,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6224,7 +6264,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10963,7 +11003,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="39" fmlaLink="R71" max="60" min="15" page="10" val="39"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="39" fmlaLink="R71" max="60" min="15" page="10" val="41"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="39" fmlaLink="$T$71" inc="2" max="6" min="2" page="10" val="2"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11046,16 +11090,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>29</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
-          <xdr:row>76</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>296955</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>39220</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>31</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>80</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>677955</xdr:colOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>5603</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11096,16 +11140,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>29</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
-          <xdr:row>81</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>705970</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>28576</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>31</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>85</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>1109382</xdr:colOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>11206</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11332,6 +11376,56 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>100013</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>28015</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>487456</xdr:colOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Spinner 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -11600,65 +11694,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI40" sqref="AI40"/>
+    <sheetView tabSelected="1" topLeftCell="M44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W100" sqref="W100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5703125" customWidth="1"/>
-    <col min="35" max="35" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" customWidth="1"/>
+    <col min="17" max="17" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.53125" customWidth="1"/>
+    <col min="20" max="20" width="19" customWidth="1"/>
+    <col min="21" max="21" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.46484375" customWidth="1"/>
+    <col min="34" max="34" width="11.59765625" customWidth="1"/>
+    <col min="35" max="35" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" ht="21" x14ac:dyDescent="0.65">
       <c r="A1" s="24" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B1" s="24"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="15" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="U2" s="15"/>
       <c r="V2" s="15"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -11699,7 +11794,7 @@
         <v>50</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="U3" s="15"/>
       <c r="V3" s="15">
@@ -11707,11 +11802,11 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -11770,7 +11865,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>15</v>
       </c>
@@ -11835,13 +11930,13 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AG6" s="25" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="AH6" s="26" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>14</v>
       </c>
@@ -11908,7 +12003,7 @@
       <c r="AG7" s="25"/>
       <c r="AH7" s="26"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>13</v>
       </c>
@@ -11979,7 +12074,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>12</v>
       </c>
@@ -12050,7 +12145,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>11</v>
       </c>
@@ -12119,7 +12214,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -12188,7 +12283,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -12257,7 +12352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -12320,7 +12415,7 @@
         <v>329.2</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>7</v>
       </c>
@@ -12383,7 +12478,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -12446,7 +12541,7 @@
         <v>320.39999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>5</v>
       </c>
@@ -12509,7 +12604,7 @@
         <v>314.39999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -12572,7 +12667,7 @@
         <v>309.2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -12628,7 +12723,7 @@
         <v>304.75</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -12684,7 +12779,7 @@
         <v>297.25</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -12747,7 +12842,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>2.5</v>
       </c>
@@ -12810,7 +12905,7 @@
         <v>239.6</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>2</v>
       </c>
@@ -12859,7 +12954,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -12915,7 +13010,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>1.5</v>
       </c>
@@ -12978,7 +13073,7 @@
         <v>116.8</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -13034,7 +13129,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -13097,7 +13192,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -13153,7 +13248,7 @@
         <v>42.75</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -13209,7 +13304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>0.5</v>
       </c>
@@ -13272,7 +13367,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>0.25</v>
       </c>
@@ -13335,7 +13430,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -13398,55 +13493,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" ht="21" x14ac:dyDescent="0.65">
       <c r="A34" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="24"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="15" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
       <c r="AH35" s="21" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="AI35" s="21" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -13487,7 +13582,7 @@
         <v>60</v>
       </c>
       <c r="T36" s="15" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="U36" s="15"/>
       <c r="V36" s="15">
@@ -13497,15 +13592,15 @@
       <c r="AH36" s="21"/>
       <c r="AI36" s="21"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.45">
       <c r="AH37" s="22" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="AI37" s="22" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
@@ -13564,7 +13659,7 @@
       <c r="AH38" s="22"/>
       <c r="AI38" s="22"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>15</v>
       </c>
@@ -13635,7 +13730,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>14</v>
       </c>
@@ -13706,7 +13801,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>13</v>
       </c>
@@ -13777,7 +13872,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>12</v>
       </c>
@@ -13848,7 +13943,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>11</v>
       </c>
@@ -13919,7 +14014,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>10</v>
       </c>
@@ -13990,7 +14085,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>9</v>
       </c>
@@ -14061,7 +14156,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>8</v>
       </c>
@@ -14132,7 +14227,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>7</v>
       </c>
@@ -14203,7 +14298,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>6</v>
       </c>
@@ -14274,7 +14369,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>5</v>
       </c>
@@ -14345,7 +14440,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>4.5</v>
       </c>
@@ -14416,7 +14511,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A51" s="4">
         <v>4.25</v>
       </c>
@@ -14487,7 +14582,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>4</v>
       </c>
@@ -14558,7 +14653,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>3.75</v>
       </c>
@@ -14629,7 +14724,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>3.5</v>
       </c>
@@ -14700,7 +14795,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>3.25</v>
       </c>
@@ -14771,7 +14866,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>3</v>
       </c>
@@ -14842,7 +14937,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>2.75</v>
       </c>
@@ -14913,7 +15008,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>2.5</v>
       </c>
@@ -14984,7 +15079,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>2.25</v>
       </c>
@@ -15055,7 +15150,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>2</v>
       </c>
@@ -15126,7 +15221,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>1.5</v>
       </c>
@@ -15197,7 +15292,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>1</v>
       </c>
@@ -15268,7 +15363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>0.5</v>
       </c>
@@ -15339,7 +15434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>0</v>
       </c>
@@ -15410,13 +15505,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A68" s="23" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B68" s="23"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -15438,22 +15533,34 @@
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O69" s="1"/>
       <c r="P69" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="S69" s="1"/>
+      <c r="T69" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>1</v>
       </c>
@@ -15483,19 +15590,28 @@
         <v>2</v>
       </c>
       <c r="M70" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N70" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="P70" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="R70" t="s">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="S70" t="s">
+        <v>51</v>
+      </c>
+      <c r="T70" t="s">
+        <v>52</v>
+      </c>
+      <c r="V70" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>8</v>
       </c>
@@ -15503,8 +15619,8 @@
         <v>550</v>
       </c>
       <c r="C71" s="3">
-        <f>B71-$B$78</f>
-        <v>60</v>
+        <f t="shared" ref="C71:C79" si="20">B71-$B$80</f>
+        <v>93</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3">
@@ -15514,8 +15630,8 @@
         <v>563</v>
       </c>
       <c r="G71" s="3">
-        <f>F71-$F$90</f>
-        <v>91</v>
+        <f t="shared" ref="G71:G91" si="21">F71-$F$92</f>
+        <v>101</v>
       </c>
       <c r="I71">
         <v>20</v>
@@ -15537,14 +15653,21 @@
         <v>100</v>
       </c>
       <c r="R71">
-        <v>39</v>
-      </c>
-      <c r="S71">
+        <v>41</v>
+      </c>
+      <c r="S71" s="28">
         <f>R71/180*PI()</f>
-        <v>0.68067840827778858</v>
+        <v>0.71558499331767511</v>
+      </c>
+      <c r="T71">
+        <v>2</v>
+      </c>
+      <c r="V71" s="27">
+        <f>$P$71*9.81*$M$71*0.000001</f>
+        <v>3.1391999999999996E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>7</v>
       </c>
@@ -15552,8 +15675,8 @@
         <v>547</v>
       </c>
       <c r="C72" s="3">
-        <f>B72-$B$78</f>
-        <v>57</v>
+        <f t="shared" si="20"/>
+        <v>90</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3">
@@ -15563,11 +15686,11 @@
         <v>561</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" ref="G72:G91" si="20">F72-$F$90</f>
-        <v>89</v>
+        <f t="shared" si="21"/>
+        <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>6</v>
       </c>
@@ -15575,8 +15698,8 @@
         <v>543</v>
       </c>
       <c r="C73" s="3">
-        <f t="shared" ref="C73:C78" si="21">B73-$B$78</f>
-        <v>53</v>
+        <f t="shared" si="20"/>
+        <v>86</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3">
@@ -15586,14 +15709,14 @@
         <v>560</v>
       </c>
       <c r="G73" s="3">
-        <f t="shared" si="20"/>
-        <v>88</v>
+        <f t="shared" si="21"/>
+        <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <v>5.5</v>
       </c>
@@ -15601,8 +15724,8 @@
         <v>539</v>
       </c>
       <c r="C74" s="3">
-        <f t="shared" si="21"/>
-        <v>49</v>
+        <f t="shared" si="20"/>
+        <v>82</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3">
@@ -15612,29 +15735,20 @@
         <v>559</v>
       </c>
       <c r="G74" s="3">
-        <f t="shared" si="20"/>
-        <v>87</v>
+        <f t="shared" si="21"/>
+        <v>97</v>
       </c>
       <c r="Q74" t="s">
-        <v>27</v>
-      </c>
-      <c r="S74" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="T74" t="s">
+        <v>55</v>
       </c>
       <c r="U74" t="s">
-        <v>28</v>
-      </c>
-      <c r="W74" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
         <v>5</v>
       </c>
@@ -15642,8 +15756,8 @@
         <v>537</v>
       </c>
       <c r="C75" s="3">
-        <f t="shared" si="21"/>
-        <v>47</v>
+        <f t="shared" si="20"/>
+        <v>80</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3">
@@ -15653,47 +15767,29 @@
         <v>559</v>
       </c>
       <c r="G75" s="3">
-        <f t="shared" si="20"/>
-        <v>87</v>
+        <f t="shared" si="21"/>
+        <v>97</v>
       </c>
       <c r="P75" t="s">
         <v>10</v>
       </c>
       <c r="Q75" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="R75" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="S75" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="T75" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="U75" t="s">
-        <v>30</v>
-      </c>
-      <c r="W75" t="s">
-        <v>17</v>
-      </c>
-      <c r="X75" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA75" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB75" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
         <v>4.5</v>
       </c>
@@ -15701,8 +15797,8 @@
         <v>531</v>
       </c>
       <c r="C76" s="3">
-        <f t="shared" si="21"/>
-        <v>41</v>
+        <f t="shared" si="20"/>
+        <v>74</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3">
@@ -15712,50 +15808,26 @@
         <v>558</v>
       </c>
       <c r="G76" s="3">
-        <f t="shared" si="20"/>
-        <v>86</v>
+        <f t="shared" si="21"/>
+        <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q76" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="R76" t="s">
-        <v>21</v>
-      </c>
-      <c r="S76" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="T76" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="U76" t="s">
-        <v>31</v>
-      </c>
-      <c r="W76" t="s">
-        <v>23</v>
-      </c>
-      <c r="X76" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB76" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE76" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A77" s="3">
         <v>4</v>
       </c>
@@ -15763,8 +15835,8 @@
         <v>500</v>
       </c>
       <c r="C77" s="3">
-        <f t="shared" si="21"/>
-        <v>10</v>
+        <f t="shared" si="20"/>
+        <v>43</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3">
@@ -15774,22 +15846,19 @@
         <v>556</v>
       </c>
       <c r="G77" s="3">
-        <f t="shared" si="20"/>
-        <v>84</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <f>0.00003*P77^3-0.0031*P77^2+0.1115*P77+2.2599</f>
-        <v>2.2599</v>
-      </c>
-      <c r="R77">
-        <f>0.00008*P77^3-0.0088*P77^2+0.2956*P77+1.4681</f>
-        <v>1.4681</v>
-      </c>
+        <f t="shared" si="21"/>
+        <v>94</v>
+      </c>
+      <c r="T77" s="27"/>
+      <c r="U77" s="27"/>
+      <c r="W77" s="27"/>
+      <c r="Z77" s="27"/>
+      <c r="AA77" s="27"/>
+      <c r="AB77" s="27"/>
+      <c r="AD77" s="27"/>
+      <c r="AE77" s="27"/>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
         <v>3.5</v>
       </c>
@@ -15797,8 +15866,8 @@
         <v>490</v>
       </c>
       <c r="C78" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>33</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3">
@@ -15808,58 +15877,31 @@
         <v>554</v>
       </c>
       <c r="G78" s="3">
-        <f t="shared" si="20"/>
-        <v>82</v>
+        <f t="shared" si="21"/>
+        <v>92</v>
       </c>
       <c r="P78">
-        <v>5</v>
-      </c>
-      <c r="Q78">
-        <f t="shared" ref="Q78:Q97" si="22">0.00003*P78^3-0.0031*P78^2+0.1115*P78+2.2599</f>
-        <v>2.7436500000000001</v>
-      </c>
-      <c r="R78">
-        <f t="shared" ref="R78:R97" si="23">0.00008*P78^3-0.0088*P78^2+0.2956*P78+1.4681</f>
-        <v>2.7360999999999995</v>
-      </c>
-      <c r="S78">
-        <f>(P78-P77)*((Q77+Q78)/2)*0.001+S77</f>
-        <v>1.2508875000000003E-2</v>
-      </c>
-      <c r="T78">
-        <f>(P78-P77)*((R77+R78)/2)*0.001+T77</f>
-        <v>1.0510499999999999E-2</v>
-      </c>
-      <c r="U78">
-        <f>$P$71*9.81*$M$71*0.000001</f>
-        <v>3.1391999999999996E-2</v>
-      </c>
-      <c r="W78" t="e">
-        <f>SQRT((2*($S78-$U$78))/($M$71*0.001))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X78" t="e">
-        <f>SQRT((2*($S78-$U$78))/(($M$71+$N$71)*0.001))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y78" t="e">
-        <f>SQRT((2*($T78-$U$78))/($M$71*0.001))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="Z78" t="e">
-        <f>SQRT((2*($T78-$U$78))/(($M$71+$N$71)*0.001))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AA78" t="e">
-        <f>SQRT((4*($T78-$U$78))/($M$71*0.001))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AB78" t="e">
-        <f>SQRT((4*($T78-$U$78))/(($M$71+$N$71)*0.001))</f>
-        <v>#NUM!</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="27">
+        <f>0.00003*P78^3-0.0031*P78^2+0.1115*P78+2.2599</f>
+        <v>2.2599</v>
+      </c>
+      <c r="R78" s="27">
+        <f>0.00008*P78^3-0.0088*P78^2+0.2956*P78+1.4681</f>
+        <v>1.4681</v>
+      </c>
+      <c r="S78" s="27">
+        <f>(R78+Q78)/2</f>
+        <v>1.8639999999999999</v>
+      </c>
+      <c r="Z78" s="27"/>
+      <c r="AA78" s="27"/>
+      <c r="AB78" s="27"/>
+      <c r="AD78" s="27"/>
+      <c r="AE78" s="27"/>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
         <v>3</v>
       </c>
@@ -15867,8 +15909,8 @@
         <v>480</v>
       </c>
       <c r="C79" s="3">
-        <f>B79-$B$78</f>
-        <v>-10</v>
+        <f t="shared" si="20"/>
+        <v>23</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3">
@@ -15878,54 +15920,41 @@
         <v>552</v>
       </c>
       <c r="G79" s="3">
-        <f t="shared" si="20"/>
-        <v>80</v>
+        <f t="shared" si="21"/>
+        <v>90</v>
       </c>
       <c r="P79">
-        <v>10</v>
-      </c>
-      <c r="Q79">
-        <f t="shared" si="22"/>
-        <v>3.0949</v>
-      </c>
-      <c r="R79">
-        <f t="shared" si="23"/>
-        <v>3.6240999999999994</v>
-      </c>
-      <c r="S79">
-        <f t="shared" ref="S79:S97" si="24">(P79-P78)*((Q78+Q79)/2)*0.001+S78</f>
-        <v>2.7105250000000001E-2</v>
-      </c>
-      <c r="T79">
-        <f t="shared" ref="T79:T97" si="25">(P79-P78)*((R78+R79)/2)*0.001+T78</f>
-        <v>2.6410999999999997E-2</v>
-      </c>
-      <c r="W79" t="e">
-        <f t="shared" ref="W79:W97" si="26">SQRT((2*($S79-$U$78))/($M$71*0.001))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X79" t="e">
-        <f t="shared" ref="X79:X97" si="27">SQRT((2*($S79-$U$78))/(($M$71+$N$71)*0.001))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y79" t="e">
-        <f t="shared" ref="Y79:Y97" si="28">SQRT((2*($T79-$U$78))/($M$71*0.001))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="Z79" t="e">
-        <f t="shared" ref="Z79:Z97" si="29">SQRT((2*($T79-$U$78))/(($M$71+$N$71)*0.001))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AA79" t="e">
-        <f t="shared" ref="AA79:AA97" si="30">SQRT((4*($T79-$U$78))/($M$71*0.001))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AB79" t="e">
-        <f t="shared" ref="AB79:AB94" si="31">SQRT((4*($T79-$U$78))/(($M$71+$N$71)*0.001))</f>
-        <v>#NUM!</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q79" s="27">
+        <f t="shared" ref="Q79:Q97" si="22">0.00003*P79^3-0.0031*P79^2+0.1115*P79+2.2599</f>
+        <v>2.7436500000000001</v>
+      </c>
+      <c r="R79" s="27">
+        <f t="shared" ref="R79:R97" si="23">0.00008*P79^3-0.0088*P79^2+0.2956*P79+1.4681</f>
+        <v>2.7360999999999995</v>
+      </c>
+      <c r="S79" s="27">
+        <f t="shared" ref="S79:S97" si="24">(R79+Q79)/2</f>
+        <v>2.7398749999999996</v>
+      </c>
+      <c r="T79" s="27">
+        <f>$T$71*(P79-P78)*((S78+S79)/2)*0.001+T78</f>
+        <v>2.3019374999999998E-2</v>
+      </c>
+      <c r="U79" s="27">
+        <f t="shared" ref="U79:U95" si="25">SQRT((2*($T79))/(($M$71+$N$71)*0.001))</f>
+        <v>1.1007025268579966</v>
+      </c>
+      <c r="V79" s="27"/>
+      <c r="W79" s="27"/>
+      <c r="Z79" s="27"/>
+      <c r="AA79" s="27"/>
+      <c r="AB79" s="27"/>
+      <c r="AD79" s="27"/>
+      <c r="AE79" s="27"/>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <v>2.5</v>
       </c>
@@ -15933,8 +15962,8 @@
         <v>457</v>
       </c>
       <c r="C80" s="3">
-        <f>B80-$B$78+1</f>
-        <v>-32</v>
+        <f>B80-$B$80</f>
+        <v>0</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3">
@@ -15944,54 +15973,41 @@
         <v>551</v>
       </c>
       <c r="G80" s="3">
-        <f t="shared" si="20"/>
-        <v>79</v>
+        <f t="shared" si="21"/>
+        <v>89</v>
       </c>
       <c r="P80">
-        <v>15</v>
-      </c>
-      <c r="Q80">
+        <v>10</v>
+      </c>
+      <c r="Q80" s="27">
         <f t="shared" si="22"/>
-        <v>3.3361499999999999</v>
-      </c>
-      <c r="R80">
+        <v>3.0949</v>
+      </c>
+      <c r="R80" s="27">
         <f t="shared" si="23"/>
-        <v>4.192099999999999</v>
-      </c>
-      <c r="S80">
+        <v>3.6240999999999994</v>
+      </c>
+      <c r="S80" s="27">
         <f t="shared" si="24"/>
-        <v>4.3182875000000003E-2</v>
-      </c>
-      <c r="T80">
+        <v>3.3594999999999997</v>
+      </c>
+      <c r="T80" s="27">
+        <f t="shared" ref="T80:T96" si="26">$T$71*(P80-P79)*((S79+S80)/2)*0.001+T79</f>
+        <v>5.3516249999999994E-2</v>
+      </c>
+      <c r="U80" s="27">
         <f t="shared" si="25"/>
-        <v>4.5951499999999992E-2</v>
-      </c>
-      <c r="W80">
-        <f t="shared" si="26"/>
-        <v>0.85844608887221352</v>
-      </c>
-      <c r="X80">
-        <f t="shared" si="27"/>
-        <v>0.78776415786772946</v>
-      </c>
-      <c r="Y80">
-        <f t="shared" si="28"/>
-        <v>0.95392282182574906</v>
-      </c>
-      <c r="Z80">
-        <f t="shared" si="29"/>
-        <v>0.87537961690012545</v>
-      </c>
-      <c r="AA80">
-        <f t="shared" si="30"/>
-        <v>1.3490505920831879</v>
-      </c>
-      <c r="AB80">
-        <f t="shared" si="31"/>
-        <v>1.2379737264451216</v>
-      </c>
+        <v>1.6782862499711142</v>
+      </c>
+      <c r="V80" s="27"/>
+      <c r="W80" s="27"/>
+      <c r="Z80" s="27"/>
+      <c r="AA80" s="27"/>
+      <c r="AB80" s="27"/>
+      <c r="AD80" s="27"/>
+      <c r="AE80" s="27"/>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -16003,57 +16019,41 @@
         <v>550</v>
       </c>
       <c r="G81" s="3">
-        <f t="shared" si="20"/>
-        <v>78</v>
+        <f t="shared" si="21"/>
+        <v>88</v>
       </c>
       <c r="P81">
-        <v>20</v>
-      </c>
-      <c r="Q81">
+        <v>15</v>
+      </c>
+      <c r="Q81" s="27">
         <f t="shared" si="22"/>
-        <v>3.4899</v>
-      </c>
-      <c r="R81">
+        <v>3.3361499999999999</v>
+      </c>
+      <c r="R81" s="27">
         <f t="shared" si="23"/>
-        <v>4.5000999999999989</v>
-      </c>
-      <c r="S81">
+        <v>4.192099999999999</v>
+      </c>
+      <c r="S81" s="27">
         <f t="shared" si="24"/>
-        <v>6.024800000000001E-2</v>
-      </c>
-      <c r="T81">
+        <v>3.7641249999999995</v>
+      </c>
+      <c r="T81" s="27">
+        <f t="shared" si="26"/>
+        <v>8.9134374999999988E-2</v>
+      </c>
+      <c r="U81" s="27">
         <f t="shared" si="25"/>
-        <v>6.7681999999999992E-2</v>
-      </c>
-      <c r="W81">
-        <f t="shared" si="26"/>
-        <v>1.3429445260322561</v>
-      </c>
-      <c r="X81">
-        <f t="shared" si="27"/>
-        <v>1.2323704159485751</v>
-      </c>
-      <c r="Y81">
-        <f t="shared" si="28"/>
-        <v>1.5060295481829031</v>
-      </c>
-      <c r="Z81">
-        <f t="shared" si="29"/>
-        <v>1.3820274961085253</v>
-      </c>
-      <c r="AA81">
-        <f t="shared" si="30"/>
-        <v>2.1298474123748865</v>
-      </c>
-      <c r="AB81">
-        <f t="shared" si="31"/>
-        <v>1.9544820285692064</v>
-      </c>
-      <c r="AE81" t="s">
-        <v>33</v>
-      </c>
+        <v>2.1659369553929406</v>
+      </c>
+      <c r="V81" s="27"/>
+      <c r="W81" s="27"/>
+      <c r="Z81" s="27"/>
+      <c r="AA81" s="27"/>
+      <c r="AB81" s="27"/>
+      <c r="AD81" s="27"/>
+      <c r="AE81" s="27"/>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -16065,54 +16065,41 @@
         <v>547</v>
       </c>
       <c r="G82" s="3">
-        <f t="shared" si="20"/>
-        <v>75</v>
+        <f t="shared" si="21"/>
+        <v>85</v>
       </c>
       <c r="P82">
-        <v>25</v>
-      </c>
-      <c r="Q82">
+        <v>20</v>
+      </c>
+      <c r="Q82" s="27">
         <f t="shared" si="22"/>
-        <v>3.5786500000000001</v>
-      </c>
-      <c r="R82">
+        <v>3.4899</v>
+      </c>
+      <c r="R82" s="27">
         <f t="shared" si="23"/>
-        <v>4.6080999999999994</v>
-      </c>
-      <c r="S82">
+        <v>4.5000999999999989</v>
+      </c>
+      <c r="S82" s="27">
         <f t="shared" si="24"/>
-        <v>7.7919375000000013E-2</v>
-      </c>
-      <c r="T82">
+        <v>3.9949999999999992</v>
+      </c>
+      <c r="T82" s="27">
+        <f t="shared" si="26"/>
+        <v>0.12792999999999999</v>
+      </c>
+      <c r="U82" s="27">
         <f t="shared" si="25"/>
-        <v>9.0452499999999991E-2</v>
-      </c>
-      <c r="W82">
-        <f t="shared" si="26"/>
-        <v>1.7052744463868568</v>
-      </c>
-      <c r="X82">
-        <f t="shared" si="27"/>
-        <v>1.5648671542742267</v>
-      </c>
-      <c r="Y82">
-        <f t="shared" si="28"/>
-        <v>1.9212707383396019</v>
-      </c>
-      <c r="Z82">
-        <f t="shared" si="29"/>
-        <v>1.7630789456008633</v>
-      </c>
-      <c r="AA82">
-        <f t="shared" si="30"/>
-        <v>2.7170871351504351</v>
-      </c>
-      <c r="AB82">
-        <f t="shared" si="31"/>
-        <v>2.4933701564031971</v>
-      </c>
+        <v>2.5948329223163564</v>
+      </c>
+      <c r="V82" s="27"/>
+      <c r="W82" s="27"/>
+      <c r="Z82" s="27"/>
+      <c r="AA82" s="27"/>
+      <c r="AB82" s="27"/>
+      <c r="AD82" s="27"/>
+      <c r="AE82" s="27"/>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -16124,54 +16111,41 @@
         <v>545</v>
       </c>
       <c r="G83" s="3">
-        <f t="shared" si="20"/>
-        <v>73</v>
+        <f t="shared" si="21"/>
+        <v>83</v>
       </c>
       <c r="P83">
-        <v>30</v>
-      </c>
-      <c r="Q83">
+        <v>25</v>
+      </c>
+      <c r="Q83" s="27">
         <f t="shared" si="22"/>
-        <v>3.6249000000000002</v>
-      </c>
-      <c r="R83">
+        <v>3.5786500000000001</v>
+      </c>
+      <c r="R83" s="27">
         <f t="shared" si="23"/>
-        <v>4.5760999999999976</v>
-      </c>
-      <c r="S83">
+        <v>4.6080999999999994</v>
+      </c>
+      <c r="S83" s="27">
         <f t="shared" si="24"/>
-        <v>9.592825000000002E-2</v>
-      </c>
-      <c r="T83">
+        <v>4.093375</v>
+      </c>
+      <c r="T83" s="27">
+        <f t="shared" si="26"/>
+        <v>0.16837187499999998</v>
+      </c>
+      <c r="U83" s="27">
         <f t="shared" si="25"/>
-        <v>0.11341299999999999</v>
-      </c>
-      <c r="W83">
-        <f t="shared" si="26"/>
-        <v>2.0083614278809483</v>
-      </c>
-      <c r="X83">
-        <f t="shared" si="27"/>
-        <v>1.8429988434185482</v>
-      </c>
-      <c r="Y83">
-        <f t="shared" si="28"/>
-        <v>2.26413614873311</v>
-      </c>
-      <c r="Z83">
-        <f t="shared" si="29"/>
-        <v>2.077713824577895</v>
-      </c>
-      <c r="AA83">
-        <f t="shared" si="30"/>
-        <v>3.2019720485975509</v>
-      </c>
-      <c r="AB83">
-        <f t="shared" si="31"/>
-        <v>2.9383310694481328</v>
-      </c>
+        <v>2.9768570055645847</v>
+      </c>
+      <c r="V83" s="27"/>
+      <c r="W83" s="27"/>
+      <c r="Z83" s="27"/>
+      <c r="AA83" s="27"/>
+      <c r="AB83" s="27"/>
+      <c r="AD83" s="27"/>
+      <c r="AE83" s="27"/>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -16183,54 +16157,41 @@
         <v>540</v>
       </c>
       <c r="G84" s="3">
-        <f t="shared" si="20"/>
-        <v>68</v>
+        <f t="shared" si="21"/>
+        <v>78</v>
       </c>
       <c r="P84">
-        <v>35</v>
-      </c>
-      <c r="Q84">
+        <v>30</v>
+      </c>
+      <c r="Q84" s="27">
         <f t="shared" si="22"/>
-        <v>3.6511500000000003</v>
-      </c>
-      <c r="R84">
+        <v>3.6249000000000002</v>
+      </c>
+      <c r="R84" s="27">
         <f t="shared" si="23"/>
-        <v>4.4640999999999966</v>
-      </c>
-      <c r="S84">
+        <v>4.5760999999999976</v>
+      </c>
+      <c r="S84" s="27">
         <f t="shared" si="24"/>
-        <v>0.11411837500000002</v>
-      </c>
-      <c r="T84">
+        <v>4.1004999999999985</v>
+      </c>
+      <c r="T84" s="27">
+        <f t="shared" si="26"/>
+        <v>0.20934124999999998</v>
+      </c>
+      <c r="U84" s="27">
         <f t="shared" si="25"/>
-        <v>0.13601349999999998</v>
-      </c>
-      <c r="W84">
-        <f t="shared" si="26"/>
-        <v>2.2738510147984634</v>
-      </c>
-      <c r="X84">
-        <f t="shared" si="27"/>
-        <v>2.0866287970892441</v>
-      </c>
-      <c r="Y84">
-        <f t="shared" si="28"/>
-        <v>2.5571162957519156</v>
-      </c>
-      <c r="Z84">
-        <f t="shared" si="29"/>
-        <v>2.3465708463291928</v>
-      </c>
-      <c r="AA84">
-        <f t="shared" si="30"/>
-        <v>3.6163085460176094</v>
-      </c>
-      <c r="AB84">
-        <f t="shared" si="31"/>
-        <v>3.3185523159480561</v>
-      </c>
+        <v>3.3193313372298023</v>
+      </c>
+      <c r="V84" s="27"/>
+      <c r="W84" s="27"/>
+      <c r="Z84" s="27"/>
+      <c r="AA84" s="27"/>
+      <c r="AB84" s="27"/>
+      <c r="AD84" s="27"/>
+      <c r="AE84" s="27"/>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -16242,54 +16203,41 @@
         <v>535</v>
       </c>
       <c r="G85" s="3">
-        <f t="shared" si="20"/>
-        <v>63</v>
+        <f t="shared" si="21"/>
+        <v>73</v>
       </c>
       <c r="P85">
-        <v>40</v>
-      </c>
-      <c r="Q85">
+        <v>35</v>
+      </c>
+      <c r="Q85" s="27">
         <f t="shared" si="22"/>
-        <v>3.6798999999999999</v>
-      </c>
-      <c r="R85">
+        <v>3.6511500000000003</v>
+      </c>
+      <c r="R85" s="27">
         <f t="shared" si="23"/>
-        <v>4.332099999999997</v>
-      </c>
-      <c r="S85">
+        <v>4.4640999999999966</v>
+      </c>
+      <c r="S85" s="27">
         <f t="shared" si="24"/>
-        <v>0.13244600000000001</v>
-      </c>
-      <c r="T85">
+        <v>4.057624999999998</v>
+      </c>
+      <c r="T85" s="27">
+        <f t="shared" si="26"/>
+        <v>0.25013187499999995</v>
+      </c>
+      <c r="U85" s="27">
         <f t="shared" si="25"/>
-        <v>0.15800399999999998</v>
-      </c>
-      <c r="W85">
-        <f t="shared" si="26"/>
-        <v>2.513140465632592</v>
-      </c>
-      <c r="X85">
-        <f t="shared" si="27"/>
-        <v>2.3062158569716256</v>
-      </c>
-      <c r="Y85">
-        <f t="shared" si="28"/>
-        <v>2.8130499462327356</v>
-      </c>
-      <c r="Z85">
-        <f t="shared" si="29"/>
-        <v>2.5814316713181098</v>
-      </c>
-      <c r="AA85">
-        <f t="shared" si="30"/>
-        <v>3.9782533855952407</v>
-      </c>
-      <c r="AB85">
-        <f t="shared" si="31"/>
-        <v>3.6506956799175168</v>
-      </c>
+        <v>3.6283378462204685</v>
+      </c>
+      <c r="V85" s="27"/>
+      <c r="W85" s="27"/>
+      <c r="Z85" s="27"/>
+      <c r="AA85" s="27"/>
+      <c r="AB85" s="27"/>
+      <c r="AD85" s="27"/>
+      <c r="AE85" s="27"/>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -16301,54 +16249,41 @@
         <v>522</v>
       </c>
       <c r="G86" s="3">
-        <f t="shared" si="20"/>
-        <v>50</v>
+        <f t="shared" si="21"/>
+        <v>60</v>
       </c>
       <c r="P86">
-        <v>45</v>
-      </c>
-      <c r="Q86">
+        <v>40</v>
+      </c>
+      <c r="Q86" s="27">
         <f t="shared" si="22"/>
-        <v>3.7336500000000004</v>
-      </c>
-      <c r="R86">
+        <v>3.6798999999999999</v>
+      </c>
+      <c r="R86" s="27">
         <f t="shared" si="23"/>
-        <v>4.2401</v>
-      </c>
-      <c r="S86">
+        <v>4.332099999999997</v>
+      </c>
+      <c r="S86" s="27">
         <f t="shared" si="24"/>
-        <v>0.15097987500000001</v>
-      </c>
-      <c r="T86">
+        <v>4.0059999999999985</v>
+      </c>
+      <c r="T86" s="27">
+        <f t="shared" si="26"/>
+        <v>0.29044999999999993</v>
+      </c>
+      <c r="U86" s="27">
         <f t="shared" si="25"/>
-        <v>0.17943449999999997</v>
-      </c>
-      <c r="W86">
-        <f t="shared" si="26"/>
-        <v>2.7339060312124848</v>
-      </c>
-      <c r="X86">
-        <f t="shared" si="27"/>
-        <v>2.5088042339350687</v>
-      </c>
-      <c r="Y86">
-        <f t="shared" si="28"/>
-        <v>3.041817918613801</v>
-      </c>
-      <c r="Z86">
-        <f t="shared" si="29"/>
-        <v>2.7913635603976399</v>
-      </c>
-      <c r="AA86">
-        <f t="shared" si="30"/>
-        <v>4.3017801547731374</v>
-      </c>
-      <c r="AB86">
-        <f t="shared" si="31"/>
-        <v>3.947584204628392</v>
-      </c>
+        <v>3.9098391405866244</v>
+      </c>
+      <c r="V86" s="27"/>
+      <c r="W86" s="27"/>
+      <c r="Z86" s="27"/>
+      <c r="AA86" s="27"/>
+      <c r="AB86" s="27"/>
+      <c r="AD86" s="27"/>
+      <c r="AE86" s="27"/>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -16360,54 +16295,41 @@
         <v>512</v>
       </c>
       <c r="G87" s="3">
-        <f t="shared" si="20"/>
-        <v>40</v>
+        <f t="shared" si="21"/>
+        <v>50</v>
       </c>
       <c r="P87">
-        <v>50</v>
-      </c>
-      <c r="Q87">
+        <v>45</v>
+      </c>
+      <c r="Q87" s="27">
         <f t="shared" si="22"/>
-        <v>3.8349000000000002</v>
-      </c>
-      <c r="R87">
+        <v>3.7336500000000004</v>
+      </c>
+      <c r="R87" s="27">
         <f t="shared" si="23"/>
-        <v>4.2480999999999991</v>
-      </c>
-      <c r="S87">
+        <v>4.2401</v>
+      </c>
+      <c r="S87" s="27">
         <f t="shared" si="24"/>
-        <v>0.16990125</v>
-      </c>
-      <c r="T87">
+        <v>3.9868750000000004</v>
+      </c>
+      <c r="T87" s="27">
+        <f t="shared" si="26"/>
+        <v>0.33041437499999993</v>
+      </c>
+      <c r="U87" s="27">
         <f t="shared" si="25"/>
-        <v>0.20065499999999997</v>
-      </c>
-      <c r="W87">
-        <f t="shared" si="26"/>
-        <v>2.9422488210550788</v>
-      </c>
-      <c r="X87">
-        <f t="shared" si="27"/>
-        <v>2.699992690048584</v>
-      </c>
-      <c r="Y87">
-        <f t="shared" si="28"/>
-        <v>3.2525278630628205</v>
-      </c>
-      <c r="Z87">
-        <f t="shared" si="29"/>
-        <v>2.9847242665560283</v>
-      </c>
-      <c r="AA87">
-        <f t="shared" si="30"/>
-        <v>4.5997690159398221</v>
-      </c>
-      <c r="AB87">
-        <f t="shared" si="31"/>
-        <v>4.2210375377076241</v>
-      </c>
+        <v>4.1701595009253412</v>
+      </c>
+      <c r="V87" s="27"/>
+      <c r="W87" s="27"/>
+      <c r="Z87" s="27"/>
+      <c r="AA87" s="27"/>
+      <c r="AB87" s="27"/>
+      <c r="AD87" s="27"/>
+      <c r="AE87" s="27"/>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -16419,54 +16341,41 @@
         <v>497</v>
       </c>
       <c r="G88" s="3">
-        <f t="shared" si="20"/>
-        <v>25</v>
+        <f t="shared" si="21"/>
+        <v>35</v>
       </c>
       <c r="P88">
-        <v>55</v>
-      </c>
-      <c r="Q88">
+        <v>50</v>
+      </c>
+      <c r="Q88" s="27">
         <f t="shared" si="22"/>
-        <v>4.0061500000000008</v>
-      </c>
-      <c r="R88">
+        <v>3.8349000000000002</v>
+      </c>
+      <c r="R88" s="27">
         <f t="shared" si="23"/>
-        <v>4.4160999999999984</v>
-      </c>
-      <c r="S88">
+        <v>4.2480999999999991</v>
+      </c>
+      <c r="S88" s="27">
         <f t="shared" si="24"/>
-        <v>0.18950387500000002</v>
-      </c>
-      <c r="T88">
+        <v>4.0414999999999992</v>
+      </c>
+      <c r="T88" s="27">
+        <f t="shared" si="26"/>
+        <v>0.37055624999999992</v>
+      </c>
+      <c r="U88" s="27">
         <f t="shared" si="25"/>
-        <v>0.22231549999999997</v>
-      </c>
-      <c r="W88">
-        <f t="shared" si="26"/>
-        <v>3.1435636127649778</v>
-      </c>
-      <c r="X88">
-        <f t="shared" si="27"/>
-        <v>2.8847318127650876</v>
-      </c>
-      <c r="Y88">
-        <f t="shared" si="28"/>
-        <v>3.454376752758737</v>
-      </c>
-      <c r="Z88">
-        <f t="shared" si="29"/>
-        <v>3.1699535111982153</v>
-      </c>
-      <c r="AA88">
-        <f t="shared" si="30"/>
-        <v>4.8852264532977383</v>
-      </c>
-      <c r="AB88">
-        <f t="shared" si="31"/>
-        <v>4.4829912476287292</v>
-      </c>
+        <v>4.4162156340373357</v>
+      </c>
+      <c r="V88" s="27"/>
+      <c r="W88" s="27"/>
+      <c r="Z88" s="27"/>
+      <c r="AA88" s="27"/>
+      <c r="AB88" s="27"/>
+      <c r="AD88" s="27"/>
+      <c r="AE88" s="27"/>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -16478,54 +16387,41 @@
         <v>482</v>
       </c>
       <c r="G89" s="3">
-        <f t="shared" si="20"/>
-        <v>10</v>
+        <f t="shared" si="21"/>
+        <v>20</v>
       </c>
       <c r="P89">
-        <v>60</v>
-      </c>
-      <c r="Q89">
+        <v>55</v>
+      </c>
+      <c r="Q89" s="27">
         <f t="shared" si="22"/>
-        <v>4.2699000000000007</v>
-      </c>
-      <c r="R89">
+        <v>4.0061500000000008</v>
+      </c>
+      <c r="R89" s="27">
         <f t="shared" si="23"/>
-        <v>4.8040999999999947</v>
-      </c>
-      <c r="S89">
+        <v>4.4160999999999984</v>
+      </c>
+      <c r="S89" s="27">
         <f t="shared" si="24"/>
-        <v>0.21019400000000002</v>
-      </c>
-      <c r="T89">
+        <v>4.2111249999999991</v>
+      </c>
+      <c r="T89" s="27">
+        <f t="shared" si="26"/>
+        <v>0.41181937499999993</v>
+      </c>
+      <c r="U89" s="27">
         <f t="shared" si="25"/>
-        <v>0.24536599999999995</v>
-      </c>
-      <c r="W89">
-        <f t="shared" si="26"/>
-        <v>3.3429216263621857</v>
-      </c>
-      <c r="X89">
-        <f t="shared" si="27"/>
-        <v>3.0676752727346108</v>
-      </c>
-      <c r="Y89">
-        <f t="shared" si="28"/>
-        <v>3.6569625374072396</v>
-      </c>
-      <c r="Z89">
-        <f t="shared" si="29"/>
-        <v>3.3558589770257345</v>
-      </c>
-      <c r="AA89">
-        <f t="shared" si="30"/>
-        <v>5.1717260174916451</v>
-      </c>
-      <c r="AB89">
-        <f t="shared" si="31"/>
-        <v>4.745901278721294</v>
-      </c>
+        <v>4.6556099436452385</v>
+      </c>
+      <c r="V89" s="27"/>
+      <c r="W89" s="27"/>
+      <c r="Z89" s="27"/>
+      <c r="AA89" s="27"/>
+      <c r="AB89" s="27"/>
+      <c r="AD89" s="27"/>
+      <c r="AE89" s="27"/>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -16537,54 +16433,41 @@
         <v>472</v>
       </c>
       <c r="G90" s="3">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>10</v>
       </c>
       <c r="P90">
-        <v>65</v>
-      </c>
-      <c r="Q90">
+        <v>60</v>
+      </c>
+      <c r="Q90" s="27">
         <f t="shared" si="22"/>
-        <v>4.6486499999999999</v>
-      </c>
-      <c r="R90">
+        <v>4.2699000000000007</v>
+      </c>
+      <c r="R90" s="27">
         <f t="shared" si="23"/>
-        <v>5.4721000000000011</v>
-      </c>
-      <c r="S90">
+        <v>4.8040999999999947</v>
+      </c>
+      <c r="S90" s="27">
         <f t="shared" si="24"/>
-        <v>0.23249037500000003</v>
-      </c>
-      <c r="T90">
+        <v>4.5369999999999973</v>
+      </c>
+      <c r="T90" s="27">
+        <f t="shared" si="26"/>
+        <v>0.45555999999999991</v>
+      </c>
+      <c r="U90" s="27">
         <f t="shared" si="25"/>
-        <v>0.27105649999999992</v>
-      </c>
-      <c r="W90">
-        <f t="shared" si="26"/>
-        <v>3.5452289682755334</v>
-      </c>
-      <c r="X90">
-        <f t="shared" si="27"/>
-        <v>3.253325221984424</v>
-      </c>
-      <c r="Y90">
-        <f t="shared" si="28"/>
-        <v>3.8702753455019185</v>
-      </c>
-      <c r="Z90">
-        <f t="shared" si="29"/>
-        <v>3.5516082346778588</v>
-      </c>
-      <c r="AA90">
-        <f t="shared" si="30"/>
-        <v>5.4733958837270293</v>
-      </c>
-      <c r="AB90">
-        <f t="shared" si="31"/>
-        <v>5.0227325337173934</v>
-      </c>
+        <v>4.8966153724039989</v>
+      </c>
+      <c r="V90" s="27"/>
+      <c r="W90" s="27"/>
+      <c r="Z90" s="27"/>
+      <c r="AA90" s="27"/>
+      <c r="AB90" s="27"/>
+      <c r="AD90" s="27"/>
+      <c r="AE90" s="27"/>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -16596,54 +16479,41 @@
         <v>465</v>
       </c>
       <c r="G91" s="3">
-        <f t="shared" si="20"/>
-        <v>-7</v>
+        <f t="shared" si="21"/>
+        <v>3</v>
       </c>
       <c r="P91">
-        <v>70</v>
-      </c>
-      <c r="Q91">
+        <v>65</v>
+      </c>
+      <c r="Q91" s="27">
         <f t="shared" si="22"/>
-        <v>5.1649000000000012</v>
-      </c>
-      <c r="R91">
+        <v>4.6486499999999999</v>
+      </c>
+      <c r="R91" s="27">
         <f t="shared" si="23"/>
-        <v>6.4800999999999931</v>
-      </c>
-      <c r="S91">
+        <v>5.4721000000000011</v>
+      </c>
+      <c r="S91" s="27">
         <f t="shared" si="24"/>
-        <v>0.25702425000000001</v>
-      </c>
-      <c r="T91">
+        <v>5.0603750000000005</v>
+      </c>
+      <c r="T91" s="27">
+        <f t="shared" si="26"/>
+        <v>0.50354687499999995</v>
+      </c>
+      <c r="U91" s="27">
         <f t="shared" si="25"/>
-        <v>0.3009369999999999</v>
-      </c>
-      <c r="W91">
-        <f t="shared" si="26"/>
-        <v>3.7552650538943322</v>
-      </c>
-      <c r="X91">
-        <f t="shared" si="27"/>
-        <v>3.4460675528705713</v>
-      </c>
-      <c r="Y91">
-        <f t="shared" si="28"/>
-        <v>4.1044564195518012</v>
-      </c>
-      <c r="Z91">
-        <f t="shared" si="29"/>
-        <v>3.76650752652486</v>
-      </c>
-      <c r="AA91">
-        <f t="shared" si="30"/>
-        <v>5.8045779346994717</v>
-      </c>
-      <c r="AB91">
-        <f t="shared" si="31"/>
-        <v>5.3266460267917966</v>
-      </c>
+        <v>5.1480546913628604</v>
+      </c>
+      <c r="V91" s="27"/>
+      <c r="W91" s="27"/>
+      <c r="Z91" s="27"/>
+      <c r="AA91" s="27"/>
+      <c r="AB91" s="27"/>
+      <c r="AD91" s="27"/>
+      <c r="AE91" s="27"/>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -16655,326 +16525,241 @@
         <v>462</v>
       </c>
       <c r="G92" s="3">
-        <f>F92-$F$90+1</f>
-        <v>-9</v>
+        <f>F92-$F$92</f>
+        <v>0</v>
       </c>
       <c r="P92">
+        <v>70</v>
+      </c>
+      <c r="Q92" s="27">
+        <f t="shared" si="22"/>
+        <v>5.1649000000000012</v>
+      </c>
+      <c r="R92" s="27">
+        <f t="shared" si="23"/>
+        <v>6.4800999999999931</v>
+      </c>
+      <c r="S92" s="27">
+        <f t="shared" si="24"/>
+        <v>5.8224999999999971</v>
+      </c>
+      <c r="T92" s="27">
+        <f t="shared" si="26"/>
+        <v>0.55796124999999996</v>
+      </c>
+      <c r="U92" s="27">
+        <f t="shared" si="25"/>
+        <v>5.4190757126051823</v>
+      </c>
+      <c r="V92" s="27"/>
+      <c r="W92" s="27"/>
+      <c r="Z92" s="27"/>
+      <c r="AA92" s="27"/>
+      <c r="AB92" s="27"/>
+      <c r="AD92" s="27"/>
+      <c r="AE92" s="27"/>
+    </row>
+    <row r="93" spans="1:31" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="P93">
         <v>75</v>
       </c>
-      <c r="Q92">
+      <c r="Q93" s="27">
         <f t="shared" si="22"/>
         <v>5.8411500000000007</v>
       </c>
-      <c r="R92">
+      <c r="R93" s="27">
         <f t="shared" si="23"/>
         <v>7.8880999999999979</v>
       </c>
-      <c r="S92">
+      <c r="S93" s="27">
         <f t="shared" si="24"/>
-        <v>0.28453937500000004</v>
-      </c>
-      <c r="T92">
+        <v>6.8646249999999993</v>
+      </c>
+      <c r="T93" s="27">
+        <f t="shared" si="26"/>
+        <v>0.62139687499999996</v>
+      </c>
+      <c r="U93" s="27">
         <f t="shared" si="25"/>
-        <v>0.33685749999999987</v>
-      </c>
-      <c r="W92">
-        <f t="shared" si="26"/>
-        <v>3.9776514348922034</v>
-      </c>
-      <c r="X92">
-        <f t="shared" si="27"/>
-        <v>3.6501432920683516</v>
-      </c>
-      <c r="Y92">
-        <f t="shared" si="28"/>
-        <v>4.3693928353948666</v>
-      </c>
-      <c r="Z92">
-        <f t="shared" si="29"/>
-        <v>4.0096298556035519</v>
-      </c>
-      <c r="AA92">
-        <f t="shared" si="30"/>
-        <v>6.1792546071512531</v>
-      </c>
-      <c r="AB92">
-        <f t="shared" si="31"/>
-        <v>5.6704729218906182</v>
-      </c>
+        <v>5.718837179375762</v>
+      </c>
+      <c r="V93" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="W93" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z93" s="27"/>
+      <c r="AA93" s="27"/>
+      <c r="AB93" s="27"/>
+      <c r="AD93" s="27"/>
+      <c r="AE93" s="27"/>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="P93">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="P94">
         <v>80</v>
       </c>
-      <c r="Q93">
+      <c r="Q94" s="27">
         <f t="shared" si="22"/>
         <v>6.6999000000000013</v>
       </c>
-      <c r="R93">
+      <c r="R94" s="27">
         <f t="shared" si="23"/>
         <v>9.7560999999999964</v>
       </c>
-      <c r="S93">
+      <c r="S94" s="27">
         <f t="shared" si="24"/>
-        <v>0.31589200000000006</v>
-      </c>
-      <c r="T93">
+        <v>8.227999999999998</v>
+      </c>
+      <c r="T94" s="27">
+        <f t="shared" si="26"/>
+        <v>0.69685999999999992</v>
+      </c>
+      <c r="U94" s="27">
         <f t="shared" si="25"/>
-        <v>0.38096799999999986</v>
-      </c>
-      <c r="W93">
-        <f t="shared" si="26"/>
-        <v>4.2167819483582507</v>
-      </c>
-      <c r="X93">
-        <f t="shared" si="27"/>
-        <v>3.8695845010189815</v>
-      </c>
-      <c r="Y93">
-        <f t="shared" si="28"/>
-        <v>4.6742379057981198</v>
-      </c>
-      <c r="Z93">
-        <f t="shared" si="29"/>
-        <v>4.2893748777770941</v>
-      </c>
-      <c r="AA93">
-        <f t="shared" si="30"/>
-        <v>6.6103706401381146</v>
-      </c>
-      <c r="AB93">
-        <f t="shared" si="31"/>
-        <v>6.0660921262548033</v>
-      </c>
+        <v>6.0561408591002204</v>
+      </c>
+      <c r="V94" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="W94" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z94" s="27"/>
+      <c r="AA94" s="27"/>
+      <c r="AB94" s="27"/>
+      <c r="AD94" s="27"/>
+      <c r="AE94" s="27"/>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="P94">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="P95">
         <v>85</v>
       </c>
-      <c r="Q94">
+      <c r="Q95" s="27">
         <f t="shared" si="22"/>
         <v>7.7636500000000019</v>
       </c>
-      <c r="R94">
+      <c r="R95" s="27">
         <f t="shared" si="23"/>
         <v>12.144099999999995</v>
       </c>
-      <c r="S94">
+      <c r="S95" s="27">
         <f t="shared" si="24"/>
-        <v>0.3520508750000001</v>
-      </c>
-      <c r="T94">
+        <v>9.9538749999999983</v>
+      </c>
+      <c r="T95" s="27">
+        <f t="shared" si="26"/>
+        <v>0.78776937499999988</v>
+      </c>
+      <c r="U95" s="27">
         <f t="shared" si="25"/>
-        <v>0.43571849999999984</v>
-      </c>
-      <c r="W94">
-        <f t="shared" si="26"/>
-        <v>4.4767376165573971</v>
-      </c>
-      <c r="X94">
-        <f t="shared" si="27"/>
-        <v>4.1081361825938592</v>
-      </c>
-      <c r="Y94">
-        <f t="shared" si="28"/>
-        <v>5.0269678982464159</v>
-      </c>
-      <c r="Z94">
-        <f t="shared" si="29"/>
-        <v>4.6130621180798279</v>
-      </c>
-      <c r="AA94">
-        <f t="shared" si="30"/>
-        <v>7.1092061793142545</v>
-      </c>
-      <c r="AB94">
-        <f t="shared" si="31"/>
-        <v>6.5238550114580489</v>
-      </c>
+        <v>6.439064066510876</v>
+      </c>
+      <c r="V95" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="W95" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z95" s="27"/>
+      <c r="AA95" s="27"/>
+      <c r="AB95" s="27"/>
+      <c r="AD95" s="27"/>
+      <c r="AE95" s="27"/>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="P95">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="P96">
         <v>90</v>
       </c>
-      <c r="Q95">
+      <c r="Q96" s="27">
         <f t="shared" si="22"/>
         <v>9.0549000000000017</v>
       </c>
-      <c r="R95">
+      <c r="R96" s="27">
         <f t="shared" si="23"/>
         <v>15.112100000000005</v>
       </c>
-      <c r="S95">
+      <c r="S96" s="27">
         <f t="shared" si="24"/>
-        <v>0.39409725000000012</v>
-      </c>
-      <c r="T95">
-        <f t="shared" si="25"/>
-        <v>0.50385899999999983</v>
-      </c>
-      <c r="W95">
+        <v>12.083500000000004</v>
+      </c>
+      <c r="T96" s="27">
         <f t="shared" si="26"/>
-        <v>4.7612055327406324</v>
-      </c>
-      <c r="X95">
-        <f t="shared" si="27"/>
-        <v>4.3691818456090852</v>
-      </c>
-      <c r="Y95">
-        <f t="shared" si="28"/>
-        <v>5.4340765084786939</v>
-      </c>
-      <c r="Z95">
-        <f t="shared" si="29"/>
-        <v>4.9866506004056781</v>
-      </c>
-      <c r="AA95">
-        <f t="shared" si="30"/>
-        <v>7.684944697263604</v>
-      </c>
-      <c r="AB95">
-        <f>SQRT((4*($T95-$U$78))/(($M$71+$N$71)*0.001))</f>
-        <v>7.0521889099096473</v>
-      </c>
+        <v>0.8979562499999999</v>
+      </c>
+      <c r="U96" s="27">
+        <f>SQRT((2*($T96))/(($M$71+$N$71)*0.001))</f>
+        <v>6.8746531012959409</v>
+      </c>
+      <c r="V96" s="27">
+        <f>($M$71/2*0.001*($U96)^2)-$V$71</f>
+        <v>0.72478168421052647</v>
+      </c>
+      <c r="W96" s="27">
+        <f>SQRT((2*($V96)/($M$71*0.001)))</f>
+        <v>6.7304424269997218</v>
+      </c>
+      <c r="Z96" s="27"/>
+      <c r="AA96" s="27"/>
+      <c r="AB96" s="27"/>
+      <c r="AD96" s="27"/>
+      <c r="AE96" s="27"/>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="P96">
+    <row r="97" spans="16:28" x14ac:dyDescent="0.45">
+      <c r="P97">
         <v>95</v>
       </c>
-      <c r="Q96">
+      <c r="Q97" s="27">
         <f t="shared" si="22"/>
         <v>10.596150000000002</v>
       </c>
-      <c r="R96">
+      <c r="R97" s="27">
         <f t="shared" si="23"/>
         <v>18.720099999999999</v>
       </c>
-      <c r="S96">
+      <c r="S97" s="27">
         <f t="shared" si="24"/>
-        <v>0.44322487500000013</v>
-      </c>
-      <c r="T96">
-        <f t="shared" si="25"/>
-        <v>0.58843949999999978</v>
-      </c>
-      <c r="W96">
-        <f t="shared" si="26"/>
-        <v>5.073416470929625</v>
-      </c>
-      <c r="X96">
-        <f t="shared" si="27"/>
-        <v>4.6556862516372624</v>
-      </c>
-      <c r="Y96">
-        <f t="shared" si="28"/>
-        <v>5.9004634351887972</v>
-      </c>
-      <c r="Z96">
-        <f t="shared" si="29"/>
-        <v>5.4146365966410155</v>
-      </c>
-      <c r="AA96">
-        <f t="shared" si="30"/>
-        <v>8.3445154143305391</v>
-      </c>
-      <c r="AB96">
-        <f>SQRT((4*($T96-$U$78))/(($M$71+$N$71)*0.001))</f>
-        <v>7.6574525102914217</v>
-      </c>
+        <v>14.658125</v>
+      </c>
+      <c r="T97" s="27"/>
+      <c r="U97" s="27"/>
+      <c r="V97" s="27"/>
+      <c r="W97" s="27"/>
+      <c r="X97" s="27"/>
+      <c r="Y97" s="27"/>
+      <c r="AA97" s="27"/>
+      <c r="AB97" s="27"/>
     </row>
-    <row r="97" spans="16:28" x14ac:dyDescent="0.25">
-      <c r="P97">
-        <v>100</v>
-      </c>
-      <c r="Q97">
-        <f t="shared" si="22"/>
-        <v>12.4099</v>
-      </c>
-      <c r="R97">
-        <f t="shared" si="23"/>
-        <v>23.028099999999998</v>
-      </c>
-      <c r="S97">
-        <f t="shared" si="24"/>
-        <v>0.50074000000000018</v>
-      </c>
-      <c r="T97">
-        <f t="shared" si="25"/>
-        <v>0.69280999999999981</v>
-      </c>
-      <c r="W97">
-        <f t="shared" si="26"/>
-        <v>5.4161102278295639</v>
-      </c>
-      <c r="X97">
-        <f t="shared" si="27"/>
-        <v>4.9701636105654998</v>
-      </c>
-      <c r="Y97">
-        <f t="shared" si="28"/>
-        <v>6.4295120343615491</v>
-      </c>
-      <c r="Z97">
-        <f t="shared" si="29"/>
-        <v>5.9001248871706533</v>
-      </c>
-      <c r="AA97">
-        <f t="shared" si="30"/>
-        <v>9.0927031184351321</v>
-      </c>
-      <c r="AB97">
-        <f>SQRT((4*($T97-$U$78))/(($M$71+$N$71)*0.001))</f>
-        <v>8.344036635131765</v>
-      </c>
+    <row r="98" spans="16:28" x14ac:dyDescent="0.45">
+      <c r="Q98" s="27"/>
+      <c r="R98" s="27"/>
     </row>
-    <row r="100" spans="16:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="16:28" x14ac:dyDescent="0.45">
       <c r="U100" t="s">
-        <v>35</v>
-      </c>
-      <c r="W100">
-        <f t="shared" ref="W100:AA100" si="32">(COS($S$71)*W97)*(SIN($S$71)*W97+SQRT(SIN($S$71)^2+2*9.81*$P$71*0.001))/9.81</f>
-        <v>2.1213137474238475</v>
-      </c>
-      <c r="X100">
-        <f t="shared" si="32"/>
-        <v>1.8361518472553215</v>
-      </c>
-      <c r="Y100">
-        <f t="shared" si="32"/>
-        <v>2.8430668778456725</v>
-      </c>
-      <c r="Z100">
-        <f t="shared" si="32"/>
-        <v>2.4532586769452918</v>
-      </c>
-      <c r="AA100">
-        <f t="shared" si="32"/>
-        <v>5.2279635124640214</v>
-      </c>
-      <c r="AB100">
-        <f>(COS($S$71)*AB97)*(SIN($S$71)*AB97+SQRT(SIN($S$71)^2+2*9.81*$P$71*0.001))/9.81</f>
-        <v>4.4860715035399821</v>
+        <v>25</v>
+      </c>
+      <c r="V100">
+        <f>$W$96*COS($S$71)*(($W$96*SIN($S$71)+SQRT(($W$96*SIN($S$71))^2+2*9.81*$P$71*0.001))/9.81)</f>
+        <v>4.6849618148413867</v>
       </c>
     </row>
-    <row r="102" spans="16:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="16:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="16:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="103" spans="16:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P103" s="12" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="Q103" s="13"/>
       <c r="R103" s="13"/>
       <c r="S103" s="7"/>
       <c r="T103" s="8" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="U103" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="V103" s="9" t="s">
-        <v>46</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="V103" s="9"/>
     </row>
-    <row r="104" spans="16:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="16:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P104" s="14"/>
       <c r="Q104" s="15"/>
       <c r="R104" s="15"/>
@@ -16983,24 +16768,24 @@
       <c r="U104" s="11"/>
       <c r="V104" s="16"/>
     </row>
-    <row r="105" spans="16:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="16:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P105" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="Q105" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="R105" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S105" s="7"/>
       <c r="T105" s="17"/>
       <c r="U105" s="10"/>
       <c r="V105" s="18" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="106" spans="16:28" x14ac:dyDescent="0.25">
+    <row r="106" spans="16:28" x14ac:dyDescent="0.45">
       <c r="P106" s="6">
         <v>100</v>
       </c>
@@ -17016,15 +16801,15 @@
         <v>3.1391999999999996E-2</v>
       </c>
       <c r="U106" s="6">
-        <f>SQRT((4*($T$96-T106))/(($M$71+$N$71)*0.001))</f>
-        <v>7.6574525102914217</v>
+        <f>SQRT((2*($T$96-T106))/(($M$71+$N$71)*0.001))</f>
+        <v>6.7534172636408378</v>
       </c>
       <c r="V106">
-        <f>(COS(R106)*U106)*(SIN(R106)*U106+SQRT(SIN(R106)^2+2*9.81*P106*0.001))/9.81</f>
-        <v>3.8727194185142624</v>
+        <f>(COS(R106)*U106)*((SIN(R106)*U106+SQRT(SIN(R106)^2+2*9.81*P106*0.001))/9.81)</f>
+        <v>3.106034818621195</v>
       </c>
     </row>
-    <row r="107" spans="16:28" x14ac:dyDescent="0.25">
+    <row r="107" spans="16:28" x14ac:dyDescent="0.45">
       <c r="P107" s="6">
         <v>105</v>
       </c>
@@ -17036,19 +16821,19 @@
         <v>0.73143111824030438</v>
       </c>
       <c r="T107">
-        <f t="shared" ref="T107:T170" si="33">P107*$M$71*9.81*0.000001</f>
+        <f t="shared" ref="T107:T170" si="27">P107*$M$71*9.81*0.000001</f>
         <v>3.2961599999999994E-2</v>
       </c>
       <c r="U107" s="6">
-        <f>SQRT((4*($T$96-T107))/(($M$71+$N$71)*0.001))</f>
-        <v>7.6466566481526304</v>
+        <f t="shared" ref="U107:U170" si="28">SQRT((2*($T$96-T107))/(($M$71+$N$71)*0.001))</f>
+        <v>6.7472982897250295</v>
       </c>
       <c r="V107">
         <f>(COS(R107)*U107)*(SIN(R107)*U107+SQRT(SIN(R107)^2+2*9.81*P107*0.001))/9.81</f>
-        <v>3.8812126237727815</v>
+        <v>3.1172367915583599</v>
       </c>
     </row>
-    <row r="108" spans="16:28" x14ac:dyDescent="0.25">
+    <row r="108" spans="16:28" x14ac:dyDescent="0.45">
       <c r="P108" s="6">
         <v>110</v>
       </c>
@@ -17056,23 +16841,23 @@
         <v>41.818816270109949</v>
       </c>
       <c r="R108" s="6">
-        <f t="shared" ref="R108:R171" si="34">Q108/180*PI()</f>
+        <f t="shared" ref="R108:R171" si="29">Q108/180*PI()</f>
         <v>0.72987603319999295</v>
       </c>
       <c r="T108">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>3.4531200000000005E-2</v>
       </c>
       <c r="U108" s="6">
-        <f t="shared" ref="U108:U170" si="35">SQRT((4*($T$96-T108))/(($M$71+$N$71)*0.001))</f>
-        <v>7.6358455224097641</v>
+        <f t="shared" si="28"/>
+        <v>6.7411737616093621</v>
       </c>
       <c r="V108">
         <f>(COS(R108)*U108)*(SIN(R108)*U108+SQRT(SIN(R108)^2+2*9.81*P108*0.001))/9.81</f>
-        <v>3.8893337157262691</v>
+        <v>3.1281266476761465</v>
       </c>
     </row>
-    <row r="109" spans="16:28" x14ac:dyDescent="0.25">
+    <row r="109" spans="16:28" x14ac:dyDescent="0.45">
       <c r="P109" s="6">
         <v>115</v>
       </c>
@@ -17080,23 +16865,23 @@
         <v>41.731734358584788</v>
       </c>
       <c r="R109" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.72835616712494855</v>
       </c>
       <c r="T109">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>3.6100800000000002E-2</v>
       </c>
       <c r="U109" s="6">
-        <f t="shared" si="35"/>
-        <v>7.6250190681383652</v>
+        <f t="shared" si="28"/>
+        <v>6.7350436641416609</v>
       </c>
       <c r="V109">
-        <f t="shared" ref="V109:V170" si="36">(COS(R109)*U109)*(SIN(R109)*U109+SQRT(SIN(R109)^2+2*9.81*P109*0.001))/9.81</f>
-        <v>3.8971013192635948</v>
+        <f t="shared" ref="V109:V170" si="30">(COS(R109)*U109)*(SIN(R109)*U109+SQRT(SIN(R109)^2+2*9.81*P109*0.001))/9.81</f>
+        <v>3.1387204282713377</v>
       </c>
     </row>
-    <row r="110" spans="16:28" x14ac:dyDescent="0.25">
+    <row r="110" spans="16:28" x14ac:dyDescent="0.45">
       <c r="P110" s="6">
         <v>120</v>
       </c>
@@ -17104,23 +16889,23 @@
         <v>41.646532921356958</v>
       </c>
       <c r="R110" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.72686912151789163</v>
       </c>
       <c r="T110">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>3.76704E-2</v>
       </c>
       <c r="U110" s="6">
-        <f t="shared" si="35"/>
-        <v>7.6141772199524018</v>
+        <f t="shared" si="28"/>
+        <v>6.7289079821007318</v>
       </c>
       <c r="V110">
-        <f t="shared" si="36"/>
-        <v>3.9045324522837372</v>
+        <f t="shared" si="30"/>
+        <v>3.1490327911043159</v>
       </c>
     </row>
-    <row r="111" spans="16:28" x14ac:dyDescent="0.25">
+    <row r="111" spans="16:28" x14ac:dyDescent="0.45">
       <c r="P111" s="6">
         <v>125</v>
       </c>
@@ -17128,23 +16913,23 @@
         <v>41.563087275400115</v>
       </c>
       <c r="R111" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.72541272024949111</v>
       </c>
       <c r="T111">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>3.9239999999999997E-2</v>
       </c>
       <c r="U111" s="6">
-        <f t="shared" si="35"/>
-        <v>7.6033199119996597</v>
+        <f t="shared" si="28"/>
+        <v>6.7227667001959208</v>
       </c>
       <c r="V111">
-        <f t="shared" si="36"/>
-        <v>3.9116427138300871</v>
+        <f t="shared" si="30"/>
+        <v>3.1590771725410867</v>
       </c>
     </row>
-    <row r="112" spans="16:28" x14ac:dyDescent="0.25">
+    <row r="112" spans="16:28" x14ac:dyDescent="0.45">
       <c r="P112" s="6">
         <v>130</v>
       </c>
@@ -17152,23 +16937,23 @@
         <v>41.481287511143876</v>
       </c>
       <c r="R112" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.72398504503586458</v>
       </c>
       <c r="T112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>4.0809599999999994E-2</v>
       </c>
       <c r="U112" s="6">
-        <f t="shared" si="35"/>
-        <v>7.5924470779570754</v>
+        <f t="shared" si="28"/>
+        <v>6.7166198030666706</v>
       </c>
       <c r="V112">
-        <f t="shared" si="36"/>
-        <v>3.9184464447851206</v>
+        <f t="shared" si="30"/>
+        <v>3.1688659212482002</v>
       </c>
     </row>
-    <row r="113" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P113" s="6">
         <v>135</v>
       </c>
@@ -17176,23 +16961,23 @@
         <v>41.401032109325385</v>
       </c>
       <c r="R113" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.72258432403162098</v>
       </c>
       <c r="T113">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>4.2379200000000006E-2</v>
       </c>
       <c r="U113" s="6">
-        <f t="shared" si="35"/>
-        <v>7.5815586510260102</v>
+        <f t="shared" si="28"/>
+        <v>6.7104672752820704</v>
       </c>
       <c r="V113">
-        <f t="shared" si="36"/>
-        <v>3.9249568658636802</v>
+        <f t="shared" si="30"/>
+        <v>3.1784104231854702</v>
       </c>
     </row>
-    <row r="114" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P114" s="6">
         <v>140</v>
       </c>
@@ -17200,23 +16985,23 @@
         <v>41.322229052419722</v>
       </c>
       <c r="R114" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.72120895122798068</v>
       </c>
       <c r="T114">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>4.3948800000000003E-2</v>
       </c>
       <c r="U114" s="6">
-        <f t="shared" si="35"/>
-        <v>7.5706545639274658</v>
+        <f t="shared" si="28"/>
+        <v>6.7043091013404048</v>
       </c>
       <c r="V114">
         <f>(COS(R114)*U114)*(SIN(R114)*U114+SQRT(SIN(R114)^2+2*9.81*P114*0.001))/9.81</f>
-        <v>3.9311861967058874</v>
+        <v>3.187721201332895</v>
       </c>
     </row>
-    <row r="115" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P115" s="6">
         <v>145</v>
       </c>
@@ -17224,23 +17009,23 @@
         <v>41.244794215677523</v>
       </c>
       <c r="R115" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.71985745837108495</v>
       </c>
       <c r="T115">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>4.5518400000000001E-2</v>
       </c>
       <c r="U115" s="6">
-        <f t="shared" si="35"/>
-        <v>7.5597347488972257</v>
+        <f t="shared" si="28"/>
+        <v>6.6981452656686988</v>
       </c>
       <c r="V115">
-        <f t="shared" si="36"/>
-        <v>3.9371457591409165</v>
+        <f t="shared" si="30"/>
+        <v>3.1968080053863517</v>
       </c>
     </row>
-    <row r="116" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P116" s="6">
         <v>150</v>
       </c>
@@ -17248,23 +17033,23 @@
         <v>41.168650647625526</v>
       </c>
       <c r="R116" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.71852850240436128</v>
       </c>
       <c r="T116">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>4.7087999999999998E-2</v>
       </c>
       <c r="U116" s="6">
-        <f t="shared" si="35"/>
-        <v>7.5487991376809473</v>
+        <f t="shared" si="28"/>
+        <v>6.6919757526222554</v>
       </c>
       <c r="V116">
-        <f t="shared" si="36"/>
-        <v>3.9428460671200982</v>
+        <f t="shared" si="30"/>
+        <v>3.2056798890322455</v>
       </c>
     </row>
-    <row r="117" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P117" s="6">
         <v>155</v>
       </c>
@@ -17272,23 +17057,23 @@
         <v>41.093727574393519</v>
       </c>
       <c r="R117" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.71722084809074993</v>
       </c>
       <c r="T117">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>4.8657600000000002E-2</v>
       </c>
       <c r="U117" s="6">
-        <f t="shared" si="35"/>
-        <v>7.5378476615291872</v>
+        <f t="shared" si="28"/>
+        <v>6.6858005464841996</v>
       </c>
       <c r="V117">
-        <f t="shared" si="36"/>
-        <v>3.9482969053648036</v>
+        <f t="shared" si="30"/>
+        <v>3.2143452780326816</v>
       </c>
     </row>
-    <row r="118" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P118" s="6">
         <v>160</v>
       </c>
@@ -17296,23 +17081,23 @@
         <v>41.019959917237287</v>
       </c>
       <c r="R118" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.71593335959189131</v>
       </c>
       <c r="T118">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>5.02272E-2</v>
       </c>
       <c r="U118" s="6">
-        <f t="shared" si="35"/>
-        <v>7.5268802511923525</v>
+        <f t="shared" si="28"/>
+        <v>6.679619631465</v>
       </c>
       <c r="V118">
-        <f t="shared" si="36"/>
-        <v>3.9535073984137048</v>
+        <f t="shared" si="30"/>
+        <v>3.2228120294920672</v>
       </c>
     </row>
-    <row r="119" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P119" s="6">
         <v>165</v>
       </c>
@@ -17320,23 +17105,23 @@
         <v>40.947287598383824</v>
       </c>
       <c r="R119" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.71466498835283931</v>
       </c>
       <c r="T119">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>5.1796800000000004E-2</v>
       </c>
       <c r="U119" s="6">
-        <f t="shared" si="35"/>
-        <v>7.515896836915597</v>
+        <f t="shared" si="28"/>
+        <v>6.6734329917020103</v>
       </c>
       <c r="V119">
-        <f t="shared" si="36"/>
-        <v>3.9584860714647165</v>
+        <f t="shared" si="30"/>
+        <v>3.2310874844563928</v>
       </c>
     </row>
-    <row r="120" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P120" s="6">
         <v>170</v>
       </c>
@@ -17344,23 +17129,23 @@
         <v>40.875655044554172</v>
       </c>
       <c r="R120" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.71341476443689977</v>
       </c>
       <c r="T120">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>5.3366400000000001E-2</v>
       </c>
       <c r="U120" s="6">
-        <f t="shared" si="35"/>
-        <v>7.5048973484336408</v>
+        <f t="shared" si="28"/>
+        <v>6.6672406112589817</v>
       </c>
       <c r="V120">
-        <f t="shared" si="36"/>
-        <v>3.9632409041733787</v>
+        <f t="shared" si="30"/>
+        <v>3.2391785142775773</v>
       </c>
     </row>
-    <row r="121" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P121" s="6">
         <v>175</v>
       </c>
@@ -17368,23 +17153,23 @@
         <v>40.805010736160824</v>
       </c>
       <c r="R121" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.71218178865764159</v>
       </c>
       <c r="T121">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>5.4935999999999999E-2</v>
       </c>
       <c r="U121" s="6">
-        <f t="shared" si="35"/>
-        <v>7.4938817149655303</v>
+        <f t="shared" si="28"/>
+        <v>6.6610424741255976</v>
       </c>
       <c r="V121">
-        <f t="shared" si="36"/>
-        <v>3.9677793783799422</v>
+        <f t="shared" si="30"/>
+        <v>3.2470915617689462</v>
       </c>
     </row>
-    <row r="122" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P122" s="6">
         <v>180</v>
       </c>
@@ -17392,23 +17177,23 @@
         <v>40.735306811419633</v>
       </c>
       <c r="R122" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.71096522566934539</v>
       </c>
       <c r="T122">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>5.6505600000000003E-2</v>
       </c>
       <c r="U122" s="6">
-        <f t="shared" si="35"/>
-        <v>7.4828498652093192</v>
+        <f t="shared" si="28"/>
+        <v>6.6548385642169769</v>
       </c>
       <c r="V122">
-        <f t="shared" si="36"/>
-        <v>3.9721085205826432</v>
+        <f t="shared" si="30"/>
+        <v>3.2548326778310019</v>
       </c>
     </row>
-    <row r="123" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P123" s="6">
         <v>185</v>
       </c>
@@ -17416,23 +17201,23 @@
         <v>40.666498718326196</v>
       </c>
       <c r="R123" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.70976429789284623</v>
       </c>
       <c r="T123">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>5.80752E-2</v>
       </c>
       <c r="U123" s="6">
-        <f t="shared" si="35"/>
-        <v>7.4718017273366906</v>
+        <f t="shared" si="28"/>
+        <v>6.6486288653731966</v>
       </c>
       <c r="V123">
-        <f t="shared" si="36"/>
-        <v>3.976234939847676</v>
+        <f t="shared" si="30"/>
+        <v>3.2624075541413369</v>
       </c>
     </row>
-    <row r="124" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P124" s="6">
         <v>190</v>
       </c>
@@ -17440,23 +17225,23 @@
         <v>40.598544907246151</v>
       </c>
       <c r="R124" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.70857828015022117</v>
       </c>
       <c r="T124">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>5.9644799999999998E-2</v>
       </c>
       <c r="U124" s="6">
-        <f t="shared" si="35"/>
-        <v>7.4607372289874929</v>
+        <f t="shared" si="28"/>
+        <v>6.6424133613587983</v>
       </c>
       <c r="V124">
-        <f t="shared" si="36"/>
-        <v>3.9801648617415704</v>
+        <f t="shared" si="30"/>
+        <v>3.2698215524143439</v>
       </c>
     </row>
-    <row r="125" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P125" s="6">
         <v>195</v>
       </c>
@@ -17464,23 +17249,23 @@
         <v>40.531406558789719</v>
       </c>
       <c r="R125" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.70740649491530516</v>
       </c>
       <c r="T125">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>6.1214400000000002E-2</v>
       </c>
       <c r="U125" s="6">
-        <f t="shared" si="35"/>
-        <v>7.4496562972642169</v>
+        <f t="shared" si="28"/>
+        <v>6.6361920358622912</v>
       </c>
       <c r="V125">
-        <f t="shared" si="36"/>
-        <v>3.98390415878487</v>
+        <f t="shared" si="30"/>
+        <v>3.27707973066045</v>
       </c>
     </row>
-    <row r="126" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P126" s="6">
         <v>200</v>
       </c>
@@ -17488,23 +17273,23 @@
         <v>40.465047341999046</v>
       </c>
       <c r="R126" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.70624830809326333</v>
       </c>
       <c r="T126">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>6.2783999999999993E-2</v>
       </c>
       <c r="U126" s="6">
-        <f t="shared" si="35"/>
-        <v>7.4385588587263882</v>
+        <f t="shared" si="28"/>
+        <v>6.6299648724956537</v>
       </c>
       <c r="V126">
-        <f t="shared" si="36"/>
-        <v>3.9874583778536432</v>
+        <f t="shared" si="30"/>
+        <v>3.2841868668129859</v>
       </c>
     </row>
-    <row r="127" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P127" s="6">
         <v>205</v>
       </c>
@@ -17512,23 +17297,23 @@
         <v>40.399433199116586</v>
       </c>
       <c r="R127" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.70510312526409036</v>
       </c>
       <c r="T127">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>6.4353599999999997E-2</v>
       </c>
       <c r="U127" s="6">
-        <f t="shared" si="35"/>
-        <v>7.4274448393848909</v>
+        <f t="shared" si="28"/>
+        <v>6.6237318547938306</v>
       </c>
       <c r="V127">
-        <f t="shared" si="36"/>
-        <v>3.9908327648949204</v>
+        <f t="shared" si="30"/>
+        <v>3.291147480037985</v>
       </c>
     </row>
-    <row r="128" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P128" s="6">
         <v>210</v>
       </c>
@@ -17536,23 +17321,23 @@
         <v>40.334523006166961</v>
       </c>
       <c r="R128" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.7039702286790146</v>
       </c>
       <c r="T128">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>6.5923199999999987E-2</v>
       </c>
       <c r="U128" s="6">
-        <f t="shared" si="35"/>
-        <v>7.4163141646962112</v>
+        <f t="shared" si="28"/>
+        <v>6.6174929662142246</v>
       </c>
       <c r="V128">
-        <f t="shared" si="36"/>
-        <v>3.9940322872707057</v>
+        <f t="shared" si="30"/>
+        <v>3.2979658639467848</v>
       </c>
     </row>
-    <row r="129" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P129" s="6">
         <v>215</v>
       </c>
@@ -17560,23 +17345,23 @@
         <v>40.270290968452017</v>
       </c>
       <c r="R129" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.70284916813562359</v>
       </c>
       <c r="T129">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>6.7492800000000006E-2</v>
       </c>
       <c r="U129" s="6">
-        <f t="shared" si="35"/>
-        <v>7.4051667595566064</v>
+        <f t="shared" si="28"/>
+        <v>6.6112481901361821</v>
       </c>
       <c r="V129">
-        <f t="shared" si="36"/>
-        <v>3.9970616540052064</v>
+        <f t="shared" si="30"/>
+        <v>3.3046460698676827</v>
       </c>
     </row>
-    <row r="130" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P130" s="6">
         <v>220</v>
       </c>
@@ -17584,23 +17369,23 @@
         <v>40.206759596680286</v>
       </c>
       <c r="R130" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.70174033651989831</v>
       </c>
       <c r="T130">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>6.906240000000001E-2</v>
       </c>
       <c r="U130" s="6">
-        <f t="shared" si="35"/>
-        <v>7.3940025482961875</v>
+        <f t="shared" si="28"/>
+        <v>6.604997509860481</v>
       </c>
       <c r="V130">
-        <f t="shared" si="36"/>
-        <v>3.999925334172922</v>
+        <f t="shared" si="30"/>
+        <v>3.3111918708671402</v>
       </c>
     </row>
-    <row r="131" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P131" s="6">
         <v>225</v>
       </c>
@@ -17608,23 +17393,23 @@
         <v>40.14382203682824</v>
       </c>
       <c r="R131" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.70064186887730906</v>
       </c>
       <c r="T131">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>7.0632E-2</v>
       </c>
       <c r="U131" s="6">
-        <f t="shared" si="35"/>
-        <v>7.3828214546729303</v>
+        <f t="shared" si="28"/>
+        <v>6.5987409086088054</v>
       </c>
       <c r="V131">
-        <f t="shared" si="36"/>
-        <v>4.0026275736113046</v>
+        <f t="shared" si="30"/>
+        <v>3.3176070498135566</v>
       </c>
     </row>
-    <row r="132" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P132" s="6">
         <v>230</v>
       </c>
@@ -17632,23 +17417,23 @@
         <v>40.081486302593618</v>
       </c>
       <c r="R132" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.69955390507326687</v>
       </c>
       <c r="T132">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>7.2201600000000005E-2</v>
       </c>
       <c r="U132" s="6">
-        <f t="shared" si="35"/>
-        <v>7.3716234018666036</v>
+        <f t="shared" si="28"/>
+        <v>6.5924783695232234</v>
       </c>
       <c r="V132">
-        <f t="shared" si="36"/>
-        <v>4.0051724101881483</v>
+        <f t="shared" si="30"/>
+        <v>3.3238950367478211</v>
       </c>
     </row>
-    <row r="133" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P133" s="6">
         <v>235</v>
       </c>
@@ -17656,23 +17441,23 @@
         <v>40.019729617275566</v>
       </c>
       <c r="R133" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.69847604757934878</v>
       </c>
       <c r="T133">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>7.3771199999999995E-2</v>
       </c>
       <c r="U133" s="6">
-        <f t="shared" si="35"/>
-        <v>7.3604083124726012</v>
+        <f t="shared" si="28"/>
+        <v>6.5862098756656531</v>
       </c>
       <c r="V133">
-        <f t="shared" si="36"/>
-        <v>4.007563687719828</v>
+        <f t="shared" si="30"/>
+        <v>3.3300591444087249</v>
       </c>
     </row>
-    <row r="134" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P134" s="6">
         <v>240</v>
       </c>
@@ -17680,23 +17465,23 @@
         <v>39.958528921826833</v>
       </c>
       <c r="R134" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.69740789393925806</v>
       </c>
       <c r="T134">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>7.5340799999999999E-2</v>
       </c>
       <c r="U134" s="6">
-        <f t="shared" si="35"/>
-        <v>7.3491761084957128</v>
+        <f t="shared" si="28"/>
+        <v>6.5799354100173355</v>
       </c>
       <c r="V134">
-        <f t="shared" si="36"/>
-        <v>4.009805068718209</v>
+        <f t="shared" si="30"/>
+        <v>3.3361025323105395</v>
       </c>
     </row>
-    <row r="135" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P135" s="6">
         <v>245</v>
       </c>
@@ -17704,23 +17489,23 @@
         <v>39.897862223339139</v>
       </c>
       <c r="R135" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.69634906030433319</v>
       </c>
       <c r="T135">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>7.6910400000000004E-2</v>
       </c>
       <c r="U135" s="6">
-        <f t="shared" si="35"/>
-        <v>7.3379267113437843</v>
+        <f t="shared" si="28"/>
+        <v>6.5736549554782844</v>
       </c>
       <c r="V135">
-        <f t="shared" si="36"/>
-        <v>4.0119000460724781</v>
+        <f t="shared" si="30"/>
+        <v>3.3420282145871387</v>
       </c>
     </row>
-    <row r="136" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P136" s="6">
         <v>250</v>
       </c>
@@ -17728,23 +17513,23 @@
         <v>39.837710039604033</v>
       </c>
       <c r="R136" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.69529920664589095</v>
       </c>
       <c r="T136">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>7.8479999999999994E-2</v>
       </c>
       <c r="U136" s="6">
-        <f t="shared" si="35"/>
-        <v>7.3266600418213095</v>
+        <f t="shared" si="28"/>
+        <v>6.5673684948667548</v>
       </c>
       <c r="V136">
-        <f t="shared" si="36"/>
-        <v>4.0138519537746067</v>
+        <f t="shared" si="30"/>
+        <v>3.3478390668050673</v>
       </c>
     </row>
-    <row r="137" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P137" s="6">
         <v>255</v>
       </c>
@@ -17752,23 +17537,23 @@
         <v>39.778052940819954</v>
       </c>
       <c r="R137" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.69425799384992126</v>
       </c>
       <c r="T137">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>8.0049599999999999E-2</v>
       </c>
       <c r="U137" s="6">
-        <f t="shared" si="35"/>
-        <v>7.3153760201229208</v>
+        <f t="shared" si="28"/>
+        <v>6.5610760109186836</v>
       </c>
       <c r="V137">
-        <f t="shared" si="36"/>
-        <v>4.0156639767825251</v>
+        <f t="shared" si="30"/>
+        <v>3.3535378382180054</v>
       </c>
     </row>
-    <row r="138" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P138" s="6">
         <v>260</v>
       </c>
@@ -17776,23 +17561,23 @@
         <v>39.718872162346138</v>
       </c>
       <c r="R138" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.6932250944116598</v>
       </c>
       <c r="T138">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>8.1619199999999989E-2</v>
       </c>
       <c r="U138" s="6">
-        <f t="shared" si="35"/>
-        <v>7.3040745658267943</v>
+        <f t="shared" si="28"/>
+        <v>6.5547774862871462</v>
       </c>
       <c r="V138">
-        <f t="shared" si="36"/>
-        <v>4.0173391601043527</v>
+        <f t="shared" si="30"/>
+        <v>3.3591271585310905</v>
       </c>
     </row>
-    <row r="139" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P139" s="6">
         <v>265</v>
       </c>
@@ -17800,23 +17585,23 @@
         <v>39.66015046371863</v>
       </c>
       <c r="R139" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.69220020742824595</v>
       </c>
       <c r="T139">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>8.3188799999999993E-2</v>
       </c>
       <c r="U139" s="6">
-        <f t="shared" si="35"/>
-        <v>7.2927555978879681</v>
+        <f t="shared" si="28"/>
+        <v>6.5484729035417901</v>
       </c>
       <c r="V139">
-        <f t="shared" si="36"/>
-        <v>4.0188804171776837</v>
+        <f t="shared" si="30"/>
+        <v>3.3646095436436938</v>
       </c>
     </row>
-    <row r="140" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P140" s="6">
         <v>270</v>
       </c>
@@ -17824,23 +17609,23 @@
         <v>39.601871074138373</v>
       </c>
       <c r="R140" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.69118304019401799</v>
       </c>
       <c r="T140">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>8.4758400000000012E-2</v>
       </c>
       <c r="U140" s="6">
-        <f t="shared" si="35"/>
-        <v>7.2814190346315542</v>
+        <f t="shared" si="28"/>
+        <v>6.5421622451682788</v>
       </c>
       <c r="V140">
-        <f t="shared" si="36"/>
-        <v>4.0202905376096911</v>
+        <f t="shared" si="30"/>
+        <v>3.3699874039056161</v>
       </c>
     </row>
-    <row r="141" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P141" s="6">
         <v>275</v>
       </c>
@@ -17848,23 +17633,23 @@
         <v>39.544018501085837</v>
       </c>
       <c r="R141" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.6901733223135007</v>
       </c>
       <c r="T141">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>8.6328000000000002E-2</v>
       </c>
       <c r="U141" s="6">
-        <f t="shared" si="35"/>
-        <v>7.2700647937458678</v>
+        <f t="shared" si="28"/>
+        <v>6.5358454935677193</v>
       </c>
       <c r="V141">
-        <f t="shared" si="36"/>
-        <v>4.0215721943367519</v>
+        <f t="shared" si="30"/>
+        <v>3.3752630488997948</v>
       </c>
     </row>
-    <row r="142" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P142" s="6">
         <v>280</v>
       </c>
@@ -17872,23 +17657,23 @@
         <v>39.48657720663077</v>
       </c>
       <c r="R142" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.68917078259865228</v>
       </c>
       <c r="T142">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>8.7897600000000006E-2</v>
       </c>
       <c r="U142" s="6">
-        <f t="shared" si="35"/>
-        <v>7.2586927922754487</v>
+        <f t="shared" si="28"/>
+        <v>6.5295226310560928</v>
       </c>
       <c r="V142">
-        <f t="shared" si="36"/>
-        <v>4.0227279502559661</v>
+        <f t="shared" si="30"/>
+        <v>3.380438695208662</v>
       </c>
     </row>
-    <row r="143" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P143" s="6">
         <v>285</v>
       </c>
@@ -17896,23 +17681,23 @@
         <v>39.429532836908479</v>
       </c>
       <c r="R143" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.68817517052727328</v>
       </c>
       <c r="T143">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>8.9467200000000011E-2</v>
       </c>
       <c r="U143" s="6">
-        <f t="shared" si="35"/>
-        <v>7.2473029466140009</v>
+        <f t="shared" si="28"/>
+        <v>6.5231936398636741</v>
       </c>
       <c r="V143">
-        <f t="shared" si="36"/>
-        <v>4.0237602643754844</v>
+        <f t="shared" si="30"/>
+        <v>3.3855164696569351</v>
       </c>
     </row>
-    <row r="144" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="144" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P144" s="6">
         <v>290</v>
       </c>
@@ -17920,23 +17705,23 @@
         <v>39.372871477336616</v>
       </c>
       <c r="R144" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.68718624324408784</v>
       </c>
       <c r="T144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>9.1036800000000001E-2</v>
       </c>
       <c r="U144" s="6">
-        <f t="shared" si="35"/>
-        <v>7.2358951724972078</v>
+        <f t="shared" si="28"/>
+        <v>6.5168585021344523</v>
       </c>
       <c r="V144">
-        <f t="shared" si="36"/>
-        <v>4.0246714975256506</v>
+        <f t="shared" si="30"/>
+        <v>3.3904984153646529</v>
       </c>
     </row>
-    <row r="145" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="15:24" x14ac:dyDescent="0.45">
       <c r="P145" s="6">
         <v>295</v>
       </c>
@@ -17944,23 +17729,23 @@
         <v>39.316580079298681</v>
       </c>
       <c r="R145" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.68620377300777524</v>
       </c>
       <c r="T145">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>9.2606400000000005E-2</v>
       </c>
       <c r="U145" s="6">
-        <f t="shared" si="35"/>
-        <v>7.2244693849954702</v>
+        <f t="shared" si="28"/>
+        <v>6.5105171999255411</v>
       </c>
       <c r="V145">
-        <f t="shared" si="36"/>
-        <v>4.025463917668783</v>
+        <f t="shared" si="30"/>
+        <v>3.3953864955651656</v>
       </c>
     </row>
-    <row r="146" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="15:24" x14ac:dyDescent="0.45">
       <c r="P146" s="6">
         <v>300</v>
       </c>
@@ -17968,23 +17753,23 @@
         <v>39.260645671752819</v>
       </c>
       <c r="R146" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.68522753343094756</v>
       </c>
       <c r="T146">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>9.4175999999999996E-2</v>
       </c>
       <c r="U146" s="6">
-        <f t="shared" si="35"/>
-        <v>7.2130254985065205</v>
+        <f t="shared" si="28"/>
+        <v>6.5041697152065856</v>
       </c>
       <c r="V146">
-        <f t="shared" si="36"/>
-        <v>4.0261397048415084</v>
+        <f t="shared" si="30"/>
+        <v>3.4001825990866745</v>
       </c>
     </row>
-    <row r="147" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="15:24" x14ac:dyDescent="0.45">
       <c r="P147" s="6">
         <v>305</v>
       </c>
@@ -17992,23 +17777,23 @@
         <v>39.205056309168953</v>
       </c>
       <c r="R147" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.68425731602477413</v>
       </c>
       <c r="T147">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>9.57456E-2</v>
       </c>
       <c r="U147" s="6">
-        <f t="shared" si="35"/>
-        <v>7.2015634267479491</v>
+        <f t="shared" si="28"/>
+        <v>6.4978160298591661</v>
       </c>
       <c r="V147">
-        <f t="shared" si="36"/>
-        <v>4.0267009557603552</v>
+        <f t="shared" si="30"/>
+        <v>3.4048885427209901</v>
       </c>
     </row>
-    <row r="148" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="15:24" x14ac:dyDescent="0.45">
       <c r="P148" s="6">
         <v>310</v>
       </c>
@@ -18016,23 +17801,23 @@
         <v>39.149800153958267</v>
       </c>
       <c r="R148" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.68329291418435478</v>
       </c>
       <c r="T148">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>9.7315200000000004E-2</v>
       </c>
       <c r="U148" s="6">
-        <f t="shared" si="35"/>
-        <v>7.1900830827496067</v>
+        <f t="shared" si="28"/>
+        <v>6.4914561256761907</v>
       </c>
       <c r="V148">
-        <f t="shared" si="36"/>
-        <v>4.0271496881181745</v>
+        <f t="shared" si="30"/>
+        <v>3.4095060763693499</v>
       </c>
     </row>
-    <row r="149" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="15:24" x14ac:dyDescent="0.45">
       <c r="P149" s="6">
         <v>315</v>
       </c>
@@ -18040,23 +17825,23 @@
         <v>39.09486602820963</v>
       </c>
       <c r="R149" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.68233413281833633</v>
       </c>
       <c r="T149">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>9.8884799999999995E-2</v>
       </c>
       <c r="U149" s="6">
-        <f t="shared" si="35"/>
-        <v>7.1785843788459092</v>
+        <f t="shared" si="28"/>
+        <v>6.4850899843612932</v>
       </c>
       <c r="V149">
-        <f t="shared" si="36"/>
-        <v>4.0274878445964806</v>
+        <f t="shared" si="30"/>
+        <v>3.4140368855510301</v>
       </c>
     </row>
-    <row r="150" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="15:24" x14ac:dyDescent="0.45">
       <c r="P150" s="6">
         <v>320</v>
       </c>
@@ -18064,23 +17849,23 @@
         <v>39.377690812502586</v>
       </c>
       <c r="R150" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.68727035651049118</v>
       </c>
       <c r="T150">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.1004544</v>
       </c>
       <c r="U150" s="6">
-        <f t="shared" si="35"/>
-        <v>7.1670672266680278</v>
+        <f t="shared" si="28"/>
+        <v>6.4787175875282115</v>
       </c>
       <c r="V150">
-        <f t="shared" si="36"/>
-        <v>4.027511652365054</v>
+        <f t="shared" si="30"/>
+        <v>3.4177591599979498</v>
       </c>
     </row>
-    <row r="151" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P151" s="6">
         <v>325</v>
       </c>
@@ -18088,23 +17873,23 @@
         <v>38.985921157995747</v>
       </c>
       <c r="R151" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.68043268612994623</v>
       </c>
       <c r="T151">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.10202399999999999</v>
       </c>
       <c r="U151" s="6">
-        <f t="shared" si="35"/>
-        <v>7.1555315371359622</v>
+        <f t="shared" si="28"/>
+        <v>6.4723389167001733</v>
       </c>
       <c r="V151">
-        <f t="shared" si="36"/>
-        <v>4.0278398478480364</v>
+        <f t="shared" si="30"/>
+        <v>3.4228447717096002</v>
       </c>
     </row>
-    <row r="152" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="O152" s="19"/>
       <c r="P152" s="7">
         <v>330</v>
@@ -18113,28 +17898,28 @@
         <v>38.931889718650702</v>
       </c>
       <c r="R152" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.6794896596137836</v>
       </c>
       <c r="S152" s="8"/>
       <c r="T152" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.10359360000000001</v>
       </c>
-      <c r="U152" s="7">
-        <f t="shared" si="35"/>
-        <v>7.1439772204505081</v>
+      <c r="U152" s="6">
+        <f t="shared" si="28"/>
+        <v>6.4659539533092705</v>
       </c>
       <c r="V152" s="8">
-        <f t="shared" si="36"/>
-        <v>4.0278572374992159</v>
+        <f t="shared" si="30"/>
+        <v>3.4271249281648495</v>
       </c>
       <c r="W152" s="9"/>
       <c r="X152" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="153" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P153" s="6">
         <v>335</v>
       </c>
@@ -18142,23 +17927,23 @@
         <v>38.878140284010129</v>
       </c>
       <c r="R153" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.67855155500822006</v>
       </c>
       <c r="T153">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.10516320000000001</v>
       </c>
       <c r="U153" s="6">
-        <f t="shared" si="35"/>
-        <v>7.1324041860850951</v>
+        <f t="shared" si="28"/>
+        <v>6.4595626786958258</v>
       </c>
       <c r="V153">
-        <f t="shared" si="36"/>
-        <v>4.0277711433967136</v>
+        <f t="shared" si="30"/>
+        <v>3.431324522284342</v>
       </c>
     </row>
-    <row r="154" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P154" s="6">
         <v>340</v>
       </c>
@@ -18166,23 +17951,23 @@
         <v>39.206398314387322</v>
       </c>
       <c r="R154" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.68428073843441362</v>
       </c>
       <c r="T154">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.1067328</v>
       </c>
       <c r="U154" s="6">
-        <f t="shared" si="35"/>
-        <v>7.1208123427775156</v>
+        <f t="shared" si="28"/>
+        <v>6.4531650741077593</v>
       </c>
       <c r="V154">
-        <f t="shared" si="36"/>
-        <v>4.0273226382088803</v>
+        <f t="shared" si="30"/>
+        <v>3.4346020309105425</v>
       </c>
     </row>
-    <row r="155" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P155" s="6">
         <v>345</v>
       </c>
@@ -18190,23 +17975,23 @@
         <v>39.164566392413093</v>
       </c>
       <c r="R155" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.68355063366352597</v>
       </c>
       <c r="T155">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.10830240000000001</v>
       </c>
       <c r="U155" s="6">
-        <f t="shared" si="35"/>
-        <v>7.1092015985215271</v>
+        <f t="shared" si="28"/>
+        <v>6.4467611206999456</v>
       </c>
       <c r="V155">
-        <f t="shared" si="36"/>
-        <v>4.0270193062779231</v>
+        <f t="shared" si="30"/>
+        <v>3.4386134146997338</v>
       </c>
     </row>
-    <row r="156" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P156" s="6">
         <v>350</v>
       </c>
@@ -18214,23 +17999,23 @@
         <v>39.12310993064601</v>
       </c>
       <c r="R156" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.68282708190946328</v>
       </c>
       <c r="T156">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.109872</v>
       </c>
       <c r="U156" s="6">
-        <f t="shared" si="35"/>
-        <v>7.0975718605583316</v>
+        <f t="shared" si="28"/>
+        <v>6.4403507995335652</v>
       </c>
       <c r="V156">
-        <f t="shared" si="36"/>
-        <v>4.0266166295080223</v>
+        <f t="shared" si="30"/>
+        <v>3.4425477760582313</v>
       </c>
     </row>
-    <row r="157" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P157" s="6">
         <v>355</v>
       </c>
@@ -18238,23 +18023,23 @@
         <v>39.082037453732866</v>
       </c>
       <c r="R157" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.68211023195537945</v>
       </c>
       <c r="T157">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.1114416</v>
       </c>
       <c r="U157" s="6">
-        <f t="shared" si="35"/>
-        <v>7.085923035367931</v>
+        <f t="shared" si="28"/>
+        <v>6.4339340915754519</v>
       </c>
       <c r="V157">
-        <f t="shared" si="36"/>
-        <v>4.0261160327561116</v>
+        <f t="shared" si="30"/>
+        <v>3.4464063400260438</v>
       </c>
     </row>
-    <row r="158" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P158" s="6">
         <v>360</v>
       </c>
@@ -18262,23 +18047,23 @@
         <v>39.041323510120634</v>
       </c>
       <c r="R158" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.68139963958787475</v>
       </c>
       <c r="T158">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.11301120000000001</v>
       </c>
       <c r="U158" s="6">
-        <f t="shared" si="35"/>
-        <v>7.0742550286603532</v>
+        <f t="shared" si="28"/>
+        <v>6.4275109776974357</v>
       </c>
       <c r="V158">
-        <f t="shared" si="36"/>
-        <v>4.0255189417085298</v>
+        <f t="shared" si="30"/>
+        <v>3.4501903877851197</v>
       </c>
     </row>
-    <row r="159" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P159" s="6">
         <v>365</v>
       </c>
@@ -18286,23 +18071,23 @@
         <v>39.000966068769699</v>
       </c>
       <c r="R159" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.68069526935862046</v>
       </c>
       <c r="T159">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.1145808</v>
       </c>
       <c r="U159" s="6">
-        <f t="shared" si="35"/>
-        <v>7.0625677453667457</v>
+        <f t="shared" si="28"/>
+        <v>6.4210814386756736</v>
       </c>
       <c r="V159">
-        <f t="shared" si="36"/>
-        <v>4.0248267022987143</v>
+        <f t="shared" si="30"/>
+        <v>3.4539010953717471</v>
       </c>
     </row>
-    <row r="160" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P160" s="6">
         <v>370</v>
       </c>
@@ -18310,23 +18095,23 @@
         <v>38.960957288455155</v>
       </c>
       <c r="R160" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.67999698441242451</v>
       </c>
       <c r="T160">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.1161504</v>
       </c>
       <c r="U160" s="6">
-        <f t="shared" si="35"/>
-        <v>7.0508610896303399</v>
+        <f t="shared" si="28"/>
+        <v>6.4146454551899801</v>
       </c>
       <c r="V160">
-        <f t="shared" si="36"/>
-        <v>4.0240406248404064</v>
+        <f t="shared" si="30"/>
+        <v>3.4575396184471279</v>
       </c>
     </row>
-    <row r="161" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P161" s="6">
         <v>375</v>
       </c>
@@ -18334,23 +18119,23 @@
         <v>38.921289624352994</v>
       </c>
       <c r="R161" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.67930465306726673</v>
       </c>
       <c r="T161">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.11771999999999999</v>
       </c>
       <c r="U161" s="6">
-        <f t="shared" si="35"/>
-        <v>7.0391349647972765</v>
+        <f t="shared" si="28"/>
+        <v>6.4082030078231513</v>
       </c>
       <c r="V161">
-        <f t="shared" si="36"/>
-        <v>4.0231619771053682</v>
+        <f t="shared" si="30"/>
+        <v>3.4611070765414018</v>
       </c>
     </row>
-    <row r="162" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P162" s="6">
         <v>380</v>
       </c>
@@ -18358,23 +18143,23 @@
         <v>38.881956376665869</v>
       </c>
       <c r="R162" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.67861815838962392</v>
       </c>
       <c r="T162">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.1192896</v>
       </c>
       <c r="U162" s="6">
-        <f t="shared" si="35"/>
-        <v>7.0273892734072998</v>
+        <f t="shared" si="28"/>
+        <v>6.4017540770602777</v>
       </c>
       <c r="V162">
-        <f t="shared" si="36"/>
-        <v>4.0221919851724746</v>
+        <f t="shared" si="30"/>
+        <v>3.4646045528917928</v>
       </c>
     </row>
-    <row r="163" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P163" s="6">
         <v>385</v>
       </c>
@@ -18382,23 +18167,23 @@
         <v>38.842950155531945</v>
       </c>
       <c r="R163" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.67793737140207588</v>
       </c>
       <c r="T163">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.1208592</v>
       </c>
       <c r="U163" s="6">
-        <f t="shared" si="35"/>
-        <v>7.0156239171843016</v>
+        <f t="shared" si="28"/>
+        <v>6.3952986432880596</v>
       </c>
       <c r="V163">
-        <f t="shared" si="36"/>
-        <v>4.0211318376084915</v>
+        <f t="shared" si="30"/>
+        <v>3.4680331004739546</v>
       </c>
     </row>
-    <row r="164" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P164" s="6">
         <v>390</v>
       </c>
@@ -18406,23 +18191,23 @@
         <v>38.804264751533836</v>
       </c>
       <c r="R164" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.67726218372984481</v>
       </c>
       <c r="T164">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.1224288</v>
       </c>
       <c r="U164" s="6">
-        <f t="shared" si="35"/>
-        <v>7.0038387970267291</v>
+        <f t="shared" si="28"/>
+        <v>6.3888366867941073</v>
       </c>
       <c r="V164">
-        <f t="shared" si="36"/>
-        <v>4.0199826839625361</v>
+        <f t="shared" si="30"/>
+        <v>3.4713937377073107</v>
       </c>
     </row>
-    <row r="165" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P165" s="6">
         <v>395</v>
       </c>
@@ -18430,23 +18215,23 @@
         <v>38.765893588225012</v>
       </c>
       <c r="R165" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.67659248059228527</v>
       </c>
       <c r="T165">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.12399840000000001</v>
       </c>
       <c r="U165" s="6">
-        <f t="shared" si="35"/>
-        <v>6.9920338129978488</v>
+        <f t="shared" si="28"/>
+        <v>6.3823681877662404</v>
       </c>
       <c r="V165">
-        <f t="shared" si="36"/>
-        <v>4.0187456388423515</v>
+        <f t="shared" si="30"/>
+        <v>3.4746874544161952</v>
       </c>
     </row>
-    <row r="166" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P166" s="6">
         <v>400</v>
       </c>
@@ -18454,23 +18239,23 @@
         <v>38.72783027378518</v>
       </c>
       <c r="R166" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.67592815043108834</v>
       </c>
       <c r="T166">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.12556799999999999</v>
       </c>
       <c r="U166" s="6">
-        <f t="shared" si="35"/>
-        <v>6.9802088643158564</v>
+        <f t="shared" si="28"/>
+        <v>6.3758931262917766</v>
       </c>
       <c r="V166">
-        <f t="shared" si="36"/>
-        <v>4.0174217824391105</v>
+        <f t="shared" si="30"/>
+        <v>3.477915211387157</v>
       </c>
     </row>
-    <row r="167" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P167" s="6">
         <v>405</v>
       </c>
@@ -18478,23 +18263,23 @@
         <v>38.690068719352993</v>
       </c>
       <c r="R167" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.67526908697557564</v>
       </c>
       <c r="T167">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.12713759999999999</v>
       </c>
       <c r="U167" s="6">
-        <f t="shared" si="35"/>
-        <v>6.9683638493438389</v>
+        <f t="shared" si="28"/>
+        <v>6.3694114823568233</v>
       </c>
       <c r="V167">
-        <f t="shared" si="36"/>
-        <v>4.016012161654622</v>
+        <f t="shared" si="30"/>
+        <v>3.4810779411388952</v>
       </c>
     </row>
-    <row r="168" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P168" s="6">
         <v>410</v>
       </c>
@@ -18502,23 +18287,23 @@
         <v>38.6526031638235</v>
       </c>
       <c r="R168" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.67461518967549727</v>
       </c>
       <c r="T168">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.12870719999999999</v>
       </c>
       <c r="U168" s="6">
-        <f t="shared" si="35"/>
-        <v>6.9564986655795815</v>
+        <f t="shared" si="28"/>
+        <v>6.3629232358455461</v>
       </c>
       <c r="V168">
-        <f t="shared" si="36"/>
-        <v>4.0145177913068455</v>
+        <f t="shared" si="30"/>
+        <v>3.484176548910388</v>
       </c>
     </row>
-    <row r="169" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P169" s="6">
         <v>415</v>
       </c>
@@ -18526,23 +18311,23 @@
         <v>38.615427975136505</v>
       </c>
       <c r="R169" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>0.67396636023285905</v>
       </c>
       <c r="T169">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.1302768</v>
       </c>
       <c r="U169" s="6">
-        <f t="shared" si="35"/>
-        <v>6.9446132096452233</v>
+        <f t="shared" si="28"/>
+        <v>6.3564283665394488</v>
       </c>
       <c r="V169">
-        <f t="shared" si="36"/>
-        <v>4.0129396556970267</v>
+        <f t="shared" si="30"/>
+        <v>3.4872119143144005</v>
       </c>
     </row>
-    <row r="170" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P170" s="6">
         <v>420</v>
       </c>
@@ -18550,23 +18335,23 @@
         <v>79</v>
       </c>
       <c r="R170" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>1.3788101090755203</v>
       </c>
       <c r="T170">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.13184639999999997</v>
       </c>
       <c r="U170" s="6">
-        <f t="shared" si="35"/>
-        <v>6.9327073772767411</v>
+        <f t="shared" si="28"/>
+        <v>6.3499268541166343</v>
       </c>
       <c r="V170">
-        <f t="shared" si="36"/>
-        <v>1.3267525867662506</v>
+        <f t="shared" si="30"/>
+        <v>1.144566302013774</v>
       </c>
     </row>
-    <row r="171" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P171" s="6">
         <v>425</v>
       </c>
@@ -18574,23 +18359,23 @@
         <v>80</v>
       </c>
       <c r="R171" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="29"/>
         <v>1.3962634015954636</v>
       </c>
       <c r="T171">
-        <f t="shared" ref="T171:T186" si="37">P171*$M$71*9.81*0.000001</f>
+        <f t="shared" ref="T171:T186" si="31">P171*$M$71*9.81*0.000001</f>
         <v>0.13341600000000001</v>
       </c>
       <c r="U171" s="6">
-        <f t="shared" ref="U171:U186" si="38">SQRT((4*($T$96-T171))/(($M$71+$N$71)*0.001))</f>
-        <v>6.9207810633132851</v>
+        <f t="shared" ref="U171:U186" si="32">SQRT((2*($T$96-T171))/(($M$71+$N$71)*0.001))</f>
+        <v>6.343418678151064</v>
       </c>
       <c r="V171">
-        <f t="shared" ref="V171:V186" si="39">(COS(R171)*U171)*(SIN(R171)*U171+SQRT(SIN(R171)^2+2*9.81*P171*0.001))/9.81</f>
-        <v>1.2087144887313723</v>
+        <f t="shared" ref="V171:V186" si="33">(COS(R171)*U171)*(SIN(R171)*U171+SQRT(SIN(R171)^2+2*9.81*P171*0.001))/9.81</f>
+        <v>1.0440334867960785</v>
       </c>
     </row>
-    <row r="172" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P172" s="6">
         <v>430</v>
       </c>
@@ -18598,23 +18383,23 @@
         <v>81</v>
       </c>
       <c r="R172" s="5">
-        <f t="shared" ref="R172:R186" si="40">Q172/180*PI()</f>
+        <f t="shared" ref="R172:R186" si="34">Q172/180*PI()</f>
         <v>1.4137166941154069</v>
       </c>
       <c r="T172">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>0.13498560000000001</v>
       </c>
       <c r="U172" s="6">
-        <f t="shared" si="38"/>
-        <v>6.9088341616863396</v>
+        <f t="shared" si="32"/>
+        <v>6.3369038181118071</v>
       </c>
       <c r="V172">
-        <f t="shared" si="39"/>
-        <v>1.0897801217781078</v>
+        <f t="shared" si="33"/>
+        <v>0.94248285085574812</v>
       </c>
     </row>
-    <row r="173" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P173" s="6">
         <v>435</v>
       </c>
@@ -18622,23 +18407,23 @@
         <v>82</v>
       </c>
       <c r="R173" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>1.4311699866353502</v>
       </c>
       <c r="T173">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>0.13655520000000002</v>
       </c>
       <c r="U173" s="6">
-        <f t="shared" si="38"/>
-        <v>6.8968665654087156</v>
+        <f t="shared" si="32"/>
+        <v>6.3303822533622887</v>
       </c>
       <c r="V173">
-        <f t="shared" si="39"/>
-        <v>0.97007719953509874</v>
+        <f t="shared" si="33"/>
+        <v>0.84001862452324938</v>
       </c>
     </row>
-    <row r="174" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P174" s="6">
         <v>440</v>
       </c>
@@ -18646,23 +18431,23 @@
         <v>83</v>
       </c>
       <c r="R174" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>1.4486232791552935</v>
       </c>
       <c r="T174">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>0.13812480000000002</v>
       </c>
       <c r="U174" s="6">
-        <f t="shared" si="38"/>
-        <v>6.8848781665633725</v>
+        <f t="shared" si="32"/>
+        <v>6.3238539631595234</v>
       </c>
       <c r="V174">
-        <f t="shared" si="39"/>
-        <v>0.84973331030319721</v>
+        <f t="shared" si="33"/>
+        <v>0.73674544248809415</v>
       </c>
     </row>
-    <row r="175" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P175" s="6">
         <v>445</v>
       </c>
@@ -18670,23 +18455,23 @@
         <v>84</v>
       </c>
       <c r="R175" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>1.4660765716752369</v>
       </c>
       <c r="T175">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>0.1396944</v>
       </c>
       <c r="U175" s="6">
-        <f t="shared" si="38"/>
-        <v>6.8728688562920688</v>
+        <f t="shared" si="32"/>
+        <v>6.3173189266533498</v>
       </c>
       <c r="V175">
-        <f t="shared" si="39"/>
-        <v>0.72887576386748687</v>
+        <f t="shared" si="33"/>
+        <v>0.63276822090195883</v>
       </c>
     </row>
-    <row r="176" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P176" s="6">
         <v>450</v>
       </c>
@@ -18694,23 +18479,23 @@
         <v>85</v>
       </c>
       <c r="R176" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>1.48352986419518</v>
       </c>
       <c r="T176">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>0.141264</v>
       </c>
       <c r="U176" s="6">
-        <f t="shared" si="38"/>
-        <v>6.8608385247838237</v>
+        <f t="shared" si="32"/>
+        <v>6.3107771228856473</v>
       </c>
       <c r="V176">
-        <f t="shared" si="39"/>
-        <v>0.60763143960480015</v>
+        <f t="shared" si="33"/>
+        <v>0.52819203467103548</v>
       </c>
     </row>
-    <row r="177" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P177" s="6">
         <v>455</v>
       </c>
@@ -18718,23 +18503,23 @@
         <v>86</v>
       </c>
       <c r="R177" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>1.5009831567151235</v>
       </c>
       <c r="T177">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>0.14283360000000001</v>
       </c>
       <c r="U177" s="6">
-        <f t="shared" si="38"/>
-        <v>6.8487870612632058</v>
+        <f t="shared" si="32"/>
+        <v>6.3042285307895565</v>
       </c>
       <c r="V177">
-        <f t="shared" si="39"/>
-        <v>0.48612663608815204</v>
+        <f t="shared" si="33"/>
+        <v>0.42312199509907017</v>
       </c>
     </row>
-    <row r="178" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P178" s="6">
         <v>460</v>
       </c>
@@ -18742,23 +18527,23 @@
         <v>87</v>
       </c>
       <c r="R178" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>1.5184364492350666</v>
       </c>
       <c r="T178">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>0.14440320000000001</v>
       </c>
       <c r="U178" s="6">
-        <f t="shared" si="38"/>
-        <v>6.8367143539784312</v>
+        <f t="shared" si="32"/>
+        <v>6.2976731291886896</v>
       </c>
       <c r="V178">
-        <f t="shared" si="39"/>
-        <v>0.36448692238617619</v>
+        <f t="shared" si="33"/>
+        <v>0.31766312804122349</v>
       </c>
     </row>
-    <row r="179" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P179" s="6">
         <v>465</v>
       </c>
@@ -18766,23 +18551,23 @@
         <v>88</v>
       </c>
       <c r="R179" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>1.5358897417550099</v>
       </c>
       <c r="T179">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>0.14597280000000001</v>
       </c>
       <c r="U179" s="6">
-        <f t="shared" si="38"/>
-        <v>6.8246202901892747</v>
+        <f t="shared" si="32"/>
+        <v>6.2911108967963258</v>
       </c>
       <c r="V179">
-        <f t="shared" si="39"/>
-        <v>0.24283699125191599</v>
+        <f t="shared" si="33"/>
+        <v>0.21192025272724196</v>
       </c>
     </row>
-    <row r="180" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P180" s="6">
         <v>470</v>
       </c>
@@ -18790,23 +18575,23 @@
         <v>89</v>
       </c>
       <c r="R180" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>1.5533430342749532</v>
       </c>
       <c r="T180">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>0.14754239999999999</v>
       </c>
       <c r="U180" s="6">
-        <f t="shared" si="38"/>
-        <v>6.8125047561547847</v>
+        <f t="shared" si="32"/>
+        <v>6.2845418122146093</v>
       </c>
       <c r="V180">
-        <f t="shared" si="39"/>
-        <v>0.1213005143916261</v>
+        <f t="shared" si="33"/>
+        <v>0.10599786141082389</v>
       </c>
     </row>
-    <row r="181" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P181" s="6">
         <v>475</v>
       </c>
@@ -18814,23 +18599,23 @@
         <v>90</v>
       </c>
       <c r="R181" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="T181">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>0.14911199999999999</v>
       </c>
       <c r="U181" s="6">
-        <f t="shared" si="38"/>
-        <v>6.8003676371208028</v>
+        <f t="shared" si="32"/>
+        <v>6.2779658539337317</v>
       </c>
       <c r="V181">
-        <f t="shared" si="39"/>
-        <v>4.2518325304548242E-16</v>
+        <f t="shared" si="33"/>
+        <v>3.7204161389099684E-16</v>
       </c>
     </row>
-    <row r="182" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P182" s="6">
         <v>480</v>
       </c>
@@ -18838,23 +18623,23 @@
         <v>91</v>
       </c>
       <c r="R182" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>1.5882496193148399</v>
       </c>
       <c r="T182">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>0.1506816</v>
       </c>
       <c r="U182" s="6">
-        <f t="shared" si="38"/>
-        <v>6.7882088173072876</v>
+        <f t="shared" si="32"/>
+        <v>6.2713830003311157</v>
       </c>
       <c r="V182">
-        <f t="shared" si="39"/>
-        <v>-0.12094334725596025</v>
+        <f t="shared" si="33"/>
+        <v>-0.10596985017866446</v>
       </c>
     </row>
-    <row r="183" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P183" s="6">
         <v>485</v>
       </c>
@@ -18862,23 +18647,23 @@
         <v>92</v>
       </c>
       <c r="R183" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>1.605702911834783</v>
       </c>
       <c r="T183">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>0.1522512</v>
       </c>
       <c r="U183" s="6">
-        <f t="shared" si="38"/>
-        <v>6.7760281798954187</v>
+        <f t="shared" si="32"/>
+        <v>6.2647932296705777</v>
       </c>
       <c r="V183">
-        <f t="shared" si="39"/>
-        <v>-0.2414097636268028</v>
+        <f t="shared" si="33"/>
+        <v>-0.21180888933158937</v>
       </c>
     </row>
-    <row r="184" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P184" s="6">
         <v>490</v>
       </c>
@@ -18886,23 +18671,23 @@
         <v>93</v>
       </c>
       <c r="R184" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>1.6231562043547265</v>
       </c>
       <c r="T184">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>0.15382080000000001</v>
       </c>
       <c r="U184" s="6">
-        <f t="shared" si="38"/>
-        <v>6.7638256070145131</v>
+        <f t="shared" si="32"/>
+        <v>6.2581965201015004</v>
       </c>
       <c r="V184">
-        <f t="shared" si="39"/>
-        <v>-0.36128106087130518</v>
+        <f t="shared" si="33"/>
+        <v>-0.31741511471742173</v>
       </c>
     </row>
-    <row r="185" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P185" s="6">
         <v>495</v>
       </c>
@@ -18910,23 +18695,23 @@
         <v>94</v>
       </c>
       <c r="R185" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>1.6406094968746698</v>
       </c>
       <c r="T185">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>0.15539039999999998</v>
       </c>
       <c r="U185" s="6">
-        <f t="shared" si="38"/>
-        <v>6.7516009797287087</v>
+        <f t="shared" si="32"/>
+        <v>6.2515928496579756</v>
       </c>
       <c r="V185">
-        <f t="shared" si="39"/>
-        <v>-0.4804407578800044</v>
+        <f t="shared" si="33"/>
+        <v>-0.42268743458864655</v>
       </c>
     </row>
-    <row r="186" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P186" s="5">
         <v>500</v>
       </c>
@@ -18934,20 +18719,20 @@
         <v>37.214575566145463</v>
       </c>
       <c r="R186" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="34"/>
         <v>0.64951687336147113</v>
       </c>
       <c r="T186">
-        <f t="shared" si="37"/>
+        <f t="shared" si="31"/>
         <v>0.15695999999999999</v>
       </c>
-      <c r="U186" s="5">
-        <f t="shared" si="38"/>
-        <v>6.7393541780234463</v>
+      <c r="U186" s="6">
+        <f t="shared" si="32"/>
+        <v>6.2449821962579639</v>
       </c>
       <c r="V186">
-        <f t="shared" si="39"/>
-        <v>3.9751938924073293</v>
+        <f t="shared" si="33"/>
+        <v>3.5320077417641857</v>
       </c>
     </row>
   </sheetData>
@@ -18975,16 +18760,16 @@
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>29</xdr:col>
-                    <xdr:colOff>571500</xdr:colOff>
-                    <xdr:row>76</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>295275</xdr:colOff>
+                    <xdr:row>68</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>31</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
-                    <xdr:row>80</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>676275</xdr:colOff>
+                    <xdr:row>72</xdr:row>
+                    <xdr:rowOff>4763</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18997,16 +18782,38 @@
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>29</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
-                    <xdr:row>81</xdr:row>
+                    <xdr:col>18</xdr:col>
+                    <xdr:colOff>704850</xdr:colOff>
+                    <xdr:row>68</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>31</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>85</xdr:row>
+                    <xdr:col>18</xdr:col>
+                    <xdr:colOff>1109663</xdr:colOff>
+                    <xdr:row>72</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1027" r:id="rId6" name="Spinner 3">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>20</xdr:col>
+                    <xdr:colOff>100013</xdr:colOff>
+                    <xdr:row>68</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>20</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>72</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -19025,32 +18832,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>190</v>
       </c>

--- a/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DTU\Github\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FAAB0F-27FD-4F9C-B789-CF958314CD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD40A2C-EB70-4EB6-ABBE-5EC19349C46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="727" yWindow="458" windowWidth="21901" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
   <si>
     <t>ubelastet længde</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>Måleserie, hastighed fra affyringsplatform</t>
-  </si>
-  <si>
-    <t>[Nm][J]</t>
   </si>
   <si>
     <t>Hop vinkel</t>
@@ -230,12 +227,6 @@
     <t>Hast skubber</t>
   </si>
   <si>
-    <t>F gennemsnitlig ealstik</t>
-  </si>
-  <si>
-    <t>Akumuleret kraft</t>
-  </si>
-  <si>
     <t>Elastik gns.</t>
   </si>
   <si>
@@ -271,6 +262,27 @@
       </rPr>
       <t>0</t>
     </r>
+  </si>
+  <si>
+    <t>A gennemsnitlig elastik</t>
+  </si>
+  <si>
+    <t>Akumuleret arbejde</t>
+  </si>
+  <si>
+    <t>målt længde [mm]</t>
+  </si>
+  <si>
+    <t>forlængelse [mm]</t>
+  </si>
+  <si>
+    <t>kraft [N]</t>
+  </si>
+  <si>
+    <t>[Nm] = [J]</t>
+  </si>
+  <si>
+    <t>Forlængelse +25mm</t>
   </si>
 </sst>
 </file>
@@ -507,6 +519,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -524,19 +549,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,7 +570,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1171,7 +1183,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1742,7 +1754,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3201,7 +3213,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4592,7 +4604,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5428,7 +5440,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6264,7 +6276,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6464,7 +6476,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$AH$39:$AH$64</c:f>
+              <c:f>'Ark1'!$AG$39:$AG$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -6552,7 +6564,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3FC0-4354-8F85-7AA4D87E4358}"/>
+              <c16:uniqueId val="{00000000-A257-4771-AAC4-2CB94551893E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6588,7 +6600,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$AI$39:$AI$64</c:f>
+              <c:f>'Ark1'!$AH$39:$AH$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -6763,7 +6775,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3FC0-4354-8F85-7AA4D87E4358}"/>
+              <c16:uniqueId val="{00000001-A257-4771-AAC4-2CB94551893E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7031,6 +7043,823 @@
           <c:y val="0.89095829931175818"/>
           <c:w val="0.73850054665814191"/>
           <c:h val="6.2896692108374813E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dobbeltløkke vs elastik</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> i affyringsrampe</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Dobbeltløkke</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$K$39:$K$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$I$39:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE17-4ACC-B315-A56715604258}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Elastik i affyringsrampe</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$AI$39:$AI$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$E$71:$E$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE17-4ACC-B315-A56715604258}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1354690303"/>
+        <c:axId val="1354692383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1354690303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1600"/>
+                  <a:t>Forlængelse [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1354692383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1354692383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1400"/>
+                  <a:t>Kraft</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="1400" baseline="0"/>
+                  <a:t> [N]</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1354690303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29209316253490053"/>
+          <c:y val="0.8872168356772685"/>
+          <c:w val="0.45890163081024077"/>
+          <c:h val="6.3138208848022445E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7386,6 +8215,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -10998,6 +11867,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="39" fmlaLink="P71" inc="5" max="500" min="10" page="10" val="100"/>
 </file>
@@ -11007,7 +12392,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="39" fmlaLink="$T$71" inc="2" max="6" min="2" page="10" val="2"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="39" fmlaLink="$T$71" inc="2" max="6" min="2" page="10" val="4"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11091,15 +12476,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>296955</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>39220</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>677955</xdr:colOff>
+          <xdr:colOff>676275</xdr:colOff>
           <xdr:row>72</xdr:row>
-          <xdr:rowOff>5603</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11141,15 +12526,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>705970</xdr:colOff>
+          <xdr:colOff>704850</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>28576</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>1109382</xdr:colOff>
+          <xdr:colOff>1114425</xdr:colOff>
           <xdr:row>72</xdr:row>
-          <xdr:rowOff>11206</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11338,56 +12723,18 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>173181</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>19482</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Diagram 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>100013</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>68</xdr:row>
-          <xdr:rowOff>28015</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>487456</xdr:colOff>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>72</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -11426,6 +12773,82 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>138545</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>34635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>114733</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>123391</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>439616</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Diagram 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11694,66 +13117,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W100" sqref="W100"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AS47" sqref="AS47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.265625" customWidth="1"/>
-    <col min="17" max="17" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.53125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="21" max="21" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.46484375" customWidth="1"/>
-    <col min="34" max="34" width="11.59765625" customWidth="1"/>
-    <col min="35" max="35" width="13.3984375" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" customWidth="1"/>
+    <col min="34" max="34" width="11.5703125" customWidth="1"/>
+    <col min="35" max="35" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="21" x14ac:dyDescent="0.65">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:34" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="29"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="24"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U2" s="15"/>
       <c r="V2" s="15"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -11794,7 +13217,7 @@
         <v>50</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U3" s="15"/>
       <c r="V3" s="15">
@@ -11802,11 +13225,11 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -11865,7 +13288,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>15</v>
       </c>
@@ -11929,14 +13352,14 @@
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
-      <c r="AG6" s="25" t="s">
+      <c r="AG6" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AH6" s="26" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>14</v>
       </c>
@@ -12000,10 +13423,10 @@
       </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="26"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="31"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>13</v>
       </c>
@@ -12074,7 +13497,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>12</v>
       </c>
@@ -12145,7 +13568,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>11</v>
       </c>
@@ -12214,7 +13637,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -12283,7 +13706,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -12352,7 +13775,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -12415,7 +13838,7 @@
         <v>329.2</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>7</v>
       </c>
@@ -12478,7 +13901,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -12541,7 +13964,7 @@
         <v>320.39999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>5</v>
       </c>
@@ -12604,7 +14027,7 @@
         <v>314.39999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -12667,7 +14090,7 @@
         <v>309.2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -12723,7 +14146,7 @@
         <v>304.75</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -12779,7 +14202,7 @@
         <v>297.25</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -12842,7 +14265,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2.5</v>
       </c>
@@ -12905,7 +14328,7 @@
         <v>239.6</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2</v>
       </c>
@@ -12954,7 +14377,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -13010,7 +14433,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1.5</v>
       </c>
@@ -13073,7 +14496,7 @@
         <v>116.8</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -13129,7 +14552,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -13192,7 +14615,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -13248,7 +14671,7 @@
         <v>42.75</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -13304,7 +14727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>0.5</v>
       </c>
@@ -13367,7 +14790,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>0.25</v>
       </c>
@@ -13430,7 +14853,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -13493,55 +14916,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="21" x14ac:dyDescent="0.65">
-      <c r="A34" s="24" t="s">
+    <row r="34" spans="1:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="24"/>
+      <c r="B34" s="29"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
-      <c r="AH35" s="21" t="s">
+      <c r="AG35" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH35" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="AI35" s="21" t="s">
-        <v>48</v>
+      <c r="AI35" s="26" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -13582,25 +15008,29 @@
         <v>60</v>
       </c>
       <c r="T36" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U36" s="15"/>
       <c r="V36" s="15">
         <f>(SUM(C36+G36+K36+O36+S36)/5)</f>
         <v>60.1</v>
       </c>
-      <c r="AH36" s="21"/>
-      <c r="AI36" s="21"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="AH37" s="22" t="s">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG37" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH37" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AI37" s="22" t="s">
-        <v>50</v>
+      <c r="AI37" s="27" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
@@ -13656,10 +15086,11 @@
       <c r="U38" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH38" s="22"/>
-      <c r="AI38" s="22"/>
+      <c r="AG38" s="27"/>
+      <c r="AH38" s="27"/>
+      <c r="AI38" s="27"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>15</v>
       </c>
@@ -13721,16 +15152,20 @@
         <f>SUM(C39,G39,K39,O39,S39)/5</f>
         <v>105.7</v>
       </c>
+      <c r="AG39" s="3">
+        <f t="shared" ref="AG39:AG64" si="8">Q6*2</f>
+        <v>30</v>
+      </c>
       <c r="AH39" s="3">
-        <f>Q6*2</f>
-        <v>30</v>
+        <f t="shared" ref="AH39:AH64" si="9">K39*2</f>
+        <v>222</v>
       </c>
       <c r="AI39" s="3">
-        <f>K39*2</f>
-        <v>222</v>
+        <f>G71+25</f>
+        <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>14</v>
       </c>
@@ -13738,7 +15173,7 @@
         <v>180</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" ref="C40:C64" si="8">B40-$B$64</f>
+        <f t="shared" ref="C40:C64" si="10">B40-$B$64</f>
         <v>114</v>
       </c>
       <c r="D40" s="3"/>
@@ -13749,7 +15184,7 @@
         <v>187</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" ref="G40:G64" si="9">F40-$F$64</f>
+        <f t="shared" ref="G40:G64" si="11">F40-$F$64</f>
         <v>121</v>
       </c>
       <c r="H40" s="3"/>
@@ -13760,7 +15195,7 @@
         <v>174.5</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" ref="K40:K64" si="10">J40-$J$64</f>
+        <f t="shared" ref="K40:K64" si="12">J40-$J$64</f>
         <v>110.5</v>
       </c>
       <c r="L40" s="3"/>
@@ -13771,7 +15206,7 @@
         <v>156.5</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" ref="O40:O64" si="11">N40-$N$64</f>
+        <f t="shared" ref="O40:O64" si="13">N40-$N$64</f>
         <v>91.5</v>
       </c>
       <c r="P40" s="3"/>
@@ -13782,26 +15217,30 @@
         <v>152</v>
       </c>
       <c r="S40" s="3">
-        <f t="shared" ref="S40:S64" si="12">R40-$R$64</f>
+        <f t="shared" ref="S40:S64" si="14">R40-$R$64</f>
         <v>87.5</v>
       </c>
       <c r="T40" s="15">
         <v>14</v>
       </c>
       <c r="U40" s="15">
-        <f t="shared" ref="U40:U49" si="13">SUM(C40,G40,K40,O40,S40)/5</f>
+        <f t="shared" ref="U40:U49" si="15">SUM(C40,G40,K40,O40,S40)/5</f>
         <v>104.9</v>
       </c>
+      <c r="AG40" s="3">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
       <c r="AH40" s="3">
-        <f>Q7*2</f>
-        <v>28</v>
+        <f t="shared" si="9"/>
+        <v>221</v>
       </c>
       <c r="AI40" s="3">
-        <f t="shared" ref="AI40:AI64" si="14">K40*2</f>
-        <v>221</v>
+        <f t="shared" ref="AI40:AI60" si="16">G72+25</f>
+        <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>13</v>
       </c>
@@ -13809,7 +15248,7 @@
         <v>179</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>113</v>
       </c>
       <c r="D41" s="3"/>
@@ -13820,7 +15259,7 @@
         <v>186</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="H41" s="3"/>
@@ -13831,7 +15270,7 @@
         <v>174</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>110</v>
       </c>
       <c r="L41" s="3"/>
@@ -13842,7 +15281,7 @@
         <v>156</v>
       </c>
       <c r="O41" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>91</v>
       </c>
       <c r="P41" s="3"/>
@@ -13853,26 +15292,30 @@
         <v>151</v>
       </c>
       <c r="S41" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>86.5</v>
       </c>
       <c r="T41" s="15">
         <v>13</v>
       </c>
       <c r="U41" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>104.1</v>
       </c>
+      <c r="AG41" s="3">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
       <c r="AH41" s="3">
-        <f t="shared" ref="AH41:AH64" si="15">Q8*2</f>
-        <v>26</v>
+        <f t="shared" si="9"/>
+        <v>220</v>
       </c>
       <c r="AI41" s="3">
-        <f t="shared" si="14"/>
-        <v>220</v>
+        <f t="shared" si="16"/>
+        <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>12</v>
       </c>
@@ -13880,7 +15323,7 @@
         <v>178</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>112</v>
       </c>
       <c r="D42" s="3"/>
@@ -13891,7 +15334,7 @@
         <v>185</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>119</v>
       </c>
       <c r="H42" s="3"/>
@@ -13902,7 +15345,7 @@
         <v>173</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>109</v>
       </c>
       <c r="L42" s="3"/>
@@ -13913,7 +15356,7 @@
         <v>155</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>90</v>
       </c>
       <c r="P42" s="3"/>
@@ -13924,26 +15367,30 @@
         <v>150</v>
       </c>
       <c r="S42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>85.5</v>
       </c>
       <c r="T42" s="15">
         <v>12</v>
       </c>
       <c r="U42" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>103.1</v>
       </c>
+      <c r="AG42" s="3">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
       <c r="AH42" s="3">
-        <f t="shared" si="15"/>
-        <v>24</v>
+        <f t="shared" si="9"/>
+        <v>218</v>
       </c>
       <c r="AI42" s="3">
-        <f t="shared" si="14"/>
-        <v>218</v>
+        <f t="shared" si="16"/>
+        <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>11</v>
       </c>
@@ -13951,7 +15398,7 @@
         <v>177</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>111</v>
       </c>
       <c r="D43" s="3"/>
@@ -13962,7 +15409,7 @@
         <v>184</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>118</v>
       </c>
       <c r="H43" s="3"/>
@@ -13973,7 +15420,7 @@
         <v>171.5</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>107.5</v>
       </c>
       <c r="L43" s="3"/>
@@ -13984,7 +15431,7 @@
         <v>153.5</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>88.5</v>
       </c>
       <c r="P43" s="3"/>
@@ -13995,26 +15442,30 @@
         <v>149</v>
       </c>
       <c r="S43" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>84.5</v>
       </c>
       <c r="T43" s="15">
         <v>11</v>
       </c>
       <c r="U43" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>101.9</v>
       </c>
+      <c r="AG43" s="3">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
       <c r="AH43" s="3">
-        <f t="shared" si="15"/>
-        <v>22</v>
+        <f t="shared" si="9"/>
+        <v>215</v>
       </c>
       <c r="AI43" s="3">
-        <f t="shared" si="14"/>
-        <v>215</v>
+        <f t="shared" si="16"/>
+        <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>10</v>
       </c>
@@ -14022,7 +15473,7 @@
         <v>175</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>109</v>
       </c>
       <c r="D44" s="3"/>
@@ -14033,7 +15484,7 @@
         <v>182.5</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>116.5</v>
       </c>
       <c r="H44" s="3"/>
@@ -14044,7 +15495,7 @@
         <v>170</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>106</v>
       </c>
       <c r="L44" s="3"/>
@@ -14055,7 +15506,7 @@
         <v>152</v>
       </c>
       <c r="O44" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>87</v>
       </c>
       <c r="P44" s="3"/>
@@ -14066,26 +15517,30 @@
         <v>147.5</v>
       </c>
       <c r="S44" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>83</v>
       </c>
       <c r="T44" s="15">
         <v>10</v>
       </c>
       <c r="U44" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100.3</v>
       </c>
+      <c r="AG44" s="3">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="AH44" s="3">
-        <f t="shared" si="15"/>
-        <v>20</v>
+        <f t="shared" si="9"/>
+        <v>212</v>
       </c>
       <c r="AI44" s="3">
-        <f t="shared" si="14"/>
-        <v>212</v>
+        <f t="shared" si="16"/>
+        <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>9</v>
       </c>
@@ -14093,7 +15548,7 @@
         <v>174</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>108</v>
       </c>
       <c r="D45" s="3"/>
@@ -14104,7 +15559,7 @@
         <v>180</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>114</v>
       </c>
       <c r="H45" s="3"/>
@@ -14115,7 +15570,7 @@
         <v>168</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>104</v>
       </c>
       <c r="L45" s="3"/>
@@ -14126,7 +15581,7 @@
         <v>150.5</v>
       </c>
       <c r="O45" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>85.5</v>
       </c>
       <c r="P45" s="3"/>
@@ -14137,26 +15592,30 @@
         <v>146</v>
       </c>
       <c r="S45" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>81.5</v>
       </c>
       <c r="T45" s="15">
         <v>9</v>
       </c>
       <c r="U45" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>98.6</v>
       </c>
+      <c r="AG45" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
       <c r="AH45" s="3">
-        <f t="shared" si="15"/>
-        <v>18</v>
+        <f t="shared" si="9"/>
+        <v>208</v>
       </c>
       <c r="AI45" s="3">
-        <f t="shared" si="14"/>
-        <v>208</v>
+        <f t="shared" si="16"/>
+        <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>8</v>
       </c>
@@ -14164,7 +15623,7 @@
         <v>171</v>
       </c>
       <c r="C46" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>105</v>
       </c>
       <c r="D46" s="3"/>
@@ -14175,7 +15634,7 @@
         <v>178</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="H46" s="3"/>
@@ -14186,7 +15645,7 @@
         <v>165.5</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>101.5</v>
       </c>
       <c r="L46" s="3"/>
@@ -14197,7 +15656,7 @@
         <v>148</v>
       </c>
       <c r="O46" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>83</v>
       </c>
       <c r="P46" s="3"/>
@@ -14208,26 +15667,30 @@
         <v>143.5</v>
       </c>
       <c r="S46" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>79</v>
       </c>
       <c r="T46" s="15">
         <v>8</v>
       </c>
       <c r="U46" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>96.1</v>
       </c>
+      <c r="AG46" s="3">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
       <c r="AH46" s="3">
-        <f t="shared" si="15"/>
-        <v>16</v>
+        <f t="shared" si="9"/>
+        <v>203</v>
       </c>
       <c r="AI46" s="3">
-        <f t="shared" si="14"/>
-        <v>203</v>
+        <f t="shared" si="16"/>
+        <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>7</v>
       </c>
@@ -14235,7 +15698,7 @@
         <v>167</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>101</v>
       </c>
       <c r="D47" s="3"/>
@@ -14246,7 +15709,7 @@
         <v>174</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>108</v>
       </c>
       <c r="H47" s="3"/>
@@ -14257,7 +15720,7 @@
         <v>161</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>97</v>
       </c>
       <c r="L47" s="3"/>
@@ -14268,7 +15731,7 @@
         <v>143.5</v>
       </c>
       <c r="O47" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>78.5</v>
       </c>
       <c r="P47" s="3"/>
@@ -14279,26 +15742,30 @@
         <v>139</v>
       </c>
       <c r="S47" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>74.5</v>
       </c>
       <c r="T47" s="15">
         <v>7</v>
       </c>
       <c r="U47" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>91.8</v>
       </c>
+      <c r="AG47" s="3">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
       <c r="AH47" s="3">
-        <f t="shared" si="15"/>
-        <v>14</v>
+        <f t="shared" si="9"/>
+        <v>194</v>
       </c>
       <c r="AI47" s="3">
-        <f t="shared" si="14"/>
-        <v>194</v>
+        <f t="shared" si="16"/>
+        <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>6</v>
       </c>
@@ -14306,7 +15773,7 @@
         <v>159</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="D48" s="3"/>
@@ -14317,7 +15784,7 @@
         <v>166</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="H48" s="3"/>
@@ -14328,7 +15795,7 @@
         <v>155</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>91</v>
       </c>
       <c r="L48" s="3"/>
@@ -14339,7 +15806,7 @@
         <v>135.5</v>
       </c>
       <c r="O48" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>70.5</v>
       </c>
       <c r="P48" s="3"/>
@@ -14350,26 +15817,30 @@
         <v>131</v>
       </c>
       <c r="S48" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>66.5</v>
       </c>
       <c r="T48" s="15">
         <v>6</v>
       </c>
       <c r="U48" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>84.2</v>
       </c>
+      <c r="AG48" s="3">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
       <c r="AH48" s="3">
-        <f t="shared" si="15"/>
-        <v>12</v>
+        <f t="shared" si="9"/>
+        <v>182</v>
       </c>
       <c r="AI48" s="3">
-        <f t="shared" si="14"/>
-        <v>182</v>
+        <f t="shared" si="16"/>
+        <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>5</v>
       </c>
@@ -14377,7 +15848,7 @@
         <v>144</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="D49" s="3"/>
@@ -14388,7 +15859,7 @@
         <v>150</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>84</v>
       </c>
       <c r="H49" s="3"/>
@@ -14399,7 +15870,7 @@
         <v>141</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>77</v>
       </c>
       <c r="L49" s="3"/>
@@ -14410,7 +15881,7 @@
         <v>121</v>
       </c>
       <c r="O49" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="P49" s="3"/>
@@ -14421,26 +15892,30 @@
         <v>115.5</v>
       </c>
       <c r="S49" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>51</v>
       </c>
       <c r="T49" s="15">
         <v>5</v>
       </c>
       <c r="U49" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>69.2</v>
       </c>
+      <c r="AG49" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
       <c r="AH49" s="3">
-        <f t="shared" si="15"/>
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>154</v>
       </c>
       <c r="AI49" s="3">
-        <f t="shared" si="14"/>
-        <v>154</v>
+        <f t="shared" si="16"/>
+        <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>4.5</v>
       </c>
@@ -14448,7 +15923,7 @@
         <v>133</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
       <c r="D50" s="3"/>
@@ -14459,7 +15934,7 @@
         <v>138</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="H50" s="3"/>
@@ -14470,7 +15945,7 @@
         <v>131</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>67</v>
       </c>
       <c r="L50" s="3"/>
@@ -14481,7 +15956,7 @@
         <v>113.5</v>
       </c>
       <c r="O50" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>48.5</v>
       </c>
       <c r="P50" s="3"/>
@@ -14492,7 +15967,7 @@
         <v>108</v>
       </c>
       <c r="S50" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>43.5</v>
       </c>
       <c r="T50" s="15">
@@ -14502,16 +15977,20 @@
         <f>SUM(C50,G50,K50,O50,S50)/5</f>
         <v>59.6</v>
       </c>
+      <c r="AG50" s="3">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
       <c r="AH50" s="3">
-        <f t="shared" si="15"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>134</v>
       </c>
       <c r="AI50" s="3">
-        <f t="shared" si="14"/>
-        <v>134</v>
+        <f t="shared" si="16"/>
+        <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>4.25</v>
       </c>
@@ -14519,7 +15998,7 @@
         <v>125</v>
       </c>
       <c r="C51" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
       <c r="D51" s="3"/>
@@ -14530,7 +16009,7 @@
         <v>134</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>68</v>
       </c>
       <c r="H51" s="3"/>
@@ -14541,7 +16020,7 @@
         <v>128</v>
       </c>
       <c r="K51" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>64</v>
       </c>
       <c r="L51" s="3"/>
@@ -14552,7 +16031,7 @@
         <v>106</v>
       </c>
       <c r="O51" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="P51" s="3"/>
@@ -14563,7 +16042,7 @@
         <v>104</v>
       </c>
       <c r="S51" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>39.5</v>
       </c>
       <c r="T51" s="20">
@@ -14573,16 +16052,20 @@
         <f>SUM(C51,G51,K51,O51,S51)/4</f>
         <v>67.875</v>
       </c>
+      <c r="AG51" s="3">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
       <c r="AH51" s="3">
-        <f t="shared" si="15"/>
-        <v>8</v>
+        <f t="shared" si="9"/>
+        <v>128</v>
       </c>
       <c r="AI51" s="3">
-        <f t="shared" si="14"/>
-        <v>128</v>
+        <f t="shared" si="16"/>
+        <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>4</v>
       </c>
@@ -14590,7 +16073,7 @@
         <v>118</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
       <c r="D52" s="3"/>
@@ -14601,7 +16084,7 @@
         <v>125</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>59</v>
       </c>
       <c r="H52" s="3"/>
@@ -14612,7 +16095,7 @@
         <v>120</v>
       </c>
       <c r="K52" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="L52" s="3"/>
@@ -14623,7 +16106,7 @@
         <v>103</v>
       </c>
       <c r="O52" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="P52" s="3"/>
@@ -14634,7 +16117,7 @@
         <v>100</v>
       </c>
       <c r="S52" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>35.5</v>
       </c>
       <c r="T52" s="15">
@@ -14644,16 +16127,20 @@
         <f>SUM(C52,G52,K52,O52,S52)/4</f>
         <v>60.125</v>
       </c>
+      <c r="AG52" s="3">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
       <c r="AH52" s="3">
-        <f t="shared" si="15"/>
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>112</v>
       </c>
       <c r="AI52" s="3">
-        <f t="shared" si="14"/>
-        <v>112</v>
+        <f t="shared" si="16"/>
+        <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>3.75</v>
       </c>
@@ -14661,7 +16148,7 @@
         <v>111</v>
       </c>
       <c r="C53" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="D53" s="3"/>
@@ -14672,7 +16159,7 @@
         <v>115</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>49</v>
       </c>
       <c r="H53" s="3"/>
@@ -14683,7 +16170,7 @@
         <v>112</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
       <c r="L53" s="3"/>
@@ -14694,7 +16181,7 @@
         <v>100</v>
       </c>
       <c r="O53" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="P53" s="3"/>
@@ -14705,26 +16192,30 @@
         <v>95.5</v>
       </c>
       <c r="S53" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>31</v>
       </c>
       <c r="T53" s="15">
         <v>3</v>
       </c>
       <c r="U53" s="15">
-        <f t="shared" ref="U53:U54" si="16">SUM(C53,G53,K53,O53,S53)/5</f>
+        <f t="shared" ref="U53:U54" si="17">SUM(C53,G53,K53,O53,S53)/5</f>
         <v>41.6</v>
       </c>
+      <c r="AG53" s="3">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
       <c r="AH53" s="3">
-        <f t="shared" si="15"/>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>96</v>
       </c>
       <c r="AI53" s="3">
-        <f t="shared" si="14"/>
-        <v>96</v>
+        <f t="shared" si="16"/>
+        <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>3.5</v>
       </c>
@@ -14732,7 +16223,7 @@
         <v>108</v>
       </c>
       <c r="C54" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="D54" s="3"/>
@@ -14743,7 +16234,7 @@
         <v>112</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>46</v>
       </c>
       <c r="H54" s="3"/>
@@ -14754,7 +16245,7 @@
         <v>109</v>
       </c>
       <c r="K54" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="L54" s="3"/>
@@ -14765,7 +16256,7 @@
         <v>98</v>
       </c>
       <c r="O54" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>33</v>
       </c>
       <c r="P54" s="3"/>
@@ -14776,26 +16267,30 @@
         <v>93</v>
       </c>
       <c r="S54" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>28.5</v>
       </c>
       <c r="T54" s="15">
         <v>2.5</v>
       </c>
       <c r="U54" s="15">
+        <f t="shared" si="17"/>
+        <v>38.9</v>
+      </c>
+      <c r="AG54" s="3">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AH54" s="3">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="AI54" s="3">
         <f t="shared" si="16"/>
-        <v>38.9</v>
-      </c>
-      <c r="AH54" s="3">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="AI54" s="3">
-        <f t="shared" si="14"/>
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>3.25</v>
       </c>
@@ -14803,7 +16298,7 @@
         <v>102</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="D55" s="3"/>
@@ -14814,7 +16309,7 @@
         <v>105</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
       <c r="H55" s="3"/>
@@ -14825,7 +16320,7 @@
         <v>104</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="L55" s="3"/>
@@ -14836,7 +16331,7 @@
         <v>94.5</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>29.5</v>
       </c>
       <c r="P55" s="3"/>
@@ -14847,7 +16342,7 @@
         <v>90</v>
       </c>
       <c r="S55" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>25.5</v>
       </c>
       <c r="T55" s="15">
@@ -14857,16 +16352,20 @@
         <f>SUM(C55,G55,K55,O55,S55)/4</f>
         <v>42.5</v>
       </c>
+      <c r="AG55" s="3">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
       <c r="AH55" s="3">
-        <f t="shared" si="15"/>
-        <v>4.5</v>
+        <f t="shared" si="9"/>
+        <v>80</v>
       </c>
       <c r="AI55" s="3">
-        <f t="shared" si="14"/>
-        <v>80</v>
+        <f t="shared" si="16"/>
+        <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>3</v>
       </c>
@@ -14874,7 +16373,7 @@
         <v>96</v>
       </c>
       <c r="C56" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="D56" s="3"/>
@@ -14885,7 +16384,7 @@
         <v>99</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
       <c r="H56" s="3"/>
@@ -14896,7 +16395,7 @@
         <v>98.5</v>
       </c>
       <c r="K56" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>34.5</v>
       </c>
       <c r="L56" s="3"/>
@@ -14907,7 +16406,7 @@
         <v>91</v>
       </c>
       <c r="O56" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="P56" s="3"/>
@@ -14918,26 +16417,30 @@
         <v>88</v>
       </c>
       <c r="S56" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>23.5</v>
       </c>
       <c r="T56" s="15">
         <v>2</v>
       </c>
       <c r="U56" s="15">
-        <f t="shared" ref="U56:U57" si="17">SUM(C56,G56,K56,O56,S56)/5</f>
+        <f t="shared" ref="U56:U57" si="18">SUM(C56,G56,K56,O56,S56)/5</f>
         <v>29.4</v>
       </c>
+      <c r="AG56" s="3">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
       <c r="AH56" s="3">
-        <f t="shared" si="15"/>
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>69</v>
       </c>
       <c r="AI56" s="3">
-        <f t="shared" si="14"/>
-        <v>69</v>
+        <f t="shared" si="16"/>
+        <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>2.75</v>
       </c>
@@ -14945,7 +16448,7 @@
         <v>92</v>
       </c>
       <c r="C57" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="D57" s="3"/>
@@ -14956,7 +16459,7 @@
         <v>96</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="H57" s="3"/>
@@ -14967,7 +16470,7 @@
         <v>94</v>
       </c>
       <c r="K57" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="L57" s="3"/>
@@ -14978,7 +16481,7 @@
         <v>87</v>
       </c>
       <c r="O57" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="P57" s="3"/>
@@ -14989,26 +16492,30 @@
         <v>85</v>
       </c>
       <c r="S57" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20.5</v>
       </c>
       <c r="T57" s="15">
         <v>1.75</v>
       </c>
       <c r="U57" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>25.7</v>
       </c>
+      <c r="AG57" s="3">
+        <f t="shared" si="8"/>
+        <v>3.5</v>
+      </c>
       <c r="AH57" s="3">
-        <f t="shared" si="15"/>
-        <v>3.5</v>
+        <f t="shared" si="9"/>
+        <v>60</v>
       </c>
       <c r="AI57" s="3">
-        <f t="shared" si="14"/>
-        <v>60</v>
+        <f t="shared" si="16"/>
+        <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>2.5</v>
       </c>
@@ -15016,7 +16523,7 @@
         <v>88</v>
       </c>
       <c r="C58" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="D58" s="3"/>
@@ -15027,7 +16534,7 @@
         <v>92</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="H58" s="3"/>
@@ -15038,7 +16545,7 @@
         <v>92</v>
       </c>
       <c r="K58" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="L58" s="3"/>
@@ -15049,7 +16556,7 @@
         <v>85.5</v>
       </c>
       <c r="O58" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20.5</v>
       </c>
       <c r="P58" s="3"/>
@@ -15060,7 +16567,7 @@
         <v>82</v>
       </c>
       <c r="S58" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>17.5</v>
       </c>
       <c r="T58" s="15">
@@ -15070,16 +16577,20 @@
         <f>SUM(C58,G58,K58,O58,S58)/4</f>
         <v>28.5</v>
       </c>
+      <c r="AG58" s="3">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
       <c r="AH58" s="3">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>56</v>
       </c>
       <c r="AI58" s="3">
-        <f t="shared" si="14"/>
-        <v>56</v>
+        <f t="shared" si="16"/>
+        <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>2.25</v>
       </c>
@@ -15087,7 +16598,7 @@
         <v>87</v>
       </c>
       <c r="C59" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="D59" s="3"/>
@@ -15098,7 +16609,7 @@
         <v>89.5</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>23.5</v>
       </c>
       <c r="H59" s="3"/>
@@ -15109,7 +16620,7 @@
         <v>89</v>
       </c>
       <c r="K59" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="L59" s="3"/>
@@ -15120,7 +16631,7 @@
         <v>83</v>
       </c>
       <c r="O59" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="P59" s="3"/>
@@ -15131,26 +16642,30 @@
         <v>80</v>
       </c>
       <c r="S59" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15.5</v>
       </c>
       <c r="T59" s="15">
         <v>1.25</v>
       </c>
       <c r="U59" s="15">
-        <f t="shared" ref="U59" si="18">SUM(C59,G59,K59,O59,S59)/5</f>
+        <f t="shared" ref="U59" si="19">SUM(C59,G59,K59,O59,S59)/5</f>
         <v>20.6</v>
       </c>
+      <c r="AG59" s="3">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
       <c r="AH59" s="3">
-        <f t="shared" si="15"/>
-        <v>2.5</v>
+        <f t="shared" si="9"/>
+        <v>50</v>
       </c>
       <c r="AI59" s="3">
-        <f t="shared" si="14"/>
-        <v>50</v>
+        <f t="shared" si="16"/>
+        <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>2</v>
       </c>
@@ -15158,7 +16673,7 @@
         <v>83</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="D60" s="3"/>
@@ -15169,7 +16684,7 @@
         <v>86</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="H60" s="3"/>
@@ -15180,7 +16695,7 @@
         <v>85</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="L60" s="3"/>
@@ -15191,7 +16706,7 @@
         <v>80</v>
       </c>
       <c r="O60" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="P60" s="3"/>
@@ -15202,7 +16717,7 @@
         <v>78.5</v>
       </c>
       <c r="S60" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="T60" s="15">
@@ -15212,16 +16727,20 @@
         <f>SUM(C60,G60,K60,O60,S60)/4</f>
         <v>21.75</v>
       </c>
+      <c r="AG60" s="3">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
       <c r="AH60" s="3">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>42</v>
       </c>
       <c r="AI60" s="3">
-        <f t="shared" si="14"/>
-        <v>42</v>
+        <f t="shared" si="16"/>
+        <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>1.5</v>
       </c>
@@ -15229,7 +16748,7 @@
         <v>78</v>
       </c>
       <c r="C61" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="D61" s="3"/>
@@ -15240,7 +16759,7 @@
         <v>80</v>
       </c>
       <c r="G61" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="H61" s="3"/>
@@ -15251,7 +16770,7 @@
         <v>78</v>
       </c>
       <c r="K61" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="L61" s="3"/>
@@ -15262,7 +16781,7 @@
         <v>76</v>
       </c>
       <c r="O61" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="P61" s="3"/>
@@ -15273,7 +16792,7 @@
         <v>74.5</v>
       </c>
       <c r="S61" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="T61" s="15">
@@ -15283,16 +16802,17 @@
         <f>SUM(C61,G61,K61,O61,S61)/4</f>
         <v>15.25</v>
       </c>
+      <c r="AG61" s="3">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
       <c r="AH61" s="3">
-        <f t="shared" si="15"/>
-        <v>1.5</v>
-      </c>
-      <c r="AI61" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
+      <c r="AI61" s="3"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>1</v>
       </c>
@@ -15300,7 +16820,7 @@
         <v>74</v>
       </c>
       <c r="C62" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="D62" s="3"/>
@@ -15311,7 +16831,7 @@
         <v>75</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="H62" s="3"/>
@@ -15322,7 +16842,7 @@
         <v>74</v>
       </c>
       <c r="K62" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="L62" s="3"/>
@@ -15333,7 +16853,7 @@
         <v>73</v>
       </c>
       <c r="O62" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="P62" s="3"/>
@@ -15344,26 +16864,27 @@
         <v>71</v>
       </c>
       <c r="S62" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.5</v>
       </c>
       <c r="T62" s="15">
         <v>0.5</v>
       </c>
       <c r="U62" s="15">
-        <f t="shared" ref="U62:U64" si="19">SUM(C62,G62,K62,O62,S62)/5</f>
+        <f t="shared" ref="U62:U64" si="20">SUM(C62,G62,K62,O62,S62)/5</f>
         <v>8.3000000000000007</v>
       </c>
+      <c r="AG62" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="AH62" s="3">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AI62" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
+      <c r="AI62" s="3"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>0.5</v>
       </c>
@@ -15371,7 +16892,7 @@
         <v>70</v>
       </c>
       <c r="C63" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="D63" s="3"/>
@@ -15382,7 +16903,7 @@
         <v>71</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="H63" s="3"/>
@@ -15393,7 +16914,7 @@
         <v>69</v>
       </c>
       <c r="K63" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="L63" s="3"/>
@@ -15404,7 +16925,7 @@
         <v>69</v>
       </c>
       <c r="O63" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="P63" s="3"/>
@@ -15415,26 +16936,27 @@
         <v>68.5</v>
       </c>
       <c r="S63" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="T63" s="15">
         <v>0.25</v>
       </c>
       <c r="U63" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.4000000000000004</v>
       </c>
+      <c r="AG63" s="3">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
       <c r="AH63" s="3">
-        <f t="shared" si="15"/>
-        <v>0.5</v>
-      </c>
-      <c r="AI63" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
+      <c r="AI63" s="3"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>0</v>
       </c>
@@ -15442,7 +16964,7 @@
         <v>66</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D64" s="3"/>
@@ -15453,7 +16975,7 @@
         <v>66</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H64" s="3"/>
@@ -15464,7 +16986,7 @@
         <v>64</v>
       </c>
       <c r="K64" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L64" s="3"/>
@@ -15475,7 +16997,7 @@
         <v>65</v>
       </c>
       <c r="O64" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P64" s="3"/>
@@ -15486,32 +17008,33 @@
         <v>64.5</v>
       </c>
       <c r="S64" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T64" s="15">
         <v>0</v>
       </c>
       <c r="U64" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
+      <c r="AG64" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AH64" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI64" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="AI64" s="3"/>
     </row>
-    <row r="68" spans="1:31" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A68" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B68" s="23"/>
+    <row r="68" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="28"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -15544,11 +17067,11 @@
       </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S69" s="1"/>
       <c r="T69" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U69" s="1"/>
       <c r="V69" s="1" t="s">
@@ -15560,7 +17083,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>1</v>
       </c>
@@ -15581,13 +17104,13 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="J70" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="K70" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="M70" t="s">
         <v>17</v>
@@ -15599,19 +17122,19 @@
         <v>13</v>
       </c>
       <c r="R70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S70" t="s">
+        <v>50</v>
+      </c>
+      <c r="T70" t="s">
         <v>51</v>
       </c>
-      <c r="T70" t="s">
-        <v>52</v>
-      </c>
       <c r="V70" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>8</v>
       </c>
@@ -15619,7 +17142,7 @@
         <v>550</v>
       </c>
       <c r="C71" s="3">
-        <f t="shared" ref="C71:C79" si="20">B71-$B$80</f>
+        <f t="shared" ref="C71:C79" si="21">B71-$B$80</f>
         <v>93</v>
       </c>
       <c r="D71" s="3"/>
@@ -15630,7 +17153,7 @@
         <v>563</v>
       </c>
       <c r="G71" s="3">
-        <f t="shared" ref="G71:G91" si="21">F71-$F$92</f>
+        <f t="shared" ref="G71:G91" si="22">F71-$F$92</f>
         <v>101</v>
       </c>
       <c r="I71">
@@ -15647,7 +17170,7 @@
         <v>32</v>
       </c>
       <c r="N71">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P71">
         <v>100</v>
@@ -15655,19 +17178,19 @@
       <c r="R71">
         <v>41</v>
       </c>
-      <c r="S71" s="28">
+      <c r="S71" s="22">
         <f>R71/180*PI()</f>
         <v>0.71558499331767511</v>
       </c>
       <c r="T71">
-        <v>2</v>
-      </c>
-      <c r="V71" s="27">
+        <v>4</v>
+      </c>
+      <c r="V71" s="21">
         <f>$P$71*9.81*$M$71*0.000001</f>
         <v>3.1391999999999996E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>7</v>
       </c>
@@ -15675,7 +17198,7 @@
         <v>547</v>
       </c>
       <c r="C72" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>90</v>
       </c>
       <c r="D72" s="3"/>
@@ -15686,11 +17209,11 @@
         <v>561</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>6</v>
       </c>
@@ -15698,7 +17221,7 @@
         <v>543</v>
       </c>
       <c r="C73" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>86</v>
       </c>
       <c r="D73" s="3"/>
@@ -15709,14 +17232,14 @@
         <v>560</v>
       </c>
       <c r="G73" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>98</v>
       </c>
       <c r="P73" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>5.5</v>
       </c>
@@ -15724,7 +17247,7 @@
         <v>539</v>
       </c>
       <c r="C74" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>82</v>
       </c>
       <c r="D74" s="3"/>
@@ -15735,20 +17258,20 @@
         <v>559</v>
       </c>
       <c r="G74" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>97</v>
       </c>
       <c r="Q74" t="s">
         <v>19</v>
       </c>
       <c r="T74" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="U74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>5</v>
       </c>
@@ -15756,7 +17279,7 @@
         <v>537</v>
       </c>
       <c r="C75" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>80</v>
       </c>
       <c r="D75" s="3"/>
@@ -15767,29 +17290,29 @@
         <v>559</v>
       </c>
       <c r="G75" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>97</v>
       </c>
       <c r="P75" t="s">
         <v>10</v>
       </c>
       <c r="Q75" t="s">
+        <v>58</v>
+      </c>
+      <c r="R75" t="s">
+        <v>57</v>
+      </c>
+      <c r="S75" t="s">
+        <v>59</v>
+      </c>
+      <c r="T75" t="s">
         <v>61</v>
       </c>
-      <c r="R75" t="s">
-        <v>60</v>
-      </c>
-      <c r="S75" t="s">
-        <v>62</v>
-      </c>
-      <c r="T75" t="s">
-        <v>54</v>
-      </c>
       <c r="U75" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>4.5</v>
       </c>
@@ -15797,7 +17320,7 @@
         <v>531</v>
       </c>
       <c r="C76" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>74</v>
       </c>
       <c r="D76" s="3"/>
@@ -15808,7 +17331,7 @@
         <v>558</v>
       </c>
       <c r="G76" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>96</v>
       </c>
       <c r="P76" t="s">
@@ -15820,6 +17343,9 @@
       <c r="R76" t="s">
         <v>14</v>
       </c>
+      <c r="S76" t="s">
+        <v>14</v>
+      </c>
       <c r="T76" t="s">
         <v>15</v>
       </c>
@@ -15827,7 +17353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>4</v>
       </c>
@@ -15835,7 +17361,7 @@
         <v>500</v>
       </c>
       <c r="C77" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>43</v>
       </c>
       <c r="D77" s="3"/>
@@ -15846,19 +17372,19 @@
         <v>556</v>
       </c>
       <c r="G77" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>94</v>
       </c>
-      <c r="T77" s="27"/>
-      <c r="U77" s="27"/>
-      <c r="W77" s="27"/>
-      <c r="Z77" s="27"/>
-      <c r="AA77" s="27"/>
-      <c r="AB77" s="27"/>
-      <c r="AD77" s="27"/>
-      <c r="AE77" s="27"/>
+      <c r="T77" s="21"/>
+      <c r="U77" s="21"/>
+      <c r="W77" s="21"/>
+      <c r="Z77" s="21"/>
+      <c r="AA77" s="21"/>
+      <c r="AB77" s="21"/>
+      <c r="AD77" s="21"/>
+      <c r="AE77" s="21"/>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>3.5</v>
       </c>
@@ -15866,7 +17392,7 @@
         <v>490</v>
       </c>
       <c r="C78" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>33</v>
       </c>
       <c r="D78" s="3"/>
@@ -15877,31 +17403,31 @@
         <v>554</v>
       </c>
       <c r="G78" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>92</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
-      <c r="Q78" s="27">
-        <f>0.00003*P78^3-0.0031*P78^2+0.1115*P78+2.2599</f>
-        <v>2.2599</v>
-      </c>
-      <c r="R78" s="27">
-        <f>0.00008*P78^3-0.0088*P78^2+0.2956*P78+1.4681</f>
-        <v>1.4681</v>
-      </c>
-      <c r="S78" s="27">
+      <c r="Q78" s="21">
+        <f t="shared" ref="Q78:Q97" si="23">0.000027*P78^3-0.003*P78^2+0.1042*P78+2.3732</f>
+        <v>2.3732000000000002</v>
+      </c>
+      <c r="R78" s="21">
+        <f t="shared" ref="R78" si="24">0.000075*P78^3-0.0086*P78^2+0.2812*P78+1.6415</f>
+        <v>1.6415</v>
+      </c>
+      <c r="S78" s="21">
         <f>(R78+Q78)/2</f>
-        <v>1.8639999999999999</v>
-      </c>
-      <c r="Z78" s="27"/>
-      <c r="AA78" s="27"/>
-      <c r="AB78" s="27"/>
-      <c r="AD78" s="27"/>
-      <c r="AE78" s="27"/>
+        <v>2.0073500000000002</v>
+      </c>
+      <c r="Z78" s="21"/>
+      <c r="AA78" s="21"/>
+      <c r="AB78" s="21"/>
+      <c r="AD78" s="21"/>
+      <c r="AE78" s="21"/>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>3</v>
       </c>
@@ -15909,7 +17435,7 @@
         <v>480</v>
       </c>
       <c r="C79" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>23</v>
       </c>
       <c r="D79" s="3"/>
@@ -15920,41 +17446,41 @@
         <v>552</v>
       </c>
       <c r="G79" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>90</v>
       </c>
       <c r="P79">
         <v>5</v>
       </c>
-      <c r="Q79" s="27">
-        <f t="shared" ref="Q79:Q97" si="22">0.00003*P79^3-0.0031*P79^2+0.1115*P79+2.2599</f>
-        <v>2.7436500000000001</v>
-      </c>
-      <c r="R79" s="27">
-        <f t="shared" ref="R79:R97" si="23">0.00008*P79^3-0.0088*P79^2+0.2956*P79+1.4681</f>
-        <v>2.7360999999999995</v>
-      </c>
-      <c r="S79" s="27">
-        <f t="shared" ref="S79:S97" si="24">(R79+Q79)/2</f>
-        <v>2.7398749999999996</v>
-      </c>
-      <c r="T79" s="27">
+      <c r="Q79" s="21">
+        <f t="shared" si="23"/>
+        <v>2.8225750000000001</v>
+      </c>
+      <c r="R79" s="21">
+        <f t="shared" ref="R79:R97" si="25">0.000075*P79^3-0.0086*P79^2+0.2812*P79+1.6415</f>
+        <v>2.8418749999999999</v>
+      </c>
+      <c r="S79" s="21">
+        <f t="shared" ref="S79:S98" si="26">(R79+Q79)/2</f>
+        <v>2.8322250000000002</v>
+      </c>
+      <c r="T79" s="21">
         <f>$T$71*(P79-P78)*((S78+S79)/2)*0.001+T78</f>
-        <v>2.3019374999999998E-2</v>
-      </c>
-      <c r="U79" s="27">
-        <f t="shared" ref="U79:U95" si="25">SQRT((2*($T79))/(($M$71+$N$71)*0.001))</f>
-        <v>1.1007025268579966</v>
-      </c>
-      <c r="V79" s="27"/>
-      <c r="W79" s="27"/>
-      <c r="Z79" s="27"/>
-      <c r="AA79" s="27"/>
-      <c r="AB79" s="27"/>
-      <c r="AD79" s="27"/>
-      <c r="AE79" s="27"/>
+        <v>4.8395750000000001E-2</v>
+      </c>
+      <c r="U79" s="21">
+        <f t="shared" ref="U79:U95" si="27">SQRT((2*($T79))/(($M$71+$N$71)*0.001))</f>
+        <v>1.5753835511815315</v>
+      </c>
+      <c r="V79" s="21"/>
+      <c r="W79" s="21"/>
+      <c r="Z79" s="21"/>
+      <c r="AA79" s="21"/>
+      <c r="AB79" s="21"/>
+      <c r="AD79" s="21"/>
+      <c r="AE79" s="21"/>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>2.5</v>
       </c>
@@ -15973,41 +17499,41 @@
         <v>551</v>
       </c>
       <c r="G80" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>89</v>
       </c>
       <c r="P80">
         <v>10</v>
       </c>
-      <c r="Q80" s="27">
-        <f t="shared" si="22"/>
-        <v>3.0949</v>
-      </c>
-      <c r="R80" s="27">
+      <c r="Q80" s="21">
         <f t="shared" si="23"/>
-        <v>3.6240999999999994</v>
-      </c>
-      <c r="S80" s="27">
-        <f t="shared" si="24"/>
-        <v>3.3594999999999997</v>
-      </c>
-      <c r="T80" s="27">
-        <f t="shared" ref="T80:T96" si="26">$T$71*(P80-P79)*((S79+S80)/2)*0.001+T79</f>
-        <v>5.3516249999999994E-2</v>
-      </c>
-      <c r="U80" s="27">
+        <v>3.1422000000000003</v>
+      </c>
+      <c r="R80" s="21">
         <f t="shared" si="25"/>
-        <v>1.6782862499711142</v>
-      </c>
-      <c r="V80" s="27"/>
-      <c r="W80" s="27"/>
-      <c r="Z80" s="27"/>
-      <c r="AA80" s="27"/>
-      <c r="AB80" s="27"/>
-      <c r="AD80" s="27"/>
-      <c r="AE80" s="27"/>
+        <v>3.6684999999999999</v>
+      </c>
+      <c r="S80" s="21">
+        <f t="shared" si="26"/>
+        <v>3.4053500000000003</v>
+      </c>
+      <c r="T80" s="21">
+        <f t="shared" ref="T80:T96" si="28">$T$71*(P80-P79)*((S79+S80)/2)*0.001+T79</f>
+        <v>0.11077150000000001</v>
+      </c>
+      <c r="U80" s="21">
+        <f>SQRT((2*($T80))/(($M$71+$N$71)*0.001))</f>
+        <v>2.3833987798078908</v>
+      </c>
+      <c r="V80" s="21"/>
+      <c r="W80" s="21"/>
+      <c r="Z80" s="21"/>
+      <c r="AA80" s="21"/>
+      <c r="AB80" s="21"/>
+      <c r="AD80" s="21"/>
+      <c r="AE80" s="21"/>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -16019,41 +17545,41 @@
         <v>550</v>
       </c>
       <c r="G81" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>88</v>
       </c>
       <c r="P81">
         <v>15</v>
       </c>
-      <c r="Q81" s="27">
-        <f t="shared" si="22"/>
-        <v>3.3361499999999999</v>
-      </c>
-      <c r="R81" s="27">
+      <c r="Q81" s="21">
         <f t="shared" si="23"/>
-        <v>4.192099999999999</v>
-      </c>
-      <c r="S81" s="27">
-        <f t="shared" si="24"/>
-        <v>3.7641249999999995</v>
-      </c>
-      <c r="T81" s="27">
+        <v>3.352325</v>
+      </c>
+      <c r="R81" s="21">
+        <f t="shared" si="25"/>
+        <v>4.1776249999999999</v>
+      </c>
+      <c r="S81" s="21">
         <f t="shared" si="26"/>
-        <v>8.9134374999999988E-2</v>
-      </c>
-      <c r="U81" s="27">
-        <f t="shared" si="25"/>
-        <v>2.1659369553929406</v>
-      </c>
-      <c r="V81" s="27"/>
-      <c r="W81" s="27"/>
-      <c r="Z81" s="27"/>
-      <c r="AA81" s="27"/>
-      <c r="AB81" s="27"/>
-      <c r="AD81" s="27"/>
-      <c r="AE81" s="27"/>
+        <v>3.7649749999999997</v>
+      </c>
+      <c r="T81" s="21">
+        <f t="shared" si="28"/>
+        <v>0.18247475000000002</v>
+      </c>
+      <c r="U81" s="21">
+        <f t="shared" si="27"/>
+        <v>3.0590324429759632</v>
+      </c>
+      <c r="V81" s="21"/>
+      <c r="W81" s="21"/>
+      <c r="Z81" s="21"/>
+      <c r="AA81" s="21"/>
+      <c r="AB81" s="21"/>
+      <c r="AD81" s="21"/>
+      <c r="AE81" s="21"/>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -16065,41 +17591,41 @@
         <v>547</v>
       </c>
       <c r="G82" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>85</v>
       </c>
       <c r="P82">
         <v>20</v>
       </c>
-      <c r="Q82" s="27">
-        <f t="shared" si="22"/>
-        <v>3.4899</v>
-      </c>
-      <c r="R82" s="27">
+      <c r="Q82" s="21">
         <f t="shared" si="23"/>
-        <v>4.5000999999999989</v>
-      </c>
-      <c r="S82" s="27">
-        <f t="shared" si="24"/>
-        <v>3.9949999999999992</v>
-      </c>
-      <c r="T82" s="27">
+        <v>3.4732000000000003</v>
+      </c>
+      <c r="R82" s="21">
+        <f t="shared" si="25"/>
+        <v>4.4255000000000004</v>
+      </c>
+      <c r="S82" s="21">
         <f t="shared" si="26"/>
-        <v>0.12792999999999999</v>
-      </c>
-      <c r="U82" s="27">
-        <f t="shared" si="25"/>
-        <v>2.5948329223163564</v>
-      </c>
-      <c r="V82" s="27"/>
-      <c r="W82" s="27"/>
-      <c r="Z82" s="27"/>
-      <c r="AA82" s="27"/>
-      <c r="AB82" s="27"/>
-      <c r="AD82" s="27"/>
-      <c r="AE82" s="27"/>
+        <v>3.9493500000000004</v>
+      </c>
+      <c r="T82" s="21">
+        <f t="shared" si="28"/>
+        <v>0.25961800000000002</v>
+      </c>
+      <c r="U82" s="21">
+        <f t="shared" si="27"/>
+        <v>3.6488002945822604</v>
+      </c>
+      <c r="V82" s="21"/>
+      <c r="W82" s="21"/>
+      <c r="Z82" s="21"/>
+      <c r="AA82" s="21"/>
+      <c r="AB82" s="21"/>
+      <c r="AD82" s="21"/>
+      <c r="AE82" s="21"/>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -16111,41 +17637,41 @@
         <v>545</v>
       </c>
       <c r="G83" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>83</v>
       </c>
       <c r="P83">
         <v>25</v>
       </c>
-      <c r="Q83" s="27">
-        <f t="shared" si="22"/>
-        <v>3.5786500000000001</v>
-      </c>
-      <c r="R83" s="27">
+      <c r="Q83" s="21">
         <f t="shared" si="23"/>
-        <v>4.6080999999999994</v>
-      </c>
-      <c r="S83" s="27">
-        <f t="shared" si="24"/>
-        <v>4.093375</v>
-      </c>
-      <c r="T83" s="27">
+        <v>3.5250750000000002</v>
+      </c>
+      <c r="R83" s="21">
+        <f t="shared" si="25"/>
+        <v>4.468375</v>
+      </c>
+      <c r="S83" s="21">
         <f t="shared" si="26"/>
-        <v>0.16837187499999998</v>
-      </c>
-      <c r="U83" s="27">
-        <f t="shared" si="25"/>
-        <v>2.9768570055645847</v>
-      </c>
-      <c r="V83" s="27"/>
-      <c r="W83" s="27"/>
-      <c r="Z83" s="27"/>
-      <c r="AA83" s="27"/>
-      <c r="AB83" s="27"/>
-      <c r="AD83" s="27"/>
-      <c r="AE83" s="27"/>
+        <v>3.9967250000000001</v>
+      </c>
+      <c r="T83" s="21">
+        <f t="shared" si="28"/>
+        <v>0.33907875000000004</v>
+      </c>
+      <c r="U83" s="21">
+        <f>SQRT((2*($T83))/(($M$71+$N$71)*0.001))</f>
+        <v>4.169970485045889</v>
+      </c>
+      <c r="V83" s="21"/>
+      <c r="W83" s="21"/>
+      <c r="Z83" s="21"/>
+      <c r="AA83" s="21"/>
+      <c r="AB83" s="21"/>
+      <c r="AD83" s="21"/>
+      <c r="AE83" s="21"/>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -16157,41 +17683,41 @@
         <v>540</v>
       </c>
       <c r="G84" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>78</v>
       </c>
       <c r="P84">
         <v>30</v>
       </c>
-      <c r="Q84" s="27">
-        <f t="shared" si="22"/>
-        <v>3.6249000000000002</v>
-      </c>
-      <c r="R84" s="27">
+      <c r="Q84" s="21">
         <f t="shared" si="23"/>
-        <v>4.5760999999999976</v>
-      </c>
-      <c r="S84" s="27">
-        <f t="shared" si="24"/>
-        <v>4.1004999999999985</v>
-      </c>
-      <c r="T84" s="27">
+        <v>3.5282</v>
+      </c>
+      <c r="R84" s="21">
+        <f t="shared" si="25"/>
+        <v>4.3624999999999998</v>
+      </c>
+      <c r="S84" s="21">
         <f t="shared" si="26"/>
-        <v>0.20934124999999998</v>
-      </c>
-      <c r="U84" s="27">
-        <f t="shared" si="25"/>
-        <v>3.3193313372298023</v>
-      </c>
-      <c r="V84" s="27"/>
-      <c r="W84" s="27"/>
-      <c r="Z84" s="27"/>
-      <c r="AA84" s="27"/>
-      <c r="AB84" s="27"/>
-      <c r="AD84" s="27"/>
-      <c r="AE84" s="27"/>
+        <v>3.9453499999999999</v>
+      </c>
+      <c r="T84" s="21">
+        <f>$T$71*(P84-P83)*((S83+S84)/2)*0.001+T83</f>
+        <v>0.41849950000000002</v>
+      </c>
+      <c r="U84" s="21">
+        <f t="shared" si="27"/>
+        <v>4.6326572094763092</v>
+      </c>
+      <c r="V84" s="21"/>
+      <c r="W84" s="21"/>
+      <c r="Z84" s="21"/>
+      <c r="AA84" s="21"/>
+      <c r="AB84" s="21"/>
+      <c r="AD84" s="21"/>
+      <c r="AE84" s="21"/>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -16203,41 +17729,41 @@
         <v>535</v>
       </c>
       <c r="G85" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>73</v>
       </c>
       <c r="P85">
         <v>35</v>
       </c>
-      <c r="Q85" s="27">
-        <f t="shared" si="22"/>
-        <v>3.6511500000000003</v>
-      </c>
-      <c r="R85" s="27">
+      <c r="Q85" s="21">
         <f t="shared" si="23"/>
-        <v>4.4640999999999966</v>
-      </c>
-      <c r="S85" s="27">
-        <f t="shared" si="24"/>
-        <v>4.057624999999998</v>
-      </c>
-      <c r="T85" s="27">
+        <v>3.5028250000000001</v>
+      </c>
+      <c r="R85" s="21">
+        <f t="shared" si="25"/>
+        <v>4.1641249999999994</v>
+      </c>
+      <c r="S85" s="21">
         <f t="shared" si="26"/>
-        <v>0.25013187499999995</v>
-      </c>
-      <c r="U85" s="27">
-        <f t="shared" si="25"/>
-        <v>3.6283378462204685</v>
-      </c>
-      <c r="V85" s="27"/>
-      <c r="W85" s="27"/>
-      <c r="Z85" s="27"/>
-      <c r="AA85" s="27"/>
-      <c r="AB85" s="27"/>
-      <c r="AD85" s="27"/>
-      <c r="AE85" s="27"/>
+        <v>3.833475</v>
+      </c>
+      <c r="T85" s="21">
+        <f t="shared" si="28"/>
+        <v>0.49628775000000003</v>
+      </c>
+      <c r="U85" s="21">
+        <f t="shared" si="27"/>
+        <v>5.0448641058163153</v>
+      </c>
+      <c r="V85" s="21"/>
+      <c r="W85" s="21"/>
+      <c r="Z85" s="21"/>
+      <c r="AA85" s="21"/>
+      <c r="AB85" s="21"/>
+      <c r="AD85" s="21"/>
+      <c r="AE85" s="21"/>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -16249,41 +17775,41 @@
         <v>522</v>
       </c>
       <c r="G86" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>60</v>
       </c>
       <c r="P86">
         <v>40</v>
       </c>
-      <c r="Q86" s="27">
-        <f t="shared" si="22"/>
-        <v>3.6798999999999999</v>
-      </c>
-      <c r="R86" s="27">
+      <c r="Q86" s="21">
         <f t="shared" si="23"/>
-        <v>4.332099999999997</v>
-      </c>
-      <c r="S86" s="27">
-        <f t="shared" si="24"/>
-        <v>4.0059999999999985</v>
-      </c>
-      <c r="T86" s="27">
+        <v>3.4692000000000003</v>
+      </c>
+      <c r="R86" s="21">
+        <f t="shared" si="25"/>
+        <v>3.9295</v>
+      </c>
+      <c r="S86" s="21">
         <f t="shared" si="26"/>
-        <v>0.29044999999999993</v>
-      </c>
-      <c r="U86" s="27">
-        <f t="shared" si="25"/>
-        <v>3.9098391405866244</v>
-      </c>
-      <c r="V86" s="27"/>
-      <c r="W86" s="27"/>
-      <c r="Z86" s="27"/>
-      <c r="AA86" s="27"/>
-      <c r="AB86" s="27"/>
-      <c r="AD86" s="27"/>
-      <c r="AE86" s="27"/>
+        <v>3.6993499999999999</v>
+      </c>
+      <c r="T86" s="21">
+        <f t="shared" si="28"/>
+        <v>0.57161600000000001</v>
+      </c>
+      <c r="U86" s="21">
+        <f t="shared" si="27"/>
+        <v>5.4142073312388979</v>
+      </c>
+      <c r="V86" s="21"/>
+      <c r="W86" s="21"/>
+      <c r="Z86" s="21"/>
+      <c r="AA86" s="21"/>
+      <c r="AB86" s="21"/>
+      <c r="AD86" s="21"/>
+      <c r="AE86" s="21"/>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -16295,41 +17821,41 @@
         <v>512</v>
       </c>
       <c r="G87" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="P87">
         <v>45</v>
       </c>
-      <c r="Q87" s="27">
-        <f t="shared" si="22"/>
-        <v>3.7336500000000004</v>
-      </c>
-      <c r="R87" s="27">
+      <c r="Q87" s="21">
         <f t="shared" si="23"/>
-        <v>4.2401</v>
-      </c>
-      <c r="S87" s="27">
-        <f t="shared" si="24"/>
-        <v>3.9868750000000004</v>
-      </c>
-      <c r="T87" s="27">
+        <v>3.4475750000000001</v>
+      </c>
+      <c r="R87" s="21">
+        <f t="shared" si="25"/>
+        <v>3.7148750000000001</v>
+      </c>
+      <c r="S87" s="21">
         <f t="shared" si="26"/>
-        <v>0.33041437499999993</v>
-      </c>
-      <c r="U87" s="27">
-        <f t="shared" si="25"/>
-        <v>4.1701595009253412</v>
-      </c>
-      <c r="V87" s="27"/>
-      <c r="W87" s="27"/>
-      <c r="Z87" s="27"/>
-      <c r="AA87" s="27"/>
-      <c r="AB87" s="27"/>
-      <c r="AD87" s="27"/>
-      <c r="AE87" s="27"/>
+        <v>3.5812249999999999</v>
+      </c>
+      <c r="T87" s="21">
+        <f>$T$71*(P87-P86)*((S86+S87)/2)*0.001+T86</f>
+        <v>0.64442175000000002</v>
+      </c>
+      <c r="U87" s="21">
+        <f t="shared" si="27"/>
+        <v>5.7486754327209351</v>
+      </c>
+      <c r="V87" s="21"/>
+      <c r="W87" s="21"/>
+      <c r="Z87" s="21"/>
+      <c r="AA87" s="21"/>
+      <c r="AB87" s="21"/>
+      <c r="AD87" s="21"/>
+      <c r="AE87" s="21"/>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -16341,41 +17867,41 @@
         <v>497</v>
       </c>
       <c r="G88" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>35</v>
       </c>
       <c r="P88">
         <v>50</v>
       </c>
-      <c r="Q88" s="27">
-        <f t="shared" si="22"/>
-        <v>3.8349000000000002</v>
-      </c>
-      <c r="R88" s="27">
+      <c r="Q88" s="21">
         <f t="shared" si="23"/>
-        <v>4.2480999999999991</v>
-      </c>
-      <c r="S88" s="27">
-        <f t="shared" si="24"/>
-        <v>4.0414999999999992</v>
-      </c>
-      <c r="T88" s="27">
+        <v>3.4582000000000002</v>
+      </c>
+      <c r="R88" s="21">
+        <f t="shared" si="25"/>
+        <v>3.5765000000000002</v>
+      </c>
+      <c r="S88" s="21">
         <f t="shared" si="26"/>
-        <v>0.37055624999999992</v>
-      </c>
-      <c r="U88" s="27">
-        <f t="shared" si="25"/>
-        <v>4.4162156340373357</v>
-      </c>
-      <c r="V88" s="27"/>
-      <c r="W88" s="27"/>
-      <c r="Z88" s="27"/>
-      <c r="AA88" s="27"/>
-      <c r="AB88" s="27"/>
-      <c r="AD88" s="27"/>
-      <c r="AE88" s="27"/>
+        <v>3.5173500000000004</v>
+      </c>
+      <c r="T88" s="21">
+        <f t="shared" si="28"/>
+        <v>0.71540749999999997</v>
+      </c>
+      <c r="U88" s="21">
+        <f t="shared" si="27"/>
+        <v>6.0570260113824919</v>
+      </c>
+      <c r="V88" s="21"/>
+      <c r="W88" s="21"/>
+      <c r="Z88" s="21"/>
+      <c r="AA88" s="21"/>
+      <c r="AB88" s="21"/>
+      <c r="AD88" s="21"/>
+      <c r="AE88" s="21"/>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -16387,41 +17913,41 @@
         <v>482</v>
       </c>
       <c r="G89" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="P89">
         <v>55</v>
       </c>
-      <c r="Q89" s="27">
-        <f t="shared" si="22"/>
-        <v>4.0061500000000008</v>
-      </c>
-      <c r="R89" s="27">
+      <c r="Q89" s="21">
         <f t="shared" si="23"/>
-        <v>4.4160999999999984</v>
-      </c>
-      <c r="S89" s="27">
-        <f t="shared" si="24"/>
-        <v>4.2111249999999991</v>
-      </c>
-      <c r="T89" s="27">
+        <v>3.5213249999999987</v>
+      </c>
+      <c r="R89" s="21">
+        <f t="shared" si="25"/>
+        <v>3.5706249999999988</v>
+      </c>
+      <c r="S89" s="21">
         <f t="shared" si="26"/>
-        <v>0.41181937499999993</v>
-      </c>
-      <c r="U89" s="27">
-        <f t="shared" si="25"/>
-        <v>4.6556099436452385</v>
-      </c>
-      <c r="V89" s="27"/>
-      <c r="W89" s="27"/>
-      <c r="Z89" s="27"/>
-      <c r="AA89" s="27"/>
-      <c r="AB89" s="27"/>
-      <c r="AD89" s="27"/>
-      <c r="AE89" s="27"/>
+        <v>3.5459749999999985</v>
+      </c>
+      <c r="T89" s="21">
+        <f t="shared" si="28"/>
+        <v>0.78604074999999995</v>
+      </c>
+      <c r="U89" s="21">
+        <f t="shared" si="27"/>
+        <v>6.3489985077397879</v>
+      </c>
+      <c r="V89" s="21"/>
+      <c r="W89" s="21"/>
+      <c r="Z89" s="21"/>
+      <c r="AA89" s="21"/>
+      <c r="AB89" s="21"/>
+      <c r="AD89" s="21"/>
+      <c r="AE89" s="21"/>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -16433,41 +17959,41 @@
         <v>472</v>
       </c>
       <c r="G90" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="P90">
         <v>60</v>
       </c>
-      <c r="Q90" s="27">
-        <f t="shared" si="22"/>
-        <v>4.2699000000000007</v>
-      </c>
-      <c r="R90" s="27">
+      <c r="Q90" s="21">
         <f t="shared" si="23"/>
-        <v>4.8040999999999947</v>
-      </c>
-      <c r="S90" s="27">
-        <f t="shared" si="24"/>
-        <v>4.5369999999999973</v>
-      </c>
-      <c r="T90" s="27">
+        <v>3.6571999999999991</v>
+      </c>
+      <c r="R90" s="21">
+        <f t="shared" si="25"/>
+        <v>3.7534999999999981</v>
+      </c>
+      <c r="S90" s="21">
         <f t="shared" si="26"/>
-        <v>0.45555999999999991</v>
-      </c>
-      <c r="U90" s="27">
-        <f t="shared" si="25"/>
-        <v>4.8966153724039989</v>
-      </c>
-      <c r="V90" s="27"/>
-      <c r="W90" s="27"/>
-      <c r="Z90" s="27"/>
-      <c r="AA90" s="27"/>
-      <c r="AB90" s="27"/>
-      <c r="AD90" s="27"/>
-      <c r="AE90" s="27"/>
+        <v>3.7053499999999984</v>
+      </c>
+      <c r="T90" s="21">
+        <f t="shared" si="28"/>
+        <v>0.85855399999999993</v>
+      </c>
+      <c r="U90" s="21">
+        <f t="shared" si="27"/>
+        <v>6.6353907387892583</v>
+      </c>
+      <c r="V90" s="21"/>
+      <c r="W90" s="21"/>
+      <c r="Z90" s="21"/>
+      <c r="AA90" s="21"/>
+      <c r="AB90" s="21"/>
+      <c r="AD90" s="21"/>
+      <c r="AE90" s="21"/>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -16479,41 +18005,41 @@
         <v>465</v>
       </c>
       <c r="G91" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="P91">
         <v>65</v>
       </c>
-      <c r="Q91" s="27">
-        <f t="shared" si="22"/>
-        <v>4.6486499999999999</v>
-      </c>
-      <c r="R91" s="27">
+      <c r="Q91" s="21">
         <f t="shared" si="23"/>
-        <v>5.4721000000000011</v>
-      </c>
-      <c r="S91" s="27">
-        <f t="shared" si="24"/>
-        <v>5.0603750000000005</v>
-      </c>
-      <c r="T91" s="27">
+        <v>3.8860749999999986</v>
+      </c>
+      <c r="R91" s="21">
+        <f t="shared" si="25"/>
+        <v>4.1813749999999947</v>
+      </c>
+      <c r="S91" s="21">
         <f t="shared" si="26"/>
-        <v>0.50354687499999995</v>
-      </c>
-      <c r="U91" s="27">
-        <f t="shared" si="25"/>
-        <v>5.1480546913628604</v>
-      </c>
-      <c r="V91" s="27"/>
-      <c r="W91" s="27"/>
-      <c r="Z91" s="27"/>
-      <c r="AA91" s="27"/>
-      <c r="AB91" s="27"/>
-      <c r="AD91" s="27"/>
-      <c r="AE91" s="27"/>
+        <v>4.0337249999999969</v>
+      </c>
+      <c r="T91" s="21">
+        <f t="shared" si="28"/>
+        <v>0.93594474999999988</v>
+      </c>
+      <c r="U91" s="21">
+        <f t="shared" si="27"/>
+        <v>6.9279987490376076</v>
+      </c>
+      <c r="V91" s="21"/>
+      <c r="W91" s="21"/>
+      <c r="Z91" s="21"/>
+      <c r="AA91" s="21"/>
+      <c r="AB91" s="21"/>
+      <c r="AD91" s="21"/>
+      <c r="AE91" s="21"/>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -16531,235 +18057,248 @@
       <c r="P92">
         <v>70</v>
       </c>
-      <c r="Q92" s="27">
-        <f t="shared" si="22"/>
-        <v>5.1649000000000012</v>
-      </c>
-      <c r="R92" s="27">
+      <c r="Q92" s="21">
         <f t="shared" si="23"/>
-        <v>6.4800999999999931</v>
-      </c>
-      <c r="S92" s="27">
-        <f t="shared" si="24"/>
-        <v>5.8224999999999971</v>
-      </c>
-      <c r="T92" s="27">
+        <v>4.2281999999999993</v>
+      </c>
+      <c r="R92" s="21">
+        <f t="shared" si="25"/>
+        <v>4.9104999999999981</v>
+      </c>
+      <c r="S92" s="21">
         <f t="shared" si="26"/>
-        <v>0.55796124999999996</v>
-      </c>
-      <c r="U92" s="27">
-        <f t="shared" si="25"/>
-        <v>5.4190757126051823</v>
-      </c>
-      <c r="V92" s="27"/>
-      <c r="W92" s="27"/>
-      <c r="Z92" s="27"/>
-      <c r="AA92" s="27"/>
-      <c r="AB92" s="27"/>
-      <c r="AD92" s="27"/>
-      <c r="AE92" s="27"/>
+        <v>4.5693499999999982</v>
+      </c>
+      <c r="T92" s="21">
+        <f t="shared" si="28"/>
+        <v>1.0219754999999999</v>
+      </c>
+      <c r="U92" s="21">
+        <f t="shared" si="27"/>
+        <v>7.2394060529852862</v>
+      </c>
+      <c r="V92" s="21"/>
+      <c r="W92" s="21"/>
+      <c r="Z92" s="21"/>
+      <c r="AA92" s="21"/>
+      <c r="AB92" s="21"/>
+      <c r="AD92" s="21"/>
+      <c r="AE92" s="21"/>
     </row>
-    <row r="93" spans="1:31" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="P93">
         <v>75</v>
       </c>
-      <c r="Q93" s="27">
-        <f t="shared" si="22"/>
-        <v>5.8411500000000007</v>
-      </c>
-      <c r="R93" s="27">
+      <c r="Q93" s="21">
         <f t="shared" si="23"/>
-        <v>7.8880999999999979</v>
-      </c>
-      <c r="S93" s="27">
-        <f t="shared" si="24"/>
-        <v>6.8646249999999993</v>
-      </c>
-      <c r="T93" s="27">
+        <v>4.7038250000000001</v>
+      </c>
+      <c r="R93" s="21">
+        <f t="shared" si="25"/>
+        <v>5.997124999999996</v>
+      </c>
+      <c r="S93" s="21">
         <f t="shared" si="26"/>
-        <v>0.62139687499999996</v>
-      </c>
-      <c r="U93" s="27">
-        <f t="shared" si="25"/>
-        <v>5.718837179375762</v>
-      </c>
-      <c r="V93" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="W93" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z93" s="27"/>
-      <c r="AA93" s="27"/>
-      <c r="AB93" s="27"/>
-      <c r="AD93" s="27"/>
-      <c r="AE93" s="27"/>
+        <v>5.3504749999999976</v>
+      </c>
+      <c r="T93" s="21">
+        <f t="shared" si="28"/>
+        <v>1.1211737499999999</v>
+      </c>
+      <c r="U93" s="21">
+        <f t="shared" si="27"/>
+        <v>7.5826176049956349</v>
+      </c>
+      <c r="V93" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="W93" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z93" s="21"/>
+      <c r="AA93" s="21"/>
+      <c r="AB93" s="21"/>
+      <c r="AD93" s="21"/>
+      <c r="AE93" s="21"/>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="P94">
         <v>80</v>
       </c>
-      <c r="Q94" s="27">
-        <f t="shared" si="22"/>
-        <v>6.6999000000000013</v>
-      </c>
-      <c r="R94" s="27">
+      <c r="Q94" s="21">
         <f t="shared" si="23"/>
-        <v>9.7560999999999964</v>
-      </c>
-      <c r="S94" s="27">
-        <f t="shared" si="24"/>
-        <v>8.227999999999998</v>
-      </c>
-      <c r="T94" s="27">
+        <v>5.3332000000000015</v>
+      </c>
+      <c r="R94" s="21">
+        <f t="shared" si="25"/>
+        <v>7.4975000000000014</v>
+      </c>
+      <c r="S94" s="21">
         <f t="shared" si="26"/>
-        <v>0.69685999999999992</v>
-      </c>
-      <c r="U94" s="27">
-        <f t="shared" si="25"/>
-        <v>6.0561408591002204</v>
-      </c>
-      <c r="V94" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="W94" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z94" s="27"/>
-      <c r="AA94" s="27"/>
-      <c r="AB94" s="27"/>
-      <c r="AD94" s="27"/>
-      <c r="AE94" s="27"/>
+        <v>6.4153500000000019</v>
+      </c>
+      <c r="T94" s="21">
+        <f t="shared" si="28"/>
+        <v>1.2388319999999999</v>
+      </c>
+      <c r="U94" s="21">
+        <f t="shared" si="27"/>
+        <v>7.9705612195030628</v>
+      </c>
+      <c r="V94" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="W94" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z94" s="21"/>
+      <c r="AA94" s="21"/>
+      <c r="AB94" s="21"/>
+      <c r="AD94" s="21"/>
+      <c r="AE94" s="21"/>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="P95">
         <v>85</v>
       </c>
-      <c r="Q95" s="27">
-        <f t="shared" si="22"/>
-        <v>7.7636500000000019</v>
-      </c>
-      <c r="R95" s="27">
+      <c r="Q95" s="21">
         <f t="shared" si="23"/>
-        <v>12.144099999999995</v>
-      </c>
-      <c r="S95" s="27">
-        <f t="shared" si="24"/>
-        <v>9.9538749999999983</v>
-      </c>
-      <c r="T95" s="27">
+        <v>6.136574999999997</v>
+      </c>
+      <c r="R95" s="21">
+        <f t="shared" si="25"/>
+        <v>9.4678749999999994</v>
+      </c>
+      <c r="S95" s="21">
         <f t="shared" si="26"/>
-        <v>0.78776937499999988</v>
-      </c>
-      <c r="U95" s="27">
-        <f t="shared" si="25"/>
-        <v>6.439064066510876</v>
-      </c>
-      <c r="V95" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="W95" s="30" t="s">
+        <v>7.8022249999999982</v>
+      </c>
+      <c r="T95" s="21">
+        <f t="shared" si="28"/>
+        <v>1.38100775</v>
+      </c>
+      <c r="U95" s="21">
+        <f t="shared" si="27"/>
+        <v>8.4155160421931505</v>
+      </c>
+      <c r="V95" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="W95" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="Z95" s="27"/>
-      <c r="AA95" s="27"/>
-      <c r="AB95" s="27"/>
-      <c r="AD95" s="27"/>
-      <c r="AE95" s="27"/>
+      <c r="Z95" s="21"/>
+      <c r="AA95" s="21"/>
+      <c r="AB95" s="21"/>
+      <c r="AD95" s="21"/>
+      <c r="AE95" s="21"/>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="P96">
         <v>90</v>
       </c>
-      <c r="Q96" s="27">
-        <f t="shared" si="22"/>
-        <v>9.0549000000000017</v>
-      </c>
-      <c r="R96" s="27">
+      <c r="Q96" s="21">
         <f t="shared" si="23"/>
-        <v>15.112100000000005</v>
-      </c>
-      <c r="S96" s="27">
-        <f t="shared" si="24"/>
-        <v>12.083500000000004</v>
-      </c>
-      <c r="T96" s="27">
+        <v>7.1341999999999999</v>
+      </c>
+      <c r="R96" s="21">
+        <f t="shared" si="25"/>
+        <v>11.964500000000001</v>
+      </c>
+      <c r="S96" s="21">
         <f t="shared" si="26"/>
-        <v>0.8979562499999999</v>
-      </c>
-      <c r="U96" s="27">
+        <v>9.5493500000000004</v>
+      </c>
+      <c r="T96" s="21">
+        <f t="shared" si="28"/>
+        <v>1.5545234999999999</v>
+      </c>
+      <c r="U96" s="21">
         <f>SQRT((2*($T96))/(($M$71+$N$71)*0.001))</f>
-        <v>6.8746531012959409</v>
-      </c>
-      <c r="V96" s="27">
+        <v>8.9285583296607207</v>
+      </c>
+      <c r="V96" s="21">
         <f>($M$71/2*0.001*($U96)^2)-$V$71</f>
-        <v>0.72478168421052647</v>
-      </c>
-      <c r="W96" s="27">
+        <v>1.2441144615384614</v>
+      </c>
+      <c r="W96" s="21">
         <f>SQRT((2*($V96)/($M$71*0.001)))</f>
-        <v>6.7304424269997218</v>
-      </c>
-      <c r="Z96" s="27"/>
-      <c r="AA96" s="27"/>
-      <c r="AB96" s="27"/>
-      <c r="AD96" s="27"/>
-      <c r="AE96" s="27"/>
+        <v>8.818001692342424</v>
+      </c>
+      <c r="Z96" s="21"/>
+      <c r="AA96" s="21"/>
+      <c r="AB96" s="21"/>
+      <c r="AD96" s="21"/>
+      <c r="AE96" s="21"/>
     </row>
-    <row r="97" spans="16:28" x14ac:dyDescent="0.45">
+    <row r="97" spans="16:28" x14ac:dyDescent="0.25">
       <c r="P97">
         <v>95</v>
       </c>
-      <c r="Q97" s="27">
-        <f t="shared" si="22"/>
-        <v>10.596150000000002</v>
-      </c>
-      <c r="R97" s="27">
+      <c r="Q97" s="21">
         <f t="shared" si="23"/>
-        <v>18.720099999999999</v>
-      </c>
-      <c r="S97" s="27">
-        <f t="shared" si="24"/>
-        <v>14.658125</v>
-      </c>
-      <c r="T97" s="27"/>
-      <c r="U97" s="27"/>
-      <c r="V97" s="27"/>
-      <c r="W97" s="27"/>
-      <c r="X97" s="27"/>
-      <c r="Y97" s="27"/>
-      <c r="AA97" s="27"/>
-      <c r="AB97" s="27"/>
+        <v>8.3463250000000002</v>
+      </c>
+      <c r="R97" s="21">
+        <f t="shared" si="25"/>
+        <v>15.043625000000002</v>
+      </c>
+      <c r="S97" s="21">
+        <f t="shared" si="26"/>
+        <v>11.694975000000001</v>
+      </c>
+      <c r="T97" s="21"/>
+      <c r="U97" s="21"/>
+      <c r="V97" s="21"/>
+      <c r="W97" s="21"/>
+      <c r="X97" s="21"/>
+      <c r="Y97" s="21"/>
+      <c r="AA97" s="21"/>
+      <c r="AB97" s="21"/>
     </row>
-    <row r="98" spans="16:28" x14ac:dyDescent="0.45">
-      <c r="Q98" s="27"/>
-      <c r="R98" s="27"/>
+    <row r="98" spans="16:28" x14ac:dyDescent="0.25">
+      <c r="P98">
+        <v>100</v>
+      </c>
+      <c r="Q98" s="21">
+        <f>0.000027*P98^3-0.003*P98^2+0.1042*P98+2.3732</f>
+        <v>9.7932000000000006</v>
+      </c>
+      <c r="R98" s="21">
+        <f t="shared" ref="R98" si="29">0.000075*P98^3-0.0086*P98^2+0.2812*P98+1.6415</f>
+        <v>18.761500000000002</v>
+      </c>
+      <c r="S98" s="21">
+        <f t="shared" si="26"/>
+        <v>14.277350000000002</v>
+      </c>
     </row>
-    <row r="100" spans="16:28" x14ac:dyDescent="0.45">
+    <row r="100" spans="16:28" x14ac:dyDescent="0.25">
       <c r="U100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V100">
         <f>$W$96*COS($S$71)*(($W$96*SIN($S$71)+SQRT(($W$96*SIN($S$71))^2+2*9.81*$P$71*0.001))/9.81)</f>
-        <v>4.6849618148413867</v>
+        <v>7.9625755707347823</v>
       </c>
     </row>
-    <row r="102" spans="16:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="103" spans="16:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="16:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="16:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P103" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q103" s="13"/>
       <c r="R103" s="13"/>
       <c r="S103" s="7"/>
       <c r="T103" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U103" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V103" s="9"/>
     </row>
-    <row r="104" spans="16:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="16:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P104" s="14"/>
       <c r="Q104" s="15"/>
       <c r="R104" s="15"/>
@@ -16768,24 +18307,24 @@
       <c r="U104" s="11"/>
       <c r="V104" s="16"/>
     </row>
-    <row r="105" spans="16:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="16:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P105" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q105" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R105" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q105" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="R105" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="S105" s="7"/>
       <c r="T105" s="17"/>
       <c r="U105" s="10"/>
       <c r="V105" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="106" spans="16:28" x14ac:dyDescent="0.45">
+    <row r="106" spans="16:28" x14ac:dyDescent="0.25">
       <c r="P106" s="6">
         <v>100</v>
       </c>
@@ -16802,14 +18341,14 @@
       </c>
       <c r="U106" s="6">
         <f>SQRT((2*($T$96-T106))/(($M$71+$N$71)*0.001))</f>
-        <v>6.7534172636408378</v>
+        <v>8.8379470292770872</v>
       </c>
       <c r="V106">
         <f>(COS(R106)*U106)*((SIN(R106)*U106+SQRT(SIN(R106)^2+2*9.81*P106*0.001))/9.81)</f>
-        <v>3.106034818621195</v>
+        <v>4.9985950248776536</v>
       </c>
     </row>
-    <row r="107" spans="16:28" x14ac:dyDescent="0.45">
+    <row r="107" spans="16:28" x14ac:dyDescent="0.25">
       <c r="P107" s="6">
         <v>105</v>
       </c>
@@ -16821,19 +18360,19 @@
         <v>0.73143111824030438</v>
       </c>
       <c r="T107">
-        <f t="shared" ref="T107:T170" si="27">P107*$M$71*9.81*0.000001</f>
+        <f t="shared" ref="T107:T170" si="30">P107*$M$71*9.81*0.000001</f>
         <v>3.2961599999999994E-2</v>
       </c>
       <c r="U107" s="6">
-        <f t="shared" ref="U107:U170" si="28">SQRT((2*($T$96-T107))/(($M$71+$N$71)*0.001))</f>
-        <v>6.7472982897250295</v>
+        <f t="shared" ref="U107:U170" si="31">SQRT((2*($T$96-T107))/(($M$71+$N$71)*0.001))</f>
+        <v>8.8333920656005862</v>
       </c>
       <c r="V107">
         <f>(COS(R107)*U107)*(SIN(R107)*U107+SQRT(SIN(R107)^2+2*9.81*P107*0.001))/9.81</f>
-        <v>3.1172367915583599</v>
+        <v>5.0147511822134101</v>
       </c>
     </row>
-    <row r="108" spans="16:28" x14ac:dyDescent="0.45">
+    <row r="108" spans="16:28" x14ac:dyDescent="0.25">
       <c r="P108" s="6">
         <v>110</v>
       </c>
@@ -16841,23 +18380,23 @@
         <v>41.818816270109949</v>
       </c>
       <c r="R108" s="6">
-        <f t="shared" ref="R108:R171" si="29">Q108/180*PI()</f>
+        <f t="shared" ref="R108:R171" si="32">Q108/180*PI()</f>
         <v>0.72987603319999295</v>
       </c>
       <c r="T108">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3.4531200000000005E-2</v>
       </c>
       <c r="U108" s="6">
-        <f t="shared" si="28"/>
-        <v>6.7411737616093621</v>
+        <f t="shared" si="31"/>
+        <v>8.8288347519320514</v>
       </c>
       <c r="V108">
         <f>(COS(R108)*U108)*(SIN(R108)*U108+SQRT(SIN(R108)^2+2*9.81*P108*0.001))/9.81</f>
-        <v>3.1281266476761465</v>
+        <v>5.0305139425949204</v>
       </c>
     </row>
-    <row r="109" spans="16:28" x14ac:dyDescent="0.45">
+    <row r="109" spans="16:28" x14ac:dyDescent="0.25">
       <c r="P109" s="6">
         <v>115</v>
       </c>
@@ -16865,23 +18404,23 @@
         <v>41.731734358584788</v>
       </c>
       <c r="R109" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.72835616712494855</v>
       </c>
       <c r="T109">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3.6100800000000002E-2</v>
       </c>
       <c r="U109" s="6">
-        <f t="shared" si="28"/>
-        <v>6.7350436641416609</v>
+        <f t="shared" si="31"/>
+        <v>8.8242750846305089</v>
       </c>
       <c r="V109">
-        <f t="shared" ref="V109:V170" si="30">(COS(R109)*U109)*(SIN(R109)*U109+SQRT(SIN(R109)^2+2*9.81*P109*0.001))/9.81</f>
-        <v>3.1387204282713377</v>
+        <f t="shared" ref="V109:V170" si="33">(COS(R109)*U109)*(SIN(R109)*U109+SQRT(SIN(R109)^2+2*9.81*P109*0.001))/9.81</f>
+        <v>5.0459040179136139</v>
       </c>
     </row>
-    <row r="110" spans="16:28" x14ac:dyDescent="0.45">
+    <row r="110" spans="16:28" x14ac:dyDescent="0.25">
       <c r="P110" s="6">
         <v>120</v>
       </c>
@@ -16889,23 +18428,23 @@
         <v>41.646532921356958</v>
       </c>
       <c r="R110" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.72686912151789163</v>
       </c>
       <c r="T110">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3.76704E-2</v>
       </c>
       <c r="U110" s="6">
-        <f t="shared" si="28"/>
-        <v>6.7289079821007318</v>
+        <f t="shared" si="31"/>
+        <v>8.819713060045574</v>
       </c>
       <c r="V110">
-        <f t="shared" si="30"/>
-        <v>3.1490327911043159</v>
+        <f t="shared" si="33"/>
+        <v>5.0609403186857076</v>
       </c>
     </row>
-    <row r="111" spans="16:28" x14ac:dyDescent="0.45">
+    <row r="111" spans="16:28" x14ac:dyDescent="0.25">
       <c r="P111" s="6">
         <v>125</v>
       </c>
@@ -16913,23 +18452,23 @@
         <v>41.563087275400115</v>
       </c>
       <c r="R111" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.72541272024949111</v>
       </c>
       <c r="T111">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3.9239999999999997E-2</v>
       </c>
       <c r="U111" s="6">
-        <f t="shared" si="28"/>
-        <v>6.7227667001959208</v>
+        <f t="shared" si="31"/>
+        <v>8.8151486745174168</v>
       </c>
       <c r="V111">
-        <f t="shared" si="30"/>
-        <v>3.1590771725410867</v>
+        <f t="shared" si="33"/>
+        <v>5.0756401656541126</v>
       </c>
     </row>
-    <row r="112" spans="16:28" x14ac:dyDescent="0.45">
+    <row r="112" spans="16:28" x14ac:dyDescent="0.25">
       <c r="P112" s="6">
         <v>130</v>
       </c>
@@ -16937,23 +18476,23 @@
         <v>41.481287511143876</v>
       </c>
       <c r="R112" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.72398504503586458</v>
       </c>
       <c r="T112">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4.0809599999999994E-2</v>
       </c>
       <c r="U112" s="6">
-        <f t="shared" si="28"/>
-        <v>6.7166198030666706</v>
+        <f t="shared" si="31"/>
+        <v>8.8105819243767236</v>
       </c>
       <c r="V112">
-        <f t="shared" si="30"/>
-        <v>3.1688659212482002</v>
+        <f t="shared" si="33"/>
+        <v>5.0900194791829794</v>
       </c>
     </row>
-    <row r="113" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="113" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P113" s="6">
         <v>135</v>
       </c>
@@ -16961,23 +18500,23 @@
         <v>41.401032109325385</v>
       </c>
       <c r="R113" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.72258432403162098</v>
       </c>
       <c r="T113">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4.2379200000000006E-2</v>
       </c>
       <c r="U113" s="6">
-        <f t="shared" si="28"/>
-        <v>6.7104672752820704</v>
+        <f t="shared" si="31"/>
+        <v>8.8060128059446718</v>
       </c>
       <c r="V113">
-        <f t="shared" si="30"/>
-        <v>3.1784104231854702</v>
+        <f t="shared" si="33"/>
+        <v>5.1040929235885351</v>
       </c>
     </row>
-    <row r="114" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="114" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P114" s="6">
         <v>140</v>
       </c>
@@ -16985,23 +18524,23 @@
         <v>41.322229052419722</v>
       </c>
       <c r="R114" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.72120895122798068</v>
       </c>
       <c r="T114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4.3948800000000003E-2</v>
       </c>
       <c r="U114" s="6">
-        <f t="shared" si="28"/>
-        <v>6.7043091013404048</v>
+        <f t="shared" si="31"/>
+        <v>8.8014413155328839</v>
       </c>
       <c r="V114">
         <f>(COS(R114)*U114)*(SIN(R114)*U114+SQRT(SIN(R114)^2+2*9.81*P114*0.001))/9.81</f>
-        <v>3.187721201332895</v>
+        <v>5.1178740461755696</v>
       </c>
     </row>
-    <row r="115" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="115" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P115" s="6">
         <v>145</v>
       </c>
@@ -17009,23 +18548,23 @@
         <v>41.244794215677523</v>
       </c>
       <c r="R115" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.71985745837108495</v>
       </c>
       <c r="T115">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4.5518400000000001E-2</v>
       </c>
       <c r="U115" s="6">
-        <f t="shared" si="28"/>
-        <v>6.6981452656686988</v>
+        <f t="shared" si="31"/>
+        <v>8.7968674494434058</v>
       </c>
       <c r="V115">
-        <f t="shared" si="30"/>
-        <v>3.1968080053863517</v>
+        <f t="shared" si="33"/>
+        <v>5.1313753919785192</v>
       </c>
     </row>
-    <row r="116" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="116" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P116" s="6">
         <v>150</v>
       </c>
@@ -17033,23 +18572,23 @@
         <v>41.168650647625526</v>
       </c>
       <c r="R116" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.71852850240436128</v>
       </c>
       <c r="T116">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4.7087999999999998E-2</v>
       </c>
       <c r="U116" s="6">
-        <f t="shared" si="28"/>
-        <v>6.6919757526222554</v>
+        <f t="shared" si="31"/>
+        <v>8.7922912039686558</v>
       </c>
       <c r="V116">
-        <f t="shared" si="30"/>
-        <v>3.2056798890322455</v>
+        <f t="shared" si="33"/>
+        <v>5.1446086051769893</v>
       </c>
     </row>
-    <row r="117" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="117" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P117" s="6">
         <v>155</v>
       </c>
@@ -17057,23 +18596,23 @@
         <v>41.093727574393519</v>
       </c>
       <c r="R117" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.71722084809074993</v>
       </c>
       <c r="T117">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4.8657600000000002E-2</v>
       </c>
       <c r="U117" s="6">
-        <f t="shared" si="28"/>
-        <v>6.6858005464841996</v>
+        <f t="shared" si="31"/>
+        <v>8.7877125753914083</v>
       </c>
       <c r="V117">
-        <f t="shared" si="30"/>
-        <v>3.2143452780326816</v>
+        <f t="shared" si="33"/>
+        <v>5.1575845167978835</v>
       </c>
     </row>
-    <row r="118" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="118" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P118" s="6">
         <v>160</v>
       </c>
@@ -17081,23 +18620,23 @@
         <v>41.019959917237287</v>
       </c>
       <c r="R118" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.71593335959189131</v>
       </c>
       <c r="T118">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5.02272E-2</v>
       </c>
       <c r="U118" s="6">
-        <f t="shared" si="28"/>
-        <v>6.679619631465</v>
+        <f t="shared" si="31"/>
+        <v>8.7831315599847422</v>
       </c>
       <c r="V118">
-        <f t="shared" si="30"/>
-        <v>3.2228120294920672</v>
+        <f t="shared" si="33"/>
+        <v>5.1703132226329567</v>
       </c>
     </row>
-    <row r="119" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="119" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P119" s="6">
         <v>165</v>
       </c>
@@ -17105,23 +18644,23 @@
         <v>40.947287598383824</v>
       </c>
       <c r="R119" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.71466498835283931</v>
       </c>
       <c r="T119">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5.1796800000000004E-2</v>
       </c>
       <c r="U119" s="6">
-        <f t="shared" si="28"/>
-        <v>6.6734329917020103</v>
+        <f t="shared" si="31"/>
+        <v>8.7785481540120109</v>
       </c>
       <c r="V119">
-        <f t="shared" si="30"/>
-        <v>3.2310874844563928</v>
+        <f t="shared" si="33"/>
+        <v>5.1828041511571206</v>
       </c>
     </row>
-    <row r="120" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="120" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P120" s="6">
         <v>170</v>
       </c>
@@ -17129,23 +18668,23 @@
         <v>40.875655044554172</v>
       </c>
       <c r="R120" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.71341476443689977</v>
       </c>
       <c r="T120">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5.3366400000000001E-2</v>
       </c>
       <c r="U120" s="6">
-        <f t="shared" si="28"/>
-        <v>6.6672406112589817</v>
+        <f t="shared" si="31"/>
+        <v>8.7739623537268141</v>
       </c>
       <c r="V120">
-        <f t="shared" si="30"/>
-        <v>3.2391785142775773</v>
+        <f t="shared" si="33"/>
+        <v>5.1950661238305154</v>
       </c>
     </row>
-    <row r="121" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="121" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P121" s="6">
         <v>175</v>
       </c>
@@ -17153,23 +18692,23 @@
         <v>40.805010736160824</v>
       </c>
       <c r="R121" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.71218178865764159</v>
       </c>
       <c r="T121">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5.4935999999999999E-2</v>
       </c>
       <c r="U121" s="6">
-        <f t="shared" si="28"/>
-        <v>6.6610424741255976</v>
+        <f t="shared" si="31"/>
+        <v>8.769374155372951</v>
       </c>
       <c r="V121">
-        <f t="shared" si="30"/>
-        <v>3.2470915617689462</v>
+        <f t="shared" si="33"/>
+        <v>5.2071074085262508</v>
       </c>
     </row>
-    <row r="122" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="122" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P122" s="6">
         <v>180</v>
       </c>
@@ -17177,23 +18716,23 @@
         <v>40.735306811419633</v>
       </c>
       <c r="R122" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.71096522566934539</v>
       </c>
       <c r="T122">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5.6505600000000003E-2</v>
       </c>
       <c r="U122" s="6">
-        <f t="shared" si="28"/>
-        <v>6.6548385642169769</v>
+        <f t="shared" si="31"/>
+        <v>8.764783555184394</v>
       </c>
       <c r="V122">
-        <f t="shared" si="30"/>
-        <v>3.2548326778310019</v>
+        <f t="shared" si="33"/>
+        <v>5.2189357670531207</v>
       </c>
     </row>
-    <row r="123" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="123" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P123" s="6">
         <v>185</v>
       </c>
@@ -17201,23 +18740,23 @@
         <v>40.666498718326196</v>
       </c>
       <c r="R123" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.70976429789284623</v>
       </c>
       <c r="T123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5.80752E-2</v>
       </c>
       <c r="U123" s="6">
-        <f t="shared" si="28"/>
-        <v>6.6486288653731966</v>
+        <f t="shared" si="31"/>
+        <v>8.7601905493852392</v>
       </c>
       <c r="V123">
-        <f t="shared" si="30"/>
-        <v>3.2624075541413369</v>
+        <f t="shared" si="33"/>
+        <v>5.2305584975541635</v>
       </c>
     </row>
-    <row r="124" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="124" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P124" s="6">
         <v>190</v>
       </c>
@@ -17225,23 +18764,23 @@
         <v>40.598544907246151</v>
       </c>
       <c r="R124" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.70857828015022117</v>
       </c>
       <c r="T124">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5.9644799999999998E-2</v>
       </c>
       <c r="U124" s="6">
-        <f t="shared" si="28"/>
-        <v>6.6424133613587983</v>
+        <f t="shared" si="31"/>
+        <v>8.7555951341896883</v>
       </c>
       <c r="V124">
-        <f t="shared" si="30"/>
-        <v>3.2698215524143439</v>
+        <f t="shared" si="33"/>
+        <v>5.2419824724393775</v>
       </c>
     </row>
-    <row r="125" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="125" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P125" s="6">
         <v>195</v>
       </c>
@@ -17249,23 +18788,23 @@
         <v>40.531406558789719</v>
       </c>
       <c r="R125" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.70740649491530516</v>
       </c>
       <c r="T125">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>6.1214400000000002E-2</v>
       </c>
       <c r="U125" s="6">
-        <f t="shared" si="28"/>
-        <v>6.6361920358622912</v>
+        <f t="shared" si="31"/>
+        <v>8.7509973058019987</v>
       </c>
       <c r="V125">
-        <f t="shared" si="30"/>
-        <v>3.27707973066045</v>
+        <f t="shared" si="33"/>
+        <v>5.2532141724151336</v>
       </c>
     </row>
-    <row r="126" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="126" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P126" s="6">
         <v>200</v>
       </c>
@@ -17273,23 +18812,23 @@
         <v>40.465047341999046</v>
       </c>
       <c r="R126" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.70624830809326333</v>
       </c>
       <c r="T126">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>6.2783999999999993E-2</v>
       </c>
       <c r="U126" s="6">
-        <f t="shared" si="28"/>
-        <v>6.6299648724956537</v>
+        <f t="shared" si="31"/>
+        <v>8.7463970604164505</v>
       </c>
       <c r="V126">
-        <f t="shared" si="30"/>
-        <v>3.2841868668129859</v>
+        <f t="shared" si="33"/>
+        <v>5.2642597170897014</v>
       </c>
     </row>
-    <row r="127" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="127" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P127" s="6">
         <v>205</v>
       </c>
@@ -17297,23 +18836,23 @@
         <v>40.399433199116586</v>
       </c>
       <c r="R127" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.70510312526409036</v>
       </c>
       <c r="T127">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>6.4353599999999997E-2</v>
       </c>
       <c r="U127" s="6">
-        <f t="shared" si="28"/>
-        <v>6.6237318547938306</v>
+        <f t="shared" si="31"/>
+        <v>8.7417943942173117</v>
       </c>
       <c r="V127">
-        <f t="shared" si="30"/>
-        <v>3.291147480037985</v>
+        <f t="shared" si="33"/>
+        <v>5.2751248925675966</v>
       </c>
     </row>
-    <row r="128" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="128" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P128" s="6">
         <v>210</v>
       </c>
@@ -17321,23 +18860,23 @@
         <v>40.334523006166961</v>
       </c>
       <c r="R128" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.7039702286790146</v>
       </c>
       <c r="T128">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>6.5923199999999987E-2</v>
       </c>
       <c r="U128" s="6">
-        <f t="shared" si="28"/>
-        <v>6.6174929662142246</v>
+        <f t="shared" si="31"/>
+        <v>8.7371893033788002</v>
       </c>
       <c r="V128">
-        <f t="shared" si="30"/>
-        <v>3.2979658639467848</v>
+        <f t="shared" si="33"/>
+        <v>5.285815145934408</v>
       </c>
     </row>
-    <row r="129" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="129" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P129" s="6">
         <v>215</v>
       </c>
@@ -17345,23 +18884,23 @@
         <v>40.270290968452017</v>
       </c>
       <c r="R129" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.70284916813562359</v>
       </c>
       <c r="T129">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>6.7492800000000006E-2</v>
       </c>
       <c r="U129" s="6">
-        <f t="shared" si="28"/>
-        <v>6.6112481901361821</v>
+        <f t="shared" si="31"/>
+        <v>8.7325817840650437</v>
       </c>
       <c r="V129">
-        <f t="shared" si="30"/>
-        <v>3.3046460698676827</v>
+        <f t="shared" si="33"/>
+        <v>5.2963356815757345</v>
       </c>
     </row>
-    <row r="130" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="130" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P130" s="6">
         <v>220</v>
       </c>
@@ -17369,23 +18908,23 @@
         <v>40.206759596680286</v>
       </c>
       <c r="R130" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.70174033651989831</v>
       </c>
       <c r="T130">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>6.906240000000001E-2</v>
       </c>
       <c r="U130" s="6">
-        <f t="shared" si="28"/>
-        <v>6.604997509860481</v>
+        <f t="shared" si="31"/>
+        <v>8.7279718324300468</v>
       </c>
       <c r="V130">
-        <f t="shared" si="30"/>
-        <v>3.3111918708671402</v>
+        <f t="shared" si="33"/>
+        <v>5.3066916000227105</v>
       </c>
     </row>
-    <row r="131" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="131" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P131" s="6">
         <v>225</v>
       </c>
@@ -17393,23 +18932,23 @@
         <v>40.14382203682824</v>
       </c>
       <c r="R131" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.70064186887730906</v>
       </c>
       <c r="T131">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>7.0632E-2</v>
       </c>
       <c r="U131" s="6">
-        <f t="shared" si="28"/>
-        <v>6.5987409086088054</v>
+        <f t="shared" si="31"/>
+        <v>8.7233594446176514</v>
       </c>
       <c r="V131">
-        <f t="shared" si="30"/>
-        <v>3.3176070498135566</v>
+        <f t="shared" si="33"/>
+        <v>5.3168873074787228</v>
       </c>
     </row>
-    <row r="132" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="132" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P132" s="6">
         <v>230</v>
       </c>
@@ -17417,23 +18956,23 @@
         <v>40.081486302593618</v>
       </c>
       <c r="R132" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.69955390507326687</v>
       </c>
       <c r="T132">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>7.2201600000000005E-2</v>
       </c>
       <c r="U132" s="6">
-        <f t="shared" si="28"/>
-        <v>6.5924783695232234</v>
+        <f t="shared" si="31"/>
+        <v>8.7187446167615033</v>
       </c>
       <c r="V132">
-        <f t="shared" si="30"/>
-        <v>3.3238950367478211</v>
+        <f t="shared" si="33"/>
+        <v>5.3269273657757772</v>
       </c>
     </row>
-    <row r="133" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="133" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P133" s="6">
         <v>235</v>
       </c>
@@ -17441,23 +18980,23 @@
         <v>40.019729617275566</v>
       </c>
       <c r="R133" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.69847604757934878</v>
       </c>
       <c r="T133">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>7.3771199999999995E-2</v>
       </c>
       <c r="U133" s="6">
-        <f t="shared" si="28"/>
-        <v>6.5862098756656531</v>
+        <f t="shared" si="31"/>
+        <v>8.7141273449850036</v>
       </c>
       <c r="V133">
-        <f t="shared" si="30"/>
-        <v>3.3300591444087249</v>
+        <f t="shared" si="33"/>
+        <v>5.3368160136437499</v>
       </c>
     </row>
-    <row r="134" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="134" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P134" s="6">
         <v>240</v>
       </c>
@@ -17465,23 +19004,23 @@
         <v>39.958528921826833</v>
       </c>
       <c r="R134" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.69740789393925806</v>
       </c>
       <c r="T134">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>7.5340799999999999E-2</v>
       </c>
       <c r="U134" s="6">
-        <f t="shared" si="28"/>
-        <v>6.5799354100173355</v>
+        <f t="shared" si="31"/>
+        <v>8.7095076254012813</v>
       </c>
       <c r="V134">
-        <f t="shared" si="30"/>
-        <v>3.3361025323105395</v>
+        <f t="shared" si="33"/>
+        <v>5.3465572841870319</v>
       </c>
     </row>
-    <row r="135" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="135" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P135" s="6">
         <v>245</v>
       </c>
@@ -17489,23 +19028,23 @@
         <v>39.897862223339139</v>
       </c>
       <c r="R135" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.69634906030433319</v>
       </c>
       <c r="T135">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>7.6910400000000004E-2</v>
       </c>
       <c r="U135" s="6">
-        <f t="shared" si="28"/>
-        <v>6.5736549554782844</v>
+        <f t="shared" si="31"/>
+        <v>8.7048854541131533</v>
       </c>
       <c r="V135">
-        <f t="shared" si="30"/>
-        <v>3.3420282145871387</v>
+        <f t="shared" si="33"/>
+        <v>5.3561550228258854</v>
       </c>
     </row>
-    <row r="136" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="136" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P136" s="6">
         <v>250</v>
       </c>
@@ -17513,23 +19052,23 @@
         <v>39.837710039604033</v>
       </c>
       <c r="R136" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.69529920664589095</v>
       </c>
       <c r="T136">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>7.8479999999999994E-2</v>
       </c>
       <c r="U136" s="6">
-        <f t="shared" si="28"/>
-        <v>6.5673684948667548</v>
+        <f t="shared" si="31"/>
+        <v>8.7002608272130821</v>
       </c>
       <c r="V136">
-        <f t="shared" si="30"/>
-        <v>3.3478390668050673</v>
+        <f t="shared" si="33"/>
+        <v>5.3656129050232391</v>
       </c>
     </row>
-    <row r="137" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="137" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P137" s="6">
         <v>255</v>
       </c>
@@ -17537,23 +19076,23 @@
         <v>39.778052940819954</v>
       </c>
       <c r="R137" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.69425799384992126</v>
       </c>
       <c r="T137">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>8.0049599999999999E-2</v>
       </c>
       <c r="U137" s="6">
-        <f t="shared" si="28"/>
-        <v>6.5610760109186836</v>
+        <f t="shared" si="31"/>
+        <v>8.6956337407831388</v>
       </c>
       <c r="V137">
-        <f t="shared" si="30"/>
-        <v>3.3535378382180054</v>
+        <f t="shared" si="33"/>
+        <v>5.3749344384638169</v>
       </c>
     </row>
-    <row r="138" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="138" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P138" s="6">
         <v>260</v>
       </c>
@@ -17561,23 +19100,23 @@
         <v>39.718872162346138</v>
       </c>
       <c r="R138" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.6932250944116598</v>
       </c>
       <c r="T138">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>8.1619199999999989E-2</v>
       </c>
       <c r="U138" s="6">
-        <f t="shared" si="28"/>
-        <v>6.5547774862871462</v>
+        <f t="shared" si="31"/>
+        <v>8.6910041908949651</v>
       </c>
       <c r="V138">
-        <f t="shared" si="30"/>
-        <v>3.3591271585310905</v>
+        <f t="shared" si="33"/>
+        <v>5.3841229755496354</v>
       </c>
     </row>
-    <row r="139" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="139" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P139" s="6">
         <v>265</v>
       </c>
@@ -17585,23 +19124,23 @@
         <v>39.66015046371863</v>
       </c>
       <c r="R139" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.69220020742824595</v>
       </c>
       <c r="T139">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>8.3188799999999993E-2</v>
       </c>
       <c r="U139" s="6">
-        <f t="shared" si="28"/>
-        <v>6.5484729035417901</v>
+        <f t="shared" si="31"/>
+        <v>8.686372173609735</v>
       </c>
       <c r="V139">
-        <f t="shared" si="30"/>
-        <v>3.3646095436436938</v>
+        <f t="shared" si="33"/>
+        <v>5.3931817263138173</v>
       </c>
     </row>
-    <row r="140" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="140" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P140" s="6">
         <v>270</v>
       </c>
@@ -17609,23 +19148,23 @@
         <v>39.601871074138373</v>
       </c>
       <c r="R140" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.69118304019401799</v>
       </c>
       <c r="T140">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>8.4758400000000012E-2</v>
       </c>
       <c r="U140" s="6">
-        <f t="shared" si="28"/>
-        <v>6.5421622451682788</v>
+        <f t="shared" si="31"/>
+        <v>8.6817376849781187</v>
       </c>
       <c r="V140">
-        <f t="shared" si="30"/>
-        <v>3.3699874039056161</v>
+        <f t="shared" si="33"/>
+        <v>5.4021137631801688</v>
       </c>
     </row>
-    <row r="141" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="141" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P141" s="6">
         <v>275</v>
       </c>
@@ -17633,23 +19172,23 @@
         <v>39.544018501085837</v>
       </c>
       <c r="R141" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.6901733223135007</v>
       </c>
       <c r="T141">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>8.6328000000000002E-2</v>
       </c>
       <c r="U141" s="6">
-        <f t="shared" si="28"/>
-        <v>6.5358454935677193</v>
+        <f t="shared" si="31"/>
+        <v>8.6771007210402331</v>
       </c>
       <c r="V141">
-        <f t="shared" si="30"/>
-        <v>3.3752630488997948</v>
+        <f t="shared" si="33"/>
+        <v>5.4109220323560185</v>
       </c>
     </row>
-    <row r="142" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="142" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P142" s="6">
         <v>280</v>
       </c>
@@ -17657,23 +19196,23 @@
         <v>39.48657720663077</v>
       </c>
       <c r="R142" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68917078259865228</v>
       </c>
       <c r="T142">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>8.7897600000000006E-2</v>
       </c>
       <c r="U142" s="6">
-        <f t="shared" si="28"/>
-        <v>6.5295226310560928</v>
+        <f t="shared" si="31"/>
+        <v>8.6724612778256098</v>
       </c>
       <c r="V142">
-        <f t="shared" si="30"/>
-        <v>3.380438695208662</v>
+        <f t="shared" si="33"/>
+        <v>5.4196093560335479</v>
       </c>
     </row>
-    <row r="143" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="143" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P143" s="6">
         <v>285</v>
       </c>
@@ -17681,23 +19220,23 @@
         <v>39.429532836908479</v>
       </c>
       <c r="R143" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68817517052727328</v>
       </c>
       <c r="T143">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>8.9467200000000011E-2</v>
       </c>
       <c r="U143" s="6">
-        <f t="shared" si="28"/>
-        <v>6.5231936398636741</v>
+        <f t="shared" si="31"/>
+        <v>8.6678193513531596</v>
       </c>
       <c r="V143">
-        <f t="shared" si="30"/>
-        <v>3.3855164696569351</v>
+        <f t="shared" si="33"/>
+        <v>5.4281784443829455</v>
       </c>
     </row>
-    <row r="144" spans="16:22" x14ac:dyDescent="0.45">
+    <row r="144" spans="16:22" x14ac:dyDescent="0.25">
       <c r="P144" s="6">
         <v>290</v>
       </c>
@@ -17705,23 +19244,23 @@
         <v>39.372871477336616</v>
       </c>
       <c r="R144" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68718624324408784</v>
       </c>
       <c r="T144">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9.1036800000000001E-2</v>
       </c>
       <c r="U144" s="6">
-        <f t="shared" si="28"/>
-        <v>6.5168585021344523</v>
+        <f t="shared" si="31"/>
+        <v>8.6631749376311227</v>
       </c>
       <c r="V144">
-        <f t="shared" si="30"/>
-        <v>3.3904984153646529</v>
+        <f t="shared" si="33"/>
+        <v>5.4366318990270024</v>
       </c>
     </row>
-    <row r="145" spans="15:24" x14ac:dyDescent="0.45">
+    <row r="145" spans="15:24" x14ac:dyDescent="0.25">
       <c r="P145" s="6">
         <v>295</v>
       </c>
@@ -17729,23 +19268,23 @@
         <v>39.316580079298681</v>
       </c>
       <c r="R145" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68620377300777524</v>
       </c>
       <c r="T145">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9.2606400000000005E-2</v>
       </c>
       <c r="U145" s="6">
-        <f t="shared" si="28"/>
-        <v>6.5105171999255411</v>
+        <f t="shared" si="31"/>
+        <v>8.6585280326570349</v>
       </c>
       <c r="V145">
-        <f t="shared" si="30"/>
-        <v>3.3953864955651656</v>
+        <f t="shared" si="33"/>
+        <v>5.4449722208997491</v>
       </c>
     </row>
-    <row r="146" spans="15:24" x14ac:dyDescent="0.45">
+    <row r="146" spans="15:24" x14ac:dyDescent="0.25">
       <c r="P146" s="6">
         <v>300</v>
       </c>
@@ -17753,23 +19292,23 @@
         <v>39.260645671752819</v>
       </c>
       <c r="R146" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68522753343094756</v>
       </c>
       <c r="T146">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9.4175999999999996E-2</v>
       </c>
       <c r="U146" s="6">
-        <f t="shared" si="28"/>
-        <v>6.5041697152065856</v>
+        <f t="shared" si="31"/>
+        <v>8.6538786324176851</v>
       </c>
       <c r="V146">
-        <f t="shared" si="30"/>
-        <v>3.4001825990866745</v>
+        <f t="shared" si="33"/>
+        <v>5.453201812487996</v>
       </c>
     </row>
-    <row r="147" spans="15:24" x14ac:dyDescent="0.45">
+    <row r="147" spans="15:24" x14ac:dyDescent="0.25">
       <c r="P147" s="6">
         <v>305</v>
       </c>
@@ -17777,23 +19316,23 @@
         <v>39.205056309168953</v>
       </c>
       <c r="R147" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68425731602477413</v>
       </c>
       <c r="T147">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9.57456E-2</v>
       </c>
       <c r="U147" s="6">
-        <f t="shared" si="28"/>
-        <v>6.4978160298591661</v>
+        <f t="shared" si="31"/>
+        <v>8.649226732889078</v>
       </c>
       <c r="V147">
-        <f t="shared" si="30"/>
-        <v>3.4048885427209901</v>
+        <f t="shared" si="33"/>
+        <v>5.4613229871825428</v>
       </c>
     </row>
-    <row r="148" spans="15:24" x14ac:dyDescent="0.45">
+    <row r="148" spans="15:24" x14ac:dyDescent="0.25">
       <c r="P148" s="6">
         <v>310</v>
       </c>
@@ -17801,23 +19340,23 @@
         <v>39.149800153958267</v>
       </c>
       <c r="R148" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68329291418435478</v>
       </c>
       <c r="T148">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9.7315200000000004E-2</v>
       </c>
       <c r="U148" s="6">
-        <f t="shared" si="28"/>
-        <v>6.4914561256761907</v>
+        <f t="shared" si="31"/>
+        <v>8.6445723300363895</v>
       </c>
       <c r="V148">
-        <f t="shared" si="30"/>
-        <v>3.4095060763693499</v>
+        <f t="shared" si="33"/>
+        <v>5.4693379701693789</v>
       </c>
     </row>
-    <row r="149" spans="15:24" x14ac:dyDescent="0.45">
+    <row r="149" spans="15:24" x14ac:dyDescent="0.25">
       <c r="P149" s="6">
         <v>315</v>
       </c>
@@ -17825,23 +19364,23 @@
         <v>39.09486602820963</v>
       </c>
       <c r="R149" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68233413281833633</v>
       </c>
       <c r="T149">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9.8884799999999995E-2</v>
       </c>
       <c r="U149" s="6">
-        <f t="shared" si="28"/>
-        <v>6.4850899843612932</v>
+        <f t="shared" si="31"/>
+        <v>8.6399154198139261</v>
       </c>
       <c r="V149">
-        <f t="shared" si="30"/>
-        <v>3.4140368855510301</v>
+        <f t="shared" si="33"/>
+        <v>5.47724890542555</v>
       </c>
     </row>
-    <row r="150" spans="15:24" x14ac:dyDescent="0.45">
+    <row r="150" spans="15:24" x14ac:dyDescent="0.25">
       <c r="P150" s="6">
         <v>320</v>
       </c>
@@ -17849,23 +19388,23 @@
         <v>39.377690812502586</v>
       </c>
       <c r="R150" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68727035651049118</v>
       </c>
       <c r="T150">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.1004544</v>
       </c>
       <c r="U150" s="6">
-        <f t="shared" si="28"/>
-        <v>6.4787175875282115</v>
+        <f t="shared" si="31"/>
+        <v>8.6352559981650892</v>
       </c>
       <c r="V150">
-        <f t="shared" si="30"/>
-        <v>3.4177591599979498</v>
+        <f t="shared" si="33"/>
+        <v>5.4863382556168823</v>
       </c>
     </row>
-    <row r="151" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="151" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P151" s="6">
         <v>325</v>
       </c>
@@ -17873,23 +19412,23 @@
         <v>38.985921157995747</v>
       </c>
       <c r="R151" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68043268612994623</v>
       </c>
       <c r="T151">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.10202399999999999</v>
       </c>
       <c r="U151" s="6">
-        <f t="shared" si="28"/>
-        <v>6.4723389167001733</v>
+        <f t="shared" si="31"/>
+        <v>8.6305940610223253</v>
       </c>
       <c r="V151">
-        <f t="shared" si="30"/>
-        <v>3.4228447717096002</v>
+        <f t="shared" si="33"/>
+        <v>5.4927668222604042</v>
       </c>
     </row>
-    <row r="152" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="152" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O152" s="19"/>
       <c r="P152" s="7">
         <v>330</v>
@@ -17898,28 +19437,28 @@
         <v>38.931889718650702</v>
       </c>
       <c r="R152" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.6794896596137836</v>
       </c>
       <c r="S152" s="8"/>
       <c r="T152" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.10359360000000001</v>
       </c>
       <c r="U152" s="6">
-        <f t="shared" si="28"/>
-        <v>6.4659539533092705</v>
+        <f t="shared" si="31"/>
+        <v>8.6259296043070943</v>
       </c>
       <c r="V152" s="8">
-        <f t="shared" si="30"/>
-        <v>3.4271249281648495</v>
+        <f t="shared" si="33"/>
+        <v>5.5003777154847011</v>
       </c>
       <c r="W152" s="9"/>
       <c r="X152" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="153" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="153" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P153" s="6">
         <v>335</v>
       </c>
@@ -17927,23 +19466,23 @@
         <v>38.878140284010129</v>
       </c>
       <c r="R153" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.67855155500822006</v>
       </c>
       <c r="T153">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.10516320000000001</v>
       </c>
       <c r="U153" s="6">
-        <f t="shared" si="28"/>
-        <v>6.4595626786958258</v>
+        <f t="shared" si="31"/>
+        <v>8.621262623929816</v>
       </c>
       <c r="V153">
-        <f t="shared" si="30"/>
-        <v>3.431324522284342</v>
+        <f t="shared" si="33"/>
+        <v>5.5078923980586518</v>
       </c>
     </row>
-    <row r="154" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="154" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P154" s="6">
         <v>340</v>
       </c>
@@ -17951,23 +19490,23 @@
         <v>39.206398314387322</v>
       </c>
       <c r="R154" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68428073843441362</v>
       </c>
       <c r="T154">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.1067328</v>
       </c>
       <c r="U154" s="6">
-        <f t="shared" si="28"/>
-        <v>6.4531650741077593</v>
+        <f t="shared" si="31"/>
+        <v>8.6165931157898434</v>
       </c>
       <c r="V154">
-        <f t="shared" si="30"/>
-        <v>3.4346020309105425</v>
+        <f t="shared" si="33"/>
+        <v>5.5168126495762415</v>
       </c>
     </row>
-    <row r="155" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="155" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P155" s="6">
         <v>345</v>
       </c>
@@ -17975,23 +19514,23 @@
         <v>39.164566392413093</v>
       </c>
       <c r="R155" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68355063366352597</v>
       </c>
       <c r="T155">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.10830240000000001</v>
       </c>
       <c r="U155" s="6">
-        <f t="shared" si="28"/>
-        <v>6.4467611206999456</v>
+        <f t="shared" si="31"/>
+        <v>8.6119210757754061</v>
       </c>
       <c r="V155">
-        <f t="shared" si="30"/>
-        <v>3.4386134146997338</v>
+        <f t="shared" si="33"/>
+        <v>5.5241980783427636</v>
       </c>
     </row>
-    <row r="156" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="156" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P156" s="6">
         <v>350</v>
       </c>
@@ -17999,23 +19538,23 @@
         <v>39.12310993064601</v>
       </c>
       <c r="R156" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68282708190946328</v>
       </c>
       <c r="T156">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.109872</v>
       </c>
       <c r="U156" s="6">
-        <f t="shared" si="28"/>
-        <v>6.4403507995335652</v>
+        <f t="shared" si="31"/>
+        <v>8.6072464997635745</v>
       </c>
       <c r="V156">
-        <f t="shared" si="30"/>
-        <v>3.4425477760582313</v>
+        <f t="shared" si="33"/>
+        <v>5.5314936825624672</v>
       </c>
     </row>
-    <row r="157" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="157" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P157" s="6">
         <v>355</v>
       </c>
@@ -18023,23 +19562,23 @@
         <v>39.082037453732866</v>
       </c>
       <c r="R157" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68211023195537945</v>
       </c>
       <c r="T157">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.1114416</v>
       </c>
       <c r="U157" s="6">
-        <f t="shared" si="28"/>
-        <v>6.4339340915754519</v>
+        <f t="shared" si="31"/>
+        <v>8.6025693836202208</v>
       </c>
       <c r="V157">
-        <f t="shared" si="30"/>
-        <v>3.4464063400260438</v>
+        <f t="shared" si="33"/>
+        <v>5.5387011393437708</v>
       </c>
     </row>
-    <row r="158" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="158" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P158" s="6">
         <v>360</v>
       </c>
@@ -18047,23 +19586,23 @@
         <v>39.041323510120634</v>
       </c>
       <c r="R158" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68139963958787475</v>
       </c>
       <c r="T158">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.11301120000000001</v>
       </c>
       <c r="U158" s="6">
-        <f t="shared" si="28"/>
-        <v>6.4275109776974357</v>
+        <f t="shared" si="31"/>
+        <v>8.5978897231999714</v>
       </c>
       <c r="V158">
-        <f t="shared" si="30"/>
-        <v>3.4501903877851197</v>
+        <f t="shared" si="33"/>
+        <v>5.5458219716189427</v>
       </c>
     </row>
-    <row r="159" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="159" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P159" s="6">
         <v>365</v>
       </c>
@@ -18071,23 +19610,23 @@
         <v>39.000966068769699</v>
       </c>
       <c r="R159" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.68069526935862046</v>
       </c>
       <c r="T159">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.1145808</v>
       </c>
       <c r="U159" s="6">
-        <f t="shared" si="28"/>
-        <v>6.4210814386756736</v>
+        <f t="shared" si="31"/>
+        <v>8.5932075143461653</v>
       </c>
       <c r="V159">
-        <f t="shared" si="30"/>
-        <v>3.4539010953717471</v>
+        <f t="shared" si="33"/>
+        <v>5.5528577206076175</v>
       </c>
     </row>
-    <row r="160" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="160" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P160" s="6">
         <v>370</v>
       </c>
@@ -18095,23 +19634,23 @@
         <v>38.960957288455155</v>
       </c>
       <c r="R160" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.67999698441242451</v>
       </c>
       <c r="T160">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.1161504</v>
       </c>
       <c r="U160" s="6">
-        <f t="shared" si="28"/>
-        <v>6.4146454551899801</v>
+        <f t="shared" si="31"/>
+        <v>8.5885227528908068</v>
       </c>
       <c r="V160">
-        <f t="shared" si="30"/>
-        <v>3.4575396184471279</v>
+        <f t="shared" si="33"/>
+        <v>5.5598098614716225</v>
       </c>
     </row>
-    <row r="161" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="161" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P161" s="6">
         <v>375</v>
       </c>
@@ -18119,23 +19658,23 @@
         <v>38.921289624352994</v>
       </c>
       <c r="R161" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.67930465306726673</v>
       </c>
       <c r="T161">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.11771999999999999</v>
       </c>
       <c r="U161" s="6">
-        <f t="shared" si="28"/>
-        <v>6.4082030078231513</v>
+        <f t="shared" si="31"/>
+        <v>8.5838354346545334</v>
       </c>
       <c r="V161">
-        <f t="shared" si="30"/>
-        <v>3.4611070765414018</v>
+        <f t="shared" si="33"/>
+        <v>5.5666798235467247</v>
       </c>
     </row>
-    <row r="162" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="162" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P162" s="6">
         <v>380</v>
       </c>
@@ -18143,23 +19682,23 @@
         <v>38.881956376665869</v>
       </c>
       <c r="R162" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.67861815838962392</v>
       </c>
       <c r="T162">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.1192896</v>
       </c>
       <c r="U162" s="6">
-        <f t="shared" si="28"/>
-        <v>6.4017540770602777</v>
+        <f t="shared" si="31"/>
+        <v>8.5791455554465603</v>
       </c>
       <c r="V162">
-        <f t="shared" si="30"/>
-        <v>3.4646045528917928</v>
+        <f t="shared" si="33"/>
+        <v>5.5734689939982189</v>
       </c>
     </row>
-    <row r="163" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="163" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P163" s="6">
         <v>385</v>
       </c>
@@ -18167,23 +19706,23 @@
         <v>38.842950155531945</v>
       </c>
       <c r="R163" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.67793737140207588</v>
       </c>
       <c r="T163">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.1208592</v>
       </c>
       <c r="U163" s="6">
-        <f t="shared" si="28"/>
-        <v>6.3952986432880596</v>
+        <f t="shared" si="31"/>
+        <v>8.5744531110646438</v>
       </c>
       <c r="V163">
-        <f t="shared" si="30"/>
-        <v>3.4680331004739546</v>
+        <f t="shared" si="33"/>
+        <v>5.580178715154668</v>
       </c>
     </row>
-    <row r="164" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="164" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P164" s="6">
         <v>390</v>
       </c>
@@ -18191,23 +19730,23 @@
         <v>38.804264751533836</v>
       </c>
       <c r="R164" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.67726218372984481</v>
       </c>
       <c r="T164">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.1224288</v>
       </c>
       <c r="U164" s="6">
-        <f t="shared" si="28"/>
-        <v>6.3888366867941073</v>
+        <f t="shared" si="31"/>
+        <v>8.5697580972950362</v>
       </c>
       <c r="V164">
-        <f t="shared" si="30"/>
-        <v>3.4713937377073107</v>
+        <f t="shared" si="33"/>
+        <v>5.5868102918867457</v>
       </c>
     </row>
-    <row r="165" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="165" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P165" s="6">
         <v>395</v>
       </c>
@@ -18215,23 +19754,23 @@
         <v>38.765893588225012</v>
       </c>
       <c r="R165" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.67659248059228527</v>
       </c>
       <c r="T165">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.12399840000000001</v>
       </c>
       <c r="U165" s="6">
-        <f t="shared" si="28"/>
-        <v>6.3823681877662404</v>
+        <f t="shared" si="31"/>
+        <v>8.5650605099124384</v>
       </c>
       <c r="V165">
-        <f t="shared" si="30"/>
-        <v>3.4746874544161952</v>
+        <f t="shared" si="33"/>
+        <v>5.5933649887005199</v>
       </c>
     </row>
-    <row r="166" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="166" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P166" s="6">
         <v>400</v>
       </c>
@@ -18239,23 +19778,23 @@
         <v>38.72783027378518</v>
       </c>
       <c r="R166" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.67592815043108834</v>
       </c>
       <c r="T166">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.12556799999999999</v>
       </c>
       <c r="U166" s="6">
-        <f t="shared" si="28"/>
-        <v>6.3758931262917766</v>
+        <f t="shared" si="31"/>
+        <v>8.5603603446799621</v>
       </c>
       <c r="V166">
-        <f t="shared" si="30"/>
-        <v>3.477915211387157</v>
+        <f t="shared" si="33"/>
+        <v>5.5998440329977113</v>
       </c>
     </row>
-    <row r="167" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="167" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P167" s="6">
         <v>405</v>
       </c>
@@ -18263,23 +19802,23 @@
         <v>38.690068719352993</v>
       </c>
       <c r="R167" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.67526908697557564</v>
       </c>
       <c r="T167">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.12713759999999999</v>
       </c>
       <c r="U167" s="6">
-        <f t="shared" si="28"/>
-        <v>6.3694114823568233</v>
+        <f t="shared" si="31"/>
+        <v>8.5556575973490734</v>
       </c>
       <c r="V167">
-        <f t="shared" si="30"/>
-        <v>3.4810779411388952</v>
+        <f t="shared" si="33"/>
+        <v>5.6062486169611931</v>
       </c>
     </row>
-    <row r="168" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="168" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P168" s="6">
         <v>410</v>
       </c>
@@ -18287,23 +19826,23 @@
         <v>38.6526031638235</v>
       </c>
       <c r="R168" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.67461518967549727</v>
       </c>
       <c r="T168">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.12870719999999999</v>
       </c>
       <c r="U168" s="6">
-        <f t="shared" si="28"/>
-        <v>6.3629232358455461</v>
+        <f t="shared" si="31"/>
+        <v>8.5509522636595641</v>
       </c>
       <c r="V168">
-        <f t="shared" si="30"/>
-        <v>3.484176548910388</v>
+        <f t="shared" si="33"/>
+        <v>5.6125798990818208</v>
       </c>
     </row>
-    <row r="169" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="169" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P169" s="6">
         <v>415</v>
       </c>
@@ -18311,23 +19850,23 @@
         <v>38.615427975136505</v>
       </c>
       <c r="R169" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.67396636023285905</v>
       </c>
       <c r="T169">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.1302768</v>
       </c>
       <c r="U169" s="6">
-        <f t="shared" si="28"/>
-        <v>6.3564283665394488</v>
+        <f t="shared" si="31"/>
+        <v>8.5462443393394913</v>
       </c>
       <c r="V169">
-        <f t="shared" si="30"/>
-        <v>3.4872119143144005</v>
+        <f t="shared" si="33"/>
+        <v>5.6188390049426333</v>
       </c>
     </row>
-    <row r="170" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="170" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P170" s="6">
         <v>420</v>
       </c>
@@ -18335,23 +19874,23 @@
         <v>79</v>
       </c>
       <c r="R170" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1.3788101090755203</v>
       </c>
       <c r="T170">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.13184639999999997</v>
       </c>
       <c r="U170" s="6">
-        <f t="shared" si="28"/>
-        <v>6.3499268541166343</v>
+        <f t="shared" si="31"/>
+        <v>8.5415338201051458</v>
       </c>
       <c r="V170">
-        <f t="shared" si="30"/>
-        <v>1.144566302013774</v>
+        <f t="shared" si="33"/>
+        <v>1.8970174826728028</v>
       </c>
     </row>
-    <row r="171" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="171" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P171" s="6">
         <v>425</v>
       </c>
@@ -18359,23 +19898,23 @@
         <v>80</v>
       </c>
       <c r="R171" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1.3962634015954636</v>
       </c>
       <c r="T171">
-        <f t="shared" ref="T171:T186" si="31">P171*$M$71*9.81*0.000001</f>
+        <f t="shared" ref="T171:T186" si="34">P171*$M$71*9.81*0.000001</f>
         <v>0.13341600000000001</v>
       </c>
       <c r="U171" s="6">
-        <f t="shared" ref="U171:U186" si="32">SQRT((2*($T$96-T171))/(($M$71+$N$71)*0.001))</f>
-        <v>6.343418678151064</v>
+        <f t="shared" ref="U171:U186" si="35">SQRT((2*($T$96-T171))/(($M$71+$N$71)*0.001))</f>
+        <v>8.5368207016609929</v>
       </c>
       <c r="V171">
-        <f t="shared" ref="V171:V186" si="33">(COS(R171)*U171)*(SIN(R171)*U171+SQRT(SIN(R171)^2+2*9.81*P171*0.001))/9.81</f>
-        <v>1.0440334867960785</v>
+        <f t="shared" ref="V171:V186" si="36">(COS(R171)*U171)*(SIN(R171)*U171+SQRT(SIN(R171)^2+2*9.81*P171*0.001))/9.81</f>
+        <v>1.7314479492376185</v>
       </c>
     </row>
-    <row r="172" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="172" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P172" s="6">
         <v>430</v>
       </c>
@@ -18383,23 +19922,23 @@
         <v>81</v>
       </c>
       <c r="R172" s="5">
-        <f t="shared" ref="R172:R186" si="34">Q172/180*PI()</f>
+        <f t="shared" ref="R172:R186" si="37">Q172/180*PI()</f>
         <v>1.4137166941154069</v>
       </c>
       <c r="T172">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.13498560000000001</v>
       </c>
       <c r="U172" s="6">
-        <f t="shared" si="32"/>
-        <v>6.3369038181118071</v>
+        <f t="shared" si="35"/>
+        <v>8.5321049796996391</v>
       </c>
       <c r="V172">
-        <f t="shared" si="33"/>
-        <v>0.94248285085574812</v>
+        <f t="shared" si="36"/>
+        <v>1.5639679084936984</v>
       </c>
     </row>
-    <row r="173" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="173" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P173" s="6">
         <v>435</v>
       </c>
@@ -18407,23 +19946,23 @@
         <v>82</v>
       </c>
       <c r="R173" s="5">
+        <f t="shared" si="37"/>
+        <v>1.4311699866353502</v>
+      </c>
+      <c r="T173">
         <f t="shared" si="34"/>
-        <v>1.4311699866353502</v>
-      </c>
-      <c r="T173">
-        <f t="shared" si="31"/>
         <v>0.13655520000000002</v>
       </c>
       <c r="U173" s="6">
-        <f t="shared" si="32"/>
-        <v>6.3303822533622887</v>
+        <f t="shared" si="35"/>
+        <v>8.5273866499017785</v>
       </c>
       <c r="V173">
-        <f t="shared" si="33"/>
-        <v>0.84001862452324938</v>
+        <f t="shared" si="36"/>
+        <v>1.3947531321910791</v>
       </c>
     </row>
-    <row r="174" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="174" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P174" s="6">
         <v>440</v>
       </c>
@@ -18431,23 +19970,23 @@
         <v>83</v>
       </c>
       <c r="R174" s="5">
+        <f t="shared" si="37"/>
+        <v>1.4486232791552935</v>
+      </c>
+      <c r="T174">
         <f t="shared" si="34"/>
-        <v>1.4486232791552935</v>
-      </c>
-      <c r="T174">
-        <f t="shared" si="31"/>
         <v>0.13812480000000002</v>
       </c>
       <c r="U174" s="6">
-        <f t="shared" si="32"/>
-        <v>6.3238539631595234</v>
+        <f t="shared" si="35"/>
+        <v>8.5226657079361487</v>
       </c>
       <c r="V174">
-        <f t="shared" si="33"/>
-        <v>0.73674544248809415</v>
+        <f t="shared" si="36"/>
+        <v>1.2239806635530479</v>
       </c>
     </row>
-    <row r="175" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="175" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P175" s="6">
         <v>445</v>
       </c>
@@ -18455,23 +19994,23 @@
         <v>84</v>
       </c>
       <c r="R175" s="5">
+        <f t="shared" si="37"/>
+        <v>1.4660765716752369</v>
+      </c>
+      <c r="T175">
         <f t="shared" si="34"/>
-        <v>1.4660765716752369</v>
-      </c>
-      <c r="T175">
-        <f t="shared" si="31"/>
         <v>0.1396944</v>
       </c>
       <c r="U175" s="6">
-        <f t="shared" si="32"/>
-        <v>6.3173189266533498</v>
+        <f t="shared" si="35"/>
+        <v>8.5179421494594845</v>
       </c>
       <c r="V175">
-        <f t="shared" si="33"/>
-        <v>0.63276822090195883</v>
+        <f t="shared" si="36"/>
+        <v>1.0518286086404316</v>
       </c>
     </row>
-    <row r="176" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="176" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P176" s="6">
         <v>450</v>
       </c>
@@ -18479,23 +20018,23 @@
         <v>85</v>
       </c>
       <c r="R176" s="5">
+        <f t="shared" si="37"/>
+        <v>1.48352986419518</v>
+      </c>
+      <c r="T176">
         <f t="shared" si="34"/>
-        <v>1.48352986419518</v>
-      </c>
-      <c r="T176">
-        <f t="shared" si="31"/>
         <v>0.141264</v>
       </c>
       <c r="U176" s="6">
-        <f t="shared" si="32"/>
-        <v>6.3107771228856473</v>
+        <f t="shared" si="35"/>
+        <v>8.5132159701164714</v>
       </c>
       <c r="V176">
-        <f t="shared" si="33"/>
-        <v>0.52819203467103548</v>
+        <f t="shared" si="36"/>
+        <v>0.87847592698617094</v>
       </c>
     </row>
-    <row r="177" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="177" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P177" s="6">
         <v>455</v>
       </c>
@@ -18503,23 +20042,23 @@
         <v>86</v>
       </c>
       <c r="R177" s="5">
+        <f t="shared" si="37"/>
+        <v>1.5009831567151235</v>
+      </c>
+      <c r="T177">
         <f t="shared" si="34"/>
-        <v>1.5009831567151235</v>
-      </c>
-      <c r="T177">
-        <f t="shared" si="31"/>
         <v>0.14283360000000001</v>
       </c>
       <c r="U177" s="6">
-        <f t="shared" si="32"/>
-        <v>6.3042285307895565</v>
+        <f t="shared" si="35"/>
+        <v>8.5084871655397016</v>
       </c>
       <c r="V177">
-        <f t="shared" si="33"/>
-        <v>0.42312199509907017</v>
+        <f t="shared" si="36"/>
+        <v>0.70410222177012027</v>
       </c>
     </row>
-    <row r="178" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="178" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P178" s="6">
         <v>460</v>
       </c>
@@ -18527,23 +20066,23 @@
         <v>87</v>
       </c>
       <c r="R178" s="5">
+        <f t="shared" si="37"/>
+        <v>1.5184364492350666</v>
+      </c>
+      <c r="T178">
         <f t="shared" si="34"/>
-        <v>1.5184364492350666</v>
-      </c>
-      <c r="T178">
-        <f t="shared" si="31"/>
         <v>0.14440320000000001</v>
       </c>
       <c r="U178" s="6">
-        <f t="shared" si="32"/>
-        <v>6.2976731291886896</v>
+        <f t="shared" si="35"/>
+        <v>8.5037557313496208</v>
       </c>
       <c r="V178">
-        <f t="shared" si="33"/>
-        <v>0.31766312804122349</v>
+        <f t="shared" si="36"/>
+        <v>0.52888752980362763</v>
       </c>
     </row>
-    <row r="179" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="179" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P179" s="6">
         <v>465</v>
       </c>
@@ -18551,23 +20090,23 @@
         <v>88</v>
       </c>
       <c r="R179" s="5">
+        <f t="shared" si="37"/>
+        <v>1.5358897417550099</v>
+      </c>
+      <c r="T179">
         <f t="shared" si="34"/>
-        <v>1.5358897417550099</v>
-      </c>
-      <c r="T179">
-        <f t="shared" si="31"/>
         <v>0.14597280000000001</v>
       </c>
       <c r="U179" s="6">
-        <f t="shared" si="32"/>
-        <v>6.2911108967963258</v>
+        <f t="shared" si="35"/>
+        <v>8.499021663154485</v>
       </c>
       <c r="V179">
-        <f t="shared" si="33"/>
-        <v>0.21192025272724196</v>
+        <f t="shared" si="36"/>
+        <v>0.3530121115925427</v>
       </c>
     </row>
-    <row r="180" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="180" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P180" s="6">
         <v>470</v>
       </c>
@@ -18575,23 +20114,23 @@
         <v>89</v>
       </c>
       <c r="R180" s="5">
+        <f t="shared" si="37"/>
+        <v>1.5533430342749532</v>
+      </c>
+      <c r="T180">
         <f t="shared" si="34"/>
-        <v>1.5533430342749532</v>
-      </c>
-      <c r="T180">
-        <f t="shared" si="31"/>
         <v>0.14754239999999999</v>
       </c>
       <c r="U180" s="6">
-        <f t="shared" si="32"/>
-        <v>6.2845418122146093</v>
+        <f t="shared" si="35"/>
+        <v>8.4942849565503113</v>
       </c>
       <c r="V180">
-        <f t="shared" si="33"/>
-        <v>0.10599786141082389</v>
+        <f t="shared" si="36"/>
+        <v>0.17665624174641054</v>
       </c>
     </row>
-    <row r="181" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="181" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P181" s="6">
         <v>475</v>
       </c>
@@ -18599,23 +20138,23 @@
         <v>90</v>
       </c>
       <c r="R181" s="5">
+        <f t="shared" si="37"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="T181">
         <f t="shared" si="34"/>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="T181">
-        <f t="shared" si="31"/>
         <v>0.14911199999999999</v>
       </c>
       <c r="U181" s="6">
-        <f t="shared" si="32"/>
-        <v>6.2779658539337317</v>
+        <f t="shared" si="35"/>
+        <v>8.4895456071208315</v>
       </c>
       <c r="V181">
-        <f t="shared" si="33"/>
-        <v>3.7204161389099684E-16</v>
+        <f t="shared" si="36"/>
+        <v>6.2034338425108378E-16</v>
       </c>
     </row>
-    <row r="182" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="182" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P182" s="6">
         <v>480</v>
       </c>
@@ -18623,23 +20162,23 @@
         <v>91</v>
       </c>
       <c r="R182" s="5">
+        <f t="shared" si="37"/>
+        <v>1.5882496193148399</v>
+      </c>
+      <c r="T182">
         <f t="shared" si="34"/>
-        <v>1.5882496193148399</v>
-      </c>
-      <c r="T182">
-        <f t="shared" si="31"/>
         <v>0.1506816</v>
       </c>
       <c r="U182" s="6">
-        <f t="shared" si="32"/>
-        <v>6.2713830003311157</v>
+        <f t="shared" si="35"/>
+        <v>8.4848036104374458</v>
       </c>
       <c r="V182">
-        <f t="shared" si="33"/>
-        <v>-0.10596985017866446</v>
+        <f t="shared" si="36"/>
+        <v>-0.17677693688826968</v>
       </c>
     </row>
-    <row r="183" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="183" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P183" s="6">
         <v>485</v>
       </c>
@@ -18647,23 +20186,23 @@
         <v>92</v>
       </c>
       <c r="R183" s="5">
+        <f t="shared" si="37"/>
+        <v>1.605702911834783</v>
+      </c>
+      <c r="T183">
         <f t="shared" si="34"/>
-        <v>1.605702911834783</v>
-      </c>
-      <c r="T183">
-        <f t="shared" si="31"/>
         <v>0.1522512</v>
       </c>
       <c r="U183" s="6">
-        <f t="shared" si="32"/>
-        <v>6.2647932296705777</v>
+        <f t="shared" si="35"/>
+        <v>8.480058962059168</v>
       </c>
       <c r="V183">
-        <f t="shared" si="33"/>
-        <v>-0.21180888933158937</v>
+        <f t="shared" si="36"/>
+        <v>-0.35349550209856712</v>
       </c>
     </row>
-    <row r="184" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="184" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P184" s="6">
         <v>490</v>
       </c>
@@ -18671,23 +20210,23 @@
         <v>93</v>
       </c>
       <c r="R184" s="5">
+        <f t="shared" si="37"/>
+        <v>1.6231562043547265</v>
+      </c>
+      <c r="T184">
         <f t="shared" si="34"/>
-        <v>1.6231562043547265</v>
-      </c>
-      <c r="T184">
-        <f t="shared" si="31"/>
         <v>0.15382080000000001</v>
       </c>
       <c r="U184" s="6">
-        <f t="shared" si="32"/>
-        <v>6.2581965201015004</v>
+        <f t="shared" si="35"/>
+        <v>8.4753116575325826</v>
       </c>
       <c r="V184">
-        <f t="shared" si="33"/>
-        <v>-0.31741511471742173</v>
+        <f t="shared" si="36"/>
+        <v>-0.52997744431245319</v>
       </c>
     </row>
-    <row r="185" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="185" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P185" s="6">
         <v>495</v>
       </c>
@@ -18695,23 +20234,23 @@
         <v>94</v>
       </c>
       <c r="R185" s="5">
+        <f t="shared" si="37"/>
+        <v>1.6406094968746698</v>
+      </c>
+      <c r="T185">
         <f t="shared" si="34"/>
-        <v>1.6406094968746698</v>
-      </c>
-      <c r="T185">
-        <f t="shared" si="31"/>
         <v>0.15539039999999998</v>
       </c>
       <c r="U185" s="6">
-        <f t="shared" si="32"/>
-        <v>6.2515928496579756</v>
+        <f t="shared" si="35"/>
+        <v>8.4705616923917972</v>
       </c>
       <c r="V185">
-        <f t="shared" si="33"/>
-        <v>-0.42268743458864655</v>
+        <f t="shared" si="36"/>
+        <v>-0.70604553161881656</v>
       </c>
     </row>
-    <row r="186" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="186" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P186" s="5">
         <v>500</v>
       </c>
@@ -18719,24 +20258,24 @@
         <v>37.214575566145463</v>
       </c>
       <c r="R186" s="5">
+        <f t="shared" si="37"/>
+        <v>0.64951687336147113</v>
+      </c>
+      <c r="T186">
         <f t="shared" si="34"/>
-        <v>0.64951687336147113</v>
-      </c>
-      <c r="T186">
-        <f t="shared" si="31"/>
         <v>0.15695999999999999</v>
       </c>
       <c r="U186" s="6">
-        <f t="shared" si="32"/>
-        <v>6.2449821962579639</v>
+        <f t="shared" si="35"/>
+        <v>8.465809062158387</v>
       </c>
       <c r="V186">
-        <f t="shared" si="33"/>
-        <v>3.5320077417641857</v>
+        <f t="shared" si="36"/>
+        <v>5.7111454564682003</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="AI35:AI36"/>
     <mergeCell ref="AH37:AH38"/>
     <mergeCell ref="AI37:AI38"/>
@@ -18746,6 +20285,8 @@
     <mergeCell ref="AH6:AH7"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="AH35:AH36"/>
+    <mergeCell ref="AG35:AG36"/>
+    <mergeCell ref="AG37:AG38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18769,7 +20310,7 @@
                     <xdr:col>16</xdr:col>
                     <xdr:colOff>676275</xdr:colOff>
                     <xdr:row>72</xdr:row>
-                    <xdr:rowOff>4763</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -18789,7 +20330,7 @@
                   </from>
                   <to>
                     <xdr:col>18</xdr:col>
-                    <xdr:colOff>1109663</xdr:colOff>
+                    <xdr:colOff>1114425</xdr:colOff>
                     <xdr:row>72</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </to>
@@ -18805,7 +20346,7 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>20</xdr:col>
-                    <xdr:colOff>100013</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>68</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
@@ -18832,32 +20373,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>190</v>
       </c>

--- a/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD40A2C-EB70-4EB6-ABBE-5EC19349C46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EFACFD-AEA9-4F83-8C4D-B98475401077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="69">
   <si>
     <t>ubelastet længde</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>Ubelastet længde</t>
-  </si>
-  <si>
-    <t>3.3 Affyringsrampe</t>
   </si>
   <si>
     <t>mm</t>
@@ -283,6 +280,12 @@
   </si>
   <si>
     <t>Forlængelse +25mm</t>
+  </si>
+  <si>
+    <t>Affyrings-platform</t>
+  </si>
+  <si>
+    <t>3.3 Affyringsplatform</t>
   </si>
 </sst>
 </file>
@@ -13117,8 +13120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AS47" sqref="AS47"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13171,7 +13174,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U2" s="15"/>
       <c r="V2" s="15"/>
@@ -14953,18 +14956,18 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
       <c r="AG35" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH35" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="AH35" s="26" t="s">
-        <v>47</v>
-      </c>
       <c r="AI35" s="26" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.25">
@@ -15021,13 +15024,13 @@
     </row>
     <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG37" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH37" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AH37" s="27" t="s">
-        <v>49</v>
-      </c>
       <c r="AI37" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
@@ -17030,7 +17033,7 @@
     </row>
     <row r="68" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B68" s="28"/>
     </row>
@@ -17071,7 +17074,7 @@
       </c>
       <c r="S69" s="1"/>
       <c r="T69" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U69" s="1"/>
       <c r="V69" s="1" t="s">
@@ -17104,13 +17107,13 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J70" t="s">
+        <v>62</v>
+      </c>
+      <c r="K70" t="s">
         <v>63</v>
-      </c>
-      <c r="K70" t="s">
-        <v>64</v>
       </c>
       <c r="M70" t="s">
         <v>17</v>
@@ -17125,13 +17128,13 @@
         <v>23</v>
       </c>
       <c r="S70" t="s">
+        <v>49</v>
+      </c>
+      <c r="T70" t="s">
         <v>50</v>
       </c>
-      <c r="T70" t="s">
-        <v>51</v>
-      </c>
       <c r="V70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
@@ -17265,10 +17268,10 @@
         <v>19</v>
       </c>
       <c r="T74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
@@ -17297,19 +17300,19 @@
         <v>10</v>
       </c>
       <c r="Q75" t="s">
+        <v>57</v>
+      </c>
+      <c r="R75" t="s">
+        <v>56</v>
+      </c>
+      <c r="S75" t="s">
         <v>58</v>
       </c>
-      <c r="R75" t="s">
-        <v>57</v>
-      </c>
-      <c r="S75" t="s">
-        <v>59</v>
-      </c>
       <c r="T75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
@@ -18110,10 +18113,10 @@
         <v>7.5826176049956349</v>
       </c>
       <c r="V93" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W93" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z93" s="21"/>
       <c r="AA93" s="21"/>
@@ -18146,10 +18149,10 @@
         <v>7.9705612195030628</v>
       </c>
       <c r="V94" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W94" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z94" s="21"/>
       <c r="AA94" s="21"/>
@@ -18182,7 +18185,7 @@
         <v>8.4155160421931505</v>
       </c>
       <c r="V95" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W95" s="24" t="s">
         <v>16</v>
@@ -18285,16 +18288,16 @@
     <row r="102" spans="16:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="103" spans="16:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P103" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q103" s="13"/>
       <c r="R103" s="13"/>
       <c r="S103" s="7"/>
       <c r="T103" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U103" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V103" s="9"/>
     </row>
@@ -18309,19 +18312,19 @@
     </row>
     <row r="105" spans="16:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P105" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q105" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R105" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q105" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R105" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="S105" s="7"/>
       <c r="T105" s="17"/>
       <c r="U105" s="10"/>
       <c r="V105" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="16:28" x14ac:dyDescent="0.25">
@@ -19455,7 +19458,7 @@
       </c>
       <c r="W152" s="9"/>
       <c r="X152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="153" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20380,12 +20383,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -20395,7 +20398,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">

--- a/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasmus\Documents\GitHub\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DTU\Github\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EFACFD-AEA9-4F83-8C4D-B98475401077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242E7431-6BB5-47E3-A20F-A7E80362EDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="180" windowWidth="26137" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
   <si>
     <t>ubelastet længde</t>
   </si>
@@ -287,6 +287,12 @@
   <si>
     <t>3.3 Affyringsplatform</t>
   </si>
+  <si>
+    <t>Numerisk integration dobbeltløkke</t>
+  </si>
+  <si>
+    <t>[Nm][J]</t>
+  </si>
 </sst>
 </file>
 
@@ -498,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -553,6 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,7 +580,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1186,7 +1193,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1757,7 +1764,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3216,7 +3223,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4607,7 +4614,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5443,7 +5450,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6279,7 +6286,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7124,7 +7131,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7894,6 +7901,632 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Numerisk integration dobbeltløkke</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2892048731666072"/>
+          <c:y val="2.303905864220487E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$U$39:$U$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>105.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$T$39:$T$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-37E8-437A-BFE5-D3D717953CAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1429993280"/>
+        <c:axId val="1429967072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1429993280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Forlængelse [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1429967072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1429967072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Kraft [N]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1429993280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -8258,6 +8891,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -11871,6 +12544,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12852,6 +14041,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>306160</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>160567</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>14969</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23645295-A407-43D6-8B03-80DBFF7F9AA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13118,32 +14345,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI186"/>
+  <dimension ref="A1:AN186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:B68"/>
+    <sheetView tabSelected="1" topLeftCell="T48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP84" sqref="AP84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" customWidth="1"/>
+    <col min="17" max="17" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.59765625" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" customWidth="1"/>
-    <col min="34" max="34" width="11.5703125" customWidth="1"/>
-    <col min="35" max="35" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.3984375" customWidth="1"/>
+    <col min="34" max="34" width="11.59765625" customWidth="1"/>
+    <col min="35" max="35" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" ht="21" x14ac:dyDescent="0.65">
       <c r="A1" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="29"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -13179,7 +14406,7 @@
       <c r="U2" s="15"/>
       <c r="V2" s="15"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -13228,11 +14455,11 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -13291,7 +14518,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>15</v>
       </c>
@@ -13362,7 +14589,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>14</v>
       </c>
@@ -13429,7 +14656,7 @@
       <c r="AG7" s="30"/>
       <c r="AH7" s="31"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>13</v>
       </c>
@@ -13500,7 +14727,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>12</v>
       </c>
@@ -13571,7 +14798,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>11</v>
       </c>
@@ -13640,7 +14867,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -13709,7 +14936,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -13778,7 +15005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -13841,7 +15068,7 @@
         <v>329.2</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>7</v>
       </c>
@@ -13904,7 +15131,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -13967,7 +15194,7 @@
         <v>320.39999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>5</v>
       </c>
@@ -14030,7 +15257,7 @@
         <v>314.39999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -14093,7 +15320,7 @@
         <v>309.2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -14149,7 +15376,7 @@
         <v>304.75</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -14205,7 +15432,7 @@
         <v>297.25</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -14268,7 +15495,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>2.5</v>
       </c>
@@ -14331,7 +15558,7 @@
         <v>239.6</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>2</v>
       </c>
@@ -14380,7 +15607,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -14436,7 +15663,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>1.5</v>
       </c>
@@ -14499,7 +15726,7 @@
         <v>116.8</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -14555,7 +15782,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -14618,7 +15845,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -14674,7 +15901,7 @@
         <v>42.75</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -14730,7 +15957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>0.5</v>
       </c>
@@ -14793,7 +16020,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>0.25</v>
       </c>
@@ -14856,7 +16083,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>0</v>
       </c>
@@ -14919,13 +16146,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" ht="21" x14ac:dyDescent="0.65">
       <c r="A34" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="29"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
@@ -14970,7 +16197,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -15022,7 +16249,7 @@
       <c r="AH36" s="26"/>
       <c r="AI36" s="26"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AG37" s="27" t="s">
         <v>47</v>
       </c>
@@ -15033,7 +16260,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
@@ -15093,7 +16320,7 @@
       <c r="AH38" s="27"/>
       <c r="AI38" s="27"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>15</v>
       </c>
@@ -15168,7 +16395,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>14</v>
       </c>
@@ -15243,7 +16470,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>13</v>
       </c>
@@ -15318,7 +16545,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>12</v>
       </c>
@@ -15393,7 +16620,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>11</v>
       </c>
@@ -15468,7 +16695,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>10</v>
       </c>
@@ -15543,7 +16770,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>9</v>
       </c>
@@ -15618,7 +16845,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>8</v>
       </c>
@@ -15693,7 +16920,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>7</v>
       </c>
@@ -15768,7 +16995,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>6</v>
       </c>
@@ -15843,7 +17070,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>5</v>
       </c>
@@ -15918,7 +17145,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>4.5</v>
       </c>
@@ -15993,7 +17220,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A51" s="4">
         <v>4.25</v>
       </c>
@@ -16068,7 +17295,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>4</v>
       </c>
@@ -16143,7 +17370,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>3.75</v>
       </c>
@@ -16218,7 +17445,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>3.5</v>
       </c>
@@ -16293,7 +17520,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>3.25</v>
       </c>
@@ -16368,7 +17595,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>3</v>
       </c>
@@ -16443,7 +17670,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>2.75</v>
       </c>
@@ -16518,7 +17745,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>2.5</v>
       </c>
@@ -16593,7 +17820,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>2.25</v>
       </c>
@@ -16668,7 +17895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>2</v>
       </c>
@@ -16743,7 +17970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>1.5</v>
       </c>
@@ -16815,7 +18042,7 @@
       </c>
       <c r="AI61" s="3"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>1</v>
       </c>
@@ -16887,7 +18114,7 @@
       </c>
       <c r="AI62" s="3"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>0.5</v>
       </c>
@@ -16959,7 +18186,7 @@
       </c>
       <c r="AI63" s="3"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>0</v>
       </c>
@@ -17031,13 +18258,24 @@
       </c>
       <c r="AI64" s="3"/>
     </row>
-    <row r="68" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="AJ67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:40" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A68" s="28" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="28"/>
+      <c r="AK68" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -17085,8 +18323,17 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
+      <c r="AJ69" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>1</v>
       </c>
@@ -17136,8 +18383,17 @@
       <c r="V70" t="s">
         <v>65</v>
       </c>
+      <c r="AJ70" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>8</v>
       </c>
@@ -17192,8 +18448,9 @@
         <f>$P$71*9.81*$M$71*0.000001</f>
         <v>3.1391999999999996E-2</v>
       </c>
+      <c r="AN71" s="21"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>7</v>
       </c>
@@ -17215,8 +18472,17 @@
         <f t="shared" si="22"/>
         <v>99</v>
       </c>
+      <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72" s="21">
+        <f>0.00003*AJ72^3-0.0029*AJ72^2+0.1312*AJ72</f>
+        <v>0</v>
+      </c>
+      <c r="AL72" s="32"/>
+      <c r="AM72" s="21"/>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>6</v>
       </c>
@@ -17241,8 +18507,21 @@
       <c r="P73" t="s">
         <v>21</v>
       </c>
+      <c r="AJ73">
+        <v>5</v>
+      </c>
+      <c r="AK73" s="21">
+        <f t="shared" ref="AK73:AK92" si="23">0.00003*AJ73^3-0.0029*AJ73^2+0.1312*AJ73</f>
+        <v>0.58725000000000005</v>
+      </c>
+      <c r="AL73" s="32">
+        <f>$T$71*(AJ73-AJ72)*((AK72+AK73)/2)*0.001+AL72</f>
+        <v>5.872500000000001E-3</v>
+      </c>
+      <c r="AM73" s="21"/>
+      <c r="AN73" s="21"/>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <v>5.5</v>
       </c>
@@ -17273,8 +18552,21 @@
       <c r="U74" t="s">
         <v>51</v>
       </c>
+      <c r="AJ74">
+        <v>10</v>
+      </c>
+      <c r="AK74" s="21">
+        <f t="shared" si="23"/>
+        <v>1.052</v>
+      </c>
+      <c r="AL74" s="32">
+        <f t="shared" ref="AL74:AL92" si="24">$T$71*(AJ74-AJ73)*((AK73+AK74)/2)*0.001+AL73</f>
+        <v>2.2265E-2</v>
+      </c>
+      <c r="AM74" s="21"/>
+      <c r="AN74" s="21"/>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
         <v>5</v>
       </c>
@@ -17314,8 +18606,21 @@
       <c r="U75" t="s">
         <v>52</v>
       </c>
+      <c r="AJ75">
+        <v>15</v>
+      </c>
+      <c r="AK75" s="21">
+        <f t="shared" si="23"/>
+        <v>1.4167500000000002</v>
+      </c>
+      <c r="AL75" s="32">
+        <f t="shared" si="24"/>
+        <v>4.6952500000000001E-2</v>
+      </c>
+      <c r="AM75" s="21"/>
+      <c r="AN75" s="21"/>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
         <v>4.5</v>
       </c>
@@ -17355,8 +18660,21 @@
       <c r="U76" t="s">
         <v>16</v>
       </c>
+      <c r="AJ76">
+        <v>20</v>
+      </c>
+      <c r="AK76" s="21">
+        <f t="shared" si="23"/>
+        <v>1.7040000000000002</v>
+      </c>
+      <c r="AL76" s="32">
+        <f t="shared" si="24"/>
+        <v>7.8160000000000007E-2</v>
+      </c>
+      <c r="AM76" s="21"/>
+      <c r="AN76" s="21"/>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A77" s="3">
         <v>4</v>
       </c>
@@ -17386,8 +18704,21 @@
       <c r="AB77" s="21"/>
       <c r="AD77" s="21"/>
       <c r="AE77" s="21"/>
+      <c r="AJ77">
+        <v>25</v>
+      </c>
+      <c r="AK77" s="21">
+        <f t="shared" si="23"/>
+        <v>1.9362500000000005</v>
+      </c>
+      <c r="AL77" s="32">
+        <f t="shared" si="24"/>
+        <v>0.11456250000000001</v>
+      </c>
+      <c r="AM77" s="21"/>
+      <c r="AN77" s="21"/>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
         <v>3.5</v>
       </c>
@@ -17413,11 +18744,11 @@
         <v>0</v>
       </c>
       <c r="Q78" s="21">
-        <f t="shared" ref="Q78:Q97" si="23">0.000027*P78^3-0.003*P78^2+0.1042*P78+2.3732</f>
+        <f t="shared" ref="Q78:Q97" si="25">0.000027*P78^3-0.003*P78^2+0.1042*P78+2.3732</f>
         <v>2.3732000000000002</v>
       </c>
       <c r="R78" s="21">
-        <f t="shared" ref="R78" si="24">0.000075*P78^3-0.0086*P78^2+0.2812*P78+1.6415</f>
+        <f t="shared" ref="R78" si="26">0.000075*P78^3-0.0086*P78^2+0.2812*P78+1.6415</f>
         <v>1.6415</v>
       </c>
       <c r="S78" s="21">
@@ -17429,8 +18760,21 @@
       <c r="AB78" s="21"/>
       <c r="AD78" s="21"/>
       <c r="AE78" s="21"/>
+      <c r="AJ78">
+        <v>30</v>
+      </c>
+      <c r="AK78" s="21">
+        <f t="shared" si="23"/>
+        <v>2.1360000000000006</v>
+      </c>
+      <c r="AL78" s="32">
+        <f t="shared" si="24"/>
+        <v>0.15528500000000001</v>
+      </c>
+      <c r="AM78" s="21"/>
+      <c r="AN78" s="21"/>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
         <v>3</v>
       </c>
@@ -17456,15 +18800,15 @@
         <v>5</v>
       </c>
       <c r="Q79" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2.8225750000000001</v>
       </c>
       <c r="R79" s="21">
-        <f t="shared" ref="R79:R97" si="25">0.000075*P79^3-0.0086*P79^2+0.2812*P79+1.6415</f>
+        <f t="shared" ref="R79:R97" si="27">0.000075*P79^3-0.0086*P79^2+0.2812*P79+1.6415</f>
         <v>2.8418749999999999</v>
       </c>
       <c r="S79" s="21">
-        <f t="shared" ref="S79:S98" si="26">(R79+Q79)/2</f>
+        <f t="shared" ref="S79:S98" si="28">(R79+Q79)/2</f>
         <v>2.8322250000000002</v>
       </c>
       <c r="T79" s="21">
@@ -17472,7 +18816,7 @@
         <v>4.8395750000000001E-2</v>
       </c>
       <c r="U79" s="21">
-        <f t="shared" ref="U79:U95" si="27">SQRT((2*($T79))/(($M$71+$N$71)*0.001))</f>
+        <f t="shared" ref="U79:U95" si="29">SQRT((2*($T79))/(($M$71+$N$71)*0.001))</f>
         <v>1.5753835511815315</v>
       </c>
       <c r="V79" s="21"/>
@@ -17482,8 +18826,21 @@
       <c r="AB79" s="21"/>
       <c r="AD79" s="21"/>
       <c r="AE79" s="21"/>
+      <c r="AJ79">
+        <v>35</v>
+      </c>
+      <c r="AK79" s="21">
+        <f t="shared" si="23"/>
+        <v>2.3257500000000011</v>
+      </c>
+      <c r="AL79" s="32">
+        <f t="shared" si="24"/>
+        <v>0.19990250000000004</v>
+      </c>
+      <c r="AM79" s="21"/>
+      <c r="AN79" s="21"/>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <v>2.5</v>
       </c>
@@ -17509,19 +18866,19 @@
         <v>10</v>
       </c>
       <c r="Q80" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.1422000000000003</v>
       </c>
       <c r="R80" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.6684999999999999</v>
       </c>
       <c r="S80" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.4053500000000003</v>
       </c>
       <c r="T80" s="21">
-        <f t="shared" ref="T80:T96" si="28">$T$71*(P80-P79)*((S79+S80)/2)*0.001+T79</f>
+        <f t="shared" ref="T80:T96" si="30">$T$71*(P80-P79)*((S79+S80)/2)*0.001+T79</f>
         <v>0.11077150000000001</v>
       </c>
       <c r="U80" s="21">
@@ -17535,8 +18892,21 @@
       <c r="AB80" s="21"/>
       <c r="AD80" s="21"/>
       <c r="AE80" s="21"/>
+      <c r="AJ80">
+        <v>40</v>
+      </c>
+      <c r="AK80" s="21">
+        <f t="shared" si="23"/>
+        <v>2.5280000000000005</v>
+      </c>
+      <c r="AL80" s="32">
+        <f t="shared" si="24"/>
+        <v>0.24844000000000005</v>
+      </c>
+      <c r="AM80" s="21"/>
+      <c r="AN80" s="21"/>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -17555,23 +18925,23 @@
         <v>15</v>
       </c>
       <c r="Q81" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.352325</v>
       </c>
       <c r="R81" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.1776249999999999</v>
       </c>
       <c r="S81" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.7649749999999997</v>
       </c>
       <c r="T81" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.18247475000000002</v>
       </c>
       <c r="U81" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.0590324429759632</v>
       </c>
       <c r="V81" s="21"/>
@@ -17581,8 +18951,21 @@
       <c r="AB81" s="21"/>
       <c r="AD81" s="21"/>
       <c r="AE81" s="21"/>
+      <c r="AJ81">
+        <v>45</v>
+      </c>
+      <c r="AK81" s="21">
+        <f t="shared" si="23"/>
+        <v>2.7652500000000013</v>
+      </c>
+      <c r="AL81" s="32">
+        <f t="shared" si="24"/>
+        <v>0.30137250000000004</v>
+      </c>
+      <c r="AM81" s="21"/>
+      <c r="AN81" s="21"/>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -17601,23 +18984,23 @@
         <v>20</v>
       </c>
       <c r="Q82" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.4732000000000003</v>
       </c>
       <c r="R82" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.4255000000000004</v>
       </c>
       <c r="S82" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.9493500000000004</v>
       </c>
       <c r="T82" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.25961800000000002</v>
       </c>
       <c r="U82" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.6488002945822604</v>
       </c>
       <c r="V82" s="21"/>
@@ -17627,8 +19010,21 @@
       <c r="AB82" s="21"/>
       <c r="AD82" s="21"/>
       <c r="AE82" s="21"/>
+      <c r="AJ82">
+        <v>50</v>
+      </c>
+      <c r="AK82" s="21">
+        <f t="shared" si="23"/>
+        <v>3.0600000000000014</v>
+      </c>
+      <c r="AL82" s="32">
+        <f t="shared" si="24"/>
+        <v>0.35962500000000008</v>
+      </c>
+      <c r="AM82" s="21"/>
+      <c r="AN82" s="21"/>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -17647,19 +19043,19 @@
         <v>25</v>
       </c>
       <c r="Q83" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.5250750000000002</v>
       </c>
       <c r="R83" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.468375</v>
       </c>
       <c r="S83" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.9967250000000001</v>
       </c>
       <c r="T83" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.33907875000000004</v>
       </c>
       <c r="U83" s="21">
@@ -17673,8 +19069,21 @@
       <c r="AB83" s="21"/>
       <c r="AD83" s="21"/>
       <c r="AE83" s="21"/>
+      <c r="AJ83">
+        <v>55</v>
+      </c>
+      <c r="AK83" s="21">
+        <f t="shared" si="23"/>
+        <v>3.4347500000000011</v>
+      </c>
+      <c r="AL83" s="32">
+        <f t="shared" si="24"/>
+        <v>0.42457250000000013</v>
+      </c>
+      <c r="AM83" s="21"/>
+      <c r="AN83" s="21"/>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -17693,15 +19102,15 @@
         <v>30</v>
       </c>
       <c r="Q84" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.5282</v>
       </c>
       <c r="R84" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.3624999999999998</v>
       </c>
       <c r="S84" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.9453499999999999</v>
       </c>
       <c r="T84" s="21">
@@ -17709,7 +19118,7 @@
         <v>0.41849950000000002</v>
       </c>
       <c r="U84" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.6326572094763092</v>
       </c>
       <c r="V84" s="21"/>
@@ -17719,8 +19128,21 @@
       <c r="AB84" s="21"/>
       <c r="AD84" s="21"/>
       <c r="AE84" s="21"/>
+      <c r="AJ84">
+        <v>60</v>
+      </c>
+      <c r="AK84" s="21">
+        <f t="shared" si="23"/>
+        <v>3.9120000000000017</v>
+      </c>
+      <c r="AL84" s="32">
+        <f t="shared" si="24"/>
+        <v>0.49804000000000015</v>
+      </c>
+      <c r="AM84" s="21"/>
+      <c r="AN84" s="21"/>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -17739,23 +19161,23 @@
         <v>35</v>
       </c>
       <c r="Q85" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.5028250000000001</v>
       </c>
       <c r="R85" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.1641249999999994</v>
       </c>
       <c r="S85" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.833475</v>
       </c>
       <c r="T85" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.49628775000000003</v>
       </c>
       <c r="U85" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.0448641058163153</v>
       </c>
       <c r="V85" s="21"/>
@@ -17765,8 +19187,21 @@
       <c r="AB85" s="21"/>
       <c r="AD85" s="21"/>
       <c r="AE85" s="21"/>
+      <c r="AJ85">
+        <v>65</v>
+      </c>
+      <c r="AK85" s="21">
+        <f t="shared" si="23"/>
+        <v>4.5142500000000005</v>
+      </c>
+      <c r="AL85" s="32">
+        <f t="shared" si="24"/>
+        <v>0.58230250000000017</v>
+      </c>
+      <c r="AM85" s="21"/>
+      <c r="AN85" s="21"/>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -17785,23 +19220,23 @@
         <v>40</v>
       </c>
       <c r="Q86" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.4692000000000003</v>
       </c>
       <c r="R86" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.9295</v>
       </c>
       <c r="S86" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.6993499999999999</v>
       </c>
       <c r="T86" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.57161600000000001</v>
       </c>
       <c r="U86" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.4142073312388979</v>
       </c>
       <c r="V86" s="21"/>
@@ -17811,8 +19246,21 @@
       <c r="AB86" s="21"/>
       <c r="AD86" s="21"/>
       <c r="AE86" s="21"/>
+      <c r="AJ86">
+        <v>70</v>
+      </c>
+      <c r="AK86" s="21">
+        <f t="shared" si="23"/>
+        <v>5.2640000000000029</v>
+      </c>
+      <c r="AL86" s="32">
+        <f t="shared" si="24"/>
+        <v>0.68008500000000016</v>
+      </c>
+      <c r="AM86" s="21"/>
+      <c r="AN86" s="21"/>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -17831,15 +19279,15 @@
         <v>45</v>
       </c>
       <c r="Q87" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.4475750000000001</v>
       </c>
       <c r="R87" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.7148750000000001</v>
       </c>
       <c r="S87" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.5812249999999999</v>
       </c>
       <c r="T87" s="21">
@@ -17847,7 +19295,7 @@
         <v>0.64442175000000002</v>
       </c>
       <c r="U87" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.7486754327209351</v>
       </c>
       <c r="V87" s="21"/>
@@ -17857,8 +19305,21 @@
       <c r="AB87" s="21"/>
       <c r="AD87" s="21"/>
       <c r="AE87" s="21"/>
+      <c r="AJ87">
+        <v>75</v>
+      </c>
+      <c r="AK87" s="21">
+        <f t="shared" si="23"/>
+        <v>6.1837500000000016</v>
+      </c>
+      <c r="AL87" s="32">
+        <f t="shared" si="24"/>
+        <v>0.79456250000000017</v>
+      </c>
+      <c r="AM87" s="21"/>
+      <c r="AN87" s="21"/>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -17877,23 +19338,23 @@
         <v>50</v>
       </c>
       <c r="Q88" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.4582000000000002</v>
       </c>
       <c r="R88" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.5765000000000002</v>
       </c>
       <c r="S88" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.5173500000000004</v>
       </c>
       <c r="T88" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.71540749999999997</v>
       </c>
       <c r="U88" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.0570260113824919</v>
       </c>
       <c r="V88" s="21"/>
@@ -17903,8 +19364,21 @@
       <c r="AB88" s="21"/>
       <c r="AD88" s="21"/>
       <c r="AE88" s="21"/>
+      <c r="AJ88">
+        <v>80</v>
+      </c>
+      <c r="AK88" s="21">
+        <f t="shared" si="23"/>
+        <v>7.2960000000000029</v>
+      </c>
+      <c r="AL88" s="32">
+        <f t="shared" si="24"/>
+        <v>0.92936000000000019</v>
+      </c>
+      <c r="AM88" s="21"/>
+      <c r="AN88" s="21"/>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -17923,23 +19397,23 @@
         <v>55</v>
       </c>
       <c r="Q89" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.5213249999999987</v>
       </c>
       <c r="R89" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.5706249999999988</v>
       </c>
       <c r="S89" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.5459749999999985</v>
       </c>
       <c r="T89" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.78604074999999995</v>
       </c>
       <c r="U89" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.3489985077397879</v>
       </c>
       <c r="V89" s="21"/>
@@ -17949,8 +19423,21 @@
       <c r="AB89" s="21"/>
       <c r="AD89" s="21"/>
       <c r="AE89" s="21"/>
+      <c r="AJ89">
+        <v>85</v>
+      </c>
+      <c r="AK89" s="21">
+        <f t="shared" si="23"/>
+        <v>8.6232500000000059</v>
+      </c>
+      <c r="AL89" s="32">
+        <f t="shared" si="24"/>
+        <v>1.0885525000000003</v>
+      </c>
+      <c r="AM89" s="21"/>
+      <c r="AN89" s="21"/>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -17969,23 +19456,23 @@
         <v>60</v>
       </c>
       <c r="Q90" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.6571999999999991</v>
       </c>
       <c r="R90" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3.7534999999999981</v>
       </c>
       <c r="S90" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.7053499999999984</v>
       </c>
       <c r="T90" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.85855399999999993</v>
       </c>
       <c r="U90" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.6353907387892583</v>
       </c>
       <c r="V90" s="21"/>
@@ -17995,8 +19482,21 @@
       <c r="AB90" s="21"/>
       <c r="AD90" s="21"/>
       <c r="AE90" s="21"/>
+      <c r="AJ90">
+        <v>90</v>
+      </c>
+      <c r="AK90" s="21">
+        <f t="shared" si="23"/>
+        <v>10.188000000000004</v>
+      </c>
+      <c r="AL90" s="32">
+        <f t="shared" si="24"/>
+        <v>1.2766650000000004</v>
+      </c>
+      <c r="AM90" s="21"/>
+      <c r="AN90" s="21"/>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -18015,23 +19515,23 @@
         <v>65</v>
       </c>
       <c r="Q91" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.8860749999999986</v>
       </c>
       <c r="R91" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.1813749999999947</v>
       </c>
       <c r="S91" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.0337249999999969</v>
       </c>
       <c r="T91" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.93594474999999988</v>
       </c>
       <c r="U91" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.9279987490376076</v>
       </c>
       <c r="V91" s="21"/>
@@ -18041,8 +19541,21 @@
       <c r="AB91" s="21"/>
       <c r="AD91" s="21"/>
       <c r="AE91" s="21"/>
+      <c r="AJ91">
+        <v>95</v>
+      </c>
+      <c r="AK91" s="21">
+        <f t="shared" si="23"/>
+        <v>12.012750000000002</v>
+      </c>
+      <c r="AL91" s="32">
+        <f t="shared" si="24"/>
+        <v>1.4986725000000005</v>
+      </c>
+      <c r="AM91" s="21"/>
+      <c r="AN91" s="21"/>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -18061,23 +19574,23 @@
         <v>70</v>
       </c>
       <c r="Q92" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.2281999999999993</v>
       </c>
       <c r="R92" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.9104999999999981</v>
       </c>
       <c r="S92" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.5693499999999982</v>
       </c>
       <c r="T92" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.0219754999999999</v>
       </c>
       <c r="U92" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>7.2394060529852862</v>
       </c>
       <c r="V92" s="21"/>
@@ -18087,29 +19600,41 @@
       <c r="AB92" s="21"/>
       <c r="AD92" s="21"/>
       <c r="AE92" s="21"/>
+      <c r="AJ92">
+        <v>100</v>
+      </c>
+      <c r="AK92" s="21">
+        <f t="shared" si="23"/>
+        <v>14.120000000000005</v>
+      </c>
+      <c r="AL92" s="32">
+        <f t="shared" si="24"/>
+        <v>1.7600000000000007</v>
+      </c>
+      <c r="AM92" s="21"/>
     </row>
-    <row r="93" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:40" ht="15.75" x14ac:dyDescent="0.55000000000000004">
       <c r="P93">
         <v>75</v>
       </c>
       <c r="Q93" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.7038250000000001</v>
       </c>
       <c r="R93" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.997124999999996</v>
       </c>
       <c r="S93" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.3504749999999976</v>
       </c>
       <c r="T93" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.1211737499999999</v>
       </c>
       <c r="U93" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>7.5826176049956349</v>
       </c>
       <c r="V93" s="25" t="s">
@@ -18124,28 +19649,28 @@
       <c r="AD93" s="21"/>
       <c r="AE93" s="21"/>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.45">
       <c r="P94">
         <v>80</v>
       </c>
       <c r="Q94" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.3332000000000015</v>
       </c>
       <c r="R94" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>7.4975000000000014</v>
       </c>
       <c r="S94" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.4153500000000019</v>
       </c>
       <c r="T94" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.2388319999999999</v>
       </c>
       <c r="U94" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>7.9705612195030628</v>
       </c>
       <c r="V94" s="23" t="s">
@@ -18160,28 +19685,28 @@
       <c r="AD94" s="21"/>
       <c r="AE94" s="21"/>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.45">
       <c r="P95">
         <v>85</v>
       </c>
       <c r="Q95" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.136574999999997</v>
       </c>
       <c r="R95" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.4678749999999994</v>
       </c>
       <c r="S95" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>7.8022249999999982</v>
       </c>
       <c r="T95" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.38100775</v>
       </c>
       <c r="U95" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>8.4155160421931505</v>
       </c>
       <c r="V95" s="23" t="s">
@@ -18196,24 +19721,24 @@
       <c r="AD95" s="21"/>
       <c r="AE95" s="21"/>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.45">
       <c r="P96">
         <v>90</v>
       </c>
       <c r="Q96" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.1341999999999999</v>
       </c>
       <c r="R96" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>11.964500000000001</v>
       </c>
       <c r="S96" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>9.5493500000000004</v>
       </c>
       <c r="T96" s="21">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.5545234999999999</v>
       </c>
       <c r="U96" s="21">
@@ -18234,20 +19759,20 @@
       <c r="AD96" s="21"/>
       <c r="AE96" s="21"/>
     </row>
-    <row r="97" spans="16:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="16:28" x14ac:dyDescent="0.45">
       <c r="P97">
         <v>95</v>
       </c>
       <c r="Q97" s="21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8.3463250000000002</v>
       </c>
       <c r="R97" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>15.043625000000002</v>
       </c>
       <c r="S97" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>11.694975000000001</v>
       </c>
       <c r="T97" s="21"/>
@@ -18259,7 +19784,7 @@
       <c r="AA97" s="21"/>
       <c r="AB97" s="21"/>
     </row>
-    <row r="98" spans="16:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="16:28" x14ac:dyDescent="0.45">
       <c r="P98">
         <v>100</v>
       </c>
@@ -18268,15 +19793,15 @@
         <v>9.7932000000000006</v>
       </c>
       <c r="R98" s="21">
-        <f t="shared" ref="R98" si="29">0.000075*P98^3-0.0086*P98^2+0.2812*P98+1.6415</f>
+        <f t="shared" ref="R98" si="31">0.000075*P98^3-0.0086*P98^2+0.2812*P98+1.6415</f>
         <v>18.761500000000002</v>
       </c>
       <c r="S98" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>14.277350000000002</v>
       </c>
     </row>
-    <row r="100" spans="16:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="16:28" x14ac:dyDescent="0.45">
       <c r="U100" t="s">
         <v>24</v>
       </c>
@@ -18285,8 +19810,8 @@
         <v>7.9625755707347823</v>
       </c>
     </row>
-    <row r="102" spans="16:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="16:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="16:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="103" spans="16:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P103" s="12" t="s">
         <v>39</v>
       </c>
@@ -18301,7 +19826,7 @@
       </c>
       <c r="V103" s="9"/>
     </row>
-    <row r="104" spans="16:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="16:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P104" s="14"/>
       <c r="Q104" s="15"/>
       <c r="R104" s="15"/>
@@ -18310,7 +19835,7 @@
       <c r="U104" s="11"/>
       <c r="V104" s="16"/>
     </row>
-    <row r="105" spans="16:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="16:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P105" s="7" t="s">
         <v>33</v>
       </c>
@@ -18327,7 +19852,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="16:28" x14ac:dyDescent="0.25">
+    <row r="106" spans="16:28" x14ac:dyDescent="0.45">
       <c r="P106" s="6">
         <v>100</v>
       </c>
@@ -18351,7 +19876,7 @@
         <v>4.9985950248776536</v>
       </c>
     </row>
-    <row r="107" spans="16:28" x14ac:dyDescent="0.25">
+    <row r="107" spans="16:28" x14ac:dyDescent="0.45">
       <c r="P107" s="6">
         <v>105</v>
       </c>
@@ -18363,11 +19888,11 @@
         <v>0.73143111824030438</v>
       </c>
       <c r="T107">
-        <f t="shared" ref="T107:T170" si="30">P107*$M$71*9.81*0.000001</f>
+        <f t="shared" ref="T107:T170" si="32">P107*$M$71*9.81*0.000001</f>
         <v>3.2961599999999994E-2</v>
       </c>
       <c r="U107" s="6">
-        <f t="shared" ref="U107:U170" si="31">SQRT((2*($T$96-T107))/(($M$71+$N$71)*0.001))</f>
+        <f t="shared" ref="U107:U170" si="33">SQRT((2*($T$96-T107))/(($M$71+$N$71)*0.001))</f>
         <v>8.8333920656005862</v>
       </c>
       <c r="V107">
@@ -18375,7 +19900,7 @@
         <v>5.0147511822134101</v>
       </c>
     </row>
-    <row r="108" spans="16:28" x14ac:dyDescent="0.25">
+    <row r="108" spans="16:28" x14ac:dyDescent="0.45">
       <c r="P108" s="6">
         <v>110</v>
       </c>
@@ -18383,15 +19908,15 @@
         <v>41.818816270109949</v>
       </c>
       <c r="R108" s="6">
-        <f t="shared" ref="R108:R171" si="32">Q108/180*PI()</f>
+        <f t="shared" ref="R108:R171" si="34">Q108/180*PI()</f>
         <v>0.72987603319999295</v>
       </c>
       <c r="T108">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3.4531200000000005E-2</v>
       </c>
       <c r="U108" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.8288347519320514</v>
       </c>
       <c r="V108">
@@ -18399,7 +19924,7 @@
         <v>5.0305139425949204</v>
       </c>
     </row>
-    <row r="109" spans="16:28" x14ac:dyDescent="0.25">
+    <row r="109" spans="16:28" x14ac:dyDescent="0.45">
       <c r="P109" s="6">
         <v>115</v>
       </c>
@@ -18407,23 +19932,23 @@
         <v>41.731734358584788</v>
       </c>
       <c r="R109" s="6">
+        <f t="shared" si="34"/>
+        <v>0.72835616712494855</v>
+      </c>
+      <c r="T109">
         <f t="shared" si="32"/>
-        <v>0.72835616712494855</v>
-      </c>
-      <c r="T109">
-        <f t="shared" si="30"/>
         <v>3.6100800000000002E-2</v>
       </c>
       <c r="U109" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.8242750846305089</v>
       </c>
       <c r="V109">
-        <f t="shared" ref="V109:V170" si="33">(COS(R109)*U109)*(SIN(R109)*U109+SQRT(SIN(R109)^2+2*9.81*P109*0.001))/9.81</f>
+        <f t="shared" ref="V109:V170" si="35">(COS(R109)*U109)*(SIN(R109)*U109+SQRT(SIN(R109)^2+2*9.81*P109*0.001))/9.81</f>
         <v>5.0459040179136139</v>
       </c>
     </row>
-    <row r="110" spans="16:28" x14ac:dyDescent="0.25">
+    <row r="110" spans="16:28" x14ac:dyDescent="0.45">
       <c r="P110" s="6">
         <v>120</v>
       </c>
@@ -18431,23 +19956,23 @@
         <v>41.646532921356958</v>
       </c>
       <c r="R110" s="6">
+        <f t="shared" si="34"/>
+        <v>0.72686912151789163</v>
+      </c>
+      <c r="T110">
         <f t="shared" si="32"/>
-        <v>0.72686912151789163</v>
-      </c>
-      <c r="T110">
-        <f t="shared" si="30"/>
         <v>3.76704E-2</v>
       </c>
       <c r="U110" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.819713060045574</v>
       </c>
       <c r="V110">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.0609403186857076</v>
       </c>
     </row>
-    <row r="111" spans="16:28" x14ac:dyDescent="0.25">
+    <row r="111" spans="16:28" x14ac:dyDescent="0.45">
       <c r="P111" s="6">
         <v>125</v>
       </c>
@@ -18455,23 +19980,23 @@
         <v>41.563087275400115</v>
       </c>
       <c r="R111" s="6">
+        <f t="shared" si="34"/>
+        <v>0.72541272024949111</v>
+      </c>
+      <c r="T111">
         <f t="shared" si="32"/>
-        <v>0.72541272024949111</v>
-      </c>
-      <c r="T111">
-        <f t="shared" si="30"/>
         <v>3.9239999999999997E-2</v>
       </c>
       <c r="U111" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.8151486745174168</v>
       </c>
       <c r="V111">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.0756401656541126</v>
       </c>
     </row>
-    <row r="112" spans="16:28" x14ac:dyDescent="0.25">
+    <row r="112" spans="16:28" x14ac:dyDescent="0.45">
       <c r="P112" s="6">
         <v>130</v>
       </c>
@@ -18479,23 +20004,23 @@
         <v>41.481287511143876</v>
       </c>
       <c r="R112" s="6">
+        <f t="shared" si="34"/>
+        <v>0.72398504503586458</v>
+      </c>
+      <c r="T112">
         <f t="shared" si="32"/>
-        <v>0.72398504503586458</v>
-      </c>
-      <c r="T112">
-        <f t="shared" si="30"/>
         <v>4.0809599999999994E-2</v>
       </c>
       <c r="U112" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.8105819243767236</v>
       </c>
       <c r="V112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.0900194791829794</v>
       </c>
     </row>
-    <row r="113" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P113" s="6">
         <v>135</v>
       </c>
@@ -18503,23 +20028,23 @@
         <v>41.401032109325385</v>
       </c>
       <c r="R113" s="6">
+        <f t="shared" si="34"/>
+        <v>0.72258432403162098</v>
+      </c>
+      <c r="T113">
         <f t="shared" si="32"/>
-        <v>0.72258432403162098</v>
-      </c>
-      <c r="T113">
-        <f t="shared" si="30"/>
         <v>4.2379200000000006E-2</v>
       </c>
       <c r="U113" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.8060128059446718</v>
       </c>
       <c r="V113">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.1040929235885351</v>
       </c>
     </row>
-    <row r="114" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P114" s="6">
         <v>140</v>
       </c>
@@ -18527,15 +20052,15 @@
         <v>41.322229052419722</v>
       </c>
       <c r="R114" s="6">
+        <f t="shared" si="34"/>
+        <v>0.72120895122798068</v>
+      </c>
+      <c r="T114">
         <f t="shared" si="32"/>
-        <v>0.72120895122798068</v>
-      </c>
-      <c r="T114">
-        <f t="shared" si="30"/>
         <v>4.3948800000000003E-2</v>
       </c>
       <c r="U114" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.8014413155328839</v>
       </c>
       <c r="V114">
@@ -18543,7 +20068,7 @@
         <v>5.1178740461755696</v>
       </c>
     </row>
-    <row r="115" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P115" s="6">
         <v>145</v>
       </c>
@@ -18551,23 +20076,23 @@
         <v>41.244794215677523</v>
       </c>
       <c r="R115" s="6">
+        <f t="shared" si="34"/>
+        <v>0.71985745837108495</v>
+      </c>
+      <c r="T115">
         <f t="shared" si="32"/>
-        <v>0.71985745837108495</v>
-      </c>
-      <c r="T115">
-        <f t="shared" si="30"/>
         <v>4.5518400000000001E-2</v>
       </c>
       <c r="U115" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.7968674494434058</v>
       </c>
       <c r="V115">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.1313753919785192</v>
       </c>
     </row>
-    <row r="116" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P116" s="6">
         <v>150</v>
       </c>
@@ -18575,23 +20100,23 @@
         <v>41.168650647625526</v>
       </c>
       <c r="R116" s="6">
+        <f t="shared" si="34"/>
+        <v>0.71852850240436128</v>
+      </c>
+      <c r="T116">
         <f t="shared" si="32"/>
-        <v>0.71852850240436128</v>
-      </c>
-      <c r="T116">
-        <f t="shared" si="30"/>
         <v>4.7087999999999998E-2</v>
       </c>
       <c r="U116" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.7922912039686558</v>
       </c>
       <c r="V116">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.1446086051769893</v>
       </c>
     </row>
-    <row r="117" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P117" s="6">
         <v>155</v>
       </c>
@@ -18599,23 +20124,23 @@
         <v>41.093727574393519</v>
       </c>
       <c r="R117" s="6">
+        <f t="shared" si="34"/>
+        <v>0.71722084809074993</v>
+      </c>
+      <c r="T117">
         <f t="shared" si="32"/>
-        <v>0.71722084809074993</v>
-      </c>
-      <c r="T117">
-        <f t="shared" si="30"/>
         <v>4.8657600000000002E-2</v>
       </c>
       <c r="U117" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.7877125753914083</v>
       </c>
       <c r="V117">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.1575845167978835</v>
       </c>
     </row>
-    <row r="118" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P118" s="6">
         <v>160</v>
       </c>
@@ -18623,23 +20148,23 @@
         <v>41.019959917237287</v>
       </c>
       <c r="R118" s="6">
+        <f t="shared" si="34"/>
+        <v>0.71593335959189131</v>
+      </c>
+      <c r="T118">
         <f t="shared" si="32"/>
-        <v>0.71593335959189131</v>
-      </c>
-      <c r="T118">
-        <f t="shared" si="30"/>
         <v>5.02272E-2</v>
       </c>
       <c r="U118" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.7831315599847422</v>
       </c>
       <c r="V118">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.1703132226329567</v>
       </c>
     </row>
-    <row r="119" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P119" s="6">
         <v>165</v>
       </c>
@@ -18647,23 +20172,23 @@
         <v>40.947287598383824</v>
       </c>
       <c r="R119" s="6">
+        <f t="shared" si="34"/>
+        <v>0.71466498835283931</v>
+      </c>
+      <c r="T119">
         <f t="shared" si="32"/>
-        <v>0.71466498835283931</v>
-      </c>
-      <c r="T119">
-        <f t="shared" si="30"/>
         <v>5.1796800000000004E-2</v>
       </c>
       <c r="U119" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.7785481540120109</v>
       </c>
       <c r="V119">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.1828041511571206</v>
       </c>
     </row>
-    <row r="120" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P120" s="6">
         <v>170</v>
       </c>
@@ -18671,23 +20196,23 @@
         <v>40.875655044554172</v>
       </c>
       <c r="R120" s="6">
+        <f t="shared" si="34"/>
+        <v>0.71341476443689977</v>
+      </c>
+      <c r="T120">
         <f t="shared" si="32"/>
-        <v>0.71341476443689977</v>
-      </c>
-      <c r="T120">
-        <f t="shared" si="30"/>
         <v>5.3366400000000001E-2</v>
       </c>
       <c r="U120" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.7739623537268141</v>
       </c>
       <c r="V120">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.1950661238305154</v>
       </c>
     </row>
-    <row r="121" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P121" s="6">
         <v>175</v>
       </c>
@@ -18695,23 +20220,23 @@
         <v>40.805010736160824</v>
       </c>
       <c r="R121" s="6">
+        <f t="shared" si="34"/>
+        <v>0.71218178865764159</v>
+      </c>
+      <c r="T121">
         <f t="shared" si="32"/>
-        <v>0.71218178865764159</v>
-      </c>
-      <c r="T121">
-        <f t="shared" si="30"/>
         <v>5.4935999999999999E-2</v>
       </c>
       <c r="U121" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.769374155372951</v>
       </c>
       <c r="V121">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.2071074085262508</v>
       </c>
     </row>
-    <row r="122" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P122" s="6">
         <v>180</v>
       </c>
@@ -18719,23 +20244,23 @@
         <v>40.735306811419633</v>
       </c>
       <c r="R122" s="6">
+        <f t="shared" si="34"/>
+        <v>0.71096522566934539</v>
+      </c>
+      <c r="T122">
         <f t="shared" si="32"/>
-        <v>0.71096522566934539</v>
-      </c>
-      <c r="T122">
-        <f t="shared" si="30"/>
         <v>5.6505600000000003E-2</v>
       </c>
       <c r="U122" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.764783555184394</v>
       </c>
       <c r="V122">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.2189357670531207</v>
       </c>
     </row>
-    <row r="123" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P123" s="6">
         <v>185</v>
       </c>
@@ -18743,23 +20268,23 @@
         <v>40.666498718326196</v>
       </c>
       <c r="R123" s="6">
+        <f t="shared" si="34"/>
+        <v>0.70976429789284623</v>
+      </c>
+      <c r="T123">
         <f t="shared" si="32"/>
-        <v>0.70976429789284623</v>
-      </c>
-      <c r="T123">
-        <f t="shared" si="30"/>
         <v>5.80752E-2</v>
       </c>
       <c r="U123" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.7601905493852392</v>
       </c>
       <c r="V123">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.2305584975541635</v>
       </c>
     </row>
-    <row r="124" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P124" s="6">
         <v>190</v>
       </c>
@@ -18767,23 +20292,23 @@
         <v>40.598544907246151</v>
       </c>
       <c r="R124" s="6">
+        <f t="shared" si="34"/>
+        <v>0.70857828015022117</v>
+      </c>
+      <c r="T124">
         <f t="shared" si="32"/>
-        <v>0.70857828015022117</v>
-      </c>
-      <c r="T124">
-        <f t="shared" si="30"/>
         <v>5.9644799999999998E-2</v>
       </c>
       <c r="U124" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.7555951341896883</v>
       </c>
       <c r="V124">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.2419824724393775</v>
       </c>
     </row>
-    <row r="125" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P125" s="6">
         <v>195</v>
       </c>
@@ -18791,23 +20316,23 @@
         <v>40.531406558789719</v>
       </c>
       <c r="R125" s="6">
+        <f t="shared" si="34"/>
+        <v>0.70740649491530516</v>
+      </c>
+      <c r="T125">
         <f t="shared" si="32"/>
-        <v>0.70740649491530516</v>
-      </c>
-      <c r="T125">
-        <f t="shared" si="30"/>
         <v>6.1214400000000002E-2</v>
       </c>
       <c r="U125" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.7509973058019987</v>
       </c>
       <c r="V125">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.2532141724151336</v>
       </c>
     </row>
-    <row r="126" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P126" s="6">
         <v>200</v>
       </c>
@@ -18815,23 +20340,23 @@
         <v>40.465047341999046</v>
       </c>
       <c r="R126" s="6">
+        <f t="shared" si="34"/>
+        <v>0.70624830809326333</v>
+      </c>
+      <c r="T126">
         <f t="shared" si="32"/>
-        <v>0.70624830809326333</v>
-      </c>
-      <c r="T126">
-        <f t="shared" si="30"/>
         <v>6.2783999999999993E-2</v>
       </c>
       <c r="U126" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.7463970604164505</v>
       </c>
       <c r="V126">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.2642597170897014</v>
       </c>
     </row>
-    <row r="127" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P127" s="6">
         <v>205</v>
       </c>
@@ -18839,23 +20364,23 @@
         <v>40.399433199116586</v>
       </c>
       <c r="R127" s="6">
+        <f t="shared" si="34"/>
+        <v>0.70510312526409036</v>
+      </c>
+      <c r="T127">
         <f t="shared" si="32"/>
-        <v>0.70510312526409036</v>
-      </c>
-      <c r="T127">
-        <f t="shared" si="30"/>
         <v>6.4353599999999997E-2</v>
       </c>
       <c r="U127" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.7417943942173117</v>
       </c>
       <c r="V127">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.2751248925675966</v>
       </c>
     </row>
-    <row r="128" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P128" s="6">
         <v>210</v>
       </c>
@@ -18863,23 +20388,23 @@
         <v>40.334523006166961</v>
       </c>
       <c r="R128" s="6">
+        <f t="shared" si="34"/>
+        <v>0.7039702286790146</v>
+      </c>
+      <c r="T128">
         <f t="shared" si="32"/>
-        <v>0.7039702286790146</v>
-      </c>
-      <c r="T128">
-        <f t="shared" si="30"/>
         <v>6.5923199999999987E-2</v>
       </c>
       <c r="U128" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.7371893033788002</v>
       </c>
       <c r="V128">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.285815145934408</v>
       </c>
     </row>
-    <row r="129" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P129" s="6">
         <v>215</v>
       </c>
@@ -18887,23 +20412,23 @@
         <v>40.270290968452017</v>
       </c>
       <c r="R129" s="6">
+        <f t="shared" si="34"/>
+        <v>0.70284916813562359</v>
+      </c>
+      <c r="T129">
         <f t="shared" si="32"/>
-        <v>0.70284916813562359</v>
-      </c>
-      <c r="T129">
-        <f t="shared" si="30"/>
         <v>6.7492800000000006E-2</v>
       </c>
       <c r="U129" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.7325817840650437</v>
       </c>
       <c r="V129">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.2963356815757345</v>
       </c>
     </row>
-    <row r="130" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P130" s="6">
         <v>220</v>
       </c>
@@ -18911,23 +20436,23 @@
         <v>40.206759596680286</v>
       </c>
       <c r="R130" s="6">
+        <f t="shared" si="34"/>
+        <v>0.70174033651989831</v>
+      </c>
+      <c r="T130">
         <f t="shared" si="32"/>
-        <v>0.70174033651989831</v>
-      </c>
-      <c r="T130">
-        <f t="shared" si="30"/>
         <v>6.906240000000001E-2</v>
       </c>
       <c r="U130" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.7279718324300468</v>
       </c>
       <c r="V130">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.3066916000227105</v>
       </c>
     </row>
-    <row r="131" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P131" s="6">
         <v>225</v>
       </c>
@@ -18935,23 +20460,23 @@
         <v>40.14382203682824</v>
       </c>
       <c r="R131" s="6">
+        <f t="shared" si="34"/>
+        <v>0.70064186887730906</v>
+      </c>
+      <c r="T131">
         <f t="shared" si="32"/>
-        <v>0.70064186887730906</v>
-      </c>
-      <c r="T131">
-        <f t="shared" si="30"/>
         <v>7.0632E-2</v>
       </c>
       <c r="U131" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.7233594446176514</v>
       </c>
       <c r="V131">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.3168873074787228</v>
       </c>
     </row>
-    <row r="132" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P132" s="6">
         <v>230</v>
       </c>
@@ -18959,23 +20484,23 @@
         <v>40.081486302593618</v>
       </c>
       <c r="R132" s="6">
+        <f t="shared" si="34"/>
+        <v>0.69955390507326687</v>
+      </c>
+      <c r="T132">
         <f t="shared" si="32"/>
-        <v>0.69955390507326687</v>
-      </c>
-      <c r="T132">
-        <f t="shared" si="30"/>
         <v>7.2201600000000005E-2</v>
       </c>
       <c r="U132" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.7187446167615033</v>
       </c>
       <c r="V132">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.3269273657757772</v>
       </c>
     </row>
-    <row r="133" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P133" s="6">
         <v>235</v>
       </c>
@@ -18983,23 +20508,23 @@
         <v>40.019729617275566</v>
       </c>
       <c r="R133" s="6">
+        <f t="shared" si="34"/>
+        <v>0.69847604757934878</v>
+      </c>
+      <c r="T133">
         <f t="shared" si="32"/>
-        <v>0.69847604757934878</v>
-      </c>
-      <c r="T133">
-        <f t="shared" si="30"/>
         <v>7.3771199999999995E-2</v>
       </c>
       <c r="U133" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.7141273449850036</v>
       </c>
       <c r="V133">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.3368160136437499</v>
       </c>
     </row>
-    <row r="134" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P134" s="6">
         <v>240</v>
       </c>
@@ -19007,23 +20532,23 @@
         <v>39.958528921826833</v>
       </c>
       <c r="R134" s="6">
+        <f t="shared" si="34"/>
+        <v>0.69740789393925806</v>
+      </c>
+      <c r="T134">
         <f t="shared" si="32"/>
-        <v>0.69740789393925806</v>
-      </c>
-      <c r="T134">
-        <f t="shared" si="30"/>
         <v>7.5340799999999999E-2</v>
       </c>
       <c r="U134" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.7095076254012813</v>
       </c>
       <c r="V134">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.3465572841870319</v>
       </c>
     </row>
-    <row r="135" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P135" s="6">
         <v>245</v>
       </c>
@@ -19031,23 +20556,23 @@
         <v>39.897862223339139</v>
       </c>
       <c r="R135" s="6">
+        <f t="shared" si="34"/>
+        <v>0.69634906030433319</v>
+      </c>
+      <c r="T135">
         <f t="shared" si="32"/>
-        <v>0.69634906030433319</v>
-      </c>
-      <c r="T135">
-        <f t="shared" si="30"/>
         <v>7.6910400000000004E-2</v>
       </c>
       <c r="U135" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.7048854541131533</v>
       </c>
       <c r="V135">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.3561550228258854</v>
       </c>
     </row>
-    <row r="136" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P136" s="6">
         <v>250</v>
       </c>
@@ -19055,23 +20580,23 @@
         <v>39.837710039604033</v>
       </c>
       <c r="R136" s="6">
+        <f t="shared" si="34"/>
+        <v>0.69529920664589095</v>
+      </c>
+      <c r="T136">
         <f t="shared" si="32"/>
-        <v>0.69529920664589095</v>
-      </c>
-      <c r="T136">
-        <f t="shared" si="30"/>
         <v>7.8479999999999994E-2</v>
       </c>
       <c r="U136" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.7002608272130821</v>
       </c>
       <c r="V136">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.3656129050232391</v>
       </c>
     </row>
-    <row r="137" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P137" s="6">
         <v>255</v>
       </c>
@@ -19079,23 +20604,23 @@
         <v>39.778052940819954</v>
       </c>
       <c r="R137" s="6">
+        <f t="shared" si="34"/>
+        <v>0.69425799384992126</v>
+      </c>
+      <c r="T137">
         <f t="shared" si="32"/>
-        <v>0.69425799384992126</v>
-      </c>
-      <c r="T137">
-        <f t="shared" si="30"/>
         <v>8.0049599999999999E-2</v>
       </c>
       <c r="U137" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.6956337407831388</v>
       </c>
       <c r="V137">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.3749344384638169</v>
       </c>
     </row>
-    <row r="138" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P138" s="6">
         <v>260</v>
       </c>
@@ -19103,23 +20628,23 @@
         <v>39.718872162346138</v>
       </c>
       <c r="R138" s="6">
+        <f t="shared" si="34"/>
+        <v>0.6932250944116598</v>
+      </c>
+      <c r="T138">
         <f t="shared" si="32"/>
-        <v>0.6932250944116598</v>
-      </c>
-      <c r="T138">
-        <f t="shared" si="30"/>
         <v>8.1619199999999989E-2</v>
       </c>
       <c r="U138" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.6910041908949651</v>
       </c>
       <c r="V138">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.3841229755496354</v>
       </c>
     </row>
-    <row r="139" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P139" s="6">
         <v>265</v>
       </c>
@@ -19127,23 +20652,23 @@
         <v>39.66015046371863</v>
       </c>
       <c r="R139" s="6">
+        <f t="shared" si="34"/>
+        <v>0.69220020742824595</v>
+      </c>
+      <c r="T139">
         <f t="shared" si="32"/>
-        <v>0.69220020742824595</v>
-      </c>
-      <c r="T139">
-        <f t="shared" si="30"/>
         <v>8.3188799999999993E-2</v>
       </c>
       <c r="U139" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.686372173609735</v>
       </c>
       <c r="V139">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.3931817263138173</v>
       </c>
     </row>
-    <row r="140" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P140" s="6">
         <v>270</v>
       </c>
@@ -19151,23 +20676,23 @@
         <v>39.601871074138373</v>
       </c>
       <c r="R140" s="6">
+        <f t="shared" si="34"/>
+        <v>0.69118304019401799</v>
+      </c>
+      <c r="T140">
         <f t="shared" si="32"/>
-        <v>0.69118304019401799</v>
-      </c>
-      <c r="T140">
-        <f t="shared" si="30"/>
         <v>8.4758400000000012E-2</v>
       </c>
       <c r="U140" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.6817376849781187</v>
       </c>
       <c r="V140">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.4021137631801688</v>
       </c>
     </row>
-    <row r="141" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P141" s="6">
         <v>275</v>
       </c>
@@ -19175,23 +20700,23 @@
         <v>39.544018501085837</v>
       </c>
       <c r="R141" s="6">
+        <f t="shared" si="34"/>
+        <v>0.6901733223135007</v>
+      </c>
+      <c r="T141">
         <f t="shared" si="32"/>
-        <v>0.6901733223135007</v>
-      </c>
-      <c r="T141">
-        <f t="shared" si="30"/>
         <v>8.6328000000000002E-2</v>
       </c>
       <c r="U141" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.6771007210402331</v>
       </c>
       <c r="V141">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.4109220323560185</v>
       </c>
     </row>
-    <row r="142" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P142" s="6">
         <v>280</v>
       </c>
@@ -19199,23 +20724,23 @@
         <v>39.48657720663077</v>
       </c>
       <c r="R142" s="6">
+        <f t="shared" si="34"/>
+        <v>0.68917078259865228</v>
+      </c>
+      <c r="T142">
         <f t="shared" si="32"/>
-        <v>0.68917078259865228</v>
-      </c>
-      <c r="T142">
-        <f t="shared" si="30"/>
         <v>8.7897600000000006E-2</v>
       </c>
       <c r="U142" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.6724612778256098</v>
       </c>
       <c r="V142">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.4196093560335479</v>
       </c>
     </row>
-    <row r="143" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P143" s="6">
         <v>285</v>
       </c>
@@ -19223,23 +20748,23 @@
         <v>39.429532836908479</v>
       </c>
       <c r="R143" s="6">
+        <f t="shared" si="34"/>
+        <v>0.68817517052727328</v>
+      </c>
+      <c r="T143">
         <f t="shared" si="32"/>
-        <v>0.68817517052727328</v>
-      </c>
-      <c r="T143">
-        <f t="shared" si="30"/>
         <v>8.9467200000000011E-2</v>
       </c>
       <c r="U143" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.6678193513531596</v>
       </c>
       <c r="V143">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.4281784443829455</v>
       </c>
     </row>
-    <row r="144" spans="16:22" x14ac:dyDescent="0.25">
+    <row r="144" spans="16:22" x14ac:dyDescent="0.45">
       <c r="P144" s="6">
         <v>290</v>
       </c>
@@ -19247,23 +20772,23 @@
         <v>39.372871477336616</v>
       </c>
       <c r="R144" s="6">
+        <f t="shared" si="34"/>
+        <v>0.68718624324408784</v>
+      </c>
+      <c r="T144">
         <f t="shared" si="32"/>
-        <v>0.68718624324408784</v>
-      </c>
-      <c r="T144">
-        <f t="shared" si="30"/>
         <v>9.1036800000000001E-2</v>
       </c>
       <c r="U144" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.6631749376311227</v>
       </c>
       <c r="V144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.4366318990270024</v>
       </c>
     </row>
-    <row r="145" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="15:24" x14ac:dyDescent="0.45">
       <c r="P145" s="6">
         <v>295</v>
       </c>
@@ -19271,23 +20796,23 @@
         <v>39.316580079298681</v>
       </c>
       <c r="R145" s="6">
+        <f t="shared" si="34"/>
+        <v>0.68620377300777524</v>
+      </c>
+      <c r="T145">
         <f t="shared" si="32"/>
-        <v>0.68620377300777524</v>
-      </c>
-      <c r="T145">
-        <f t="shared" si="30"/>
         <v>9.2606400000000005E-2</v>
       </c>
       <c r="U145" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.6585280326570349</v>
       </c>
       <c r="V145">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.4449722208997491</v>
       </c>
     </row>
-    <row r="146" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="15:24" x14ac:dyDescent="0.45">
       <c r="P146" s="6">
         <v>300</v>
       </c>
@@ -19295,23 +20820,23 @@
         <v>39.260645671752819</v>
       </c>
       <c r="R146" s="6">
+        <f t="shared" si="34"/>
+        <v>0.68522753343094756</v>
+      </c>
+      <c r="T146">
         <f t="shared" si="32"/>
-        <v>0.68522753343094756</v>
-      </c>
-      <c r="T146">
-        <f t="shared" si="30"/>
         <v>9.4175999999999996E-2</v>
       </c>
       <c r="U146" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.6538786324176851</v>
       </c>
       <c r="V146">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.453201812487996</v>
       </c>
     </row>
-    <row r="147" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="15:24" x14ac:dyDescent="0.45">
       <c r="P147" s="6">
         <v>305</v>
       </c>
@@ -19319,23 +20844,23 @@
         <v>39.205056309168953</v>
       </c>
       <c r="R147" s="6">
+        <f t="shared" si="34"/>
+        <v>0.68425731602477413</v>
+      </c>
+      <c r="T147">
         <f t="shared" si="32"/>
-        <v>0.68425731602477413</v>
-      </c>
-      <c r="T147">
-        <f t="shared" si="30"/>
         <v>9.57456E-2</v>
       </c>
       <c r="U147" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.649226732889078</v>
       </c>
       <c r="V147">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.4613229871825428</v>
       </c>
     </row>
-    <row r="148" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="15:24" x14ac:dyDescent="0.45">
       <c r="P148" s="6">
         <v>310</v>
       </c>
@@ -19343,23 +20868,23 @@
         <v>39.149800153958267</v>
       </c>
       <c r="R148" s="6">
+        <f t="shared" si="34"/>
+        <v>0.68329291418435478</v>
+      </c>
+      <c r="T148">
         <f t="shared" si="32"/>
-        <v>0.68329291418435478</v>
-      </c>
-      <c r="T148">
-        <f t="shared" si="30"/>
         <v>9.7315200000000004E-2</v>
       </c>
       <c r="U148" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.6445723300363895</v>
       </c>
       <c r="V148">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.4693379701693789</v>
       </c>
     </row>
-    <row r="149" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="15:24" x14ac:dyDescent="0.45">
       <c r="P149" s="6">
         <v>315</v>
       </c>
@@ -19367,23 +20892,23 @@
         <v>39.09486602820963</v>
       </c>
       <c r="R149" s="6">
+        <f t="shared" si="34"/>
+        <v>0.68233413281833633</v>
+      </c>
+      <c r="T149">
         <f t="shared" si="32"/>
-        <v>0.68233413281833633</v>
-      </c>
-      <c r="T149">
-        <f t="shared" si="30"/>
         <v>9.8884799999999995E-2</v>
       </c>
       <c r="U149" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.6399154198139261</v>
       </c>
       <c r="V149">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.47724890542555</v>
       </c>
     </row>
-    <row r="150" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="15:24" x14ac:dyDescent="0.45">
       <c r="P150" s="6">
         <v>320</v>
       </c>
@@ -19391,23 +20916,23 @@
         <v>39.377690812502586</v>
       </c>
       <c r="R150" s="6">
+        <f t="shared" si="34"/>
+        <v>0.68727035651049118</v>
+      </c>
+      <c r="T150">
         <f t="shared" si="32"/>
-        <v>0.68727035651049118</v>
-      </c>
-      <c r="T150">
-        <f t="shared" si="30"/>
         <v>0.1004544</v>
       </c>
       <c r="U150" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.6352559981650892</v>
       </c>
       <c r="V150">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.4863382556168823</v>
       </c>
     </row>
-    <row r="151" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P151" s="6">
         <v>325</v>
       </c>
@@ -19415,23 +20940,23 @@
         <v>38.985921157995747</v>
       </c>
       <c r="R151" s="6">
+        <f t="shared" si="34"/>
+        <v>0.68043268612994623</v>
+      </c>
+      <c r="T151">
         <f t="shared" si="32"/>
-        <v>0.68043268612994623</v>
-      </c>
-      <c r="T151">
-        <f t="shared" si="30"/>
         <v>0.10202399999999999</v>
       </c>
       <c r="U151" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.6305940610223253</v>
       </c>
       <c r="V151">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.4927668222604042</v>
       </c>
     </row>
-    <row r="152" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="O152" s="19"/>
       <c r="P152" s="7">
         <v>330</v>
@@ -19440,20 +20965,20 @@
         <v>38.931889718650702</v>
       </c>
       <c r="R152" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.6794896596137836</v>
       </c>
       <c r="S152" s="8"/>
       <c r="T152" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.10359360000000001</v>
       </c>
       <c r="U152" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.6259296043070943</v>
       </c>
       <c r="V152" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.5003777154847011</v>
       </c>
       <c r="W152" s="9"/>
@@ -19461,7 +20986,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="153" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P153" s="6">
         <v>335</v>
       </c>
@@ -19469,23 +20994,23 @@
         <v>38.878140284010129</v>
       </c>
       <c r="R153" s="5">
+        <f t="shared" si="34"/>
+        <v>0.67855155500822006</v>
+      </c>
+      <c r="T153">
         <f t="shared" si="32"/>
-        <v>0.67855155500822006</v>
-      </c>
-      <c r="T153">
-        <f t="shared" si="30"/>
         <v>0.10516320000000001</v>
       </c>
       <c r="U153" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.621262623929816</v>
       </c>
       <c r="V153">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.5078923980586518</v>
       </c>
     </row>
-    <row r="154" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P154" s="6">
         <v>340</v>
       </c>
@@ -19493,23 +21018,23 @@
         <v>39.206398314387322</v>
       </c>
       <c r="R154" s="5">
+        <f t="shared" si="34"/>
+        <v>0.68428073843441362</v>
+      </c>
+      <c r="T154">
         <f t="shared" si="32"/>
-        <v>0.68428073843441362</v>
-      </c>
-      <c r="T154">
-        <f t="shared" si="30"/>
         <v>0.1067328</v>
       </c>
       <c r="U154" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.6165931157898434</v>
       </c>
       <c r="V154">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.5168126495762415</v>
       </c>
     </row>
-    <row r="155" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P155" s="6">
         <v>345</v>
       </c>
@@ -19517,23 +21042,23 @@
         <v>39.164566392413093</v>
       </c>
       <c r="R155" s="5">
+        <f t="shared" si="34"/>
+        <v>0.68355063366352597</v>
+      </c>
+      <c r="T155">
         <f t="shared" si="32"/>
-        <v>0.68355063366352597</v>
-      </c>
-      <c r="T155">
-        <f t="shared" si="30"/>
         <v>0.10830240000000001</v>
       </c>
       <c r="U155" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.6119210757754061</v>
       </c>
       <c r="V155">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.5241980783427636</v>
       </c>
     </row>
-    <row r="156" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P156" s="6">
         <v>350</v>
       </c>
@@ -19541,23 +21066,23 @@
         <v>39.12310993064601</v>
       </c>
       <c r="R156" s="5">
+        <f t="shared" si="34"/>
+        <v>0.68282708190946328</v>
+      </c>
+      <c r="T156">
         <f t="shared" si="32"/>
-        <v>0.68282708190946328</v>
-      </c>
-      <c r="T156">
-        <f t="shared" si="30"/>
         <v>0.109872</v>
       </c>
       <c r="U156" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.6072464997635745</v>
       </c>
       <c r="V156">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.5314936825624672</v>
       </c>
     </row>
-    <row r="157" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P157" s="6">
         <v>355</v>
       </c>
@@ -19565,23 +21090,23 @@
         <v>39.082037453732866</v>
       </c>
       <c r="R157" s="5">
+        <f t="shared" si="34"/>
+        <v>0.68211023195537945</v>
+      </c>
+      <c r="T157">
         <f t="shared" si="32"/>
-        <v>0.68211023195537945</v>
-      </c>
-      <c r="T157">
-        <f t="shared" si="30"/>
         <v>0.1114416</v>
       </c>
       <c r="U157" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.6025693836202208</v>
       </c>
       <c r="V157">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.5387011393437708</v>
       </c>
     </row>
-    <row r="158" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P158" s="6">
         <v>360</v>
       </c>
@@ -19589,23 +21114,23 @@
         <v>39.041323510120634</v>
       </c>
       <c r="R158" s="5">
+        <f t="shared" si="34"/>
+        <v>0.68139963958787475</v>
+      </c>
+      <c r="T158">
         <f t="shared" si="32"/>
-        <v>0.68139963958787475</v>
-      </c>
-      <c r="T158">
-        <f t="shared" si="30"/>
         <v>0.11301120000000001</v>
       </c>
       <c r="U158" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.5978897231999714</v>
       </c>
       <c r="V158">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.5458219716189427</v>
       </c>
     </row>
-    <row r="159" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P159" s="6">
         <v>365</v>
       </c>
@@ -19613,23 +21138,23 @@
         <v>39.000966068769699</v>
       </c>
       <c r="R159" s="5">
+        <f t="shared" si="34"/>
+        <v>0.68069526935862046</v>
+      </c>
+      <c r="T159">
         <f t="shared" si="32"/>
-        <v>0.68069526935862046</v>
-      </c>
-      <c r="T159">
-        <f t="shared" si="30"/>
         <v>0.1145808</v>
       </c>
       <c r="U159" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.5932075143461653</v>
       </c>
       <c r="V159">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.5528577206076175</v>
       </c>
     </row>
-    <row r="160" spans="15:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="15:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P160" s="6">
         <v>370</v>
       </c>
@@ -19637,23 +21162,23 @@
         <v>38.960957288455155</v>
       </c>
       <c r="R160" s="5">
+        <f t="shared" si="34"/>
+        <v>0.67999698441242451</v>
+      </c>
+      <c r="T160">
         <f t="shared" si="32"/>
-        <v>0.67999698441242451</v>
-      </c>
-      <c r="T160">
-        <f t="shared" si="30"/>
         <v>0.1161504</v>
       </c>
       <c r="U160" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.5885227528908068</v>
       </c>
       <c r="V160">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.5598098614716225</v>
       </c>
     </row>
-    <row r="161" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P161" s="6">
         <v>375</v>
       </c>
@@ -19661,23 +21186,23 @@
         <v>38.921289624352994</v>
       </c>
       <c r="R161" s="5">
+        <f t="shared" si="34"/>
+        <v>0.67930465306726673</v>
+      </c>
+      <c r="T161">
         <f t="shared" si="32"/>
-        <v>0.67930465306726673</v>
-      </c>
-      <c r="T161">
-        <f t="shared" si="30"/>
         <v>0.11771999999999999</v>
       </c>
       <c r="U161" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.5838354346545334</v>
       </c>
       <c r="V161">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.5666798235467247</v>
       </c>
     </row>
-    <row r="162" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P162" s="6">
         <v>380</v>
       </c>
@@ -19685,23 +21210,23 @@
         <v>38.881956376665869</v>
       </c>
       <c r="R162" s="5">
+        <f t="shared" si="34"/>
+        <v>0.67861815838962392</v>
+      </c>
+      <c r="T162">
         <f t="shared" si="32"/>
-        <v>0.67861815838962392</v>
-      </c>
-      <c r="T162">
-        <f t="shared" si="30"/>
         <v>0.1192896</v>
       </c>
       <c r="U162" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.5791455554465603</v>
       </c>
       <c r="V162">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.5734689939982189</v>
       </c>
     </row>
-    <row r="163" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P163" s="6">
         <v>385</v>
       </c>
@@ -19709,23 +21234,23 @@
         <v>38.842950155531945</v>
       </c>
       <c r="R163" s="5">
+        <f t="shared" si="34"/>
+        <v>0.67793737140207588</v>
+      </c>
+      <c r="T163">
         <f t="shared" si="32"/>
-        <v>0.67793737140207588</v>
-      </c>
-      <c r="T163">
-        <f t="shared" si="30"/>
         <v>0.1208592</v>
       </c>
       <c r="U163" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.5744531110646438</v>
       </c>
       <c r="V163">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.580178715154668</v>
       </c>
     </row>
-    <row r="164" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P164" s="6">
         <v>390</v>
       </c>
@@ -19733,23 +21258,23 @@
         <v>38.804264751533836</v>
       </c>
       <c r="R164" s="5">
+        <f t="shared" si="34"/>
+        <v>0.67726218372984481</v>
+      </c>
+      <c r="T164">
         <f t="shared" si="32"/>
-        <v>0.67726218372984481</v>
-      </c>
-      <c r="T164">
-        <f t="shared" si="30"/>
         <v>0.1224288</v>
       </c>
       <c r="U164" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.5697580972950362</v>
       </c>
       <c r="V164">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.5868102918867457</v>
       </c>
     </row>
-    <row r="165" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P165" s="6">
         <v>395</v>
       </c>
@@ -19757,23 +21282,23 @@
         <v>38.765893588225012</v>
       </c>
       <c r="R165" s="5">
+        <f t="shared" si="34"/>
+        <v>0.67659248059228527</v>
+      </c>
+      <c r="T165">
         <f t="shared" si="32"/>
-        <v>0.67659248059228527</v>
-      </c>
-      <c r="T165">
-        <f t="shared" si="30"/>
         <v>0.12399840000000001</v>
       </c>
       <c r="U165" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.5650605099124384</v>
       </c>
       <c r="V165">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.5933649887005199</v>
       </c>
     </row>
-    <row r="166" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P166" s="6">
         <v>400</v>
       </c>
@@ -19781,23 +21306,23 @@
         <v>38.72783027378518</v>
       </c>
       <c r="R166" s="5">
+        <f t="shared" si="34"/>
+        <v>0.67592815043108834</v>
+      </c>
+      <c r="T166">
         <f t="shared" si="32"/>
-        <v>0.67592815043108834</v>
-      </c>
-      <c r="T166">
-        <f t="shared" si="30"/>
         <v>0.12556799999999999</v>
       </c>
       <c r="U166" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.5603603446799621</v>
       </c>
       <c r="V166">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.5998440329977113</v>
       </c>
     </row>
-    <row r="167" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P167" s="6">
         <v>405</v>
       </c>
@@ -19805,23 +21330,23 @@
         <v>38.690068719352993</v>
       </c>
       <c r="R167" s="5">
+        <f t="shared" si="34"/>
+        <v>0.67526908697557564</v>
+      </c>
+      <c r="T167">
         <f t="shared" si="32"/>
-        <v>0.67526908697557564</v>
-      </c>
-      <c r="T167">
-        <f t="shared" si="30"/>
         <v>0.12713759999999999</v>
       </c>
       <c r="U167" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.5556575973490734</v>
       </c>
       <c r="V167">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.6062486169611931</v>
       </c>
     </row>
-    <row r="168" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P168" s="6">
         <v>410</v>
       </c>
@@ -19829,23 +21354,23 @@
         <v>38.6526031638235</v>
       </c>
       <c r="R168" s="5">
+        <f t="shared" si="34"/>
+        <v>0.67461518967549727</v>
+      </c>
+      <c r="T168">
         <f t="shared" si="32"/>
-        <v>0.67461518967549727</v>
-      </c>
-      <c r="T168">
-        <f t="shared" si="30"/>
         <v>0.12870719999999999</v>
       </c>
       <c r="U168" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.5509522636595641</v>
       </c>
       <c r="V168">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.6125798990818208</v>
       </c>
     </row>
-    <row r="169" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P169" s="6">
         <v>415</v>
       </c>
@@ -19853,23 +21378,23 @@
         <v>38.615427975136505</v>
       </c>
       <c r="R169" s="5">
+        <f t="shared" si="34"/>
+        <v>0.67396636023285905</v>
+      </c>
+      <c r="T169">
         <f t="shared" si="32"/>
-        <v>0.67396636023285905</v>
-      </c>
-      <c r="T169">
-        <f t="shared" si="30"/>
         <v>0.1302768</v>
       </c>
       <c r="U169" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.5462443393394913</v>
       </c>
       <c r="V169">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>5.6188390049426333</v>
       </c>
     </row>
-    <row r="170" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P170" s="6">
         <v>420</v>
       </c>
@@ -19877,23 +21402,23 @@
         <v>79</v>
       </c>
       <c r="R170" s="5">
+        <f t="shared" si="34"/>
+        <v>1.3788101090755203</v>
+      </c>
+      <c r="T170">
         <f t="shared" si="32"/>
-        <v>1.3788101090755203</v>
-      </c>
-      <c r="T170">
-        <f t="shared" si="30"/>
         <v>0.13184639999999997</v>
       </c>
       <c r="U170" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.5415338201051458</v>
       </c>
       <c r="V170">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.8970174826728028</v>
       </c>
     </row>
-    <row r="171" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P171" s="6">
         <v>425</v>
       </c>
@@ -19901,23 +21426,23 @@
         <v>80</v>
       </c>
       <c r="R171" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1.3962634015954636</v>
       </c>
       <c r="T171">
-        <f t="shared" ref="T171:T186" si="34">P171*$M$71*9.81*0.000001</f>
+        <f t="shared" ref="T171:T186" si="36">P171*$M$71*9.81*0.000001</f>
         <v>0.13341600000000001</v>
       </c>
       <c r="U171" s="6">
-        <f t="shared" ref="U171:U186" si="35">SQRT((2*($T$96-T171))/(($M$71+$N$71)*0.001))</f>
+        <f t="shared" ref="U171:U186" si="37">SQRT((2*($T$96-T171))/(($M$71+$N$71)*0.001))</f>
         <v>8.5368207016609929</v>
       </c>
       <c r="V171">
-        <f t="shared" ref="V171:V186" si="36">(COS(R171)*U171)*(SIN(R171)*U171+SQRT(SIN(R171)^2+2*9.81*P171*0.001))/9.81</f>
+        <f t="shared" ref="V171:V186" si="38">(COS(R171)*U171)*(SIN(R171)*U171+SQRT(SIN(R171)^2+2*9.81*P171*0.001))/9.81</f>
         <v>1.7314479492376185</v>
       </c>
     </row>
-    <row r="172" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P172" s="6">
         <v>430</v>
       </c>
@@ -19925,23 +21450,23 @@
         <v>81</v>
       </c>
       <c r="R172" s="5">
-        <f t="shared" ref="R172:R186" si="37">Q172/180*PI()</f>
+        <f t="shared" ref="R172:R186" si="39">Q172/180*PI()</f>
         <v>1.4137166941154069</v>
       </c>
       <c r="T172">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.13498560000000001</v>
       </c>
       <c r="U172" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>8.5321049796996391</v>
       </c>
       <c r="V172">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.5639679084936984</v>
       </c>
     </row>
-    <row r="173" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P173" s="6">
         <v>435</v>
       </c>
@@ -19949,23 +21474,23 @@
         <v>82</v>
       </c>
       <c r="R173" s="5">
+        <f t="shared" si="39"/>
+        <v>1.4311699866353502</v>
+      </c>
+      <c r="T173">
+        <f t="shared" si="36"/>
+        <v>0.13655520000000002</v>
+      </c>
+      <c r="U173" s="6">
         <f t="shared" si="37"/>
-        <v>1.4311699866353502</v>
-      </c>
-      <c r="T173">
-        <f t="shared" si="34"/>
-        <v>0.13655520000000002</v>
-      </c>
-      <c r="U173" s="6">
-        <f t="shared" si="35"/>
         <v>8.5273866499017785</v>
       </c>
       <c r="V173">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.3947531321910791</v>
       </c>
     </row>
-    <row r="174" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P174" s="6">
         <v>440</v>
       </c>
@@ -19973,23 +21498,23 @@
         <v>83</v>
       </c>
       <c r="R174" s="5">
+        <f t="shared" si="39"/>
+        <v>1.4486232791552935</v>
+      </c>
+      <c r="T174">
+        <f t="shared" si="36"/>
+        <v>0.13812480000000002</v>
+      </c>
+      <c r="U174" s="6">
         <f t="shared" si="37"/>
-        <v>1.4486232791552935</v>
-      </c>
-      <c r="T174">
-        <f t="shared" si="34"/>
-        <v>0.13812480000000002</v>
-      </c>
-      <c r="U174" s="6">
-        <f t="shared" si="35"/>
         <v>8.5226657079361487</v>
       </c>
       <c r="V174">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.2239806635530479</v>
       </c>
     </row>
-    <row r="175" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P175" s="6">
         <v>445</v>
       </c>
@@ -19997,23 +21522,23 @@
         <v>84</v>
       </c>
       <c r="R175" s="5">
+        <f t="shared" si="39"/>
+        <v>1.4660765716752369</v>
+      </c>
+      <c r="T175">
+        <f t="shared" si="36"/>
+        <v>0.1396944</v>
+      </c>
+      <c r="U175" s="6">
         <f t="shared" si="37"/>
-        <v>1.4660765716752369</v>
-      </c>
-      <c r="T175">
-        <f t="shared" si="34"/>
-        <v>0.1396944</v>
-      </c>
-      <c r="U175" s="6">
-        <f t="shared" si="35"/>
         <v>8.5179421494594845</v>
       </c>
       <c r="V175">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.0518286086404316</v>
       </c>
     </row>
-    <row r="176" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P176" s="6">
         <v>450</v>
       </c>
@@ -20021,23 +21546,23 @@
         <v>85</v>
       </c>
       <c r="R176" s="5">
+        <f t="shared" si="39"/>
+        <v>1.48352986419518</v>
+      </c>
+      <c r="T176">
+        <f t="shared" si="36"/>
+        <v>0.141264</v>
+      </c>
+      <c r="U176" s="6">
         <f t="shared" si="37"/>
-        <v>1.48352986419518</v>
-      </c>
-      <c r="T176">
-        <f t="shared" si="34"/>
-        <v>0.141264</v>
-      </c>
-      <c r="U176" s="6">
-        <f t="shared" si="35"/>
         <v>8.5132159701164714</v>
       </c>
       <c r="V176">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.87847592698617094</v>
       </c>
     </row>
-    <row r="177" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P177" s="6">
         <v>455</v>
       </c>
@@ -20045,23 +21570,23 @@
         <v>86</v>
       </c>
       <c r="R177" s="5">
+        <f t="shared" si="39"/>
+        <v>1.5009831567151235</v>
+      </c>
+      <c r="T177">
+        <f t="shared" si="36"/>
+        <v>0.14283360000000001</v>
+      </c>
+      <c r="U177" s="6">
         <f t="shared" si="37"/>
-        <v>1.5009831567151235</v>
-      </c>
-      <c r="T177">
-        <f t="shared" si="34"/>
-        <v>0.14283360000000001</v>
-      </c>
-      <c r="U177" s="6">
-        <f t="shared" si="35"/>
         <v>8.5084871655397016</v>
       </c>
       <c r="V177">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.70410222177012027</v>
       </c>
     </row>
-    <row r="178" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P178" s="6">
         <v>460</v>
       </c>
@@ -20069,23 +21594,23 @@
         <v>87</v>
       </c>
       <c r="R178" s="5">
+        <f t="shared" si="39"/>
+        <v>1.5184364492350666</v>
+      </c>
+      <c r="T178">
+        <f t="shared" si="36"/>
+        <v>0.14440320000000001</v>
+      </c>
+      <c r="U178" s="6">
         <f t="shared" si="37"/>
-        <v>1.5184364492350666</v>
-      </c>
-      <c r="T178">
-        <f t="shared" si="34"/>
-        <v>0.14440320000000001</v>
-      </c>
-      <c r="U178" s="6">
-        <f t="shared" si="35"/>
         <v>8.5037557313496208</v>
       </c>
       <c r="V178">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.52888752980362763</v>
       </c>
     </row>
-    <row r="179" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P179" s="6">
         <v>465</v>
       </c>
@@ -20093,23 +21618,23 @@
         <v>88</v>
       </c>
       <c r="R179" s="5">
+        <f t="shared" si="39"/>
+        <v>1.5358897417550099</v>
+      </c>
+      <c r="T179">
+        <f t="shared" si="36"/>
+        <v>0.14597280000000001</v>
+      </c>
+      <c r="U179" s="6">
         <f t="shared" si="37"/>
-        <v>1.5358897417550099</v>
-      </c>
-      <c r="T179">
-        <f t="shared" si="34"/>
-        <v>0.14597280000000001</v>
-      </c>
-      <c r="U179" s="6">
-        <f t="shared" si="35"/>
         <v>8.499021663154485</v>
       </c>
       <c r="V179">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.3530121115925427</v>
       </c>
     </row>
-    <row r="180" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P180" s="6">
         <v>470</v>
       </c>
@@ -20117,23 +21642,23 @@
         <v>89</v>
       </c>
       <c r="R180" s="5">
+        <f t="shared" si="39"/>
+        <v>1.5533430342749532</v>
+      </c>
+      <c r="T180">
+        <f t="shared" si="36"/>
+        <v>0.14754239999999999</v>
+      </c>
+      <c r="U180" s="6">
         <f t="shared" si="37"/>
-        <v>1.5533430342749532</v>
-      </c>
-      <c r="T180">
-        <f t="shared" si="34"/>
-        <v>0.14754239999999999</v>
-      </c>
-      <c r="U180" s="6">
-        <f t="shared" si="35"/>
         <v>8.4942849565503113</v>
       </c>
       <c r="V180">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.17665624174641054</v>
       </c>
     </row>
-    <row r="181" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P181" s="6">
         <v>475</v>
       </c>
@@ -20141,23 +21666,23 @@
         <v>90</v>
       </c>
       <c r="R181" s="5">
+        <f t="shared" si="39"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="T181">
+        <f t="shared" si="36"/>
+        <v>0.14911199999999999</v>
+      </c>
+      <c r="U181" s="6">
         <f t="shared" si="37"/>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="T181">
-        <f t="shared" si="34"/>
-        <v>0.14911199999999999</v>
-      </c>
-      <c r="U181" s="6">
-        <f t="shared" si="35"/>
         <v>8.4895456071208315</v>
       </c>
       <c r="V181">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>6.2034338425108378E-16</v>
       </c>
     </row>
-    <row r="182" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P182" s="6">
         <v>480</v>
       </c>
@@ -20165,23 +21690,23 @@
         <v>91</v>
       </c>
       <c r="R182" s="5">
+        <f t="shared" si="39"/>
+        <v>1.5882496193148399</v>
+      </c>
+      <c r="T182">
+        <f t="shared" si="36"/>
+        <v>0.1506816</v>
+      </c>
+      <c r="U182" s="6">
         <f t="shared" si="37"/>
-        <v>1.5882496193148399</v>
-      </c>
-      <c r="T182">
-        <f t="shared" si="34"/>
-        <v>0.1506816</v>
-      </c>
-      <c r="U182" s="6">
-        <f t="shared" si="35"/>
         <v>8.4848036104374458</v>
       </c>
       <c r="V182">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.17677693688826968</v>
       </c>
     </row>
-    <row r="183" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P183" s="6">
         <v>485</v>
       </c>
@@ -20189,23 +21714,23 @@
         <v>92</v>
       </c>
       <c r="R183" s="5">
+        <f t="shared" si="39"/>
+        <v>1.605702911834783</v>
+      </c>
+      <c r="T183">
+        <f t="shared" si="36"/>
+        <v>0.1522512</v>
+      </c>
+      <c r="U183" s="6">
         <f t="shared" si="37"/>
-        <v>1.605702911834783</v>
-      </c>
-      <c r="T183">
-        <f t="shared" si="34"/>
-        <v>0.1522512</v>
-      </c>
-      <c r="U183" s="6">
-        <f t="shared" si="35"/>
         <v>8.480058962059168</v>
       </c>
       <c r="V183">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.35349550209856712</v>
       </c>
     </row>
-    <row r="184" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P184" s="6">
         <v>490</v>
       </c>
@@ -20213,23 +21738,23 @@
         <v>93</v>
       </c>
       <c r="R184" s="5">
+        <f t="shared" si="39"/>
+        <v>1.6231562043547265</v>
+      </c>
+      <c r="T184">
+        <f t="shared" si="36"/>
+        <v>0.15382080000000001</v>
+      </c>
+      <c r="U184" s="6">
         <f t="shared" si="37"/>
-        <v>1.6231562043547265</v>
-      </c>
-      <c r="T184">
-        <f t="shared" si="34"/>
-        <v>0.15382080000000001</v>
-      </c>
-      <c r="U184" s="6">
-        <f t="shared" si="35"/>
         <v>8.4753116575325826</v>
       </c>
       <c r="V184">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.52997744431245319</v>
       </c>
     </row>
-    <row r="185" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P185" s="6">
         <v>495</v>
       </c>
@@ -20237,23 +21762,23 @@
         <v>94</v>
       </c>
       <c r="R185" s="5">
+        <f t="shared" si="39"/>
+        <v>1.6406094968746698</v>
+      </c>
+      <c r="T185">
+        <f t="shared" si="36"/>
+        <v>0.15539039999999998</v>
+      </c>
+      <c r="U185" s="6">
         <f t="shared" si="37"/>
-        <v>1.6406094968746698</v>
-      </c>
-      <c r="T185">
-        <f t="shared" si="34"/>
-        <v>0.15539039999999998</v>
-      </c>
-      <c r="U185" s="6">
-        <f t="shared" si="35"/>
         <v>8.4705616923917972</v>
       </c>
       <c r="V185">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.70604553161881656</v>
       </c>
     </row>
-    <row r="186" spans="16:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="16:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="P186" s="5">
         <v>500</v>
       </c>
@@ -20261,19 +21786,19 @@
         <v>37.214575566145463</v>
       </c>
       <c r="R186" s="5">
+        <f t="shared" si="39"/>
+        <v>0.64951687336147113</v>
+      </c>
+      <c r="T186">
+        <f t="shared" si="36"/>
+        <v>0.15695999999999999</v>
+      </c>
+      <c r="U186" s="6">
         <f t="shared" si="37"/>
-        <v>0.64951687336147113</v>
-      </c>
-      <c r="T186">
-        <f t="shared" si="34"/>
-        <v>0.15695999999999999</v>
-      </c>
-      <c r="U186" s="6">
-        <f t="shared" si="35"/>
         <v>8.465809062158387</v>
       </c>
       <c r="V186">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5.7111454564682003</v>
       </c>
     </row>
@@ -20376,32 +21901,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>190</v>
       </c>

--- a/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
+++ b/Mekanisk produktanalyse/Projekt 2/databehandling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DTU\Github\DTU-projekter\Mekanisk produktanalyse\Projekt 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242E7431-6BB5-47E3-A20F-A7E80362EDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2499DDC7-1FBD-4338-9C20-E3F847A9D245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="180" windowWidth="26137" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="8" windowWidth="26775" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="72">
   <si>
     <t>ubelastet længde</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>[Nm][J]</t>
+  </si>
+  <si>
+    <t>dobbeltløkke</t>
   </si>
 </sst>
 </file>
@@ -541,6 +544,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -559,7 +563,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8064,12 +8067,18 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="3"/>
+            <c:order val="5"/>
             <c:intercept val="0"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.8745429841978447E-3"/>
+                  <c:y val="-1.4323318726417057E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.0000000000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -13580,11 +13589,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="39" fmlaLink="R71" max="60" min="15" page="10" val="41"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="39" fmlaLink="R71" max="60" min="15" page="10" val="45"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="39" fmlaLink="$T$71" inc="2" max="6" min="2" page="10" val="4"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="39" fmlaLink="$T$71" inc="2" max="6" min="2" page="10" val="2"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14059,7 +14068,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23645295-A407-43D6-8B03-80DBFF7F9AA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14347,8 +14356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AP84" sqref="AP84"/>
+    <sheetView tabSelected="1" topLeftCell="AB62" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="AL92" sqref="AL92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14365,10 +14374,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="21" x14ac:dyDescent="0.65">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -14582,10 +14591,10 @@
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
-      <c r="AG6" s="30" t="s">
+      <c r="AG6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AH6" s="31" t="s">
+      <c r="AH6" s="32" t="s">
         <v>32</v>
       </c>
     </row>
@@ -14653,8 +14662,8 @@
       </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="31"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="32"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
@@ -16147,10 +16156,10 @@
       </c>
     </row>
     <row r="34" spans="1:35" ht="21" x14ac:dyDescent="0.65">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="29"/>
+      <c r="B34" s="30"/>
     </row>
     <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
@@ -16187,13 +16196,13 @@
       </c>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
-      <c r="AG35" s="26" t="s">
+      <c r="AG35" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="AH35" s="26" t="s">
+      <c r="AH35" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="AI35" s="26" t="s">
+      <c r="AI35" s="27" t="s">
         <v>67</v>
       </c>
     </row>
@@ -16245,18 +16254,18 @@
         <f>(SUM(C36+G36+K36+O36+S36)/5)</f>
         <v>60.1</v>
       </c>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="26"/>
+      <c r="AG36" s="27"/>
+      <c r="AH36" s="27"/>
+      <c r="AI36" s="27"/>
     </row>
     <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="AG37" s="27" t="s">
+      <c r="AG37" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="AH37" s="27" t="s">
+      <c r="AH37" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="AI37" s="27" t="s">
+      <c r="AI37" s="28" t="s">
         <v>66</v>
       </c>
     </row>
@@ -16316,9 +16325,9 @@
       <c r="U38" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AG38" s="27"/>
-      <c r="AH38" s="27"/>
-      <c r="AI38" s="27"/>
+      <c r="AG38" s="28"/>
+      <c r="AH38" s="28"/>
+      <c r="AI38" s="28"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
@@ -18264,12 +18273,12 @@
       </c>
     </row>
     <row r="68" spans="1:40" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="28"/>
+      <c r="B68" s="29"/>
       <c r="AK68" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="AL68" t="s">
         <v>61</v>
@@ -18327,7 +18336,7 @@
         <v>10</v>
       </c>
       <c r="AK69" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="AL69" t="s">
         <v>60</v>
@@ -18435,14 +18444,14 @@
         <v>100</v>
       </c>
       <c r="R71">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="S71" s="22">
         <f>R71/180*PI()</f>
-        <v>0.71558499331767511</v>
+        <v>0.78539816339744828</v>
       </c>
       <c r="T71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V71" s="21">
         <f>$P$71*9.81*$M$71*0.000001</f>
@@ -18476,10 +18485,10 @@
         <v>0</v>
       </c>
       <c r="AK72" s="21">
-        <f>0.00003*AJ72^3-0.0029*AJ72^2+0.1312*AJ72</f>
+        <f>0.0000000184*AJ72^5 - 0.0000039193*AJ72^4 + 0.0002842726*AJ72^3 - 0.0078956222*AJ72^2 + 0.1281388115*AJ72</f>
         <v>0</v>
       </c>
-      <c r="AL72" s="32"/>
+      <c r="AL72" s="26"/>
       <c r="AM72" s="21"/>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.45">
@@ -18511,12 +18520,12 @@
         <v>5</v>
       </c>
       <c r="AK73" s="21">
-        <f t="shared" ref="AK73:AK92" si="23">0.00003*AJ73^3-0.0029*AJ73^2+0.1312*AJ73</f>
-        <v>0.58725000000000005</v>
-      </c>
-      <c r="AL73" s="32">
+        <f t="shared" ref="AK73:AK92" si="23">0.0000000184*AJ73^5 - 0.0000039193*AJ73^4 + 0.0002842726*AJ73^3 - 0.0078956222*AJ73^2 + 0.1281388115*AJ73</f>
+        <v>0.47644551499999993</v>
+      </c>
+      <c r="AL73" s="26">
         <f>$T$71*(AJ73-AJ72)*((AK72+AK73)/2)*0.001+AL72</f>
-        <v>5.872500000000001E-3</v>
+        <v>2.3822275749999997E-3</v>
       </c>
       <c r="AM73" s="21"/>
       <c r="AN73" s="21"/>
@@ -18557,11 +18566,11 @@
       </c>
       <c r="AK74" s="21">
         <f t="shared" si="23"/>
-        <v>1.052</v>
-      </c>
-      <c r="AL74" s="32">
+        <v>0.73874549499999986</v>
+      </c>
+      <c r="AL74" s="26">
         <f t="shared" ref="AL74:AL92" si="24">$T$71*(AJ74-AJ73)*((AK73+AK74)/2)*0.001+AL73</f>
-        <v>2.2265E-2</v>
+        <v>8.4581826249999978E-3</v>
       </c>
       <c r="AM74" s="21"/>
       <c r="AN74" s="21"/>
@@ -18611,11 +18620,11 @@
       </c>
       <c r="AK75" s="21">
         <f t="shared" si="23"/>
-        <v>1.4167500000000002</v>
-      </c>
-      <c r="AL75" s="32">
+        <v>0.92054513999999998</v>
+      </c>
+      <c r="AL75" s="26">
         <f t="shared" si="24"/>
-        <v>4.6952500000000001E-2</v>
+        <v>1.6754635799999997E-2</v>
       </c>
       <c r="AM75" s="21"/>
       <c r="AN75" s="21"/>
@@ -18665,11 +18674,11 @@
       </c>
       <c r="AK76" s="21">
         <f t="shared" si="23"/>
-        <v>1.7040000000000002</v>
-      </c>
-      <c r="AL76" s="32">
+        <v>1.1105001499999996</v>
+      </c>
+      <c r="AL76" s="26">
         <f t="shared" si="24"/>
-        <v>7.8160000000000007E-2</v>
+        <v>2.6909862249999996E-2</v>
       </c>
       <c r="AM76" s="21"/>
       <c r="AN76" s="21"/>
@@ -18709,11 +18718,11 @@
       </c>
       <c r="AK77" s="21">
         <f t="shared" si="23"/>
-        <v>1.9362500000000005</v>
-      </c>
-      <c r="AL77" s="32">
+        <v>1.3591767249999993</v>
+      </c>
+      <c r="AL77" s="26">
         <f t="shared" si="24"/>
-        <v>0.11456250000000001</v>
+        <v>3.9258246624999993E-2</v>
       </c>
       <c r="AM77" s="21"/>
       <c r="AN77" s="21"/>
@@ -18765,11 +18774,11 @@
       </c>
       <c r="AK78" s="21">
         <f t="shared" si="23"/>
-        <v>2.1360000000000006</v>
-      </c>
-      <c r="AL78" s="32">
+        <v>1.6859515649999999</v>
+      </c>
+      <c r="AL78" s="26">
         <f t="shared" si="24"/>
-        <v>0.15528500000000001</v>
+        <v>5.4483888074999987E-2</v>
       </c>
       <c r="AM78" s="21"/>
       <c r="AN78" s="21"/>
@@ -18813,11 +18822,11 @@
       </c>
       <c r="T79" s="21">
         <f>$T$71*(P79-P78)*((S78+S79)/2)*0.001+T78</f>
-        <v>4.8395750000000001E-2</v>
+        <v>2.4197875000000001E-2</v>
       </c>
       <c r="U79" s="21">
         <f t="shared" ref="U79:U95" si="29">SQRT((2*($T79))/(($M$71+$N$71)*0.001))</f>
-        <v>1.5753835511815315</v>
+        <v>1.1139643920102054</v>
       </c>
       <c r="V79" s="21"/>
       <c r="W79" s="21"/>
@@ -18831,11 +18840,11 @@
       </c>
       <c r="AK79" s="21">
         <f t="shared" si="23"/>
-        <v>2.3257500000000011</v>
-      </c>
-      <c r="AL79" s="32">
+        <v>2.0859118700000003</v>
+      </c>
+      <c r="AL79" s="26">
         <f t="shared" si="24"/>
-        <v>0.19990250000000004</v>
+        <v>7.3343205249999988E-2</v>
       </c>
       <c r="AM79" s="21"/>
       <c r="AN79" s="21"/>
@@ -18879,11 +18888,11 @@
       </c>
       <c r="T80" s="21">
         <f t="shared" ref="T80:T96" si="30">$T$71*(P80-P79)*((S79+S80)/2)*0.001+T79</f>
-        <v>0.11077150000000001</v>
+        <v>5.5385750000000004E-2</v>
       </c>
       <c r="U80" s="21">
         <f>SQRT((2*($T80))/(($M$71+$N$71)*0.001))</f>
-        <v>2.3833987798078908</v>
+        <v>1.6853174394739028</v>
       </c>
       <c r="V80" s="21"/>
       <c r="W80" s="21"/>
@@ -18897,11 +18906,11 @@
       </c>
       <c r="AK80" s="21">
         <f t="shared" si="23"/>
-        <v>2.5280000000000005</v>
-      </c>
-      <c r="AL80" s="32">
+        <v>2.5367553399999974</v>
+      </c>
+      <c r="AL80" s="26">
         <f t="shared" si="24"/>
-        <v>0.24844000000000005</v>
+        <v>9.6456541299999976E-2</v>
       </c>
       <c r="AM80" s="21"/>
       <c r="AN80" s="21"/>
@@ -18938,11 +18947,11 @@
       </c>
       <c r="T81" s="21">
         <f t="shared" si="30"/>
-        <v>0.18247475000000002</v>
+        <v>9.1237375000000009E-2</v>
       </c>
       <c r="U81" s="21">
         <f t="shared" si="29"/>
-        <v>3.0590324429759632</v>
+        <v>2.1630625842979541</v>
       </c>
       <c r="V81" s="21"/>
       <c r="W81" s="21"/>
@@ -18956,11 +18965,11 @@
       </c>
       <c r="AK81" s="21">
         <f t="shared" si="23"/>
-        <v>2.7652500000000013</v>
-      </c>
-      <c r="AL81" s="32">
+        <v>3.0056901750000007</v>
+      </c>
+      <c r="AL81" s="26">
         <f t="shared" si="24"/>
-        <v>0.30137250000000004</v>
+        <v>0.12416876887499997</v>
       </c>
       <c r="AM81" s="21"/>
       <c r="AN81" s="21"/>
@@ -18997,11 +19006,11 @@
       </c>
       <c r="T82" s="21">
         <f t="shared" si="30"/>
-        <v>0.25961800000000002</v>
+        <v>0.12980900000000001</v>
       </c>
       <c r="U82" s="21">
         <f t="shared" si="29"/>
-        <v>3.6488002945822604</v>
+        <v>2.5800914314945889</v>
       </c>
       <c r="V82" s="21"/>
       <c r="W82" s="21"/>
@@ -19015,11 +19024,11 @@
       </c>
       <c r="AK82" s="21">
         <f t="shared" si="23"/>
-        <v>3.0600000000000014</v>
-      </c>
-      <c r="AL82" s="32">
+        <v>3.4563350749999984</v>
+      </c>
+      <c r="AL82" s="26">
         <f t="shared" si="24"/>
-        <v>0.35962500000000008</v>
+        <v>0.15647889512499996</v>
       </c>
       <c r="AM82" s="21"/>
       <c r="AN82" s="21"/>
@@ -19056,11 +19065,11 @@
       </c>
       <c r="T83" s="21">
         <f t="shared" si="30"/>
-        <v>0.33907875000000004</v>
+        <v>0.16953937500000002</v>
       </c>
       <c r="U83" s="21">
         <f>SQRT((2*($T83))/(($M$71+$N$71)*0.001))</f>
-        <v>4.169970485045889</v>
+        <v>2.9486144073237051</v>
       </c>
       <c r="V83" s="21"/>
       <c r="W83" s="21"/>
@@ -19074,11 +19083,11 @@
       </c>
       <c r="AK83" s="21">
         <f t="shared" si="23"/>
-        <v>3.4347500000000011</v>
-      </c>
-      <c r="AL83" s="32">
+        <v>3.8556192400000038</v>
+      </c>
+      <c r="AL83" s="26">
         <f t="shared" si="24"/>
-        <v>0.42457250000000013</v>
+        <v>0.19303866669999997</v>
       </c>
       <c r="AM83" s="21"/>
       <c r="AN83" s="21"/>
@@ -19115,11 +19124,11 @@
       </c>
       <c r="T84" s="21">
         <f>$T$71*(P84-P83)*((S83+S84)/2)*0.001+T83</f>
-        <v>0.41849950000000002</v>
+        <v>0.20924975000000001</v>
       </c>
       <c r="U84" s="21">
         <f t="shared" si="29"/>
-        <v>4.6326572094763092</v>
+        <v>3.2757833277334463</v>
       </c>
       <c r="V84" s="21"/>
       <c r="W84" s="21"/>
@@ -19133,11 +19142,11 @@
       </c>
       <c r="AK84" s="21">
         <f t="shared" si="23"/>
-        <v>3.9120000000000017</v>
-      </c>
-      <c r="AL84" s="32">
+        <v>4.1806823699999978</v>
+      </c>
+      <c r="AL84" s="26">
         <f t="shared" si="24"/>
-        <v>0.49804000000000015</v>
+        <v>0.23322017474999998</v>
       </c>
       <c r="AM84" s="21"/>
       <c r="AN84" s="21"/>
@@ -19174,11 +19183,11 @@
       </c>
       <c r="T85" s="21">
         <f t="shared" si="30"/>
-        <v>0.49628775000000003</v>
+        <v>0.24814387500000001</v>
       </c>
       <c r="U85" s="21">
         <f t="shared" si="29"/>
-        <v>5.0448641058163153</v>
+        <v>3.5672576193873247</v>
       </c>
       <c r="V85" s="21"/>
       <c r="W85" s="21"/>
@@ -19192,11 +19201,11 @@
       </c>
       <c r="AK85" s="21">
         <f t="shared" si="23"/>
-        <v>4.5142500000000005</v>
-      </c>
-      <c r="AL85" s="32">
+        <v>4.4257746650000005</v>
+      </c>
+      <c r="AL85" s="26">
         <f t="shared" si="24"/>
-        <v>0.58230250000000017</v>
+        <v>0.27625245992499997</v>
       </c>
       <c r="AM85" s="21"/>
       <c r="AN85" s="21"/>
@@ -19233,11 +19242,11 @@
       </c>
       <c r="T86" s="21">
         <f t="shared" si="30"/>
-        <v>0.57161600000000001</v>
+        <v>0.28580800000000001</v>
       </c>
       <c r="U86" s="21">
         <f t="shared" si="29"/>
-        <v>5.4142073312388979</v>
+        <v>3.8284227186689446</v>
       </c>
       <c r="V86" s="21"/>
       <c r="W86" s="21"/>
@@ -19251,11 +19260,11 @@
       </c>
       <c r="AK86" s="21">
         <f t="shared" si="23"/>
-        <v>5.2640000000000029</v>
-      </c>
-      <c r="AL86" s="32">
+        <v>4.6091568250000101</v>
+      </c>
+      <c r="AL86" s="26">
         <f t="shared" si="24"/>
-        <v>0.68008500000000016</v>
+        <v>0.32142711737500002</v>
       </c>
       <c r="AM86" s="21"/>
       <c r="AN86" s="21"/>
@@ -19292,11 +19301,11 @@
       </c>
       <c r="T87" s="21">
         <f>$T$71*(P87-P86)*((S86+S87)/2)*0.001+T86</f>
-        <v>0.64442175000000002</v>
+        <v>0.32221087500000001</v>
       </c>
       <c r="U87" s="21">
         <f t="shared" si="29"/>
-        <v>5.7486754327209351</v>
+        <v>4.0649273813174833</v>
       </c>
       <c r="V87" s="21"/>
       <c r="W87" s="21"/>
@@ -19310,11 +19319,11 @@
       </c>
       <c r="AK87" s="21">
         <f t="shared" si="23"/>
-        <v>6.1837500000000016</v>
-      </c>
-      <c r="AL87" s="32">
+        <v>4.7800000500000017</v>
+      </c>
+      <c r="AL87" s="26">
         <f t="shared" si="24"/>
-        <v>0.79456250000000017</v>
+        <v>0.36837290175000009</v>
       </c>
       <c r="AM87" s="21"